--- a/info/region_info.xlsx
+++ b/info/region_info.xlsx
@@ -504,14 +504,20 @@
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="n">
-        <v>30</v>
-      </c>
-      <c r="D2" t="n">
-        <v>25</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F2" t="n">
         <v>-99999</v>
@@ -544,14 +550,20 @@
       <c r="B3" t="n">
         <v>0</v>
       </c>
-      <c r="C3" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-99999</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F3" t="n">
         <v>-99999</v>
@@ -584,14 +596,20 @@
       <c r="B4" t="n">
         <v>0</v>
       </c>
-      <c r="C4" t="n">
-        <v>-237</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E4" t="n">
-        <v>-99999</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>-237</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F4" t="n">
         <v>-99999</v>
@@ -624,14 +642,20 @@
       <c r="B5" t="n">
         <v>0</v>
       </c>
-      <c r="C5" t="n">
-        <v>20</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="F5" t="n">
         <v>-10</v>
@@ -664,14 +688,20 @@
       <c r="B6" t="n">
         <v>0</v>
       </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-10</v>
-      </c>
-      <c r="E6" t="n">
-        <v>-20</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>-10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>-20</t>
+        </is>
       </c>
       <c r="F6" t="n">
         <v>-99999</v>
@@ -704,14 +734,20 @@
       <c r="B7" t="n">
         <v>0</v>
       </c>
-      <c r="C7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>-10</v>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>-10</t>
+        </is>
       </c>
       <c r="F7" t="n">
         <v>-99999</v>
@@ -744,14 +780,20 @@
       <c r="B8" t="n">
         <v>0</v>
       </c>
-      <c r="C8" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D8" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E8" t="n">
-        <v>-99999</v>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F8" t="n">
         <v>-99999</v>
@@ -784,14 +826,20 @@
       <c r="B9" t="n">
         <v>0</v>
       </c>
-      <c r="C9" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D9" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E9" t="n">
-        <v>-99999</v>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F9" t="n">
         <v>-99999</v>
@@ -824,14 +872,20 @@
       <c r="B10" t="n">
         <v>0</v>
       </c>
-      <c r="C10" t="n">
-        <v>-13</v>
-      </c>
-      <c r="D10" t="n">
-        <v>-15</v>
-      </c>
-      <c r="E10" t="n">
-        <v>-17</v>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>-13</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>-17</t>
+        </is>
       </c>
       <c r="F10" t="n">
         <v>-99999</v>
@@ -864,14 +918,20 @@
       <c r="B11" t="n">
         <v>0</v>
       </c>
-      <c r="C11" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E11" t="n">
-        <v>-99999</v>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F11" t="n">
         <v>-99999</v>
@@ -904,14 +964,20 @@
       <c r="B12" t="n">
         <v>0</v>
       </c>
-      <c r="C12" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E12" t="n">
-        <v>-99999</v>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F12" t="n">
         <v>-99999</v>
@@ -944,14 +1010,20 @@
       <c r="B13" t="n">
         <v>0</v>
       </c>
-      <c r="C13" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E13" t="n">
-        <v>-99999</v>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F13" t="n">
         <v>-99999</v>
@@ -984,14 +1056,20 @@
       <c r="B14" t="n">
         <v>0</v>
       </c>
-      <c r="C14" t="n">
-        <v>-12</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-14</v>
-      </c>
-      <c r="E14" t="n">
-        <v>-16</v>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>-12</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>-14</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>-16</t>
+        </is>
       </c>
       <c r="F14" t="n">
         <v>-99999</v>
@@ -1024,14 +1102,20 @@
       <c r="B15" t="n">
         <v>0</v>
       </c>
-      <c r="C15" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D15" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E15" t="n">
-        <v>-99999</v>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F15" t="n">
         <v>-99999</v>
@@ -1064,14 +1148,20 @@
       <c r="B16" t="n">
         <v>0</v>
       </c>
-      <c r="C16" t="n">
-        <v>-17</v>
-      </c>
-      <c r="D16" t="n">
-        <v>-17</v>
-      </c>
-      <c r="E16" t="n">
-        <v>-17</v>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>-17</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>-17</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>-17</t>
+        </is>
       </c>
       <c r="F16" t="n">
         <v>-99999</v>
@@ -1104,14 +1194,20 @@
       <c r="B17" t="n">
         <v>0</v>
       </c>
-      <c r="C17" t="n">
-        <v>-13</v>
-      </c>
-      <c r="D17" t="n">
-        <v>-15</v>
-      </c>
-      <c r="E17" t="n">
-        <v>-20</v>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>-13</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>-20</t>
+        </is>
       </c>
       <c r="F17" t="n">
         <v>-99999</v>
@@ -1144,14 +1240,20 @@
       <c r="B18" t="n">
         <v>0</v>
       </c>
-      <c r="C18" t="n">
-        <v>-16</v>
-      </c>
-      <c r="D18" t="n">
-        <v>-18</v>
-      </c>
-      <c r="E18" t="n">
-        <v>-20</v>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>-16</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>-18</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>-20</t>
+        </is>
       </c>
       <c r="F18" t="n">
         <v>-99999</v>
@@ -1184,14 +1286,20 @@
       <c r="B19" t="n">
         <v>0</v>
       </c>
-      <c r="C19" t="n">
-        <v>-15</v>
-      </c>
-      <c r="D19" t="n">
-        <v>-16</v>
-      </c>
-      <c r="E19" t="n">
-        <v>-17</v>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>-16</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>-17</t>
+        </is>
       </c>
       <c r="F19" t="n">
         <v>-99999</v>
@@ -1224,14 +1332,20 @@
       <c r="B20" t="n">
         <v>0</v>
       </c>
-      <c r="C20" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D20" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E20" t="n">
-        <v>-99999</v>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F20" t="n">
         <v>-99999</v>
@@ -1264,14 +1378,20 @@
       <c r="B21" t="n">
         <v>0</v>
       </c>
-      <c r="C21" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D21" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E21" t="n">
-        <v>-99999</v>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F21" t="n">
         <v>-99999</v>
@@ -1304,14 +1424,20 @@
       <c r="B22" t="n">
         <v>0</v>
       </c>
-      <c r="C22" t="n">
-        <v>10</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>-20</v>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>-20</t>
+        </is>
       </c>
       <c r="F22" t="n">
         <v>-25</v>
@@ -1344,14 +1470,20 @@
       <c r="B23" t="n">
         <v>0</v>
       </c>
-      <c r="C23" t="n">
-        <v>10</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>-20</v>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>-20</t>
+        </is>
       </c>
       <c r="F23" t="n">
         <v>-25</v>
@@ -1384,14 +1516,20 @@
       <c r="B24" t="n">
         <v>0</v>
       </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>-20</v>
-      </c>
-      <c r="E24" t="n">
-        <v>-25</v>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>-20</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>-25</t>
+        </is>
       </c>
       <c r="F24" t="n">
         <v>-30</v>
@@ -1424,14 +1562,20 @@
       <c r="B25" t="n">
         <v>0</v>
       </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>-20</v>
-      </c>
-      <c r="E25" t="n">
-        <v>-25</v>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>-20</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>-25</t>
+        </is>
       </c>
       <c r="F25" t="n">
         <v>-30</v>
@@ -1464,14 +1608,20 @@
       <c r="B26" t="n">
         <v>0</v>
       </c>
-      <c r="C26" t="n">
-        <v>-20</v>
-      </c>
-      <c r="D26" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E26" t="n">
-        <v>-30</v>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>-20</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>-25</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>-30</t>
+        </is>
       </c>
       <c r="F26" t="n">
         <v>-40</v>
@@ -1504,14 +1654,20 @@
       <c r="B27" t="n">
         <v>0</v>
       </c>
-      <c r="C27" t="n">
-        <v>-20</v>
-      </c>
-      <c r="D27" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E27" t="n">
-        <v>-30</v>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>-20</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>-25</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>-30</t>
+        </is>
       </c>
       <c r="F27" t="n">
         <v>-40</v>
@@ -1544,14 +1700,20 @@
       <c r="B28" t="n">
         <v>0</v>
       </c>
-      <c r="C28" t="n">
-        <v>-60</v>
-      </c>
-      <c r="D28" t="n">
-        <v>-80</v>
-      </c>
-      <c r="E28" t="n">
-        <v>-100</v>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>-60</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>-80</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>-100</t>
+        </is>
       </c>
       <c r="F28" t="n">
         <v>-120</v>
@@ -1584,14 +1746,20 @@
       <c r="B29" t="n">
         <v>0</v>
       </c>
-      <c r="C29" t="n">
-        <v>-60</v>
-      </c>
-      <c r="D29" t="n">
-        <v>-80</v>
-      </c>
-      <c r="E29" t="n">
-        <v>-100</v>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>-60</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>-80</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>-100</t>
+        </is>
       </c>
       <c r="F29" t="n">
         <v>-120</v>
@@ -1624,14 +1792,20 @@
       <c r="B30" t="n">
         <v>0</v>
       </c>
-      <c r="C30" t="n">
-        <v>-60</v>
-      </c>
-      <c r="D30" t="n">
-        <v>-80</v>
-      </c>
-      <c r="E30" t="n">
-        <v>-100</v>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>-60</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>-80</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>-100</t>
+        </is>
       </c>
       <c r="F30" t="n">
         <v>-120</v>
@@ -1670,8 +1844,10 @@
       <c r="D31" t="n">
         <v>-1.6</v>
       </c>
-      <c r="E31" t="n">
-        <v>-99999</v>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F31" t="n">
         <v>-99999</v>
@@ -1750,8 +1926,10 @@
       <c r="D33" t="n">
         <v>-1.2</v>
       </c>
-      <c r="E33" t="n">
-        <v>-99999</v>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F33" t="n">
         <v>-99999</v>
@@ -1784,14 +1962,20 @@
       <c r="B34" t="n">
         <v>0</v>
       </c>
-      <c r="C34" t="n">
-        <v>-20</v>
-      </c>
-      <c r="D34" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E34" t="n">
-        <v>-35</v>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>-20</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>-25</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>-35</t>
+        </is>
       </c>
       <c r="F34" t="n">
         <v>-40</v>
@@ -1824,14 +2008,20 @@
       <c r="B35" t="n">
         <v>0</v>
       </c>
-      <c r="C35" t="n">
-        <v>-40</v>
-      </c>
-      <c r="D35" t="n">
-        <v>-50</v>
-      </c>
-      <c r="E35" t="n">
-        <v>-55</v>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>-40</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>-50</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>-55</t>
+        </is>
       </c>
       <c r="F35" t="n">
         <v>-60</v>
@@ -1864,14 +2054,20 @@
       <c r="B36" t="n">
         <v>0</v>
       </c>
-      <c r="C36" t="n">
-        <v>-20</v>
-      </c>
-      <c r="D36" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E36" t="n">
-        <v>-99999</v>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>-20</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F36" t="n">
         <v>-99999</v>
@@ -1904,14 +2100,20 @@
       <c r="B37" t="n">
         <v>0</v>
       </c>
-      <c r="C37" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" t="n">
-        <v>-20</v>
-      </c>
-      <c r="E37" t="n">
-        <v>-40</v>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>-20</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>-40</t>
+        </is>
       </c>
       <c r="F37" t="n">
         <v>-99999</v>
@@ -1944,14 +2146,20 @@
       <c r="B38" t="n">
         <v>0</v>
       </c>
-      <c r="C38" t="n">
-        <v>-40</v>
-      </c>
-      <c r="D38" t="n">
-        <v>-50</v>
-      </c>
-      <c r="E38" t="n">
-        <v>-60</v>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>-40</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>-50</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>-60</t>
+        </is>
       </c>
       <c r="F38" t="n">
         <v>-99999</v>
@@ -1984,14 +2192,20 @@
       <c r="B39" t="n">
         <v>0</v>
       </c>
-      <c r="C39" t="n">
-        <v>-170</v>
-      </c>
-      <c r="D39" t="n">
-        <v>-180</v>
-      </c>
-      <c r="E39" t="n">
-        <v>-190</v>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>-170</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>-180</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>-190</t>
+        </is>
       </c>
       <c r="F39" t="n">
         <v>-99999</v>
@@ -2024,14 +2238,20 @@
       <c r="B40" t="n">
         <v>0</v>
       </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E40" t="n">
-        <v>-10</v>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>-10</t>
+        </is>
       </c>
       <c r="F40" t="n">
         <v>-15</v>
@@ -2064,14 +2284,20 @@
       <c r="B41" t="n">
         <v>0</v>
       </c>
-      <c r="C41" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D41" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E41" t="n">
-        <v>-99999</v>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F41" t="n">
         <v>-99999</v>
@@ -2104,14 +2330,20 @@
       <c r="B42" t="n">
         <v>0</v>
       </c>
-      <c r="C42" t="n">
-        <v>5</v>
-      </c>
-      <c r="D42" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E42" t="n">
-        <v>-99999</v>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F42" t="n">
         <v>-99999</v>
@@ -2144,14 +2376,20 @@
       <c r="B43" t="n">
         <v>0</v>
       </c>
-      <c r="C43" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D43" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E43" t="n">
-        <v>-99999</v>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F43" t="n">
         <v>-99999</v>
@@ -2184,14 +2422,20 @@
       <c r="B44" t="n">
         <v>0</v>
       </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E44" t="n">
-        <v>-10</v>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>-10</t>
+        </is>
       </c>
       <c r="F44" t="n">
         <v>-20</v>
@@ -2224,14 +2468,20 @@
       <c r="B45" t="n">
         <v>0</v>
       </c>
-      <c r="C45" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D45" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E45" t="n">
-        <v>-99999</v>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F45" t="n">
         <v>-99999</v>
@@ -2264,14 +2514,20 @@
       <c r="B46" t="n">
         <v>0</v>
       </c>
-      <c r="C46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E46" t="n">
-        <v>-10</v>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>-10</t>
+        </is>
       </c>
       <c r="F46" t="n">
         <v>-20</v>
@@ -2304,14 +2560,20 @@
       <c r="B47" t="n">
         <v>0</v>
       </c>
-      <c r="C47" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D47" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E47" t="n">
-        <v>-99999</v>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F47" t="n">
         <v>-99999</v>
@@ -2344,14 +2606,20 @@
       <c r="B48" t="n">
         <v>0</v>
       </c>
-      <c r="C48" t="n">
-        <v>5</v>
-      </c>
-      <c r="D48" t="n">
-        <v>5</v>
-      </c>
-      <c r="E48" t="n">
-        <v>-99999</v>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F48" t="n">
         <v>-99999</v>
@@ -2384,14 +2652,20 @@
       <c r="B49" t="n">
         <v>0</v>
       </c>
-      <c r="C49" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D49" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E49" t="n">
-        <v>-99999</v>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F49" t="n">
         <v>-99999</v>
@@ -2424,14 +2698,20 @@
       <c r="B50" t="n">
         <v>0</v>
       </c>
-      <c r="C50" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D50" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E50" t="n">
-        <v>-99999</v>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F50" t="n">
         <v>-99999</v>
@@ -2464,14 +2744,20 @@
       <c r="B51" t="n">
         <v>0</v>
       </c>
-      <c r="C51" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D51" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E51" t="n">
-        <v>-99999</v>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F51" t="n">
         <v>-99999</v>
@@ -2504,14 +2790,20 @@
       <c r="B52" t="n">
         <v>0</v>
       </c>
-      <c r="C52" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D52" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E52" t="n">
-        <v>-99999</v>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F52" t="n">
         <v>-99999</v>
@@ -2544,14 +2836,20 @@
       <c r="B53" t="n">
         <v>0</v>
       </c>
-      <c r="C53" t="n">
-        <v>-185</v>
-      </c>
-      <c r="D53" t="n">
-        <v>-195</v>
-      </c>
-      <c r="E53" t="n">
-        <v>-99999</v>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>-185</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>-195</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F53" t="n">
         <v>-99999</v>
@@ -2584,14 +2882,20 @@
       <c r="B54" t="n">
         <v>0</v>
       </c>
-      <c r="C54" t="n">
-        <v>-210</v>
-      </c>
-      <c r="D54" t="n">
-        <v>-220</v>
-      </c>
-      <c r="E54" t="n">
-        <v>-99999</v>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>-210</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>-220</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F54" t="n">
         <v>-99999</v>
@@ -2624,14 +2928,20 @@
       <c r="B55" t="n">
         <v>0</v>
       </c>
-      <c r="C55" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D55" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E55" t="n">
-        <v>-99999</v>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F55" t="n">
         <v>-99999</v>
@@ -2664,14 +2974,20 @@
       <c r="B56" t="n">
         <v>0</v>
       </c>
-      <c r="C56" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D56" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E56" t="n">
-        <v>-99999</v>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F56" t="n">
         <v>-99999</v>
@@ -2704,14 +3020,20 @@
       <c r="B57" t="n">
         <v>0</v>
       </c>
-      <c r="C57" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D57" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E57" t="n">
-        <v>-99999</v>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F57" t="n">
         <v>-99999</v>
@@ -2744,14 +3066,20 @@
       <c r="B58" t="n">
         <v>0</v>
       </c>
-      <c r="C58" t="n">
-        <v>-28</v>
-      </c>
-      <c r="D58" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E58" t="n">
-        <v>-99999</v>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>-28</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F58" t="n">
         <v>-99999</v>
@@ -2784,14 +3112,20 @@
       <c r="B59" t="n">
         <v>0</v>
       </c>
-      <c r="C59" t="n">
-        <v>-28</v>
-      </c>
-      <c r="D59" t="n">
-        <v>-32</v>
-      </c>
-      <c r="E59" t="n">
-        <v>-99999</v>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>-28</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>-32</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F59" t="n">
         <v>-99999</v>
@@ -2824,14 +3158,20 @@
       <c r="B60" t="n">
         <v>0</v>
       </c>
-      <c r="C60" t="n">
-        <v>-24</v>
-      </c>
-      <c r="D60" t="n">
-        <v>-26</v>
-      </c>
-      <c r="E60" t="n">
-        <v>-28</v>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>-24</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>-26</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>-28</t>
+        </is>
       </c>
       <c r="F60" t="n">
         <v>-99999</v>
@@ -2864,14 +3204,20 @@
       <c r="B61" t="n">
         <v>0</v>
       </c>
-      <c r="C61" t="n">
-        <v>-21</v>
-      </c>
-      <c r="D61" t="n">
-        <v>-26</v>
-      </c>
-      <c r="E61" t="n">
-        <v>-32</v>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>-21</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>-26</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>-32</t>
+        </is>
       </c>
       <c r="F61" t="n">
         <v>-36</v>
@@ -2904,14 +3250,20 @@
       <c r="B62" t="n">
         <v>0</v>
       </c>
-      <c r="C62" t="n">
-        <v>-21</v>
-      </c>
-      <c r="D62" t="n">
-        <v>-26</v>
-      </c>
-      <c r="E62" t="n">
-        <v>-32</v>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>-21</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>-26</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>-32</t>
+        </is>
       </c>
       <c r="F62" t="n">
         <v>-36</v>
@@ -2944,14 +3296,20 @@
       <c r="B63" t="n">
         <v>0</v>
       </c>
-      <c r="C63" t="n">
-        <v>-19</v>
-      </c>
-      <c r="D63" t="n">
-        <v>-20</v>
-      </c>
-      <c r="E63" t="n">
-        <v>-21</v>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>-19</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>-20</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>-21</t>
+        </is>
       </c>
       <c r="F63" t="n">
         <v>-23</v>
@@ -2984,14 +3342,20 @@
       <c r="B64" t="n">
         <v>0</v>
       </c>
-      <c r="C64" t="n">
-        <v>-30</v>
-      </c>
-      <c r="D64" t="n">
-        <v>-40</v>
-      </c>
-      <c r="E64" t="n">
-        <v>-50</v>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>-30</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>-40</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>-50</t>
+        </is>
       </c>
       <c r="F64" t="n">
         <v>-99999</v>
@@ -3024,14 +3388,20 @@
       <c r="B65" t="n">
         <v>0</v>
       </c>
-      <c r="C65" t="n">
-        <v>-45</v>
-      </c>
-      <c r="D65" t="n">
-        <v>-60</v>
-      </c>
-      <c r="E65" t="n">
-        <v>-99999</v>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>-45</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>-60</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F65" t="n">
         <v>-99999</v>
@@ -3064,14 +3434,20 @@
       <c r="B66" t="n">
         <v>0</v>
       </c>
-      <c r="C66" t="n">
-        <v>5</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0</v>
-      </c>
-      <c r="E66" t="n">
-        <v>-10</v>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>-10</t>
+        </is>
       </c>
       <c r="F66" t="n">
         <v>-20</v>
@@ -3104,14 +3480,20 @@
       <c r="B67" t="n">
         <v>0</v>
       </c>
-      <c r="C67" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D67" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E67" t="n">
-        <v>-99999</v>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F67" t="n">
         <v>-99999</v>
@@ -3144,14 +3526,20 @@
       <c r="B68" t="n">
         <v>0</v>
       </c>
-      <c r="C68" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D68" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E68" t="n">
-        <v>-99999</v>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F68" t="n">
         <v>-99999</v>
@@ -3184,14 +3572,20 @@
       <c r="B69" t="n">
         <v>0</v>
       </c>
-      <c r="C69" t="n">
-        <v>5</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" t="n">
-        <v>-10</v>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>-10</t>
+        </is>
       </c>
       <c r="F69" t="n">
         <v>-20</v>
@@ -3224,14 +3618,20 @@
       <c r="B70" t="n">
         <v>0</v>
       </c>
-      <c r="C70" t="n">
-        <v>5</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0</v>
-      </c>
-      <c r="E70" t="n">
-        <v>-10</v>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>-10</t>
+        </is>
       </c>
       <c r="F70" t="n">
         <v>-20</v>
@@ -3264,14 +3664,20 @@
       <c r="B71" t="n">
         <v>0</v>
       </c>
-      <c r="C71" t="n">
-        <v>0</v>
-      </c>
-      <c r="D71" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E71" t="n">
-        <v>-10</v>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>-10</t>
+        </is>
       </c>
       <c r="F71" t="n">
         <v>-20</v>
@@ -3304,14 +3710,20 @@
       <c r="B72" t="n">
         <v>0</v>
       </c>
-      <c r="C72" t="n">
-        <v>0</v>
-      </c>
-      <c r="D72" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E72" t="n">
-        <v>-10</v>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>-10</t>
+        </is>
       </c>
       <c r="F72" t="n">
         <v>-20</v>
@@ -3344,14 +3756,20 @@
       <c r="B73" t="n">
         <v>0</v>
       </c>
-      <c r="C73" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D73" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E73" t="n">
-        <v>-99999</v>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F73" t="n">
         <v>-99999</v>
@@ -3384,14 +3802,20 @@
       <c r="B74" t="n">
         <v>0</v>
       </c>
-      <c r="C74" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D74" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E74" t="n">
-        <v>-99999</v>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F74" t="n">
         <v>-99999</v>
@@ -3424,14 +3848,20 @@
       <c r="B75" t="n">
         <v>0</v>
       </c>
-      <c r="C75" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D75" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E75" t="n">
-        <v>-99999</v>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F75" t="n">
         <v>-99999</v>
@@ -3464,14 +3894,20 @@
       <c r="B76" t="n">
         <v>0</v>
       </c>
-      <c r="C76" t="n">
-        <v>10</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0</v>
-      </c>
-      <c r="E76" t="n">
-        <v>-10</v>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>-10</t>
+        </is>
       </c>
       <c r="F76" t="n">
         <v>-20</v>
@@ -3504,14 +3940,20 @@
       <c r="B77" t="n">
         <v>0</v>
       </c>
-      <c r="C77" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D77" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E77" t="n">
-        <v>-99999</v>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F77" t="n">
         <v>-99999</v>
@@ -3544,14 +3986,20 @@
       <c r="B78" t="n">
         <v>0</v>
       </c>
-      <c r="C78" t="n">
-        <v>10</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0</v>
-      </c>
-      <c r="E78" t="n">
-        <v>-10</v>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>-10</t>
+        </is>
       </c>
       <c r="F78" t="n">
         <v>-20</v>
@@ -3584,14 +4032,20 @@
       <c r="B79" t="n">
         <v>0</v>
       </c>
-      <c r="C79" t="n">
-        <v>-58</v>
-      </c>
-      <c r="D79" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E79" t="n">
-        <v>-99999</v>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>-58</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F79" t="n">
         <v>-99999</v>
@@ -3624,14 +4078,20 @@
       <c r="B80" t="n">
         <v>0</v>
       </c>
-      <c r="C80" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D80" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E80" t="n">
-        <v>-99999</v>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F80" t="n">
         <v>-99999</v>
@@ -3664,14 +4124,20 @@
       <c r="B81" t="n">
         <v>0</v>
       </c>
-      <c r="C81" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D81" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E81" t="n">
-        <v>-99999</v>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F81" t="n">
         <v>-99999</v>
@@ -3704,14 +4170,20 @@
       <c r="B82" t="n">
         <v>0</v>
       </c>
-      <c r="C82" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D82" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E82" t="n">
-        <v>-99999</v>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F82" t="n">
         <v>-99999</v>
@@ -3744,14 +4216,20 @@
       <c r="B83" t="n">
         <v>0</v>
       </c>
-      <c r="C83" t="n">
-        <v>-15</v>
-      </c>
-      <c r="D83" t="n">
-        <v>-20</v>
-      </c>
-      <c r="E83" t="n">
-        <v>-99999</v>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>-20</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F83" t="n">
         <v>-99999</v>
@@ -3784,14 +4262,20 @@
       <c r="B84" t="n">
         <v>0</v>
       </c>
-      <c r="C84" t="n">
-        <v>3</v>
-      </c>
-      <c r="D84" t="n">
-        <v>-8</v>
-      </c>
-      <c r="E84" t="n">
-        <v>-18</v>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>-8</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>-18</t>
+        </is>
       </c>
       <c r="F84" t="n">
         <v>-28</v>
@@ -3824,14 +4308,20 @@
       <c r="B85" t="n">
         <v>0</v>
       </c>
-      <c r="C85" t="n">
-        <v>-5</v>
-      </c>
-      <c r="D85" t="n">
-        <v>-15</v>
-      </c>
-      <c r="E85" t="n">
-        <v>-25</v>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>-25</t>
+        </is>
       </c>
       <c r="F85" t="n">
         <v>-35</v>
@@ -3864,14 +4354,20 @@
       <c r="B86" t="n">
         <v>0</v>
       </c>
-      <c r="C86" t="n">
-        <v>10</v>
-      </c>
-      <c r="D86" t="n">
-        <v>5</v>
-      </c>
-      <c r="E86" t="n">
-        <v>5</v>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="F86" t="n">
         <v>4</v>
@@ -3904,14 +4400,20 @@
       <c r="B87" t="n">
         <v>0</v>
       </c>
-      <c r="C87" t="n">
-        <v>5</v>
-      </c>
-      <c r="D87" t="n">
-        <v>0</v>
-      </c>
-      <c r="E87" t="n">
-        <v>-5</v>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
       </c>
       <c r="F87" t="n">
         <v>-10</v>
@@ -3944,14 +4446,20 @@
       <c r="B88" t="n">
         <v>0</v>
       </c>
-      <c r="C88" t="n">
-        <v>-10</v>
-      </c>
-      <c r="D88" t="n">
-        <v>-20</v>
-      </c>
-      <c r="E88" t="n">
-        <v>-30</v>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>-10</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>-20</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>-30</t>
+        </is>
       </c>
       <c r="F88" t="n">
         <v>-40</v>
@@ -3984,14 +4492,20 @@
       <c r="B89" t="n">
         <v>0</v>
       </c>
-      <c r="C89" t="n">
-        <v>-10</v>
-      </c>
-      <c r="D89" t="n">
-        <v>-20</v>
-      </c>
-      <c r="E89" t="n">
-        <v>-30</v>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>-10</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>-20</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>-30</t>
+        </is>
       </c>
       <c r="F89" t="n">
         <v>-40</v>
@@ -4024,14 +4538,20 @@
       <c r="B90" t="n">
         <v>0</v>
       </c>
-      <c r="C90" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D90" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E90" t="n">
-        <v>-99999</v>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F90" t="n">
         <v>-99999</v>
@@ -4064,14 +4584,20 @@
       <c r="B91" t="n">
         <v>0</v>
       </c>
-      <c r="C91" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D91" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E91" t="n">
-        <v>-99999</v>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F91" t="n">
         <v>-99999</v>
@@ -4104,14 +4630,20 @@
       <c r="B92" t="n">
         <v>0</v>
       </c>
-      <c r="C92" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D92" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E92" t="n">
-        <v>-99999</v>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F92" t="n">
         <v>-99999</v>
@@ -4144,14 +4676,20 @@
       <c r="B93" t="n">
         <v>0</v>
       </c>
-      <c r="C93" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D93" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E93" t="n">
-        <v>-99999</v>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F93" t="n">
         <v>-99999</v>
@@ -4184,14 +4722,20 @@
       <c r="B94" t="n">
         <v>0</v>
       </c>
-      <c r="C94" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D94" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E94" t="n">
-        <v>-99999</v>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F94" t="n">
         <v>-99999</v>
@@ -4227,11 +4771,15 @@
       <c r="C95" t="n">
         <v>3.5</v>
       </c>
-      <c r="D95" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E95" t="n">
-        <v>-99999</v>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F95" t="n">
         <v>-99999</v>
@@ -4264,14 +4812,20 @@
       <c r="B96" t="n">
         <v>0</v>
       </c>
-      <c r="C96" t="n">
-        <v>4</v>
-      </c>
-      <c r="D96" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E96" t="n">
-        <v>-99999</v>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F96" t="n">
         <v>-99999</v>
@@ -4307,11 +4861,15 @@
       <c r="C97" t="n">
         <v>4.5</v>
       </c>
-      <c r="D97" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E97" t="n">
-        <v>-99999</v>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F97" t="n">
         <v>-99999</v>
@@ -4344,14 +4902,20 @@
       <c r="B98" t="n">
         <v>0</v>
       </c>
-      <c r="C98" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D98" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E98" t="n">
-        <v>-99999</v>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F98" t="n">
         <v>-99999</v>
@@ -4384,14 +4948,20 @@
       <c r="B99" t="n">
         <v>0</v>
       </c>
-      <c r="C99" t="n">
-        <v>3</v>
-      </c>
-      <c r="D99" t="n">
-        <v>2</v>
-      </c>
-      <c r="E99" t="n">
-        <v>-99999</v>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F99" t="n">
         <v>-99999</v>
@@ -4424,14 +4994,20 @@
       <c r="B100" t="n">
         <v>0</v>
       </c>
-      <c r="C100" t="n">
-        <v>3</v>
-      </c>
-      <c r="D100" t="n">
-        <v>2</v>
-      </c>
-      <c r="E100" t="n">
-        <v>-99999</v>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F100" t="n">
         <v>-99999</v>
@@ -4467,11 +5043,15 @@
       <c r="C101" t="n">
         <v>3.5</v>
       </c>
-      <c r="D101" t="n">
-        <v>2</v>
-      </c>
-      <c r="E101" t="n">
-        <v>-99999</v>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F101" t="n">
         <v>-99999</v>
@@ -4504,14 +5084,20 @@
       <c r="B102" t="n">
         <v>0</v>
       </c>
-      <c r="C102" t="n">
-        <v>0</v>
-      </c>
-      <c r="D102" t="n">
-        <v>-3</v>
-      </c>
-      <c r="E102" t="n">
-        <v>-99999</v>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F102" t="n">
         <v>-99999</v>
@@ -4544,14 +5130,20 @@
       <c r="B103" t="n">
         <v>0</v>
       </c>
-      <c r="C103" t="n">
-        <v>0</v>
-      </c>
-      <c r="D103" t="n">
-        <v>-3</v>
-      </c>
-      <c r="E103" t="n">
-        <v>-99999</v>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F103" t="n">
         <v>-99999</v>
@@ -4584,14 +5176,20 @@
       <c r="B104" t="n">
         <v>0</v>
       </c>
-      <c r="C104" t="n">
-        <v>0</v>
-      </c>
-      <c r="D104" t="n">
-        <v>-3</v>
-      </c>
-      <c r="E104" t="n">
-        <v>-99999</v>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F104" t="n">
         <v>-99999</v>
@@ -4624,14 +5222,20 @@
       <c r="B105" t="n">
         <v>0</v>
       </c>
-      <c r="C105" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D105" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E105" t="n">
-        <v>-99999</v>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F105" t="n">
         <v>-99999</v>
@@ -4664,14 +5268,20 @@
       <c r="B106" t="n">
         <v>0</v>
       </c>
-      <c r="C106" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D106" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E106" t="n">
-        <v>-99999</v>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F106" t="n">
         <v>-99999</v>
@@ -4704,14 +5314,20 @@
       <c r="B107" t="n">
         <v>0</v>
       </c>
-      <c r="C107" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D107" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E107" t="n">
-        <v>-99999</v>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F107" t="n">
         <v>-99999</v>
@@ -4744,14 +5360,20 @@
       <c r="B108" t="n">
         <v>0</v>
       </c>
-      <c r="C108" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D108" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E108" t="n">
-        <v>-99999</v>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F108" t="n">
         <v>-99999</v>
@@ -4784,14 +5406,20 @@
       <c r="B109" t="n">
         <v>0</v>
       </c>
-      <c r="C109" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D109" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E109" t="n">
-        <v>-99999</v>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F109" t="n">
         <v>-99999</v>
@@ -4824,14 +5452,20 @@
       <c r="B110" t="n">
         <v>0</v>
       </c>
-      <c r="C110" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D110" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E110" t="n">
-        <v>-99999</v>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F110" t="n">
         <v>-99999</v>
@@ -4864,14 +5498,20 @@
       <c r="B111" t="n">
         <v>0</v>
       </c>
-      <c r="C111" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D111" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E111" t="n">
-        <v>-99999</v>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F111" t="n">
         <v>-99999</v>
@@ -4904,14 +5544,20 @@
       <c r="B112" t="n">
         <v>0</v>
       </c>
-      <c r="C112" t="n">
-        <v>0</v>
-      </c>
-      <c r="D112" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E112" t="n">
-        <v>-10</v>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>-10</t>
+        </is>
       </c>
       <c r="F112" t="n">
         <v>-15</v>
@@ -4944,14 +5590,20 @@
       <c r="B113" t="n">
         <v>0</v>
       </c>
-      <c r="C113" t="n">
-        <v>5</v>
-      </c>
-      <c r="D113" t="n">
-        <v>0</v>
-      </c>
-      <c r="E113" t="n">
-        <v>-20</v>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>-20</t>
+        </is>
       </c>
       <c r="F113" t="n">
         <v>-99999</v>
@@ -4984,14 +5636,20 @@
       <c r="B114" t="n">
         <v>0</v>
       </c>
-      <c r="C114" t="n">
-        <v>0</v>
-      </c>
-      <c r="D114" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E114" t="n">
-        <v>-10</v>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>-10</t>
+        </is>
       </c>
       <c r="F114" t="n">
         <v>-15</v>
@@ -5024,14 +5682,20 @@
       <c r="B115" t="n">
         <v>0</v>
       </c>
-      <c r="C115" t="n">
-        <v>0</v>
-      </c>
-      <c r="D115" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E115" t="n">
-        <v>-10</v>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>-10</t>
+        </is>
       </c>
       <c r="F115" t="n">
         <v>-20</v>
@@ -5064,14 +5728,20 @@
       <c r="B116" t="n">
         <v>0</v>
       </c>
-      <c r="C116" t="n">
-        <v>0</v>
-      </c>
-      <c r="D116" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E116" t="n">
-        <v>-10</v>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>-10</t>
+        </is>
       </c>
       <c r="F116" t="n">
         <v>-15</v>
@@ -5104,14 +5774,20 @@
       <c r="B117" t="n">
         <v>0</v>
       </c>
-      <c r="C117" t="n">
-        <v>0</v>
-      </c>
-      <c r="D117" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E117" t="n">
-        <v>-10</v>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>-10</t>
+        </is>
       </c>
       <c r="F117" t="n">
         <v>-15</v>
@@ -5144,14 +5820,20 @@
       <c r="B118" t="n">
         <v>0</v>
       </c>
-      <c r="C118" t="n">
-        <v>0</v>
-      </c>
-      <c r="D118" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E118" t="n">
-        <v>-10</v>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>-10</t>
+        </is>
       </c>
       <c r="F118" t="n">
         <v>-15</v>
@@ -5184,14 +5866,20 @@
       <c r="B119" t="n">
         <v>0</v>
       </c>
-      <c r="C119" t="n">
-        <v>0</v>
-      </c>
-      <c r="D119" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E119" t="n">
-        <v>-10</v>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>-10</t>
+        </is>
       </c>
       <c r="F119" t="n">
         <v>-15</v>
@@ -5224,14 +5912,20 @@
       <c r="B120" t="n">
         <v>0</v>
       </c>
-      <c r="C120" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D120" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E120" t="n">
-        <v>-99999</v>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F120" t="n">
         <v>-99999</v>
@@ -5264,14 +5958,20 @@
       <c r="B121" t="n">
         <v>0</v>
       </c>
-      <c r="C121" t="n">
-        <v>-60</v>
-      </c>
-      <c r="D121" t="n">
-        <v>-70</v>
-      </c>
-      <c r="E121" t="n">
-        <v>-80</v>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>-60</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>-70</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>-80</t>
+        </is>
       </c>
       <c r="F121" t="n">
         <v>-99999</v>
@@ -5304,14 +6004,20 @@
       <c r="B122" t="n">
         <v>0</v>
       </c>
-      <c r="C122" t="n">
-        <v>-50</v>
-      </c>
-      <c r="D122" t="n">
-        <v>-60</v>
-      </c>
-      <c r="E122" t="n">
-        <v>-70</v>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>-50</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>-60</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>-70</t>
+        </is>
       </c>
       <c r="F122" t="n">
         <v>-99999</v>
@@ -5344,14 +6050,20 @@
       <c r="B123" t="n">
         <v>0</v>
       </c>
-      <c r="C123" t="n">
-        <v>0</v>
-      </c>
-      <c r="D123" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E123" t="n">
-        <v>-10</v>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>-10</t>
+        </is>
       </c>
       <c r="F123" t="n">
         <v>-20</v>
@@ -5384,14 +6096,20 @@
       <c r="B124" t="n">
         <v>0</v>
       </c>
-      <c r="C124" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D124" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E124" t="n">
-        <v>-99999</v>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F124" t="n">
         <v>-99999</v>
@@ -5424,14 +6142,20 @@
       <c r="B125" t="n">
         <v>0</v>
       </c>
-      <c r="C125" t="n">
-        <v>-40</v>
-      </c>
-      <c r="D125" t="n">
-        <v>-50</v>
-      </c>
-      <c r="E125" t="n">
-        <v>-99999</v>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>-40</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>-50</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F125" t="n">
         <v>-99999</v>
@@ -5464,14 +6188,20 @@
       <c r="B126" t="n">
         <v>0</v>
       </c>
-      <c r="C126" t="n">
-        <v>0</v>
-      </c>
-      <c r="D126" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E126" t="n">
-        <v>-10</v>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>-10</t>
+        </is>
       </c>
       <c r="F126" t="n">
         <v>-99999</v>
@@ -5504,14 +6234,20 @@
       <c r="B127" t="n">
         <v>0</v>
       </c>
-      <c r="C127" t="n">
-        <v>0</v>
-      </c>
-      <c r="D127" t="n">
-        <v>-10</v>
-      </c>
-      <c r="E127" t="n">
-        <v>-20</v>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>-10</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>-20</t>
+        </is>
       </c>
       <c r="F127" t="n">
         <v>-99999</v>
@@ -5544,14 +6280,20 @@
       <c r="B128" t="n">
         <v>0</v>
       </c>
-      <c r="C128" t="n">
-        <v>0</v>
-      </c>
-      <c r="D128" t="n">
-        <v>-10</v>
-      </c>
-      <c r="E128" t="n">
-        <v>-20</v>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>-10</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>-20</t>
+        </is>
       </c>
       <c r="F128" t="n">
         <v>-99999</v>
@@ -5584,14 +6326,20 @@
       <c r="B129" t="n">
         <v>0</v>
       </c>
-      <c r="C129" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D129" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E129" t="n">
-        <v>-99999</v>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F129" t="n">
         <v>-99999</v>
@@ -5624,14 +6372,20 @@
       <c r="B130" t="n">
         <v>0</v>
       </c>
-      <c r="C130" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D130" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E130" t="n">
-        <v>-99999</v>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F130" t="n">
         <v>-99999</v>
@@ -5664,14 +6418,20 @@
       <c r="B131" t="n">
         <v>0</v>
       </c>
-      <c r="C131" t="n">
-        <v>-14</v>
-      </c>
-      <c r="D131" t="n">
-        <v>-20</v>
-      </c>
-      <c r="E131" t="n">
-        <v>-99999</v>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>-14</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>-20</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F131" t="n">
         <v>-99999</v>
@@ -5704,14 +6464,20 @@
       <c r="B132" t="n">
         <v>0</v>
       </c>
-      <c r="C132" t="n">
-        <v>-20</v>
-      </c>
-      <c r="D132" t="n">
-        <v>-22</v>
-      </c>
-      <c r="E132" t="n">
-        <v>-25</v>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>-20</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>-22</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>-25</t>
+        </is>
       </c>
       <c r="F132" t="n">
         <v>-99999</v>
@@ -5744,14 +6510,20 @@
       <c r="B133" t="n">
         <v>0</v>
       </c>
-      <c r="C133" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D133" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E133" t="n">
-        <v>-99999</v>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F133" t="n">
         <v>-99999</v>
@@ -5784,14 +6556,20 @@
       <c r="B134" t="n">
         <v>0</v>
       </c>
-      <c r="C134" t="n">
-        <v>-5</v>
-      </c>
-      <c r="D134" t="n">
-        <v>-15</v>
-      </c>
-      <c r="E134" t="n">
-        <v>-25</v>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>-25</t>
+        </is>
       </c>
       <c r="F134" t="n">
         <v>-99999</v>
@@ -5824,14 +6602,20 @@
       <c r="B135" t="n">
         <v>0</v>
       </c>
-      <c r="C135" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D135" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E135" t="n">
-        <v>-99999</v>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F135" t="n">
         <v>-99999</v>
@@ -5864,14 +6648,20 @@
       <c r="B136" t="n">
         <v>0</v>
       </c>
-      <c r="C136" t="n">
-        <v>-65</v>
-      </c>
-      <c r="D136" t="n">
-        <v>-80</v>
-      </c>
-      <c r="E136" t="n">
-        <v>-99999</v>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>-65</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>-80</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F136" t="n">
         <v>-99999</v>
@@ -5904,14 +6694,20 @@
       <c r="B137" t="n">
         <v>0</v>
       </c>
-      <c r="C137" t="n">
-        <v>-5</v>
-      </c>
-      <c r="D137" t="n">
-        <v>-10</v>
-      </c>
-      <c r="E137" t="n">
-        <v>-20</v>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>-10</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>-20</t>
+        </is>
       </c>
       <c r="F137" t="n">
         <v>-99999</v>
@@ -5944,14 +6740,20 @@
       <c r="B138" t="n">
         <v>0</v>
       </c>
-      <c r="C138" t="n">
-        <v>-5</v>
-      </c>
-      <c r="D138" t="n">
-        <v>-12</v>
-      </c>
-      <c r="E138" t="n">
-        <v>-20</v>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>-12</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>-20</t>
+        </is>
       </c>
       <c r="F138" t="n">
         <v>-99999</v>
@@ -5984,14 +6786,20 @@
       <c r="B139" t="n">
         <v>0</v>
       </c>
-      <c r="C139" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D139" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E139" t="n">
-        <v>-99999</v>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F139" t="n">
         <v>-99999</v>
@@ -6024,14 +6832,20 @@
       <c r="B140" t="n">
         <v>0</v>
       </c>
-      <c r="C140" t="n">
-        <v>-15</v>
-      </c>
-      <c r="D140" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E140" t="n">
-        <v>-99999</v>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>-25</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F140" t="n">
         <v>-99999</v>
@@ -6064,14 +6878,20 @@
       <c r="B141" t="n">
         <v>0</v>
       </c>
-      <c r="C141" t="n">
-        <v>0</v>
-      </c>
-      <c r="D141" t="n">
-        <v>-10</v>
-      </c>
-      <c r="E141" t="n">
-        <v>-20</v>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>-10</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>-20</t>
+        </is>
       </c>
       <c r="F141" t="n">
         <v>-99999</v>
@@ -6104,14 +6924,20 @@
       <c r="B142" t="n">
         <v>0</v>
       </c>
-      <c r="C142" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D142" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E142" t="n">
-        <v>-99999</v>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F142" t="n">
         <v>-99999</v>
@@ -6144,14 +6970,20 @@
       <c r="B143" t="n">
         <v>0</v>
       </c>
-      <c r="C143" t="n">
-        <v>0</v>
-      </c>
-      <c r="D143" t="n">
-        <v>-10</v>
-      </c>
-      <c r="E143" t="n">
-        <v>-20</v>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>-10</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>-20</t>
+        </is>
       </c>
       <c r="F143" t="n">
         <v>-99999</v>
@@ -6184,14 +7016,20 @@
       <c r="B144" t="n">
         <v>0</v>
       </c>
-      <c r="C144" t="n">
-        <v>0</v>
-      </c>
-      <c r="D144" t="n">
-        <v>-10</v>
-      </c>
-      <c r="E144" t="n">
-        <v>-20</v>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>-10</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>-20</t>
+        </is>
       </c>
       <c r="F144" t="n">
         <v>-40</v>
@@ -6224,14 +7062,20 @@
       <c r="B145" t="n">
         <v>0</v>
       </c>
-      <c r="C145" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D145" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E145" t="n">
-        <v>-99999</v>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F145" t="n">
         <v>-99999</v>
@@ -6264,14 +7108,20 @@
       <c r="B146" t="n">
         <v>0</v>
       </c>
-      <c r="C146" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D146" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E146" t="n">
-        <v>-99999</v>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F146" t="n">
         <v>-99999</v>
@@ -6304,14 +7154,20 @@
       <c r="B147" t="n">
         <v>0</v>
       </c>
-      <c r="C147" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D147" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E147" t="n">
-        <v>-99999</v>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F147" t="n">
         <v>-99999</v>
@@ -6344,14 +7200,20 @@
       <c r="B148" t="n">
         <v>0</v>
       </c>
-      <c r="C148" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D148" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E148" t="n">
-        <v>-99999</v>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F148" t="n">
         <v>-99999</v>
@@ -6384,14 +7246,20 @@
       <c r="B149" t="n">
         <v>0</v>
       </c>
-      <c r="C149" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D149" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E149" t="n">
-        <v>-99999</v>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F149" t="n">
         <v>-99999</v>
@@ -6424,14 +7292,20 @@
       <c r="B150" t="n">
         <v>0</v>
       </c>
-      <c r="C150" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D150" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E150" t="n">
-        <v>-99999</v>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F150" t="n">
         <v>-99999</v>
@@ -6464,14 +7338,20 @@
       <c r="B151" t="n">
         <v>0</v>
       </c>
-      <c r="C151" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D151" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E151" t="n">
-        <v>-99999</v>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F151" t="n">
         <v>-99999</v>
@@ -6504,14 +7384,20 @@
       <c r="B152" t="n">
         <v>0</v>
       </c>
-      <c r="C152" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D152" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E152" t="n">
-        <v>-99999</v>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F152" t="n">
         <v>-99999</v>
@@ -6544,14 +7430,20 @@
       <c r="B153" t="n">
         <v>0</v>
       </c>
-      <c r="C153" t="n">
-        <v>-5</v>
-      </c>
-      <c r="D153" t="n">
-        <v>-10</v>
-      </c>
-      <c r="E153" t="n">
-        <v>-99999</v>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>-10</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F153" t="n">
         <v>-99999</v>
@@ -6584,14 +7476,20 @@
       <c r="B154" t="n">
         <v>0</v>
       </c>
-      <c r="C154" t="n">
-        <v>-8</v>
-      </c>
-      <c r="D154" t="n">
-        <v>-9</v>
-      </c>
-      <c r="E154" t="n">
-        <v>-10</v>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>-8</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>-9</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>-10</t>
+        </is>
       </c>
       <c r="F154" t="n">
         <v>-99999</v>
@@ -6624,14 +7522,20 @@
       <c r="B155" t="n">
         <v>0</v>
       </c>
-      <c r="C155" t="n">
-        <v>7</v>
-      </c>
-      <c r="D155" t="n">
-        <v>6</v>
-      </c>
-      <c r="E155" t="n">
-        <v>-99999</v>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F155" t="n">
         <v>-99999</v>
@@ -6664,14 +7568,20 @@
       <c r="B156" t="n">
         <v>0</v>
       </c>
-      <c r="C156" t="n">
-        <v>2</v>
-      </c>
-      <c r="D156" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E156" t="n">
-        <v>-10</v>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>-10</t>
+        </is>
       </c>
       <c r="F156" t="n">
         <v>-99999</v>
@@ -6704,14 +7614,20 @@
       <c r="B157" t="n">
         <v>0</v>
       </c>
-      <c r="C157" t="n">
-        <v>2</v>
-      </c>
-      <c r="D157" t="n">
-        <v>1</v>
-      </c>
-      <c r="E157" t="n">
-        <v>0</v>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="F157" t="n">
         <v>-99999</v>
@@ -6744,14 +7660,20 @@
       <c r="B158" t="n">
         <v>0</v>
       </c>
-      <c r="C158" t="n">
-        <v>-5</v>
-      </c>
-      <c r="D158" t="n">
-        <v>-10</v>
-      </c>
-      <c r="E158" t="n">
-        <v>-99999</v>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>-10</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F158" t="n">
         <v>-99999</v>
@@ -6784,14 +7706,20 @@
       <c r="B159" t="n">
         <v>0</v>
       </c>
-      <c r="C159" t="n">
-        <v>-5</v>
-      </c>
-      <c r="D159" t="n">
-        <v>-10</v>
-      </c>
-      <c r="E159" t="n">
-        <v>-99999</v>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>-10</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F159" t="n">
         <v>-99999</v>
@@ -6824,14 +7752,20 @@
       <c r="B160" t="n">
         <v>0</v>
       </c>
-      <c r="C160" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D160" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E160" t="n">
-        <v>-99999</v>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F160" t="n">
         <v>-99999</v>
@@ -6864,14 +7798,20 @@
       <c r="B161" t="n">
         <v>0</v>
       </c>
-      <c r="C161" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D161" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E161" t="n">
-        <v>-99999</v>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F161" t="n">
         <v>-99999</v>
@@ -6904,14 +7844,20 @@
       <c r="B162" t="n">
         <v>0</v>
       </c>
-      <c r="C162" t="n">
-        <v>0</v>
-      </c>
-      <c r="D162" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E162" t="n">
-        <v>-10</v>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>-10</t>
+        </is>
       </c>
       <c r="F162" t="n">
         <v>-15</v>
@@ -6944,14 +7890,20 @@
       <c r="B163" t="n">
         <v>0</v>
       </c>
-      <c r="C163" t="n">
-        <v>-8</v>
-      </c>
-      <c r="D163" t="n">
-        <v>-10</v>
-      </c>
-      <c r="E163" t="n">
-        <v>-15</v>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>-8</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>-10</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
       </c>
       <c r="F163" t="n">
         <v>-99999</v>
@@ -6984,14 +7936,20 @@
       <c r="B164" t="n">
         <v>0</v>
       </c>
-      <c r="C164" t="n">
-        <v>-8</v>
-      </c>
-      <c r="D164" t="n">
-        <v>-10</v>
-      </c>
-      <c r="E164" t="n">
-        <v>-99999</v>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>-8</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>-10</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F164" t="n">
         <v>-99999</v>
@@ -7024,14 +7982,20 @@
       <c r="B165" t="n">
         <v>0</v>
       </c>
-      <c r="C165" t="n">
-        <v>5</v>
-      </c>
-      <c r="D165" t="n">
-        <v>0</v>
-      </c>
-      <c r="E165" t="n">
-        <v>-5</v>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
       </c>
       <c r="F165" t="n">
         <v>-10</v>
@@ -7064,14 +8028,20 @@
       <c r="B166" t="n">
         <v>0</v>
       </c>
-      <c r="C166" t="n">
-        <v>-12</v>
-      </c>
-      <c r="D166" t="n">
-        <v>-15</v>
-      </c>
-      <c r="E166" t="n">
-        <v>-20</v>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>-12</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>-20</t>
+        </is>
       </c>
       <c r="F166" t="n">
         <v>-99999</v>
@@ -7104,14 +8074,20 @@
       <c r="B167" t="n">
         <v>0</v>
       </c>
-      <c r="C167" t="n">
-        <v>5</v>
-      </c>
-      <c r="D167" t="n">
-        <v>0</v>
-      </c>
-      <c r="E167" t="n">
-        <v>-5</v>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
       </c>
       <c r="F167" t="n">
         <v>-10</v>
@@ -7144,14 +8120,20 @@
       <c r="B168" t="n">
         <v>0</v>
       </c>
-      <c r="C168" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D168" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E168" t="n">
-        <v>-99999</v>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F168" t="n">
         <v>-99999</v>
@@ -7184,14 +8166,20 @@
       <c r="B169" t="n">
         <v>0</v>
       </c>
-      <c r="C169" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D169" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E169" t="n">
-        <v>-99999</v>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F169" t="n">
         <v>-99999</v>
@@ -7224,14 +8212,20 @@
       <c r="B170" t="n">
         <v>0</v>
       </c>
-      <c r="C170" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D170" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E170" t="n">
-        <v>-99999</v>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F170" t="n">
         <v>-99999</v>
@@ -7264,14 +8258,20 @@
       <c r="B171" t="n">
         <v>0</v>
       </c>
-      <c r="C171" t="n">
-        <v>-70</v>
-      </c>
-      <c r="D171" t="n">
-        <v>-100</v>
-      </c>
-      <c r="E171" t="n">
-        <v>-99999</v>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>-70</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>-100</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F171" t="n">
         <v>-99999</v>
@@ -7304,14 +8304,20 @@
       <c r="B172" t="n">
         <v>0</v>
       </c>
-      <c r="C172" t="n">
-        <v>10</v>
-      </c>
-      <c r="D172" t="n">
-        <v>0</v>
-      </c>
-      <c r="E172" t="n">
-        <v>-5</v>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
       </c>
       <c r="F172" t="n">
         <v>-10</v>
@@ -7344,14 +8350,20 @@
       <c r="B173" t="n">
         <v>0</v>
       </c>
-      <c r="C173" t="n">
-        <v>10</v>
-      </c>
-      <c r="D173" t="n">
-        <v>0</v>
-      </c>
-      <c r="E173" t="n">
-        <v>-5</v>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
       </c>
       <c r="F173" t="n">
         <v>-10</v>
@@ -7384,14 +8396,20 @@
       <c r="B174" t="n">
         <v>0</v>
       </c>
-      <c r="C174" t="n">
-        <v>0</v>
-      </c>
-      <c r="D174" t="n">
-        <v>-10</v>
-      </c>
-      <c r="E174" t="n">
-        <v>-20</v>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>-10</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>-20</t>
+        </is>
       </c>
       <c r="F174" t="n">
         <v>-99999</v>
@@ -7424,14 +8442,20 @@
       <c r="B175" t="n">
         <v>0</v>
       </c>
-      <c r="C175" t="n">
-        <v>-75</v>
-      </c>
-      <c r="D175" t="n">
-        <v>-80</v>
-      </c>
-      <c r="E175" t="n">
-        <v>-99999</v>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>-75</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>-80</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F175" t="n">
         <v>-99999</v>
@@ -7464,14 +8488,20 @@
       <c r="B176" t="n">
         <v>0</v>
       </c>
-      <c r="C176" t="n">
-        <v>-60</v>
-      </c>
-      <c r="D176" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E176" t="n">
-        <v>-99999</v>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>-60</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F176" t="n">
         <v>-99999</v>
@@ -7504,14 +8534,20 @@
       <c r="B177" t="n">
         <v>0</v>
       </c>
-      <c r="C177" t="n">
-        <v>-60</v>
-      </c>
-      <c r="D177" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E177" t="n">
-        <v>-99999</v>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>-60</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F177" t="n">
         <v>-99999</v>
@@ -7544,14 +8580,20 @@
       <c r="B178" t="n">
         <v>0</v>
       </c>
-      <c r="C178" t="n">
-        <v>-60</v>
-      </c>
-      <c r="D178" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E178" t="n">
-        <v>-99999</v>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>-60</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F178" t="n">
         <v>-99999</v>
@@ -7584,14 +8626,20 @@
       <c r="B179" t="n">
         <v>0</v>
       </c>
-      <c r="C179" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D179" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E179" t="n">
-        <v>-99999</v>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F179" t="n">
         <v>-99999</v>
@@ -7624,14 +8672,20 @@
       <c r="B180" t="n">
         <v>0</v>
       </c>
-      <c r="C180" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D180" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E180" t="n">
-        <v>-99999</v>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F180" t="n">
         <v>-99999</v>
@@ -7664,14 +8718,20 @@
       <c r="B181" t="n">
         <v>0</v>
       </c>
-      <c r="C181" t="n">
-        <v>-100</v>
-      </c>
-      <c r="D181" t="n">
-        <v>-120</v>
-      </c>
-      <c r="E181" t="n">
-        <v>-99999</v>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>-100</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>-120</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F181" t="n">
         <v>-99999</v>
@@ -7704,14 +8764,20 @@
       <c r="B182" t="n">
         <v>0</v>
       </c>
-      <c r="C182" t="n">
-        <v>-60</v>
-      </c>
-      <c r="D182" t="n">
-        <v>-70</v>
-      </c>
-      <c r="E182" t="n">
-        <v>-80</v>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>-60</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>-70</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>-80</t>
+        </is>
       </c>
       <c r="F182" t="n">
         <v>-99999</v>
@@ -7744,14 +8810,20 @@
       <c r="B183" t="n">
         <v>0</v>
       </c>
-      <c r="C183" t="n">
-        <v>0</v>
-      </c>
-      <c r="D183" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E183" t="n">
-        <v>-99999</v>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F183" t="n">
         <v>-99999</v>
@@ -7784,14 +8856,20 @@
       <c r="B184" t="n">
         <v>0</v>
       </c>
-      <c r="C184" t="n">
-        <v>0</v>
-      </c>
-      <c r="D184" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E184" t="n">
-        <v>-99999</v>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F184" t="n">
         <v>-99999</v>
@@ -7824,14 +8902,20 @@
       <c r="B185" t="n">
         <v>0</v>
       </c>
-      <c r="C185" t="n">
-        <v>0</v>
-      </c>
-      <c r="D185" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E185" t="n">
-        <v>-99999</v>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F185" t="n">
         <v>-99999</v>
@@ -7867,11 +8951,15 @@
       <c r="C186" t="n">
         <v>-0.5</v>
       </c>
-      <c r="D186" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E186" t="n">
-        <v>-99999</v>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F186" t="n">
         <v>-99999</v>
@@ -7910,8 +8998,10 @@
       <c r="D187" t="n">
         <v>-0.7</v>
       </c>
-      <c r="E187" t="n">
-        <v>-99999</v>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F187" t="n">
         <v>-99999</v>
@@ -7944,14 +9034,20 @@
       <c r="B188" t="n">
         <v>0</v>
       </c>
-      <c r="C188" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D188" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E188" t="n">
-        <v>-99999</v>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F188" t="n">
         <v>-99999</v>
@@ -7984,14 +9080,20 @@
       <c r="B189" t="n">
         <v>0</v>
       </c>
-      <c r="C189" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D189" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E189" t="n">
-        <v>-99999</v>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F189" t="n">
         <v>-99999</v>
@@ -8024,14 +9126,20 @@
       <c r="B190" t="n">
         <v>0</v>
       </c>
-      <c r="C190" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D190" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E190" t="n">
-        <v>-99999</v>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F190" t="n">
         <v>-99999</v>
@@ -8064,14 +9172,20 @@
       <c r="B191" t="n">
         <v>0</v>
       </c>
-      <c r="C191" t="n">
-        <v>-34</v>
-      </c>
-      <c r="D191" t="n">
-        <v>-36</v>
-      </c>
-      <c r="E191" t="n">
-        <v>-99999</v>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>-34</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>-36</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F191" t="n">
         <v>-99999</v>
@@ -8104,14 +9218,20 @@
       <c r="B192" t="n">
         <v>0</v>
       </c>
-      <c r="C192" t="n">
-        <v>-30</v>
-      </c>
-      <c r="D192" t="n">
-        <v>-34</v>
-      </c>
-      <c r="E192" t="n">
-        <v>-99999</v>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>-30</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>-34</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F192" t="n">
         <v>-99999</v>
@@ -8144,14 +9264,20 @@
       <c r="B193" t="n">
         <v>0</v>
       </c>
-      <c r="C193" t="n">
-        <v>-8</v>
-      </c>
-      <c r="D193" t="n">
-        <v>-12</v>
-      </c>
-      <c r="E193" t="n">
-        <v>-16</v>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>-8</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>-12</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>-16</t>
+        </is>
       </c>
       <c r="F193" t="n">
         <v>-20</v>
@@ -8184,14 +9310,20 @@
       <c r="B194" t="n">
         <v>0</v>
       </c>
-      <c r="C194" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D194" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E194" t="n">
-        <v>-99999</v>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F194" t="n">
         <v>-99999</v>
@@ -8224,14 +9356,20 @@
       <c r="B195" t="n">
         <v>0</v>
       </c>
-      <c r="C195" t="n">
-        <v>-8</v>
-      </c>
-      <c r="D195" t="n">
-        <v>-12</v>
-      </c>
-      <c r="E195" t="n">
-        <v>-16</v>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>-8</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>-12</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>-16</t>
+        </is>
       </c>
       <c r="F195" t="n">
         <v>-20</v>
@@ -8264,14 +9402,20 @@
       <c r="B196" t="n">
         <v>0</v>
       </c>
-      <c r="C196" t="n">
-        <v>-8</v>
-      </c>
-      <c r="D196" t="n">
-        <v>-12</v>
-      </c>
-      <c r="E196" t="n">
-        <v>-16</v>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>-8</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>-12</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>-16</t>
+        </is>
       </c>
       <c r="F196" t="n">
         <v>-20</v>
@@ -8304,14 +9448,20 @@
       <c r="B197" t="n">
         <v>0</v>
       </c>
-      <c r="C197" t="n">
-        <v>-160</v>
-      </c>
-      <c r="D197" t="n">
-        <v>-165</v>
-      </c>
-      <c r="E197" t="n">
-        <v>-99999</v>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>-160</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>-165</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F197" t="n">
         <v>-99999</v>
@@ -8344,14 +9494,20 @@
       <c r="B198" t="n">
         <v>0</v>
       </c>
-      <c r="C198" t="n">
-        <v>-8</v>
-      </c>
-      <c r="D198" t="n">
-        <v>-12</v>
-      </c>
-      <c r="E198" t="n">
-        <v>-16</v>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>-8</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>-12</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>-16</t>
+        </is>
       </c>
       <c r="F198" t="n">
         <v>-20</v>
@@ -8384,14 +9540,20 @@
       <c r="B199" t="n">
         <v>0</v>
       </c>
-      <c r="C199" t="n">
-        <v>-15</v>
-      </c>
-      <c r="D199" t="n">
-        <v>-20</v>
-      </c>
-      <c r="E199" t="n">
-        <v>-25</v>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>-20</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>-25</t>
+        </is>
       </c>
       <c r="F199" t="n">
         <v>-30</v>
@@ -8424,14 +9586,20 @@
       <c r="B200" t="n">
         <v>0</v>
       </c>
-      <c r="C200" t="n">
-        <v>-15</v>
-      </c>
-      <c r="D200" t="n">
-        <v>-20</v>
-      </c>
-      <c r="E200" t="n">
-        <v>-25</v>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>-20</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>-25</t>
+        </is>
       </c>
       <c r="F200" t="n">
         <v>-30</v>
@@ -8464,14 +9632,20 @@
       <c r="B201" t="n">
         <v>0</v>
       </c>
-      <c r="C201" t="n">
-        <v>-15</v>
-      </c>
-      <c r="D201" t="n">
-        <v>-20</v>
-      </c>
-      <c r="E201" t="n">
-        <v>-25</v>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>-20</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>-25</t>
+        </is>
       </c>
       <c r="F201" t="n">
         <v>-30</v>
@@ -8504,14 +9678,20 @@
       <c r="B202" t="n">
         <v>0</v>
       </c>
-      <c r="C202" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D202" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E202" t="n">
-        <v>-99999</v>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F202" t="n">
         <v>-99999</v>
@@ -8544,14 +9724,20 @@
       <c r="B203" t="n">
         <v>0</v>
       </c>
-      <c r="C203" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D203" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E203" t="n">
-        <v>-99999</v>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F203" t="n">
         <v>-99999</v>
@@ -8584,14 +9770,20 @@
       <c r="B204" t="n">
         <v>0</v>
       </c>
-      <c r="C204" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D204" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E204" t="n">
-        <v>-99999</v>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F204" t="n">
         <v>-99999</v>
@@ -8624,14 +9816,20 @@
       <c r="B205" t="n">
         <v>0</v>
       </c>
-      <c r="C205" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D205" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E205" t="n">
-        <v>-99999</v>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F205" t="n">
         <v>-99999</v>
@@ -8664,14 +9862,20 @@
       <c r="B206" t="n">
         <v>0</v>
       </c>
-      <c r="C206" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D206" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E206" t="n">
-        <v>-99999</v>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F206" t="n">
         <v>-99999</v>
@@ -8704,14 +9908,20 @@
       <c r="B207" t="n">
         <v>0</v>
       </c>
-      <c r="C207" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D207" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E207" t="n">
-        <v>-99999</v>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F207" t="n">
         <v>-99999</v>
@@ -8744,14 +9954,20 @@
       <c r="B208" t="n">
         <v>0</v>
       </c>
-      <c r="C208" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D208" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E208" t="n">
-        <v>-99999</v>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F208" t="n">
         <v>-99999</v>
@@ -8784,14 +10000,20 @@
       <c r="B209" t="n">
         <v>0</v>
       </c>
-      <c r="C209" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D209" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E209" t="n">
-        <v>-99999</v>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F209" t="n">
         <v>-99999</v>
@@ -8824,14 +10046,20 @@
       <c r="B210" t="n">
         <v>0</v>
       </c>
-      <c r="C210" t="n">
-        <v>5</v>
-      </c>
-      <c r="D210" t="n">
-        <v>0</v>
-      </c>
-      <c r="E210" t="n">
-        <v>-99999</v>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F210" t="n">
         <v>-99999</v>
@@ -8864,14 +10092,20 @@
       <c r="B211" t="n">
         <v>0</v>
       </c>
-      <c r="C211" t="n">
-        <v>5</v>
-      </c>
-      <c r="D211" t="n">
-        <v>0</v>
-      </c>
-      <c r="E211" t="n">
-        <v>-99999</v>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F211" t="n">
         <v>-99999</v>
@@ -8904,14 +10138,20 @@
       <c r="B212" t="n">
         <v>0</v>
       </c>
-      <c r="C212" t="n">
-        <v>0</v>
-      </c>
-      <c r="D212" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E212" t="n">
-        <v>-99999</v>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F212" t="n">
         <v>-99999</v>
@@ -8944,14 +10184,20 @@
       <c r="B213" t="n">
         <v>0</v>
       </c>
-      <c r="C213" t="n">
-        <v>-50</v>
-      </c>
-      <c r="D213" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E213" t="n">
-        <v>-99999</v>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>-50</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F213" t="n">
         <v>-99999</v>
@@ -8984,14 +10230,20 @@
       <c r="B214" t="n">
         <v>0</v>
       </c>
-      <c r="C214" t="n">
-        <v>5</v>
-      </c>
-      <c r="D214" t="n">
-        <v>0</v>
-      </c>
-      <c r="E214" t="n">
-        <v>-5</v>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
       </c>
       <c r="F214" t="n">
         <v>-99999</v>
@@ -9024,14 +10276,20 @@
       <c r="B215" t="n">
         <v>0</v>
       </c>
-      <c r="C215" t="n">
-        <v>-28</v>
-      </c>
-      <c r="D215" t="n">
-        <v>-30</v>
-      </c>
-      <c r="E215" t="n">
-        <v>-99999</v>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>-28</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>-30</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F215" t="n">
         <v>-99999</v>
@@ -9064,14 +10322,20 @@
       <c r="B216" t="n">
         <v>0</v>
       </c>
-      <c r="C216" t="n">
-        <v>-6</v>
-      </c>
-      <c r="D216" t="n">
-        <v>-10</v>
-      </c>
-      <c r="E216" t="n">
-        <v>-99999</v>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>-10</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F216" t="n">
         <v>-99999</v>
@@ -9104,14 +10368,20 @@
       <c r="B217" t="n">
         <v>0</v>
       </c>
-      <c r="C217" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D217" t="n">
-        <v>-2</v>
-      </c>
-      <c r="E217" t="n">
-        <v>-2</v>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
       </c>
       <c r="F217" t="n">
         <v>-3</v>
@@ -9144,14 +10414,20 @@
       <c r="B218" t="n">
         <v>0</v>
       </c>
-      <c r="C218" t="n">
-        <v>0</v>
-      </c>
-      <c r="D218" t="n">
-        <v>0</v>
-      </c>
-      <c r="E218" t="n">
-        <v>-2</v>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
       </c>
       <c r="F218" t="n">
         <v>-2</v>
@@ -9184,14 +10460,20 @@
       <c r="B219" t="n">
         <v>0</v>
       </c>
-      <c r="C219" t="n">
-        <v>4</v>
-      </c>
-      <c r="D219" t="n">
-        <v>2</v>
-      </c>
-      <c r="E219" t="n">
-        <v>2</v>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F219" t="n">
         <v>0</v>
@@ -9224,14 +10506,20 @@
       <c r="B220" t="n">
         <v>0</v>
       </c>
-      <c r="C220" t="n">
-        <v>4</v>
-      </c>
-      <c r="D220" t="n">
-        <v>3</v>
-      </c>
-      <c r="E220" t="n">
-        <v>0</v>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="F220" t="n">
         <v>-99999</v>
@@ -9264,14 +10552,20 @@
       <c r="B221" t="n">
         <v>0</v>
       </c>
-      <c r="C221" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D221" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E221" t="n">
-        <v>-10</v>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>-10</t>
+        </is>
       </c>
       <c r="F221" t="n">
         <v>-15</v>
@@ -9304,14 +10598,20 @@
       <c r="B222" t="n">
         <v>0</v>
       </c>
-      <c r="C222" t="n">
-        <v>-15</v>
-      </c>
-      <c r="D222" t="n">
-        <v>-20</v>
-      </c>
-      <c r="E222" t="n">
-        <v>-20</v>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>-20</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>-20</t>
+        </is>
       </c>
       <c r="F222" t="n">
         <v>-25</v>
@@ -9344,14 +10644,20 @@
       <c r="B223" t="n">
         <v>0</v>
       </c>
-      <c r="C223" t="n">
-        <v>-15</v>
-      </c>
-      <c r="D223" t="n">
-        <v>-20</v>
-      </c>
-      <c r="E223" t="n">
-        <v>-20</v>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>-20</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>-20</t>
+        </is>
       </c>
       <c r="F223" t="n">
         <v>-25</v>
@@ -9384,14 +10690,20 @@
       <c r="B224" t="n">
         <v>0</v>
       </c>
-      <c r="C224" t="n">
-        <v>-20</v>
-      </c>
-      <c r="D224" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E224" t="n">
-        <v>-30</v>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>-20</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>-25</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>-30</t>
+        </is>
       </c>
       <c r="F224" t="n">
         <v>-35</v>
@@ -9424,14 +10736,20 @@
       <c r="B225" t="n">
         <v>0</v>
       </c>
-      <c r="C225" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D225" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E225" t="n">
-        <v>-99999</v>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F225" t="n">
         <v>-99999</v>
@@ -9464,14 +10782,20 @@
       <c r="B226" t="n">
         <v>0</v>
       </c>
-      <c r="C226" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D226" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E226" t="n">
-        <v>-99999</v>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F226" t="n">
         <v>-99999</v>
@@ -9504,14 +10828,20 @@
       <c r="B227" t="n">
         <v>0</v>
       </c>
-      <c r="C227" t="n">
-        <v>-32</v>
-      </c>
-      <c r="D227" t="n">
-        <v>-45</v>
-      </c>
-      <c r="E227" t="n">
-        <v>-60</v>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>-32</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>-45</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>-60</t>
+        </is>
       </c>
       <c r="F227" t="n">
         <v>-99999</v>
@@ -9544,14 +10874,20 @@
       <c r="B228" t="n">
         <v>0</v>
       </c>
-      <c r="C228" t="n">
-        <v>-40</v>
-      </c>
-      <c r="D228" t="n">
-        <v>-50</v>
-      </c>
-      <c r="E228" t="n">
-        <v>-60</v>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>-40</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>-50</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>-60</t>
+        </is>
       </c>
       <c r="F228" t="n">
         <v>-65</v>
@@ -9584,14 +10920,20 @@
       <c r="B229" t="n">
         <v>0</v>
       </c>
-      <c r="C229" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D229" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E229" t="n">
-        <v>-99999</v>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="F229" t="n">
         <v>-99999</v>

--- a/info/region_info.xlsx
+++ b/info/region_info.xlsx
@@ -504,20 +504,14 @@
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-99999</v>
       </c>
       <c r="F2" t="n">
         <v>-99999</v>
@@ -550,20 +544,14 @@
       <c r="B3" t="n">
         <v>0</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C3" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-99999</v>
       </c>
       <c r="F3" t="n">
         <v>-99999</v>
@@ -596,20 +584,14 @@
       <c r="B4" t="n">
         <v>0</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>-237</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C4" t="n">
+        <v>-237</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-99999</v>
       </c>
       <c r="F4" t="n">
         <v>-99999</v>
@@ -642,20 +624,14 @@
       <c r="B5" t="n">
         <v>0</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>-10</v>
@@ -688,20 +664,14 @@
       <c r="B6" t="n">
         <v>0</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>-20</t>
-        </is>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-10</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-20</v>
       </c>
       <c r="F6" t="n">
         <v>-99999</v>
@@ -734,20 +704,14 @@
       <c r="B7" t="n">
         <v>0</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-10</v>
       </c>
       <c r="F7" t="n">
         <v>-99999</v>
@@ -780,20 +744,14 @@
       <c r="B8" t="n">
         <v>0</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C8" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-99999</v>
       </c>
       <c r="F8" t="n">
         <v>-99999</v>
@@ -826,20 +784,14 @@
       <c r="B9" t="n">
         <v>0</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C9" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-99999</v>
       </c>
       <c r="F9" t="n">
         <v>-99999</v>
@@ -872,20 +824,14 @@
       <c r="B10" t="n">
         <v>0</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>-17</t>
-        </is>
+      <c r="C10" t="n">
+        <v>-13</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-15</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-17</v>
       </c>
       <c r="F10" t="n">
         <v>-99999</v>
@@ -918,20 +864,14 @@
       <c r="B11" t="n">
         <v>0</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C11" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-99999</v>
       </c>
       <c r="F11" t="n">
         <v>-99999</v>
@@ -964,20 +904,14 @@
       <c r="B12" t="n">
         <v>0</v>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C12" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-99999</v>
       </c>
       <c r="F12" t="n">
         <v>-99999</v>
@@ -1010,20 +944,14 @@
       <c r="B13" t="n">
         <v>0</v>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C13" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-99999</v>
       </c>
       <c r="F13" t="n">
         <v>-99999</v>
@@ -1056,20 +984,14 @@
       <c r="B14" t="n">
         <v>0</v>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>-16</t>
-        </is>
+      <c r="C14" t="n">
+        <v>-12</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-14</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-16</v>
       </c>
       <c r="F14" t="n">
         <v>-99999</v>
@@ -1102,20 +1024,14 @@
       <c r="B15" t="n">
         <v>0</v>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C15" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-99999</v>
       </c>
       <c r="F15" t="n">
         <v>-99999</v>
@@ -1148,20 +1064,14 @@
       <c r="B16" t="n">
         <v>0</v>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>-17</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>-17</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>-17</t>
-        </is>
+      <c r="C16" t="n">
+        <v>-17</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-17</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-17</v>
       </c>
       <c r="F16" t="n">
         <v>-99999</v>
@@ -1194,20 +1104,14 @@
       <c r="B17" t="n">
         <v>0</v>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>-20</t>
-        </is>
+      <c r="C17" t="n">
+        <v>-13</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-15</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-20</v>
       </c>
       <c r="F17" t="n">
         <v>-99999</v>
@@ -1240,20 +1144,14 @@
       <c r="B18" t="n">
         <v>0</v>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>-16</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>-18</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>-20</t>
-        </is>
+      <c r="C18" t="n">
+        <v>-16</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-18</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-20</v>
       </c>
       <c r="F18" t="n">
         <v>-99999</v>
@@ -1286,20 +1184,14 @@
       <c r="B19" t="n">
         <v>0</v>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>-16</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>-17</t>
-        </is>
+      <c r="C19" t="n">
+        <v>-15</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-16</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-17</v>
       </c>
       <c r="F19" t="n">
         <v>-99999</v>
@@ -1332,20 +1224,14 @@
       <c r="B20" t="n">
         <v>0</v>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C20" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-99999</v>
       </c>
       <c r="F20" t="n">
         <v>-99999</v>
@@ -1378,20 +1264,14 @@
       <c r="B21" t="n">
         <v>0</v>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C21" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-99999</v>
       </c>
       <c r="F21" t="n">
         <v>-99999</v>
@@ -1424,20 +1304,14 @@
       <c r="B22" t="n">
         <v>0</v>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>-20</t>
-        </is>
+      <c r="C22" t="n">
+        <v>10</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-20</v>
       </c>
       <c r="F22" t="n">
         <v>-25</v>
@@ -1470,20 +1344,14 @@
       <c r="B23" t="n">
         <v>0</v>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>-20</t>
-        </is>
+      <c r="C23" t="n">
+        <v>10</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-20</v>
       </c>
       <c r="F23" t="n">
         <v>-25</v>
@@ -1516,20 +1384,14 @@
       <c r="B24" t="n">
         <v>0</v>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>-20</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>-25</t>
-        </is>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-20</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-25</v>
       </c>
       <c r="F24" t="n">
         <v>-30</v>
@@ -1562,20 +1424,14 @@
       <c r="B25" t="n">
         <v>0</v>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>-20</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>-25</t>
-        </is>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-20</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-25</v>
       </c>
       <c r="F25" t="n">
         <v>-30</v>
@@ -1608,20 +1464,14 @@
       <c r="B26" t="n">
         <v>0</v>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>-20</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>-25</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>-30</t>
-        </is>
+      <c r="C26" t="n">
+        <v>-20</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-25</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-30</v>
       </c>
       <c r="F26" t="n">
         <v>-40</v>
@@ -1654,20 +1504,14 @@
       <c r="B27" t="n">
         <v>0</v>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>-20</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>-25</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>-30</t>
-        </is>
+      <c r="C27" t="n">
+        <v>-20</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-25</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-30</v>
       </c>
       <c r="F27" t="n">
         <v>-40</v>
@@ -1700,20 +1544,14 @@
       <c r="B28" t="n">
         <v>0</v>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>-60</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>-80</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>-100</t>
-        </is>
+      <c r="C28" t="n">
+        <v>-60</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-80</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-100</v>
       </c>
       <c r="F28" t="n">
         <v>-120</v>
@@ -1746,20 +1584,14 @@
       <c r="B29" t="n">
         <v>0</v>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>-60</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>-80</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>-100</t>
-        </is>
+      <c r="C29" t="n">
+        <v>-60</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-80</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-100</v>
       </c>
       <c r="F29" t="n">
         <v>-120</v>
@@ -1792,20 +1624,14 @@
       <c r="B30" t="n">
         <v>0</v>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>-60</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>-80</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>-100</t>
-        </is>
+      <c r="C30" t="n">
+        <v>-60</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-80</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-100</v>
       </c>
       <c r="F30" t="n">
         <v>-120</v>
@@ -1844,10 +1670,8 @@
       <c r="D31" t="n">
         <v>-1.6</v>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="E31" t="n">
+        <v>-99999</v>
       </c>
       <c r="F31" t="n">
         <v>-99999</v>
@@ -1926,10 +1750,8 @@
       <c r="D33" t="n">
         <v>-1.2</v>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="E33" t="n">
+        <v>-99999</v>
       </c>
       <c r="F33" t="n">
         <v>-99999</v>
@@ -1962,20 +1784,14 @@
       <c r="B34" t="n">
         <v>0</v>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>-20</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>-25</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>-35</t>
-        </is>
+      <c r="C34" t="n">
+        <v>-20</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-25</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-35</v>
       </c>
       <c r="F34" t="n">
         <v>-40</v>
@@ -2008,20 +1824,14 @@
       <c r="B35" t="n">
         <v>0</v>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>-40</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>-50</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>-55</t>
-        </is>
+      <c r="C35" t="n">
+        <v>-40</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-50</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-55</v>
       </c>
       <c r="F35" t="n">
         <v>-60</v>
@@ -2054,20 +1864,14 @@
       <c r="B36" t="n">
         <v>0</v>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>-20</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C36" t="n">
+        <v>-20</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-99999</v>
       </c>
       <c r="F36" t="n">
         <v>-99999</v>
@@ -2100,20 +1904,14 @@
       <c r="B37" t="n">
         <v>0</v>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>-20</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>-40</t>
-        </is>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-20</v>
+      </c>
+      <c r="E37" t="n">
+        <v>-40</v>
       </c>
       <c r="F37" t="n">
         <v>-99999</v>
@@ -2146,20 +1944,14 @@
       <c r="B38" t="n">
         <v>0</v>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>-40</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>-50</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>-60</t>
-        </is>
+      <c r="C38" t="n">
+        <v>-40</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-50</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-60</v>
       </c>
       <c r="F38" t="n">
         <v>-99999</v>
@@ -2192,20 +1984,14 @@
       <c r="B39" t="n">
         <v>0</v>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>-170</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>-180</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>-190</t>
-        </is>
+      <c r="C39" t="n">
+        <v>-170</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-180</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-190</v>
       </c>
       <c r="F39" t="n">
         <v>-99999</v>
@@ -2238,20 +2024,14 @@
       <c r="B40" t="n">
         <v>0</v>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-10</v>
       </c>
       <c r="F40" t="n">
         <v>-15</v>
@@ -2284,20 +2064,14 @@
       <c r="B41" t="n">
         <v>0</v>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C41" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-99999</v>
       </c>
       <c r="F41" t="n">
         <v>-99999</v>
@@ -2330,20 +2104,14 @@
       <c r="B42" t="n">
         <v>0</v>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C42" t="n">
+        <v>5</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E42" t="n">
+        <v>-99999</v>
       </c>
       <c r="F42" t="n">
         <v>-99999</v>
@@ -2376,20 +2144,14 @@
       <c r="B43" t="n">
         <v>0</v>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C43" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E43" t="n">
+        <v>-99999</v>
       </c>
       <c r="F43" t="n">
         <v>-99999</v>
@@ -2422,20 +2184,14 @@
       <c r="B44" t="n">
         <v>0</v>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-10</v>
       </c>
       <c r="F44" t="n">
         <v>-20</v>
@@ -2468,20 +2224,14 @@
       <c r="B45" t="n">
         <v>0</v>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C45" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-99999</v>
       </c>
       <c r="F45" t="n">
         <v>-99999</v>
@@ -2514,20 +2264,14 @@
       <c r="B46" t="n">
         <v>0</v>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-10</v>
       </c>
       <c r="F46" t="n">
         <v>-20</v>
@@ -2560,20 +2304,14 @@
       <c r="B47" t="n">
         <v>0</v>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C47" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-99999</v>
       </c>
       <c r="F47" t="n">
         <v>-99999</v>
@@ -2606,20 +2344,14 @@
       <c r="B48" t="n">
         <v>0</v>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C48" t="n">
+        <v>5</v>
+      </c>
+      <c r="D48" t="n">
+        <v>5</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-99999</v>
       </c>
       <c r="F48" t="n">
         <v>-99999</v>
@@ -2652,20 +2384,14 @@
       <c r="B49" t="n">
         <v>0</v>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C49" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-99999</v>
       </c>
       <c r="F49" t="n">
         <v>-99999</v>
@@ -2698,20 +2424,14 @@
       <c r="B50" t="n">
         <v>0</v>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C50" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-99999</v>
       </c>
       <c r="F50" t="n">
         <v>-99999</v>
@@ -2744,20 +2464,14 @@
       <c r="B51" t="n">
         <v>0</v>
       </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C51" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-99999</v>
       </c>
       <c r="F51" t="n">
         <v>-99999</v>
@@ -2790,20 +2504,14 @@
       <c r="B52" t="n">
         <v>0</v>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C52" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-99999</v>
       </c>
       <c r="F52" t="n">
         <v>-99999</v>
@@ -2836,20 +2544,14 @@
       <c r="B53" t="n">
         <v>0</v>
       </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>-185</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>-195</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C53" t="n">
+        <v>-185</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-195</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-99999</v>
       </c>
       <c r="F53" t="n">
         <v>-99999</v>
@@ -2882,20 +2584,14 @@
       <c r="B54" t="n">
         <v>0</v>
       </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>-210</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>-220</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C54" t="n">
+        <v>-210</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-220</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-99999</v>
       </c>
       <c r="F54" t="n">
         <v>-99999</v>
@@ -2928,20 +2624,14 @@
       <c r="B55" t="n">
         <v>0</v>
       </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C55" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-99999</v>
       </c>
       <c r="F55" t="n">
         <v>-99999</v>
@@ -2974,20 +2664,14 @@
       <c r="B56" t="n">
         <v>0</v>
       </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C56" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-99999</v>
       </c>
       <c r="F56" t="n">
         <v>-99999</v>
@@ -3020,20 +2704,14 @@
       <c r="B57" t="n">
         <v>0</v>
       </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C57" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-99999</v>
       </c>
       <c r="F57" t="n">
         <v>-99999</v>
@@ -3066,20 +2744,14 @@
       <c r="B58" t="n">
         <v>0</v>
       </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>-28</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C58" t="n">
+        <v>-28</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E58" t="n">
+        <v>-99999</v>
       </c>
       <c r="F58" t="n">
         <v>-99999</v>
@@ -3112,20 +2784,14 @@
       <c r="B59" t="n">
         <v>0</v>
       </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>-28</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>-32</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C59" t="n">
+        <v>-28</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-32</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-99999</v>
       </c>
       <c r="F59" t="n">
         <v>-99999</v>
@@ -3158,20 +2824,14 @@
       <c r="B60" t="n">
         <v>0</v>
       </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>-24</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>-26</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>-28</t>
-        </is>
+      <c r="C60" t="n">
+        <v>-24</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-26</v>
+      </c>
+      <c r="E60" t="n">
+        <v>-28</v>
       </c>
       <c r="F60" t="n">
         <v>-99999</v>
@@ -3204,20 +2864,14 @@
       <c r="B61" t="n">
         <v>0</v>
       </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>-21</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>-26</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>-32</t>
-        </is>
+      <c r="C61" t="n">
+        <v>-21</v>
+      </c>
+      <c r="D61" t="n">
+        <v>-26</v>
+      </c>
+      <c r="E61" t="n">
+        <v>-32</v>
       </c>
       <c r="F61" t="n">
         <v>-36</v>
@@ -3250,20 +2904,14 @@
       <c r="B62" t="n">
         <v>0</v>
       </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>-21</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>-26</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>-32</t>
-        </is>
+      <c r="C62" t="n">
+        <v>-21</v>
+      </c>
+      <c r="D62" t="n">
+        <v>-26</v>
+      </c>
+      <c r="E62" t="n">
+        <v>-32</v>
       </c>
       <c r="F62" t="n">
         <v>-36</v>
@@ -3296,20 +2944,14 @@
       <c r="B63" t="n">
         <v>0</v>
       </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>-19</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>-20</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>-21</t>
-        </is>
+      <c r="C63" t="n">
+        <v>-19</v>
+      </c>
+      <c r="D63" t="n">
+        <v>-20</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-21</v>
       </c>
       <c r="F63" t="n">
         <v>-23</v>
@@ -3342,20 +2984,14 @@
       <c r="B64" t="n">
         <v>0</v>
       </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>-30</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>-40</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>-50</t>
-        </is>
+      <c r="C64" t="n">
+        <v>-30</v>
+      </c>
+      <c r="D64" t="n">
+        <v>-40</v>
+      </c>
+      <c r="E64" t="n">
+        <v>-50</v>
       </c>
       <c r="F64" t="n">
         <v>-99999</v>
@@ -3388,20 +3024,14 @@
       <c r="B65" t="n">
         <v>0</v>
       </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>-45</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>-60</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C65" t="n">
+        <v>-45</v>
+      </c>
+      <c r="D65" t="n">
+        <v>-60</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-99999</v>
       </c>
       <c r="F65" t="n">
         <v>-99999</v>
@@ -3434,20 +3064,14 @@
       <c r="B66" t="n">
         <v>0</v>
       </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
+      <c r="C66" t="n">
+        <v>5</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>-10</v>
       </c>
       <c r="F66" t="n">
         <v>-20</v>
@@ -3480,20 +3104,14 @@
       <c r="B67" t="n">
         <v>0</v>
       </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C67" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D67" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E67" t="n">
+        <v>-99999</v>
       </c>
       <c r="F67" t="n">
         <v>-99999</v>
@@ -3526,20 +3144,14 @@
       <c r="B68" t="n">
         <v>0</v>
       </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C68" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D68" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E68" t="n">
+        <v>-99999</v>
       </c>
       <c r="F68" t="n">
         <v>-99999</v>
@@ -3572,20 +3184,14 @@
       <c r="B69" t="n">
         <v>0</v>
       </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
+      <c r="C69" t="n">
+        <v>5</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>-10</v>
       </c>
       <c r="F69" t="n">
         <v>-20</v>
@@ -3618,20 +3224,14 @@
       <c r="B70" t="n">
         <v>0</v>
       </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
+      <c r="C70" t="n">
+        <v>5</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>-10</v>
       </c>
       <c r="F70" t="n">
         <v>-20</v>
@@ -3664,20 +3264,14 @@
       <c r="B71" t="n">
         <v>0</v>
       </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E71" t="n">
+        <v>-10</v>
       </c>
       <c r="F71" t="n">
         <v>-20</v>
@@ -3710,20 +3304,14 @@
       <c r="B72" t="n">
         <v>0</v>
       </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
+      <c r="C72" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E72" t="n">
+        <v>-10</v>
       </c>
       <c r="F72" t="n">
         <v>-20</v>
@@ -3756,20 +3344,14 @@
       <c r="B73" t="n">
         <v>0</v>
       </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C73" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D73" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E73" t="n">
+        <v>-99999</v>
       </c>
       <c r="F73" t="n">
         <v>-99999</v>
@@ -3802,20 +3384,14 @@
       <c r="B74" t="n">
         <v>0</v>
       </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C74" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D74" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E74" t="n">
+        <v>-99999</v>
       </c>
       <c r="F74" t="n">
         <v>-99999</v>
@@ -3848,20 +3424,14 @@
       <c r="B75" t="n">
         <v>0</v>
       </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C75" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D75" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E75" t="n">
+        <v>-99999</v>
       </c>
       <c r="F75" t="n">
         <v>-99999</v>
@@ -3894,20 +3464,14 @@
       <c r="B76" t="n">
         <v>0</v>
       </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
+      <c r="C76" t="n">
+        <v>10</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>-10</v>
       </c>
       <c r="F76" t="n">
         <v>-20</v>
@@ -3940,20 +3504,14 @@
       <c r="B77" t="n">
         <v>0</v>
       </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C77" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D77" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E77" t="n">
+        <v>-99999</v>
       </c>
       <c r="F77" t="n">
         <v>-99999</v>
@@ -3986,20 +3544,14 @@
       <c r="B78" t="n">
         <v>0</v>
       </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
+      <c r="C78" t="n">
+        <v>10</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>-10</v>
       </c>
       <c r="F78" t="n">
         <v>-20</v>
@@ -4032,20 +3584,14 @@
       <c r="B79" t="n">
         <v>0</v>
       </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>-58</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C79" t="n">
+        <v>-58</v>
+      </c>
+      <c r="D79" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E79" t="n">
+        <v>-99999</v>
       </c>
       <c r="F79" t="n">
         <v>-99999</v>
@@ -4078,20 +3624,14 @@
       <c r="B80" t="n">
         <v>0</v>
       </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C80" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D80" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E80" t="n">
+        <v>-99999</v>
       </c>
       <c r="F80" t="n">
         <v>-99999</v>
@@ -4124,20 +3664,14 @@
       <c r="B81" t="n">
         <v>0</v>
       </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C81" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D81" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E81" t="n">
+        <v>-99999</v>
       </c>
       <c r="F81" t="n">
         <v>-99999</v>
@@ -4170,20 +3704,14 @@
       <c r="B82" t="n">
         <v>0</v>
       </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C82" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D82" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E82" t="n">
+        <v>-99999</v>
       </c>
       <c r="F82" t="n">
         <v>-99999</v>
@@ -4216,20 +3744,14 @@
       <c r="B83" t="n">
         <v>0</v>
       </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>-20</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C83" t="n">
+        <v>-15</v>
+      </c>
+      <c r="D83" t="n">
+        <v>-20</v>
+      </c>
+      <c r="E83" t="n">
+        <v>-99999</v>
       </c>
       <c r="F83" t="n">
         <v>-99999</v>
@@ -4262,20 +3784,14 @@
       <c r="B84" t="n">
         <v>0</v>
       </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>-18</t>
-        </is>
+      <c r="C84" t="n">
+        <v>3</v>
+      </c>
+      <c r="D84" t="n">
+        <v>-8</v>
+      </c>
+      <c r="E84" t="n">
+        <v>-18</v>
       </c>
       <c r="F84" t="n">
         <v>-28</v>
@@ -4308,20 +3824,14 @@
       <c r="B85" t="n">
         <v>0</v>
       </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>-25</t>
-        </is>
+      <c r="C85" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D85" t="n">
+        <v>-15</v>
+      </c>
+      <c r="E85" t="n">
+        <v>-25</v>
       </c>
       <c r="F85" t="n">
         <v>-35</v>
@@ -4354,20 +3864,14 @@
       <c r="B86" t="n">
         <v>0</v>
       </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="C86" t="n">
+        <v>10</v>
+      </c>
+      <c r="D86" t="n">
+        <v>5</v>
+      </c>
+      <c r="E86" t="n">
+        <v>5</v>
       </c>
       <c r="F86" t="n">
         <v>4</v>
@@ -4400,20 +3904,14 @@
       <c r="B87" t="n">
         <v>0</v>
       </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
+      <c r="C87" t="n">
+        <v>5</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0</v>
+      </c>
+      <c r="E87" t="n">
+        <v>-5</v>
       </c>
       <c r="F87" t="n">
         <v>-10</v>
@@ -4446,20 +3944,14 @@
       <c r="B88" t="n">
         <v>0</v>
       </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>-20</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>-30</t>
-        </is>
+      <c r="C88" t="n">
+        <v>-10</v>
+      </c>
+      <c r="D88" t="n">
+        <v>-20</v>
+      </c>
+      <c r="E88" t="n">
+        <v>-30</v>
       </c>
       <c r="F88" t="n">
         <v>-40</v>
@@ -4492,20 +3984,14 @@
       <c r="B89" t="n">
         <v>0</v>
       </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>-20</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>-30</t>
-        </is>
+      <c r="C89" t="n">
+        <v>-10</v>
+      </c>
+      <c r="D89" t="n">
+        <v>-20</v>
+      </c>
+      <c r="E89" t="n">
+        <v>-30</v>
       </c>
       <c r="F89" t="n">
         <v>-40</v>
@@ -4538,20 +4024,14 @@
       <c r="B90" t="n">
         <v>0</v>
       </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C90" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D90" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E90" t="n">
+        <v>-99999</v>
       </c>
       <c r="F90" t="n">
         <v>-99999</v>
@@ -4584,20 +4064,14 @@
       <c r="B91" t="n">
         <v>0</v>
       </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C91" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D91" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E91" t="n">
+        <v>-99999</v>
       </c>
       <c r="F91" t="n">
         <v>-99999</v>
@@ -4630,20 +4104,14 @@
       <c r="B92" t="n">
         <v>0</v>
       </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C92" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D92" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E92" t="n">
+        <v>-99999</v>
       </c>
       <c r="F92" t="n">
         <v>-99999</v>
@@ -4676,20 +4144,14 @@
       <c r="B93" t="n">
         <v>0</v>
       </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C93" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D93" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E93" t="n">
+        <v>-99999</v>
       </c>
       <c r="F93" t="n">
         <v>-99999</v>
@@ -4722,20 +4184,14 @@
       <c r="B94" t="n">
         <v>0</v>
       </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C94" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D94" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E94" t="n">
+        <v>-99999</v>
       </c>
       <c r="F94" t="n">
         <v>-99999</v>
@@ -4771,15 +4227,11 @@
       <c r="C95" t="n">
         <v>3.5</v>
       </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="D95" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E95" t="n">
+        <v>-99999</v>
       </c>
       <c r="F95" t="n">
         <v>-99999</v>
@@ -4812,20 +4264,14 @@
       <c r="B96" t="n">
         <v>0</v>
       </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C96" t="n">
+        <v>4</v>
+      </c>
+      <c r="D96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E96" t="n">
+        <v>-99999</v>
       </c>
       <c r="F96" t="n">
         <v>-99999</v>
@@ -4861,15 +4307,11 @@
       <c r="C97" t="n">
         <v>4.5</v>
       </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="D97" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E97" t="n">
+        <v>-99999</v>
       </c>
       <c r="F97" t="n">
         <v>-99999</v>
@@ -4902,20 +4344,14 @@
       <c r="B98" t="n">
         <v>0</v>
       </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C98" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D98" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E98" t="n">
+        <v>-99999</v>
       </c>
       <c r="F98" t="n">
         <v>-99999</v>
@@ -4948,20 +4384,14 @@
       <c r="B99" t="n">
         <v>0</v>
       </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C99" t="n">
+        <v>3</v>
+      </c>
+      <c r="D99" t="n">
+        <v>2</v>
+      </c>
+      <c r="E99" t="n">
+        <v>-99999</v>
       </c>
       <c r="F99" t="n">
         <v>-99999</v>
@@ -4994,20 +4424,14 @@
       <c r="B100" t="n">
         <v>0</v>
       </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C100" t="n">
+        <v>3</v>
+      </c>
+      <c r="D100" t="n">
+        <v>2</v>
+      </c>
+      <c r="E100" t="n">
+        <v>-99999</v>
       </c>
       <c r="F100" t="n">
         <v>-99999</v>
@@ -5043,15 +4467,11 @@
       <c r="C101" t="n">
         <v>3.5</v>
       </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="D101" t="n">
+        <v>2</v>
+      </c>
+      <c r="E101" t="n">
+        <v>-99999</v>
       </c>
       <c r="F101" t="n">
         <v>-99999</v>
@@ -5084,20 +4504,14 @@
       <c r="B102" t="n">
         <v>0</v>
       </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C102" t="n">
+        <v>0</v>
+      </c>
+      <c r="D102" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E102" t="n">
+        <v>-99999</v>
       </c>
       <c r="F102" t="n">
         <v>-99999</v>
@@ -5130,20 +4544,14 @@
       <c r="B103" t="n">
         <v>0</v>
       </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C103" t="n">
+        <v>0</v>
+      </c>
+      <c r="D103" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E103" t="n">
+        <v>-99999</v>
       </c>
       <c r="F103" t="n">
         <v>-99999</v>
@@ -5176,20 +4584,14 @@
       <c r="B104" t="n">
         <v>0</v>
       </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C104" t="n">
+        <v>0</v>
+      </c>
+      <c r="D104" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E104" t="n">
+        <v>-99999</v>
       </c>
       <c r="F104" t="n">
         <v>-99999</v>
@@ -5222,20 +4624,14 @@
       <c r="B105" t="n">
         <v>0</v>
       </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C105" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D105" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E105" t="n">
+        <v>-99999</v>
       </c>
       <c r="F105" t="n">
         <v>-99999</v>
@@ -5268,20 +4664,14 @@
       <c r="B106" t="n">
         <v>0</v>
       </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C106" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D106" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E106" t="n">
+        <v>-99999</v>
       </c>
       <c r="F106" t="n">
         <v>-99999</v>
@@ -5314,20 +4704,14 @@
       <c r="B107" t="n">
         <v>0</v>
       </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C107" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D107" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E107" t="n">
+        <v>-99999</v>
       </c>
       <c r="F107" t="n">
         <v>-99999</v>
@@ -5360,20 +4744,14 @@
       <c r="B108" t="n">
         <v>0</v>
       </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C108" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D108" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E108" t="n">
+        <v>-99999</v>
       </c>
       <c r="F108" t="n">
         <v>-99999</v>
@@ -5406,20 +4784,14 @@
       <c r="B109" t="n">
         <v>0</v>
       </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C109" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D109" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E109" t="n">
+        <v>-99999</v>
       </c>
       <c r="F109" t="n">
         <v>-99999</v>
@@ -5452,20 +4824,14 @@
       <c r="B110" t="n">
         <v>0</v>
       </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C110" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D110" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E110" t="n">
+        <v>-99999</v>
       </c>
       <c r="F110" t="n">
         <v>-99999</v>
@@ -5498,20 +4864,14 @@
       <c r="B111" t="n">
         <v>0</v>
       </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C111" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D111" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E111" t="n">
+        <v>-99999</v>
       </c>
       <c r="F111" t="n">
         <v>-99999</v>
@@ -5544,20 +4904,14 @@
       <c r="B112" t="n">
         <v>0</v>
       </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
+      <c r="C112" t="n">
+        <v>0</v>
+      </c>
+      <c r="D112" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E112" t="n">
+        <v>-10</v>
       </c>
       <c r="F112" t="n">
         <v>-15</v>
@@ -5590,20 +4944,14 @@
       <c r="B113" t="n">
         <v>0</v>
       </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>-20</t>
-        </is>
+      <c r="C113" t="n">
+        <v>5</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0</v>
+      </c>
+      <c r="E113" t="n">
+        <v>-20</v>
       </c>
       <c r="F113" t="n">
         <v>-99999</v>
@@ -5636,20 +4984,14 @@
       <c r="B114" t="n">
         <v>0</v>
       </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
+      <c r="C114" t="n">
+        <v>0</v>
+      </c>
+      <c r="D114" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E114" t="n">
+        <v>-10</v>
       </c>
       <c r="F114" t="n">
         <v>-15</v>
@@ -5682,20 +5024,14 @@
       <c r="B115" t="n">
         <v>0</v>
       </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
+      <c r="C115" t="n">
+        <v>0</v>
+      </c>
+      <c r="D115" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E115" t="n">
+        <v>-10</v>
       </c>
       <c r="F115" t="n">
         <v>-20</v>
@@ -5728,20 +5064,14 @@
       <c r="B116" t="n">
         <v>0</v>
       </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
+      <c r="C116" t="n">
+        <v>0</v>
+      </c>
+      <c r="D116" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E116" t="n">
+        <v>-10</v>
       </c>
       <c r="F116" t="n">
         <v>-15</v>
@@ -5774,20 +5104,14 @@
       <c r="B117" t="n">
         <v>0</v>
       </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
+      <c r="C117" t="n">
+        <v>0</v>
+      </c>
+      <c r="D117" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E117" t="n">
+        <v>-10</v>
       </c>
       <c r="F117" t="n">
         <v>-15</v>
@@ -5820,20 +5144,14 @@
       <c r="B118" t="n">
         <v>0</v>
       </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
+      <c r="C118" t="n">
+        <v>0</v>
+      </c>
+      <c r="D118" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E118" t="n">
+        <v>-10</v>
       </c>
       <c r="F118" t="n">
         <v>-15</v>
@@ -5866,20 +5184,14 @@
       <c r="B119" t="n">
         <v>0</v>
       </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
+      <c r="C119" t="n">
+        <v>0</v>
+      </c>
+      <c r="D119" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E119" t="n">
+        <v>-10</v>
       </c>
       <c r="F119" t="n">
         <v>-15</v>
@@ -5912,20 +5224,14 @@
       <c r="B120" t="n">
         <v>0</v>
       </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C120" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D120" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E120" t="n">
+        <v>-99999</v>
       </c>
       <c r="F120" t="n">
         <v>-99999</v>
@@ -5958,20 +5264,14 @@
       <c r="B121" t="n">
         <v>0</v>
       </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>-60</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>-70</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>-80</t>
-        </is>
+      <c r="C121" t="n">
+        <v>-60</v>
+      </c>
+      <c r="D121" t="n">
+        <v>-70</v>
+      </c>
+      <c r="E121" t="n">
+        <v>-80</v>
       </c>
       <c r="F121" t="n">
         <v>-99999</v>
@@ -6004,20 +5304,14 @@
       <c r="B122" t="n">
         <v>0</v>
       </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>-50</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>-60</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>-70</t>
-        </is>
+      <c r="C122" t="n">
+        <v>-50</v>
+      </c>
+      <c r="D122" t="n">
+        <v>-60</v>
+      </c>
+      <c r="E122" t="n">
+        <v>-70</v>
       </c>
       <c r="F122" t="n">
         <v>-99999</v>
@@ -6050,20 +5344,14 @@
       <c r="B123" t="n">
         <v>0</v>
       </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
+      <c r="C123" t="n">
+        <v>0</v>
+      </c>
+      <c r="D123" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E123" t="n">
+        <v>-10</v>
       </c>
       <c r="F123" t="n">
         <v>-20</v>
@@ -6096,20 +5384,14 @@
       <c r="B124" t="n">
         <v>0</v>
       </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C124" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D124" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E124" t="n">
+        <v>-99999</v>
       </c>
       <c r="F124" t="n">
         <v>-99999</v>
@@ -6142,20 +5424,14 @@
       <c r="B125" t="n">
         <v>0</v>
       </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>-40</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>-50</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C125" t="n">
+        <v>-40</v>
+      </c>
+      <c r="D125" t="n">
+        <v>-50</v>
+      </c>
+      <c r="E125" t="n">
+        <v>-99999</v>
       </c>
       <c r="F125" t="n">
         <v>-99999</v>
@@ -6188,20 +5464,14 @@
       <c r="B126" t="n">
         <v>0</v>
       </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
+      <c r="C126" t="n">
+        <v>0</v>
+      </c>
+      <c r="D126" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E126" t="n">
+        <v>-10</v>
       </c>
       <c r="F126" t="n">
         <v>-99999</v>
@@ -6234,20 +5504,14 @@
       <c r="B127" t="n">
         <v>0</v>
       </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>-20</t>
-        </is>
+      <c r="C127" t="n">
+        <v>0</v>
+      </c>
+      <c r="D127" t="n">
+        <v>-10</v>
+      </c>
+      <c r="E127" t="n">
+        <v>-20</v>
       </c>
       <c r="F127" t="n">
         <v>-99999</v>
@@ -6280,20 +5544,14 @@
       <c r="B128" t="n">
         <v>0</v>
       </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>-20</t>
-        </is>
+      <c r="C128" t="n">
+        <v>0</v>
+      </c>
+      <c r="D128" t="n">
+        <v>-10</v>
+      </c>
+      <c r="E128" t="n">
+        <v>-20</v>
       </c>
       <c r="F128" t="n">
         <v>-99999</v>
@@ -6326,20 +5584,14 @@
       <c r="B129" t="n">
         <v>0</v>
       </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C129" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D129" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E129" t="n">
+        <v>-99999</v>
       </c>
       <c r="F129" t="n">
         <v>-99999</v>
@@ -6372,20 +5624,14 @@
       <c r="B130" t="n">
         <v>0</v>
       </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C130" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D130" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E130" t="n">
+        <v>-99999</v>
       </c>
       <c r="F130" t="n">
         <v>-99999</v>
@@ -6418,20 +5664,14 @@
       <c r="B131" t="n">
         <v>0</v>
       </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>-20</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C131" t="n">
+        <v>-14</v>
+      </c>
+      <c r="D131" t="n">
+        <v>-20</v>
+      </c>
+      <c r="E131" t="n">
+        <v>-99999</v>
       </c>
       <c r="F131" t="n">
         <v>-99999</v>
@@ -6464,20 +5704,14 @@
       <c r="B132" t="n">
         <v>0</v>
       </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>-20</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>-22</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>-25</t>
-        </is>
+      <c r="C132" t="n">
+        <v>-20</v>
+      </c>
+      <c r="D132" t="n">
+        <v>-22</v>
+      </c>
+      <c r="E132" t="n">
+        <v>-25</v>
       </c>
       <c r="F132" t="n">
         <v>-99999</v>
@@ -6510,20 +5744,14 @@
       <c r="B133" t="n">
         <v>0</v>
       </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C133" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D133" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E133" t="n">
+        <v>-99999</v>
       </c>
       <c r="F133" t="n">
         <v>-99999</v>
@@ -6556,20 +5784,14 @@
       <c r="B134" t="n">
         <v>0</v>
       </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>-25</t>
-        </is>
+      <c r="C134" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D134" t="n">
+        <v>-15</v>
+      </c>
+      <c r="E134" t="n">
+        <v>-25</v>
       </c>
       <c r="F134" t="n">
         <v>-99999</v>
@@ -6602,20 +5824,14 @@
       <c r="B135" t="n">
         <v>0</v>
       </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C135" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D135" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E135" t="n">
+        <v>-99999</v>
       </c>
       <c r="F135" t="n">
         <v>-99999</v>
@@ -6648,20 +5864,14 @@
       <c r="B136" t="n">
         <v>0</v>
       </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>-65</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>-80</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C136" t="n">
+        <v>-65</v>
+      </c>
+      <c r="D136" t="n">
+        <v>-80</v>
+      </c>
+      <c r="E136" t="n">
+        <v>-99999</v>
       </c>
       <c r="F136" t="n">
         <v>-99999</v>
@@ -6694,20 +5904,14 @@
       <c r="B137" t="n">
         <v>0</v>
       </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>-20</t>
-        </is>
+      <c r="C137" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D137" t="n">
+        <v>-10</v>
+      </c>
+      <c r="E137" t="n">
+        <v>-20</v>
       </c>
       <c r="F137" t="n">
         <v>-99999</v>
@@ -6740,20 +5944,14 @@
       <c r="B138" t="n">
         <v>0</v>
       </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>-20</t>
-        </is>
+      <c r="C138" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D138" t="n">
+        <v>-12</v>
+      </c>
+      <c r="E138" t="n">
+        <v>-20</v>
       </c>
       <c r="F138" t="n">
         <v>-99999</v>
@@ -6786,20 +5984,14 @@
       <c r="B139" t="n">
         <v>0</v>
       </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C139" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D139" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E139" t="n">
+        <v>-99999</v>
       </c>
       <c r="F139" t="n">
         <v>-99999</v>
@@ -6832,20 +6024,14 @@
       <c r="B140" t="n">
         <v>0</v>
       </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>-25</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C140" t="n">
+        <v>-15</v>
+      </c>
+      <c r="D140" t="n">
+        <v>-25</v>
+      </c>
+      <c r="E140" t="n">
+        <v>-99999</v>
       </c>
       <c r="F140" t="n">
         <v>-99999</v>
@@ -6878,20 +6064,14 @@
       <c r="B141" t="n">
         <v>0</v>
       </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>-20</t>
-        </is>
+      <c r="C141" t="n">
+        <v>0</v>
+      </c>
+      <c r="D141" t="n">
+        <v>-10</v>
+      </c>
+      <c r="E141" t="n">
+        <v>-20</v>
       </c>
       <c r="F141" t="n">
         <v>-99999</v>
@@ -6924,20 +6104,14 @@
       <c r="B142" t="n">
         <v>0</v>
       </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C142" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D142" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E142" t="n">
+        <v>-99999</v>
       </c>
       <c r="F142" t="n">
         <v>-99999</v>
@@ -6970,20 +6144,14 @@
       <c r="B143" t="n">
         <v>0</v>
       </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>-20</t>
-        </is>
+      <c r="C143" t="n">
+        <v>0</v>
+      </c>
+      <c r="D143" t="n">
+        <v>-10</v>
+      </c>
+      <c r="E143" t="n">
+        <v>-20</v>
       </c>
       <c r="F143" t="n">
         <v>-99999</v>
@@ -7016,20 +6184,14 @@
       <c r="B144" t="n">
         <v>0</v>
       </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>-20</t>
-        </is>
+      <c r="C144" t="n">
+        <v>0</v>
+      </c>
+      <c r="D144" t="n">
+        <v>-10</v>
+      </c>
+      <c r="E144" t="n">
+        <v>-20</v>
       </c>
       <c r="F144" t="n">
         <v>-40</v>
@@ -7062,20 +6224,14 @@
       <c r="B145" t="n">
         <v>0</v>
       </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C145" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D145" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E145" t="n">
+        <v>-99999</v>
       </c>
       <c r="F145" t="n">
         <v>-99999</v>
@@ -7108,20 +6264,14 @@
       <c r="B146" t="n">
         <v>0</v>
       </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C146" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D146" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E146" t="n">
+        <v>-99999</v>
       </c>
       <c r="F146" t="n">
         <v>-99999</v>
@@ -7154,20 +6304,14 @@
       <c r="B147" t="n">
         <v>0</v>
       </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C147" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D147" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E147" t="n">
+        <v>-99999</v>
       </c>
       <c r="F147" t="n">
         <v>-99999</v>
@@ -7200,20 +6344,14 @@
       <c r="B148" t="n">
         <v>0</v>
       </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C148" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D148" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E148" t="n">
+        <v>-99999</v>
       </c>
       <c r="F148" t="n">
         <v>-99999</v>
@@ -7246,20 +6384,14 @@
       <c r="B149" t="n">
         <v>0</v>
       </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C149" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D149" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E149" t="n">
+        <v>-99999</v>
       </c>
       <c r="F149" t="n">
         <v>-99999</v>
@@ -7292,20 +6424,14 @@
       <c r="B150" t="n">
         <v>0</v>
       </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C150" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D150" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E150" t="n">
+        <v>-99999</v>
       </c>
       <c r="F150" t="n">
         <v>-99999</v>
@@ -7338,20 +6464,14 @@
       <c r="B151" t="n">
         <v>0</v>
       </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C151" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D151" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E151" t="n">
+        <v>-99999</v>
       </c>
       <c r="F151" t="n">
         <v>-99999</v>
@@ -7384,20 +6504,14 @@
       <c r="B152" t="n">
         <v>0</v>
       </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C152" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D152" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E152" t="n">
+        <v>-99999</v>
       </c>
       <c r="F152" t="n">
         <v>-99999</v>
@@ -7430,20 +6544,14 @@
       <c r="B153" t="n">
         <v>0</v>
       </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C153" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D153" t="n">
+        <v>-10</v>
+      </c>
+      <c r="E153" t="n">
+        <v>-99999</v>
       </c>
       <c r="F153" t="n">
         <v>-99999</v>
@@ -7476,20 +6584,14 @@
       <c r="B154" t="n">
         <v>0</v>
       </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
+      <c r="C154" t="n">
+        <v>-8</v>
+      </c>
+      <c r="D154" t="n">
+        <v>-9</v>
+      </c>
+      <c r="E154" t="n">
+        <v>-10</v>
       </c>
       <c r="F154" t="n">
         <v>-99999</v>
@@ -7522,20 +6624,14 @@
       <c r="B155" t="n">
         <v>0</v>
       </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C155" t="n">
+        <v>7</v>
+      </c>
+      <c r="D155" t="n">
+        <v>6</v>
+      </c>
+      <c r="E155" t="n">
+        <v>-99999</v>
       </c>
       <c r="F155" t="n">
         <v>-99999</v>
@@ -7568,20 +6664,14 @@
       <c r="B156" t="n">
         <v>0</v>
       </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
+      <c r="C156" t="n">
+        <v>2</v>
+      </c>
+      <c r="D156" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E156" t="n">
+        <v>-10</v>
       </c>
       <c r="F156" t="n">
         <v>-99999</v>
@@ -7614,20 +6704,14 @@
       <c r="B157" t="n">
         <v>0</v>
       </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C157" t="n">
+        <v>2</v>
+      </c>
+      <c r="D157" t="n">
+        <v>1</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0</v>
       </c>
       <c r="F157" t="n">
         <v>-99999</v>
@@ -7660,20 +6744,14 @@
       <c r="B158" t="n">
         <v>0</v>
       </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C158" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D158" t="n">
+        <v>-10</v>
+      </c>
+      <c r="E158" t="n">
+        <v>-99999</v>
       </c>
       <c r="F158" t="n">
         <v>-99999</v>
@@ -7706,20 +6784,14 @@
       <c r="B159" t="n">
         <v>0</v>
       </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C159" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D159" t="n">
+        <v>-10</v>
+      </c>
+      <c r="E159" t="n">
+        <v>-99999</v>
       </c>
       <c r="F159" t="n">
         <v>-99999</v>
@@ -7752,20 +6824,14 @@
       <c r="B160" t="n">
         <v>0</v>
       </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C160" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D160" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E160" t="n">
+        <v>-99999</v>
       </c>
       <c r="F160" t="n">
         <v>-99999</v>
@@ -7798,20 +6864,14 @@
       <c r="B161" t="n">
         <v>0</v>
       </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C161" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D161" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E161" t="n">
+        <v>-99999</v>
       </c>
       <c r="F161" t="n">
         <v>-99999</v>
@@ -7844,20 +6904,14 @@
       <c r="B162" t="n">
         <v>0</v>
       </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
+      <c r="C162" t="n">
+        <v>0</v>
+      </c>
+      <c r="D162" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E162" t="n">
+        <v>-10</v>
       </c>
       <c r="F162" t="n">
         <v>-15</v>
@@ -7890,20 +6944,14 @@
       <c r="B163" t="n">
         <v>0</v>
       </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
+      <c r="C163" t="n">
+        <v>-8</v>
+      </c>
+      <c r="D163" t="n">
+        <v>-10</v>
+      </c>
+      <c r="E163" t="n">
+        <v>-15</v>
       </c>
       <c r="F163" t="n">
         <v>-99999</v>
@@ -7936,20 +6984,14 @@
       <c r="B164" t="n">
         <v>0</v>
       </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C164" t="n">
+        <v>-8</v>
+      </c>
+      <c r="D164" t="n">
+        <v>-10</v>
+      </c>
+      <c r="E164" t="n">
+        <v>-99999</v>
       </c>
       <c r="F164" t="n">
         <v>-99999</v>
@@ -7982,20 +7024,14 @@
       <c r="B165" t="n">
         <v>0</v>
       </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
+      <c r="C165" t="n">
+        <v>5</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0</v>
+      </c>
+      <c r="E165" t="n">
+        <v>-5</v>
       </c>
       <c r="F165" t="n">
         <v>-10</v>
@@ -8028,20 +7064,14 @@
       <c r="B166" t="n">
         <v>0</v>
       </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>-20</t>
-        </is>
+      <c r="C166" t="n">
+        <v>-12</v>
+      </c>
+      <c r="D166" t="n">
+        <v>-15</v>
+      </c>
+      <c r="E166" t="n">
+        <v>-20</v>
       </c>
       <c r="F166" t="n">
         <v>-99999</v>
@@ -8074,20 +7104,14 @@
       <c r="B167" t="n">
         <v>0</v>
       </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
+      <c r="C167" t="n">
+        <v>5</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0</v>
+      </c>
+      <c r="E167" t="n">
+        <v>-5</v>
       </c>
       <c r="F167" t="n">
         <v>-10</v>
@@ -8120,20 +7144,14 @@
       <c r="B168" t="n">
         <v>0</v>
       </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C168" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D168" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E168" t="n">
+        <v>-99999</v>
       </c>
       <c r="F168" t="n">
         <v>-99999</v>
@@ -8166,20 +7184,14 @@
       <c r="B169" t="n">
         <v>0</v>
       </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C169" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D169" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E169" t="n">
+        <v>-99999</v>
       </c>
       <c r="F169" t="n">
         <v>-99999</v>
@@ -8212,20 +7224,14 @@
       <c r="B170" t="n">
         <v>0</v>
       </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C170" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D170" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E170" t="n">
+        <v>-99999</v>
       </c>
       <c r="F170" t="n">
         <v>-99999</v>
@@ -8258,20 +7264,14 @@
       <c r="B171" t="n">
         <v>0</v>
       </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>-70</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>-100</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C171" t="n">
+        <v>-70</v>
+      </c>
+      <c r="D171" t="n">
+        <v>-100</v>
+      </c>
+      <c r="E171" t="n">
+        <v>-99999</v>
       </c>
       <c r="F171" t="n">
         <v>-99999</v>
@@ -8304,20 +7304,14 @@
       <c r="B172" t="n">
         <v>0</v>
       </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
+      <c r="C172" t="n">
+        <v>10</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0</v>
+      </c>
+      <c r="E172" t="n">
+        <v>-5</v>
       </c>
       <c r="F172" t="n">
         <v>-10</v>
@@ -8350,20 +7344,14 @@
       <c r="B173" t="n">
         <v>0</v>
       </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
+      <c r="C173" t="n">
+        <v>10</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0</v>
+      </c>
+      <c r="E173" t="n">
+        <v>-5</v>
       </c>
       <c r="F173" t="n">
         <v>-10</v>
@@ -8396,20 +7384,14 @@
       <c r="B174" t="n">
         <v>0</v>
       </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>-20</t>
-        </is>
+      <c r="C174" t="n">
+        <v>0</v>
+      </c>
+      <c r="D174" t="n">
+        <v>-10</v>
+      </c>
+      <c r="E174" t="n">
+        <v>-20</v>
       </c>
       <c r="F174" t="n">
         <v>-99999</v>
@@ -8442,20 +7424,14 @@
       <c r="B175" t="n">
         <v>0</v>
       </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>-75</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>-80</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C175" t="n">
+        <v>-75</v>
+      </c>
+      <c r="D175" t="n">
+        <v>-80</v>
+      </c>
+      <c r="E175" t="n">
+        <v>-99999</v>
       </c>
       <c r="F175" t="n">
         <v>-99999</v>
@@ -8488,20 +7464,14 @@
       <c r="B176" t="n">
         <v>0</v>
       </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>-60</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C176" t="n">
+        <v>-60</v>
+      </c>
+      <c r="D176" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E176" t="n">
+        <v>-99999</v>
       </c>
       <c r="F176" t="n">
         <v>-99999</v>
@@ -8534,20 +7504,14 @@
       <c r="B177" t="n">
         <v>0</v>
       </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>-60</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C177" t="n">
+        <v>-60</v>
+      </c>
+      <c r="D177" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E177" t="n">
+        <v>-99999</v>
       </c>
       <c r="F177" t="n">
         <v>-99999</v>
@@ -8580,20 +7544,14 @@
       <c r="B178" t="n">
         <v>0</v>
       </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>-60</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C178" t="n">
+        <v>-60</v>
+      </c>
+      <c r="D178" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E178" t="n">
+        <v>-99999</v>
       </c>
       <c r="F178" t="n">
         <v>-99999</v>
@@ -8626,20 +7584,14 @@
       <c r="B179" t="n">
         <v>0</v>
       </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C179" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D179" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E179" t="n">
+        <v>-99999</v>
       </c>
       <c r="F179" t="n">
         <v>-99999</v>
@@ -8672,20 +7624,14 @@
       <c r="B180" t="n">
         <v>0</v>
       </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C180" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D180" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E180" t="n">
+        <v>-99999</v>
       </c>
       <c r="F180" t="n">
         <v>-99999</v>
@@ -8718,20 +7664,14 @@
       <c r="B181" t="n">
         <v>0</v>
       </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>-100</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>-120</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C181" t="n">
+        <v>-100</v>
+      </c>
+      <c r="D181" t="n">
+        <v>-120</v>
+      </c>
+      <c r="E181" t="n">
+        <v>-99999</v>
       </c>
       <c r="F181" t="n">
         <v>-99999</v>
@@ -8764,20 +7704,14 @@
       <c r="B182" t="n">
         <v>0</v>
       </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>-60</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>-70</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>-80</t>
-        </is>
+      <c r="C182" t="n">
+        <v>-60</v>
+      </c>
+      <c r="D182" t="n">
+        <v>-70</v>
+      </c>
+      <c r="E182" t="n">
+        <v>-80</v>
       </c>
       <c r="F182" t="n">
         <v>-99999</v>
@@ -8810,20 +7744,14 @@
       <c r="B183" t="n">
         <v>0</v>
       </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C183" t="n">
+        <v>0</v>
+      </c>
+      <c r="D183" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E183" t="n">
+        <v>-99999</v>
       </c>
       <c r="F183" t="n">
         <v>-99999</v>
@@ -8856,20 +7784,14 @@
       <c r="B184" t="n">
         <v>0</v>
       </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C184" t="n">
+        <v>0</v>
+      </c>
+      <c r="D184" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E184" t="n">
+        <v>-99999</v>
       </c>
       <c r="F184" t="n">
         <v>-99999</v>
@@ -8902,20 +7824,14 @@
       <c r="B185" t="n">
         <v>0</v>
       </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C185" t="n">
+        <v>0</v>
+      </c>
+      <c r="D185" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E185" t="n">
+        <v>-99999</v>
       </c>
       <c r="F185" t="n">
         <v>-99999</v>
@@ -8951,15 +7867,11 @@
       <c r="C186" t="n">
         <v>-0.5</v>
       </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="D186" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E186" t="n">
+        <v>-99999</v>
       </c>
       <c r="F186" t="n">
         <v>-99999</v>
@@ -8998,10 +7910,8 @@
       <c r="D187" t="n">
         <v>-0.7</v>
       </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="E187" t="n">
+        <v>-99999</v>
       </c>
       <c r="F187" t="n">
         <v>-99999</v>
@@ -9034,20 +7944,14 @@
       <c r="B188" t="n">
         <v>0</v>
       </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C188" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D188" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E188" t="n">
+        <v>-99999</v>
       </c>
       <c r="F188" t="n">
         <v>-99999</v>
@@ -9080,20 +7984,14 @@
       <c r="B189" t="n">
         <v>0</v>
       </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C189" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D189" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E189" t="n">
+        <v>-99999</v>
       </c>
       <c r="F189" t="n">
         <v>-99999</v>
@@ -9126,20 +8024,14 @@
       <c r="B190" t="n">
         <v>0</v>
       </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C190" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D190" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E190" t="n">
+        <v>-99999</v>
       </c>
       <c r="F190" t="n">
         <v>-99999</v>
@@ -9172,20 +8064,14 @@
       <c r="B191" t="n">
         <v>0</v>
       </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>-34</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>-36</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C191" t="n">
+        <v>-34</v>
+      </c>
+      <c r="D191" t="n">
+        <v>-36</v>
+      </c>
+      <c r="E191" t="n">
+        <v>-99999</v>
       </c>
       <c r="F191" t="n">
         <v>-99999</v>
@@ -9218,20 +8104,14 @@
       <c r="B192" t="n">
         <v>0</v>
       </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>-30</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>-34</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C192" t="n">
+        <v>-30</v>
+      </c>
+      <c r="D192" t="n">
+        <v>-34</v>
+      </c>
+      <c r="E192" t="n">
+        <v>-99999</v>
       </c>
       <c r="F192" t="n">
         <v>-99999</v>
@@ -9264,20 +8144,14 @@
       <c r="B193" t="n">
         <v>0</v>
       </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>-16</t>
-        </is>
+      <c r="C193" t="n">
+        <v>-8</v>
+      </c>
+      <c r="D193" t="n">
+        <v>-12</v>
+      </c>
+      <c r="E193" t="n">
+        <v>-16</v>
       </c>
       <c r="F193" t="n">
         <v>-20</v>
@@ -9310,20 +8184,14 @@
       <c r="B194" t="n">
         <v>0</v>
       </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C194" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D194" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E194" t="n">
+        <v>-99999</v>
       </c>
       <c r="F194" t="n">
         <v>-99999</v>
@@ -9356,20 +8224,14 @@
       <c r="B195" t="n">
         <v>0</v>
       </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>-16</t>
-        </is>
+      <c r="C195" t="n">
+        <v>-8</v>
+      </c>
+      <c r="D195" t="n">
+        <v>-12</v>
+      </c>
+      <c r="E195" t="n">
+        <v>-16</v>
       </c>
       <c r="F195" t="n">
         <v>-20</v>
@@ -9402,20 +8264,14 @@
       <c r="B196" t="n">
         <v>0</v>
       </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>-16</t>
-        </is>
+      <c r="C196" t="n">
+        <v>-8</v>
+      </c>
+      <c r="D196" t="n">
+        <v>-12</v>
+      </c>
+      <c r="E196" t="n">
+        <v>-16</v>
       </c>
       <c r="F196" t="n">
         <v>-20</v>
@@ -9448,20 +8304,14 @@
       <c r="B197" t="n">
         <v>0</v>
       </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>-160</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>-165</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C197" t="n">
+        <v>-160</v>
+      </c>
+      <c r="D197" t="n">
+        <v>-165</v>
+      </c>
+      <c r="E197" t="n">
+        <v>-99999</v>
       </c>
       <c r="F197" t="n">
         <v>-99999</v>
@@ -9494,20 +8344,14 @@
       <c r="B198" t="n">
         <v>0</v>
       </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>-16</t>
-        </is>
+      <c r="C198" t="n">
+        <v>-8</v>
+      </c>
+      <c r="D198" t="n">
+        <v>-12</v>
+      </c>
+      <c r="E198" t="n">
+        <v>-16</v>
       </c>
       <c r="F198" t="n">
         <v>-20</v>
@@ -9540,20 +8384,14 @@
       <c r="B199" t="n">
         <v>0</v>
       </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>-20</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>-25</t>
-        </is>
+      <c r="C199" t="n">
+        <v>-15</v>
+      </c>
+      <c r="D199" t="n">
+        <v>-20</v>
+      </c>
+      <c r="E199" t="n">
+        <v>-25</v>
       </c>
       <c r="F199" t="n">
         <v>-30</v>
@@ -9586,20 +8424,14 @@
       <c r="B200" t="n">
         <v>0</v>
       </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>-20</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>-25</t>
-        </is>
+      <c r="C200" t="n">
+        <v>-15</v>
+      </c>
+      <c r="D200" t="n">
+        <v>-20</v>
+      </c>
+      <c r="E200" t="n">
+        <v>-25</v>
       </c>
       <c r="F200" t="n">
         <v>-30</v>
@@ -9632,20 +8464,14 @@
       <c r="B201" t="n">
         <v>0</v>
       </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>-20</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>-25</t>
-        </is>
+      <c r="C201" t="n">
+        <v>-15</v>
+      </c>
+      <c r="D201" t="n">
+        <v>-20</v>
+      </c>
+      <c r="E201" t="n">
+        <v>-25</v>
       </c>
       <c r="F201" t="n">
         <v>-30</v>
@@ -9678,20 +8504,14 @@
       <c r="B202" t="n">
         <v>0</v>
       </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C202" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D202" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E202" t="n">
+        <v>-99999</v>
       </c>
       <c r="F202" t="n">
         <v>-99999</v>
@@ -9724,20 +8544,14 @@
       <c r="B203" t="n">
         <v>0</v>
       </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C203" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D203" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E203" t="n">
+        <v>-99999</v>
       </c>
       <c r="F203" t="n">
         <v>-99999</v>
@@ -9770,20 +8584,14 @@
       <c r="B204" t="n">
         <v>0</v>
       </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C204" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D204" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E204" t="n">
+        <v>-99999</v>
       </c>
       <c r="F204" t="n">
         <v>-99999</v>
@@ -9816,20 +8624,14 @@
       <c r="B205" t="n">
         <v>0</v>
       </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C205" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D205" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E205" t="n">
+        <v>-99999</v>
       </c>
       <c r="F205" t="n">
         <v>-99999</v>
@@ -9862,20 +8664,14 @@
       <c r="B206" t="n">
         <v>0</v>
       </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="D206" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C206" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D206" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E206" t="n">
+        <v>-99999</v>
       </c>
       <c r="F206" t="n">
         <v>-99999</v>
@@ -9908,20 +8704,14 @@
       <c r="B207" t="n">
         <v>0</v>
       </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C207" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D207" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E207" t="n">
+        <v>-99999</v>
       </c>
       <c r="F207" t="n">
         <v>-99999</v>
@@ -9954,20 +8744,14 @@
       <c r="B208" t="n">
         <v>0</v>
       </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C208" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D208" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E208" t="n">
+        <v>-99999</v>
       </c>
       <c r="F208" t="n">
         <v>-99999</v>
@@ -10000,20 +8784,14 @@
       <c r="B209" t="n">
         <v>0</v>
       </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C209" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D209" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E209" t="n">
+        <v>-99999</v>
       </c>
       <c r="F209" t="n">
         <v>-99999</v>
@@ -10046,20 +8824,14 @@
       <c r="B210" t="n">
         <v>0</v>
       </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C210" t="n">
+        <v>5</v>
+      </c>
+      <c r="D210" t="n">
+        <v>0</v>
+      </c>
+      <c r="E210" t="n">
+        <v>-99999</v>
       </c>
       <c r="F210" t="n">
         <v>-99999</v>
@@ -10092,20 +8864,14 @@
       <c r="B211" t="n">
         <v>0</v>
       </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C211" t="n">
+        <v>5</v>
+      </c>
+      <c r="D211" t="n">
+        <v>0</v>
+      </c>
+      <c r="E211" t="n">
+        <v>-99999</v>
       </c>
       <c r="F211" t="n">
         <v>-99999</v>
@@ -10138,20 +8904,14 @@
       <c r="B212" t="n">
         <v>0</v>
       </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C212" t="n">
+        <v>0</v>
+      </c>
+      <c r="D212" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E212" t="n">
+        <v>-99999</v>
       </c>
       <c r="F212" t="n">
         <v>-99999</v>
@@ -10184,20 +8944,14 @@
       <c r="B213" t="n">
         <v>0</v>
       </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>-50</t>
-        </is>
-      </c>
-      <c r="D213" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C213" t="n">
+        <v>-50</v>
+      </c>
+      <c r="D213" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E213" t="n">
+        <v>-99999</v>
       </c>
       <c r="F213" t="n">
         <v>-99999</v>
@@ -10230,20 +8984,14 @@
       <c r="B214" t="n">
         <v>0</v>
       </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D214" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
+      <c r="C214" t="n">
+        <v>5</v>
+      </c>
+      <c r="D214" t="n">
+        <v>0</v>
+      </c>
+      <c r="E214" t="n">
+        <v>-5</v>
       </c>
       <c r="F214" t="n">
         <v>-99999</v>
@@ -10276,20 +9024,14 @@
       <c r="B215" t="n">
         <v>0</v>
       </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>-28</t>
-        </is>
-      </c>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>-30</t>
-        </is>
-      </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C215" t="n">
+        <v>-28</v>
+      </c>
+      <c r="D215" t="n">
+        <v>-30</v>
+      </c>
+      <c r="E215" t="n">
+        <v>-99999</v>
       </c>
       <c r="F215" t="n">
         <v>-99999</v>
@@ -10322,20 +9064,14 @@
       <c r="B216" t="n">
         <v>0</v>
       </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C216" t="n">
+        <v>-6</v>
+      </c>
+      <c r="D216" t="n">
+        <v>-10</v>
+      </c>
+      <c r="E216" t="n">
+        <v>-99999</v>
       </c>
       <c r="F216" t="n">
         <v>-99999</v>
@@ -10368,20 +9104,14 @@
       <c r="B217" t="n">
         <v>0</v>
       </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="D217" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
+      <c r="C217" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D217" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E217" t="n">
+        <v>-2</v>
       </c>
       <c r="F217" t="n">
         <v>-3</v>
@@ -10414,20 +9144,14 @@
       <c r="B218" t="n">
         <v>0</v>
       </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D218" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
+      <c r="C218" t="n">
+        <v>0</v>
+      </c>
+      <c r="D218" t="n">
+        <v>0</v>
+      </c>
+      <c r="E218" t="n">
+        <v>-2</v>
       </c>
       <c r="F218" t="n">
         <v>-2</v>
@@ -10460,20 +9184,14 @@
       <c r="B219" t="n">
         <v>0</v>
       </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D219" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="C219" t="n">
+        <v>4</v>
+      </c>
+      <c r="D219" t="n">
+        <v>2</v>
+      </c>
+      <c r="E219" t="n">
+        <v>2</v>
       </c>
       <c r="F219" t="n">
         <v>0</v>
@@ -10506,20 +9224,14 @@
       <c r="B220" t="n">
         <v>0</v>
       </c>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D220" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E220" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C220" t="n">
+        <v>4</v>
+      </c>
+      <c r="D220" t="n">
+        <v>3</v>
+      </c>
+      <c r="E220" t="n">
+        <v>0</v>
       </c>
       <c r="F220" t="n">
         <v>-99999</v>
@@ -10552,20 +9264,14 @@
       <c r="B221" t="n">
         <v>0</v>
       </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="D221" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="E221" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
+      <c r="C221" t="n">
+        <v>-3</v>
+      </c>
+      <c r="D221" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E221" t="n">
+        <v>-10</v>
       </c>
       <c r="F221" t="n">
         <v>-15</v>
@@ -10598,20 +9304,14 @@
       <c r="B222" t="n">
         <v>0</v>
       </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="D222" t="inlineStr">
-        <is>
-          <t>-20</t>
-        </is>
-      </c>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>-20</t>
-        </is>
+      <c r="C222" t="n">
+        <v>-15</v>
+      </c>
+      <c r="D222" t="n">
+        <v>-20</v>
+      </c>
+      <c r="E222" t="n">
+        <v>-20</v>
       </c>
       <c r="F222" t="n">
         <v>-25</v>
@@ -10644,20 +9344,14 @@
       <c r="B223" t="n">
         <v>0</v>
       </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="D223" t="inlineStr">
-        <is>
-          <t>-20</t>
-        </is>
-      </c>
-      <c r="E223" t="inlineStr">
-        <is>
-          <t>-20</t>
-        </is>
+      <c r="C223" t="n">
+        <v>-15</v>
+      </c>
+      <c r="D223" t="n">
+        <v>-20</v>
+      </c>
+      <c r="E223" t="n">
+        <v>-20</v>
       </c>
       <c r="F223" t="n">
         <v>-25</v>
@@ -10690,20 +9384,14 @@
       <c r="B224" t="n">
         <v>0</v>
       </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>-20</t>
-        </is>
-      </c>
-      <c r="D224" t="inlineStr">
-        <is>
-          <t>-25</t>
-        </is>
-      </c>
-      <c r="E224" t="inlineStr">
-        <is>
-          <t>-30</t>
-        </is>
+      <c r="C224" t="n">
+        <v>-20</v>
+      </c>
+      <c r="D224" t="n">
+        <v>-25</v>
+      </c>
+      <c r="E224" t="n">
+        <v>-30</v>
       </c>
       <c r="F224" t="n">
         <v>-35</v>
@@ -10736,20 +9424,14 @@
       <c r="B225" t="n">
         <v>0</v>
       </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="D225" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E225" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C225" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D225" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E225" t="n">
+        <v>-99999</v>
       </c>
       <c r="F225" t="n">
         <v>-99999</v>
@@ -10782,20 +9464,14 @@
       <c r="B226" t="n">
         <v>0</v>
       </c>
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="D226" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E226" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C226" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D226" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E226" t="n">
+        <v>-99999</v>
       </c>
       <c r="F226" t="n">
         <v>-99999</v>
@@ -10828,20 +9504,14 @@
       <c r="B227" t="n">
         <v>0</v>
       </c>
-      <c r="C227" t="inlineStr">
-        <is>
-          <t>-32</t>
-        </is>
-      </c>
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>-45</t>
-        </is>
-      </c>
-      <c r="E227" t="inlineStr">
-        <is>
-          <t>-60</t>
-        </is>
+      <c r="C227" t="n">
+        <v>-32</v>
+      </c>
+      <c r="D227" t="n">
+        <v>-45</v>
+      </c>
+      <c r="E227" t="n">
+        <v>-60</v>
       </c>
       <c r="F227" t="n">
         <v>-99999</v>
@@ -10874,20 +9544,14 @@
       <c r="B228" t="n">
         <v>0</v>
       </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>-40</t>
-        </is>
-      </c>
-      <c r="D228" t="inlineStr">
-        <is>
-          <t>-50</t>
-        </is>
-      </c>
-      <c r="E228" t="inlineStr">
-        <is>
-          <t>-60</t>
-        </is>
+      <c r="C228" t="n">
+        <v>-40</v>
+      </c>
+      <c r="D228" t="n">
+        <v>-50</v>
+      </c>
+      <c r="E228" t="n">
+        <v>-60</v>
       </c>
       <c r="F228" t="n">
         <v>-65</v>
@@ -10920,20 +9584,14 @@
       <c r="B229" t="n">
         <v>0</v>
       </c>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="D229" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="E229" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="C229" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D229" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E229" t="n">
+        <v>-99999</v>
       </c>
       <c r="F229" t="n">
         <v>-99999</v>

--- a/info/region_info.xlsx
+++ b/info/region_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L229"/>
+  <dimension ref="A1:L233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,8 +516,10 @@
       <c r="F2" t="n">
         <v>-99999</v>
       </c>
-      <c r="G2" t="n">
-        <v>-99999</v>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H2" t="n">
         <v>-99999</v>
@@ -556,8 +558,10 @@
       <c r="F3" t="n">
         <v>-99999</v>
       </c>
-      <c r="G3" t="n">
-        <v>-99999</v>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H3" t="n">
         <v>-99999</v>
@@ -596,8 +600,10 @@
       <c r="F4" t="n">
         <v>-99999</v>
       </c>
-      <c r="G4" t="n">
-        <v>-99999</v>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H4" t="n">
         <v>-99999</v>
@@ -636,8 +642,10 @@
       <c r="F5" t="n">
         <v>-10</v>
       </c>
-      <c r="G5" t="n">
-        <v>-99999</v>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H5" t="n">
         <v>-99999</v>
@@ -676,8 +684,10 @@
       <c r="F6" t="n">
         <v>-99999</v>
       </c>
-      <c r="G6" t="n">
-        <v>-99999</v>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H6" t="n">
         <v>-99999</v>
@@ -716,8 +726,10 @@
       <c r="F7" t="n">
         <v>-99999</v>
       </c>
-      <c r="G7" t="n">
-        <v>-99999</v>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H7" t="n">
         <v>-99999</v>
@@ -756,8 +768,10 @@
       <c r="F8" t="n">
         <v>-99999</v>
       </c>
-      <c r="G8" t="n">
-        <v>-99999</v>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H8" t="n">
         <v>-99999</v>
@@ -796,8 +810,10 @@
       <c r="F9" t="n">
         <v>-99999</v>
       </c>
-      <c r="G9" t="n">
-        <v>-99999</v>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H9" t="n">
         <v>-99999</v>
@@ -836,8 +852,10 @@
       <c r="F10" t="n">
         <v>-99999</v>
       </c>
-      <c r="G10" t="n">
-        <v>-99999</v>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H10" t="n">
         <v>-99999</v>
@@ -876,8 +894,10 @@
       <c r="F11" t="n">
         <v>-99999</v>
       </c>
-      <c r="G11" t="n">
-        <v>-99999</v>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H11" t="n">
         <v>-99999</v>
@@ -916,8 +936,10 @@
       <c r="F12" t="n">
         <v>-99999</v>
       </c>
-      <c r="G12" t="n">
-        <v>-99999</v>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H12" t="n">
         <v>-99999</v>
@@ -956,8 +978,10 @@
       <c r="F13" t="n">
         <v>-99999</v>
       </c>
-      <c r="G13" t="n">
-        <v>-99999</v>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H13" t="n">
         <v>-99999</v>
@@ -996,8 +1020,10 @@
       <c r="F14" t="n">
         <v>-99999</v>
       </c>
-      <c r="G14" t="n">
-        <v>-99999</v>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H14" t="n">
         <v>-99999</v>
@@ -1036,8 +1062,10 @@
       <c r="F15" t="n">
         <v>-99999</v>
       </c>
-      <c r="G15" t="n">
-        <v>-99999</v>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H15" t="n">
         <v>-99999</v>
@@ -1076,8 +1104,10 @@
       <c r="F16" t="n">
         <v>-99999</v>
       </c>
-      <c r="G16" t="n">
-        <v>-99999</v>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H16" t="n">
         <v>-99999</v>
@@ -1116,8 +1146,10 @@
       <c r="F17" t="n">
         <v>-99999</v>
       </c>
-      <c r="G17" t="n">
-        <v>-99999</v>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H17" t="n">
         <v>-99999</v>
@@ -1156,8 +1188,10 @@
       <c r="F18" t="n">
         <v>-99999</v>
       </c>
-      <c r="G18" t="n">
-        <v>-99999</v>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H18" t="n">
         <v>-99999</v>
@@ -1196,8 +1230,10 @@
       <c r="F19" t="n">
         <v>-99999</v>
       </c>
-      <c r="G19" t="n">
-        <v>-99999</v>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H19" t="n">
         <v>-99999</v>
@@ -1236,8 +1272,10 @@
       <c r="F20" t="n">
         <v>-99999</v>
       </c>
-      <c r="G20" t="n">
-        <v>-99999</v>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H20" t="n">
         <v>-99999</v>
@@ -1276,8 +1314,10 @@
       <c r="F21" t="n">
         <v>-99999</v>
       </c>
-      <c r="G21" t="n">
-        <v>-99999</v>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H21" t="n">
         <v>-99999</v>
@@ -1316,8 +1356,10 @@
       <c r="F22" t="n">
         <v>-25</v>
       </c>
-      <c r="G22" t="n">
-        <v>-30</v>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>-30</t>
+        </is>
       </c>
       <c r="H22" t="n">
         <v>-40</v>
@@ -1356,8 +1398,10 @@
       <c r="F23" t="n">
         <v>-25</v>
       </c>
-      <c r="G23" t="n">
-        <v>-30</v>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>-30</t>
+        </is>
       </c>
       <c r="H23" t="n">
         <v>-40</v>
@@ -1396,8 +1440,10 @@
       <c r="F24" t="n">
         <v>-30</v>
       </c>
-      <c r="G24" t="n">
-        <v>-40</v>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>-40</t>
+        </is>
       </c>
       <c r="H24" t="n">
         <v>-50</v>
@@ -1436,8 +1482,10 @@
       <c r="F25" t="n">
         <v>-30</v>
       </c>
-      <c r="G25" t="n">
-        <v>-40</v>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>-40</t>
+        </is>
       </c>
       <c r="H25" t="n">
         <v>-50</v>
@@ -1476,8 +1524,10 @@
       <c r="F26" t="n">
         <v>-40</v>
       </c>
-      <c r="G26" t="n">
-        <v>-50</v>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>-50</t>
+        </is>
       </c>
       <c r="H26" t="n">
         <v>-70</v>
@@ -1516,8 +1566,10 @@
       <c r="F27" t="n">
         <v>-40</v>
       </c>
-      <c r="G27" t="n">
-        <v>-50</v>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>-50</t>
+        </is>
       </c>
       <c r="H27" t="n">
         <v>-70</v>
@@ -1556,8 +1608,10 @@
       <c r="F28" t="n">
         <v>-120</v>
       </c>
-      <c r="G28" t="n">
-        <v>-99999</v>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H28" t="n">
         <v>-99999</v>
@@ -1596,8 +1650,10 @@
       <c r="F29" t="n">
         <v>-120</v>
       </c>
-      <c r="G29" t="n">
-        <v>-99999</v>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H29" t="n">
         <v>-99999</v>
@@ -1636,8 +1692,10 @@
       <c r="F30" t="n">
         <v>-120</v>
       </c>
-      <c r="G30" t="n">
-        <v>-99999</v>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H30" t="n">
         <v>-99999</v>
@@ -1676,8 +1734,10 @@
       <c r="F31" t="n">
         <v>-99999</v>
       </c>
-      <c r="G31" t="n">
-        <v>-99999</v>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H31" t="n">
         <v>-99999</v>
@@ -1716,8 +1776,10 @@
       <c r="F32" t="n">
         <v>-99999</v>
       </c>
-      <c r="G32" t="n">
-        <v>-99999</v>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H32" t="n">
         <v>-99999</v>
@@ -1756,8 +1818,10 @@
       <c r="F33" t="n">
         <v>-99999</v>
       </c>
-      <c r="G33" t="n">
-        <v>-99999</v>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H33" t="n">
         <v>-99999</v>
@@ -1796,8 +1860,10 @@
       <c r="F34" t="n">
         <v>-40</v>
       </c>
-      <c r="G34" t="n">
-        <v>-50</v>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>-50</t>
+        </is>
       </c>
       <c r="H34" t="n">
         <v>-99999</v>
@@ -1836,8 +1902,10 @@
       <c r="F35" t="n">
         <v>-60</v>
       </c>
-      <c r="G35" t="n">
-        <v>-60</v>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>-60</t>
+        </is>
       </c>
       <c r="H35" t="n">
         <v>-99999</v>
@@ -1876,8 +1944,10 @@
       <c r="F36" t="n">
         <v>-99999</v>
       </c>
-      <c r="G36" t="n">
-        <v>-99999</v>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H36" t="n">
         <v>-99999</v>
@@ -1916,8 +1986,10 @@
       <c r="F37" t="n">
         <v>-99999</v>
       </c>
-      <c r="G37" t="n">
-        <v>-99999</v>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H37" t="n">
         <v>-99999</v>
@@ -1956,8 +2028,10 @@
       <c r="F38" t="n">
         <v>-99999</v>
       </c>
-      <c r="G38" t="n">
-        <v>-99999</v>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H38" t="n">
         <v>-99999</v>
@@ -1996,8 +2070,10 @@
       <c r="F39" t="n">
         <v>-99999</v>
       </c>
-      <c r="G39" t="n">
-        <v>-99999</v>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H39" t="n">
         <v>-99999</v>
@@ -2036,8 +2112,10 @@
       <c r="F40" t="n">
         <v>-15</v>
       </c>
-      <c r="G40" t="n">
-        <v>-20</v>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>-20</t>
+        </is>
       </c>
       <c r="H40" t="n">
         <v>-30</v>
@@ -2076,8 +2154,10 @@
       <c r="F41" t="n">
         <v>-99999</v>
       </c>
-      <c r="G41" t="n">
-        <v>-99999</v>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H41" t="n">
         <v>-99999</v>
@@ -2116,8 +2196,10 @@
       <c r="F42" t="n">
         <v>-99999</v>
       </c>
-      <c r="G42" t="n">
-        <v>-99999</v>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H42" t="n">
         <v>-99999</v>
@@ -2156,8 +2238,10 @@
       <c r="F43" t="n">
         <v>-99999</v>
       </c>
-      <c r="G43" t="n">
-        <v>-99999</v>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H43" t="n">
         <v>-99999</v>
@@ -2196,8 +2280,10 @@
       <c r="F44" t="n">
         <v>-20</v>
       </c>
-      <c r="G44" t="n">
-        <v>-30</v>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>-30</t>
+        </is>
       </c>
       <c r="H44" t="n">
         <v>-99999</v>
@@ -2236,8 +2322,10 @@
       <c r="F45" t="n">
         <v>-99999</v>
       </c>
-      <c r="G45" t="n">
-        <v>-99999</v>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H45" t="n">
         <v>-99999</v>
@@ -2276,8 +2364,10 @@
       <c r="F46" t="n">
         <v>-20</v>
       </c>
-      <c r="G46" t="n">
-        <v>-30</v>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>-30</t>
+        </is>
       </c>
       <c r="H46" t="n">
         <v>-99999</v>
@@ -2316,8 +2406,10 @@
       <c r="F47" t="n">
         <v>-99999</v>
       </c>
-      <c r="G47" t="n">
-        <v>-99999</v>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H47" t="n">
         <v>-99999</v>
@@ -2356,8 +2448,10 @@
       <c r="F48" t="n">
         <v>-99999</v>
       </c>
-      <c r="G48" t="n">
-        <v>-99999</v>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H48" t="n">
         <v>-99999</v>
@@ -2396,8 +2490,10 @@
       <c r="F49" t="n">
         <v>-99999</v>
       </c>
-      <c r="G49" t="n">
-        <v>-99999</v>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H49" t="n">
         <v>-99999</v>
@@ -2436,8 +2532,10 @@
       <c r="F50" t="n">
         <v>-99999</v>
       </c>
-      <c r="G50" t="n">
-        <v>-99999</v>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H50" t="n">
         <v>-99999</v>
@@ -2476,8 +2574,10 @@
       <c r="F51" t="n">
         <v>-99999</v>
       </c>
-      <c r="G51" t="n">
-        <v>-99999</v>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H51" t="n">
         <v>-99999</v>
@@ -2516,8 +2616,10 @@
       <c r="F52" t="n">
         <v>-99999</v>
       </c>
-      <c r="G52" t="n">
-        <v>-99999</v>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H52" t="n">
         <v>-99999</v>
@@ -2556,8 +2658,10 @@
       <c r="F53" t="n">
         <v>-99999</v>
       </c>
-      <c r="G53" t="n">
-        <v>-99999</v>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H53" t="n">
         <v>-99999</v>
@@ -2596,8 +2700,10 @@
       <c r="F54" t="n">
         <v>-99999</v>
       </c>
-      <c r="G54" t="n">
-        <v>-99999</v>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H54" t="n">
         <v>-99999</v>
@@ -2636,8 +2742,10 @@
       <c r="F55" t="n">
         <v>-99999</v>
       </c>
-      <c r="G55" t="n">
-        <v>-99999</v>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H55" t="n">
         <v>-99999</v>
@@ -2676,8 +2784,10 @@
       <c r="F56" t="n">
         <v>-99999</v>
       </c>
-      <c r="G56" t="n">
-        <v>-99999</v>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H56" t="n">
         <v>-99999</v>
@@ -2716,8 +2826,10 @@
       <c r="F57" t="n">
         <v>-99999</v>
       </c>
-      <c r="G57" t="n">
-        <v>-99999</v>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H57" t="n">
         <v>-99999</v>
@@ -2756,8 +2868,10 @@
       <c r="F58" t="n">
         <v>-99999</v>
       </c>
-      <c r="G58" t="n">
-        <v>-99999</v>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H58" t="n">
         <v>-99999</v>
@@ -2796,8 +2910,10 @@
       <c r="F59" t="n">
         <v>-99999</v>
       </c>
-      <c r="G59" t="n">
-        <v>-99999</v>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H59" t="n">
         <v>-99999</v>
@@ -2836,8 +2952,10 @@
       <c r="F60" t="n">
         <v>-99999</v>
       </c>
-      <c r="G60" t="n">
-        <v>-99999</v>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H60" t="n">
         <v>-99999</v>
@@ -2876,8 +2994,10 @@
       <c r="F61" t="n">
         <v>-36</v>
       </c>
-      <c r="G61" t="n">
-        <v>-40</v>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>-40</t>
+        </is>
       </c>
       <c r="H61" t="n">
         <v>-44</v>
@@ -2916,8 +3036,10 @@
       <c r="F62" t="n">
         <v>-36</v>
       </c>
-      <c r="G62" t="n">
-        <v>-40</v>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>-40</t>
+        </is>
       </c>
       <c r="H62" t="n">
         <v>-44</v>
@@ -2956,8 +3078,10 @@
       <c r="F63" t="n">
         <v>-23</v>
       </c>
-      <c r="G63" t="n">
-        <v>-25</v>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>-25</t>
+        </is>
       </c>
       <c r="H63" t="n">
         <v>-27</v>
@@ -2996,8 +3120,10 @@
       <c r="F64" t="n">
         <v>-99999</v>
       </c>
-      <c r="G64" t="n">
-        <v>-99999</v>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H64" t="n">
         <v>-99999</v>
@@ -3036,8 +3162,10 @@
       <c r="F65" t="n">
         <v>-99999</v>
       </c>
-      <c r="G65" t="n">
-        <v>-99999</v>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H65" t="n">
         <v>-99999</v>
@@ -3076,8 +3204,10 @@
       <c r="F66" t="n">
         <v>-20</v>
       </c>
-      <c r="G66" t="n">
-        <v>-99999</v>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H66" t="n">
         <v>-99999</v>
@@ -3116,8 +3246,10 @@
       <c r="F67" t="n">
         <v>-99999</v>
       </c>
-      <c r="G67" t="n">
-        <v>-99999</v>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H67" t="n">
         <v>-99999</v>
@@ -3156,8 +3288,10 @@
       <c r="F68" t="n">
         <v>-99999</v>
       </c>
-      <c r="G68" t="n">
-        <v>-99999</v>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H68" t="n">
         <v>-99999</v>
@@ -3196,8 +3330,10 @@
       <c r="F69" t="n">
         <v>-20</v>
       </c>
-      <c r="G69" t="n">
-        <v>-99999</v>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H69" t="n">
         <v>-99999</v>
@@ -3236,8 +3372,10 @@
       <c r="F70" t="n">
         <v>-20</v>
       </c>
-      <c r="G70" t="n">
-        <v>-99999</v>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H70" t="n">
         <v>-99999</v>
@@ -3276,8 +3414,10 @@
       <c r="F71" t="n">
         <v>-20</v>
       </c>
-      <c r="G71" t="n">
-        <v>-99999</v>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H71" t="n">
         <v>-99999</v>
@@ -3316,8 +3456,10 @@
       <c r="F72" t="n">
         <v>-20</v>
       </c>
-      <c r="G72" t="n">
-        <v>-99999</v>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H72" t="n">
         <v>-99999</v>
@@ -3356,8 +3498,10 @@
       <c r="F73" t="n">
         <v>-99999</v>
       </c>
-      <c r="G73" t="n">
-        <v>-99999</v>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H73" t="n">
         <v>-99999</v>
@@ -3396,8 +3540,10 @@
       <c r="F74" t="n">
         <v>-99999</v>
       </c>
-      <c r="G74" t="n">
-        <v>-99999</v>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H74" t="n">
         <v>-99999</v>
@@ -3436,8 +3582,10 @@
       <c r="F75" t="n">
         <v>-99999</v>
       </c>
-      <c r="G75" t="n">
-        <v>-99999</v>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H75" t="n">
         <v>-99999</v>
@@ -3476,8 +3624,10 @@
       <c r="F76" t="n">
         <v>-20</v>
       </c>
-      <c r="G76" t="n">
-        <v>-99999</v>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H76" t="n">
         <v>-99999</v>
@@ -3516,8 +3666,10 @@
       <c r="F77" t="n">
         <v>-99999</v>
       </c>
-      <c r="G77" t="n">
-        <v>-99999</v>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H77" t="n">
         <v>-99999</v>
@@ -3556,8 +3708,10 @@
       <c r="F78" t="n">
         <v>-20</v>
       </c>
-      <c r="G78" t="n">
-        <v>-99999</v>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H78" t="n">
         <v>-99999</v>
@@ -3596,8 +3750,10 @@
       <c r="F79" t="n">
         <v>-99999</v>
       </c>
-      <c r="G79" t="n">
-        <v>-99999</v>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H79" t="n">
         <v>-99999</v>
@@ -3636,8 +3792,10 @@
       <c r="F80" t="n">
         <v>-99999</v>
       </c>
-      <c r="G80" t="n">
-        <v>-99999</v>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H80" t="n">
         <v>-99999</v>
@@ -3676,8 +3834,10 @@
       <c r="F81" t="n">
         <v>-99999</v>
       </c>
-      <c r="G81" t="n">
-        <v>-99999</v>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H81" t="n">
         <v>-99999</v>
@@ -3716,8 +3876,10 @@
       <c r="F82" t="n">
         <v>-99999</v>
       </c>
-      <c r="G82" t="n">
-        <v>-99999</v>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H82" t="n">
         <v>-99999</v>
@@ -3756,8 +3918,10 @@
       <c r="F83" t="n">
         <v>-99999</v>
       </c>
-      <c r="G83" t="n">
-        <v>-99999</v>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H83" t="n">
         <v>-99999</v>
@@ -3796,8 +3960,10 @@
       <c r="F84" t="n">
         <v>-28</v>
       </c>
-      <c r="G84" t="n">
-        <v>-38</v>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>-38</t>
+        </is>
       </c>
       <c r="H84" t="n">
         <v>-99999</v>
@@ -3836,8 +4002,10 @@
       <c r="F85" t="n">
         <v>-35</v>
       </c>
-      <c r="G85" t="n">
-        <v>-45</v>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>-45</t>
+        </is>
       </c>
       <c r="H85" t="n">
         <v>-99999</v>
@@ -3876,8 +4044,10 @@
       <c r="F86" t="n">
         <v>4</v>
       </c>
-      <c r="G86" t="n">
-        <v>3</v>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="H86" t="n">
         <v>2</v>
@@ -3916,8 +4086,10 @@
       <c r="F87" t="n">
         <v>-10</v>
       </c>
-      <c r="G87" t="n">
-        <v>-15</v>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
       </c>
       <c r="H87" t="n">
         <v>-99999</v>
@@ -3956,8 +4128,10 @@
       <c r="F88" t="n">
         <v>-40</v>
       </c>
-      <c r="G88" t="n">
-        <v>-50</v>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>-50</t>
+        </is>
       </c>
       <c r="H88" t="n">
         <v>-99999</v>
@@ -3996,8 +4170,10 @@
       <c r="F89" t="n">
         <v>-40</v>
       </c>
-      <c r="G89" t="n">
-        <v>-50</v>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>-50</t>
+        </is>
       </c>
       <c r="H89" t="n">
         <v>-99999</v>
@@ -4036,8 +4212,10 @@
       <c r="F90" t="n">
         <v>-99999</v>
       </c>
-      <c r="G90" t="n">
-        <v>-99999</v>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H90" t="n">
         <v>-99999</v>
@@ -4076,8 +4254,10 @@
       <c r="F91" t="n">
         <v>-99999</v>
       </c>
-      <c r="G91" t="n">
-        <v>-99999</v>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H91" t="n">
         <v>-99999</v>
@@ -4116,8 +4296,10 @@
       <c r="F92" t="n">
         <v>-99999</v>
       </c>
-      <c r="G92" t="n">
-        <v>-99999</v>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H92" t="n">
         <v>-99999</v>
@@ -4156,8 +4338,10 @@
       <c r="F93" t="n">
         <v>-99999</v>
       </c>
-      <c r="G93" t="n">
-        <v>-99999</v>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H93" t="n">
         <v>-99999</v>
@@ -4196,8 +4380,10 @@
       <c r="F94" t="n">
         <v>-99999</v>
       </c>
-      <c r="G94" t="n">
-        <v>-99999</v>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H94" t="n">
         <v>-99999</v>
@@ -4236,8 +4422,10 @@
       <c r="F95" t="n">
         <v>-99999</v>
       </c>
-      <c r="G95" t="n">
-        <v>-99999</v>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H95" t="n">
         <v>-99999</v>
@@ -4276,8 +4464,10 @@
       <c r="F96" t="n">
         <v>-99999</v>
       </c>
-      <c r="G96" t="n">
-        <v>-99999</v>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H96" t="n">
         <v>-99999</v>
@@ -4316,8 +4506,10 @@
       <c r="F97" t="n">
         <v>-99999</v>
       </c>
-      <c r="G97" t="n">
-        <v>-99999</v>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H97" t="n">
         <v>-99999</v>
@@ -4356,8 +4548,10 @@
       <c r="F98" t="n">
         <v>-99999</v>
       </c>
-      <c r="G98" t="n">
-        <v>-99999</v>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H98" t="n">
         <v>-99999</v>
@@ -4396,8 +4590,10 @@
       <c r="F99" t="n">
         <v>-99999</v>
       </c>
-      <c r="G99" t="n">
-        <v>-99999</v>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H99" t="n">
         <v>-99999</v>
@@ -4436,8 +4632,10 @@
       <c r="F100" t="n">
         <v>-99999</v>
       </c>
-      <c r="G100" t="n">
-        <v>-99999</v>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H100" t="n">
         <v>-99999</v>
@@ -4476,8 +4674,10 @@
       <c r="F101" t="n">
         <v>-99999</v>
       </c>
-      <c r="G101" t="n">
-        <v>-99999</v>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H101" t="n">
         <v>-99999</v>
@@ -4516,8 +4716,10 @@
       <c r="F102" t="n">
         <v>-99999</v>
       </c>
-      <c r="G102" t="n">
-        <v>-99999</v>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H102" t="n">
         <v>-99999</v>
@@ -4556,8 +4758,10 @@
       <c r="F103" t="n">
         <v>-99999</v>
       </c>
-      <c r="G103" t="n">
-        <v>-99999</v>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H103" t="n">
         <v>-99999</v>
@@ -4596,8 +4800,10 @@
       <c r="F104" t="n">
         <v>-99999</v>
       </c>
-      <c r="G104" t="n">
-        <v>-99999</v>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H104" t="n">
         <v>-99999</v>
@@ -4636,8 +4842,10 @@
       <c r="F105" t="n">
         <v>-99999</v>
       </c>
-      <c r="G105" t="n">
-        <v>-99999</v>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H105" t="n">
         <v>-99999</v>
@@ -4676,8 +4884,10 @@
       <c r="F106" t="n">
         <v>-99999</v>
       </c>
-      <c r="G106" t="n">
-        <v>-99999</v>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H106" t="n">
         <v>-99999</v>
@@ -4716,8 +4926,10 @@
       <c r="F107" t="n">
         <v>-99999</v>
       </c>
-      <c r="G107" t="n">
-        <v>-99999</v>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H107" t="n">
         <v>-99999</v>
@@ -4756,8 +4968,10 @@
       <c r="F108" t="n">
         <v>-99999</v>
       </c>
-      <c r="G108" t="n">
-        <v>-99999</v>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H108" t="n">
         <v>-99999</v>
@@ -4796,8 +5010,10 @@
       <c r="F109" t="n">
         <v>-99999</v>
       </c>
-      <c r="G109" t="n">
-        <v>-99999</v>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H109" t="n">
         <v>-99999</v>
@@ -4836,8 +5052,10 @@
       <c r="F110" t="n">
         <v>-99999</v>
       </c>
-      <c r="G110" t="n">
-        <v>-99999</v>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H110" t="n">
         <v>-99999</v>
@@ -4876,8 +5094,10 @@
       <c r="F111" t="n">
         <v>-99999</v>
       </c>
-      <c r="G111" t="n">
-        <v>-99999</v>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H111" t="n">
         <v>-99999</v>
@@ -4916,8 +5136,10 @@
       <c r="F112" t="n">
         <v>-15</v>
       </c>
-      <c r="G112" t="n">
-        <v>-20</v>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>-20</t>
+        </is>
       </c>
       <c r="H112" t="n">
         <v>-30</v>
@@ -4956,8 +5178,10 @@
       <c r="F113" t="n">
         <v>-99999</v>
       </c>
-      <c r="G113" t="n">
-        <v>-99999</v>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H113" t="n">
         <v>-99999</v>
@@ -4996,8 +5220,10 @@
       <c r="F114" t="n">
         <v>-15</v>
       </c>
-      <c r="G114" t="n">
-        <v>-20</v>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>-20</t>
+        </is>
       </c>
       <c r="H114" t="n">
         <v>-30</v>
@@ -5036,8 +5262,10 @@
       <c r="F115" t="n">
         <v>-20</v>
       </c>
-      <c r="G115" t="n">
-        <v>-30</v>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>-30</t>
+        </is>
       </c>
       <c r="H115" t="n">
         <v>-40</v>
@@ -5076,8 +5304,10 @@
       <c r="F116" t="n">
         <v>-15</v>
       </c>
-      <c r="G116" t="n">
-        <v>-20</v>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>-20</t>
+        </is>
       </c>
       <c r="H116" t="n">
         <v>-30</v>
@@ -5116,8 +5346,10 @@
       <c r="F117" t="n">
         <v>-15</v>
       </c>
-      <c r="G117" t="n">
-        <v>-99999</v>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H117" t="n">
         <v>-99999</v>
@@ -5156,8 +5388,10 @@
       <c r="F118" t="n">
         <v>-15</v>
       </c>
-      <c r="G118" t="n">
-        <v>-99999</v>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H118" t="n">
         <v>-99999</v>
@@ -5196,8 +5430,10 @@
       <c r="F119" t="n">
         <v>-15</v>
       </c>
-      <c r="G119" t="n">
-        <v>-99999</v>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H119" t="n">
         <v>-99999</v>
@@ -5236,8 +5472,10 @@
       <c r="F120" t="n">
         <v>-99999</v>
       </c>
-      <c r="G120" t="n">
-        <v>-99999</v>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H120" t="n">
         <v>-99999</v>
@@ -5276,8 +5514,10 @@
       <c r="F121" t="n">
         <v>-99999</v>
       </c>
-      <c r="G121" t="n">
-        <v>-99999</v>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H121" t="n">
         <v>-99999</v>
@@ -5316,8 +5556,10 @@
       <c r="F122" t="n">
         <v>-99999</v>
       </c>
-      <c r="G122" t="n">
-        <v>-99999</v>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H122" t="n">
         <v>-99999</v>
@@ -5356,8 +5598,10 @@
       <c r="F123" t="n">
         <v>-20</v>
       </c>
-      <c r="G123" t="n">
-        <v>-30</v>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>-30</t>
+        </is>
       </c>
       <c r="H123" t="n">
         <v>-99999</v>
@@ -5396,8 +5640,10 @@
       <c r="F124" t="n">
         <v>-99999</v>
       </c>
-      <c r="G124" t="n">
-        <v>-99999</v>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H124" t="n">
         <v>-99999</v>
@@ -5436,8 +5682,10 @@
       <c r="F125" t="n">
         <v>-99999</v>
       </c>
-      <c r="G125" t="n">
-        <v>-99999</v>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H125" t="n">
         <v>-99999</v>
@@ -5476,8 +5724,10 @@
       <c r="F126" t="n">
         <v>-99999</v>
       </c>
-      <c r="G126" t="n">
-        <v>-99999</v>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H126" t="n">
         <v>-99999</v>
@@ -5516,8 +5766,10 @@
       <c r="F127" t="n">
         <v>-99999</v>
       </c>
-      <c r="G127" t="n">
-        <v>-99999</v>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H127" t="n">
         <v>-99999</v>
@@ -5556,8 +5808,10 @@
       <c r="F128" t="n">
         <v>-99999</v>
       </c>
-      <c r="G128" t="n">
-        <v>-99999</v>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H128" t="n">
         <v>-99999</v>
@@ -5596,8 +5850,10 @@
       <c r="F129" t="n">
         <v>-99999</v>
       </c>
-      <c r="G129" t="n">
-        <v>-99999</v>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H129" t="n">
         <v>-99999</v>
@@ -5636,8 +5892,10 @@
       <c r="F130" t="n">
         <v>-99999</v>
       </c>
-      <c r="G130" t="n">
-        <v>-99999</v>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H130" t="n">
         <v>-99999</v>
@@ -5676,8 +5934,10 @@
       <c r="F131" t="n">
         <v>-99999</v>
       </c>
-      <c r="G131" t="n">
-        <v>-99999</v>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H131" t="n">
         <v>-99999</v>
@@ -5716,8 +5976,10 @@
       <c r="F132" t="n">
         <v>-99999</v>
       </c>
-      <c r="G132" t="n">
-        <v>-99999</v>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H132" t="n">
         <v>-99999</v>
@@ -5756,8 +6018,10 @@
       <c r="F133" t="n">
         <v>-99999</v>
       </c>
-      <c r="G133" t="n">
-        <v>-99999</v>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H133" t="n">
         <v>-99999</v>
@@ -5796,8 +6060,10 @@
       <c r="F134" t="n">
         <v>-99999</v>
       </c>
-      <c r="G134" t="n">
-        <v>-99999</v>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H134" t="n">
         <v>-99999</v>
@@ -5836,8 +6102,10 @@
       <c r="F135" t="n">
         <v>-99999</v>
       </c>
-      <c r="G135" t="n">
-        <v>-99999</v>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H135" t="n">
         <v>-99999</v>
@@ -5876,8 +6144,10 @@
       <c r="F136" t="n">
         <v>-99999</v>
       </c>
-      <c r="G136" t="n">
-        <v>-99999</v>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H136" t="n">
         <v>-99999</v>
@@ -5916,8 +6186,10 @@
       <c r="F137" t="n">
         <v>-99999</v>
       </c>
-      <c r="G137" t="n">
-        <v>-99999</v>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H137" t="n">
         <v>-99999</v>
@@ -5956,8 +6228,10 @@
       <c r="F138" t="n">
         <v>-99999</v>
       </c>
-      <c r="G138" t="n">
-        <v>-99999</v>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H138" t="n">
         <v>-99999</v>
@@ -5996,8 +6270,10 @@
       <c r="F139" t="n">
         <v>-99999</v>
       </c>
-      <c r="G139" t="n">
-        <v>-99999</v>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H139" t="n">
         <v>-99999</v>
@@ -6036,8 +6312,10 @@
       <c r="F140" t="n">
         <v>-99999</v>
       </c>
-      <c r="G140" t="n">
-        <v>-99999</v>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H140" t="n">
         <v>-99999</v>
@@ -6076,8 +6354,10 @@
       <c r="F141" t="n">
         <v>-99999</v>
       </c>
-      <c r="G141" t="n">
-        <v>-99999</v>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H141" t="n">
         <v>-99999</v>
@@ -6116,8 +6396,10 @@
       <c r="F142" t="n">
         <v>-99999</v>
       </c>
-      <c r="G142" t="n">
-        <v>-99999</v>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H142" t="n">
         <v>-99999</v>
@@ -6156,8 +6438,10 @@
       <c r="F143" t="n">
         <v>-99999</v>
       </c>
-      <c r="G143" t="n">
-        <v>-99999</v>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H143" t="n">
         <v>-99999</v>
@@ -6196,8 +6480,10 @@
       <c r="F144" t="n">
         <v>-40</v>
       </c>
-      <c r="G144" t="n">
-        <v>-99999</v>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H144" t="n">
         <v>-99999</v>
@@ -6236,8 +6522,10 @@
       <c r="F145" t="n">
         <v>-99999</v>
       </c>
-      <c r="G145" t="n">
-        <v>-99999</v>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H145" t="n">
         <v>-99999</v>
@@ -6276,8 +6564,10 @@
       <c r="F146" t="n">
         <v>-99999</v>
       </c>
-      <c r="G146" t="n">
-        <v>-99999</v>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H146" t="n">
         <v>-99999</v>
@@ -6316,8 +6606,10 @@
       <c r="F147" t="n">
         <v>-99999</v>
       </c>
-      <c r="G147" t="n">
-        <v>-99999</v>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H147" t="n">
         <v>-99999</v>
@@ -6356,8 +6648,10 @@
       <c r="F148" t="n">
         <v>-99999</v>
       </c>
-      <c r="G148" t="n">
-        <v>-99999</v>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H148" t="n">
         <v>-99999</v>
@@ -6396,8 +6690,10 @@
       <c r="F149" t="n">
         <v>-99999</v>
       </c>
-      <c r="G149" t="n">
-        <v>-99999</v>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H149" t="n">
         <v>-99999</v>
@@ -6436,8 +6732,10 @@
       <c r="F150" t="n">
         <v>-99999</v>
       </c>
-      <c r="G150" t="n">
-        <v>-99999</v>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H150" t="n">
         <v>-99999</v>
@@ -6476,8 +6774,10 @@
       <c r="F151" t="n">
         <v>-99999</v>
       </c>
-      <c r="G151" t="n">
-        <v>-99999</v>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H151" t="n">
         <v>-99999</v>
@@ -6516,8 +6816,10 @@
       <c r="F152" t="n">
         <v>-99999</v>
       </c>
-      <c r="G152" t="n">
-        <v>-99999</v>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H152" t="n">
         <v>-99999</v>
@@ -6556,8 +6858,10 @@
       <c r="F153" t="n">
         <v>-99999</v>
       </c>
-      <c r="G153" t="n">
-        <v>-99999</v>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H153" t="n">
         <v>-99999</v>
@@ -6596,8 +6900,10 @@
       <c r="F154" t="n">
         <v>-99999</v>
       </c>
-      <c r="G154" t="n">
-        <v>-99999</v>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H154" t="n">
         <v>-99999</v>
@@ -6636,8 +6942,10 @@
       <c r="F155" t="n">
         <v>-99999</v>
       </c>
-      <c r="G155" t="n">
-        <v>-99999</v>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H155" t="n">
         <v>-99999</v>
@@ -6676,8 +6984,10 @@
       <c r="F156" t="n">
         <v>-99999</v>
       </c>
-      <c r="G156" t="n">
-        <v>-99999</v>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H156" t="n">
         <v>-99999</v>
@@ -6716,8 +7026,10 @@
       <c r="F157" t="n">
         <v>-99999</v>
       </c>
-      <c r="G157" t="n">
-        <v>-99999</v>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H157" t="n">
         <v>-99999</v>
@@ -6756,8 +7068,10 @@
       <c r="F158" t="n">
         <v>-99999</v>
       </c>
-      <c r="G158" t="n">
-        <v>-99999</v>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H158" t="n">
         <v>-99999</v>
@@ -6796,8 +7110,10 @@
       <c r="F159" t="n">
         <v>-99999</v>
       </c>
-      <c r="G159" t="n">
-        <v>-99999</v>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H159" t="n">
         <v>-99999</v>
@@ -6836,8 +7152,10 @@
       <c r="F160" t="n">
         <v>-99999</v>
       </c>
-      <c r="G160" t="n">
-        <v>-99999</v>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H160" t="n">
         <v>-99999</v>
@@ -6876,8 +7194,10 @@
       <c r="F161" t="n">
         <v>-99999</v>
       </c>
-      <c r="G161" t="n">
-        <v>-99999</v>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H161" t="n">
         <v>-99999</v>
@@ -6916,8 +7236,10 @@
       <c r="F162" t="n">
         <v>-15</v>
       </c>
-      <c r="G162" t="n">
-        <v>-99999</v>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H162" t="n">
         <v>-99999</v>
@@ -6956,8 +7278,10 @@
       <c r="F163" t="n">
         <v>-99999</v>
       </c>
-      <c r="G163" t="n">
-        <v>-99999</v>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H163" t="n">
         <v>-99999</v>
@@ -6996,8 +7320,10 @@
       <c r="F164" t="n">
         <v>-99999</v>
       </c>
-      <c r="G164" t="n">
-        <v>-99999</v>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H164" t="n">
         <v>-99999</v>
@@ -7036,8 +7362,10 @@
       <c r="F165" t="n">
         <v>-10</v>
       </c>
-      <c r="G165" t="n">
-        <v>-99999</v>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H165" t="n">
         <v>-99999</v>
@@ -7076,8 +7404,10 @@
       <c r="F166" t="n">
         <v>-99999</v>
       </c>
-      <c r="G166" t="n">
-        <v>-99999</v>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H166" t="n">
         <v>-99999</v>
@@ -7116,8 +7446,10 @@
       <c r="F167" t="n">
         <v>-10</v>
       </c>
-      <c r="G167" t="n">
-        <v>-99999</v>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H167" t="n">
         <v>-99999</v>
@@ -7156,8 +7488,10 @@
       <c r="F168" t="n">
         <v>-99999</v>
       </c>
-      <c r="G168" t="n">
-        <v>-99999</v>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H168" t="n">
         <v>-99999</v>
@@ -7196,8 +7530,10 @@
       <c r="F169" t="n">
         <v>-99999</v>
       </c>
-      <c r="G169" t="n">
-        <v>-99999</v>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H169" t="n">
         <v>-99999</v>
@@ -7236,8 +7572,10 @@
       <c r="F170" t="n">
         <v>-99999</v>
       </c>
-      <c r="G170" t="n">
-        <v>-99999</v>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H170" t="n">
         <v>-99999</v>
@@ -7276,8 +7614,10 @@
       <c r="F171" t="n">
         <v>-99999</v>
       </c>
-      <c r="G171" t="n">
-        <v>-99999</v>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H171" t="n">
         <v>-99999</v>
@@ -7316,8 +7656,10 @@
       <c r="F172" t="n">
         <v>-10</v>
       </c>
-      <c r="G172" t="n">
-        <v>-15</v>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
       </c>
       <c r="H172" t="n">
         <v>-99999</v>
@@ -7356,8 +7698,10 @@
       <c r="F173" t="n">
         <v>-10</v>
       </c>
-      <c r="G173" t="n">
-        <v>-15</v>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
       </c>
       <c r="H173" t="n">
         <v>-99999</v>
@@ -7396,8 +7740,10 @@
       <c r="F174" t="n">
         <v>-99999</v>
       </c>
-      <c r="G174" t="n">
-        <v>-99999</v>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H174" t="n">
         <v>-99999</v>
@@ -7436,8 +7782,10 @@
       <c r="F175" t="n">
         <v>-99999</v>
       </c>
-      <c r="G175" t="n">
-        <v>-99999</v>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H175" t="n">
         <v>-99999</v>
@@ -7476,8 +7824,10 @@
       <c r="F176" t="n">
         <v>-99999</v>
       </c>
-      <c r="G176" t="n">
-        <v>-99999</v>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H176" t="n">
         <v>-99999</v>
@@ -7516,8 +7866,10 @@
       <c r="F177" t="n">
         <v>-99999</v>
       </c>
-      <c r="G177" t="n">
-        <v>-99999</v>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H177" t="n">
         <v>-99999</v>
@@ -7556,8 +7908,10 @@
       <c r="F178" t="n">
         <v>-99999</v>
       </c>
-      <c r="G178" t="n">
-        <v>-99999</v>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H178" t="n">
         <v>-99999</v>
@@ -7596,8 +7950,10 @@
       <c r="F179" t="n">
         <v>-99999</v>
       </c>
-      <c r="G179" t="n">
-        <v>-99999</v>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H179" t="n">
         <v>-99999</v>
@@ -7636,8 +7992,10 @@
       <c r="F180" t="n">
         <v>-99999</v>
       </c>
-      <c r="G180" t="n">
-        <v>-99999</v>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H180" t="n">
         <v>-99999</v>
@@ -7676,8 +8034,10 @@
       <c r="F181" t="n">
         <v>-99999</v>
       </c>
-      <c r="G181" t="n">
-        <v>-99999</v>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H181" t="n">
         <v>-99999</v>
@@ -7716,8 +8076,10 @@
       <c r="F182" t="n">
         <v>-99999</v>
       </c>
-      <c r="G182" t="n">
-        <v>-99999</v>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H182" t="n">
         <v>-99999</v>
@@ -7756,8 +8118,10 @@
       <c r="F183" t="n">
         <v>-99999</v>
       </c>
-      <c r="G183" t="n">
-        <v>-99999</v>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H183" t="n">
         <v>-99999</v>
@@ -7796,8 +8160,10 @@
       <c r="F184" t="n">
         <v>-99999</v>
       </c>
-      <c r="G184" t="n">
-        <v>-99999</v>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H184" t="n">
         <v>-99999</v>
@@ -7836,8 +8202,10 @@
       <c r="F185" t="n">
         <v>-99999</v>
       </c>
-      <c r="G185" t="n">
-        <v>-99999</v>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H185" t="n">
         <v>-99999</v>
@@ -7876,8 +8244,10 @@
       <c r="F186" t="n">
         <v>-99999</v>
       </c>
-      <c r="G186" t="n">
-        <v>-99999</v>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H186" t="n">
         <v>-99999</v>
@@ -7916,8 +8286,10 @@
       <c r="F187" t="n">
         <v>-99999</v>
       </c>
-      <c r="G187" t="n">
-        <v>-99999</v>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H187" t="n">
         <v>-99999</v>
@@ -7956,8 +8328,10 @@
       <c r="F188" t="n">
         <v>-99999</v>
       </c>
-      <c r="G188" t="n">
-        <v>-99999</v>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H188" t="n">
         <v>-99999</v>
@@ -7996,8 +8370,10 @@
       <c r="F189" t="n">
         <v>-99999</v>
       </c>
-      <c r="G189" t="n">
-        <v>-99999</v>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H189" t="n">
         <v>-99999</v>
@@ -8036,8 +8412,10 @@
       <c r="F190" t="n">
         <v>-99999</v>
       </c>
-      <c r="G190" t="n">
-        <v>-99999</v>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H190" t="n">
         <v>-99999</v>
@@ -8076,8 +8454,10 @@
       <c r="F191" t="n">
         <v>-99999</v>
       </c>
-      <c r="G191" t="n">
-        <v>-99999</v>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H191" t="n">
         <v>-99999</v>
@@ -8116,8 +8496,10 @@
       <c r="F192" t="n">
         <v>-99999</v>
       </c>
-      <c r="G192" t="n">
-        <v>-99999</v>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H192" t="n">
         <v>-99999</v>
@@ -8156,8 +8538,10 @@
       <c r="F193" t="n">
         <v>-20</v>
       </c>
-      <c r="G193" t="n">
-        <v>-24</v>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>-24</t>
+        </is>
       </c>
       <c r="H193" t="n">
         <v>-99999</v>
@@ -8196,8 +8580,10 @@
       <c r="F194" t="n">
         <v>-99999</v>
       </c>
-      <c r="G194" t="n">
-        <v>-99999</v>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H194" t="n">
         <v>-99999</v>
@@ -8236,8 +8622,10 @@
       <c r="F195" t="n">
         <v>-20</v>
       </c>
-      <c r="G195" t="n">
-        <v>-24</v>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>-24</t>
+        </is>
       </c>
       <c r="H195" t="n">
         <v>-99999</v>
@@ -8276,8 +8664,10 @@
       <c r="F196" t="n">
         <v>-20</v>
       </c>
-      <c r="G196" t="n">
-        <v>-24</v>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>-24</t>
+        </is>
       </c>
       <c r="H196" t="n">
         <v>-99999</v>
@@ -8316,8 +8706,10 @@
       <c r="F197" t="n">
         <v>-99999</v>
       </c>
-      <c r="G197" t="n">
-        <v>-99999</v>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H197" t="n">
         <v>-99999</v>
@@ -8356,8 +8748,10 @@
       <c r="F198" t="n">
         <v>-20</v>
       </c>
-      <c r="G198" t="n">
-        <v>-24</v>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>-24</t>
+        </is>
       </c>
       <c r="H198" t="n">
         <v>-99999</v>
@@ -8396,8 +8790,10 @@
       <c r="F199" t="n">
         <v>-30</v>
       </c>
-      <c r="G199" t="n">
-        <v>-99999</v>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H199" t="n">
         <v>-99999</v>
@@ -8436,8 +8832,10 @@
       <c r="F200" t="n">
         <v>-30</v>
       </c>
-      <c r="G200" t="n">
-        <v>-99999</v>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H200" t="n">
         <v>-99999</v>
@@ -8476,8 +8874,10 @@
       <c r="F201" t="n">
         <v>-30</v>
       </c>
-      <c r="G201" t="n">
-        <v>-99999</v>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H201" t="n">
         <v>-99999</v>
@@ -8516,8 +8916,10 @@
       <c r="F202" t="n">
         <v>-99999</v>
       </c>
-      <c r="G202" t="n">
-        <v>-99999</v>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H202" t="n">
         <v>-99999</v>
@@ -8556,8 +8958,10 @@
       <c r="F203" t="n">
         <v>-99999</v>
       </c>
-      <c r="G203" t="n">
-        <v>-99999</v>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H203" t="n">
         <v>-99999</v>
@@ -8596,8 +9000,10 @@
       <c r="F204" t="n">
         <v>-99999</v>
       </c>
-      <c r="G204" t="n">
-        <v>-99999</v>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H204" t="n">
         <v>-99999</v>
@@ -8636,8 +9042,10 @@
       <c r="F205" t="n">
         <v>-99999</v>
       </c>
-      <c r="G205" t="n">
-        <v>-99999</v>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H205" t="n">
         <v>-99999</v>
@@ -8676,8 +9084,10 @@
       <c r="F206" t="n">
         <v>-99999</v>
       </c>
-      <c r="G206" t="n">
-        <v>-99999</v>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H206" t="n">
         <v>-99999</v>
@@ -8716,8 +9126,10 @@
       <c r="F207" t="n">
         <v>-99999</v>
       </c>
-      <c r="G207" t="n">
-        <v>-99999</v>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H207" t="n">
         <v>-99999</v>
@@ -8756,8 +9168,10 @@
       <c r="F208" t="n">
         <v>-99999</v>
       </c>
-      <c r="G208" t="n">
-        <v>-99999</v>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H208" t="n">
         <v>-99999</v>
@@ -8796,8 +9210,10 @@
       <c r="F209" t="n">
         <v>-99999</v>
       </c>
-      <c r="G209" t="n">
-        <v>-99999</v>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H209" t="n">
         <v>-99999</v>
@@ -8836,8 +9252,10 @@
       <c r="F210" t="n">
         <v>-99999</v>
       </c>
-      <c r="G210" t="n">
-        <v>-99999</v>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H210" t="n">
         <v>-99999</v>
@@ -8876,8 +9294,10 @@
       <c r="F211" t="n">
         <v>-99999</v>
       </c>
-      <c r="G211" t="n">
-        <v>-99999</v>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H211" t="n">
         <v>-99999</v>
@@ -8916,8 +9336,10 @@
       <c r="F212" t="n">
         <v>-99999</v>
       </c>
-      <c r="G212" t="n">
-        <v>-99999</v>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H212" t="n">
         <v>-99999</v>
@@ -8956,8 +9378,10 @@
       <c r="F213" t="n">
         <v>-99999</v>
       </c>
-      <c r="G213" t="n">
-        <v>-99999</v>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H213" t="n">
         <v>-99999</v>
@@ -8996,8 +9420,10 @@
       <c r="F214" t="n">
         <v>-99999</v>
       </c>
-      <c r="G214" t="n">
-        <v>-99999</v>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H214" t="n">
         <v>-99999</v>
@@ -9036,8 +9462,10 @@
       <c r="F215" t="n">
         <v>-99999</v>
       </c>
-      <c r="G215" t="n">
-        <v>-99999</v>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H215" t="n">
         <v>-99999</v>
@@ -9076,8 +9504,10 @@
       <c r="F216" t="n">
         <v>-99999</v>
       </c>
-      <c r="G216" t="n">
-        <v>-99999</v>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H216" t="n">
         <v>-99999</v>
@@ -9116,8 +9546,10 @@
       <c r="F217" t="n">
         <v>-3</v>
       </c>
-      <c r="G217" t="n">
-        <v>-5</v>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
       </c>
       <c r="H217" t="n">
         <v>-7</v>
@@ -9156,8 +9588,10 @@
       <c r="F218" t="n">
         <v>-2</v>
       </c>
-      <c r="G218" t="n">
-        <v>-5</v>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
       </c>
       <c r="H218" t="n">
         <v>-7</v>
@@ -9196,8 +9630,10 @@
       <c r="F219" t="n">
         <v>0</v>
       </c>
-      <c r="G219" t="n">
-        <v>-2</v>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
       </c>
       <c r="H219" t="n">
         <v>-99999</v>
@@ -9236,8 +9672,10 @@
       <c r="F220" t="n">
         <v>-99999</v>
       </c>
-      <c r="G220" t="n">
-        <v>-99999</v>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H220" t="n">
         <v>-99999</v>
@@ -9276,8 +9714,10 @@
       <c r="F221" t="n">
         <v>-15</v>
       </c>
-      <c r="G221" t="n">
-        <v>-20</v>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>-20</t>
+        </is>
       </c>
       <c r="H221" t="n">
         <v>-99999</v>
@@ -9316,8 +9756,10 @@
       <c r="F222" t="n">
         <v>-25</v>
       </c>
-      <c r="G222" t="n">
-        <v>-30</v>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>-30</t>
+        </is>
       </c>
       <c r="H222" t="n">
         <v>-99999</v>
@@ -9356,8 +9798,10 @@
       <c r="F223" t="n">
         <v>-25</v>
       </c>
-      <c r="G223" t="n">
-        <v>-30</v>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>-30</t>
+        </is>
       </c>
       <c r="H223" t="n">
         <v>-99999</v>
@@ -9396,8 +9840,10 @@
       <c r="F224" t="n">
         <v>-35</v>
       </c>
-      <c r="G224" t="n">
-        <v>-40</v>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>-40</t>
+        </is>
       </c>
       <c r="H224" t="n">
         <v>-99999</v>
@@ -9436,8 +9882,10 @@
       <c r="F225" t="n">
         <v>-99999</v>
       </c>
-      <c r="G225" t="n">
-        <v>-99999</v>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H225" t="n">
         <v>-99999</v>
@@ -9476,8 +9924,10 @@
       <c r="F226" t="n">
         <v>-99999</v>
       </c>
-      <c r="G226" t="n">
-        <v>-99999</v>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H226" t="n">
         <v>-99999</v>
@@ -9516,8 +9966,10 @@
       <c r="F227" t="n">
         <v>-99999</v>
       </c>
-      <c r="G227" t="n">
-        <v>-99999</v>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H227" t="n">
         <v>-99999</v>
@@ -9556,8 +10008,10 @@
       <c r="F228" t="n">
         <v>-65</v>
       </c>
-      <c r="G228" t="n">
-        <v>-70</v>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>-70</t>
+        </is>
       </c>
       <c r="H228" t="n">
         <v>-75</v>
@@ -9596,8 +10050,10 @@
       <c r="F229" t="n">
         <v>-99999</v>
       </c>
-      <c r="G229" t="n">
-        <v>-99999</v>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="H229" t="n">
         <v>-99999</v>
@@ -9613,6 +10069,174 @@
       </c>
       <c r="L229" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="inlineStr">
+        <is>
+          <t>LU2309-2310</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>1</v>
+      </c>
+      <c r="C230" t="n">
+        <v>1</v>
+      </c>
+      <c r="D230" t="n">
+        <v>1</v>
+      </c>
+      <c r="E230" t="n">
+        <v>1</v>
+      </c>
+      <c r="F230" t="n">
+        <v>1</v>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H230" t="n">
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>1</v>
+      </c>
+      <c r="J230" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="K230" t="n">
+        <v>0</v>
+      </c>
+      <c r="L230" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="inlineStr">
+        <is>
+          <t>SM2308-2309</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>231</v>
+      </c>
+      <c r="C231" t="n">
+        <v>3213</v>
+      </c>
+      <c r="D231" t="n">
+        <v>3123</v>
+      </c>
+      <c r="E231" t="n">
+        <v>1231</v>
+      </c>
+      <c r="F231" t="n">
+        <v>31231</v>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>我231</t>
+        </is>
+      </c>
+      <c r="H231" t="n">
+        <v>231</v>
+      </c>
+      <c r="I231" t="n">
+        <v>2</v>
+      </c>
+      <c r="J231" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="K231" t="n">
+        <v>0</v>
+      </c>
+      <c r="L231" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="inlineStr">
+        <is>
+          <t>SR2307-2309</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>0</v>
+      </c>
+      <c r="C232" t="n">
+        <v>0</v>
+      </c>
+      <c r="D232" t="n">
+        <v>0</v>
+      </c>
+      <c r="E232" t="n">
+        <v>0</v>
+      </c>
+      <c r="F232" t="n">
+        <v>0</v>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
+        <v>2</v>
+      </c>
+      <c r="J232" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="K232" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="L232" t="n">
+        <v>-99999</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="inlineStr">
+        <is>
+          <t>SF2309-2310</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>0</v>
+      </c>
+      <c r="C233" t="n">
+        <v>0</v>
+      </c>
+      <c r="D233" t="n">
+        <v>0</v>
+      </c>
+      <c r="E233" t="n">
+        <v>123</v>
+      </c>
+      <c r="F233" t="n">
+        <v>0</v>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
+      <c r="K233" t="n">
+        <v>0</v>
+      </c>
+      <c r="L233" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/info/region_info.xlsx
+++ b/info/region_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L233"/>
+  <dimension ref="A1:L236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10239,6 +10239,132 @@
         <v>0</v>
       </c>
     </row>
+    <row r="234">
+      <c r="A234" s="1" t="inlineStr">
+        <is>
+          <t>SF2308-2309</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>1</v>
+      </c>
+      <c r="C234" t="n">
+        <v>1</v>
+      </c>
+      <c r="D234" t="n">
+        <v>1</v>
+      </c>
+      <c r="E234" t="n">
+        <v>1</v>
+      </c>
+      <c r="F234" t="n">
+        <v>1</v>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H234" t="n">
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>1</v>
+      </c>
+      <c r="J234" t="n">
+        <v>1</v>
+      </c>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="inlineStr">
+        <is>
+          <t>SR2401-2403</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>0</v>
+      </c>
+      <c r="C235" t="n">
+        <v>0</v>
+      </c>
+      <c r="D235" t="n">
+        <v>0</v>
+      </c>
+      <c r="E235" t="n">
+        <v>0</v>
+      </c>
+      <c r="F235" t="n">
+        <v>0</v>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H235" t="n">
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>10</v>
+      </c>
+      <c r="J235" t="n">
+        <v>12012</v>
+      </c>
+      <c r="K235" t="n">
+        <v>12</v>
+      </c>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="inlineStr">
+        <is>
+          <t>SM2309-2310</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>1</v>
+      </c>
+      <c r="C236" t="n">
+        <v>1</v>
+      </c>
+      <c r="D236" t="n">
+        <v>1</v>
+      </c>
+      <c r="E236" t="n">
+        <v>1</v>
+      </c>
+      <c r="F236" t="n">
+        <v>1</v>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H236" t="n">
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>1</v>
+      </c>
+      <c r="J236" t="n">
+        <v>1</v>
+      </c>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/info/region_info.xlsx
+++ b/info/region_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L236"/>
+  <dimension ref="A1:L248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10365,6 +10365,510 @@
         <v>1</v>
       </c>
     </row>
+    <row r="237">
+      <c r="A237" s="1" t="inlineStr">
+        <is>
+          <t>SR2309-2311</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>1</v>
+      </c>
+      <c r="C237" t="n">
+        <v>1</v>
+      </c>
+      <c r="D237" t="n">
+        <v>1</v>
+      </c>
+      <c r="E237" t="n">
+        <v>1</v>
+      </c>
+      <c r="F237" t="n">
+        <v>1</v>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H237" t="n">
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>1</v>
+      </c>
+      <c r="J237" t="n">
+        <v>1</v>
+      </c>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="inlineStr">
+        <is>
+          <t>Y2401-2403</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>1</v>
+      </c>
+      <c r="C238" t="n">
+        <v>1</v>
+      </c>
+      <c r="D238" t="n">
+        <v>1</v>
+      </c>
+      <c r="E238" t="n">
+        <v>1</v>
+      </c>
+      <c r="F238" t="n">
+        <v>1</v>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H238" t="n">
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>1</v>
+      </c>
+      <c r="J238" t="n">
+        <v>11</v>
+      </c>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="inlineStr">
+        <is>
+          <t>SA2404-2405</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>1</v>
+      </c>
+      <c r="C239" t="n">
+        <v>1</v>
+      </c>
+      <c r="D239" t="n">
+        <v>1</v>
+      </c>
+      <c r="E239" t="n">
+        <v>1</v>
+      </c>
+      <c r="F239" t="n">
+        <v>1</v>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H239" t="n">
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>1</v>
+      </c>
+      <c r="J239" t="n">
+        <v>1</v>
+      </c>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="inlineStr">
+        <is>
+          <t>OI2401-2403</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>1</v>
+      </c>
+      <c r="C240" t="n">
+        <v>1</v>
+      </c>
+      <c r="D240" t="n">
+        <v>1</v>
+      </c>
+      <c r="E240" t="n">
+        <v>1</v>
+      </c>
+      <c r="F240" t="n">
+        <v>1</v>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H240" t="n">
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>1</v>
+      </c>
+      <c r="J240" t="n">
+        <v>1</v>
+      </c>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="inlineStr">
+        <is>
+          <t>SA2402-2403</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>1</v>
+      </c>
+      <c r="C241" t="n">
+        <v>1</v>
+      </c>
+      <c r="D241" t="n">
+        <v>1</v>
+      </c>
+      <c r="E241" t="n">
+        <v>1</v>
+      </c>
+      <c r="F241" t="n">
+        <v>1</v>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H241" t="n">
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>1</v>
+      </c>
+      <c r="J241" t="n">
+        <v>1</v>
+      </c>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="inlineStr">
+        <is>
+          <t>LU2308-2309</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>1</v>
+      </c>
+      <c r="C242" t="n">
+        <v>1</v>
+      </c>
+      <c r="D242" t="n">
+        <v>1</v>
+      </c>
+      <c r="E242" t="n">
+        <v>1</v>
+      </c>
+      <c r="F242" t="n">
+        <v>1</v>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H242" t="n">
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>1</v>
+      </c>
+      <c r="J242" t="n">
+        <v>1</v>
+      </c>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="inlineStr">
+        <is>
+          <t>CF2401-2403</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>1</v>
+      </c>
+      <c r="C243" t="n">
+        <v>1</v>
+      </c>
+      <c r="D243" t="n">
+        <v>1</v>
+      </c>
+      <c r="E243" t="n">
+        <v>1</v>
+      </c>
+      <c r="F243" t="n">
+        <v>1</v>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H243" t="n">
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>1</v>
+      </c>
+      <c r="J243" t="n">
+        <v>1</v>
+      </c>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="inlineStr">
+        <is>
+          <t>L2401-2402</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>1</v>
+      </c>
+      <c r="C244" t="n">
+        <v>1</v>
+      </c>
+      <c r="D244" t="n">
+        <v>1</v>
+      </c>
+      <c r="E244" t="n">
+        <v>1</v>
+      </c>
+      <c r="F244" t="n">
+        <v>1</v>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H244" t="n">
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>1</v>
+      </c>
+      <c r="J244" t="n">
+        <v>1</v>
+      </c>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="inlineStr">
+        <is>
+          <t>UR2308-2309</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>1</v>
+      </c>
+      <c r="C245" t="n">
+        <v>1</v>
+      </c>
+      <c r="D245" t="n">
+        <v>1</v>
+      </c>
+      <c r="E245" t="n">
+        <v>1</v>
+      </c>
+      <c r="F245" t="n">
+        <v>1</v>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H245" t="n">
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>1</v>
+      </c>
+      <c r="J245" t="n">
+        <v>1</v>
+      </c>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="inlineStr">
+        <is>
+          <t>UR2309-2310</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>1</v>
+      </c>
+      <c r="C246" t="n">
+        <v>1</v>
+      </c>
+      <c r="D246" t="n">
+        <v>1</v>
+      </c>
+      <c r="E246" t="n">
+        <v>1</v>
+      </c>
+      <c r="F246" t="n">
+        <v>1</v>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H246" t="n">
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>1</v>
+      </c>
+      <c r="J246" t="n">
+        <v>1</v>
+      </c>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="inlineStr">
+        <is>
+          <t>SF2307-2308</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>11</v>
+      </c>
+      <c r="C247" t="n">
+        <v>1</v>
+      </c>
+      <c r="D247" t="n">
+        <v>1</v>
+      </c>
+      <c r="E247" t="n">
+        <v>1</v>
+      </c>
+      <c r="F247" t="n">
+        <v>1</v>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H247" t="n">
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>1</v>
+      </c>
+      <c r="J247" t="n">
+        <v>1</v>
+      </c>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="inlineStr">
+        <is>
+          <t>I2404-2405</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>1</v>
+      </c>
+      <c r="C248" t="n">
+        <v>1</v>
+      </c>
+      <c r="D248" t="n">
+        <v>1</v>
+      </c>
+      <c r="E248" t="n">
+        <v>1</v>
+      </c>
+      <c r="F248" t="n">
+        <v>1</v>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H248" t="n">
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>1</v>
+      </c>
+      <c r="J248" t="n">
+        <v>1</v>
+      </c>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/info/region_info.xlsx
+++ b/info/region_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L231"/>
+  <dimension ref="A1:L233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -689,7 +689,7 @@
         <v>-99999</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L6" t="n">
         <v>3</v>
@@ -849,7 +849,7 @@
         <v>-99999</v>
       </c>
       <c r="K10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L10" t="n">
         <v>1</v>
@@ -1111,10 +1111,10 @@
         <v>-15</v>
       </c>
       <c r="E17" t="n">
+        <v>-17</v>
+      </c>
+      <c r="F17" t="n">
         <v>-20</v>
-      </c>
-      <c r="F17" t="n">
-        <v>-99999</v>
       </c>
       <c r="G17" t="n">
         <v>-99999</v>
@@ -1597,7 +1597,7 @@
         <v>-1.32</v>
       </c>
       <c r="G29" t="n">
-        <v>-99999</v>
+        <v>-1.4</v>
       </c>
       <c r="H29" t="n">
         <v>-99999</v>
@@ -1609,7 +1609,7 @@
         <v>-99999</v>
       </c>
       <c r="K29" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="L29" t="n">
         <v>2</v>
@@ -1634,7 +1634,7 @@
         <v>-1.32</v>
       </c>
       <c r="F30" t="n">
-        <v>-99999</v>
+        <v>-1.42</v>
       </c>
       <c r="G30" t="n">
         <v>-99999</v>
@@ -1671,16 +1671,16 @@
         <v>-1.4</v>
       </c>
       <c r="E31" t="n">
+        <v>-1.4</v>
+      </c>
+      <c r="F31" t="n">
         <v>-1.6</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
         <v>-1.8</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31" t="n">
         <v>-2</v>
-      </c>
-      <c r="H31" t="n">
-        <v>-99999</v>
       </c>
       <c r="I31" t="n">
         <v>-99999</v>
@@ -1714,7 +1714,7 @@
         <v>-1.5</v>
       </c>
       <c r="F32" t="n">
-        <v>-99999</v>
+        <v>-1.56</v>
       </c>
       <c r="G32" t="n">
         <v>-99999</v>
@@ -1738,14 +1738,14 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>B2307-2308</t>
+          <t>B2308-2307</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>-45</v>
       </c>
       <c r="D33" t="n">
         <v>-99999</v>
@@ -1769,7 +1769,7 @@
         <v>-99999</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L33" t="n">
         <v>3</v>
@@ -1778,14 +1778,14 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>B2308-2307</t>
+          <t>B2308-2309</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>-45</v>
+        <v>57</v>
       </c>
       <c r="D34" t="n">
         <v>-99999</v>
@@ -1809,7 +1809,7 @@
         <v>-99999</v>
       </c>
       <c r="K34" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="L34" t="n">
         <v>3</v>
@@ -1818,17 +1818,17 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>B2308-2309</t>
+          <t>B2309-2308</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>-99999</v>
+        <v>-110</v>
       </c>
       <c r="D35" t="n">
-        <v>-99999</v>
+        <v>-115</v>
       </c>
       <c r="E35" t="n">
         <v>-99999</v>
@@ -1849,7 +1849,7 @@
         <v>-99999</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L35" t="n">
         <v>3</v>
@@ -1858,17 +1858,17 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>B2309-2308</t>
+          <t>B2309-2310</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>-110</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
-        <v>-115</v>
+        <v>-99999</v>
       </c>
       <c r="E36" t="n">
         <v>-99999</v>
@@ -1889,7 +1889,7 @@
         <v>-99999</v>
       </c>
       <c r="K36" t="n">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="L36" t="n">
         <v>3</v>
@@ -1898,7 +1898,7 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>B2309-2310</t>
+          <t>BU2307-2308</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1929,23 +1929,23 @@
         <v>-99999</v>
       </c>
       <c r="K37" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="L37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>BU2307-2308</t>
+          <t>BU2308-2309</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>-99999</v>
       </c>
       <c r="D38" t="n">
         <v>-99999</v>
@@ -1969,7 +1969,7 @@
         <v>-99999</v>
       </c>
       <c r="K38" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L38" t="n">
         <v>1</v>
@@ -1978,26 +1978,26 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>BU2308-2309</t>
+          <t>BU2309-2310</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>-99999</v>
+        <v>-5</v>
       </c>
       <c r="E39" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="F39" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="G39" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="H39" t="n">
         <v>-99999</v>
@@ -2009,7 +2009,7 @@
         <v>-99999</v>
       </c>
       <c r="K39" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L39" t="n">
         <v>1</v>
@@ -2018,26 +2018,26 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>BU2309-2310</t>
+          <t>BU2310-2311</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="D40" t="n">
-        <v>-5</v>
+        <v>-99999</v>
       </c>
       <c r="E40" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="F40" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="G40" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="H40" t="n">
         <v>-99999</v>
@@ -2058,26 +2058,26 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>BU2310-2311</t>
+          <t>BU2311-2312</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>-99999</v>
+        <v>-5</v>
       </c>
       <c r="E41" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="F41" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="G41" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="H41" t="n">
         <v>-99999</v>
@@ -2098,26 +2098,26 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>BU2311-2312</t>
+          <t>BU2312-2401</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D42" t="n">
-        <v>-5</v>
+        <v>-99999</v>
       </c>
       <c r="E42" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="F42" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="G42" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="H42" t="n">
         <v>-99999</v>
@@ -2138,14 +2138,14 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>BU2312-2401</t>
+          <t>BU2403-2404</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>-80</v>
       </c>
       <c r="C43" t="n">
-        <v>10</v>
+        <v>-99999</v>
       </c>
       <c r="D43" t="n">
         <v>-99999</v>
@@ -2169,10 +2169,10 @@
         <v>-99999</v>
       </c>
       <c r="K43" t="n">
-        <v>30</v>
+        <v>-99999</v>
       </c>
       <c r="L43" t="n">
-        <v>1</v>
+        <v>-99999</v>
       </c>
     </row>
     <row r="44">
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>-91</v>
+        <v>-130</v>
       </c>
       <c r="D47" t="n">
         <v>-99999</v>
@@ -2329,7 +2329,7 @@
         <v>-99999</v>
       </c>
       <c r="K47" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="L47" t="n">
         <v>3</v>
@@ -2385,7 +2385,7 @@
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D49" t="n">
         <v>-99999</v>
@@ -2409,7 +2409,7 @@
         <v>-99999</v>
       </c>
       <c r="K49" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L49" t="n">
         <v>3</v>
@@ -2489,7 +2489,7 @@
         <v>-99999</v>
       </c>
       <c r="K51" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L51" t="n">
         <v>2</v>
@@ -2505,31 +2505,31 @@
         <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>-145</v>
+        <v>-170</v>
       </c>
       <c r="D52" t="n">
-        <v>-150</v>
+        <v>-180</v>
       </c>
       <c r="E52" t="n">
-        <v>-160</v>
+        <v>-200</v>
       </c>
       <c r="F52" t="n">
-        <v>-170</v>
+        <v>-220</v>
       </c>
       <c r="G52" t="n">
-        <v>-180</v>
+        <v>-99999</v>
       </c>
       <c r="H52" t="n">
-        <v>-200</v>
+        <v>-99999</v>
       </c>
       <c r="I52" t="n">
-        <v>-220</v>
+        <v>-99999</v>
       </c>
       <c r="J52" t="n">
         <v>-99999</v>
       </c>
       <c r="K52" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L52" t="n">
         <v>2</v>
@@ -2729,7 +2729,7 @@
         <v>-99999</v>
       </c>
       <c r="K57" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L57" t="n">
         <v>4</v>
@@ -3649,7 +3649,7 @@
         <v>-99999</v>
       </c>
       <c r="K80" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L80" t="n">
         <v>3</v>
@@ -3658,17 +3658,17 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>FU2311-2312</t>
+          <t>FU2311-2310</t>
         </is>
       </c>
       <c r="B81" t="n">
         <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>20</v>
+        <v>-70</v>
       </c>
       <c r="D81" t="n">
-        <v>18</v>
+        <v>-99999</v>
       </c>
       <c r="E81" t="n">
         <v>-99999</v>
@@ -3698,17 +3698,17 @@
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>FU2312-2401</t>
+          <t>FU2311-2312</t>
         </is>
       </c>
       <c r="B82" t="n">
         <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>-15</v>
+        <v>20</v>
       </c>
       <c r="D82" t="n">
-        <v>-20</v>
+        <v>18</v>
       </c>
       <c r="E82" t="n">
         <v>-99999</v>
@@ -3729,7 +3729,7 @@
         <v>-99999</v>
       </c>
       <c r="K82" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L82" t="n">
         <v>3</v>
@@ -3738,14 +3738,14 @@
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>FU2401-2402</t>
+          <t>FU2312-2401</t>
         </is>
       </c>
       <c r="B83" t="n">
         <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D83" t="n">
         <v>-99999</v>
@@ -3769,7 +3769,7 @@
         <v>-99999</v>
       </c>
       <c r="K83" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="L83" t="n">
         <v>3</v>
@@ -3778,17 +3778,17 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>FU2402-2403</t>
+          <t>FU2401-2402</t>
         </is>
       </c>
       <c r="B84" t="n">
         <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>-15</v>
+        <v>21</v>
       </c>
       <c r="D84" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="E84" t="n">
         <v>-99999</v>
@@ -3809,7 +3809,7 @@
         <v>-99999</v>
       </c>
       <c r="K84" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="L84" t="n">
         <v>3</v>
@@ -3818,7 +3818,7 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>FU2403-2404</t>
+          <t>FU2402-2403</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -3858,7 +3858,7 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>FU2404-2405</t>
+          <t>FU2403-2404</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -3898,26 +3898,26 @@
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>HC2307-2308</t>
+          <t>FU2404-2405</t>
         </is>
       </c>
       <c r="B87" t="n">
         <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>-5</v>
+        <v>-15</v>
       </c>
       <c r="D87" t="n">
-        <v>-15</v>
+        <v>-20</v>
       </c>
       <c r="E87" t="n">
-        <v>-25</v>
+        <v>-99999</v>
       </c>
       <c r="F87" t="n">
-        <v>-35</v>
+        <v>-99999</v>
       </c>
       <c r="G87" t="n">
-        <v>-45</v>
+        <v>-99999</v>
       </c>
       <c r="H87" t="n">
         <v>-99999</v>
@@ -3929,7 +3929,7 @@
         <v>-99999</v>
       </c>
       <c r="K87" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="L87" t="n">
         <v>3</v>
@@ -3938,38 +3938,38 @@
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>HC2307-2309</t>
+          <t>FU2405-2406</t>
         </is>
       </c>
       <c r="B88" t="n">
         <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>10</v>
+        <v>-15</v>
       </c>
       <c r="D88" t="n">
-        <v>5</v>
+        <v>-20</v>
       </c>
       <c r="E88" t="n">
-        <v>5</v>
+        <v>-99999</v>
       </c>
       <c r="F88" t="n">
-        <v>4</v>
+        <v>-99999</v>
       </c>
       <c r="G88" t="n">
-        <v>3</v>
+        <v>-99999</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>-99999</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>-99999</v>
       </c>
       <c r="J88" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="K88" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L88" t="n">
         <v>3</v>
@@ -3978,26 +3978,26 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>HC2308-2309</t>
+          <t>HC2307-2308</t>
         </is>
       </c>
       <c r="B89" t="n">
         <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D89" t="n">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="E89" t="n">
-        <v>-99999</v>
+        <v>-25</v>
       </c>
       <c r="F89" t="n">
-        <v>-99999</v>
+        <v>-35</v>
       </c>
       <c r="G89" t="n">
-        <v>-99999</v>
+        <v>-45</v>
       </c>
       <c r="H89" t="n">
         <v>-99999</v>
@@ -4009,7 +4009,7 @@
         <v>-99999</v>
       </c>
       <c r="K89" t="n">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="L89" t="n">
         <v>3</v>
@@ -4018,38 +4018,38 @@
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>HC2309-2310</t>
+          <t>HC2307-2309</t>
         </is>
       </c>
       <c r="B90" t="n">
         <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="D90" t="n">
-        <v>-20</v>
+        <v>5</v>
       </c>
       <c r="E90" t="n">
-        <v>-30</v>
+        <v>5</v>
       </c>
       <c r="F90" t="n">
-        <v>-40</v>
+        <v>4</v>
       </c>
       <c r="G90" t="n">
-        <v>-50</v>
+        <v>3</v>
       </c>
       <c r="H90" t="n">
-        <v>-99999</v>
+        <v>2</v>
       </c>
       <c r="I90" t="n">
-        <v>-99999</v>
+        <v>1</v>
       </c>
       <c r="J90" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="K90" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="L90" t="n">
         <v>3</v>
@@ -4058,26 +4058,26 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>HC2310-2311</t>
+          <t>HC2308-2309</t>
         </is>
       </c>
       <c r="B91" t="n">
         <v>0</v>
       </c>
       <c r="C91" t="n">
+        <v>0</v>
+      </c>
+      <c r="D91" t="n">
         <v>-10</v>
       </c>
-      <c r="D91" t="n">
-        <v>-20</v>
-      </c>
       <c r="E91" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="F91" t="n">
-        <v>-40</v>
+        <v>-99999</v>
       </c>
       <c r="G91" t="n">
-        <v>-50</v>
+        <v>-99999</v>
       </c>
       <c r="H91" t="n">
         <v>-99999</v>
@@ -4089,7 +4089,7 @@
         <v>-99999</v>
       </c>
       <c r="K91" t="n">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="L91" t="n">
         <v>3</v>
@@ -4098,26 +4098,26 @@
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>HC2311-2312</t>
+          <t>HC2309-2310</t>
         </is>
       </c>
       <c r="B92" t="n">
         <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="D92" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="E92" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="F92" t="n">
-        <v>-99999</v>
+        <v>-40</v>
       </c>
       <c r="G92" t="n">
-        <v>-99999</v>
+        <v>-50</v>
       </c>
       <c r="H92" t="n">
         <v>-99999</v>
@@ -4129,7 +4129,7 @@
         <v>-99999</v>
       </c>
       <c r="K92" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L92" t="n">
         <v>3</v>
@@ -4138,26 +4138,26 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>HC2312-2401</t>
+          <t>HC2310-2311</t>
         </is>
       </c>
       <c r="B93" t="n">
         <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="D93" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="E93" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="F93" t="n">
-        <v>-99999</v>
+        <v>-40</v>
       </c>
       <c r="G93" t="n">
-        <v>-99999</v>
+        <v>-50</v>
       </c>
       <c r="H93" t="n">
         <v>-99999</v>
@@ -4169,7 +4169,7 @@
         <v>-99999</v>
       </c>
       <c r="K93" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L93" t="n">
         <v>3</v>
@@ -4178,17 +4178,17 @@
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>HC2401-2402</t>
+          <t>HC2311-2312</t>
         </is>
       </c>
       <c r="B94" t="n">
         <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="D94" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="E94" t="n">
         <v>-99999</v>
@@ -4218,7 +4218,7 @@
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>HC2402-2403</t>
+          <t>HC2312-2401</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -4258,7 +4258,7 @@
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>HC2403-2404</t>
+          <t>HC2401-2402</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -4298,17 +4298,17 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>I2307-2308</t>
+          <t>HC2402-2403</t>
         </is>
       </c>
       <c r="B97" t="n">
         <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>-99999</v>
       </c>
       <c r="D97" t="n">
-        <v>-1</v>
+        <v>-99999</v>
       </c>
       <c r="E97" t="n">
         <v>-99999</v>
@@ -4329,26 +4329,26 @@
         <v>-99999</v>
       </c>
       <c r="K97" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="L97" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>I2308-2309</t>
+          <t>HC2403-2404</t>
         </is>
       </c>
       <c r="B98" t="n">
         <v>0</v>
       </c>
       <c r="C98" t="n">
-        <v>4.5</v>
+        <v>-99999</v>
       </c>
       <c r="D98" t="n">
-        <v>-1</v>
+        <v>-99999</v>
       </c>
       <c r="E98" t="n">
         <v>-99999</v>
@@ -4369,26 +4369,26 @@
         <v>-99999</v>
       </c>
       <c r="K98" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="L98" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>I2309-2310</t>
+          <t>I2307-2308</t>
         </is>
       </c>
       <c r="B99" t="n">
         <v>0</v>
       </c>
       <c r="C99" t="n">
-        <v>-99999</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
-        <v>-99999</v>
+        <v>-1</v>
       </c>
       <c r="E99" t="n">
         <v>-99999</v>
@@ -4409,7 +4409,7 @@
         <v>-99999</v>
       </c>
       <c r="K99" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L99" t="n">
         <v>1</v>
@@ -4418,17 +4418,17 @@
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>I2310-2311</t>
+          <t>I2308-2309</t>
         </is>
       </c>
       <c r="B100" t="n">
         <v>0</v>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="D100" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E100" t="n">
         <v>-99999</v>
@@ -4449,26 +4449,26 @@
         <v>-99999</v>
       </c>
       <c r="K100" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L100" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>I2311-2312</t>
+          <t>I2309-2310</t>
         </is>
       </c>
       <c r="B101" t="n">
         <v>0</v>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>-99999</v>
       </c>
       <c r="D101" t="n">
-        <v>2</v>
+        <v>-99999</v>
       </c>
       <c r="E101" t="n">
         <v>-99999</v>
@@ -4489,23 +4489,23 @@
         <v>-99999</v>
       </c>
       <c r="K101" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L101" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>I2312-2401</t>
+          <t>I2310-2311</t>
         </is>
       </c>
       <c r="B102" t="n">
         <v>0</v>
       </c>
       <c r="C102" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="D102" t="n">
         <v>2</v>
@@ -4538,17 +4538,17 @@
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>I2401-2402</t>
+          <t>I2311-2312</t>
         </is>
       </c>
       <c r="B103" t="n">
         <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D103" t="n">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="E103" t="n">
         <v>-99999</v>
@@ -4578,17 +4578,17 @@
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>I2402-2403</t>
+          <t>I2312-2401</t>
         </is>
       </c>
       <c r="B104" t="n">
         <v>0</v>
       </c>
       <c r="C104" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="D104" t="n">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="E104" t="n">
         <v>-99999</v>
@@ -4618,7 +4618,7 @@
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>I2403-2404</t>
+          <t>I2401-2402</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -4658,17 +4658,17 @@
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>IC2306-2309</t>
+          <t>I2402-2403</t>
         </is>
       </c>
       <c r="B106" t="n">
         <v>0</v>
       </c>
       <c r="C106" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="D106" t="n">
-        <v>-99999</v>
+        <v>-3</v>
       </c>
       <c r="E106" t="n">
         <v>-99999</v>
@@ -4689,26 +4689,26 @@
         <v>-99999</v>
       </c>
       <c r="K106" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="L106" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>IC2309-2312</t>
+          <t>I2403-2404</t>
         </is>
       </c>
       <c r="B107" t="n">
         <v>0</v>
       </c>
       <c r="C107" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="D107" t="n">
-        <v>-99999</v>
+        <v>-3</v>
       </c>
       <c r="E107" t="n">
         <v>-99999</v>
@@ -4729,16 +4729,16 @@
         <v>-99999</v>
       </c>
       <c r="K107" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="L107" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>IF2306-2309</t>
+          <t>IC2306-2309</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -4778,7 +4778,7 @@
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>IF2309-2312</t>
+          <t>IC2309-2312</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -4818,14 +4818,14 @@
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>IH2307-2309</t>
+          <t>IF2306-2309</t>
         </is>
       </c>
       <c r="B110" t="n">
         <v>0</v>
       </c>
       <c r="C110" t="n">
-        <v>-13.6</v>
+        <v>-99999</v>
       </c>
       <c r="D110" t="n">
         <v>-99999</v>
@@ -4849,29 +4849,29 @@
         <v>-99999</v>
       </c>
       <c r="K110" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L110" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>IH2309-2312</t>
+          <t>IF2308-2309</t>
         </is>
       </c>
       <c r="B111" t="n">
         <v>0</v>
       </c>
       <c r="C111" t="n">
-        <v>-16.4</v>
+        <v>-7.4</v>
       </c>
       <c r="D111" t="n">
-        <v>-18.4</v>
+        <v>-99999</v>
       </c>
       <c r="E111" t="n">
-        <v>-20.4</v>
+        <v>-99999</v>
       </c>
       <c r="F111" t="n">
         <v>-99999</v>
@@ -4892,13 +4892,13 @@
         <v>20</v>
       </c>
       <c r="L111" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>IM2309-2312</t>
+          <t>IF2309-2312</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -4938,29 +4938,29 @@
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>L2307-2308</t>
+          <t>IH2307-2309</t>
         </is>
       </c>
       <c r="B113" t="n">
         <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="D113" t="n">
-        <v>-5</v>
+        <v>-13.6</v>
       </c>
       <c r="E113" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="F113" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="G113" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="H113" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="I113" t="n">
         <v>-99999</v>
@@ -4969,38 +4969,38 @@
         <v>-99999</v>
       </c>
       <c r="K113" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L113" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>L2308-2309</t>
+          <t>IH2309-2312</t>
         </is>
       </c>
       <c r="B114" t="n">
         <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>0</v>
+        <v>-16.4</v>
       </c>
       <c r="D114" t="n">
-        <v>-5</v>
+        <v>-18.4</v>
       </c>
       <c r="E114" t="n">
-        <v>-10</v>
+        <v>-20.4</v>
       </c>
       <c r="F114" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="G114" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="H114" t="n">
-        <v>-40</v>
+        <v>-99999</v>
       </c>
       <c r="I114" t="n">
         <v>-99999</v>
@@ -5009,38 +5009,38 @@
         <v>-99999</v>
       </c>
       <c r="K114" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L114" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>L2309-2310</t>
+          <t>IM2309-2312</t>
         </is>
       </c>
       <c r="B115" t="n">
         <v>0</v>
       </c>
       <c r="C115" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="D115" t="n">
-        <v>-5</v>
+        <v>-99999</v>
       </c>
       <c r="E115" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="F115" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="G115" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="H115" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="I115" t="n">
         <v>-99999</v>
@@ -5049,16 +5049,16 @@
         <v>-99999</v>
       </c>
       <c r="K115" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L115" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>L2310-2311</t>
+          <t>L2307-2308</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -5077,10 +5077,10 @@
         <v>-15</v>
       </c>
       <c r="G116" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="H116" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="I116" t="n">
         <v>-99999</v>
@@ -5098,7 +5098,7 @@
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>L2311-2312</t>
+          <t>L2308-2309</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -5114,13 +5114,13 @@
         <v>-10</v>
       </c>
       <c r="F117" t="n">
-        <v>-15</v>
+        <v>-20</v>
       </c>
       <c r="G117" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="H117" t="n">
-        <v>-99999</v>
+        <v>-40</v>
       </c>
       <c r="I117" t="n">
         <v>-99999</v>
@@ -5138,7 +5138,7 @@
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>L2312-2401</t>
+          <t>L2309-2310</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -5157,10 +5157,10 @@
         <v>-15</v>
       </c>
       <c r="G118" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="H118" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="I118" t="n">
         <v>-99999</v>
@@ -5178,7 +5178,7 @@
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>L2402-2403</t>
+          <t>L2310-2311</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -5218,23 +5218,23 @@
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>LU2307-2306</t>
+          <t>L2311-2312</t>
         </is>
       </c>
       <c r="B120" t="n">
         <v>0</v>
       </c>
       <c r="C120" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="D120" t="n">
-        <v>-99999</v>
+        <v>-5</v>
       </c>
       <c r="E120" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="F120" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="G120" t="n">
         <v>-99999</v>
@@ -5258,7 +5258,7 @@
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>M2308-2309</t>
+          <t>L2312-2401</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -5274,10 +5274,10 @@
         <v>-10</v>
       </c>
       <c r="F121" t="n">
-        <v>-20</v>
+        <v>-15</v>
       </c>
       <c r="G121" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="H121" t="n">
         <v>-99999</v>
@@ -5289,7 +5289,7 @@
         <v>-99999</v>
       </c>
       <c r="K121" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="L121" t="n">
         <v>3</v>
@@ -5298,23 +5298,23 @@
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>M2309-2311</t>
+          <t>L2402-2403</t>
         </is>
       </c>
       <c r="B122" t="n">
         <v>0</v>
       </c>
       <c r="C122" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="D122" t="n">
-        <v>-99999</v>
+        <v>-5</v>
       </c>
       <c r="E122" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="F122" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="G122" t="n">
         <v>-99999</v>
@@ -5329,7 +5329,7 @@
         <v>-99999</v>
       </c>
       <c r="K122" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="L122" t="n">
         <v>3</v>
@@ -5338,17 +5338,17 @@
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>M2311-2312</t>
+          <t>LU2307-2306</t>
         </is>
       </c>
       <c r="B123" t="n">
         <v>0</v>
       </c>
       <c r="C123" t="n">
-        <v>-40</v>
+        <v>-99999</v>
       </c>
       <c r="D123" t="n">
-        <v>-50</v>
+        <v>-99999</v>
       </c>
       <c r="E123" t="n">
         <v>-99999</v>
@@ -5369,16 +5369,16 @@
         <v>-99999</v>
       </c>
       <c r="K123" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L123" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>M2312-2401</t>
+          <t>M2308-2309</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -5394,10 +5394,10 @@
         <v>-10</v>
       </c>
       <c r="F124" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="G124" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="H124" t="n">
         <v>-99999</v>
@@ -5418,20 +5418,20 @@
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>M2401-2403</t>
+          <t>M2309-2311</t>
         </is>
       </c>
       <c r="B125" t="n">
         <v>0</v>
       </c>
       <c r="C125" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="D125" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="E125" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="F125" t="n">
         <v>-99999</v>
@@ -5449,7 +5449,7 @@
         <v>-99999</v>
       </c>
       <c r="K125" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L125" t="n">
         <v>3</v>
@@ -5458,20 +5458,20 @@
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>MA2308-2309</t>
+          <t>M2311-2312</t>
         </is>
       </c>
       <c r="B126" t="n">
         <v>0</v>
       </c>
       <c r="C126" t="n">
-        <v>-9</v>
+        <v>-40</v>
       </c>
       <c r="D126" t="n">
-        <v>-12</v>
+        <v>-50</v>
       </c>
       <c r="E126" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="F126" t="n">
         <v>-99999</v>
@@ -5492,32 +5492,32 @@
         <v>30</v>
       </c>
       <c r="L126" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>MA2309-2310</t>
+          <t>M2312-2401</t>
         </is>
       </c>
       <c r="B127" t="n">
         <v>0</v>
       </c>
       <c r="C127" t="n">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="D127" t="n">
-        <v>-15</v>
+        <v>-5</v>
       </c>
       <c r="E127" t="n">
-        <v>-20</v>
+        <v>-10</v>
       </c>
       <c r="F127" t="n">
-        <v>-25</v>
+        <v>-99999</v>
       </c>
       <c r="G127" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="H127" t="n">
         <v>-99999</v>
@@ -5538,21 +5538,21 @@
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>MA2310-2311</t>
+          <t>M2401-2403</t>
         </is>
       </c>
       <c r="B128" t="n">
         <v>0</v>
       </c>
       <c r="C128" t="n">
+        <v>0</v>
+      </c>
+      <c r="D128" t="n">
+        <v>-10</v>
+      </c>
+      <c r="E128" t="n">
         <v>-20</v>
       </c>
-      <c r="D128" t="n">
-        <v>-22</v>
-      </c>
-      <c r="E128" t="n">
-        <v>-25</v>
-      </c>
       <c r="F128" t="n">
         <v>-99999</v>
       </c>
@@ -5569,7 +5569,7 @@
         <v>-99999</v>
       </c>
       <c r="K128" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L128" t="n">
         <v>3</v>
@@ -5578,17 +5578,17 @@
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>MA2311-2312</t>
+          <t>MA2308-2309</t>
         </is>
       </c>
       <c r="B129" t="n">
         <v>0</v>
       </c>
       <c r="C129" t="n">
-        <v>-45</v>
+        <v>-9</v>
       </c>
       <c r="D129" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="E129" t="n">
         <v>-99999</v>
@@ -5609,38 +5609,38 @@
         <v>-99999</v>
       </c>
       <c r="K129" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L129" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>MA2312-2401</t>
+          <t>MA2309-2310</t>
         </is>
       </c>
       <c r="B130" t="n">
         <v>0</v>
       </c>
       <c r="C130" t="n">
-        <v>-5</v>
+        <v>-14</v>
       </c>
       <c r="D130" t="n">
         <v>-15</v>
       </c>
       <c r="E130" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F130" t="n">
         <v>-25</v>
       </c>
-      <c r="F130" t="n">
-        <v>-99999</v>
-      </c>
       <c r="G130" t="n">
-        <v>-99999</v>
+        <v>-25</v>
       </c>
       <c r="H130" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="I130" t="n">
         <v>-99999</v>
@@ -5649,7 +5649,7 @@
         <v>-99999</v>
       </c>
       <c r="K130" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L130" t="n">
         <v>3</v>
@@ -5658,20 +5658,20 @@
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>NR2307-2308</t>
+          <t>MA2310-2311</t>
         </is>
       </c>
       <c r="B131" t="n">
         <v>0</v>
       </c>
       <c r="C131" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="D131" t="n">
-        <v>-99999</v>
+        <v>-22</v>
       </c>
       <c r="E131" t="n">
-        <v>-99999</v>
+        <v>-25</v>
       </c>
       <c r="F131" t="n">
         <v>-99999</v>
@@ -5689,26 +5689,26 @@
         <v>-99999</v>
       </c>
       <c r="K131" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L131" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>NR2309-2310</t>
+          <t>MA2311-2312</t>
         </is>
       </c>
       <c r="B132" t="n">
         <v>0</v>
       </c>
       <c r="C132" t="n">
-        <v>-80</v>
+        <v>-45</v>
       </c>
       <c r="D132" t="n">
-        <v>-100</v>
+        <v>-50</v>
       </c>
       <c r="E132" t="n">
         <v>-99999</v>
@@ -5738,20 +5738,20 @@
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>NR2310-2311</t>
+          <t>MA2312-2401</t>
         </is>
       </c>
       <c r="B133" t="n">
         <v>0</v>
       </c>
       <c r="C133" t="n">
-        <v>-160</v>
+        <v>-5</v>
       </c>
       <c r="D133" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="E133" t="n">
-        <v>-99999</v>
+        <v>-25</v>
       </c>
       <c r="F133" t="n">
         <v>-99999</v>
@@ -5769,29 +5769,29 @@
         <v>-99999</v>
       </c>
       <c r="K133" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L133" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>OI2307-2309</t>
+          <t>NR2307-2308</t>
         </is>
       </c>
       <c r="B134" t="n">
         <v>0</v>
       </c>
       <c r="C134" t="n">
-        <v>-5</v>
+        <v>-99999</v>
       </c>
       <c r="D134" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="E134" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="F134" t="n">
         <v>-99999</v>
@@ -5809,29 +5809,29 @@
         <v>-99999</v>
       </c>
       <c r="K134" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="L134" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>OI2309-2311</t>
+          <t>NR2309-2310</t>
         </is>
       </c>
       <c r="B135" t="n">
         <v>0</v>
       </c>
       <c r="C135" t="n">
-        <v>-5</v>
+        <v>-80</v>
       </c>
       <c r="D135" t="n">
-        <v>-12</v>
+        <v>-100</v>
       </c>
       <c r="E135" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="F135" t="n">
         <v>-99999</v>
@@ -5852,20 +5852,20 @@
         <v>18</v>
       </c>
       <c r="L135" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>OI2311-2401</t>
+          <t>NR2310-2311</t>
         </is>
       </c>
       <c r="B136" t="n">
         <v>0</v>
       </c>
       <c r="C136" t="n">
-        <v>-99999</v>
+        <v>-160</v>
       </c>
       <c r="D136" t="n">
         <v>-99999</v>
@@ -5889,23 +5889,23 @@
         <v>-99999</v>
       </c>
       <c r="K136" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L136" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>PF2307-2308</t>
+          <t>OI2307-2309</t>
         </is>
       </c>
       <c r="B137" t="n">
         <v>0</v>
       </c>
       <c r="C137" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D137" t="n">
         <v>-10</v>
@@ -5929,7 +5929,7 @@
         <v>-99999</v>
       </c>
       <c r="K137" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L137" t="n">
         <v>3</v>
@@ -5938,23 +5938,23 @@
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>PF2308-2309</t>
+          <t>OI2309-2311</t>
         </is>
       </c>
       <c r="B138" t="n">
         <v>0</v>
       </c>
       <c r="C138" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D138" t="n">
-        <v>-10</v>
+        <v>-12</v>
       </c>
       <c r="E138" t="n">
         <v>-20</v>
       </c>
       <c r="F138" t="n">
-        <v>-40</v>
+        <v>-99999</v>
       </c>
       <c r="G138" t="n">
         <v>-99999</v>
@@ -5969,7 +5969,7 @@
         <v>-99999</v>
       </c>
       <c r="K138" t="n">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="L138" t="n">
         <v>3</v>
@@ -5978,7 +5978,7 @@
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>PF2309-2310</t>
+          <t>OI2311-2401</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -6009,7 +6009,7 @@
         <v>-99999</v>
       </c>
       <c r="K139" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L139" t="n">
         <v>3</v>
@@ -6018,11 +6018,11 @@
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>PF2310-2311</t>
+          <t>PB2309-2310</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="C140" t="n">
         <v>-99999</v>
@@ -6049,29 +6049,29 @@
         <v>-99999</v>
       </c>
       <c r="K140" t="n">
-        <v>40</v>
+        <v>-99999</v>
       </c>
       <c r="L140" t="n">
-        <v>3</v>
+        <v>-99999</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>PF2311-2312</t>
+          <t>PF2307-2308</t>
         </is>
       </c>
       <c r="B141" t="n">
         <v>0</v>
       </c>
       <c r="C141" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="D141" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="E141" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="F141" t="n">
         <v>-99999</v>
@@ -6098,23 +6098,23 @@
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>PF2312-2401</t>
+          <t>PF2308-2309</t>
         </is>
       </c>
       <c r="B142" t="n">
         <v>0</v>
       </c>
       <c r="C142" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="D142" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="E142" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="F142" t="n">
-        <v>-99999</v>
+        <v>-40</v>
       </c>
       <c r="G142" t="n">
         <v>-99999</v>
@@ -6138,7 +6138,7 @@
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>PG2307-2308</t>
+          <t>PF2309-2310</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -6169,16 +6169,16 @@
         <v>-99999</v>
       </c>
       <c r="K143" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L143" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>PG2308-2309</t>
+          <t>PF2310-2311</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -6209,16 +6209,16 @@
         <v>-99999</v>
       </c>
       <c r="K144" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="L144" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>PG2309-2308</t>
+          <t>PF2311-2312</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -6249,29 +6249,29 @@
         <v>-99999</v>
       </c>
       <c r="K145" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="L145" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>PP2307-2308</t>
+          <t>PF2312-2401</t>
         </is>
       </c>
       <c r="B146" t="n">
         <v>0</v>
       </c>
       <c r="C146" t="n">
-        <v>-8</v>
+        <v>-99999</v>
       </c>
       <c r="D146" t="n">
-        <v>-9</v>
+        <v>-99999</v>
       </c>
       <c r="E146" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="F146" t="n">
         <v>-99999</v>
@@ -6289,26 +6289,26 @@
         <v>-99999</v>
       </c>
       <c r="K146" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="L146" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>PP2308-2309</t>
+          <t>PG2307-2308</t>
         </is>
       </c>
       <c r="B147" t="n">
         <v>0</v>
       </c>
       <c r="C147" t="n">
-        <v>12</v>
+        <v>-99999</v>
       </c>
       <c r="D147" t="n">
-        <v>12</v>
+        <v>-99999</v>
       </c>
       <c r="E147" t="n">
         <v>-99999</v>
@@ -6329,29 +6329,29 @@
         <v>-99999</v>
       </c>
       <c r="K147" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L147" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>PP2309-2310</t>
+          <t>PG2308-2309</t>
         </is>
       </c>
       <c r="B148" t="n">
         <v>0</v>
       </c>
       <c r="C148" t="n">
-        <v>10</v>
+        <v>-99999</v>
       </c>
       <c r="D148" t="n">
-        <v>5</v>
+        <v>-99999</v>
       </c>
       <c r="E148" t="n">
-        <v>2</v>
+        <v>-99999</v>
       </c>
       <c r="F148" t="n">
         <v>-99999</v>
@@ -6369,7 +6369,7 @@
         <v>-99999</v>
       </c>
       <c r="K148" t="n">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="L148" t="n">
         <v>1</v>
@@ -6378,20 +6378,20 @@
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>PP2310-2311</t>
+          <t>PG2309-2308</t>
         </is>
       </c>
       <c r="B149" t="n">
         <v>0</v>
       </c>
       <c r="C149" t="n">
-        <v>10</v>
+        <v>-99999</v>
       </c>
       <c r="D149" t="n">
-        <v>5</v>
+        <v>-99999</v>
       </c>
       <c r="E149" t="n">
-        <v>3</v>
+        <v>-99999</v>
       </c>
       <c r="F149" t="n">
         <v>-99999</v>
@@ -6409,29 +6409,29 @@
         <v>-99999</v>
       </c>
       <c r="K149" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L149" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>PP2311-2312</t>
+          <t>PP2307-2308</t>
         </is>
       </c>
       <c r="B150" t="n">
         <v>0</v>
       </c>
       <c r="C150" t="n">
-        <v>10</v>
+        <v>-8</v>
       </c>
       <c r="D150" t="n">
-        <v>5</v>
+        <v>-9</v>
       </c>
       <c r="E150" t="n">
-        <v>3</v>
+        <v>-10</v>
       </c>
       <c r="F150" t="n">
         <v>-99999</v>
@@ -6449,26 +6449,26 @@
         <v>-99999</v>
       </c>
       <c r="K150" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="L150" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>PP2312-2401</t>
+          <t>PP2308-2309</t>
         </is>
       </c>
       <c r="B151" t="n">
         <v>0</v>
       </c>
       <c r="C151" t="n">
-        <v>-5</v>
+        <v>12</v>
       </c>
       <c r="D151" t="n">
-        <v>-10</v>
+        <v>12</v>
       </c>
       <c r="E151" t="n">
         <v>-99999</v>
@@ -6489,7 +6489,7 @@
         <v>-99999</v>
       </c>
       <c r="K151" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="L151" t="n">
         <v>3</v>
@@ -6498,14 +6498,14 @@
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>PP2401-2402</t>
+          <t>PP2309-2310</t>
         </is>
       </c>
       <c r="B152" t="n">
         <v>0</v>
       </c>
       <c r="C152" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D152" t="n">
         <v>5</v>
@@ -6529,29 +6529,29 @@
         <v>-99999</v>
       </c>
       <c r="K152" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="L152" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>PP2402-2403</t>
+          <t>PP2310-2311</t>
         </is>
       </c>
       <c r="B153" t="n">
         <v>0</v>
       </c>
       <c r="C153" t="n">
-        <v>-8</v>
+        <v>10</v>
       </c>
       <c r="D153" t="n">
-        <v>-99999</v>
+        <v>5</v>
       </c>
       <c r="E153" t="n">
-        <v>-99999</v>
+        <v>3</v>
       </c>
       <c r="F153" t="n">
         <v>-99999</v>
@@ -6569,7 +6569,7 @@
         <v>-99999</v>
       </c>
       <c r="K153" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="L153" t="n">
         <v>3</v>
@@ -6578,23 +6578,23 @@
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>RB2307-2308</t>
+          <t>PP2311-2312</t>
         </is>
       </c>
       <c r="B154" t="n">
         <v>0</v>
       </c>
       <c r="C154" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D154" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="E154" t="n">
-        <v>-10</v>
+        <v>3</v>
       </c>
       <c r="F154" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="G154" t="n">
         <v>-99999</v>
@@ -6609,7 +6609,7 @@
         <v>-99999</v>
       </c>
       <c r="K154" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="L154" t="n">
         <v>3</v>
@@ -6618,17 +6618,17 @@
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>RB2308-2309</t>
+          <t>PP2312-2401</t>
         </is>
       </c>
       <c r="B155" t="n">
         <v>0</v>
       </c>
       <c r="C155" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D155" t="n">
-        <v>-20</v>
+        <v>-10</v>
       </c>
       <c r="E155" t="n">
         <v>-99999</v>
@@ -6649,7 +6649,7 @@
         <v>-99999</v>
       </c>
       <c r="K155" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="L155" t="n">
         <v>3</v>
@@ -6658,20 +6658,20 @@
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>RB2309-2310</t>
+          <t>PP2401-2402</t>
         </is>
       </c>
       <c r="B156" t="n">
         <v>0</v>
       </c>
       <c r="C156" t="n">
-        <v>-7</v>
+        <v>8</v>
       </c>
       <c r="D156" t="n">
-        <v>-9</v>
+        <v>5</v>
       </c>
       <c r="E156" t="n">
-        <v>-40</v>
+        <v>2</v>
       </c>
       <c r="F156" t="n">
         <v>-99999</v>
@@ -6689,7 +6689,7 @@
         <v>-99999</v>
       </c>
       <c r="K156" t="n">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="L156" t="n">
         <v>3</v>
@@ -6698,14 +6698,14 @@
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>RB2310-2311</t>
+          <t>PP2402-2403</t>
         </is>
       </c>
       <c r="B157" t="n">
         <v>0</v>
       </c>
       <c r="C157" t="n">
-        <v>-99999</v>
+        <v>6</v>
       </c>
       <c r="D157" t="n">
         <v>-99999</v>
@@ -6729,32 +6729,32 @@
         <v>-99999</v>
       </c>
       <c r="K157" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="L157" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>RB2311-2312</t>
+          <t>RB2307-2308</t>
         </is>
       </c>
       <c r="B158" t="n">
         <v>0</v>
       </c>
       <c r="C158" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="D158" t="n">
-        <v>-99999</v>
+        <v>-5</v>
       </c>
       <c r="E158" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="F158" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="G158" t="n">
         <v>-99999</v>
@@ -6772,23 +6772,23 @@
         <v>20</v>
       </c>
       <c r="L158" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>RB2312-2401</t>
+          <t>RB2308-2309</t>
         </is>
       </c>
       <c r="B159" t="n">
         <v>0</v>
       </c>
       <c r="C159" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="D159" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="E159" t="n">
         <v>-99999</v>
@@ -6809,29 +6809,29 @@
         <v>-99999</v>
       </c>
       <c r="K159" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L159" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>RB2401-2402</t>
+          <t>RB2309-2310</t>
         </is>
       </c>
       <c r="B160" t="n">
         <v>0</v>
       </c>
       <c r="C160" t="n">
-        <v>-99999</v>
+        <v>-35</v>
       </c>
       <c r="D160" t="n">
-        <v>-99999</v>
+        <v>-40</v>
       </c>
       <c r="E160" t="n">
-        <v>-99999</v>
+        <v>-40</v>
       </c>
       <c r="F160" t="n">
         <v>-99999</v>
@@ -6852,13 +6852,13 @@
         <v>20</v>
       </c>
       <c r="L160" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>RB2402-2403</t>
+          <t>RB2310-2311</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -6892,13 +6892,13 @@
         <v>20</v>
       </c>
       <c r="L161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>RB2403-2404</t>
+          <t>RB2311-2312</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -6932,23 +6932,23 @@
         <v>20</v>
       </c>
       <c r="L162" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>RM2307-2308</t>
+          <t>RB2312-2401</t>
         </is>
       </c>
       <c r="B163" t="n">
         <v>0</v>
       </c>
       <c r="C163" t="n">
-        <v>-70</v>
+        <v>-99999</v>
       </c>
       <c r="D163" t="n">
-        <v>-100</v>
+        <v>-99999</v>
       </c>
       <c r="E163" t="n">
         <v>-99999</v>
@@ -6969,35 +6969,35 @@
         <v>-99999</v>
       </c>
       <c r="K163" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L163" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>RM2308-2309</t>
+          <t>RB2401-2402</t>
         </is>
       </c>
       <c r="B164" t="n">
         <v>0</v>
       </c>
       <c r="C164" t="n">
-        <v>10</v>
+        <v>-99999</v>
       </c>
       <c r="D164" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="E164" t="n">
-        <v>-5</v>
+        <v>-99999</v>
       </c>
       <c r="F164" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="G164" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="H164" t="n">
         <v>-99999</v>
@@ -7012,32 +7012,32 @@
         <v>20</v>
       </c>
       <c r="L164" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>RM2309-2311</t>
+          <t>RB2402-2403</t>
         </is>
       </c>
       <c r="B165" t="n">
         <v>0</v>
       </c>
       <c r="C165" t="n">
-        <v>10</v>
+        <v>-99999</v>
       </c>
       <c r="D165" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="E165" t="n">
-        <v>-5</v>
+        <v>-99999</v>
       </c>
       <c r="F165" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="G165" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="H165" t="n">
         <v>-99999</v>
@@ -7052,26 +7052,26 @@
         <v>20</v>
       </c>
       <c r="L165" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>RM2401-2403</t>
+          <t>RB2403-2404</t>
         </is>
       </c>
       <c r="B166" t="n">
         <v>0</v>
       </c>
       <c r="C166" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="D166" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="E166" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="F166" t="n">
         <v>-99999</v>
@@ -7092,23 +7092,23 @@
         <v>20</v>
       </c>
       <c r="L166" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>RR2308-2309</t>
+          <t>RM2307-2308</t>
         </is>
       </c>
       <c r="B167" t="n">
         <v>0</v>
       </c>
       <c r="C167" t="n">
-        <v>-80</v>
+        <v>-70</v>
       </c>
       <c r="D167" t="n">
-        <v>-99999</v>
+        <v>-100</v>
       </c>
       <c r="E167" t="n">
         <v>-99999</v>
@@ -7129,35 +7129,35 @@
         <v>-99999</v>
       </c>
       <c r="K167" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="L167" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>RU2307-2308</t>
+          <t>RM2308-2309</t>
         </is>
       </c>
       <c r="B168" t="n">
         <v>0</v>
       </c>
       <c r="C168" t="n">
-        <v>-100</v>
+        <v>10</v>
       </c>
       <c r="D168" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>-99999</v>
+        <v>-5</v>
       </c>
       <c r="F168" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="G168" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="H168" t="n">
         <v>-99999</v>
@@ -7169,35 +7169,35 @@
         <v>-99999</v>
       </c>
       <c r="K168" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="L168" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>RU2308-2309</t>
+          <t>RM2309-2311</t>
         </is>
       </c>
       <c r="B169" t="n">
         <v>0</v>
       </c>
       <c r="C169" t="n">
-        <v>-60</v>
+        <v>10</v>
       </c>
       <c r="D169" t="n">
-        <v>-95</v>
+        <v>0</v>
       </c>
       <c r="E169" t="n">
-        <v>-99999</v>
+        <v>-5</v>
       </c>
       <c r="F169" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="G169" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="H169" t="n">
         <v>-99999</v>
@@ -7209,29 +7209,29 @@
         <v>-99999</v>
       </c>
       <c r="K169" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L169" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>RU2309-2310</t>
+          <t>RM2401-2403</t>
         </is>
       </c>
       <c r="B170" t="n">
         <v>0</v>
       </c>
       <c r="C170" t="n">
-        <v>-60</v>
+        <v>0</v>
       </c>
       <c r="D170" t="n">
-        <v>-110</v>
+        <v>-10</v>
       </c>
       <c r="E170" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="F170" t="n">
         <v>-99999</v>
@@ -7249,29 +7249,29 @@
         <v>-99999</v>
       </c>
       <c r="K170" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L170" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>RU2310-2311</t>
+          <t>RR2308-2309</t>
         </is>
       </c>
       <c r="B171" t="n">
         <v>0</v>
       </c>
       <c r="C171" t="n">
-        <v>-60</v>
+        <v>-75</v>
       </c>
       <c r="D171" t="n">
-        <v>-70</v>
+        <v>-80</v>
       </c>
       <c r="E171" t="n">
-        <v>-80</v>
+        <v>-99999</v>
       </c>
       <c r="F171" t="n">
         <v>-99999</v>
@@ -7289,26 +7289,26 @@
         <v>-99999</v>
       </c>
       <c r="K171" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="L171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>RU2311-2312</t>
+          <t>RU2307-2308</t>
         </is>
       </c>
       <c r="B172" t="n">
         <v>0</v>
       </c>
       <c r="C172" t="n">
-        <v>-99999</v>
+        <v>-100</v>
       </c>
       <c r="D172" t="n">
-        <v>-99999</v>
+        <v>-100</v>
       </c>
       <c r="E172" t="n">
         <v>-99999</v>
@@ -7329,7 +7329,7 @@
         <v>-99999</v>
       </c>
       <c r="K172" t="n">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="L172" t="n">
         <v>1</v>
@@ -7338,14 +7338,14 @@
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>RU2312-2401</t>
+          <t>RU2308-2309</t>
         </is>
       </c>
       <c r="B173" t="n">
         <v>0</v>
       </c>
       <c r="C173" t="n">
-        <v>-99999</v>
+        <v>-75</v>
       </c>
       <c r="D173" t="n">
         <v>-99999</v>
@@ -7369,7 +7369,7 @@
         <v>-99999</v>
       </c>
       <c r="K173" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L173" t="n">
         <v>1</v>
@@ -7378,17 +7378,17 @@
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>RU2401-2403</t>
+          <t>RU2309-2310</t>
         </is>
       </c>
       <c r="B174" t="n">
         <v>0</v>
       </c>
       <c r="C174" t="n">
-        <v>-100</v>
+        <v>-60</v>
       </c>
       <c r="D174" t="n">
-        <v>-120</v>
+        <v>-110</v>
       </c>
       <c r="E174" t="n">
         <v>-99999</v>
@@ -7409,7 +7409,7 @@
         <v>-99999</v>
       </c>
       <c r="K174" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="L174" t="n">
         <v>1</v>
@@ -7418,14 +7418,14 @@
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>RU2403-2404</t>
+          <t>RU2310-2311</t>
         </is>
       </c>
       <c r="B175" t="n">
         <v>0</v>
       </c>
       <c r="C175" t="n">
-        <v>-60</v>
+        <v>0</v>
       </c>
       <c r="D175" t="n">
         <v>-70</v>
@@ -7449,7 +7449,7 @@
         <v>-99999</v>
       </c>
       <c r="K175" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L175" t="n">
         <v>1</v>
@@ -7458,14 +7458,14 @@
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>SA2308-2309</t>
+          <t>RU2311-2401</t>
         </is>
       </c>
       <c r="B176" t="n">
         <v>0</v>
       </c>
       <c r="C176" t="n">
-        <v>0</v>
+        <v>-1800</v>
       </c>
       <c r="D176" t="n">
         <v>-99999</v>
@@ -7489,7 +7489,7 @@
         <v>-99999</v>
       </c>
       <c r="K176" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="L176" t="n">
         <v>1</v>
@@ -7498,17 +7498,17 @@
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>SA2310-2311</t>
+          <t>RU2401-2403</t>
         </is>
       </c>
       <c r="B177" t="n">
         <v>0</v>
       </c>
       <c r="C177" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="D177" t="n">
-        <v>-99999</v>
+        <v>-120</v>
       </c>
       <c r="E177" t="n">
         <v>-99999</v>
@@ -7538,20 +7538,20 @@
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>SA2311-2312</t>
+          <t>RU2403-2404</t>
         </is>
       </c>
       <c r="B178" t="n">
         <v>0</v>
       </c>
       <c r="C178" t="n">
-        <v>0</v>
+        <v>-60</v>
       </c>
       <c r="D178" t="n">
-        <v>-5</v>
+        <v>-70</v>
       </c>
       <c r="E178" t="n">
-        <v>-99999</v>
+        <v>-80</v>
       </c>
       <c r="F178" t="n">
         <v>-99999</v>
@@ -7569,23 +7569,23 @@
         <v>-99999</v>
       </c>
       <c r="K178" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L178" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>SA2312-2401</t>
+          <t>SA2308-2309</t>
         </is>
       </c>
       <c r="B179" t="n">
         <v>0</v>
       </c>
       <c r="C179" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D179" t="n">
         <v>-99999</v>
@@ -7609,23 +7609,23 @@
         <v>-99999</v>
       </c>
       <c r="K179" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="L179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>SA2401-2402</t>
+          <t>SA2310-2311</t>
         </is>
       </c>
       <c r="B180" t="n">
         <v>0</v>
       </c>
       <c r="C180" t="n">
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="D180" t="n">
         <v>-99999</v>
@@ -7649,29 +7649,29 @@
         <v>-99999</v>
       </c>
       <c r="K180" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>SA2402-2403</t>
+          <t>SA2311-2312</t>
         </is>
       </c>
       <c r="B181" t="n">
         <v>0</v>
       </c>
       <c r="C181" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D181" t="n">
-        <v>18</v>
+        <v>-5</v>
       </c>
       <c r="E181" t="n">
-        <v>4</v>
+        <v>-99999</v>
       </c>
       <c r="F181" t="n">
         <v>-99999</v>
@@ -7689,7 +7689,7 @@
         <v>-99999</v>
       </c>
       <c r="K181" t="n">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="L181" t="n">
         <v>2</v>
@@ -7698,20 +7698,20 @@
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>SA2403-2404</t>
+          <t>SA2312-2401</t>
         </is>
       </c>
       <c r="B182" t="n">
         <v>0</v>
       </c>
       <c r="C182" t="n">
-        <v>-15</v>
+        <v>22</v>
       </c>
       <c r="D182" t="n">
-        <v>-17</v>
+        <v>-99999</v>
       </c>
       <c r="E182" t="n">
-        <v>-40</v>
+        <v>-99999</v>
       </c>
       <c r="F182" t="n">
         <v>-99999</v>
@@ -7729,7 +7729,7 @@
         <v>-99999</v>
       </c>
       <c r="K182" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="L182" t="n">
         <v>2</v>
@@ -7738,23 +7738,23 @@
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>SC2307-2308</t>
+          <t>SA2401-2402</t>
         </is>
       </c>
       <c r="B183" t="n">
         <v>0</v>
       </c>
       <c r="C183" t="n">
-        <v>1</v>
+        <v>-40</v>
       </c>
       <c r="D183" t="n">
-        <v>-3.5</v>
+        <v>-99999</v>
       </c>
       <c r="E183" t="n">
-        <v>-3.5</v>
+        <v>-99999</v>
       </c>
       <c r="F183" t="n">
-        <v>-3.5</v>
+        <v>-99999</v>
       </c>
       <c r="G183" t="n">
         <v>-99999</v>
@@ -7769,38 +7769,38 @@
         <v>-99999</v>
       </c>
       <c r="K183" t="n">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="L183" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>SC2308-2309</t>
+          <t>SA2402-2403</t>
         </is>
       </c>
       <c r="B184" t="n">
         <v>0</v>
       </c>
       <c r="C184" t="n">
-        <v>1.6</v>
+        <v>20</v>
       </c>
       <c r="D184" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E184" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="F184" t="n">
-        <v>-1.5</v>
+        <v>-99999</v>
       </c>
       <c r="G184" t="n">
-        <v>-2</v>
+        <v>-99999</v>
       </c>
       <c r="H184" t="n">
-        <v>-2.5</v>
+        <v>-99999</v>
       </c>
       <c r="I184" t="n">
         <v>-99999</v>
@@ -7809,29 +7809,29 @@
         <v>-99999</v>
       </c>
       <c r="K184" t="n">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="L184" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>SC2309-2308</t>
+          <t>SA2403-2404</t>
         </is>
       </c>
       <c r="B185" t="n">
         <v>0</v>
       </c>
       <c r="C185" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="D185" t="n">
-        <v>-99999</v>
+        <v>-17</v>
       </c>
       <c r="E185" t="n">
-        <v>-99999</v>
+        <v>-40</v>
       </c>
       <c r="F185" t="n">
         <v>-99999</v>
@@ -7852,29 +7852,29 @@
         <v>50</v>
       </c>
       <c r="L185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>SC2309-2310</t>
+          <t>SC2307-2308</t>
         </is>
       </c>
       <c r="B186" t="n">
         <v>0</v>
       </c>
       <c r="C186" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="D186" t="n">
-        <v>-0.5</v>
+        <v>-3.5</v>
       </c>
       <c r="E186" t="n">
-        <v>-1</v>
+        <v>-3.5</v>
       </c>
       <c r="F186" t="n">
-        <v>-1.5</v>
+        <v>-3.5</v>
       </c>
       <c r="G186" t="n">
         <v>-99999</v>
@@ -7889,7 +7889,7 @@
         <v>-99999</v>
       </c>
       <c r="K186" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L186" t="n">
         <v>1</v>
@@ -7898,29 +7898,29 @@
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>SC2310-2309</t>
+          <t>SC2308-2309</t>
         </is>
       </c>
       <c r="B187" t="n">
         <v>0</v>
       </c>
       <c r="C187" t="n">
-        <v>-3.1</v>
+        <v>4</v>
       </c>
       <c r="D187" t="n">
-        <v>-99999</v>
+        <v>0.5</v>
       </c>
       <c r="E187" t="n">
-        <v>-99999</v>
+        <v>-0.3</v>
       </c>
       <c r="F187" t="n">
-        <v>-99999</v>
+        <v>-1</v>
       </c>
       <c r="G187" t="n">
-        <v>-99999</v>
+        <v>-2</v>
       </c>
       <c r="H187" t="n">
-        <v>-99999</v>
+        <v>-2.5</v>
       </c>
       <c r="I187" t="n">
         <v>-99999</v>
@@ -7929,7 +7929,7 @@
         <v>-99999</v>
       </c>
       <c r="K187" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L187" t="n">
         <v>1</v>
@@ -7938,14 +7938,14 @@
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>SC2310-2311</t>
+          <t>SC2309-2308</t>
         </is>
       </c>
       <c r="B188" t="n">
         <v>0</v>
       </c>
       <c r="C188" t="n">
-        <v>-1</v>
+        <v>-99999</v>
       </c>
       <c r="D188" t="n">
         <v>-99999</v>
@@ -7969,7 +7969,7 @@
         <v>-99999</v>
       </c>
       <c r="K188" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="L188" t="n">
         <v>1</v>
@@ -7978,23 +7978,23 @@
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>SC2311-2312</t>
+          <t>SC2309-2310</t>
         </is>
       </c>
       <c r="B189" t="n">
         <v>0</v>
       </c>
       <c r="C189" t="n">
-        <v>-2</v>
+        <v>0.2</v>
       </c>
       <c r="D189" t="n">
-        <v>-99999</v>
+        <v>-0.5</v>
       </c>
       <c r="E189" t="n">
-        <v>-99999</v>
+        <v>-1</v>
       </c>
       <c r="F189" t="n">
-        <v>-99999</v>
+        <v>-1.5</v>
       </c>
       <c r="G189" t="n">
         <v>-99999</v>
@@ -8009,7 +8009,7 @@
         <v>-99999</v>
       </c>
       <c r="K189" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L189" t="n">
         <v>1</v>
@@ -8018,14 +8018,14 @@
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>SN2308-2309</t>
+          <t>SC2310-2309</t>
         </is>
       </c>
       <c r="B190" t="n">
         <v>0</v>
       </c>
       <c r="C190" t="n">
-        <v>-150</v>
+        <v>-5</v>
       </c>
       <c r="D190" t="n">
         <v>-99999</v>
@@ -8049,7 +8049,7 @@
         <v>-99999</v>
       </c>
       <c r="K190" t="n">
-        <v>340</v>
+        <v>100</v>
       </c>
       <c r="L190" t="n">
         <v>1</v>
@@ -8058,17 +8058,17 @@
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>SP2307-2308</t>
+          <t>SC2310-2311</t>
         </is>
       </c>
       <c r="B191" t="n">
         <v>0</v>
       </c>
       <c r="C191" t="n">
-        <v>-40</v>
+        <v>-1</v>
       </c>
       <c r="D191" t="n">
-        <v>-40</v>
+        <v>-99999</v>
       </c>
       <c r="E191" t="n">
         <v>-99999</v>
@@ -8092,23 +8092,23 @@
         <v>30</v>
       </c>
       <c r="L191" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>SP2308-2309</t>
+          <t>SC2311-2312</t>
         </is>
       </c>
       <c r="B192" t="n">
         <v>0</v>
       </c>
       <c r="C192" t="n">
-        <v>-30</v>
+        <v>-2</v>
       </c>
       <c r="D192" t="n">
-        <v>-34</v>
+        <v>-99999</v>
       </c>
       <c r="E192" t="n">
         <v>-99999</v>
@@ -8132,84 +8132,84 @@
         <v>30</v>
       </c>
       <c r="L192" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>SP2309-2310</t>
+          <t>SN2308-2309</t>
         </is>
       </c>
       <c r="B193" t="n">
         <v>0</v>
       </c>
       <c r="C193" t="n">
-        <v>-2</v>
+        <v>-150</v>
       </c>
       <c r="D193" t="n">
-        <v>-12</v>
+        <v>-99999</v>
       </c>
       <c r="E193" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="F193" t="n">
-        <v>-24</v>
+        <v>-99999</v>
       </c>
       <c r="G193" t="n">
-        <v>-26</v>
+        <v>-99999</v>
       </c>
       <c r="H193" t="n">
-        <v>-28</v>
+        <v>-99999</v>
       </c>
       <c r="I193" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="J193" t="n">
         <v>-99999</v>
       </c>
       <c r="K193" t="n">
-        <v>50</v>
+        <v>340</v>
       </c>
       <c r="L193" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>SP2310-2311</t>
+          <t>SP2307-2308</t>
         </is>
       </c>
       <c r="B194" t="n">
         <v>0</v>
       </c>
       <c r="C194" t="n">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="D194" t="n">
-        <v>-2</v>
+        <v>-40</v>
       </c>
       <c r="E194" t="n">
-        <v>-8</v>
+        <v>-99999</v>
       </c>
       <c r="F194" t="n">
-        <v>-24</v>
+        <v>-99999</v>
       </c>
       <c r="G194" t="n">
-        <v>-26</v>
+        <v>-99999</v>
       </c>
       <c r="H194" t="n">
-        <v>-28</v>
+        <v>-99999</v>
       </c>
       <c r="I194" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="J194" t="n">
         <v>-99999</v>
       </c>
       <c r="K194" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="L194" t="n">
         <v>3</v>
@@ -8218,118 +8218,118 @@
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>SP2311-2312</t>
+          <t>SP2308-2309</t>
         </is>
       </c>
       <c r="B195" t="n">
         <v>0</v>
       </c>
       <c r="C195" t="n">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="D195" t="n">
-        <v>-2</v>
+        <v>-34</v>
       </c>
       <c r="E195" t="n">
-        <v>-8</v>
+        <v>-99999</v>
       </c>
       <c r="F195" t="n">
-        <v>-24</v>
+        <v>-99999</v>
       </c>
       <c r="G195" t="n">
-        <v>-26</v>
+        <v>-99999</v>
       </c>
       <c r="H195" t="n">
-        <v>-28</v>
+        <v>-99999</v>
       </c>
       <c r="I195" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="J195" t="n">
         <v>-99999</v>
       </c>
       <c r="K195" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="L195" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>SP2312-2401</t>
+          <t>SP2309-2310</t>
         </is>
       </c>
       <c r="B196" t="n">
         <v>0</v>
       </c>
       <c r="C196" t="n">
-        <v>-160</v>
+        <v>-2</v>
       </c>
       <c r="D196" t="n">
-        <v>-165</v>
+        <v>-12</v>
       </c>
       <c r="E196" t="n">
-        <v>-170</v>
+        <v>-20</v>
       </c>
       <c r="F196" t="n">
-        <v>-175</v>
+        <v>-24</v>
       </c>
       <c r="G196" t="n">
-        <v>-99999</v>
+        <v>-26</v>
       </c>
       <c r="H196" t="n">
-        <v>-99999</v>
+        <v>-28</v>
       </c>
       <c r="I196" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="J196" t="n">
         <v>-99999</v>
       </c>
       <c r="K196" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="L196" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>SP2401-2402</t>
+          <t>SP2310-2311</t>
         </is>
       </c>
       <c r="B197" t="n">
         <v>0</v>
       </c>
       <c r="C197" t="n">
+        <v>0</v>
+      </c>
+      <c r="D197" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E197" t="n">
         <v>-8</v>
       </c>
-      <c r="D197" t="n">
-        <v>-12</v>
-      </c>
-      <c r="E197" t="n">
-        <v>-16</v>
-      </c>
       <c r="F197" t="n">
-        <v>-20</v>
+        <v>-18</v>
       </c>
       <c r="G197" t="n">
         <v>-24</v>
       </c>
       <c r="H197" t="n">
-        <v>-99999</v>
+        <v>-28</v>
       </c>
       <c r="I197" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="J197" t="n">
         <v>-99999</v>
       </c>
       <c r="K197" t="n">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="L197" t="n">
         <v>3</v>
@@ -8338,63 +8338,63 @@
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>SP2402-2403</t>
+          <t>SP2311-2312</t>
         </is>
       </c>
       <c r="B198" t="n">
         <v>0</v>
       </c>
       <c r="C198" t="n">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="D198" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E198" t="n">
+        <v>-8</v>
+      </c>
+      <c r="F198" t="n">
         <v>-20</v>
       </c>
-      <c r="E198" t="n">
-        <v>-25</v>
-      </c>
-      <c r="F198" t="n">
+      <c r="G198" t="n">
+        <v>-26</v>
+      </c>
+      <c r="H198" t="n">
+        <v>-28</v>
+      </c>
+      <c r="I198" t="n">
         <v>-30</v>
       </c>
-      <c r="G198" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="H198" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="I198" t="n">
-        <v>-99999</v>
-      </c>
       <c r="J198" t="n">
         <v>-99999</v>
       </c>
       <c r="K198" t="n">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="L198" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>SP2403-2404</t>
+          <t>SP2312-2401</t>
         </is>
       </c>
       <c r="B199" t="n">
         <v>0</v>
       </c>
       <c r="C199" t="n">
-        <v>-15</v>
+        <v>-160</v>
       </c>
       <c r="D199" t="n">
-        <v>-20</v>
+        <v>-165</v>
       </c>
       <c r="E199" t="n">
-        <v>-25</v>
+        <v>-170</v>
       </c>
       <c r="F199" t="n">
-        <v>-30</v>
+        <v>-175</v>
       </c>
       <c r="G199" t="n">
         <v>-99999</v>
@@ -8409,35 +8409,35 @@
         <v>-99999</v>
       </c>
       <c r="K199" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="L199" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>SP2404-2405</t>
+          <t>SP2401-2402</t>
         </is>
       </c>
       <c r="B200" t="n">
         <v>0</v>
       </c>
       <c r="C200" t="n">
-        <v>-15</v>
+        <v>-8</v>
       </c>
       <c r="D200" t="n">
+        <v>-12</v>
+      </c>
+      <c r="E200" t="n">
+        <v>-16</v>
+      </c>
+      <c r="F200" t="n">
         <v>-20</v>
       </c>
-      <c r="E200" t="n">
-        <v>-25</v>
-      </c>
-      <c r="F200" t="n">
-        <v>-30</v>
-      </c>
       <c r="G200" t="n">
-        <v>-99999</v>
+        <v>-24</v>
       </c>
       <c r="H200" t="n">
         <v>-99999</v>
@@ -8458,23 +8458,23 @@
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>TA2307-2308</t>
+          <t>SP2402-2403</t>
         </is>
       </c>
       <c r="B201" t="n">
         <v>0</v>
       </c>
       <c r="C201" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="D201" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="E201" t="n">
-        <v>-99999</v>
+        <v>-25</v>
       </c>
       <c r="F201" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="G201" t="n">
         <v>-99999</v>
@@ -8489,7 +8489,7 @@
         <v>-99999</v>
       </c>
       <c r="K201" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="L201" t="n">
         <v>3</v>
@@ -8498,23 +8498,23 @@
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>TA2307-2309</t>
+          <t>SP2403-2404</t>
         </is>
       </c>
       <c r="B202" t="n">
         <v>0</v>
       </c>
       <c r="C202" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="D202" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="E202" t="n">
-        <v>-99999</v>
+        <v>-25</v>
       </c>
       <c r="F202" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="G202" t="n">
         <v>-99999</v>
@@ -8529,7 +8529,7 @@
         <v>-99999</v>
       </c>
       <c r="K202" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="L202" t="n">
         <v>3</v>
@@ -8538,23 +8538,23 @@
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>TA2308-2309</t>
+          <t>SP2404-2405</t>
         </is>
       </c>
       <c r="B203" t="n">
         <v>0</v>
       </c>
       <c r="C203" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="D203" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="E203" t="n">
-        <v>-99999</v>
+        <v>-25</v>
       </c>
       <c r="F203" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="G203" t="n">
         <v>-99999</v>
@@ -8569,7 +8569,7 @@
         <v>-99999</v>
       </c>
       <c r="K203" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="L203" t="n">
         <v>3</v>
@@ -8578,7 +8578,7 @@
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>TA2309-2310</t>
+          <t>TA2307-2308</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -8618,7 +8618,7 @@
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>TA2310-2311</t>
+          <t>TA2307-2309</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -8658,7 +8658,7 @@
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>TA2311-2312</t>
+          <t>TA2308-2309</t>
         </is>
       </c>
       <c r="B206" t="n">
@@ -8698,17 +8698,17 @@
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>TA2312-2401</t>
+          <t>TA2309-2310</t>
         </is>
       </c>
       <c r="B207" t="n">
         <v>0</v>
       </c>
       <c r="C207" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="D207" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="E207" t="n">
         <v>-99999</v>
@@ -8729,7 +8729,7 @@
         <v>-99999</v>
       </c>
       <c r="K207" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="L207" t="n">
         <v>3</v>
@@ -8738,17 +8738,17 @@
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>TA2401-2402</t>
+          <t>TA2310-2311</t>
         </is>
       </c>
       <c r="B208" t="n">
         <v>0</v>
       </c>
       <c r="C208" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="D208" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="E208" t="n">
         <v>-99999</v>
@@ -8769,7 +8769,7 @@
         <v>-99999</v>
       </c>
       <c r="K208" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="L208" t="n">
         <v>3</v>
@@ -8778,17 +8778,17 @@
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>UR2310-2311</t>
+          <t>TA2311-2312</t>
         </is>
       </c>
       <c r="B209" t="n">
         <v>0</v>
       </c>
       <c r="C209" t="n">
-        <v>10</v>
+        <v>-99999</v>
       </c>
       <c r="D209" t="n">
-        <v>-45</v>
+        <v>-99999</v>
       </c>
       <c r="E209" t="n">
         <v>-99999</v>
@@ -8809,7 +8809,7 @@
         <v>-99999</v>
       </c>
       <c r="K209" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="L209" t="n">
         <v>3</v>
@@ -8818,17 +8818,17 @@
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>UR2311-2312</t>
+          <t>TA2312-2401</t>
         </is>
       </c>
       <c r="B210" t="n">
         <v>0</v>
       </c>
       <c r="C210" t="n">
-        <v>5</v>
+        <v>-20</v>
       </c>
       <c r="D210" t="n">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="E210" t="n">
         <v>-99999</v>
@@ -8849,7 +8849,7 @@
         <v>-99999</v>
       </c>
       <c r="K210" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L210" t="n">
         <v>3</v>
@@ -8858,17 +8858,17 @@
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>UR2312-2401</t>
+          <t>TA2401-2402</t>
         </is>
       </c>
       <c r="B211" t="n">
         <v>0</v>
       </c>
       <c r="C211" t="n">
-        <v>5</v>
+        <v>-15</v>
       </c>
       <c r="D211" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="E211" t="n">
         <v>-99999</v>
@@ -8898,17 +8898,17 @@
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>UR2401-2402</t>
+          <t>UR2310-2311</t>
         </is>
       </c>
       <c r="B212" t="n">
         <v>0</v>
       </c>
       <c r="C212" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D212" t="n">
-        <v>-99999</v>
+        <v>-45</v>
       </c>
       <c r="E212" t="n">
         <v>-99999</v>
@@ -8929,7 +8929,7 @@
         <v>-99999</v>
       </c>
       <c r="K212" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L212" t="n">
         <v>3</v>
@@ -8938,17 +8938,17 @@
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>UR2402-2403</t>
+          <t>UR2311-2312</t>
         </is>
       </c>
       <c r="B213" t="n">
         <v>0</v>
       </c>
       <c r="C213" t="n">
-        <v>-50</v>
+        <v>5</v>
       </c>
       <c r="D213" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="E213" t="n">
         <v>-99999</v>
@@ -8969,7 +8969,7 @@
         <v>-99999</v>
       </c>
       <c r="K213" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="L213" t="n">
         <v>3</v>
@@ -8978,7 +8978,7 @@
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>UR2403-2404</t>
+          <t>UR2312-2401</t>
         </is>
       </c>
       <c r="B214" t="n">
@@ -9018,20 +9018,20 @@
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>UR2404-2405</t>
+          <t>UR2401-2402</t>
         </is>
       </c>
       <c r="B215" t="n">
         <v>0</v>
       </c>
       <c r="C215" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D215" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="E215" t="n">
-        <v>-5</v>
+        <v>-99999</v>
       </c>
       <c r="F215" t="n">
         <v>-99999</v>
@@ -9058,7 +9058,7 @@
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>V2307-2308</t>
+          <t>UR2402-2403</t>
         </is>
       </c>
       <c r="B216" t="n">
@@ -9068,7 +9068,7 @@
         <v>-50</v>
       </c>
       <c r="D216" t="n">
-        <v>-50</v>
+        <v>-99999</v>
       </c>
       <c r="E216" t="n">
         <v>-99999</v>
@@ -9089,7 +9089,7 @@
         <v>-99999</v>
       </c>
       <c r="K216" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L216" t="n">
         <v>3</v>
@@ -9098,7 +9098,7 @@
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>V2308-2309</t>
+          <t>UR2403-2404</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -9108,28 +9108,28 @@
         <v>5</v>
       </c>
       <c r="D217" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E217" t="n">
-        <v>-13</v>
+        <v>-99999</v>
       </c>
       <c r="F217" t="n">
-        <v>-14</v>
+        <v>-99999</v>
       </c>
       <c r="G217" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="H217" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="I217" t="n">
-        <v>-24</v>
+        <v>-99999</v>
       </c>
       <c r="J217" t="n">
         <v>-99999</v>
       </c>
       <c r="K217" t="n">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="L217" t="n">
         <v>3</v>
@@ -9138,7 +9138,7 @@
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>V2309-2310</t>
+          <t>UR2404-2405</t>
         </is>
       </c>
       <c r="B218" t="n">
@@ -9148,28 +9148,28 @@
         <v>5</v>
       </c>
       <c r="D218" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E218" t="n">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="F218" t="n">
-        <v>-3</v>
+        <v>-99999</v>
       </c>
       <c r="G218" t="n">
-        <v>-4</v>
+        <v>-99999</v>
       </c>
       <c r="H218" t="n">
-        <v>-5</v>
+        <v>-99999</v>
       </c>
       <c r="I218" t="n">
-        <v>-7</v>
+        <v>-99999</v>
       </c>
       <c r="J218" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="K218" t="n">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="L218" t="n">
         <v>3</v>
@@ -9178,7 +9178,7 @@
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>V2310-2311</t>
+          <t>V2308-2309</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -9191,25 +9191,25 @@
         <v>5</v>
       </c>
       <c r="E219" t="n">
-        <v>-2</v>
+        <v>-13</v>
       </c>
       <c r="F219" t="n">
-        <v>-2</v>
+        <v>-14</v>
       </c>
       <c r="G219" t="n">
-        <v>-3</v>
+        <v>-15</v>
       </c>
       <c r="H219" t="n">
-        <v>-4</v>
+        <v>-30</v>
       </c>
       <c r="I219" t="n">
-        <v>-7</v>
+        <v>-24</v>
       </c>
       <c r="J219" t="n">
-        <v>-12</v>
+        <v>-99999</v>
       </c>
       <c r="K219" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L219" t="n">
         <v>3</v>
@@ -9218,7 +9218,7 @@
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>V2311-2312</t>
+          <t>V2309-2310</t>
         </is>
       </c>
       <c r="B220" t="n">
@@ -9231,225 +9231,225 @@
         <v>5</v>
       </c>
       <c r="E220" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="F220" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="G220" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="H220" t="n">
-        <v>-2</v>
+        <v>-16</v>
       </c>
       <c r="I220" t="n">
-        <v>-5</v>
+        <v>-30</v>
       </c>
       <c r="J220" t="n">
-        <v>-7</v>
+        <v>-99999</v>
       </c>
       <c r="K220" t="n">
         <v>11</v>
       </c>
       <c r="L220" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>V2312-2401</t>
+          <t>V2310-2311</t>
         </is>
       </c>
       <c r="B221" t="n">
         <v>0</v>
       </c>
       <c r="C221" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D221" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E221" t="n">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="F221" t="n">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="G221" t="n">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="I221" t="n">
-        <v>-2</v>
+        <v>-30</v>
       </c>
       <c r="J221" t="n">
-        <v>-7</v>
+        <v>-99999</v>
       </c>
       <c r="K221" t="n">
         <v>11</v>
       </c>
       <c r="L221" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>V2401-2402</t>
+          <t>V2311-2312</t>
         </is>
       </c>
       <c r="B222" t="n">
         <v>0</v>
       </c>
       <c r="C222" t="n">
-        <v>-3</v>
+        <v>5</v>
       </c>
       <c r="D222" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="E222" t="n">
-        <v>-10</v>
+        <v>2</v>
       </c>
       <c r="F222" t="n">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="G222" t="n">
-        <v>-20</v>
+        <v>-2</v>
       </c>
       <c r="H222" t="n">
-        <v>-99999</v>
+        <v>-18</v>
       </c>
       <c r="I222" t="n">
-        <v>-99999</v>
+        <v>-36</v>
       </c>
       <c r="J222" t="n">
         <v>-99999</v>
       </c>
       <c r="K222" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="L222" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>V2402-2403</t>
+          <t>V2312-2401</t>
         </is>
       </c>
       <c r="B223" t="n">
         <v>0</v>
       </c>
       <c r="C223" t="n">
-        <v>-5</v>
+        <v>20</v>
       </c>
       <c r="D223" t="n">
-        <v>-10</v>
+        <v>4</v>
       </c>
       <c r="E223" t="n">
-        <v>-15</v>
+        <v>3</v>
       </c>
       <c r="F223" t="n">
-        <v>-20</v>
+        <v>3</v>
       </c>
       <c r="G223" t="n">
-        <v>-25</v>
+        <v>1</v>
       </c>
       <c r="H223" t="n">
-        <v>-30</v>
+        <v>-18</v>
       </c>
       <c r="I223" t="n">
-        <v>-35</v>
+        <v>-36</v>
       </c>
       <c r="J223" t="n">
         <v>-99999</v>
       </c>
       <c r="K223" t="n">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="L223" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>V2403-2404</t>
+          <t>V2401-2402</t>
         </is>
       </c>
       <c r="B224" t="n">
         <v>0</v>
       </c>
       <c r="C224" t="n">
-        <v>-28</v>
+        <v>-3</v>
       </c>
       <c r="D224" t="n">
-        <v>-32</v>
+        <v>-10</v>
       </c>
       <c r="E224" t="n">
-        <v>-36</v>
+        <v>-18</v>
       </c>
       <c r="F224" t="n">
-        <v>-40</v>
+        <v>-30</v>
       </c>
       <c r="G224" t="n">
-        <v>-44</v>
+        <v>-99999</v>
       </c>
       <c r="H224" t="n">
-        <v>-48</v>
+        <v>-99999</v>
       </c>
       <c r="I224" t="n">
-        <v>-52</v>
+        <v>-99999</v>
       </c>
       <c r="J224" t="n">
         <v>-99999</v>
       </c>
       <c r="K224" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L224" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>V2404-2405</t>
+          <t>V2402-2403</t>
         </is>
       </c>
       <c r="B225" t="n">
         <v>0</v>
       </c>
       <c r="C225" t="n">
-        <v>-20</v>
+        <v>-5</v>
       </c>
       <c r="D225" t="n">
-        <v>-25</v>
+        <v>-10</v>
       </c>
       <c r="E225" t="n">
+        <v>-15</v>
+      </c>
+      <c r="F225" t="n">
         <v>-30</v>
       </c>
-      <c r="F225" t="n">
+      <c r="G225" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H225" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I225" t="n">
         <v>-35</v>
       </c>
-      <c r="G225" t="n">
-        <v>-40</v>
-      </c>
-      <c r="H225" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="I225" t="n">
-        <v>-99999</v>
-      </c>
       <c r="J225" t="n">
         <v>-99999</v>
       </c>
       <c r="K225" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="L225" t="n">
         <v>3</v>
@@ -9458,66 +9458,66 @@
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>V2405-2406</t>
+          <t>V2403-2404</t>
         </is>
       </c>
       <c r="B226" t="n">
         <v>0</v>
       </c>
       <c r="C226" t="n">
-        <v>-10</v>
+        <v>-28</v>
       </c>
       <c r="D226" t="n">
-        <v>-15</v>
+        <v>-32</v>
       </c>
       <c r="E226" t="n">
-        <v>-20</v>
+        <v>-36</v>
       </c>
       <c r="F226" t="n">
-        <v>-99999</v>
+        <v>-40</v>
       </c>
       <c r="G226" t="n">
-        <v>-99999</v>
+        <v>-44</v>
       </c>
       <c r="H226" t="n">
-        <v>-99999</v>
+        <v>-48</v>
       </c>
       <c r="I226" t="n">
-        <v>-99999</v>
+        <v>-52</v>
       </c>
       <c r="J226" t="n">
         <v>-99999</v>
       </c>
       <c r="K226" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L226" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>Y2307-2308</t>
+          <t>V2404-2405</t>
         </is>
       </c>
       <c r="B227" t="n">
         <v>0</v>
       </c>
       <c r="C227" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="D227" t="n">
-        <v>-99999</v>
+        <v>-25</v>
       </c>
       <c r="E227" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="F227" t="n">
-        <v>-99999</v>
+        <v>-35</v>
       </c>
       <c r="G227" t="n">
-        <v>-99999</v>
+        <v>-40</v>
       </c>
       <c r="H227" t="n">
         <v>-99999</v>
@@ -9529,29 +9529,29 @@
         <v>-99999</v>
       </c>
       <c r="K227" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L227" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>Y2308-2309</t>
+          <t>V2405-2406</t>
         </is>
       </c>
       <c r="B228" t="n">
         <v>0</v>
       </c>
       <c r="C228" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="D228" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="E228" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="F228" t="n">
         <v>-99999</v>
@@ -9569,29 +9569,29 @@
         <v>-99999</v>
       </c>
       <c r="K228" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L228" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>Y2309-2311</t>
+          <t>Y2307-2308</t>
         </is>
       </c>
       <c r="B229" t="n">
         <v>0</v>
       </c>
       <c r="C229" t="n">
-        <v>-32</v>
+        <v>-99999</v>
       </c>
       <c r="D229" t="n">
-        <v>-45</v>
+        <v>-99999</v>
       </c>
       <c r="E229" t="n">
-        <v>-60</v>
+        <v>-99999</v>
       </c>
       <c r="F229" t="n">
         <v>-99999</v>
@@ -9618,60 +9618,60 @@
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>Y2311-2312</t>
+          <t>Y2308-2309</t>
         </is>
       </c>
       <c r="B230" t="n">
         <v>0</v>
       </c>
       <c r="C230" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="D230" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="E230" t="n">
-        <v>-40</v>
+        <v>-99999</v>
       </c>
       <c r="F230" t="n">
-        <v>-50</v>
+        <v>-99999</v>
       </c>
       <c r="G230" t="n">
-        <v>-65</v>
+        <v>-99999</v>
       </c>
       <c r="H230" t="n">
-        <v>-75</v>
+        <v>-99999</v>
       </c>
       <c r="I230" t="n">
-        <v>-80</v>
+        <v>-99999</v>
       </c>
       <c r="J230" t="n">
-        <v>-80</v>
+        <v>-99999</v>
       </c>
       <c r="K230" t="n">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="L230" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>Y2312-2401</t>
+          <t>Y2309-2311</t>
         </is>
       </c>
       <c r="B231" t="n">
         <v>0</v>
       </c>
       <c r="C231" t="n">
-        <v>-99999</v>
+        <v>-32</v>
       </c>
       <c r="D231" t="n">
-        <v>-99999</v>
+        <v>-45</v>
       </c>
       <c r="E231" t="n">
-        <v>-99999</v>
+        <v>-60</v>
       </c>
       <c r="F231" t="n">
         <v>-99999</v>
@@ -9692,6 +9692,86 @@
         <v>18</v>
       </c>
       <c r="L231" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="inlineStr">
+        <is>
+          <t>Y2311-2312</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>0</v>
+      </c>
+      <c r="C232" t="n">
+        <v>10</v>
+      </c>
+      <c r="D232" t="n">
+        <v>-30</v>
+      </c>
+      <c r="E232" t="n">
+        <v>-30</v>
+      </c>
+      <c r="F232" t="n">
+        <v>-40</v>
+      </c>
+      <c r="G232" t="n">
+        <v>-50</v>
+      </c>
+      <c r="H232" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I232" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J232" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K232" t="n">
+        <v>50</v>
+      </c>
+      <c r="L232" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="inlineStr">
+        <is>
+          <t>Y2312-2401</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>0</v>
+      </c>
+      <c r="C233" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D233" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E233" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F233" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G233" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H233" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I233" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J233" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K233" t="n">
+        <v>18</v>
+      </c>
+      <c r="L233" t="n">
         <v>2</v>
       </c>
     </row>

--- a/info/region_info.xlsx
+++ b/info/region_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,7 +548,7 @@
         <v>-99999</v>
       </c>
       <c r="D3" t="n">
-        <v>123</v>
+        <v>-99999</v>
       </c>
       <c r="E3" t="n">
         <v>-99999</v>
@@ -594,10 +594,10 @@
         <v>-99999</v>
       </c>
       <c r="F4" t="n">
-        <v>1231</v>
+        <v>-99999</v>
       </c>
       <c r="G4" t="n">
-        <v>123</v>
+        <v>-99999</v>
       </c>
       <c r="H4" t="n">
         <v>-99999</v>
@@ -628,25 +628,25 @@
         <v>82</v>
       </c>
       <c r="D5" t="n">
-        <v>-9999</v>
+        <v>80</v>
       </c>
       <c r="E5" t="n">
-        <v>-999999</v>
+        <v>-99999</v>
       </c>
       <c r="F5" t="n">
         <v>-99999</v>
       </c>
       <c r="G5" t="n">
-        <v>123</v>
+        <v>-99999</v>
       </c>
       <c r="H5" t="n">
-        <v>123</v>
+        <v>-99999</v>
       </c>
       <c r="I5" t="n">
         <v>-99999</v>
       </c>
       <c r="J5" t="n">
-        <v>2412</v>
+        <v>-99999</v>
       </c>
       <c r="K5" t="n">
         <v>20</v>
@@ -674,16 +674,16 @@
         <v>-99999</v>
       </c>
       <c r="F6" t="n">
-        <v>123</v>
+        <v>-99999</v>
       </c>
       <c r="G6" t="n">
-        <v>123123</v>
+        <v>-99999</v>
       </c>
       <c r="H6" t="n">
         <v>-99999</v>
       </c>
       <c r="I6" t="n">
-        <v>312</v>
+        <v>-99999</v>
       </c>
       <c r="J6" t="n">
         <v>-99999</v>
@@ -711,10 +711,10 @@
         <v>-99999</v>
       </c>
       <c r="E7" t="n">
-        <v>123</v>
+        <v>-99999</v>
       </c>
       <c r="F7" t="n">
-        <v>123</v>
+        <v>-99999</v>
       </c>
       <c r="G7" t="n">
         <v>-99999</v>
@@ -723,13 +723,13 @@
         <v>-99999</v>
       </c>
       <c r="I7" t="n">
-        <v>123</v>
+        <v>-99999</v>
       </c>
       <c r="J7" t="n">
         <v>-99999</v>
       </c>
       <c r="K7" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="L7" t="n">
         <v>3</v>
@@ -751,16 +751,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>9123</v>
+        <v>-10</v>
       </c>
       <c r="F8" t="n">
         <v>-99999</v>
       </c>
       <c r="G8" t="n">
-        <v>123</v>
+        <v>-99999</v>
       </c>
       <c r="H8" t="n">
-        <v>123</v>
+        <v>-99999</v>
       </c>
       <c r="I8" t="n">
         <v>-99999</v>
@@ -794,19 +794,19 @@
         <v>-99999</v>
       </c>
       <c r="F9" t="n">
-        <v>3123</v>
+        <v>-99999</v>
       </c>
       <c r="G9" t="n">
-        <v>123</v>
+        <v>-99999</v>
       </c>
       <c r="H9" t="n">
-        <v>123</v>
+        <v>-99999</v>
       </c>
       <c r="I9" t="n">
-        <v>123</v>
+        <v>-99999</v>
       </c>
       <c r="J9" t="n">
-        <v>123</v>
+        <v>-99999</v>
       </c>
       <c r="K9" t="n">
         <v>6</v>
@@ -840,16 +840,16 @@
         <v>-99999</v>
       </c>
       <c r="H10" t="n">
-        <v>123</v>
+        <v>-99999</v>
       </c>
       <c r="I10" t="n">
         <v>-99999</v>
       </c>
       <c r="J10" t="n">
-        <v>123</v>
+        <v>-99999</v>
       </c>
       <c r="K10" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L10" t="n">
         <v>1</v>
@@ -858,7 +858,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>AG2309-2310</t>
+          <t>AG2308-2311</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -871,10 +871,10 @@
         <v>-99999</v>
       </c>
       <c r="E11" t="n">
-        <v>123</v>
+        <v>-99999</v>
       </c>
       <c r="F11" t="n">
-        <v>123</v>
+        <v>-99999</v>
       </c>
       <c r="G11" t="n">
         <v>-99999</v>
@@ -889,7 +889,7 @@
         <v>-99999</v>
       </c>
       <c r="K11" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="L11" t="n">
         <v>1</v>
@@ -898,60 +898,60 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>AG2309-2312</t>
+          <t>AG2309-2310</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>-99999</v>
+        <v>-13</v>
       </c>
       <c r="D12" t="n">
-        <v>23</v>
+        <v>-15</v>
       </c>
       <c r="E12" t="n">
-        <v>-99999</v>
+        <v>-17</v>
       </c>
       <c r="F12" t="n">
         <v>-99999</v>
       </c>
       <c r="G12" t="n">
-        <v>123</v>
+        <v>-99999</v>
       </c>
       <c r="H12" t="n">
         <v>-99999</v>
       </c>
       <c r="I12" t="n">
-        <v>123</v>
+        <v>-99999</v>
       </c>
       <c r="J12" t="n">
         <v>-99999</v>
       </c>
       <c r="K12" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="L12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>AG2310-2311</t>
+          <t>AG2309-2312</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>-12</v>
+        <v>-99999</v>
       </c>
       <c r="D13" t="n">
-        <v>-14</v>
+        <v>-99999</v>
       </c>
       <c r="E13" t="n">
-        <v>-16</v>
+        <v>-99999</v>
       </c>
       <c r="F13" t="n">
         <v>-99999</v>
@@ -969,29 +969,29 @@
         <v>-99999</v>
       </c>
       <c r="K13" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>AG2311-2312</t>
+          <t>AG2310-2311</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-99999</v>
+        <v>-13</v>
       </c>
       <c r="D14" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="E14" t="n">
-        <v>123</v>
+        <v>-17</v>
       </c>
       <c r="F14" t="n">
         <v>-99999</v>
@@ -1003,7 +1003,7 @@
         <v>-99999</v>
       </c>
       <c r="I14" t="n">
-        <v>123</v>
+        <v>-99999</v>
       </c>
       <c r="J14" t="n">
         <v>-99999</v>
@@ -1025,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>-99999</v>
+        <v>-13</v>
       </c>
       <c r="D15" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="E15" t="n">
-        <v>-99999</v>
+        <v>-17</v>
       </c>
       <c r="F15" t="n">
         <v>-99999</v>
@@ -1040,7 +1040,7 @@
         <v>-99999</v>
       </c>
       <c r="H15" t="n">
-        <v>123</v>
+        <v>-99999</v>
       </c>
       <c r="I15" t="n">
         <v>-99999</v>
@@ -1058,7 +1058,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>AG2401-2402</t>
+          <t>AG2312-2401</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1074,22 +1074,22 @@
         <v>-17</v>
       </c>
       <c r="F16" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="G16" t="n">
-        <v>123</v>
+        <v>-99999</v>
       </c>
       <c r="H16" t="n">
         <v>-99999</v>
       </c>
       <c r="I16" t="n">
-        <v>123</v>
+        <v>-99999</v>
       </c>
       <c r="J16" t="n">
         <v>-99999</v>
       </c>
       <c r="K16" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L16" t="n">
         <v>1</v>
@@ -1098,35 +1098,35 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>AG2402-2403</t>
+          <t>AG2401-2402</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>0</v>
       </c>
       <c r="C17" t="n">
+        <v>-13</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-15</v>
+      </c>
+      <c r="E17" t="n">
         <v>-16</v>
       </c>
-      <c r="D17" t="n">
+      <c r="F17" t="n">
+        <v>-17</v>
+      </c>
+      <c r="G17" t="n">
         <v>-18</v>
       </c>
-      <c r="E17" t="n">
+      <c r="H17" t="n">
+        <v>-19</v>
+      </c>
+      <c r="I17" t="n">
         <v>-20</v>
       </c>
-      <c r="F17" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="G17" t="n">
-        <v>123</v>
-      </c>
-      <c r="H17" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="I17" t="n">
-        <v>-99999</v>
-      </c>
       <c r="J17" t="n">
-        <v>123</v>
+        <v>-99999</v>
       </c>
       <c r="K17" t="n">
         <v>15</v>
@@ -1138,7 +1138,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>AG2403-2404</t>
+          <t>AG2402-2403</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1157,16 +1157,16 @@
         <v>-99999</v>
       </c>
       <c r="G18" t="n">
-        <v>123</v>
+        <v>-99999</v>
       </c>
       <c r="H18" t="n">
-        <v>123</v>
+        <v>-99999</v>
       </c>
       <c r="I18" t="n">
-        <v>123</v>
+        <v>-99999</v>
       </c>
       <c r="J18" t="n">
-        <v>123</v>
+        <v>-99999</v>
       </c>
       <c r="K18" t="n">
         <v>15</v>
@@ -1178,23 +1178,23 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>AG2404-2405</t>
+          <t>AG2403-2404</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>0</v>
       </c>
       <c r="C19" t="n">
+        <v>-15</v>
+      </c>
+      <c r="D19" t="n">
         <v>-16</v>
       </c>
-      <c r="D19" t="n">
-        <v>-18</v>
-      </c>
       <c r="E19" t="n">
-        <v>-20</v>
+        <v>-17</v>
       </c>
       <c r="F19" t="n">
-        <v>123</v>
+        <v>-99999</v>
       </c>
       <c r="G19" t="n">
         <v>-99999</v>
@@ -1203,10 +1203,10 @@
         <v>-99999</v>
       </c>
       <c r="I19" t="n">
-        <v>123</v>
+        <v>-99999</v>
       </c>
       <c r="J19" t="n">
-        <v>123</v>
+        <v>-99999</v>
       </c>
       <c r="K19" t="n">
         <v>15</v>
@@ -1218,38 +1218,38 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>AG2406-2402</t>
+          <t>AL2307-2308</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="D20" t="n">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>-20</v>
       </c>
       <c r="F20" t="n">
-        <v>-99999</v>
+        <v>-25</v>
       </c>
       <c r="G20" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="H20" t="n">
-        <v>123</v>
+        <v>-40</v>
       </c>
       <c r="I20" t="n">
-        <v>-99999</v>
+        <v>-50</v>
       </c>
       <c r="J20" t="n">
-        <v>-99999</v>
+        <v>-70</v>
       </c>
       <c r="K20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L20" t="n">
         <v>1</v>
@@ -1258,38 +1258,38 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>AG2405-2400</t>
+          <t>AL2308-2309</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="D21" t="n">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>-20</v>
       </c>
       <c r="F21" t="n">
-        <v>-99999</v>
+        <v>-25</v>
       </c>
       <c r="G21" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="H21" t="n">
-        <v>123</v>
+        <v>-40</v>
       </c>
       <c r="I21" t="n">
-        <v>-99999</v>
+        <v>-50</v>
       </c>
       <c r="J21" t="n">
-        <v>-99999</v>
+        <v>-70</v>
       </c>
       <c r="K21" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="L21" t="n">
         <v>1</v>
@@ -1298,41 +1298,8961 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>AG21231312</t>
+          <t>AL2309-2310</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-18</v>
+        <v>-20</v>
       </c>
       <c r="E22" t="n">
-        <v>-20</v>
+        <v>-25</v>
       </c>
       <c r="F22" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="G22" t="n">
-        <v>123</v>
+        <v>-40</v>
       </c>
       <c r="H22" t="n">
-        <v>123</v>
+        <v>-50</v>
       </c>
       <c r="I22" t="n">
-        <v>123</v>
+        <v>-70</v>
       </c>
       <c r="J22" t="n">
-        <v>123</v>
+        <v>-80</v>
       </c>
       <c r="K22" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="L22" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>AL2310-2311</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-20</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-25</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-30</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-40</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-50</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-70</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-80</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>AL2311-2312</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-20</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-25</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-30</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-40</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-50</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-70</v>
+      </c>
+      <c r="I24" t="n">
+        <v>-80</v>
+      </c>
+      <c r="J24" t="n">
+        <v>-80</v>
+      </c>
+      <c r="K24" t="n">
+        <v>12</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>AL2312-2401</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>20</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-30</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-40</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-50</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-70</v>
+      </c>
+      <c r="I25" t="n">
+        <v>-80</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-80</v>
+      </c>
+      <c r="K25" t="n">
+        <v>25</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>AL2401-2402</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>10</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-10</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-100</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-120</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I26" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K26" t="n">
+        <v>25</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>AL2402-2403</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-10</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-20</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-30</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-100</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-120</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I27" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J27" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K27" t="n">
+        <v>25</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>AL2403-2404</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>10</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-100</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-120</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I28" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J28" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K28" t="n">
+        <v>25</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>AU2308-2310</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-1.14</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-1.22</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-1.32</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-1.32</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-1.4</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I29" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J29" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K29" t="n">
+        <v>20</v>
+      </c>
+      <c r="L29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>AU2310-2312</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-1.14</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-1.22</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-1.32</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-1.42</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I30" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K30" t="n">
+        <v>20</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>AU2312-2402</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-1.22</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-1.4</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-1.4</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-1.6</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-1.8</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K31" t="n">
+        <v>22</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>AU2402-2404</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-1.3</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-1.4</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-1.56</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H32" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I32" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K32" t="n">
+        <v>22</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>B2308-2307</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-45</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H33" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I33" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K33" t="n">
+        <v>5</v>
+      </c>
+      <c r="L33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>B2308-2309</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>53</v>
+      </c>
+      <c r="D34" t="n">
+        <v>35</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H34" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I34" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>B2309-2308</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-110</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-115</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H35" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I35" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K35" t="n">
+        <v>15</v>
+      </c>
+      <c r="L35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>B2309-2310</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>5</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H36" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I36" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J36" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K36" t="n">
+        <v>30</v>
+      </c>
+      <c r="L36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>B2310-2311</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>5</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-10</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-15</v>
+      </c>
+      <c r="H37" t="n">
+        <v>-20</v>
+      </c>
+      <c r="I37" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K37" t="n">
+        <v>100</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>BU2307-2308</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>5</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H38" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I38" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K38" t="n">
+        <v>10</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>BU2308-2309</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H39" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I39" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K39" t="n">
+        <v>20</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>BU2309-2310</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-10</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-20</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-30</v>
+      </c>
+      <c r="H40" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I40" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K40" t="n">
+        <v>30</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>BU2310-2311</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H41" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I41" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K41" t="n">
+        <v>30</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>BU2311-2312</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E42" t="n">
+        <v>-10</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-20</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-30</v>
+      </c>
+      <c r="H42" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I42" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J42" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K42" t="n">
+        <v>30</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>BU2312-2401</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>10</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E43" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H43" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I43" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K43" t="n">
+        <v>30</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>BU2401-2402</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H44" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I44" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K44" t="n">
+        <v>30</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>BU2402-2403</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H45" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I45" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K45" t="n">
+        <v>30</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>BU2403-2404</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H46" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I46" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J46" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K46" t="n">
+        <v>30</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>BU2404-2405</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H47" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I47" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J47" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K47" t="n">
+        <v>30</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>C2307-2309</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>5</v>
+      </c>
+      <c r="D48" t="n">
+        <v>5</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H48" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I48" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J48" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K48" t="n">
+        <v>12</v>
+      </c>
+      <c r="L48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>C2309-2307</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H49" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I49" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K49" t="n">
+        <v>30</v>
+      </c>
+      <c r="L49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>C2309-2311</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>58</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H50" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I50" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J50" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K50" t="n">
+        <v>22</v>
+      </c>
+      <c r="L50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>C2311-2309</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-130</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H51" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I51" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K51" t="n">
+        <v>10</v>
+      </c>
+      <c r="L51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>C2311-2401</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>44</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H52" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I52" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J52" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K52" t="n">
+        <v>16</v>
+      </c>
+      <c r="L52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>C2401-2403</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C53" t="n">
+        <v>23</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H53" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I53" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J53" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K53" t="n">
+        <v>50</v>
+      </c>
+      <c r="L53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>C2403-2405</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-60</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H54" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I54" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J54" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K54" t="n">
+        <v>20</v>
+      </c>
+      <c r="L54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>CF2307-2309</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H55" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I55" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J55" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K55" t="n">
+        <v>10</v>
+      </c>
+      <c r="L55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>CF2309-2311</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-170</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-180</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-200</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-220</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H56" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I56" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K56" t="n">
+        <v>10</v>
+      </c>
+      <c r="L56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>CF2311-2401</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H57" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I57" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J57" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K57" t="n">
+        <v>11</v>
+      </c>
+      <c r="L57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>CS2307-2309</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E58" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H58" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I58" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K58" t="n">
+        <v>100</v>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>CS2309-2311</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H59" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I59" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J59" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K59" t="n">
+        <v>100</v>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>CS2311-2309</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E60" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H60" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I60" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J60" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K60" t="n">
+        <v>100</v>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>CS2311-2401</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0</v>
+      </c>
+      <c r="C61" t="n">
+        <v>25</v>
+      </c>
+      <c r="D61" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E61" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H61" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I61" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K61" t="n">
+        <v>100</v>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>CS2403-2405</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-15</v>
+      </c>
+      <c r="D62" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E62" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H62" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I62" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K62" t="n">
+        <v>2</v>
+      </c>
+      <c r="L62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>EG2307-2308</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-40</v>
+      </c>
+      <c r="D63" t="n">
+        <v>-40</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H63" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I63" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J63" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K63" t="n">
+        <v>12</v>
+      </c>
+      <c r="L63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>EG2308-2309</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-23</v>
+      </c>
+      <c r="D64" t="n">
+        <v>-45</v>
+      </c>
+      <c r="E64" t="n">
+        <v>-46</v>
+      </c>
+      <c r="F64" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H64" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I64" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J64" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>EG2309-2310</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-20</v>
+      </c>
+      <c r="D65" t="n">
+        <v>-21</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-22</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-40</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-42</v>
+      </c>
+      <c r="H65" t="n">
+        <v>-48</v>
+      </c>
+      <c r="I65" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J65" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K65" t="n">
+        <v>12</v>
+      </c>
+      <c r="L65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>EG2310-2311</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-21</v>
+      </c>
+      <c r="D66" t="n">
+        <v>-22</v>
+      </c>
+      <c r="E66" t="n">
+        <v>-23</v>
+      </c>
+      <c r="F66" t="n">
+        <v>-36</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-40</v>
+      </c>
+      <c r="H66" t="n">
+        <v>-44</v>
+      </c>
+      <c r="I66" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J66" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K66" t="n">
+        <v>12</v>
+      </c>
+      <c r="L66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>EG2311-2312</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-20</v>
+      </c>
+      <c r="D67" t="n">
+        <v>-21</v>
+      </c>
+      <c r="E67" t="n">
+        <v>-22</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-24</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-30</v>
+      </c>
+      <c r="H67" t="n">
+        <v>-35</v>
+      </c>
+      <c r="I67" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K67" t="n">
+        <v>12</v>
+      </c>
+      <c r="L67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>EG2312-2401</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0</v>
+      </c>
+      <c r="C68" t="n">
+        <v>-20</v>
+      </c>
+      <c r="D68" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E68" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F68" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H68" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I68" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J68" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K68" t="n">
+        <v>25</v>
+      </c>
+      <c r="L68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>EG2401-2402</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0</v>
+      </c>
+      <c r="C69" t="n">
+        <v>-45</v>
+      </c>
+      <c r="D69" t="n">
+        <v>-60</v>
+      </c>
+      <c r="E69" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F69" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H69" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I69" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K69" t="n">
+        <v>25</v>
+      </c>
+      <c r="L69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>EG2402-2403</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0</v>
+      </c>
+      <c r="C70" t="n">
+        <v>-20</v>
+      </c>
+      <c r="D70" t="n">
+        <v>-30</v>
+      </c>
+      <c r="E70" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H70" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I70" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J70" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K70" t="n">
+        <v>25</v>
+      </c>
+      <c r="L70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>FG2306-2309</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0</v>
+      </c>
+      <c r="C71" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D71" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E71" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H71" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I71" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J71" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K71" t="n">
+        <v>100</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>FG2307-2309</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0</v>
+      </c>
+      <c r="C72" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D72" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E72" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F72" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H72" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I72" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K72" t="n">
+        <v>100</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>FG2308-2309</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0</v>
+      </c>
+      <c r="C73" t="n">
+        <v>5</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>-10</v>
+      </c>
+      <c r="F73" t="n">
+        <v>-20</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H73" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I73" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J73" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K73" t="n">
+        <v>50</v>
+      </c>
+      <c r="L73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>FG2310-2311</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0</v>
+      </c>
+      <c r="C74" t="n">
+        <v>5</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>-10</v>
+      </c>
+      <c r="F74" t="n">
+        <v>-20</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H74" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I74" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J74" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K74" t="n">
+        <v>50</v>
+      </c>
+      <c r="L74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>FG2312-2401</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E75" t="n">
+        <v>-10</v>
+      </c>
+      <c r="F75" t="n">
+        <v>-20</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H75" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I75" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K75" t="n">
+        <v>50</v>
+      </c>
+      <c r="L75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>FG2402-2403</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E76" t="n">
+        <v>-10</v>
+      </c>
+      <c r="F76" t="n">
+        <v>-20</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H76" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I76" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J76" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K76" t="n">
+        <v>50</v>
+      </c>
+      <c r="L76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>FU2307-2308</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0</v>
+      </c>
+      <c r="C77" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D77" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E77" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F77" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H77" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I77" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K77" t="n">
+        <v>15</v>
+      </c>
+      <c r="L77" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>FU2307-2309</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0</v>
+      </c>
+      <c r="C78" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D78" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E78" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F78" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H78" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I78" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J78" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K78" t="n">
+        <v>40</v>
+      </c>
+      <c r="L78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>FU2308-2307</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0</v>
+      </c>
+      <c r="C79" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D79" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E79" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F79" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H79" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I79" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K79" t="n">
+        <v>20</v>
+      </c>
+      <c r="L79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>FU2308-2309</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0</v>
+      </c>
+      <c r="C80" t="n">
+        <v>10</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" t="n">
+        <v>-10</v>
+      </c>
+      <c r="F80" t="n">
+        <v>-20</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H80" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I80" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J80" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K80" t="n">
+        <v>15</v>
+      </c>
+      <c r="L80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>FU2309-2307</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0</v>
+      </c>
+      <c r="C81" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D81" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E81" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F81" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H81" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I81" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J81" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K81" t="n">
+        <v>26</v>
+      </c>
+      <c r="L81" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>FU2309-2310</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0</v>
+      </c>
+      <c r="C82" t="n">
+        <v>-10</v>
+      </c>
+      <c r="D82" t="n">
+        <v>-20</v>
+      </c>
+      <c r="E82" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F82" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H82" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I82" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J82" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K82" t="n">
+        <v>15</v>
+      </c>
+      <c r="L82" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>FU2310-2309</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0</v>
+      </c>
+      <c r="C83" t="n">
+        <v>-57</v>
+      </c>
+      <c r="D83" t="n">
+        <v>-59</v>
+      </c>
+      <c r="E83" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F83" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H83" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I83" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K83" t="n">
+        <v>30</v>
+      </c>
+      <c r="L83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>FU2310-2311</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0</v>
+      </c>
+      <c r="C84" t="n">
+        <v>25</v>
+      </c>
+      <c r="D84" t="n">
+        <v>20</v>
+      </c>
+      <c r="E84" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F84" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H84" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I84" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K84" t="n">
+        <v>20</v>
+      </c>
+      <c r="L84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>FU2311-2309</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0</v>
+      </c>
+      <c r="C85" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D85" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E85" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F85" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H85" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I85" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J85" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K85" t="n">
+        <v>35</v>
+      </c>
+      <c r="L85" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>FU2311-2310</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0</v>
+      </c>
+      <c r="C86" t="n">
+        <v>-34</v>
+      </c>
+      <c r="D86" t="n">
+        <v>-32</v>
+      </c>
+      <c r="E86" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F86" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H86" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I86" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K86" t="n">
+        <v>100</v>
+      </c>
+      <c r="L86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>FU2311-2310</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0</v>
+      </c>
+      <c r="C87" t="n">
+        <v>-70</v>
+      </c>
+      <c r="D87" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E87" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F87" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H87" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I87" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K87" t="n">
+        <v>20</v>
+      </c>
+      <c r="L87" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>FU2311-2312</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0</v>
+      </c>
+      <c r="C88" t="n">
+        <v>20</v>
+      </c>
+      <c r="D88" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E88" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F88" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H88" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I88" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J88" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K88" t="n">
+        <v>20</v>
+      </c>
+      <c r="L88" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>FU2312-2401</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0</v>
+      </c>
+      <c r="C89" t="n">
+        <v>25</v>
+      </c>
+      <c r="D89" t="n">
+        <v>20</v>
+      </c>
+      <c r="E89" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F89" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H89" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I89" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J89" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K89" t="n">
+        <v>35</v>
+      </c>
+      <c r="L89" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>FU2401-2402</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0</v>
+      </c>
+      <c r="C90" t="n">
+        <v>21</v>
+      </c>
+      <c r="D90" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E90" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F90" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H90" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I90" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K90" t="n">
+        <v>12</v>
+      </c>
+      <c r="L90" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>FU2402-2403</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0</v>
+      </c>
+      <c r="C91" t="n">
+        <v>-15</v>
+      </c>
+      <c r="D91" t="n">
+        <v>-20</v>
+      </c>
+      <c r="E91" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F91" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H91" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I91" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K91" t="n">
+        <v>30</v>
+      </c>
+      <c r="L91" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>FU2403-2404</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0</v>
+      </c>
+      <c r="C92" t="n">
+        <v>-15</v>
+      </c>
+      <c r="D92" t="n">
+        <v>-20</v>
+      </c>
+      <c r="E92" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F92" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H92" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I92" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K92" t="n">
+        <v>30</v>
+      </c>
+      <c r="L92" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>FU2404-2405</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0</v>
+      </c>
+      <c r="C93" t="n">
+        <v>-15</v>
+      </c>
+      <c r="D93" t="n">
+        <v>-20</v>
+      </c>
+      <c r="E93" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F93" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H93" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I93" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J93" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K93" t="n">
+        <v>30</v>
+      </c>
+      <c r="L93" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>FU2405-2406</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>0</v>
+      </c>
+      <c r="C94" t="n">
+        <v>-15</v>
+      </c>
+      <c r="D94" t="n">
+        <v>-20</v>
+      </c>
+      <c r="E94" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F94" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H94" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I94" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K94" t="n">
+        <v>30</v>
+      </c>
+      <c r="L94" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>HC2307-2308</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>0</v>
+      </c>
+      <c r="C95" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D95" t="n">
+        <v>-15</v>
+      </c>
+      <c r="E95" t="n">
+        <v>-25</v>
+      </c>
+      <c r="F95" t="n">
+        <v>-35</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-45</v>
+      </c>
+      <c r="H95" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I95" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J95" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K95" t="n">
+        <v>50</v>
+      </c>
+      <c r="L95" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>HC2307-2309</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>0</v>
+      </c>
+      <c r="C96" t="n">
+        <v>10</v>
+      </c>
+      <c r="D96" t="n">
+        <v>5</v>
+      </c>
+      <c r="E96" t="n">
+        <v>5</v>
+      </c>
+      <c r="F96" t="n">
+        <v>4</v>
+      </c>
+      <c r="G96" t="n">
+        <v>3</v>
+      </c>
+      <c r="H96" t="n">
+        <v>2</v>
+      </c>
+      <c r="I96" t="n">
+        <v>1</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="n">
+        <v>20</v>
+      </c>
+      <c r="L96" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>HC2308-2309</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>0</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0</v>
+      </c>
+      <c r="D97" t="n">
+        <v>-10</v>
+      </c>
+      <c r="E97" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F97" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H97" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I97" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J97" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K97" t="n">
+        <v>13</v>
+      </c>
+      <c r="L97" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>HC2309-2310</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>0</v>
+      </c>
+      <c r="C98" t="n">
+        <v>-10</v>
+      </c>
+      <c r="D98" t="n">
+        <v>-20</v>
+      </c>
+      <c r="E98" t="n">
+        <v>-30</v>
+      </c>
+      <c r="F98" t="n">
+        <v>-40</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-50</v>
+      </c>
+      <c r="H98" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I98" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J98" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K98" t="n">
+        <v>35</v>
+      </c>
+      <c r="L98" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>HC2310-2311</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>0</v>
+      </c>
+      <c r="C99" t="n">
+        <v>-10</v>
+      </c>
+      <c r="D99" t="n">
+        <v>-20</v>
+      </c>
+      <c r="E99" t="n">
+        <v>-30</v>
+      </c>
+      <c r="F99" t="n">
+        <v>-40</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-50</v>
+      </c>
+      <c r="H99" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I99" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K99" t="n">
+        <v>35</v>
+      </c>
+      <c r="L99" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>HC2311-2312</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>0</v>
+      </c>
+      <c r="C100" t="n">
+        <v>-10</v>
+      </c>
+      <c r="D100" t="n">
+        <v>-20</v>
+      </c>
+      <c r="E100" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F100" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H100" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I100" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J100" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K100" t="n">
+        <v>30</v>
+      </c>
+      <c r="L100" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>HC2312-2401</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>0</v>
+      </c>
+      <c r="C101" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D101" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E101" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F101" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H101" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I101" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J101" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K101" t="n">
+        <v>30</v>
+      </c>
+      <c r="L101" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>HC2401-2402</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>0</v>
+      </c>
+      <c r="C102" t="n">
+        <v>-20</v>
+      </c>
+      <c r="D102" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E102" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F102" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H102" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I102" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J102" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K102" t="n">
+        <v>50</v>
+      </c>
+      <c r="L102" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>HC2402-2403</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>0</v>
+      </c>
+      <c r="C103" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D103" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E103" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F103" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H103" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I103" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J103" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K103" t="n">
+        <v>30</v>
+      </c>
+      <c r="L103" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>HC2403-2404</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>0</v>
+      </c>
+      <c r="C104" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D104" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E104" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F104" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H104" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I104" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J104" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K104" t="n">
+        <v>30</v>
+      </c>
+      <c r="L104" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
+          <t>I2307-2308</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>0</v>
+      </c>
+      <c r="C105" t="n">
+        <v>4</v>
+      </c>
+      <c r="D105" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E105" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F105" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H105" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I105" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J105" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K105" t="n">
+        <v>12</v>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
+        <is>
+          <t>I2308-2309</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>0</v>
+      </c>
+      <c r="C106" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D106" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E106" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F106" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H106" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I106" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J106" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K106" t="n">
+        <v>10</v>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="inlineStr">
+        <is>
+          <t>I2309-2310</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>0</v>
+      </c>
+      <c r="C107" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D107" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E107" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F107" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H107" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I107" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J107" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K107" t="n">
+        <v>11</v>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>I2310-2311</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>0</v>
+      </c>
+      <c r="C108" t="n">
+        <v>3</v>
+      </c>
+      <c r="D108" t="n">
+        <v>2</v>
+      </c>
+      <c r="E108" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F108" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H108" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I108" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J108" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K108" t="n">
+        <v>12</v>
+      </c>
+      <c r="L108" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="inlineStr">
+        <is>
+          <t>I2311-2312</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>0</v>
+      </c>
+      <c r="C109" t="n">
+        <v>3</v>
+      </c>
+      <c r="D109" t="n">
+        <v>2</v>
+      </c>
+      <c r="E109" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F109" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H109" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I109" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J109" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K109" t="n">
+        <v>12</v>
+      </c>
+      <c r="L109" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>I2312-2401</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>0</v>
+      </c>
+      <c r="C110" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D110" t="n">
+        <v>2</v>
+      </c>
+      <c r="E110" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F110" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H110" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I110" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J110" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K110" t="n">
+        <v>12</v>
+      </c>
+      <c r="L110" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr">
+        <is>
+          <t>I2401-2402</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>0</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0</v>
+      </c>
+      <c r="D111" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E111" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F111" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H111" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I111" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J111" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K111" t="n">
+        <v>12</v>
+      </c>
+      <c r="L111" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="inlineStr">
+        <is>
+          <t>I2402-2403</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>0</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0</v>
+      </c>
+      <c r="D112" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E112" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F112" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H112" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I112" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J112" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K112" t="n">
+        <v>12</v>
+      </c>
+      <c r="L112" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="inlineStr">
+        <is>
+          <t>I2403-2404</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>0</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0</v>
+      </c>
+      <c r="D113" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E113" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F113" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H113" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I113" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J113" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K113" t="n">
+        <v>12</v>
+      </c>
+      <c r="L113" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="inlineStr">
+        <is>
+          <t>IC2306-2309</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>0</v>
+      </c>
+      <c r="C114" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D114" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E114" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F114" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H114" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I114" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J114" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K114" t="n">
+        <v>20</v>
+      </c>
+      <c r="L114" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="inlineStr">
+        <is>
+          <t>IC2309-2312</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>0</v>
+      </c>
+      <c r="C115" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D115" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E115" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F115" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H115" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I115" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J115" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K115" t="n">
+        <v>20</v>
+      </c>
+      <c r="L115" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="inlineStr">
+        <is>
+          <t>IF2306-2309</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C116" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D116" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E116" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F116" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H116" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I116" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J116" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K116" t="n">
+        <v>20</v>
+      </c>
+      <c r="L116" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="inlineStr">
+        <is>
+          <t>IF2308-2309</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>0</v>
+      </c>
+      <c r="C117" t="n">
+        <v>-7.4</v>
+      </c>
+      <c r="D117" t="n">
+        <v>-8.199999999999999</v>
+      </c>
+      <c r="E117" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F117" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H117" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I117" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J117" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K117" t="n">
+        <v>25</v>
+      </c>
+      <c r="L117" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
+        <is>
+          <t>IF2309-2312</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>0</v>
+      </c>
+      <c r="C118" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D118" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E118" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F118" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H118" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I118" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J118" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K118" t="n">
+        <v>20</v>
+      </c>
+      <c r="L118" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
+        <is>
+          <t>IH2307-2309</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>0</v>
+      </c>
+      <c r="C119" t="n">
+        <v>-12</v>
+      </c>
+      <c r="D119" t="n">
+        <v>-13.6</v>
+      </c>
+      <c r="E119" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F119" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H119" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I119" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J119" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K119" t="n">
+        <v>23</v>
+      </c>
+      <c r="L119" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="inlineStr">
+        <is>
+          <t>IH2309-2312</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>0</v>
+      </c>
+      <c r="C120" t="n">
+        <v>-16.4</v>
+      </c>
+      <c r="D120" t="n">
+        <v>-18.4</v>
+      </c>
+      <c r="E120" t="n">
+        <v>-20.4</v>
+      </c>
+      <c r="F120" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H120" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I120" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J120" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K120" t="n">
+        <v>20</v>
+      </c>
+      <c r="L120" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="inlineStr">
+        <is>
+          <t>IM2309-2312</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>0</v>
+      </c>
+      <c r="C121" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D121" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E121" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F121" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H121" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I121" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J121" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K121" t="n">
+        <v>20</v>
+      </c>
+      <c r="L121" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="inlineStr">
+        <is>
+          <t>L2307-2308</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>0</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0</v>
+      </c>
+      <c r="D122" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E122" t="n">
+        <v>-10</v>
+      </c>
+      <c r="F122" t="n">
+        <v>-15</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-20</v>
+      </c>
+      <c r="H122" t="n">
+        <v>-30</v>
+      </c>
+      <c r="I122" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J122" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K122" t="n">
+        <v>25</v>
+      </c>
+      <c r="L122" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="inlineStr">
+        <is>
+          <t>L2308-2309</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>0</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0</v>
+      </c>
+      <c r="D123" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E123" t="n">
+        <v>-10</v>
+      </c>
+      <c r="F123" t="n">
+        <v>-20</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-30</v>
+      </c>
+      <c r="H123" t="n">
+        <v>-40</v>
+      </c>
+      <c r="I123" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J123" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K123" t="n">
+        <v>25</v>
+      </c>
+      <c r="L123" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="inlineStr">
+        <is>
+          <t>L2309-2310</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>0</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0</v>
+      </c>
+      <c r="D124" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E124" t="n">
+        <v>-10</v>
+      </c>
+      <c r="F124" t="n">
+        <v>-15</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-20</v>
+      </c>
+      <c r="H124" t="n">
+        <v>-30</v>
+      </c>
+      <c r="I124" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J124" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K124" t="n">
+        <v>25</v>
+      </c>
+      <c r="L124" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="inlineStr">
+        <is>
+          <t>L2310-2311</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>0</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0</v>
+      </c>
+      <c r="D125" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E125" t="n">
+        <v>-10</v>
+      </c>
+      <c r="F125" t="n">
+        <v>-15</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H125" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I125" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J125" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K125" t="n">
+        <v>25</v>
+      </c>
+      <c r="L125" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="inlineStr">
+        <is>
+          <t>L2311-2312</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>0</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0</v>
+      </c>
+      <c r="D126" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E126" t="n">
+        <v>-10</v>
+      </c>
+      <c r="F126" t="n">
+        <v>-15</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H126" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I126" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J126" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K126" t="n">
+        <v>25</v>
+      </c>
+      <c r="L126" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="inlineStr">
+        <is>
+          <t>L2312-2401</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>0</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0</v>
+      </c>
+      <c r="D127" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E127" t="n">
+        <v>-10</v>
+      </c>
+      <c r="F127" t="n">
+        <v>-15</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H127" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I127" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J127" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K127" t="n">
+        <v>25</v>
+      </c>
+      <c r="L127" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="inlineStr">
+        <is>
+          <t>L2402-2403</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>0</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0</v>
+      </c>
+      <c r="D128" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E128" t="n">
+        <v>-10</v>
+      </c>
+      <c r="F128" t="n">
+        <v>-15</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H128" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I128" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J128" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K128" t="n">
+        <v>25</v>
+      </c>
+      <c r="L128" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="inlineStr">
+        <is>
+          <t>LU2307-2306</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>0</v>
+      </c>
+      <c r="C129" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D129" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E129" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F129" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H129" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I129" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J129" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K129" t="n">
+        <v>25</v>
+      </c>
+      <c r="L129" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="inlineStr">
+        <is>
+          <t>M2308-2309</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>0</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0</v>
+      </c>
+      <c r="D130" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E130" t="n">
+        <v>-10</v>
+      </c>
+      <c r="F130" t="n">
+        <v>-20</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-30</v>
+      </c>
+      <c r="H130" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I130" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J130" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K130" t="n">
+        <v>15</v>
+      </c>
+      <c r="L130" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="inlineStr">
+        <is>
+          <t>M2309-2311</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>0</v>
+      </c>
+      <c r="C131" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D131" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E131" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F131" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H131" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I131" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J131" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K131" t="n">
+        <v>10</v>
+      </c>
+      <c r="L131" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="inlineStr">
+        <is>
+          <t>M2311-2312</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>0</v>
+      </c>
+      <c r="C132" t="n">
+        <v>-40</v>
+      </c>
+      <c r="D132" t="n">
+        <v>-50</v>
+      </c>
+      <c r="E132" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F132" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H132" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I132" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J132" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K132" t="n">
+        <v>30</v>
+      </c>
+      <c r="L132" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="inlineStr">
+        <is>
+          <t>M2312-2401</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>0</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0</v>
+      </c>
+      <c r="D133" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E133" t="n">
+        <v>-10</v>
+      </c>
+      <c r="F133" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H133" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I133" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J133" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K133" t="n">
+        <v>15</v>
+      </c>
+      <c r="L133" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="inlineStr">
+        <is>
+          <t>M2401-2403</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>0</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0</v>
+      </c>
+      <c r="D134" t="n">
+        <v>-10</v>
+      </c>
+      <c r="E134" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F134" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H134" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I134" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J134" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K134" t="n">
+        <v>15</v>
+      </c>
+      <c r="L134" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="inlineStr">
+        <is>
+          <t>MA2308-2309</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>0</v>
+      </c>
+      <c r="C135" t="n">
+        <v>-4</v>
+      </c>
+      <c r="D135" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E135" t="n">
+        <v>-6</v>
+      </c>
+      <c r="F135" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H135" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I135" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J135" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0</v>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="inlineStr">
+        <is>
+          <t>MA2309-2310</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>0</v>
+      </c>
+      <c r="C136" t="n">
+        <v>-14</v>
+      </c>
+      <c r="D136" t="n">
+        <v>-15</v>
+      </c>
+      <c r="E136" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F136" t="n">
+        <v>-25</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-25</v>
+      </c>
+      <c r="H136" t="n">
+        <v>-32</v>
+      </c>
+      <c r="I136" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J136" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K136" t="n">
+        <v>30</v>
+      </c>
+      <c r="L136" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="inlineStr">
+        <is>
+          <t>MA2310-2311</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>0</v>
+      </c>
+      <c r="C137" t="n">
+        <v>-20</v>
+      </c>
+      <c r="D137" t="n">
+        <v>-22</v>
+      </c>
+      <c r="E137" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F137" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H137" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I137" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J137" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K137" t="n">
+        <v>28</v>
+      </c>
+      <c r="L137" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="inlineStr">
+        <is>
+          <t>MA2311-2312</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>0</v>
+      </c>
+      <c r="C138" t="n">
+        <v>-45</v>
+      </c>
+      <c r="D138" t="n">
+        <v>-50</v>
+      </c>
+      <c r="E138" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F138" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H138" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I138" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J138" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K138" t="n">
+        <v>18</v>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="inlineStr">
+        <is>
+          <t>MA2312-2401</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>0</v>
+      </c>
+      <c r="C139" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D139" t="n">
+        <v>-15</v>
+      </c>
+      <c r="E139" t="n">
+        <v>-25</v>
+      </c>
+      <c r="F139" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H139" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I139" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J139" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K139" t="n">
+        <v>30</v>
+      </c>
+      <c r="L139" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="inlineStr">
+        <is>
+          <t>NR2307-2308</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>0</v>
+      </c>
+      <c r="C140" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D140" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E140" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F140" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H140" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I140" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J140" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K140" t="n">
+        <v>10</v>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="inlineStr">
+        <is>
+          <t>NR2309-2310</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>0</v>
+      </c>
+      <c r="C141" t="n">
+        <v>-30</v>
+      </c>
+      <c r="D141" t="n">
+        <v>-40</v>
+      </c>
+      <c r="E141" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F141" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H141" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I141" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J141" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K141" t="n">
+        <v>18</v>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="inlineStr">
+        <is>
+          <t>NR2310-2311</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>0</v>
+      </c>
+      <c r="C142" t="n">
+        <v>-160</v>
+      </c>
+      <c r="D142" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E142" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F142" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H142" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I142" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J142" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K142" t="n">
+        <v>18</v>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="inlineStr">
+        <is>
+          <t>NR2311-2312</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>0</v>
+      </c>
+      <c r="C143" t="n">
+        <v>-100</v>
+      </c>
+      <c r="D143" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E143" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F143" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H143" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I143" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J143" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K143" t="n">
+        <v>18</v>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="inlineStr">
+        <is>
+          <t>NR2312-2401</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>0</v>
+      </c>
+      <c r="C144" t="n">
+        <v>-70</v>
+      </c>
+      <c r="D144" t="n">
+        <v>-90</v>
+      </c>
+      <c r="E144" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F144" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H144" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I144" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J144" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K144" t="n">
+        <v>18</v>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="inlineStr">
+        <is>
+          <t>OI2307-2309</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>0</v>
+      </c>
+      <c r="C145" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D145" t="n">
+        <v>-10</v>
+      </c>
+      <c r="E145" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F145" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H145" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I145" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J145" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K145" t="n">
+        <v>50</v>
+      </c>
+      <c r="L145" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="inlineStr">
+        <is>
+          <t>OI2309-2311</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>0</v>
+      </c>
+      <c r="C146" t="n">
+        <v>65</v>
+      </c>
+      <c r="D146" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E146" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F146" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H146" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I146" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J146" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K146" t="n">
+        <v>50</v>
+      </c>
+      <c r="L146" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="inlineStr">
+        <is>
+          <t>OI2311-2401</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>0</v>
+      </c>
+      <c r="C147" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D147" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E147" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F147" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H147" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I147" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J147" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K147" t="n">
+        <v>20</v>
+      </c>
+      <c r="L147" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="inlineStr">
+        <is>
+          <t>OI2401-2311</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>0</v>
+      </c>
+      <c r="C148" t="n">
+        <v>-170</v>
+      </c>
+      <c r="D148" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E148" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F148" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H148" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I148" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J148" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K148" t="n">
+        <v>0</v>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="inlineStr">
+        <is>
+          <t>PB2309-2310</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>0</v>
+      </c>
+      <c r="C149" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D149" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E149" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F149" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H149" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I149" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J149" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K149" t="n">
+        <v>20</v>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="inlineStr">
+        <is>
+          <t>PB2402-2403</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>0</v>
+      </c>
+      <c r="C150" t="n">
+        <v>-70</v>
+      </c>
+      <c r="D150" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E150" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F150" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H150" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I150" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J150" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K150" t="n">
+        <v>20</v>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="inlineStr">
+        <is>
+          <t>PF2307-2308</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>0</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0</v>
+      </c>
+      <c r="D151" t="n">
+        <v>-10</v>
+      </c>
+      <c r="E151" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F151" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H151" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I151" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J151" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K151" t="n">
+        <v>40</v>
+      </c>
+      <c r="L151" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="inlineStr">
+        <is>
+          <t>PF2308-2309</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>0</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0</v>
+      </c>
+      <c r="D152" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E152" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F152" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H152" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I152" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J152" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K152" t="n">
+        <v>3</v>
+      </c>
+      <c r="L152" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="inlineStr">
+        <is>
+          <t>PF2309-2310</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>0</v>
+      </c>
+      <c r="C153" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D153" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E153" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F153" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H153" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I153" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J153" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K153" t="n">
+        <v>40</v>
+      </c>
+      <c r="L153" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="inlineStr">
+        <is>
+          <t>PF2310-2311</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>0</v>
+      </c>
+      <c r="C154" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D154" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E154" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F154" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H154" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I154" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J154" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K154" t="n">
+        <v>40</v>
+      </c>
+      <c r="L154" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="inlineStr">
+        <is>
+          <t>PF2311-2312</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>0</v>
+      </c>
+      <c r="C155" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D155" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E155" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F155" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H155" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I155" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J155" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K155" t="n">
+        <v>40</v>
+      </c>
+      <c r="L155" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="inlineStr">
+        <is>
+          <t>PF2312-2401</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>0</v>
+      </c>
+      <c r="C156" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D156" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E156" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F156" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H156" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I156" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J156" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K156" t="n">
+        <v>40</v>
+      </c>
+      <c r="L156" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="inlineStr">
+        <is>
+          <t>PG2307-2308</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>0</v>
+      </c>
+      <c r="C157" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D157" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E157" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F157" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H157" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I157" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J157" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K157" t="n">
+        <v>30</v>
+      </c>
+      <c r="L157" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="inlineStr">
+        <is>
+          <t>PG2308-2309</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>0</v>
+      </c>
+      <c r="C158" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D158" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E158" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F158" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H158" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I158" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J158" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K158" t="n">
+        <v>100</v>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="inlineStr">
+        <is>
+          <t>PG2309-2308</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>0</v>
+      </c>
+      <c r="C159" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D159" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E159" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F159" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H159" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I159" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J159" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K159" t="n">
+        <v>20</v>
+      </c>
+      <c r="L159" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="inlineStr">
+        <is>
+          <t>PP2307-2308</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>0</v>
+      </c>
+      <c r="C160" t="n">
+        <v>-8</v>
+      </c>
+      <c r="D160" t="n">
+        <v>-9</v>
+      </c>
+      <c r="E160" t="n">
+        <v>-10</v>
+      </c>
+      <c r="F160" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H160" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I160" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J160" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K160" t="n">
+        <v>24</v>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="inlineStr">
+        <is>
+          <t>PP2308-2309</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>0</v>
+      </c>
+      <c r="C161" t="n">
+        <v>10</v>
+      </c>
+      <c r="D161" t="n">
+        <v>-15</v>
+      </c>
+      <c r="E161" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F161" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H161" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I161" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J161" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K161" t="n">
+        <v>20</v>
+      </c>
+      <c r="L161" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="inlineStr">
+        <is>
+          <t>PP2309-2310</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>0</v>
+      </c>
+      <c r="C162" t="n">
+        <v>10</v>
+      </c>
+      <c r="D162" t="n">
+        <v>5</v>
+      </c>
+      <c r="E162" t="n">
+        <v>2</v>
+      </c>
+      <c r="F162" t="n">
+        <v>-10</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H162" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I162" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J162" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K162" t="n">
+        <v>35</v>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="inlineStr">
+        <is>
+          <t>PP2310-2311</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>0</v>
+      </c>
+      <c r="C163" t="n">
+        <v>10</v>
+      </c>
+      <c r="D163" t="n">
+        <v>5</v>
+      </c>
+      <c r="E163" t="n">
+        <v>3</v>
+      </c>
+      <c r="F163" t="n">
+        <v>-10</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H163" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I163" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J163" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K163" t="n">
+        <v>35</v>
+      </c>
+      <c r="L163" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="inlineStr">
+        <is>
+          <t>PP2311-2312</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>0</v>
+      </c>
+      <c r="C164" t="n">
+        <v>10</v>
+      </c>
+      <c r="D164" t="n">
+        <v>5</v>
+      </c>
+      <c r="E164" t="n">
+        <v>3</v>
+      </c>
+      <c r="F164" t="n">
+        <v>-10</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H164" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I164" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J164" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K164" t="n">
+        <v>35</v>
+      </c>
+      <c r="L164" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="inlineStr">
+        <is>
+          <t>PP2312-2401</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>0</v>
+      </c>
+      <c r="C165" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D165" t="n">
+        <v>-10</v>
+      </c>
+      <c r="E165" t="n">
+        <v>-15</v>
+      </c>
+      <c r="F165" t="n">
+        <v>-20</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H165" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I165" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J165" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K165" t="n">
+        <v>35</v>
+      </c>
+      <c r="L165" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="inlineStr">
+        <is>
+          <t>PP2401-2402</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>0</v>
+      </c>
+      <c r="C166" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D166" t="n">
+        <v>-10</v>
+      </c>
+      <c r="E166" t="n">
+        <v>-15</v>
+      </c>
+      <c r="F166" t="n">
+        <v>-20</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H166" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I166" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J166" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K166" t="n">
+        <v>35</v>
+      </c>
+      <c r="L166" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="inlineStr">
+        <is>
+          <t>PP2402-2403</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>0</v>
+      </c>
+      <c r="C167" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D167" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E167" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F167" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H167" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I167" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J167" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K167" t="n">
+        <v>35</v>
+      </c>
+      <c r="L167" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="inlineStr">
+        <is>
+          <t>RB2307-2308</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>0</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0</v>
+      </c>
+      <c r="D168" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E168" t="n">
+        <v>-10</v>
+      </c>
+      <c r="F168" t="n">
+        <v>-15</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H168" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I168" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J168" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K168" t="n">
+        <v>20</v>
+      </c>
+      <c r="L168" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="inlineStr">
+        <is>
+          <t>RB2308-2309</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>0</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0</v>
+      </c>
+      <c r="D169" t="n">
+        <v>-20</v>
+      </c>
+      <c r="E169" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F169" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H169" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I169" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J169" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K169" t="n">
+        <v>25</v>
+      </c>
+      <c r="L169" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="inlineStr">
+        <is>
+          <t>RB2309-2310</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>0</v>
+      </c>
+      <c r="C170" t="n">
+        <v>-40</v>
+      </c>
+      <c r="D170" t="n">
+        <v>-40</v>
+      </c>
+      <c r="E170" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F170" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H170" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I170" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J170" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K170" t="n">
+        <v>25</v>
+      </c>
+      <c r="L170" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="inlineStr">
+        <is>
+          <t>RB2310-2311</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>0</v>
+      </c>
+      <c r="C171" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D171" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E171" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F171" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H171" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I171" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J171" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K171" t="n">
+        <v>20</v>
+      </c>
+      <c r="L171" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="inlineStr">
+        <is>
+          <t>RB2311-2312</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>0</v>
+      </c>
+      <c r="C172" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D172" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E172" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F172" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H172" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I172" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J172" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K172" t="n">
+        <v>20</v>
+      </c>
+      <c r="L172" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="inlineStr">
+        <is>
+          <t>RB2312-2401</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>0</v>
+      </c>
+      <c r="C173" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D173" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E173" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F173" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H173" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I173" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J173" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K173" t="n">
+        <v>20</v>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="inlineStr">
+        <is>
+          <t>RB2401-2402</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>0</v>
+      </c>
+      <c r="C174" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D174" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E174" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F174" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H174" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I174" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J174" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K174" t="n">
+        <v>20</v>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="inlineStr">
+        <is>
+          <t>RB2402-2403</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>0</v>
+      </c>
+      <c r="C175" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D175" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E175" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F175" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H175" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I175" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J175" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K175" t="n">
+        <v>20</v>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="inlineStr">
+        <is>
+          <t>RB2403-2404</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>0</v>
+      </c>
+      <c r="C176" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D176" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E176" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F176" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H176" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I176" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J176" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K176" t="n">
+        <v>20</v>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="inlineStr">
+        <is>
+          <t>RM2307-2308</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>0</v>
+      </c>
+      <c r="C177" t="n">
+        <v>-70</v>
+      </c>
+      <c r="D177" t="n">
+        <v>-100</v>
+      </c>
+      <c r="E177" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F177" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H177" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I177" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J177" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K177" t="n">
+        <v>25</v>
+      </c>
+      <c r="L177" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="inlineStr">
+        <is>
+          <t>RM2308-2309</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>0</v>
+      </c>
+      <c r="C178" t="n">
+        <v>10</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0</v>
+      </c>
+      <c r="E178" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F178" t="n">
+        <v>-10</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-15</v>
+      </c>
+      <c r="H178" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I178" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J178" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K178" t="n">
+        <v>20</v>
+      </c>
+      <c r="L178" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="inlineStr">
+        <is>
+          <t>RM2309-2311</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>0</v>
+      </c>
+      <c r="C179" t="n">
+        <v>10</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0</v>
+      </c>
+      <c r="E179" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F179" t="n">
+        <v>-10</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-15</v>
+      </c>
+      <c r="H179" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I179" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J179" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K179" t="n">
+        <v>20</v>
+      </c>
+      <c r="L179" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="inlineStr">
+        <is>
+          <t>RM2401-2403</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>0</v>
+      </c>
+      <c r="C180" t="n">
+        <v>0</v>
+      </c>
+      <c r="D180" t="n">
+        <v>-10</v>
+      </c>
+      <c r="E180" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F180" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H180" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I180" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J180" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K180" t="n">
+        <v>20</v>
+      </c>
+      <c r="L180" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="inlineStr">
+        <is>
+          <t>RR2308-2309</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>0</v>
+      </c>
+      <c r="C181" t="n">
+        <v>-75</v>
+      </c>
+      <c r="D181" t="n">
+        <v>-80</v>
+      </c>
+      <c r="E181" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F181" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H181" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I181" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J181" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K181" t="n">
+        <v>50</v>
+      </c>
+      <c r="L181" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="inlineStr">
+        <is>
+          <t>RU2307-2308</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>0</v>
+      </c>
+      <c r="C182" t="n">
+        <v>-100</v>
+      </c>
+      <c r="D182" t="n">
+        <v>-100</v>
+      </c>
+      <c r="E182" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F182" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H182" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I182" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J182" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K182" t="n">
+        <v>3</v>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="inlineStr">
+        <is>
+          <t>RU2308-2309</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>0</v>
+      </c>
+      <c r="C183" t="n">
+        <v>-75</v>
+      </c>
+      <c r="D183" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E183" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F183" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H183" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I183" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J183" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K183" t="n">
+        <v>0</v>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="inlineStr">
+        <is>
+          <t>RU2309-2310</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>0</v>
+      </c>
+      <c r="C184" t="n">
+        <v>-60</v>
+      </c>
+      <c r="D184" t="n">
+        <v>-110</v>
+      </c>
+      <c r="E184" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F184" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H184" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I184" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J184" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K184" t="n">
+        <v>15</v>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="inlineStr">
+        <is>
+          <t>RU2310-2311</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>0</v>
+      </c>
+      <c r="C185" t="n">
+        <v>0</v>
+      </c>
+      <c r="D185" t="n">
+        <v>-70</v>
+      </c>
+      <c r="E185" t="n">
+        <v>-80</v>
+      </c>
+      <c r="F185" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H185" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I185" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J185" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K185" t="n">
+        <v>15</v>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="inlineStr">
+        <is>
+          <t>RU2311-2401</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>0</v>
+      </c>
+      <c r="C186" t="n">
+        <v>-1800</v>
+      </c>
+      <c r="D186" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E186" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F186" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H186" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I186" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J186" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K186" t="n">
+        <v>200</v>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="inlineStr">
+        <is>
+          <t>RU2401-2403</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>0</v>
+      </c>
+      <c r="C187" t="n">
+        <v>-100</v>
+      </c>
+      <c r="D187" t="n">
+        <v>-120</v>
+      </c>
+      <c r="E187" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F187" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H187" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I187" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J187" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K187" t="n">
+        <v>50</v>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="inlineStr">
+        <is>
+          <t>RU2403-2404</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>0</v>
+      </c>
+      <c r="C188" t="n">
+        <v>-60</v>
+      </c>
+      <c r="D188" t="n">
+        <v>-70</v>
+      </c>
+      <c r="E188" t="n">
+        <v>-80</v>
+      </c>
+      <c r="F188" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H188" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I188" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J188" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K188" t="n">
+        <v>30</v>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="inlineStr">
+        <is>
+          <t>SA2308-2309</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>0</v>
+      </c>
+      <c r="C189" t="n">
+        <v>0</v>
+      </c>
+      <c r="D189" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E189" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F189" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H189" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I189" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J189" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K189" t="n">
+        <v>50</v>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="inlineStr">
+        <is>
+          <t>SA2310-2311</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>0</v>
+      </c>
+      <c r="C190" t="n">
+        <v>0</v>
+      </c>
+      <c r="D190" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E190" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F190" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H190" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I190" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J190" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K190" t="n">
+        <v>50</v>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="inlineStr">
+        <is>
+          <t>SA2311-2312</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>0</v>
+      </c>
+      <c r="C191" t="n">
+        <v>0</v>
+      </c>
+      <c r="D191" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E191" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F191" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H191" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I191" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J191" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K191" t="n">
+        <v>16</v>
+      </c>
+      <c r="L191" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="inlineStr">
+        <is>
+          <t>SA2312-2401</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>0</v>
+      </c>
+      <c r="C192" t="n">
+        <v>22</v>
+      </c>
+      <c r="D192" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E192" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F192" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H192" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I192" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J192" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K192" t="n">
+        <v>70</v>
+      </c>
+      <c r="L192" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="inlineStr">
+        <is>
+          <t>SA2401-2402</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>0</v>
+      </c>
+      <c r="C193" t="n">
+        <v>-25</v>
+      </c>
+      <c r="D193" t="n">
+        <v>-30</v>
+      </c>
+      <c r="E193" t="n">
+        <v>-35</v>
+      </c>
+      <c r="F193" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H193" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I193" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J193" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K193" t="n">
+        <v>20</v>
+      </c>
+      <c r="L193" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="inlineStr">
+        <is>
+          <t>SA2402-2403</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>0</v>
+      </c>
+      <c r="C194" t="n">
+        <v>20</v>
+      </c>
+      <c r="D194" t="n">
+        <v>18</v>
+      </c>
+      <c r="E194" t="n">
+        <v>4</v>
+      </c>
+      <c r="F194" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H194" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I194" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J194" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K194" t="n">
+        <v>70</v>
+      </c>
+      <c r="L194" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="inlineStr">
+        <is>
+          <t>SA2403-2404</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>0</v>
+      </c>
+      <c r="C195" t="n">
+        <v>-15</v>
+      </c>
+      <c r="D195" t="n">
+        <v>-17</v>
+      </c>
+      <c r="E195" t="n">
+        <v>-35</v>
+      </c>
+      <c r="F195" t="n">
+        <v>-40</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H195" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I195" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J195" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K195" t="n">
+        <v>20</v>
+      </c>
+      <c r="L195" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="inlineStr">
+        <is>
+          <t>SC2307-2308</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>0</v>
+      </c>
+      <c r="C196" t="n">
+        <v>1</v>
+      </c>
+      <c r="D196" t="n">
+        <v>-3.5</v>
+      </c>
+      <c r="E196" t="n">
+        <v>-3.5</v>
+      </c>
+      <c r="F196" t="n">
+        <v>-3.5</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H196" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I196" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J196" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K196" t="n">
+        <v>11</v>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="inlineStr">
+        <is>
+          <t>SC2308-2309</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>0</v>
+      </c>
+      <c r="C197" t="n">
+        <v>4</v>
+      </c>
+      <c r="D197" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="E197" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F197" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-4</v>
+      </c>
+      <c r="H197" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I197" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J197" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K197" t="n">
+        <v>15</v>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="inlineStr">
+        <is>
+          <t>SC2309-2308</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>0</v>
+      </c>
+      <c r="C198" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D198" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E198" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F198" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H198" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I198" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J198" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K198" t="n">
+        <v>50</v>
+      </c>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="inlineStr">
+        <is>
+          <t>SC2309-2310</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>0</v>
+      </c>
+      <c r="C199" t="n">
+        <v>0</v>
+      </c>
+      <c r="D199" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="E199" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F199" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H199" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I199" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J199" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K199" t="n">
+        <v>18</v>
+      </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="inlineStr">
+        <is>
+          <t>SC2310-2309</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>0</v>
+      </c>
+      <c r="C200" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D200" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E200" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F200" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H200" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I200" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J200" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K200" t="n">
+        <v>100</v>
+      </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="inlineStr">
+        <is>
+          <t>SC2310-2311</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>0</v>
+      </c>
+      <c r="C201" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D201" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E201" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F201" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H201" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I201" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J201" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K201" t="n">
+        <v>30</v>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="inlineStr">
+        <is>
+          <t>SC2311-2312</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>0</v>
+      </c>
+      <c r="C202" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D202" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E202" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F202" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H202" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I202" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J202" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K202" t="n">
+        <v>30</v>
+      </c>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="inlineStr">
+        <is>
+          <t>SN2308-2309</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>0</v>
+      </c>
+      <c r="C203" t="n">
+        <v>-150</v>
+      </c>
+      <c r="D203" t="n">
+        <v>-250</v>
+      </c>
+      <c r="E203" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F203" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H203" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I203" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J203" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K203" t="n">
+        <v>38</v>
+      </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="inlineStr">
+        <is>
+          <t>SP2307-2308</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>0</v>
+      </c>
+      <c r="C204" t="n">
+        <v>-40</v>
+      </c>
+      <c r="D204" t="n">
+        <v>-40</v>
+      </c>
+      <c r="E204" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F204" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H204" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I204" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J204" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K204" t="n">
+        <v>30</v>
+      </c>
+      <c r="L204" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="inlineStr">
+        <is>
+          <t>SP2308-2309</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>0</v>
+      </c>
+      <c r="C205" t="n">
+        <v>-36</v>
+      </c>
+      <c r="D205" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E205" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F205" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H205" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I205" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J205" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="inlineStr">
+        <is>
+          <t>SP2309-2310</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>0</v>
+      </c>
+      <c r="C206" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D206" t="n">
+        <v>-12</v>
+      </c>
+      <c r="E206" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F206" t="n">
+        <v>-24</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-26</v>
+      </c>
+      <c r="H206" t="n">
+        <v>-28</v>
+      </c>
+      <c r="I206" t="n">
+        <v>-30</v>
+      </c>
+      <c r="J206" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K206" t="n">
+        <v>12</v>
+      </c>
+      <c r="L206" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="inlineStr">
+        <is>
+          <t>SP2310-2311</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>0</v>
+      </c>
+      <c r="C207" t="n">
+        <v>0</v>
+      </c>
+      <c r="D207" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E207" t="n">
+        <v>-8</v>
+      </c>
+      <c r="F207" t="n">
+        <v>-18</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-24</v>
+      </c>
+      <c r="H207" t="n">
+        <v>-28</v>
+      </c>
+      <c r="I207" t="n">
+        <v>-30</v>
+      </c>
+      <c r="J207" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K207" t="n">
+        <v>12</v>
+      </c>
+      <c r="L207" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="inlineStr">
+        <is>
+          <t>SP2311-2312</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>0</v>
+      </c>
+      <c r="C208" t="n">
+        <v>0</v>
+      </c>
+      <c r="D208" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E208" t="n">
+        <v>-8</v>
+      </c>
+      <c r="F208" t="n">
+        <v>-20</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-26</v>
+      </c>
+      <c r="H208" t="n">
+        <v>-28</v>
+      </c>
+      <c r="I208" t="n">
+        <v>-30</v>
+      </c>
+      <c r="J208" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K208" t="n">
+        <v>12</v>
+      </c>
+      <c r="L208" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="inlineStr">
+        <is>
+          <t>SP2312-2401</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>0</v>
+      </c>
+      <c r="C209" t="n">
+        <v>-160</v>
+      </c>
+      <c r="D209" t="n">
+        <v>-165</v>
+      </c>
+      <c r="E209" t="n">
+        <v>-170</v>
+      </c>
+      <c r="F209" t="n">
+        <v>-175</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H209" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I209" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J209" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K209" t="n">
+        <v>12</v>
+      </c>
+      <c r="L209" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="inlineStr">
+        <is>
+          <t>SP2401-2402</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>0</v>
+      </c>
+      <c r="C210" t="n">
+        <v>-8</v>
+      </c>
+      <c r="D210" t="n">
+        <v>-12</v>
+      </c>
+      <c r="E210" t="n">
+        <v>-16</v>
+      </c>
+      <c r="F210" t="n">
+        <v>-20</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-24</v>
+      </c>
+      <c r="H210" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I210" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J210" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K210" t="n">
+        <v>12</v>
+      </c>
+      <c r="L210" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="inlineStr">
+        <is>
+          <t>SP2402-2403</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>0</v>
+      </c>
+      <c r="C211" t="n">
+        <v>-15</v>
+      </c>
+      <c r="D211" t="n">
+        <v>-20</v>
+      </c>
+      <c r="E211" t="n">
+        <v>-25</v>
+      </c>
+      <c r="F211" t="n">
+        <v>-30</v>
+      </c>
+      <c r="G211" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H211" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I211" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J211" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K211" t="n">
+        <v>12</v>
+      </c>
+      <c r="L211" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="inlineStr">
+        <is>
+          <t>SP2403-2404</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>0</v>
+      </c>
+      <c r="C212" t="n">
+        <v>-15</v>
+      </c>
+      <c r="D212" t="n">
+        <v>-20</v>
+      </c>
+      <c r="E212" t="n">
+        <v>-25</v>
+      </c>
+      <c r="F212" t="n">
+        <v>-30</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H212" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I212" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J212" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K212" t="n">
+        <v>12</v>
+      </c>
+      <c r="L212" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="inlineStr">
+        <is>
+          <t>SP2404-2405</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>0</v>
+      </c>
+      <c r="C213" t="n">
+        <v>-15</v>
+      </c>
+      <c r="D213" t="n">
+        <v>-20</v>
+      </c>
+      <c r="E213" t="n">
+        <v>-25</v>
+      </c>
+      <c r="F213" t="n">
+        <v>-30</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H213" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I213" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J213" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K213" t="n">
+        <v>12</v>
+      </c>
+      <c r="L213" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="inlineStr">
+        <is>
+          <t>TA2307-2308</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>0</v>
+      </c>
+      <c r="C214" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D214" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E214" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F214" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H214" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I214" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J214" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K214" t="n">
+        <v>15</v>
+      </c>
+      <c r="L214" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="inlineStr">
+        <is>
+          <t>TA2307-2309</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>0</v>
+      </c>
+      <c r="C215" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D215" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E215" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F215" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G215" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H215" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I215" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J215" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K215" t="n">
+        <v>15</v>
+      </c>
+      <c r="L215" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="inlineStr">
+        <is>
+          <t>TA2308-2309</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>0</v>
+      </c>
+      <c r="C216" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D216" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E216" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F216" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G216" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H216" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I216" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J216" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K216" t="n">
+        <v>15</v>
+      </c>
+      <c r="L216" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="inlineStr">
+        <is>
+          <t>TA2309-2310</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>0</v>
+      </c>
+      <c r="C217" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D217" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E217" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F217" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G217" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H217" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I217" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J217" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K217" t="n">
+        <v>15</v>
+      </c>
+      <c r="L217" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="inlineStr">
+        <is>
+          <t>TA2310-2311</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>0</v>
+      </c>
+      <c r="C218" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D218" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E218" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F218" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G218" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H218" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I218" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J218" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K218" t="n">
+        <v>15</v>
+      </c>
+      <c r="L218" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="inlineStr">
+        <is>
+          <t>TA2311-2312</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>0</v>
+      </c>
+      <c r="C219" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D219" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E219" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F219" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G219" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H219" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I219" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J219" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K219" t="n">
+        <v>15</v>
+      </c>
+      <c r="L219" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="inlineStr">
+        <is>
+          <t>TA2312-2401</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>0</v>
+      </c>
+      <c r="C220" t="n">
+        <v>-20</v>
+      </c>
+      <c r="D220" t="n">
+        <v>-15</v>
+      </c>
+      <c r="E220" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F220" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G220" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H220" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I220" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J220" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K220" t="n">
+        <v>20</v>
+      </c>
+      <c r="L220" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="inlineStr">
+        <is>
+          <t>TA2401-2402</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>0</v>
+      </c>
+      <c r="C221" t="n">
+        <v>-15</v>
+      </c>
+      <c r="D221" t="n">
+        <v>-20</v>
+      </c>
+      <c r="E221" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F221" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G221" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H221" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I221" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J221" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K221" t="n">
+        <v>20</v>
+      </c>
+      <c r="L221" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="inlineStr">
+        <is>
+          <t>TA2402-2403</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>0</v>
+      </c>
+      <c r="C222" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D222" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E222" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F222" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G222" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H222" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I222" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J222" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K222" t="n">
+        <v>20</v>
+      </c>
+      <c r="L222" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="inlineStr">
+        <is>
+          <t>TA2403-2404</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>0</v>
+      </c>
+      <c r="C223" t="n">
+        <v>-28</v>
+      </c>
+      <c r="D223" t="n">
+        <v>-30</v>
+      </c>
+      <c r="E223" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F223" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G223" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H223" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I223" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J223" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K223" t="n">
+        <v>100</v>
+      </c>
+      <c r="L223" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="inlineStr">
+        <is>
+          <t>UR2310-2311</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>0</v>
+      </c>
+      <c r="C224" t="n">
+        <v>-35</v>
+      </c>
+      <c r="D224" t="n">
+        <v>-45</v>
+      </c>
+      <c r="E224" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F224" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G224" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H224" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I224" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J224" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K224" t="n">
+        <v>20</v>
+      </c>
+      <c r="L224" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="inlineStr">
+        <is>
+          <t>UR2311-2312</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>0</v>
+      </c>
+      <c r="C225" t="n">
+        <v>5</v>
+      </c>
+      <c r="D225" t="n">
+        <v>0</v>
+      </c>
+      <c r="E225" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F225" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G225" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H225" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I225" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J225" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K225" t="n">
+        <v>30</v>
+      </c>
+      <c r="L225" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="inlineStr">
+        <is>
+          <t>UR2312-2401</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>0</v>
+      </c>
+      <c r="C226" t="n">
+        <v>5</v>
+      </c>
+      <c r="D226" t="n">
+        <v>0</v>
+      </c>
+      <c r="E226" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F226" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G226" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H226" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I226" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J226" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K226" t="n">
+        <v>50</v>
+      </c>
+      <c r="L226" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="inlineStr">
+        <is>
+          <t>UR2401-2402</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>0</v>
+      </c>
+      <c r="C227" t="n">
+        <v>0</v>
+      </c>
+      <c r="D227" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E227" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F227" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G227" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H227" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I227" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J227" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K227" t="n">
+        <v>50</v>
+      </c>
+      <c r="L227" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="inlineStr">
+        <is>
+          <t>UR2402-2403</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>0</v>
+      </c>
+      <c r="C228" t="n">
+        <v>-50</v>
+      </c>
+      <c r="D228" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E228" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F228" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G228" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H228" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I228" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J228" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K228" t="n">
+        <v>50</v>
+      </c>
+      <c r="L228" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="inlineStr">
+        <is>
+          <t>UR2403-2404</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>0</v>
+      </c>
+      <c r="C229" t="n">
+        <v>5</v>
+      </c>
+      <c r="D229" t="n">
+        <v>0</v>
+      </c>
+      <c r="E229" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F229" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G229" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H229" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I229" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J229" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K229" t="n">
+        <v>50</v>
+      </c>
+      <c r="L229" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="inlineStr">
+        <is>
+          <t>UR2404-2405</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>0</v>
+      </c>
+      <c r="C230" t="n">
+        <v>5</v>
+      </c>
+      <c r="D230" t="n">
+        <v>0</v>
+      </c>
+      <c r="E230" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F230" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G230" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H230" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I230" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J230" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K230" t="n">
+        <v>200</v>
+      </c>
+      <c r="L230" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="inlineStr">
+        <is>
+          <t>V2308-2309</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>0</v>
+      </c>
+      <c r="C231" t="n">
+        <v>5</v>
+      </c>
+      <c r="D231" t="n">
+        <v>5</v>
+      </c>
+      <c r="E231" t="n">
+        <v>-13</v>
+      </c>
+      <c r="F231" t="n">
+        <v>-14</v>
+      </c>
+      <c r="G231" t="n">
+        <v>-15</v>
+      </c>
+      <c r="H231" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I231" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J231" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K231" t="n">
+        <v>12</v>
+      </c>
+      <c r="L231" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="inlineStr">
+        <is>
+          <t>V2309-2310</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>0</v>
+      </c>
+      <c r="C232" t="n">
+        <v>5</v>
+      </c>
+      <c r="D232" t="n">
+        <v>5</v>
+      </c>
+      <c r="E232" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F232" t="n">
+        <v>-3</v>
+      </c>
+      <c r="G232" t="n">
+        <v>-28</v>
+      </c>
+      <c r="H232" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I232" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J232" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K232" t="n">
+        <v>15</v>
+      </c>
+      <c r="L232" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="inlineStr">
+        <is>
+          <t>V2310-2311</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>0</v>
+      </c>
+      <c r="C233" t="n">
+        <v>5</v>
+      </c>
+      <c r="D233" t="n">
+        <v>5</v>
+      </c>
+      <c r="E233" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F233" t="n">
+        <v>-2</v>
+      </c>
+      <c r="G233" t="n">
+        <v>-28</v>
+      </c>
+      <c r="H233" t="n">
+        <v>-38</v>
+      </c>
+      <c r="I233" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J233" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K233" t="n">
+        <v>19</v>
+      </c>
+      <c r="L233" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="inlineStr">
+        <is>
+          <t>V2311-2312</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>0</v>
+      </c>
+      <c r="C234" t="n">
+        <v>5</v>
+      </c>
+      <c r="D234" t="n">
+        <v>5</v>
+      </c>
+      <c r="E234" t="n">
+        <v>2</v>
+      </c>
+      <c r="F234" t="n">
+        <v>0</v>
+      </c>
+      <c r="G234" t="n">
+        <v>-15</v>
+      </c>
+      <c r="H234" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I234" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J234" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K234" t="n">
+        <v>11</v>
+      </c>
+      <c r="L234" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="inlineStr">
+        <is>
+          <t>V2312-2401</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>0</v>
+      </c>
+      <c r="C235" t="n">
+        <v>20</v>
+      </c>
+      <c r="D235" t="n">
+        <v>4</v>
+      </c>
+      <c r="E235" t="n">
+        <v>3</v>
+      </c>
+      <c r="F235" t="n">
+        <v>3</v>
+      </c>
+      <c r="G235" t="n">
+        <v>1</v>
+      </c>
+      <c r="H235" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I235" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J235" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K235" t="n">
+        <v>11</v>
+      </c>
+      <c r="L235" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="inlineStr">
+        <is>
+          <t>V2401-2402</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>0</v>
+      </c>
+      <c r="C236" t="n">
+        <v>-3</v>
+      </c>
+      <c r="D236" t="n">
+        <v>-18</v>
+      </c>
+      <c r="E236" t="n">
+        <v>-30</v>
+      </c>
+      <c r="F236" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G236" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H236" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I236" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J236" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K236" t="n">
+        <v>30</v>
+      </c>
+      <c r="L236" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="inlineStr">
+        <is>
+          <t>V2402-2403</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>0</v>
+      </c>
+      <c r="C237" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D237" t="n">
+        <v>-15</v>
+      </c>
+      <c r="E237" t="n">
+        <v>-30</v>
+      </c>
+      <c r="F237" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G237" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H237" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I237" t="n">
+        <v>-35</v>
+      </c>
+      <c r="J237" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K237" t="n">
+        <v>50</v>
+      </c>
+      <c r="L237" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="inlineStr">
+        <is>
+          <t>V2403-2404</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>0</v>
+      </c>
+      <c r="C238" t="n">
+        <v>10</v>
+      </c>
+      <c r="D238" t="n">
+        <v>10</v>
+      </c>
+      <c r="E238" t="n">
+        <v>-36</v>
+      </c>
+      <c r="F238" t="n">
+        <v>-40</v>
+      </c>
+      <c r="G238" t="n">
+        <v>-44</v>
+      </c>
+      <c r="H238" t="n">
+        <v>-48</v>
+      </c>
+      <c r="I238" t="n">
+        <v>-52</v>
+      </c>
+      <c r="J238" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K238" t="n">
+        <v>15</v>
+      </c>
+      <c r="L238" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="inlineStr">
+        <is>
+          <t>V2404-2405</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>0</v>
+      </c>
+      <c r="C239" t="n">
+        <v>-20</v>
+      </c>
+      <c r="D239" t="n">
+        <v>-25</v>
+      </c>
+      <c r="E239" t="n">
+        <v>-30</v>
+      </c>
+      <c r="F239" t="n">
+        <v>-35</v>
+      </c>
+      <c r="G239" t="n">
+        <v>-40</v>
+      </c>
+      <c r="H239" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I239" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J239" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K239" t="n">
+        <v>30</v>
+      </c>
+      <c r="L239" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="inlineStr">
+        <is>
+          <t>V2405-2406</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>0</v>
+      </c>
+      <c r="C240" t="n">
+        <v>-10</v>
+      </c>
+      <c r="D240" t="n">
+        <v>-15</v>
+      </c>
+      <c r="E240" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F240" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G240" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H240" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I240" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J240" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K240" t="n">
+        <v>30</v>
+      </c>
+      <c r="L240" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="inlineStr">
+        <is>
+          <t>Y2307-2308</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>0</v>
+      </c>
+      <c r="C241" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D241" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E241" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F241" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G241" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H241" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I241" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J241" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K241" t="n">
+        <v>18</v>
+      </c>
+      <c r="L241" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="inlineStr">
+        <is>
+          <t>Y2308-2309</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>0</v>
+      </c>
+      <c r="C242" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D242" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E242" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F242" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G242" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H242" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I242" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J242" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K242" t="n">
+        <v>18</v>
+      </c>
+      <c r="L242" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="inlineStr">
+        <is>
+          <t>Y2309-2311</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>0</v>
+      </c>
+      <c r="C243" t="n">
+        <v>-10</v>
+      </c>
+      <c r="D243" t="n">
+        <v>-20</v>
+      </c>
+      <c r="E243" t="n">
+        <v>-30</v>
+      </c>
+      <c r="F243" t="n">
+        <v>-35</v>
+      </c>
+      <c r="G243" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H243" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I243" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J243" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K243" t="n">
+        <v>100</v>
+      </c>
+      <c r="L243" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="inlineStr">
+        <is>
+          <t>Y2311-2312</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>0</v>
+      </c>
+      <c r="C244" t="n">
+        <v>10</v>
+      </c>
+      <c r="D244" t="n">
+        <v>-30</v>
+      </c>
+      <c r="E244" t="n">
+        <v>-40</v>
+      </c>
+      <c r="F244" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G244" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H244" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I244" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J244" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K244" t="n">
+        <v>100</v>
+      </c>
+      <c r="L244" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="inlineStr">
+        <is>
+          <t>Y2312-2401</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>0</v>
+      </c>
+      <c r="C245" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D245" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E245" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F245" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G245" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H245" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I245" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J245" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K245" t="n">
+        <v>18</v>
+      </c>
+      <c r="L245" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/info/region_info.xlsx
+++ b/info/region_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L245"/>
+  <dimension ref="A1:L244"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2665,13 +2665,13 @@
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>-170</v>
+        <v>-190</v>
       </c>
       <c r="D56" t="n">
-        <v>-180</v>
+        <v>-200</v>
       </c>
       <c r="E56" t="n">
-        <v>-200</v>
+        <v>-210</v>
       </c>
       <c r="F56" t="n">
         <v>-220</v>
@@ -3865,10 +3865,10 @@
         <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>-34</v>
+        <v>-80</v>
       </c>
       <c r="D86" t="n">
-        <v>-32</v>
+        <v>-99999</v>
       </c>
       <c r="E86" t="n">
         <v>-99999</v>
@@ -3889,7 +3889,7 @@
         <v>-99999</v>
       </c>
       <c r="K86" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="L86" t="n">
         <v>3</v>
@@ -3898,14 +3898,14 @@
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>FU2311-2310</t>
+          <t>FU2311-2312</t>
         </is>
       </c>
       <c r="B87" t="n">
         <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>-70</v>
+        <v>20</v>
       </c>
       <c r="D87" t="n">
         <v>-99999</v>
@@ -3938,18 +3938,18 @@
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>FU2311-2312</t>
+          <t>FU2312-2401</t>
         </is>
       </c>
       <c r="B88" t="n">
         <v>0</v>
       </c>
       <c r="C88" t="n">
+        <v>25</v>
+      </c>
+      <c r="D88" t="n">
         <v>20</v>
       </c>
-      <c r="D88" t="n">
-        <v>-99999</v>
-      </c>
       <c r="E88" t="n">
         <v>-99999</v>
       </c>
@@ -3969,26 +3969,26 @@
         <v>-99999</v>
       </c>
       <c r="K88" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="L88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>FU2312-2401</t>
+          <t>FU2401-2402</t>
         </is>
       </c>
       <c r="B89" t="n">
         <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D89" t="n">
-        <v>20</v>
+        <v>-99999</v>
       </c>
       <c r="E89" t="n">
         <v>-99999</v>
@@ -4009,26 +4009,26 @@
         <v>-99999</v>
       </c>
       <c r="K89" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="L89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>FU2401-2402</t>
+          <t>FU2402-2403</t>
         </is>
       </c>
       <c r="B90" t="n">
         <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>21</v>
+        <v>-15</v>
       </c>
       <c r="D90" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="E90" t="n">
         <v>-99999</v>
@@ -4049,7 +4049,7 @@
         <v>-99999</v>
       </c>
       <c r="K90" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="L90" t="n">
         <v>3</v>
@@ -4058,7 +4058,7 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>FU2402-2403</t>
+          <t>FU2403-2404</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -4098,7 +4098,7 @@
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>FU2403-2404</t>
+          <t>FU2404-2405</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -4138,7 +4138,7 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>FU2404-2405</t>
+          <t>FU2405-2406</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -4178,26 +4178,26 @@
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>FU2405-2406</t>
+          <t>HC2307-2308</t>
         </is>
       </c>
       <c r="B94" t="n">
         <v>0</v>
       </c>
       <c r="C94" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D94" t="n">
         <v>-15</v>
       </c>
-      <c r="D94" t="n">
-        <v>-20</v>
-      </c>
       <c r="E94" t="n">
-        <v>-99999</v>
+        <v>-25</v>
       </c>
       <c r="F94" t="n">
-        <v>-99999</v>
+        <v>-35</v>
       </c>
       <c r="G94" t="n">
-        <v>-99999</v>
+        <v>-45</v>
       </c>
       <c r="H94" t="n">
         <v>-99999</v>
@@ -4209,7 +4209,7 @@
         <v>-99999</v>
       </c>
       <c r="K94" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="L94" t="n">
         <v>3</v>
@@ -4218,38 +4218,38 @@
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>HC2307-2308</t>
+          <t>HC2307-2309</t>
         </is>
       </c>
       <c r="B95" t="n">
         <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>-5</v>
+        <v>10</v>
       </c>
       <c r="D95" t="n">
-        <v>-15</v>
+        <v>5</v>
       </c>
       <c r="E95" t="n">
-        <v>-25</v>
+        <v>5</v>
       </c>
       <c r="F95" t="n">
-        <v>-35</v>
+        <v>4</v>
       </c>
       <c r="G95" t="n">
-        <v>-45</v>
+        <v>3</v>
       </c>
       <c r="H95" t="n">
-        <v>-99999</v>
+        <v>2</v>
       </c>
       <c r="I95" t="n">
-        <v>-99999</v>
+        <v>1</v>
       </c>
       <c r="J95" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="K95" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L95" t="n">
         <v>3</v>
@@ -4258,38 +4258,38 @@
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>HC2307-2309</t>
+          <t>HC2308-2309</t>
         </is>
       </c>
       <c r="B96" t="n">
         <v>0</v>
       </c>
       <c r="C96" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>5</v>
+        <v>-10</v>
       </c>
       <c r="E96" t="n">
-        <v>5</v>
+        <v>-99999</v>
       </c>
       <c r="F96" t="n">
-        <v>4</v>
+        <v>-99999</v>
       </c>
       <c r="G96" t="n">
-        <v>3</v>
+        <v>-99999</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>-99999</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>-99999</v>
       </c>
       <c r="J96" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="K96" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L96" t="n">
         <v>3</v>
@@ -4298,26 +4298,26 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>HC2308-2309</t>
+          <t>HC2309-2310</t>
         </is>
       </c>
       <c r="B97" t="n">
         <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="D97" t="n">
-        <v>-10</v>
+        <v>-20</v>
       </c>
       <c r="E97" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="F97" t="n">
-        <v>-99999</v>
+        <v>-40</v>
       </c>
       <c r="G97" t="n">
-        <v>-99999</v>
+        <v>-50</v>
       </c>
       <c r="H97" t="n">
         <v>-99999</v>
@@ -4329,7 +4329,7 @@
         <v>-99999</v>
       </c>
       <c r="K97" t="n">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="L97" t="n">
         <v>3</v>
@@ -4338,7 +4338,7 @@
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>HC2309-2310</t>
+          <t>HC2310-2311</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -4378,7 +4378,7 @@
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>HC2310-2311</t>
+          <t>HC2311-2312</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -4391,13 +4391,13 @@
         <v>-20</v>
       </c>
       <c r="E99" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="F99" t="n">
-        <v>-40</v>
+        <v>-99999</v>
       </c>
       <c r="G99" t="n">
-        <v>-50</v>
+        <v>-99999</v>
       </c>
       <c r="H99" t="n">
         <v>-99999</v>
@@ -4409,7 +4409,7 @@
         <v>-99999</v>
       </c>
       <c r="K99" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="L99" t="n">
         <v>3</v>
@@ -4418,17 +4418,17 @@
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>HC2311-2312</t>
+          <t>HC2312-2401</t>
         </is>
       </c>
       <c r="B100" t="n">
         <v>0</v>
       </c>
       <c r="C100" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="D100" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="E100" t="n">
         <v>-99999</v>
@@ -4458,14 +4458,14 @@
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>HC2312-2401</t>
+          <t>HC2401-2402</t>
         </is>
       </c>
       <c r="B101" t="n">
         <v>0</v>
       </c>
       <c r="C101" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="D101" t="n">
         <v>-99999</v>
@@ -4489,7 +4489,7 @@
         <v>-99999</v>
       </c>
       <c r="K101" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="L101" t="n">
         <v>3</v>
@@ -4498,14 +4498,14 @@
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>HC2401-2402</t>
+          <t>HC2402-2403</t>
         </is>
       </c>
       <c r="B102" t="n">
         <v>0</v>
       </c>
       <c r="C102" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="D102" t="n">
         <v>-99999</v>
@@ -4529,7 +4529,7 @@
         <v>-99999</v>
       </c>
       <c r="K102" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="L102" t="n">
         <v>3</v>
@@ -4538,7 +4538,7 @@
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>HC2402-2403</t>
+          <t>HC2403-2404</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -4578,17 +4578,17 @@
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>HC2403-2404</t>
+          <t>I2307-2308</t>
         </is>
       </c>
       <c r="B104" t="n">
         <v>0</v>
       </c>
       <c r="C104" t="n">
-        <v>-99999</v>
+        <v>4</v>
       </c>
       <c r="D104" t="n">
-        <v>-99999</v>
+        <v>-1</v>
       </c>
       <c r="E104" t="n">
         <v>-99999</v>
@@ -4609,23 +4609,23 @@
         <v>-99999</v>
       </c>
       <c r="K104" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="L104" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>I2307-2308</t>
+          <t>I2308-2309</t>
         </is>
       </c>
       <c r="B105" t="n">
         <v>0</v>
       </c>
       <c r="C105" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="D105" t="n">
         <v>-1</v>
@@ -4649,7 +4649,7 @@
         <v>-99999</v>
       </c>
       <c r="K105" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L105" t="n">
         <v>1</v>
@@ -4658,17 +4658,17 @@
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>I2308-2309</t>
+          <t>I2309-2310</t>
         </is>
       </c>
       <c r="B106" t="n">
         <v>0</v>
       </c>
       <c r="C106" t="n">
-        <v>4.5</v>
+        <v>-99999</v>
       </c>
       <c r="D106" t="n">
-        <v>-1</v>
+        <v>-99999</v>
       </c>
       <c r="E106" t="n">
         <v>-99999</v>
@@ -4689,7 +4689,7 @@
         <v>-99999</v>
       </c>
       <c r="K106" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L106" t="n">
         <v>1</v>
@@ -4698,17 +4698,17 @@
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>I2309-2310</t>
+          <t>I2310-2311</t>
         </is>
       </c>
       <c r="B107" t="n">
         <v>0</v>
       </c>
       <c r="C107" t="n">
-        <v>-99999</v>
+        <v>3</v>
       </c>
       <c r="D107" t="n">
-        <v>-99999</v>
+        <v>2</v>
       </c>
       <c r="E107" t="n">
         <v>-99999</v>
@@ -4729,16 +4729,16 @@
         <v>-99999</v>
       </c>
       <c r="K107" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L107" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>I2310-2311</t>
+          <t>I2311-2312</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -4778,14 +4778,14 @@
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>I2311-2312</t>
+          <t>I2312-2401</t>
         </is>
       </c>
       <c r="B109" t="n">
         <v>0</v>
       </c>
       <c r="C109" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D109" t="n">
         <v>2</v>
@@ -4818,17 +4818,17 @@
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>I2312-2401</t>
+          <t>I2401-2402</t>
         </is>
       </c>
       <c r="B110" t="n">
         <v>0</v>
       </c>
       <c r="C110" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="D110" t="n">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="E110" t="n">
         <v>-99999</v>
@@ -4858,7 +4858,7 @@
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>I2401-2402</t>
+          <t>I2402-2403</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -4898,7 +4898,7 @@
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>I2402-2403</t>
+          <t>I2403-2404</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -4938,17 +4938,17 @@
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>I2403-2404</t>
+          <t>IC2306-2309</t>
         </is>
       </c>
       <c r="B113" t="n">
         <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="D113" t="n">
-        <v>-3</v>
+        <v>-99999</v>
       </c>
       <c r="E113" t="n">
         <v>-99999</v>
@@ -4969,16 +4969,16 @@
         <v>-99999</v>
       </c>
       <c r="K113" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L113" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>IC2306-2309</t>
+          <t>IC2309-2312</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -5018,7 +5018,7 @@
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>IC2309-2312</t>
+          <t>IF2306-2309</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -5058,17 +5058,17 @@
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>IF2306-2309</t>
+          <t>IF2308-2309</t>
         </is>
       </c>
       <c r="B116" t="n">
         <v>0</v>
       </c>
       <c r="C116" t="n">
-        <v>-99999</v>
+        <v>-7.4</v>
       </c>
       <c r="D116" t="n">
-        <v>-99999</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="E116" t="n">
         <v>-99999</v>
@@ -5089,26 +5089,26 @@
         <v>-99999</v>
       </c>
       <c r="K116" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L116" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>IF2308-2309</t>
+          <t>IF2309-2312</t>
         </is>
       </c>
       <c r="B117" t="n">
         <v>0</v>
       </c>
       <c r="C117" t="n">
-        <v>-7.4</v>
+        <v>-99999</v>
       </c>
       <c r="D117" t="n">
-        <v>-8.199999999999999</v>
+        <v>-99999</v>
       </c>
       <c r="E117" t="n">
         <v>-99999</v>
@@ -5129,26 +5129,26 @@
         <v>-99999</v>
       </c>
       <c r="K117" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L117" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>IF2309-2312</t>
+          <t>IH2307-2309</t>
         </is>
       </c>
       <c r="B118" t="n">
         <v>0</v>
       </c>
       <c r="C118" t="n">
-        <v>-99999</v>
+        <v>-12</v>
       </c>
       <c r="D118" t="n">
-        <v>-99999</v>
+        <v>-13.6</v>
       </c>
       <c r="E118" t="n">
         <v>-99999</v>
@@ -5169,29 +5169,29 @@
         <v>-99999</v>
       </c>
       <c r="K118" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L118" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>IH2307-2309</t>
+          <t>IH2309-2312</t>
         </is>
       </c>
       <c r="B119" t="n">
         <v>0</v>
       </c>
       <c r="C119" t="n">
-        <v>-12</v>
+        <v>-16.4</v>
       </c>
       <c r="D119" t="n">
-        <v>-13.6</v>
+        <v>-18.4</v>
       </c>
       <c r="E119" t="n">
-        <v>-99999</v>
+        <v>-20.4</v>
       </c>
       <c r="F119" t="n">
         <v>-99999</v>
@@ -5209,7 +5209,7 @@
         <v>-99999</v>
       </c>
       <c r="K119" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L119" t="n">
         <v>2</v>
@@ -5218,20 +5218,20 @@
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>IH2309-2312</t>
+          <t>IM2309-2312</t>
         </is>
       </c>
       <c r="B120" t="n">
         <v>0</v>
       </c>
       <c r="C120" t="n">
-        <v>-16.4</v>
+        <v>-99999</v>
       </c>
       <c r="D120" t="n">
-        <v>-18.4</v>
+        <v>-99999</v>
       </c>
       <c r="E120" t="n">
-        <v>-20.4</v>
+        <v>-99999</v>
       </c>
       <c r="F120" t="n">
         <v>-99999</v>
@@ -5252,35 +5252,35 @@
         <v>20</v>
       </c>
       <c r="L120" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>IM2309-2312</t>
+          <t>L2307-2308</t>
         </is>
       </c>
       <c r="B121" t="n">
         <v>0</v>
       </c>
       <c r="C121" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="D121" t="n">
-        <v>-99999</v>
+        <v>-5</v>
       </c>
       <c r="E121" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="F121" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="G121" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="H121" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="I121" t="n">
         <v>-99999</v>
@@ -5289,16 +5289,16 @@
         <v>-99999</v>
       </c>
       <c r="K121" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L121" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>L2307-2308</t>
+          <t>L2308-2309</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -5314,13 +5314,13 @@
         <v>-10</v>
       </c>
       <c r="F122" t="n">
-        <v>-15</v>
+        <v>-20</v>
       </c>
       <c r="G122" t="n">
-        <v>-20</v>
+        <v>-30</v>
       </c>
       <c r="H122" t="n">
-        <v>-30</v>
+        <v>-40</v>
       </c>
       <c r="I122" t="n">
         <v>-99999</v>
@@ -5338,7 +5338,7 @@
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>L2308-2309</t>
+          <t>L2309-2310</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -5354,13 +5354,13 @@
         <v>-10</v>
       </c>
       <c r="F123" t="n">
+        <v>-15</v>
+      </c>
+      <c r="G123" t="n">
         <v>-20</v>
       </c>
-      <c r="G123" t="n">
+      <c r="H123" t="n">
         <v>-30</v>
-      </c>
-      <c r="H123" t="n">
-        <v>-40</v>
       </c>
       <c r="I123" t="n">
         <v>-99999</v>
@@ -5378,7 +5378,7 @@
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>L2309-2310</t>
+          <t>L2310-2311</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -5397,10 +5397,10 @@
         <v>-15</v>
       </c>
       <c r="G124" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="H124" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="I124" t="n">
         <v>-99999</v>
@@ -5418,7 +5418,7 @@
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>L2310-2311</t>
+          <t>L2311-2312</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -5458,7 +5458,7 @@
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>L2311-2312</t>
+          <t>L2312-2401</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -5498,7 +5498,7 @@
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>L2312-2401</t>
+          <t>L2402-2403</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -5538,23 +5538,23 @@
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>L2402-2403</t>
+          <t>LU2307-2306</t>
         </is>
       </c>
       <c r="B128" t="n">
         <v>0</v>
       </c>
       <c r="C128" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="D128" t="n">
-        <v>-5</v>
+        <v>-99999</v>
       </c>
       <c r="E128" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="F128" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="G128" t="n">
         <v>-99999</v>
@@ -5578,26 +5578,26 @@
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>LU2307-2306</t>
+          <t>M2308-2309</t>
         </is>
       </c>
       <c r="B129" t="n">
         <v>0</v>
       </c>
       <c r="C129" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="D129" t="n">
-        <v>-99999</v>
+        <v>-5</v>
       </c>
       <c r="E129" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="F129" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="G129" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="H129" t="n">
         <v>-99999</v>
@@ -5609,7 +5609,7 @@
         <v>-99999</v>
       </c>
       <c r="K129" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="L129" t="n">
         <v>3</v>
@@ -5618,26 +5618,26 @@
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>M2308-2309</t>
+          <t>M2309-2311</t>
         </is>
       </c>
       <c r="B130" t="n">
         <v>0</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="D130" t="n">
-        <v>-5</v>
+        <v>-99999</v>
       </c>
       <c r="E130" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="F130" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="G130" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="H130" t="n">
         <v>-99999</v>
@@ -5649,7 +5649,7 @@
         <v>-99999</v>
       </c>
       <c r="K130" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L130" t="n">
         <v>3</v>
@@ -5658,17 +5658,17 @@
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>M2309-2311</t>
+          <t>M2311-2312</t>
         </is>
       </c>
       <c r="B131" t="n">
         <v>0</v>
       </c>
       <c r="C131" t="n">
-        <v>-99999</v>
+        <v>-40</v>
       </c>
       <c r="D131" t="n">
-        <v>-99999</v>
+        <v>-50</v>
       </c>
       <c r="E131" t="n">
         <v>-99999</v>
@@ -5689,29 +5689,29 @@
         <v>-99999</v>
       </c>
       <c r="K131" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="L131" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>M2311-2312</t>
+          <t>M2312-2401</t>
         </is>
       </c>
       <c r="B132" t="n">
         <v>0</v>
       </c>
       <c r="C132" t="n">
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="D132" t="n">
-        <v>-50</v>
+        <v>-5</v>
       </c>
       <c r="E132" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="F132" t="n">
         <v>-99999</v>
@@ -5729,16 +5729,16 @@
         <v>-99999</v>
       </c>
       <c r="K132" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L132" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>M2312-2401</t>
+          <t>M2401-2403</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -5748,10 +5748,10 @@
         <v>0</v>
       </c>
       <c r="D133" t="n">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="E133" t="n">
-        <v>-10</v>
+        <v>-20</v>
       </c>
       <c r="F133" t="n">
         <v>-99999</v>
@@ -5778,20 +5778,20 @@
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>M2401-2403</t>
+          <t>MA2308-2309</t>
         </is>
       </c>
       <c r="B134" t="n">
         <v>0</v>
       </c>
       <c r="C134" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="D134" t="n">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="E134" t="n">
-        <v>-20</v>
+        <v>-6</v>
       </c>
       <c r="F134" t="n">
         <v>-99999</v>
@@ -5809,38 +5809,38 @@
         <v>-99999</v>
       </c>
       <c r="K134" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L134" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>MA2308-2309</t>
+          <t>MA2309-2310</t>
         </is>
       </c>
       <c r="B135" t="n">
         <v>0</v>
       </c>
       <c r="C135" t="n">
-        <v>-4</v>
+        <v>-14</v>
       </c>
       <c r="D135" t="n">
-        <v>-5</v>
+        <v>-15</v>
       </c>
       <c r="E135" t="n">
-        <v>-6</v>
+        <v>-20</v>
       </c>
       <c r="F135" t="n">
-        <v>-99999</v>
+        <v>-25</v>
       </c>
       <c r="G135" t="n">
-        <v>-99999</v>
+        <v>-25</v>
       </c>
       <c r="H135" t="n">
-        <v>-99999</v>
+        <v>-32</v>
       </c>
       <c r="I135" t="n">
         <v>-99999</v>
@@ -5849,38 +5849,38 @@
         <v>-99999</v>
       </c>
       <c r="K135" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L135" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>MA2309-2310</t>
+          <t>MA2310-2311</t>
         </is>
       </c>
       <c r="B136" t="n">
         <v>0</v>
       </c>
       <c r="C136" t="n">
-        <v>-14</v>
+        <v>-20</v>
       </c>
       <c r="D136" t="n">
-        <v>-15</v>
+        <v>-22</v>
       </c>
       <c r="E136" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="F136" t="n">
-        <v>-25</v>
+        <v>-99999</v>
       </c>
       <c r="G136" t="n">
-        <v>-25</v>
+        <v>-99999</v>
       </c>
       <c r="H136" t="n">
-        <v>-32</v>
+        <v>-99999</v>
       </c>
       <c r="I136" t="n">
         <v>-99999</v>
@@ -5889,7 +5889,7 @@
         <v>-99999</v>
       </c>
       <c r="K136" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L136" t="n">
         <v>3</v>
@@ -5898,17 +5898,17 @@
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>MA2310-2311</t>
+          <t>MA2311-2312</t>
         </is>
       </c>
       <c r="B137" t="n">
         <v>0</v>
       </c>
       <c r="C137" t="n">
-        <v>-20</v>
+        <v>-45</v>
       </c>
       <c r="D137" t="n">
-        <v>-22</v>
+        <v>-50</v>
       </c>
       <c r="E137" t="n">
         <v>-99999</v>
@@ -5929,29 +5929,29 @@
         <v>-99999</v>
       </c>
       <c r="K137" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="L137" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>MA2311-2312</t>
+          <t>MA2312-2401</t>
         </is>
       </c>
       <c r="B138" t="n">
         <v>0</v>
       </c>
       <c r="C138" t="n">
-        <v>-45</v>
+        <v>-5</v>
       </c>
       <c r="D138" t="n">
-        <v>-50</v>
+        <v>-15</v>
       </c>
       <c r="E138" t="n">
-        <v>-99999</v>
+        <v>-25</v>
       </c>
       <c r="F138" t="n">
         <v>-99999</v>
@@ -5969,29 +5969,29 @@
         <v>-99999</v>
       </c>
       <c r="K138" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L138" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>MA2312-2401</t>
+          <t>NR2307-2308</t>
         </is>
       </c>
       <c r="B139" t="n">
         <v>0</v>
       </c>
       <c r="C139" t="n">
-        <v>-5</v>
+        <v>-99999</v>
       </c>
       <c r="D139" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="E139" t="n">
-        <v>-25</v>
+        <v>-99999</v>
       </c>
       <c r="F139" t="n">
         <v>-99999</v>
@@ -6009,26 +6009,26 @@
         <v>-99999</v>
       </c>
       <c r="K139" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="L139" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>NR2307-2308</t>
+          <t>NR2309-2310</t>
         </is>
       </c>
       <c r="B140" t="n">
         <v>0</v>
       </c>
       <c r="C140" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="D140" t="n">
-        <v>-99999</v>
+        <v>-40</v>
       </c>
       <c r="E140" t="n">
         <v>-99999</v>
@@ -6049,7 +6049,7 @@
         <v>-99999</v>
       </c>
       <c r="K140" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="L140" t="n">
         <v>1</v>
@@ -6058,17 +6058,17 @@
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>NR2309-2310</t>
+          <t>NR2310-2311</t>
         </is>
       </c>
       <c r="B141" t="n">
         <v>0</v>
       </c>
       <c r="C141" t="n">
-        <v>-30</v>
+        <v>-160</v>
       </c>
       <c r="D141" t="n">
-        <v>-40</v>
+        <v>-99999</v>
       </c>
       <c r="E141" t="n">
         <v>-99999</v>
@@ -6098,14 +6098,14 @@
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>NR2310-2311</t>
+          <t>NR2311-2312</t>
         </is>
       </c>
       <c r="B142" t="n">
         <v>0</v>
       </c>
       <c r="C142" t="n">
-        <v>-160</v>
+        <v>-100</v>
       </c>
       <c r="D142" t="n">
         <v>-99999</v>
@@ -6138,17 +6138,17 @@
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>NR2311-2312</t>
+          <t>NR2312-2401</t>
         </is>
       </c>
       <c r="B143" t="n">
         <v>0</v>
       </c>
       <c r="C143" t="n">
-        <v>-100</v>
+        <v>-70</v>
       </c>
       <c r="D143" t="n">
-        <v>-99999</v>
+        <v>-90</v>
       </c>
       <c r="E143" t="n">
         <v>-99999</v>
@@ -6178,20 +6178,20 @@
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>NR2312-2401</t>
+          <t>OI2307-2309</t>
         </is>
       </c>
       <c r="B144" t="n">
         <v>0</v>
       </c>
       <c r="C144" t="n">
-        <v>-70</v>
+        <v>-5</v>
       </c>
       <c r="D144" t="n">
-        <v>-90</v>
+        <v>-10</v>
       </c>
       <c r="E144" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="F144" t="n">
         <v>-99999</v>
@@ -6209,29 +6209,29 @@
         <v>-99999</v>
       </c>
       <c r="K144" t="n">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="L144" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>OI2307-2309</t>
+          <t>OI2309-2311</t>
         </is>
       </c>
       <c r="B145" t="n">
         <v>0</v>
       </c>
       <c r="C145" t="n">
-        <v>-5</v>
+        <v>65</v>
       </c>
       <c r="D145" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="E145" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="F145" t="n">
         <v>-99999</v>
@@ -6258,14 +6258,14 @@
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>OI2309-2311</t>
+          <t>OI2311-2401</t>
         </is>
       </c>
       <c r="B146" t="n">
         <v>0</v>
       </c>
       <c r="C146" t="n">
-        <v>65</v>
+        <v>-99999</v>
       </c>
       <c r="D146" t="n">
         <v>-99999</v>
@@ -6289,7 +6289,7 @@
         <v>-99999</v>
       </c>
       <c r="K146" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L146" t="n">
         <v>3</v>
@@ -6298,14 +6298,14 @@
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>OI2311-2401</t>
+          <t>OI2401-2311</t>
         </is>
       </c>
       <c r="B147" t="n">
         <v>0</v>
       </c>
       <c r="C147" t="n">
-        <v>-99999</v>
+        <v>-170</v>
       </c>
       <c r="D147" t="n">
         <v>-99999</v>
@@ -6329,23 +6329,23 @@
         <v>-99999</v>
       </c>
       <c r="K147" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L147" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>OI2401-2311</t>
+          <t>PB2309-2310</t>
         </is>
       </c>
       <c r="B148" t="n">
         <v>0</v>
       </c>
       <c r="C148" t="n">
-        <v>-170</v>
+        <v>-99999</v>
       </c>
       <c r="D148" t="n">
         <v>-99999</v>
@@ -6369,7 +6369,7 @@
         <v>-99999</v>
       </c>
       <c r="K148" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L148" t="n">
         <v>1</v>
@@ -6378,14 +6378,14 @@
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>PB2309-2310</t>
+          <t>PB2402-2403</t>
         </is>
       </c>
       <c r="B149" t="n">
         <v>0</v>
       </c>
       <c r="C149" t="n">
-        <v>-99999</v>
+        <v>-70</v>
       </c>
       <c r="D149" t="n">
         <v>-99999</v>
@@ -6418,20 +6418,20 @@
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>PB2402-2403</t>
+          <t>PF2307-2308</t>
         </is>
       </c>
       <c r="B150" t="n">
         <v>0</v>
       </c>
       <c r="C150" t="n">
-        <v>-70</v>
+        <v>0</v>
       </c>
       <c r="D150" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="E150" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="F150" t="n">
         <v>-99999</v>
@@ -6449,16 +6449,16 @@
         <v>-99999</v>
       </c>
       <c r="K150" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="L150" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>PF2307-2308</t>
+          <t>PF2308-2309</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -6468,10 +6468,10 @@
         <v>0</v>
       </c>
       <c r="D151" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="E151" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="F151" t="n">
         <v>-99999</v>
@@ -6489,7 +6489,7 @@
         <v>-99999</v>
       </c>
       <c r="K151" t="n">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="L151" t="n">
         <v>3</v>
@@ -6498,14 +6498,14 @@
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>PF2308-2309</t>
+          <t>PF2309-2310</t>
         </is>
       </c>
       <c r="B152" t="n">
         <v>0</v>
       </c>
       <c r="C152" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="D152" t="n">
         <v>-99999</v>
@@ -6529,7 +6529,7 @@
         <v>-99999</v>
       </c>
       <c r="K152" t="n">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="L152" t="n">
         <v>3</v>
@@ -6538,7 +6538,7 @@
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>PF2309-2310</t>
+          <t>PF2310-2311</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -6578,7 +6578,7 @@
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>PF2310-2311</t>
+          <t>PF2311-2312</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -6618,7 +6618,7 @@
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>PF2311-2312</t>
+          <t>PF2312-2401</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -6658,7 +6658,7 @@
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>PF2312-2401</t>
+          <t>PG2307-2308</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -6689,16 +6689,16 @@
         <v>-99999</v>
       </c>
       <c r="K156" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="L156" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>PG2307-2308</t>
+          <t>PG2308-2309</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -6729,16 +6729,16 @@
         <v>-99999</v>
       </c>
       <c r="K157" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="L157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>PG2308-2309</t>
+          <t>PG2309-2308</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -6769,29 +6769,29 @@
         <v>-99999</v>
       </c>
       <c r="K158" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="L158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>PG2309-2308</t>
+          <t>PP2307-2308</t>
         </is>
       </c>
       <c r="B159" t="n">
         <v>0</v>
       </c>
       <c r="C159" t="n">
-        <v>-99999</v>
+        <v>-8</v>
       </c>
       <c r="D159" t="n">
-        <v>-99999</v>
+        <v>-9</v>
       </c>
       <c r="E159" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="F159" t="n">
         <v>-99999</v>
@@ -6809,29 +6809,29 @@
         <v>-99999</v>
       </c>
       <c r="K159" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="L159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>PP2307-2308</t>
+          <t>PP2308-2309</t>
         </is>
       </c>
       <c r="B160" t="n">
         <v>0</v>
       </c>
       <c r="C160" t="n">
-        <v>-8</v>
+        <v>10</v>
       </c>
       <c r="D160" t="n">
-        <v>-9</v>
+        <v>-15</v>
       </c>
       <c r="E160" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="F160" t="n">
         <v>-99999</v>
@@ -6849,16 +6849,16 @@
         <v>-99999</v>
       </c>
       <c r="K160" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="L160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>PP2308-2309</t>
+          <t>PP2309-2310</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -6868,13 +6868,13 @@
         <v>10</v>
       </c>
       <c r="D161" t="n">
-        <v>-15</v>
+        <v>5</v>
       </c>
       <c r="E161" t="n">
-        <v>-99999</v>
+        <v>2</v>
       </c>
       <c r="F161" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="G161" t="n">
         <v>-99999</v>
@@ -6889,16 +6889,16 @@
         <v>-99999</v>
       </c>
       <c r="K161" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="L161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>PP2309-2310</t>
+          <t>PP2310-2311</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -6911,7 +6911,7 @@
         <v>5</v>
       </c>
       <c r="E162" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F162" t="n">
         <v>-10</v>
@@ -6932,13 +6932,13 @@
         <v>35</v>
       </c>
       <c r="L162" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>PP2310-2311</t>
+          <t>PP2311-2312</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -6978,23 +6978,23 @@
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>PP2311-2312</t>
+          <t>PP2312-2401</t>
         </is>
       </c>
       <c r="B164" t="n">
         <v>0</v>
       </c>
       <c r="C164" t="n">
-        <v>10</v>
+        <v>-5</v>
       </c>
       <c r="D164" t="n">
-        <v>5</v>
+        <v>-10</v>
       </c>
       <c r="E164" t="n">
-        <v>3</v>
+        <v>-15</v>
       </c>
       <c r="F164" t="n">
-        <v>-10</v>
+        <v>-20</v>
       </c>
       <c r="G164" t="n">
         <v>-99999</v>
@@ -7018,7 +7018,7 @@
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>PP2312-2401</t>
+          <t>PP2401-2402</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -7058,7 +7058,7 @@
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>PP2401-2402</t>
+          <t>PP2402-2403</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -7068,13 +7068,13 @@
         <v>-5</v>
       </c>
       <c r="D166" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="E166" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="F166" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="G166" t="n">
         <v>-99999</v>
@@ -7098,23 +7098,23 @@
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>PP2402-2403</t>
+          <t>RB2307-2308</t>
         </is>
       </c>
       <c r="B167" t="n">
         <v>0</v>
       </c>
       <c r="C167" t="n">
+        <v>0</v>
+      </c>
+      <c r="D167" t="n">
         <v>-5</v>
       </c>
-      <c r="D167" t="n">
-        <v>-99999</v>
-      </c>
       <c r="E167" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="F167" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="G167" t="n">
         <v>-99999</v>
@@ -7129,7 +7129,7 @@
         <v>-99999</v>
       </c>
       <c r="K167" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="L167" t="n">
         <v>3</v>
@@ -7138,7 +7138,7 @@
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>RB2307-2308</t>
+          <t>RB2308-2309</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -7148,13 +7148,13 @@
         <v>0</v>
       </c>
       <c r="D168" t="n">
-        <v>-5</v>
+        <v>-20</v>
       </c>
       <c r="E168" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="F168" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="G168" t="n">
         <v>-99999</v>
@@ -7169,7 +7169,7 @@
         <v>-99999</v>
       </c>
       <c r="K168" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L168" t="n">
         <v>3</v>
@@ -7178,17 +7178,17 @@
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>RB2308-2309</t>
+          <t>RB2309-2310</t>
         </is>
       </c>
       <c r="B169" t="n">
         <v>0</v>
       </c>
       <c r="C169" t="n">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="D169" t="n">
-        <v>-20</v>
+        <v>-40</v>
       </c>
       <c r="E169" t="n">
         <v>-99999</v>
@@ -7218,17 +7218,17 @@
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>RB2309-2310</t>
+          <t>RB2310-2311</t>
         </is>
       </c>
       <c r="B170" t="n">
         <v>0</v>
       </c>
       <c r="C170" t="n">
-        <v>-40</v>
+        <v>-99999</v>
       </c>
       <c r="D170" t="n">
-        <v>-40</v>
+        <v>-99999</v>
       </c>
       <c r="E170" t="n">
         <v>-99999</v>
@@ -7249,16 +7249,16 @@
         <v>-99999</v>
       </c>
       <c r="K170" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L170" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>RB2310-2311</t>
+          <t>RB2311-2312</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -7298,7 +7298,7 @@
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>RB2311-2312</t>
+          <t>RB2312-2401</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -7332,13 +7332,13 @@
         <v>20</v>
       </c>
       <c r="L172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>RB2312-2401</t>
+          <t>RB2401-2402</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -7378,7 +7378,7 @@
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>RB2401-2402</t>
+          <t>RB2402-2403</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -7418,7 +7418,7 @@
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>RB2402-2403</t>
+          <t>RB2403-2404</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -7458,17 +7458,17 @@
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>RB2403-2404</t>
+          <t>RM2307-2308</t>
         </is>
       </c>
       <c r="B176" t="n">
         <v>0</v>
       </c>
       <c r="C176" t="n">
-        <v>-99999</v>
+        <v>-70</v>
       </c>
       <c r="D176" t="n">
-        <v>-99999</v>
+        <v>-100</v>
       </c>
       <c r="E176" t="n">
         <v>-99999</v>
@@ -7489,35 +7489,35 @@
         <v>-99999</v>
       </c>
       <c r="K176" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L176" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>RM2307-2308</t>
+          <t>RM2308-2309</t>
         </is>
       </c>
       <c r="B177" t="n">
         <v>0</v>
       </c>
       <c r="C177" t="n">
-        <v>-70</v>
+        <v>10</v>
       </c>
       <c r="D177" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E177" t="n">
-        <v>-99999</v>
+        <v>-5</v>
       </c>
       <c r="F177" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="G177" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="H177" t="n">
         <v>-99999</v>
@@ -7529,7 +7529,7 @@
         <v>-99999</v>
       </c>
       <c r="K177" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L177" t="n">
         <v>3</v>
@@ -7538,7 +7538,7 @@
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>RM2308-2309</t>
+          <t>RM2309-2311</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -7578,26 +7578,26 @@
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>RM2309-2311</t>
+          <t>RM2401-2403</t>
         </is>
       </c>
       <c r="B179" t="n">
         <v>0</v>
       </c>
       <c r="C179" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D179" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="E179" t="n">
-        <v>-5</v>
+        <v>-20</v>
       </c>
       <c r="F179" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="G179" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="H179" t="n">
         <v>-99999</v>
@@ -7618,20 +7618,20 @@
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>RM2401-2403</t>
+          <t>RR2308-2309</t>
         </is>
       </c>
       <c r="B180" t="n">
         <v>0</v>
       </c>
       <c r="C180" t="n">
-        <v>0</v>
+        <v>-75</v>
       </c>
       <c r="D180" t="n">
-        <v>-10</v>
+        <v>-80</v>
       </c>
       <c r="E180" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="F180" t="n">
         <v>-99999</v>
@@ -7649,26 +7649,26 @@
         <v>-99999</v>
       </c>
       <c r="K180" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L180" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>RR2308-2309</t>
+          <t>RU2307-2308</t>
         </is>
       </c>
       <c r="B181" t="n">
         <v>0</v>
       </c>
       <c r="C181" t="n">
-        <v>-75</v>
+        <v>-100</v>
       </c>
       <c r="D181" t="n">
-        <v>-80</v>
+        <v>-100</v>
       </c>
       <c r="E181" t="n">
         <v>-99999</v>
@@ -7689,26 +7689,26 @@
         <v>-99999</v>
       </c>
       <c r="K181" t="n">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="L181" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>RU2307-2308</t>
+          <t>RU2308-2309</t>
         </is>
       </c>
       <c r="B182" t="n">
         <v>0</v>
       </c>
       <c r="C182" t="n">
-        <v>-100</v>
+        <v>-75</v>
       </c>
       <c r="D182" t="n">
-        <v>-100</v>
+        <v>-99999</v>
       </c>
       <c r="E182" t="n">
         <v>-99999</v>
@@ -7729,7 +7729,7 @@
         <v>-99999</v>
       </c>
       <c r="K182" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L182" t="n">
         <v>1</v>
@@ -7738,17 +7738,17 @@
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>RU2308-2309</t>
+          <t>RU2309-2310</t>
         </is>
       </c>
       <c r="B183" t="n">
         <v>0</v>
       </c>
       <c r="C183" t="n">
-        <v>-75</v>
+        <v>-60</v>
       </c>
       <c r="D183" t="n">
-        <v>-99999</v>
+        <v>-110</v>
       </c>
       <c r="E183" t="n">
         <v>-99999</v>
@@ -7769,7 +7769,7 @@
         <v>-99999</v>
       </c>
       <c r="K183" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L183" t="n">
         <v>1</v>
@@ -7778,20 +7778,20 @@
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>RU2309-2310</t>
+          <t>RU2310-2311</t>
         </is>
       </c>
       <c r="B184" t="n">
         <v>0</v>
       </c>
       <c r="C184" t="n">
-        <v>-60</v>
+        <v>0</v>
       </c>
       <c r="D184" t="n">
-        <v>-110</v>
+        <v>-70</v>
       </c>
       <c r="E184" t="n">
-        <v>-99999</v>
+        <v>-80</v>
       </c>
       <c r="F184" t="n">
         <v>-99999</v>
@@ -7818,20 +7818,20 @@
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>RU2310-2311</t>
+          <t>RU2311-2401</t>
         </is>
       </c>
       <c r="B185" t="n">
         <v>0</v>
       </c>
       <c r="C185" t="n">
-        <v>0</v>
+        <v>-1800</v>
       </c>
       <c r="D185" t="n">
-        <v>-70</v>
+        <v>-99999</v>
       </c>
       <c r="E185" t="n">
-        <v>-80</v>
+        <v>-99999</v>
       </c>
       <c r="F185" t="n">
         <v>-99999</v>
@@ -7849,7 +7849,7 @@
         <v>-99999</v>
       </c>
       <c r="K185" t="n">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="L185" t="n">
         <v>1</v>
@@ -7858,17 +7858,17 @@
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>RU2311-2401</t>
+          <t>RU2401-2403</t>
         </is>
       </c>
       <c r="B186" t="n">
         <v>0</v>
       </c>
       <c r="C186" t="n">
-        <v>-1800</v>
+        <v>-100</v>
       </c>
       <c r="D186" t="n">
-        <v>-99999</v>
+        <v>-120</v>
       </c>
       <c r="E186" t="n">
         <v>-99999</v>
@@ -7889,7 +7889,7 @@
         <v>-99999</v>
       </c>
       <c r="K186" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="L186" t="n">
         <v>1</v>
@@ -7898,20 +7898,20 @@
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>RU2401-2403</t>
+          <t>RU2403-2404</t>
         </is>
       </c>
       <c r="B187" t="n">
         <v>0</v>
       </c>
       <c r="C187" t="n">
-        <v>-100</v>
+        <v>-60</v>
       </c>
       <c r="D187" t="n">
-        <v>-120</v>
+        <v>-70</v>
       </c>
       <c r="E187" t="n">
-        <v>-99999</v>
+        <v>-80</v>
       </c>
       <c r="F187" t="n">
         <v>-99999</v>
@@ -7929,7 +7929,7 @@
         <v>-99999</v>
       </c>
       <c r="K187" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="L187" t="n">
         <v>1</v>
@@ -7938,20 +7938,20 @@
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>RU2403-2404</t>
+          <t>SA2308-2309</t>
         </is>
       </c>
       <c r="B188" t="n">
         <v>0</v>
       </c>
       <c r="C188" t="n">
-        <v>-60</v>
+        <v>0</v>
       </c>
       <c r="D188" t="n">
-        <v>-70</v>
+        <v>-99999</v>
       </c>
       <c r="E188" t="n">
-        <v>-80</v>
+        <v>-99999</v>
       </c>
       <c r="F188" t="n">
         <v>-99999</v>
@@ -7969,7 +7969,7 @@
         <v>-99999</v>
       </c>
       <c r="K188" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="L188" t="n">
         <v>1</v>
@@ -7978,7 +7978,7 @@
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>SA2308-2309</t>
+          <t>SA2310-2311</t>
         </is>
       </c>
       <c r="B189" t="n">
@@ -8018,7 +8018,7 @@
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>SA2310-2311</t>
+          <t>SA2311-2312</t>
         </is>
       </c>
       <c r="B190" t="n">
@@ -8028,7 +8028,7 @@
         <v>0</v>
       </c>
       <c r="D190" t="n">
-        <v>-99999</v>
+        <v>-3</v>
       </c>
       <c r="E190" t="n">
         <v>-99999</v>
@@ -8049,26 +8049,26 @@
         <v>-99999</v>
       </c>
       <c r="K190" t="n">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="L190" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>SA2311-2312</t>
+          <t>SA2312-2401</t>
         </is>
       </c>
       <c r="B191" t="n">
         <v>0</v>
       </c>
       <c r="C191" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D191" t="n">
-        <v>-3</v>
+        <v>-99999</v>
       </c>
       <c r="E191" t="n">
         <v>-99999</v>
@@ -8089,29 +8089,29 @@
         <v>-99999</v>
       </c>
       <c r="K191" t="n">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="L191" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>SA2312-2401</t>
+          <t>SA2401-2402</t>
         </is>
       </c>
       <c r="B192" t="n">
         <v>0</v>
       </c>
       <c r="C192" t="n">
-        <v>22</v>
+        <v>-25</v>
       </c>
       <c r="D192" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="E192" t="n">
-        <v>-99999</v>
+        <v>-35</v>
       </c>
       <c r="F192" t="n">
         <v>-99999</v>
@@ -8129,7 +8129,7 @@
         <v>-99999</v>
       </c>
       <c r="K192" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="L192" t="n">
         <v>2</v>
@@ -8138,20 +8138,20 @@
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>SA2401-2402</t>
+          <t>SA2402-2403</t>
         </is>
       </c>
       <c r="B193" t="n">
         <v>0</v>
       </c>
       <c r="C193" t="n">
-        <v>-25</v>
+        <v>20</v>
       </c>
       <c r="D193" t="n">
-        <v>-30</v>
+        <v>18</v>
       </c>
       <c r="E193" t="n">
-        <v>-35</v>
+        <v>4</v>
       </c>
       <c r="F193" t="n">
         <v>-99999</v>
@@ -8169,7 +8169,7 @@
         <v>-99999</v>
       </c>
       <c r="K193" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="L193" t="n">
         <v>2</v>
@@ -8178,38 +8178,38 @@
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>SA2402-2403</t>
+          <t>SA2403-2404</t>
         </is>
       </c>
       <c r="B194" t="n">
         <v>0</v>
       </c>
       <c r="C194" t="n">
+        <v>-15</v>
+      </c>
+      <c r="D194" t="n">
+        <v>-17</v>
+      </c>
+      <c r="E194" t="n">
+        <v>-35</v>
+      </c>
+      <c r="F194" t="n">
+        <v>-40</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H194" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I194" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J194" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K194" t="n">
         <v>20</v>
-      </c>
-      <c r="D194" t="n">
-        <v>18</v>
-      </c>
-      <c r="E194" t="n">
-        <v>4</v>
-      </c>
-      <c r="F194" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="G194" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="H194" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="I194" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="J194" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="K194" t="n">
-        <v>70</v>
       </c>
       <c r="L194" t="n">
         <v>2</v>
@@ -8218,23 +8218,23 @@
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>SA2403-2404</t>
+          <t>SC2307-2308</t>
         </is>
       </c>
       <c r="B195" t="n">
         <v>0</v>
       </c>
       <c r="C195" t="n">
-        <v>-15</v>
+        <v>1</v>
       </c>
       <c r="D195" t="n">
-        <v>-17</v>
+        <v>-3.5</v>
       </c>
       <c r="E195" t="n">
-        <v>-35</v>
+        <v>-3.5</v>
       </c>
       <c r="F195" t="n">
-        <v>-40</v>
+        <v>-3.5</v>
       </c>
       <c r="G195" t="n">
         <v>-99999</v>
@@ -8249,35 +8249,35 @@
         <v>-99999</v>
       </c>
       <c r="K195" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L195" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>SC2307-2308</t>
+          <t>SC2308-2309</t>
         </is>
       </c>
       <c r="B196" t="n">
         <v>0</v>
       </c>
       <c r="C196" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D196" t="n">
-        <v>-3.5</v>
+        <v>-1.1</v>
       </c>
       <c r="E196" t="n">
-        <v>-3.5</v>
+        <v>-2</v>
       </c>
       <c r="F196" t="n">
-        <v>-3.5</v>
+        <v>-2.5</v>
       </c>
       <c r="G196" t="n">
-        <v>-99999</v>
+        <v>-4</v>
       </c>
       <c r="H196" t="n">
         <v>-99999</v>
@@ -8289,7 +8289,7 @@
         <v>-99999</v>
       </c>
       <c r="K196" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L196" t="n">
         <v>1</v>
@@ -8298,26 +8298,26 @@
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>SC2308-2309</t>
+          <t>SC2309-2308</t>
         </is>
       </c>
       <c r="B197" t="n">
         <v>0</v>
       </c>
       <c r="C197" t="n">
-        <v>4</v>
+        <v>-99999</v>
       </c>
       <c r="D197" t="n">
-        <v>-1.1</v>
+        <v>-99999</v>
       </c>
       <c r="E197" t="n">
-        <v>-2</v>
+        <v>-99999</v>
       </c>
       <c r="F197" t="n">
-        <v>-2.5</v>
+        <v>-99999</v>
       </c>
       <c r="G197" t="n">
-        <v>-4</v>
+        <v>-99999</v>
       </c>
       <c r="H197" t="n">
         <v>-99999</v>
@@ -8329,7 +8329,7 @@
         <v>-99999</v>
       </c>
       <c r="K197" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="L197" t="n">
         <v>1</v>
@@ -8338,23 +8338,23 @@
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>SC2309-2308</t>
+          <t>SC2309-2310</t>
         </is>
       </c>
       <c r="B198" t="n">
         <v>0</v>
       </c>
       <c r="C198" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="D198" t="n">
-        <v>-99999</v>
+        <v>-0.5</v>
       </c>
       <c r="E198" t="n">
-        <v>-99999</v>
+        <v>-1</v>
       </c>
       <c r="F198" t="n">
-        <v>-99999</v>
+        <v>-1.5</v>
       </c>
       <c r="G198" t="n">
         <v>-99999</v>
@@ -8369,7 +8369,7 @@
         <v>-99999</v>
       </c>
       <c r="K198" t="n">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="L198" t="n">
         <v>1</v>
@@ -8378,23 +8378,23 @@
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>SC2309-2310</t>
+          <t>SC2310-2309</t>
         </is>
       </c>
       <c r="B199" t="n">
         <v>0</v>
       </c>
       <c r="C199" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D199" t="n">
-        <v>-0.5</v>
+        <v>-99999</v>
       </c>
       <c r="E199" t="n">
-        <v>-1</v>
+        <v>-99999</v>
       </c>
       <c r="F199" t="n">
-        <v>-1.5</v>
+        <v>-99999</v>
       </c>
       <c r="G199" t="n">
         <v>-99999</v>
@@ -8409,7 +8409,7 @@
         <v>-99999</v>
       </c>
       <c r="K199" t="n">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="L199" t="n">
         <v>1</v>
@@ -8418,14 +8418,14 @@
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>SC2310-2309</t>
+          <t>SC2310-2311</t>
         </is>
       </c>
       <c r="B200" t="n">
         <v>0</v>
       </c>
       <c r="C200" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="D200" t="n">
         <v>-99999</v>
@@ -8449,7 +8449,7 @@
         <v>-99999</v>
       </c>
       <c r="K200" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="L200" t="n">
         <v>1</v>
@@ -8458,14 +8458,14 @@
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>SC2310-2311</t>
+          <t>SC2311-2312</t>
         </is>
       </c>
       <c r="B201" t="n">
         <v>0</v>
       </c>
       <c r="C201" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D201" t="n">
         <v>-99999</v>
@@ -8498,17 +8498,17 @@
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>SC2311-2312</t>
+          <t>SN2308-2309</t>
         </is>
       </c>
       <c r="B202" t="n">
         <v>0</v>
       </c>
       <c r="C202" t="n">
-        <v>-2</v>
+        <v>-150</v>
       </c>
       <c r="D202" t="n">
-        <v>-99999</v>
+        <v>-250</v>
       </c>
       <c r="E202" t="n">
         <v>-99999</v>
@@ -8529,7 +8529,7 @@
         <v>-99999</v>
       </c>
       <c r="K202" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="L202" t="n">
         <v>1</v>
@@ -8538,17 +8538,17 @@
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>SN2308-2309</t>
+          <t>SP2307-2308</t>
         </is>
       </c>
       <c r="B203" t="n">
         <v>0</v>
       </c>
       <c r="C203" t="n">
-        <v>-150</v>
+        <v>-40</v>
       </c>
       <c r="D203" t="n">
-        <v>-250</v>
+        <v>-40</v>
       </c>
       <c r="E203" t="n">
         <v>-99999</v>
@@ -8569,26 +8569,26 @@
         <v>-99999</v>
       </c>
       <c r="K203" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="L203" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>SP2307-2308</t>
+          <t>SP2308-2309</t>
         </is>
       </c>
       <c r="B204" t="n">
         <v>0</v>
       </c>
       <c r="C204" t="n">
-        <v>-40</v>
+        <v>-36</v>
       </c>
       <c r="D204" t="n">
-        <v>-40</v>
+        <v>-99999</v>
       </c>
       <c r="E204" t="n">
         <v>-99999</v>
@@ -8609,7 +8609,7 @@
         <v>-99999</v>
       </c>
       <c r="K204" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="L204" t="n">
         <v>3</v>
@@ -8618,38 +8618,38 @@
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>SP2308-2309</t>
+          <t>SP2309-2310</t>
         </is>
       </c>
       <c r="B205" t="n">
         <v>0</v>
       </c>
       <c r="C205" t="n">
-        <v>-36</v>
+        <v>-2</v>
       </c>
       <c r="D205" t="n">
-        <v>-99999</v>
+        <v>-12</v>
       </c>
       <c r="E205" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="F205" t="n">
-        <v>-99999</v>
+        <v>-24</v>
       </c>
       <c r="G205" t="n">
-        <v>-99999</v>
+        <v>-26</v>
       </c>
       <c r="H205" t="n">
-        <v>-99999</v>
+        <v>-28</v>
       </c>
       <c r="I205" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="J205" t="n">
         <v>-99999</v>
       </c>
       <c r="K205" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L205" t="n">
         <v>3</v>
@@ -8658,26 +8658,26 @@
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>SP2309-2310</t>
+          <t>SP2310-2311</t>
         </is>
       </c>
       <c r="B206" t="n">
         <v>0</v>
       </c>
       <c r="C206" t="n">
+        <v>0</v>
+      </c>
+      <c r="D206" t="n">
         <v>-2</v>
       </c>
-      <c r="D206" t="n">
-        <v>-12</v>
-      </c>
       <c r="E206" t="n">
-        <v>-20</v>
+        <v>-8</v>
       </c>
       <c r="F206" t="n">
+        <v>-18</v>
+      </c>
+      <c r="G206" t="n">
         <v>-24</v>
-      </c>
-      <c r="G206" t="n">
-        <v>-26</v>
       </c>
       <c r="H206" t="n">
         <v>-28</v>
@@ -8698,7 +8698,7 @@
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>SP2310-2311</t>
+          <t>SP2311-2312</t>
         </is>
       </c>
       <c r="B207" t="n">
@@ -8714,10 +8714,10 @@
         <v>-8</v>
       </c>
       <c r="F207" t="n">
-        <v>-18</v>
+        <v>-20</v>
       </c>
       <c r="G207" t="n">
-        <v>-24</v>
+        <v>-26</v>
       </c>
       <c r="H207" t="n">
         <v>-28</v>
@@ -8732,38 +8732,38 @@
         <v>12</v>
       </c>
       <c r="L207" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>SP2311-2312</t>
+          <t>SP2312-2401</t>
         </is>
       </c>
       <c r="B208" t="n">
         <v>0</v>
       </c>
       <c r="C208" t="n">
-        <v>0</v>
+        <v>-160</v>
       </c>
       <c r="D208" t="n">
-        <v>-2</v>
+        <v>-165</v>
       </c>
       <c r="E208" t="n">
-        <v>-8</v>
+        <v>-170</v>
       </c>
       <c r="F208" t="n">
-        <v>-20</v>
+        <v>-175</v>
       </c>
       <c r="G208" t="n">
-        <v>-26</v>
+        <v>-99999</v>
       </c>
       <c r="H208" t="n">
-        <v>-28</v>
+        <v>-99999</v>
       </c>
       <c r="I208" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="J208" t="n">
         <v>-99999</v>
@@ -8778,26 +8778,26 @@
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>SP2312-2401</t>
+          <t>SP2401-2402</t>
         </is>
       </c>
       <c r="B209" t="n">
         <v>0</v>
       </c>
       <c r="C209" t="n">
-        <v>-160</v>
+        <v>-8</v>
       </c>
       <c r="D209" t="n">
-        <v>-165</v>
+        <v>-12</v>
       </c>
       <c r="E209" t="n">
-        <v>-170</v>
+        <v>-16</v>
       </c>
       <c r="F209" t="n">
-        <v>-175</v>
+        <v>-20</v>
       </c>
       <c r="G209" t="n">
-        <v>-99999</v>
+        <v>-24</v>
       </c>
       <c r="H209" t="n">
         <v>-99999</v>
@@ -8812,32 +8812,32 @@
         <v>12</v>
       </c>
       <c r="L209" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>SP2401-2402</t>
+          <t>SP2402-2403</t>
         </is>
       </c>
       <c r="B210" t="n">
         <v>0</v>
       </c>
       <c r="C210" t="n">
-        <v>-8</v>
+        <v>-15</v>
       </c>
       <c r="D210" t="n">
-        <v>-12</v>
+        <v>-20</v>
       </c>
       <c r="E210" t="n">
-        <v>-16</v>
+        <v>-25</v>
       </c>
       <c r="F210" t="n">
-        <v>-20</v>
+        <v>-30</v>
       </c>
       <c r="G210" t="n">
-        <v>-24</v>
+        <v>-99999</v>
       </c>
       <c r="H210" t="n">
         <v>-99999</v>
@@ -8858,7 +8858,7 @@
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>SP2402-2403</t>
+          <t>SP2403-2404</t>
         </is>
       </c>
       <c r="B211" t="n">
@@ -8898,7 +8898,7 @@
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>SP2403-2404</t>
+          <t>SP2404-2405</t>
         </is>
       </c>
       <c r="B212" t="n">
@@ -8938,23 +8938,23 @@
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>SP2404-2405</t>
+          <t>TA2307-2308</t>
         </is>
       </c>
       <c r="B213" t="n">
         <v>0</v>
       </c>
       <c r="C213" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="D213" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="E213" t="n">
-        <v>-25</v>
+        <v>-99999</v>
       </c>
       <c r="F213" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="G213" t="n">
         <v>-99999</v>
@@ -8969,7 +8969,7 @@
         <v>-99999</v>
       </c>
       <c r="K213" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L213" t="n">
         <v>3</v>
@@ -8978,7 +8978,7 @@
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>TA2307-2308</t>
+          <t>TA2307-2309</t>
         </is>
       </c>
       <c r="B214" t="n">
@@ -9018,7 +9018,7 @@
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>TA2307-2309</t>
+          <t>TA2308-2309</t>
         </is>
       </c>
       <c r="B215" t="n">
@@ -9058,7 +9058,7 @@
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>TA2308-2309</t>
+          <t>TA2309-2310</t>
         </is>
       </c>
       <c r="B216" t="n">
@@ -9098,7 +9098,7 @@
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>TA2309-2310</t>
+          <t>TA2310-2311</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -9138,7 +9138,7 @@
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>TA2310-2311</t>
+          <t>TA2311-2312</t>
         </is>
       </c>
       <c r="B218" t="n">
@@ -9178,17 +9178,17 @@
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>TA2311-2312</t>
+          <t>TA2312-2401</t>
         </is>
       </c>
       <c r="B219" t="n">
         <v>0</v>
       </c>
       <c r="C219" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="D219" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="E219" t="n">
         <v>-99999</v>
@@ -9209,7 +9209,7 @@
         <v>-99999</v>
       </c>
       <c r="K219" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L219" t="n">
         <v>3</v>
@@ -9218,17 +9218,17 @@
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>TA2312-2401</t>
+          <t>TA2401-2402</t>
         </is>
       </c>
       <c r="B220" t="n">
         <v>0</v>
       </c>
       <c r="C220" t="n">
+        <v>-15</v>
+      </c>
+      <c r="D220" t="n">
         <v>-20</v>
-      </c>
-      <c r="D220" t="n">
-        <v>-15</v>
       </c>
       <c r="E220" t="n">
         <v>-99999</v>
@@ -9258,17 +9258,17 @@
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>TA2401-2402</t>
+          <t>TA2402-2403</t>
         </is>
       </c>
       <c r="B221" t="n">
         <v>0</v>
       </c>
       <c r="C221" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="D221" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="E221" t="n">
         <v>-99999</v>
@@ -9298,17 +9298,17 @@
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>TA2402-2403</t>
+          <t>TA2403-2404</t>
         </is>
       </c>
       <c r="B222" t="n">
         <v>0</v>
       </c>
       <c r="C222" t="n">
-        <v>-99999</v>
+        <v>-28</v>
       </c>
       <c r="D222" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="E222" t="n">
         <v>-99999</v>
@@ -9329,7 +9329,7 @@
         <v>-99999</v>
       </c>
       <c r="K222" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L222" t="n">
         <v>3</v>
@@ -9338,17 +9338,17 @@
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>TA2403-2404</t>
+          <t>UR2310-2311</t>
         </is>
       </c>
       <c r="B223" t="n">
         <v>0</v>
       </c>
       <c r="C223" t="n">
-        <v>-28</v>
+        <v>-35</v>
       </c>
       <c r="D223" t="n">
-        <v>-30</v>
+        <v>-45</v>
       </c>
       <c r="E223" t="n">
         <v>-99999</v>
@@ -9369,7 +9369,7 @@
         <v>-99999</v>
       </c>
       <c r="K223" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="L223" t="n">
         <v>3</v>
@@ -9378,17 +9378,17 @@
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>UR2310-2311</t>
+          <t>UR2311-2312</t>
         </is>
       </c>
       <c r="B224" t="n">
         <v>0</v>
       </c>
       <c r="C224" t="n">
-        <v>-35</v>
+        <v>5</v>
       </c>
       <c r="D224" t="n">
-        <v>-45</v>
+        <v>0</v>
       </c>
       <c r="E224" t="n">
         <v>-99999</v>
@@ -9409,7 +9409,7 @@
         <v>-99999</v>
       </c>
       <c r="K224" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L224" t="n">
         <v>3</v>
@@ -9418,7 +9418,7 @@
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>UR2311-2312</t>
+          <t>UR2312-2401</t>
         </is>
       </c>
       <c r="B225" t="n">
@@ -9449,7 +9449,7 @@
         <v>-99999</v>
       </c>
       <c r="K225" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="L225" t="n">
         <v>3</v>
@@ -9458,17 +9458,17 @@
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>UR2312-2401</t>
+          <t>UR2401-2402</t>
         </is>
       </c>
       <c r="B226" t="n">
         <v>0</v>
       </c>
       <c r="C226" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D226" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="E226" t="n">
         <v>-99999</v>
@@ -9498,14 +9498,14 @@
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>UR2401-2402</t>
+          <t>UR2402-2403</t>
         </is>
       </c>
       <c r="B227" t="n">
         <v>0</v>
       </c>
       <c r="C227" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="D227" t="n">
         <v>-99999</v>
@@ -9538,17 +9538,17 @@
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>UR2402-2403</t>
+          <t>UR2403-2404</t>
         </is>
       </c>
       <c r="B228" t="n">
         <v>0</v>
       </c>
       <c r="C228" t="n">
-        <v>-50</v>
+        <v>5</v>
       </c>
       <c r="D228" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="E228" t="n">
         <v>-99999</v>
@@ -9578,7 +9578,7 @@
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>UR2403-2404</t>
+          <t>UR2404-2405</t>
         </is>
       </c>
       <c r="B229" t="n">
@@ -9591,7 +9591,7 @@
         <v>0</v>
       </c>
       <c r="E229" t="n">
-        <v>-99999</v>
+        <v>-5</v>
       </c>
       <c r="F229" t="n">
         <v>-99999</v>
@@ -9609,7 +9609,7 @@
         <v>-99999</v>
       </c>
       <c r="K229" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="L229" t="n">
         <v>3</v>
@@ -9618,7 +9618,7 @@
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>UR2404-2405</t>
+          <t>V2308-2309</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -9628,16 +9628,16 @@
         <v>5</v>
       </c>
       <c r="D230" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E230" t="n">
-        <v>-5</v>
+        <v>-13</v>
       </c>
       <c r="F230" t="n">
-        <v>-99999</v>
+        <v>-14</v>
       </c>
       <c r="G230" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="H230" t="n">
         <v>-99999</v>
@@ -9649,7 +9649,7 @@
         <v>-99999</v>
       </c>
       <c r="K230" t="n">
-        <v>200</v>
+        <v>12</v>
       </c>
       <c r="L230" t="n">
         <v>3</v>
@@ -9658,7 +9658,7 @@
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>V2308-2309</t>
+          <t>V2309-2310</t>
         </is>
       </c>
       <c r="B231" t="n">
@@ -9671,13 +9671,13 @@
         <v>5</v>
       </c>
       <c r="E231" t="n">
-        <v>-13</v>
+        <v>-2</v>
       </c>
       <c r="F231" t="n">
-        <v>-14</v>
+        <v>-3</v>
       </c>
       <c r="G231" t="n">
-        <v>-15</v>
+        <v>-28</v>
       </c>
       <c r="H231" t="n">
         <v>-99999</v>
@@ -9689,16 +9689,16 @@
         <v>-99999</v>
       </c>
       <c r="K231" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L231" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>V2309-2310</t>
+          <t>V2310-2311</t>
         </is>
       </c>
       <c r="B232" t="n">
@@ -9714,13 +9714,13 @@
         <v>-2</v>
       </c>
       <c r="F232" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="G232" t="n">
         <v>-28</v>
       </c>
       <c r="H232" t="n">
-        <v>-99999</v>
+        <v>-38</v>
       </c>
       <c r="I232" t="n">
         <v>-99999</v>
@@ -9729,7 +9729,7 @@
         <v>-99999</v>
       </c>
       <c r="K232" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L232" t="n">
         <v>4</v>
@@ -9738,7 +9738,7 @@
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>V2310-2311</t>
+          <t>V2311-2312</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -9751,16 +9751,16 @@
         <v>5</v>
       </c>
       <c r="E233" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="F233" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G233" t="n">
-        <v>-28</v>
+        <v>-15</v>
       </c>
       <c r="H233" t="n">
-        <v>-38</v>
+        <v>-99999</v>
       </c>
       <c r="I233" t="n">
         <v>-99999</v>
@@ -9769,7 +9769,7 @@
         <v>-99999</v>
       </c>
       <c r="K233" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="L233" t="n">
         <v>4</v>
@@ -9778,26 +9778,26 @@
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>V2311-2312</t>
+          <t>V2312-2401</t>
         </is>
       </c>
       <c r="B234" t="n">
         <v>0</v>
       </c>
       <c r="C234" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D234" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E234" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F234" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G234" t="n">
-        <v>-15</v>
+        <v>1</v>
       </c>
       <c r="H234" t="n">
         <v>-99999</v>
@@ -9818,26 +9818,26 @@
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
         <is>
-          <t>V2312-2401</t>
+          <t>V2401-2402</t>
         </is>
       </c>
       <c r="B235" t="n">
         <v>0</v>
       </c>
       <c r="C235" t="n">
-        <v>20</v>
+        <v>-3</v>
       </c>
       <c r="D235" t="n">
-        <v>4</v>
+        <v>-18</v>
       </c>
       <c r="E235" t="n">
-        <v>3</v>
+        <v>-30</v>
       </c>
       <c r="F235" t="n">
-        <v>3</v>
+        <v>-99999</v>
       </c>
       <c r="G235" t="n">
-        <v>1</v>
+        <v>-99999</v>
       </c>
       <c r="H235" t="n">
         <v>-99999</v>
@@ -9849,26 +9849,26 @@
         <v>-99999</v>
       </c>
       <c r="K235" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L235" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
         <is>
-          <t>V2401-2402</t>
+          <t>V2402-2403</t>
         </is>
       </c>
       <c r="B236" t="n">
         <v>0</v>
       </c>
       <c r="C236" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="D236" t="n">
-        <v>-18</v>
+        <v>-15</v>
       </c>
       <c r="E236" t="n">
         <v>-30</v>
@@ -9883,13 +9883,13 @@
         <v>-99999</v>
       </c>
       <c r="I236" t="n">
-        <v>-99999</v>
+        <v>-35</v>
       </c>
       <c r="J236" t="n">
         <v>-99999</v>
       </c>
       <c r="K236" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="L236" t="n">
         <v>3</v>
@@ -9898,106 +9898,106 @@
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
         <is>
-          <t>V2402-2403</t>
+          <t>V2403-2404</t>
         </is>
       </c>
       <c r="B237" t="n">
         <v>0</v>
       </c>
       <c r="C237" t="n">
-        <v>-5</v>
+        <v>10</v>
       </c>
       <c r="D237" t="n">
-        <v>-15</v>
+        <v>10</v>
       </c>
       <c r="E237" t="n">
-        <v>-30</v>
+        <v>-36</v>
       </c>
       <c r="F237" t="n">
-        <v>-99999</v>
+        <v>-40</v>
       </c>
       <c r="G237" t="n">
-        <v>-99999</v>
+        <v>-44</v>
       </c>
       <c r="H237" t="n">
-        <v>-99999</v>
+        <v>-48</v>
       </c>
       <c r="I237" t="n">
-        <v>-35</v>
+        <v>-52</v>
       </c>
       <c r="J237" t="n">
         <v>-99999</v>
       </c>
       <c r="K237" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="L237" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
         <is>
-          <t>V2403-2404</t>
+          <t>V2404-2405</t>
         </is>
       </c>
       <c r="B238" t="n">
         <v>0</v>
       </c>
       <c r="C238" t="n">
-        <v>10</v>
+        <v>-20</v>
       </c>
       <c r="D238" t="n">
-        <v>10</v>
+        <v>-25</v>
       </c>
       <c r="E238" t="n">
-        <v>-36</v>
+        <v>-30</v>
       </c>
       <c r="F238" t="n">
+        <v>-35</v>
+      </c>
+      <c r="G238" t="n">
         <v>-40</v>
       </c>
-      <c r="G238" t="n">
-        <v>-44</v>
-      </c>
       <c r="H238" t="n">
-        <v>-48</v>
+        <v>-99999</v>
       </c>
       <c r="I238" t="n">
-        <v>-52</v>
+        <v>-99999</v>
       </c>
       <c r="J238" t="n">
         <v>-99999</v>
       </c>
       <c r="K238" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L238" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
         <is>
-          <t>V2404-2405</t>
+          <t>V2405-2406</t>
         </is>
       </c>
       <c r="B239" t="n">
         <v>0</v>
       </c>
       <c r="C239" t="n">
+        <v>-10</v>
+      </c>
+      <c r="D239" t="n">
+        <v>-15</v>
+      </c>
+      <c r="E239" t="n">
         <v>-20</v>
       </c>
-      <c r="D239" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E239" t="n">
-        <v>-30</v>
-      </c>
       <c r="F239" t="n">
-        <v>-35</v>
+        <v>-99999</v>
       </c>
       <c r="G239" t="n">
-        <v>-40</v>
+        <v>-99999</v>
       </c>
       <c r="H239" t="n">
         <v>-99999</v>
@@ -10018,20 +10018,20 @@
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
         <is>
-          <t>V2405-2406</t>
+          <t>Y2307-2308</t>
         </is>
       </c>
       <c r="B240" t="n">
         <v>0</v>
       </c>
       <c r="C240" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="D240" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="E240" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="F240" t="n">
         <v>-99999</v>
@@ -10049,16 +10049,16 @@
         <v>-99999</v>
       </c>
       <c r="K240" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L240" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
         <is>
-          <t>Y2307-2308</t>
+          <t>Y2308-2309</t>
         </is>
       </c>
       <c r="B241" t="n">
@@ -10098,23 +10098,23 @@
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
         <is>
-          <t>Y2308-2309</t>
+          <t>Y2309-2311</t>
         </is>
       </c>
       <c r="B242" t="n">
         <v>0</v>
       </c>
       <c r="C242" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="D242" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="E242" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="F242" t="n">
-        <v>-99999</v>
+        <v>-35</v>
       </c>
       <c r="G242" t="n">
         <v>-99999</v>
@@ -10129,7 +10129,7 @@
         <v>-99999</v>
       </c>
       <c r="K242" t="n">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="L242" t="n">
         <v>2</v>
@@ -10138,23 +10138,23 @@
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
         <is>
-          <t>Y2309-2311</t>
+          <t>Y2311-2312</t>
         </is>
       </c>
       <c r="B243" t="n">
         <v>0</v>
       </c>
       <c r="C243" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="D243" t="n">
-        <v>-20</v>
+        <v>-30</v>
       </c>
       <c r="E243" t="n">
-        <v>-30</v>
+        <v>-40</v>
       </c>
       <c r="F243" t="n">
-        <v>-35</v>
+        <v>-99999</v>
       </c>
       <c r="G243" t="n">
         <v>-99999</v>
@@ -10172,26 +10172,26 @@
         <v>100</v>
       </c>
       <c r="L243" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
         <is>
-          <t>Y2311-2312</t>
+          <t>Y2312-2401</t>
         </is>
       </c>
       <c r="B244" t="n">
         <v>0</v>
       </c>
       <c r="C244" t="n">
-        <v>10</v>
+        <v>-99999</v>
       </c>
       <c r="D244" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="E244" t="n">
-        <v>-40</v>
+        <v>-99999</v>
       </c>
       <c r="F244" t="n">
         <v>-99999</v>
@@ -10209,49 +10209,9 @@
         <v>-99999</v>
       </c>
       <c r="K244" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="L244" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="inlineStr">
-        <is>
-          <t>Y2312-2401</t>
-        </is>
-      </c>
-      <c r="B245" t="n">
-        <v>0</v>
-      </c>
-      <c r="C245" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D245" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E245" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="F245" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="G245" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="H245" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="I245" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="J245" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="K245" t="n">
-        <v>18</v>
-      </c>
-      <c r="L245" t="n">
         <v>2</v>
       </c>
     </row>

--- a/info/region_info.xlsx
+++ b/info/region_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L244"/>
+  <dimension ref="A1:L246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,8 +504,10 @@
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="n">
-        <v>201</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
       </c>
       <c r="D2" t="n">
         <v>-99999</v>
@@ -625,10 +627,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="D5" t="n">
-        <v>80</v>
+        <v>-99999</v>
       </c>
       <c r="E5" t="n">
         <v>-99999</v>
@@ -649,7 +651,7 @@
         <v>-99999</v>
       </c>
       <c r="K5" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>3</v>
@@ -849,7 +851,7 @@
         <v>-99999</v>
       </c>
       <c r="K10" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L10" t="n">
         <v>1</v>
@@ -1191,16 +1193,16 @@
         <v>-16</v>
       </c>
       <c r="E19" t="n">
-        <v>-17</v>
+        <v>-16</v>
       </c>
       <c r="F19" t="n">
-        <v>-99999</v>
+        <v>-16</v>
       </c>
       <c r="G19" t="n">
-        <v>-99999</v>
+        <v>-18</v>
       </c>
       <c r="H19" t="n">
-        <v>-99999</v>
+        <v>-18</v>
       </c>
       <c r="I19" t="n">
         <v>-99999</v>
@@ -1218,118 +1220,118 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>AL2307-2308</t>
+          <t>AG2404-2405</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>10</v>
+        <v>-16</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="E20" t="n">
+        <v>-17</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-17</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-18</v>
+      </c>
+      <c r="H20" t="n">
         <v>-20</v>
       </c>
-      <c r="F20" t="n">
-        <v>-25</v>
-      </c>
-      <c r="G20" t="n">
-        <v>-30</v>
-      </c>
-      <c r="H20" t="n">
-        <v>-40</v>
-      </c>
       <c r="I20" t="n">
-        <v>-50</v>
+        <v>-99999</v>
       </c>
       <c r="J20" t="n">
-        <v>-70</v>
+        <v>-99999</v>
       </c>
       <c r="K20" t="n">
         <v>16</v>
       </c>
       <c r="L20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>AL2308-2309</t>
+          <t>AG2405-2406</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>10</v>
+        <v>-15</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>-17</v>
       </c>
       <c r="E21" t="n">
+        <v>-19</v>
+      </c>
+      <c r="F21" t="n">
         <v>-20</v>
       </c>
-      <c r="F21" t="n">
-        <v>-25</v>
-      </c>
       <c r="G21" t="n">
-        <v>-30</v>
+        <v>-21</v>
       </c>
       <c r="H21" t="n">
-        <v>-40</v>
+        <v>-22</v>
       </c>
       <c r="I21" t="n">
-        <v>-50</v>
+        <v>-99999</v>
       </c>
       <c r="J21" t="n">
-        <v>-70</v>
+        <v>-99999</v>
       </c>
       <c r="K21" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="L21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>AL2309-2310</t>
+          <t>AL2307-2308</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
         <v>-20</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>-25</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>-30</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22" t="n">
         <v>-40</v>
       </c>
-      <c r="H22" t="n">
+      <c r="I22" t="n">
         <v>-50</v>
       </c>
-      <c r="I22" t="n">
+      <c r="J22" t="n">
         <v>-70</v>
       </c>
-      <c r="J22" t="n">
-        <v>-80</v>
-      </c>
       <c r="K22" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="L22" t="n">
         <v>1</v>
@@ -1338,38 +1340,38 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>AL2310-2311</t>
+          <t>AL2308-2309</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
         <v>-20</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>-25</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>-30</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23" t="n">
         <v>-40</v>
       </c>
-      <c r="H23" t="n">
+      <c r="I23" t="n">
         <v>-50</v>
       </c>
-      <c r="I23" t="n">
+      <c r="J23" t="n">
         <v>-70</v>
       </c>
-      <c r="J23" t="n">
-        <v>-80</v>
-      </c>
       <c r="K23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L23" t="n">
         <v>1</v>
@@ -1378,38 +1380,38 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>AL2311-2312</t>
+          <t>AL2309-2310</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>0</v>
       </c>
       <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
         <v>-20</v>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="n">
         <v>-25</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>-30</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="n">
         <v>-40</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24" t="n">
         <v>-50</v>
       </c>
-      <c r="H24" t="n">
+      <c r="I24" t="n">
         <v>-70</v>
-      </c>
-      <c r="I24" t="n">
-        <v>-80</v>
       </c>
       <c r="J24" t="n">
         <v>-80</v>
       </c>
       <c r="K24" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="L24" t="n">
         <v>1</v>
@@ -1418,38 +1420,38 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>AL2312-2401</t>
+          <t>AL2310-2311</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="E25" t="n">
+        <v>-25</v>
+      </c>
+      <c r="F25" t="n">
         <v>-30</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="n">
         <v>-40</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25" t="n">
         <v>-50</v>
       </c>
-      <c r="H25" t="n">
+      <c r="I25" t="n">
         <v>-70</v>
-      </c>
-      <c r="I25" t="n">
-        <v>-80</v>
       </c>
       <c r="J25" t="n">
         <v>-80</v>
       </c>
       <c r="K25" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="L25" t="n">
         <v>1</v>
@@ -1458,38 +1460,38 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>AL2401-2402</t>
+          <t>AL2311-2312</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>-20</v>
       </c>
       <c r="D26" t="n">
-        <v>-10</v>
+        <v>-25</v>
       </c>
       <c r="E26" t="n">
-        <v>-20</v>
+        <v>-30</v>
       </c>
       <c r="F26" t="n">
-        <v>-100</v>
+        <v>-40</v>
       </c>
       <c r="G26" t="n">
-        <v>-120</v>
+        <v>-50</v>
       </c>
       <c r="H26" t="n">
-        <v>-99999</v>
+        <v>-70</v>
       </c>
       <c r="I26" t="n">
-        <v>-99999</v>
+        <v>-80</v>
       </c>
       <c r="J26" t="n">
-        <v>-99999</v>
+        <v>-80</v>
       </c>
       <c r="K26" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="L26" t="n">
         <v>1</v>
@@ -1498,35 +1500,35 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>AL2402-2403</t>
+          <t>AL2312-2401</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>-10</v>
+        <v>20</v>
       </c>
       <c r="D27" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>-30</v>
       </c>
       <c r="F27" t="n">
-        <v>-100</v>
+        <v>-40</v>
       </c>
       <c r="G27" t="n">
-        <v>-120</v>
+        <v>-50</v>
       </c>
       <c r="H27" t="n">
-        <v>-99999</v>
+        <v>-70</v>
       </c>
       <c r="I27" t="n">
-        <v>-99999</v>
+        <v>-80</v>
       </c>
       <c r="J27" t="n">
-        <v>-99999</v>
+        <v>-80</v>
       </c>
       <c r="K27" t="n">
         <v>25</v>
@@ -1538,7 +1540,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>AL2403-2404</t>
+          <t>AL2401-2402</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1548,16 +1550,16 @@
         <v>10</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="E28" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F28" t="n">
         <v>-100</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="n">
         <v>-120</v>
-      </c>
-      <c r="G28" t="n">
-        <v>-99999</v>
       </c>
       <c r="H28" t="n">
         <v>-99999</v>
@@ -1578,26 +1580,26 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>AU2308-2310</t>
+          <t>AL2402-2403</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>-1.14</v>
+        <v>-10</v>
       </c>
       <c r="D29" t="n">
-        <v>-1.22</v>
+        <v>-20</v>
       </c>
       <c r="E29" t="n">
-        <v>-1.32</v>
+        <v>-30</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.32</v>
+        <v>-100</v>
       </c>
       <c r="G29" t="n">
-        <v>-1.4</v>
+        <v>-120</v>
       </c>
       <c r="H29" t="n">
         <v>-99999</v>
@@ -1609,32 +1611,32 @@
         <v>-99999</v>
       </c>
       <c r="K29" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>AU2310-2312</t>
+          <t>AL2403-2404</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>-1.14</v>
+        <v>10</v>
       </c>
       <c r="D30" t="n">
-        <v>-1.22</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>-1.32</v>
+        <v>-100</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.42</v>
+        <v>-120</v>
       </c>
       <c r="G30" t="n">
         <v>-99999</v>
@@ -1649,7 +1651,7 @@
         <v>-99999</v>
       </c>
       <c r="K30" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L30" t="n">
         <v>1</v>
@@ -1658,29 +1660,29 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>AU2312-2402</t>
+          <t>AU2308-2310</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>0</v>
       </c>
       <c r="C31" t="n">
+        <v>-1.14</v>
+      </c>
+      <c r="D31" t="n">
         <v>-1.22</v>
       </c>
-      <c r="D31" t="n">
+      <c r="E31" t="n">
+        <v>-1.32</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-1.32</v>
+      </c>
+      <c r="G31" t="n">
         <v>-1.4</v>
       </c>
-      <c r="E31" t="n">
-        <v>-1.4</v>
-      </c>
-      <c r="F31" t="n">
-        <v>-1.6</v>
-      </c>
-      <c r="G31" t="n">
-        <v>-1.8</v>
-      </c>
       <c r="H31" t="n">
-        <v>-2</v>
+        <v>-99999</v>
       </c>
       <c r="I31" t="n">
         <v>-99999</v>
@@ -1689,32 +1691,32 @@
         <v>-99999</v>
       </c>
       <c r="K31" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>AU2402-2404</t>
+          <t>AU2310-2312</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>-1.3</v>
+        <v>-1.14</v>
       </c>
       <c r="D32" t="n">
-        <v>-1.4</v>
+        <v>-1.22</v>
       </c>
       <c r="E32" t="n">
-        <v>-1.5</v>
+        <v>-1.32</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.56</v>
+        <v>-1.42</v>
       </c>
       <c r="G32" t="n">
         <v>-99999</v>
@@ -1729,7 +1731,7 @@
         <v>-99999</v>
       </c>
       <c r="K32" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L32" t="n">
         <v>1</v>
@@ -1738,29 +1740,29 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>B2308-2307</t>
+          <t>AU2312-2402</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>-45</v>
+        <v>-1.22</v>
       </c>
       <c r="D33" t="n">
-        <v>-99999</v>
+        <v>-1.4</v>
       </c>
       <c r="E33" t="n">
-        <v>-99999</v>
+        <v>-1.4</v>
       </c>
       <c r="F33" t="n">
-        <v>-99999</v>
+        <v>-1.6</v>
       </c>
       <c r="G33" t="n">
-        <v>-99999</v>
+        <v>-1.8</v>
       </c>
       <c r="H33" t="n">
-        <v>-99999</v>
+        <v>-2</v>
       </c>
       <c r="I33" t="n">
         <v>-99999</v>
@@ -1769,32 +1771,32 @@
         <v>-99999</v>
       </c>
       <c r="K33" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="L33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>B2308-2309</t>
+          <t>AU2402-2404</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>53</v>
+        <v>-1.3</v>
       </c>
       <c r="D34" t="n">
-        <v>35</v>
+        <v>-1.4</v>
       </c>
       <c r="E34" t="n">
-        <v>-99999</v>
+        <v>-1.5</v>
       </c>
       <c r="F34" t="n">
-        <v>-99999</v>
+        <v>-1.56</v>
       </c>
       <c r="G34" t="n">
         <v>-99999</v>
@@ -1809,26 +1811,26 @@
         <v>-99999</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="L34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>B2309-2308</t>
+          <t>B2308-2307</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>-110</v>
+        <v>-45</v>
       </c>
       <c r="D35" t="n">
-        <v>-115</v>
+        <v>-99999</v>
       </c>
       <c r="E35" t="n">
         <v>-99999</v>
@@ -1849,7 +1851,7 @@
         <v>-99999</v>
       </c>
       <c r="K35" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="L35" t="n">
         <v>3</v>
@@ -1858,14 +1860,14 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>B2309-2310</t>
+          <t>B2308-2309</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>-99999</v>
       </c>
       <c r="D36" t="n">
         <v>-99999</v>
@@ -1889,38 +1891,38 @@
         <v>-99999</v>
       </c>
       <c r="K36" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="L36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>B2310-2311</t>
+          <t>B2309-2308</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>-110</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>-115</v>
       </c>
       <c r="E37" t="n">
-        <v>-5</v>
+        <v>-99999</v>
       </c>
       <c r="F37" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="G37" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="H37" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="I37" t="n">
         <v>-99999</v>
@@ -1929,16 +1931,16 @@
         <v>-99999</v>
       </c>
       <c r="K37" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="L37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>BU2307-2308</t>
+          <t>B2309-2310</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1969,38 +1971,38 @@
         <v>-99999</v>
       </c>
       <c r="K38" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="L38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>BU2308-2309</t>
+          <t>B2310-2311</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>-99999</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>-99999</v>
+        <v>-5</v>
       </c>
       <c r="F39" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="G39" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="H39" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="I39" t="n">
         <v>-99999</v>
@@ -2009,7 +2011,7 @@
         <v>-99999</v>
       </c>
       <c r="K39" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L39" t="n">
         <v>1</v>
@@ -2018,26 +2020,26 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>BU2309-2310</t>
+          <t>BU2307-2308</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
-        <v>-5</v>
+        <v>-99999</v>
       </c>
       <c r="E40" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="F40" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="G40" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="H40" t="n">
         <v>-99999</v>
@@ -2049,7 +2051,7 @@
         <v>-99999</v>
       </c>
       <c r="K40" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="L40" t="n">
         <v>1</v>
@@ -2058,7 +2060,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>BU2310-2311</t>
+          <t>BU2308-2309</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -2089,7 +2091,7 @@
         <v>-99999</v>
       </c>
       <c r="K41" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L41" t="n">
         <v>1</v>
@@ -2098,7 +2100,7 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>BU2311-2312</t>
+          <t>BU2309-2310</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -2138,14 +2140,14 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>BU2312-2401</t>
+          <t>BU2310-2311</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>10</v>
+        <v>-99999</v>
       </c>
       <c r="D43" t="n">
         <v>-99999</v>
@@ -2178,26 +2180,26 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>BU2401-2402</t>
+          <t>BU2311-2312</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>-99999</v>
+        <v>-5</v>
       </c>
       <c r="E44" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="F44" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="G44" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="H44" t="n">
         <v>-99999</v>
@@ -2218,14 +2220,14 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>BU2402-2403</t>
+          <t>BU2312-2401</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>-99999</v>
+        <v>10</v>
       </c>
       <c r="D45" t="n">
         <v>-99999</v>
@@ -2258,7 +2260,7 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>BU2403-2404</t>
+          <t>BU2401-2402</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -2298,7 +2300,7 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>BU2404-2405</t>
+          <t>BU2402-2403</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -2338,17 +2340,17 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>C2307-2309</t>
+          <t>BU2403-2404</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>-99999</v>
       </c>
       <c r="D48" t="n">
-        <v>5</v>
+        <v>-99999</v>
       </c>
       <c r="E48" t="n">
         <v>-99999</v>
@@ -2369,16 +2371,16 @@
         <v>-99999</v>
       </c>
       <c r="K48" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="L48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>C2309-2307</t>
+          <t>BU2404-2405</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -2412,23 +2414,23 @@
         <v>30</v>
       </c>
       <c r="L49" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>C2309-2311</t>
+          <t>C2307-2309</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
-        <v>-99999</v>
+        <v>5</v>
       </c>
       <c r="E50" t="n">
         <v>-99999</v>
@@ -2449,7 +2451,7 @@
         <v>-99999</v>
       </c>
       <c r="K50" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L50" t="n">
         <v>3</v>
@@ -2458,14 +2460,14 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>C2311-2309</t>
+          <t>C2309-2307</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>-130</v>
+        <v>-99999</v>
       </c>
       <c r="D51" t="n">
         <v>-99999</v>
@@ -2489,7 +2491,7 @@
         <v>-99999</v>
       </c>
       <c r="K51" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="L51" t="n">
         <v>3</v>
@@ -2498,14 +2500,14 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>C2311-2401</t>
+          <t>C2309-2311</t>
         </is>
       </c>
       <c r="B52" t="n">
         <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="D52" t="n">
         <v>-99999</v>
@@ -2529,7 +2531,7 @@
         <v>-99999</v>
       </c>
       <c r="K52" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="L52" t="n">
         <v>3</v>
@@ -2538,14 +2540,14 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>C2401-2403</t>
+          <t>C2311-2309</t>
         </is>
       </c>
       <c r="B53" t="n">
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>23</v>
+        <v>-130</v>
       </c>
       <c r="D53" t="n">
         <v>-99999</v>
@@ -2569,7 +2571,7 @@
         <v>-99999</v>
       </c>
       <c r="K53" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="L53" t="n">
         <v>3</v>
@@ -2578,14 +2580,14 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>C2403-2405</t>
+          <t>C2311-2401</t>
         </is>
       </c>
       <c r="B54" t="n">
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>-60</v>
+        <v>44</v>
       </c>
       <c r="D54" t="n">
         <v>-99999</v>
@@ -2609,7 +2611,7 @@
         <v>-99999</v>
       </c>
       <c r="K54" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L54" t="n">
         <v>3</v>
@@ -2618,14 +2620,14 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>CF2307-2309</t>
+          <t>C2401-2403</t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>-99999</v>
+        <v>23</v>
       </c>
       <c r="D55" t="n">
         <v>-99999</v>
@@ -2649,32 +2651,32 @@
         <v>-99999</v>
       </c>
       <c r="K55" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="L55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>CF2309-2311</t>
+          <t>C2403-2405</t>
         </is>
       </c>
       <c r="B56" t="n">
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>-190</v>
+        <v>-60</v>
       </c>
       <c r="D56" t="n">
-        <v>-200</v>
+        <v>-99999</v>
       </c>
       <c r="E56" t="n">
-        <v>-210</v>
+        <v>-99999</v>
       </c>
       <c r="F56" t="n">
-        <v>-220</v>
+        <v>-99999</v>
       </c>
       <c r="G56" t="n">
         <v>-99999</v>
@@ -2689,16 +2691,16 @@
         <v>-99999</v>
       </c>
       <c r="K56" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>CF2311-2401</t>
+          <t>CF2307-2309</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -2729,32 +2731,32 @@
         <v>-99999</v>
       </c>
       <c r="K57" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>CS2307-2309</t>
+          <t>CF2309-2311</t>
         </is>
       </c>
       <c r="B58" t="n">
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>-99999</v>
+        <v>-170</v>
       </c>
       <c r="D58" t="n">
-        <v>-99999</v>
+        <v>-180</v>
       </c>
       <c r="E58" t="n">
-        <v>-99999</v>
+        <v>-200</v>
       </c>
       <c r="F58" t="n">
-        <v>-99999</v>
+        <v>-220</v>
       </c>
       <c r="G58" t="n">
         <v>-99999</v>
@@ -2769,16 +2771,16 @@
         <v>-99999</v>
       </c>
       <c r="K58" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="L58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>CS2309-2311</t>
+          <t>CF2311-2401</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -2809,16 +2811,16 @@
         <v>-99999</v>
       </c>
       <c r="K59" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="L59" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>CS2311-2309</t>
+          <t>CS2307-2309</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -2858,14 +2860,14 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>CS2311-2401</t>
+          <t>CS2309-2311</t>
         </is>
       </c>
       <c r="B61" t="n">
         <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>25</v>
+        <v>-99999</v>
       </c>
       <c r="D61" t="n">
         <v>-99999</v>
@@ -2898,14 +2900,14 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>CS2403-2405</t>
+          <t>CS2311-2309</t>
         </is>
       </c>
       <c r="B62" t="n">
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="D62" t="n">
         <v>-99999</v>
@@ -2929,26 +2931,26 @@
         <v>-99999</v>
       </c>
       <c r="K62" t="n">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="L62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>EG2307-2308</t>
+          <t>CS2311-2401</t>
         </is>
       </c>
       <c r="B63" t="n">
         <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>-40</v>
+        <v>25</v>
       </c>
       <c r="D63" t="n">
-        <v>-40</v>
+        <v>-99999</v>
       </c>
       <c r="E63" t="n">
         <v>-99999</v>
@@ -2969,29 +2971,29 @@
         <v>-99999</v>
       </c>
       <c r="K63" t="n">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="L63" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>EG2308-2309</t>
+          <t>CS2403-2405</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>-23</v>
+        <v>-15</v>
       </c>
       <c r="D64" t="n">
-        <v>-45</v>
+        <v>-99999</v>
       </c>
       <c r="E64" t="n">
-        <v>-46</v>
+        <v>-99999</v>
       </c>
       <c r="F64" t="n">
         <v>-99999</v>
@@ -3009,38 +3011,38 @@
         <v>-99999</v>
       </c>
       <c r="K64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>EG2309-2310</t>
+          <t>EG2307-2308</t>
         </is>
       </c>
       <c r="B65" t="n">
         <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>-20</v>
+        <v>-40</v>
       </c>
       <c r="D65" t="n">
-        <v>-21</v>
+        <v>-40</v>
       </c>
       <c r="E65" t="n">
-        <v>-22</v>
+        <v>-99999</v>
       </c>
       <c r="F65" t="n">
-        <v>-40</v>
+        <v>-99999</v>
       </c>
       <c r="G65" t="n">
-        <v>-42</v>
+        <v>-99999</v>
       </c>
       <c r="H65" t="n">
-        <v>-48</v>
+        <v>-99999</v>
       </c>
       <c r="I65" t="n">
         <v>-99999</v>
@@ -3058,29 +3060,29 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>EG2310-2311</t>
+          <t>EG2308-2309</t>
         </is>
       </c>
       <c r="B66" t="n">
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>-21</v>
+        <v>-49</v>
       </c>
       <c r="D66" t="n">
-        <v>-22</v>
+        <v>-50</v>
       </c>
       <c r="E66" t="n">
-        <v>-23</v>
+        <v>-50</v>
       </c>
       <c r="F66" t="n">
-        <v>-36</v>
+        <v>-51</v>
       </c>
       <c r="G66" t="n">
-        <v>-40</v>
+        <v>-99999</v>
       </c>
       <c r="H66" t="n">
-        <v>-44</v>
+        <v>-99999</v>
       </c>
       <c r="I66" t="n">
         <v>-99999</v>
@@ -3089,16 +3091,16 @@
         <v>-99999</v>
       </c>
       <c r="K66" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>EG2311-2312</t>
+          <t>EG2309-2310</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -3114,13 +3116,13 @@
         <v>-22</v>
       </c>
       <c r="F67" t="n">
-        <v>-24</v>
+        <v>-40</v>
       </c>
       <c r="G67" t="n">
-        <v>-30</v>
+        <v>-42</v>
       </c>
       <c r="H67" t="n">
-        <v>-35</v>
+        <v>-48</v>
       </c>
       <c r="I67" t="n">
         <v>-99999</v>
@@ -3138,29 +3140,29 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>EG2312-2401</t>
+          <t>EG2310-2311</t>
         </is>
       </c>
       <c r="B68" t="n">
         <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>-20</v>
+        <v>-21</v>
       </c>
       <c r="D68" t="n">
-        <v>-99999</v>
+        <v>-22</v>
       </c>
       <c r="E68" t="n">
-        <v>-99999</v>
+        <v>-23</v>
       </c>
       <c r="F68" t="n">
-        <v>-99999</v>
+        <v>-36</v>
       </c>
       <c r="G68" t="n">
-        <v>-99999</v>
+        <v>-40</v>
       </c>
       <c r="H68" t="n">
-        <v>-99999</v>
+        <v>-44</v>
       </c>
       <c r="I68" t="n">
         <v>-99999</v>
@@ -3169,7 +3171,7 @@
         <v>-99999</v>
       </c>
       <c r="K68" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="L68" t="n">
         <v>4</v>
@@ -3178,29 +3180,29 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>EG2401-2402</t>
+          <t>EG2311-2312</t>
         </is>
       </c>
       <c r="B69" t="n">
         <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>-45</v>
+        <v>-20</v>
       </c>
       <c r="D69" t="n">
-        <v>-60</v>
+        <v>-21</v>
       </c>
       <c r="E69" t="n">
-        <v>-99999</v>
+        <v>-22</v>
       </c>
       <c r="F69" t="n">
-        <v>-99999</v>
+        <v>-24</v>
       </c>
       <c r="G69" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="H69" t="n">
-        <v>-99999</v>
+        <v>-35</v>
       </c>
       <c r="I69" t="n">
         <v>-99999</v>
@@ -3209,7 +3211,7 @@
         <v>-99999</v>
       </c>
       <c r="K69" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="L69" t="n">
         <v>4</v>
@@ -3218,7 +3220,7 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>EG2402-2403</t>
+          <t>EG2312-2401</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -3228,7 +3230,7 @@
         <v>-20</v>
       </c>
       <c r="D70" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="E70" t="n">
         <v>-99999</v>
@@ -3258,17 +3260,17 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>FG2306-2309</t>
+          <t>EG2401-2402</t>
         </is>
       </c>
       <c r="B71" t="n">
         <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>-99999</v>
+        <v>-45</v>
       </c>
       <c r="D71" t="n">
-        <v>-99999</v>
+        <v>-60</v>
       </c>
       <c r="E71" t="n">
         <v>-99999</v>
@@ -3289,26 +3291,26 @@
         <v>-99999</v>
       </c>
       <c r="K71" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="L71" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>FG2307-2309</t>
+          <t>EG2402-2403</t>
         </is>
       </c>
       <c r="B72" t="n">
         <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="D72" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="E72" t="n">
         <v>-99999</v>
@@ -3329,32 +3331,32 @@
         <v>-99999</v>
       </c>
       <c r="K72" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="L72" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>FG2308-2309</t>
+          <t>FG2306-2309</t>
         </is>
       </c>
       <c r="B73" t="n">
         <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>-99999</v>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="E73" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="F73" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="G73" t="n">
         <v>-99999</v>
@@ -3369,32 +3371,32 @@
         <v>-99999</v>
       </c>
       <c r="K73" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>FG2310-2311</t>
+          <t>FG2307-2309</t>
         </is>
       </c>
       <c r="B74" t="n">
         <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>-99999</v>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="E74" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="F74" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="G74" t="n">
         <v>-99999</v>
@@ -3409,26 +3411,26 @@
         <v>-99999</v>
       </c>
       <c r="K74" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>FG2312-2401</t>
+          <t>FG2308-2309</t>
         </is>
       </c>
       <c r="B75" t="n">
         <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E75" t="n">
         <v>-10</v>
@@ -3458,17 +3460,17 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>FG2402-2403</t>
+          <t>FG2310-2311</t>
         </is>
       </c>
       <c r="B76" t="n">
         <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E76" t="n">
         <v>-10</v>
@@ -3498,23 +3500,23 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>FU2307-2308</t>
+          <t>FG2312-2401</t>
         </is>
       </c>
       <c r="B77" t="n">
         <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>-99999</v>
+        <v>-5</v>
       </c>
       <c r="E77" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="F77" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="G77" t="n">
         <v>-99999</v>
@@ -3529,32 +3531,32 @@
         <v>-99999</v>
       </c>
       <c r="K77" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="L77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>FU2307-2309</t>
+          <t>FG2402-2403</t>
         </is>
       </c>
       <c r="B78" t="n">
         <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>-99999</v>
+        <v>-5</v>
       </c>
       <c r="E78" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="F78" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="G78" t="n">
         <v>-99999</v>
@@ -3569,16 +3571,16 @@
         <v>-99999</v>
       </c>
       <c r="K78" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>FU2308-2307</t>
+          <t>FU2307-2308</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -3609,32 +3611,32 @@
         <v>-99999</v>
       </c>
       <c r="K79" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="L79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>FU2308-2309</t>
+          <t>FU2307-2309</t>
         </is>
       </c>
       <c r="B80" t="n">
         <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>10</v>
+        <v>-99999</v>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="E80" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="F80" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="G80" t="n">
         <v>-99999</v>
@@ -3649,16 +3651,16 @@
         <v>-99999</v>
       </c>
       <c r="K80" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="L80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>FU2309-2307</t>
+          <t>FU2308-2307</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -3689,7 +3691,7 @@
         <v>-99999</v>
       </c>
       <c r="K81" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="L81" t="n">
         <v>2</v>
@@ -3698,23 +3700,23 @@
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>FU2309-2310</t>
+          <t>FU2308-2309</t>
         </is>
       </c>
       <c r="B82" t="n">
         <v>0</v>
       </c>
       <c r="C82" t="n">
+        <v>10</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" t="n">
         <v>-10</v>
       </c>
-      <c r="D82" t="n">
+      <c r="F82" t="n">
         <v>-20</v>
-      </c>
-      <c r="E82" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="F82" t="n">
-        <v>-99999</v>
       </c>
       <c r="G82" t="n">
         <v>-99999</v>
@@ -3738,17 +3740,17 @@
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>FU2310-2309</t>
+          <t>FU2309-2307</t>
         </is>
       </c>
       <c r="B83" t="n">
         <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>-57</v>
+        <v>-99999</v>
       </c>
       <c r="D83" t="n">
-        <v>-59</v>
+        <v>-99999</v>
       </c>
       <c r="E83" t="n">
         <v>-99999</v>
@@ -3769,7 +3771,7 @@
         <v>-99999</v>
       </c>
       <c r="K83" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L83" t="n">
         <v>2</v>
@@ -3778,17 +3780,17 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>FU2310-2311</t>
+          <t>FU2309-2310</t>
         </is>
       </c>
       <c r="B84" t="n">
         <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>25</v>
+        <v>-10</v>
       </c>
       <c r="D84" t="n">
-        <v>20</v>
+        <v>-20</v>
       </c>
       <c r="E84" t="n">
         <v>-99999</v>
@@ -3809,7 +3811,7 @@
         <v>-99999</v>
       </c>
       <c r="K84" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="L84" t="n">
         <v>3</v>
@@ -3818,17 +3820,17 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>FU2311-2309</t>
+          <t>FU2310-2309</t>
         </is>
       </c>
       <c r="B85" t="n">
         <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>-99999</v>
+        <v>-53</v>
       </c>
       <c r="D85" t="n">
-        <v>-99999</v>
+        <v>-59</v>
       </c>
       <c r="E85" t="n">
         <v>-99999</v>
@@ -3849,23 +3851,23 @@
         <v>-99999</v>
       </c>
       <c r="K85" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="L85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>FU2311-2310</t>
+          <t>FU2310-2311</t>
         </is>
       </c>
       <c r="B86" t="n">
         <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>-80</v>
+        <v>-99999</v>
       </c>
       <c r="D86" t="n">
         <v>-99999</v>
@@ -3898,14 +3900,14 @@
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>FU2311-2312</t>
+          <t>FU2311-2309</t>
         </is>
       </c>
       <c r="B87" t="n">
         <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>20</v>
+        <v>-99999</v>
       </c>
       <c r="D87" t="n">
         <v>-99999</v>
@@ -3929,26 +3931,26 @@
         <v>-99999</v>
       </c>
       <c r="K87" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="L87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>FU2312-2401</t>
+          <t>FU2311-2310</t>
         </is>
       </c>
       <c r="B88" t="n">
         <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>25</v>
+        <v>-80</v>
       </c>
       <c r="D88" t="n">
-        <v>20</v>
+        <v>-99999</v>
       </c>
       <c r="E88" t="n">
         <v>-99999</v>
@@ -3969,23 +3971,23 @@
         <v>-99999</v>
       </c>
       <c r="K88" t="n">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="L88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>FU2401-2402</t>
+          <t>FU2311-2312</t>
         </is>
       </c>
       <c r="B89" t="n">
         <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D89" t="n">
         <v>-99999</v>
@@ -4009,7 +4011,7 @@
         <v>-99999</v>
       </c>
       <c r="K89" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L89" t="n">
         <v>3</v>
@@ -4018,20 +4020,20 @@
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>FU2402-2403</t>
+          <t>FU2312-2401</t>
         </is>
       </c>
       <c r="B90" t="n">
         <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>-15</v>
+        <v>25</v>
       </c>
       <c r="D90" t="n">
-        <v>-20</v>
+        <v>20</v>
       </c>
       <c r="E90" t="n">
-        <v>-99999</v>
+        <v>3</v>
       </c>
       <c r="F90" t="n">
         <v>-99999</v>
@@ -4049,26 +4051,26 @@
         <v>-99999</v>
       </c>
       <c r="K90" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>FU2403-2404</t>
+          <t>FU2401-2402</t>
         </is>
       </c>
       <c r="B91" t="n">
         <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>-15</v>
+        <v>21</v>
       </c>
       <c r="D91" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="E91" t="n">
         <v>-99999</v>
@@ -4089,7 +4091,7 @@
         <v>-99999</v>
       </c>
       <c r="K91" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="L91" t="n">
         <v>3</v>
@@ -4098,7 +4100,7 @@
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>FU2404-2405</t>
+          <t>FU2402-2403</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -4138,7 +4140,7 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>FU2405-2406</t>
+          <t>FU2403-2404</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -4178,26 +4180,26 @@
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>HC2307-2308</t>
+          <t>FU2404-2405</t>
         </is>
       </c>
       <c r="B94" t="n">
         <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>-5</v>
+        <v>-15</v>
       </c>
       <c r="D94" t="n">
-        <v>-15</v>
+        <v>-20</v>
       </c>
       <c r="E94" t="n">
-        <v>-25</v>
+        <v>-99999</v>
       </c>
       <c r="F94" t="n">
-        <v>-35</v>
+        <v>-99999</v>
       </c>
       <c r="G94" t="n">
-        <v>-45</v>
+        <v>-99999</v>
       </c>
       <c r="H94" t="n">
         <v>-99999</v>
@@ -4209,7 +4211,7 @@
         <v>-99999</v>
       </c>
       <c r="K94" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="L94" t="n">
         <v>3</v>
@@ -4218,38 +4220,38 @@
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>HC2307-2309</t>
+          <t>FU2405-2406</t>
         </is>
       </c>
       <c r="B95" t="n">
         <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>10</v>
+        <v>-15</v>
       </c>
       <c r="D95" t="n">
-        <v>5</v>
+        <v>-20</v>
       </c>
       <c r="E95" t="n">
-        <v>5</v>
+        <v>-99999</v>
       </c>
       <c r="F95" t="n">
-        <v>4</v>
+        <v>-99999</v>
       </c>
       <c r="G95" t="n">
-        <v>3</v>
+        <v>-99999</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>-99999</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>-99999</v>
       </c>
       <c r="J95" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="K95" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L95" t="n">
         <v>3</v>
@@ -4258,26 +4260,26 @@
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>HC2308-2309</t>
+          <t>HC2307-2308</t>
         </is>
       </c>
       <c r="B96" t="n">
         <v>0</v>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D96" t="n">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="E96" t="n">
-        <v>-99999</v>
+        <v>-25</v>
       </c>
       <c r="F96" t="n">
-        <v>-99999</v>
+        <v>-35</v>
       </c>
       <c r="G96" t="n">
-        <v>-99999</v>
+        <v>-45</v>
       </c>
       <c r="H96" t="n">
         <v>-99999</v>
@@ -4289,7 +4291,7 @@
         <v>-99999</v>
       </c>
       <c r="K96" t="n">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="L96" t="n">
         <v>3</v>
@@ -4298,38 +4300,38 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>HC2309-2310</t>
+          <t>HC2307-2309</t>
         </is>
       </c>
       <c r="B97" t="n">
         <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="D97" t="n">
-        <v>-20</v>
+        <v>5</v>
       </c>
       <c r="E97" t="n">
-        <v>-30</v>
+        <v>5</v>
       </c>
       <c r="F97" t="n">
-        <v>-40</v>
+        <v>4</v>
       </c>
       <c r="G97" t="n">
-        <v>-50</v>
+        <v>3</v>
       </c>
       <c r="H97" t="n">
-        <v>-99999</v>
+        <v>2</v>
       </c>
       <c r="I97" t="n">
-        <v>-99999</v>
+        <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="K97" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="L97" t="n">
         <v>3</v>
@@ -4338,26 +4340,26 @@
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>HC2310-2311</t>
+          <t>HC2308-2309</t>
         </is>
       </c>
       <c r="B98" t="n">
         <v>0</v>
       </c>
       <c r="C98" t="n">
+        <v>0</v>
+      </c>
+      <c r="D98" t="n">
         <v>-10</v>
       </c>
-      <c r="D98" t="n">
-        <v>-20</v>
-      </c>
       <c r="E98" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="F98" t="n">
-        <v>-40</v>
+        <v>-99999</v>
       </c>
       <c r="G98" t="n">
-        <v>-50</v>
+        <v>-99999</v>
       </c>
       <c r="H98" t="n">
         <v>-99999</v>
@@ -4369,7 +4371,7 @@
         <v>-99999</v>
       </c>
       <c r="K98" t="n">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="L98" t="n">
         <v>3</v>
@@ -4378,7 +4380,7 @@
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>HC2311-2312</t>
+          <t>HC2309-2310</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -4391,13 +4393,13 @@
         <v>-20</v>
       </c>
       <c r="E99" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="F99" t="n">
-        <v>-99999</v>
+        <v>-40</v>
       </c>
       <c r="G99" t="n">
-        <v>-99999</v>
+        <v>-50</v>
       </c>
       <c r="H99" t="n">
         <v>-99999</v>
@@ -4409,7 +4411,7 @@
         <v>-99999</v>
       </c>
       <c r="K99" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L99" t="n">
         <v>3</v>
@@ -4418,26 +4420,26 @@
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>HC2312-2401</t>
+          <t>HC2310-2311</t>
         </is>
       </c>
       <c r="B100" t="n">
         <v>0</v>
       </c>
       <c r="C100" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="D100" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="E100" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="F100" t="n">
-        <v>-99999</v>
+        <v>-40</v>
       </c>
       <c r="G100" t="n">
-        <v>-99999</v>
+        <v>-50</v>
       </c>
       <c r="H100" t="n">
         <v>-99999</v>
@@ -4449,7 +4451,7 @@
         <v>-99999</v>
       </c>
       <c r="K100" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L100" t="n">
         <v>3</v>
@@ -4458,18 +4460,18 @@
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>HC2401-2402</t>
+          <t>HC2311-2312</t>
         </is>
       </c>
       <c r="B101" t="n">
         <v>0</v>
       </c>
       <c r="C101" t="n">
+        <v>-10</v>
+      </c>
+      <c r="D101" t="n">
         <v>-20</v>
       </c>
-      <c r="D101" t="n">
-        <v>-99999</v>
-      </c>
       <c r="E101" t="n">
         <v>-99999</v>
       </c>
@@ -4489,7 +4491,7 @@
         <v>-99999</v>
       </c>
       <c r="K101" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="L101" t="n">
         <v>3</v>
@@ -4498,7 +4500,7 @@
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>HC2402-2403</t>
+          <t>HC2312-2401</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -4538,14 +4540,14 @@
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>HC2403-2404</t>
+          <t>HC2401-2402</t>
         </is>
       </c>
       <c r="B103" t="n">
         <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="D103" t="n">
         <v>-99999</v>
@@ -4569,7 +4571,7 @@
         <v>-99999</v>
       </c>
       <c r="K103" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="L103" t="n">
         <v>3</v>
@@ -4578,17 +4580,17 @@
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>I2307-2308</t>
+          <t>HC2402-2403</t>
         </is>
       </c>
       <c r="B104" t="n">
         <v>0</v>
       </c>
       <c r="C104" t="n">
-        <v>4</v>
+        <v>-99999</v>
       </c>
       <c r="D104" t="n">
-        <v>-1</v>
+        <v>-99999</v>
       </c>
       <c r="E104" t="n">
         <v>-99999</v>
@@ -4609,26 +4611,26 @@
         <v>-99999</v>
       </c>
       <c r="K104" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="L104" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>I2308-2309</t>
+          <t>HC2403-2404</t>
         </is>
       </c>
       <c r="B105" t="n">
         <v>0</v>
       </c>
       <c r="C105" t="n">
-        <v>4.5</v>
+        <v>-99999</v>
       </c>
       <c r="D105" t="n">
-        <v>-1</v>
+        <v>-99999</v>
       </c>
       <c r="E105" t="n">
         <v>-99999</v>
@@ -4649,26 +4651,26 @@
         <v>-99999</v>
       </c>
       <c r="K105" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="L105" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>I2309-2310</t>
+          <t>I2307-2308</t>
         </is>
       </c>
       <c r="B106" t="n">
         <v>0</v>
       </c>
       <c r="C106" t="n">
-        <v>-99999</v>
+        <v>4</v>
       </c>
       <c r="D106" t="n">
-        <v>-99999</v>
+        <v>-1</v>
       </c>
       <c r="E106" t="n">
         <v>-99999</v>
@@ -4689,7 +4691,7 @@
         <v>-99999</v>
       </c>
       <c r="K106" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L106" t="n">
         <v>1</v>
@@ -4698,17 +4700,17 @@
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>I2310-2311</t>
+          <t>I2308-2309</t>
         </is>
       </c>
       <c r="B107" t="n">
         <v>0</v>
       </c>
       <c r="C107" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="D107" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E107" t="n">
         <v>-99999</v>
@@ -4729,26 +4731,26 @@
         <v>-99999</v>
       </c>
       <c r="K107" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L107" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>I2311-2312</t>
+          <t>I2309-2310</t>
         </is>
       </c>
       <c r="B108" t="n">
         <v>0</v>
       </c>
       <c r="C108" t="n">
-        <v>3</v>
+        <v>-99999</v>
       </c>
       <c r="D108" t="n">
-        <v>2</v>
+        <v>-99999</v>
       </c>
       <c r="E108" t="n">
         <v>-99999</v>
@@ -4769,23 +4771,23 @@
         <v>-99999</v>
       </c>
       <c r="K108" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L108" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>I2312-2401</t>
+          <t>I2310-2311</t>
         </is>
       </c>
       <c r="B109" t="n">
         <v>0</v>
       </c>
       <c r="C109" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="D109" t="n">
         <v>2</v>
@@ -4818,17 +4820,17 @@
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>I2401-2402</t>
+          <t>I2311-2312</t>
         </is>
       </c>
       <c r="B110" t="n">
         <v>0</v>
       </c>
       <c r="C110" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D110" t="n">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="E110" t="n">
         <v>-99999</v>
@@ -4858,17 +4860,17 @@
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>I2402-2403</t>
+          <t>I2312-2401</t>
         </is>
       </c>
       <c r="B111" t="n">
         <v>0</v>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="D111" t="n">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="E111" t="n">
         <v>-99999</v>
@@ -4898,7 +4900,7 @@
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>I2403-2404</t>
+          <t>I2401-2402</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -4938,17 +4940,17 @@
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>IC2306-2309</t>
+          <t>I2402-2403</t>
         </is>
       </c>
       <c r="B113" t="n">
         <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="D113" t="n">
-        <v>-99999</v>
+        <v>-3</v>
       </c>
       <c r="E113" t="n">
         <v>-99999</v>
@@ -4969,26 +4971,26 @@
         <v>-99999</v>
       </c>
       <c r="K113" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="L113" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>IC2309-2312</t>
+          <t>I2403-2404</t>
         </is>
       </c>
       <c r="B114" t="n">
         <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="D114" t="n">
-        <v>-99999</v>
+        <v>-3</v>
       </c>
       <c r="E114" t="n">
         <v>-99999</v>
@@ -5009,16 +5011,16 @@
         <v>-99999</v>
       </c>
       <c r="K114" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="L114" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>IF2306-2309</t>
+          <t>IC2306-2309</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -5058,17 +5060,17 @@
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>IF2308-2309</t>
+          <t>IC2309-2312</t>
         </is>
       </c>
       <c r="B116" t="n">
         <v>0</v>
       </c>
       <c r="C116" t="n">
-        <v>-7.4</v>
+        <v>-99999</v>
       </c>
       <c r="D116" t="n">
-        <v>-8.199999999999999</v>
+        <v>-99999</v>
       </c>
       <c r="E116" t="n">
         <v>-99999</v>
@@ -5089,16 +5091,16 @@
         <v>-99999</v>
       </c>
       <c r="K116" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L116" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>IF2309-2312</t>
+          <t>IF2306-2309</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -5138,17 +5140,17 @@
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>IH2307-2309</t>
+          <t>IF2308-2309</t>
         </is>
       </c>
       <c r="B118" t="n">
         <v>0</v>
       </c>
       <c r="C118" t="n">
-        <v>-12</v>
+        <v>-7.4</v>
       </c>
       <c r="D118" t="n">
-        <v>-13.6</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="E118" t="n">
         <v>-99999</v>
@@ -5169,7 +5171,7 @@
         <v>-99999</v>
       </c>
       <c r="K118" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L118" t="n">
         <v>2</v>
@@ -5178,20 +5180,20 @@
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>IH2309-2312</t>
+          <t>IF2309-2312</t>
         </is>
       </c>
       <c r="B119" t="n">
         <v>0</v>
       </c>
       <c r="C119" t="n">
-        <v>-16.4</v>
+        <v>-99999</v>
       </c>
       <c r="D119" t="n">
-        <v>-18.4</v>
+        <v>-99999</v>
       </c>
       <c r="E119" t="n">
-        <v>-20.4</v>
+        <v>-99999</v>
       </c>
       <c r="F119" t="n">
         <v>-99999</v>
@@ -5212,23 +5214,23 @@
         <v>20</v>
       </c>
       <c r="L119" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>IM2309-2312</t>
+          <t>IH2307-2309</t>
         </is>
       </c>
       <c r="B120" t="n">
         <v>0</v>
       </c>
       <c r="C120" t="n">
-        <v>-99999</v>
+        <v>-12</v>
       </c>
       <c r="D120" t="n">
-        <v>-99999</v>
+        <v>-13.6</v>
       </c>
       <c r="E120" t="n">
         <v>-99999</v>
@@ -5249,38 +5251,38 @@
         <v>-99999</v>
       </c>
       <c r="K120" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L120" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>L2307-2308</t>
+          <t>IH2309-2312</t>
         </is>
       </c>
       <c r="B121" t="n">
         <v>0</v>
       </c>
       <c r="C121" t="n">
-        <v>0</v>
+        <v>-16.4</v>
       </c>
       <c r="D121" t="n">
-        <v>-5</v>
+        <v>-18.4</v>
       </c>
       <c r="E121" t="n">
-        <v>-10</v>
+        <v>-20.4</v>
       </c>
       <c r="F121" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="G121" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="H121" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="I121" t="n">
         <v>-99999</v>
@@ -5289,38 +5291,38 @@
         <v>-99999</v>
       </c>
       <c r="K121" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L121" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>L2308-2309</t>
+          <t>IM2309-2312</t>
         </is>
       </c>
       <c r="B122" t="n">
         <v>0</v>
       </c>
       <c r="C122" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="D122" t="n">
-        <v>-5</v>
+        <v>-99999</v>
       </c>
       <c r="E122" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="F122" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="G122" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="H122" t="n">
-        <v>-40</v>
+        <v>-99999</v>
       </c>
       <c r="I122" t="n">
         <v>-99999</v>
@@ -5329,16 +5331,16 @@
         <v>-99999</v>
       </c>
       <c r="K122" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L122" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>L2309-2310</t>
+          <t>L2307-2308</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -5378,7 +5380,7 @@
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>L2310-2311</t>
+          <t>L2308-2309</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -5394,13 +5396,13 @@
         <v>-10</v>
       </c>
       <c r="F124" t="n">
-        <v>-15</v>
+        <v>-20</v>
       </c>
       <c r="G124" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="H124" t="n">
-        <v>-99999</v>
+        <v>-40</v>
       </c>
       <c r="I124" t="n">
         <v>-99999</v>
@@ -5418,7 +5420,7 @@
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>L2311-2312</t>
+          <t>L2309-2310</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -5437,10 +5439,10 @@
         <v>-15</v>
       </c>
       <c r="G125" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="H125" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="I125" t="n">
         <v>-99999</v>
@@ -5458,7 +5460,7 @@
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>L2312-2401</t>
+          <t>L2310-2311</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -5498,7 +5500,7 @@
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>L2402-2403</t>
+          <t>L2311-2312</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -5538,23 +5540,23 @@
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>LU2307-2306</t>
+          <t>L2312-2401</t>
         </is>
       </c>
       <c r="B128" t="n">
         <v>0</v>
       </c>
       <c r="C128" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="D128" t="n">
-        <v>-99999</v>
+        <v>-5</v>
       </c>
       <c r="E128" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="F128" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="G128" t="n">
         <v>-99999</v>
@@ -5578,7 +5580,7 @@
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>M2308-2309</t>
+          <t>L2402-2403</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -5594,10 +5596,10 @@
         <v>-10</v>
       </c>
       <c r="F129" t="n">
-        <v>-20</v>
+        <v>-15</v>
       </c>
       <c r="G129" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="H129" t="n">
         <v>-99999</v>
@@ -5609,7 +5611,7 @@
         <v>-99999</v>
       </c>
       <c r="K129" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="L129" t="n">
         <v>3</v>
@@ -5618,7 +5620,7 @@
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>M2309-2311</t>
+          <t>LU2307-2306</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -5649,7 +5651,7 @@
         <v>-99999</v>
       </c>
       <c r="K130" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="L130" t="n">
         <v>3</v>
@@ -5658,26 +5660,26 @@
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>M2311-2312</t>
+          <t>M2308-2309</t>
         </is>
       </c>
       <c r="B131" t="n">
         <v>0</v>
       </c>
       <c r="C131" t="n">
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="D131" t="n">
-        <v>-50</v>
+        <v>-5</v>
       </c>
       <c r="E131" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="F131" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="G131" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="H131" t="n">
         <v>-99999</v>
@@ -5689,29 +5691,29 @@
         <v>-99999</v>
       </c>
       <c r="K131" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L131" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>M2312-2401</t>
+          <t>M2309-2311</t>
         </is>
       </c>
       <c r="B132" t="n">
         <v>0</v>
       </c>
       <c r="C132" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="D132" t="n">
-        <v>-5</v>
+        <v>-99999</v>
       </c>
       <c r="E132" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="F132" t="n">
         <v>-99999</v>
@@ -5729,7 +5731,7 @@
         <v>-99999</v>
       </c>
       <c r="K132" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L132" t="n">
         <v>3</v>
@@ -5738,20 +5740,20 @@
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>M2401-2403</t>
+          <t>M2311-2312</t>
         </is>
       </c>
       <c r="B133" t="n">
         <v>0</v>
       </c>
       <c r="C133" t="n">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="D133" t="n">
-        <v>-10</v>
+        <v>-50</v>
       </c>
       <c r="E133" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="F133" t="n">
         <v>-99999</v>
@@ -5769,29 +5771,29 @@
         <v>-99999</v>
       </c>
       <c r="K133" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L133" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>MA2308-2309</t>
+          <t>M2312-2401</t>
         </is>
       </c>
       <c r="B134" t="n">
         <v>0</v>
       </c>
       <c r="C134" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="D134" t="n">
         <v>-5</v>
       </c>
       <c r="E134" t="n">
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="F134" t="n">
         <v>-99999</v>
@@ -5809,38 +5811,38 @@
         <v>-99999</v>
       </c>
       <c r="K134" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L134" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>MA2309-2310</t>
+          <t>M2401-2403</t>
         </is>
       </c>
       <c r="B135" t="n">
         <v>0</v>
       </c>
       <c r="C135" t="n">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="D135" t="n">
-        <v>-15</v>
+        <v>-10</v>
       </c>
       <c r="E135" t="n">
         <v>-20</v>
       </c>
       <c r="F135" t="n">
-        <v>-25</v>
+        <v>-99999</v>
       </c>
       <c r="G135" t="n">
-        <v>-25</v>
+        <v>-99999</v>
       </c>
       <c r="H135" t="n">
-        <v>-32</v>
+        <v>-99999</v>
       </c>
       <c r="I135" t="n">
         <v>-99999</v>
@@ -5849,7 +5851,7 @@
         <v>-99999</v>
       </c>
       <c r="K135" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L135" t="n">
         <v>3</v>
@@ -5858,20 +5860,20 @@
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>MA2310-2311</t>
+          <t>MA2308-2309</t>
         </is>
       </c>
       <c r="B136" t="n">
         <v>0</v>
       </c>
       <c r="C136" t="n">
-        <v>-20</v>
+        <v>-6</v>
       </c>
       <c r="D136" t="n">
-        <v>-22</v>
+        <v>-6</v>
       </c>
       <c r="E136" t="n">
-        <v>-99999</v>
+        <v>-6</v>
       </c>
       <c r="F136" t="n">
         <v>-99999</v>
@@ -5889,69 +5891,69 @@
         <v>-99999</v>
       </c>
       <c r="K136" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="L136" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>MA2311-2312</t>
+          <t>MA2309-2310</t>
         </is>
       </c>
       <c r="B137" t="n">
         <v>0</v>
       </c>
       <c r="C137" t="n">
-        <v>-45</v>
+        <v>-14</v>
       </c>
       <c r="D137" t="n">
-        <v>-50</v>
+        <v>-15</v>
       </c>
       <c r="E137" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="F137" t="n">
-        <v>-99999</v>
+        <v>-25</v>
       </c>
       <c r="G137" t="n">
-        <v>-99999</v>
+        <v>-25</v>
       </c>
       <c r="H137" t="n">
-        <v>-99999</v>
+        <v>-32</v>
       </c>
       <c r="I137" t="n">
-        <v>-99999</v>
+        <v>-40</v>
       </c>
       <c r="J137" t="n">
         <v>-99999</v>
       </c>
       <c r="K137" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L137" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>MA2312-2401</t>
+          <t>MA2310-2311</t>
         </is>
       </c>
       <c r="B138" t="n">
         <v>0</v>
       </c>
       <c r="C138" t="n">
-        <v>-5</v>
+        <v>-20</v>
       </c>
       <c r="D138" t="n">
-        <v>-15</v>
+        <v>-22</v>
       </c>
       <c r="E138" t="n">
-        <v>-25</v>
+        <v>-99999</v>
       </c>
       <c r="F138" t="n">
         <v>-99999</v>
@@ -5969,7 +5971,7 @@
         <v>-99999</v>
       </c>
       <c r="K138" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L138" t="n">
         <v>3</v>
@@ -5978,17 +5980,17 @@
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>NR2307-2308</t>
+          <t>MA2311-2312</t>
         </is>
       </c>
       <c r="B139" t="n">
         <v>0</v>
       </c>
       <c r="C139" t="n">
-        <v>-99999</v>
+        <v>-45</v>
       </c>
       <c r="D139" t="n">
-        <v>-99999</v>
+        <v>-50</v>
       </c>
       <c r="E139" t="n">
         <v>-99999</v>
@@ -6009,7 +6011,7 @@
         <v>-99999</v>
       </c>
       <c r="K139" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="L139" t="n">
         <v>1</v>
@@ -6018,20 +6020,20 @@
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>NR2309-2310</t>
+          <t>MA2312-2401</t>
         </is>
       </c>
       <c r="B140" t="n">
         <v>0</v>
       </c>
       <c r="C140" t="n">
-        <v>-30</v>
+        <v>-5</v>
       </c>
       <c r="D140" t="n">
-        <v>-40</v>
+        <v>-15</v>
       </c>
       <c r="E140" t="n">
-        <v>-99999</v>
+        <v>-25</v>
       </c>
       <c r="F140" t="n">
         <v>-99999</v>
@@ -6049,23 +6051,23 @@
         <v>-99999</v>
       </c>
       <c r="K140" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L140" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>NR2310-2311</t>
+          <t>NR2307-2308</t>
         </is>
       </c>
       <c r="B141" t="n">
         <v>0</v>
       </c>
       <c r="C141" t="n">
-        <v>-160</v>
+        <v>-99999</v>
       </c>
       <c r="D141" t="n">
         <v>-99999</v>
@@ -6089,7 +6091,7 @@
         <v>-99999</v>
       </c>
       <c r="K141" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="L141" t="n">
         <v>1</v>
@@ -6098,17 +6100,17 @@
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>NR2311-2312</t>
+          <t>NR2309-2310</t>
         </is>
       </c>
       <c r="B142" t="n">
         <v>0</v>
       </c>
       <c r="C142" t="n">
-        <v>-100</v>
+        <v>-30</v>
       </c>
       <c r="D142" t="n">
-        <v>-99999</v>
+        <v>-40</v>
       </c>
       <c r="E142" t="n">
         <v>-99999</v>
@@ -6138,17 +6140,17 @@
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>NR2312-2401</t>
+          <t>NR2310-2311</t>
         </is>
       </c>
       <c r="B143" t="n">
         <v>0</v>
       </c>
       <c r="C143" t="n">
-        <v>-70</v>
+        <v>-160</v>
       </c>
       <c r="D143" t="n">
-        <v>-90</v>
+        <v>-99999</v>
       </c>
       <c r="E143" t="n">
         <v>-99999</v>
@@ -6178,20 +6180,20 @@
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>OI2307-2309</t>
+          <t>NR2311-2312</t>
         </is>
       </c>
       <c r="B144" t="n">
         <v>0</v>
       </c>
       <c r="C144" t="n">
-        <v>-5</v>
+        <v>-100</v>
       </c>
       <c r="D144" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="E144" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="F144" t="n">
         <v>-99999</v>
@@ -6209,26 +6211,26 @@
         <v>-99999</v>
       </c>
       <c r="K144" t="n">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="L144" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>OI2309-2311</t>
+          <t>NR2312-2401</t>
         </is>
       </c>
       <c r="B145" t="n">
         <v>0</v>
       </c>
       <c r="C145" t="n">
-        <v>65</v>
+        <v>-70</v>
       </c>
       <c r="D145" t="n">
-        <v>-99999</v>
+        <v>-90</v>
       </c>
       <c r="E145" t="n">
         <v>-99999</v>
@@ -6249,29 +6251,29 @@
         <v>-99999</v>
       </c>
       <c r="K145" t="n">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="L145" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>OI2311-2401</t>
+          <t>OI2307-2309</t>
         </is>
       </c>
       <c r="B146" t="n">
         <v>0</v>
       </c>
       <c r="C146" t="n">
-        <v>-99999</v>
+        <v>-5</v>
       </c>
       <c r="D146" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="E146" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="F146" t="n">
         <v>-99999</v>
@@ -6289,7 +6291,7 @@
         <v>-99999</v>
       </c>
       <c r="K146" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L146" t="n">
         <v>3</v>
@@ -6298,29 +6300,29 @@
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>OI2401-2311</t>
+          <t>OI2309-2311</t>
         </is>
       </c>
       <c r="B147" t="n">
         <v>0</v>
       </c>
       <c r="C147" t="n">
-        <v>-170</v>
+        <v>65</v>
       </c>
       <c r="D147" t="n">
-        <v>-99999</v>
+        <v>12</v>
       </c>
       <c r="E147" t="n">
-        <v>-99999</v>
+        <v>-5</v>
       </c>
       <c r="F147" t="n">
-        <v>-99999</v>
+        <v>-11</v>
       </c>
       <c r="G147" t="n">
-        <v>-99999</v>
+        <v>-16</v>
       </c>
       <c r="H147" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="I147" t="n">
         <v>-99999</v>
@@ -6329,16 +6331,16 @@
         <v>-99999</v>
       </c>
       <c r="K147" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L147" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>PB2309-2310</t>
+          <t>OI2311-2401</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -6372,20 +6374,20 @@
         <v>20</v>
       </c>
       <c r="L148" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>PB2402-2403</t>
+          <t>OI2401-2311</t>
         </is>
       </c>
       <c r="B149" t="n">
         <v>0</v>
       </c>
       <c r="C149" t="n">
-        <v>-70</v>
+        <v>-170</v>
       </c>
       <c r="D149" t="n">
         <v>-99999</v>
@@ -6409,7 +6411,7 @@
         <v>-99999</v>
       </c>
       <c r="K149" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L149" t="n">
         <v>1</v>
@@ -6418,20 +6420,20 @@
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>PF2307-2308</t>
+          <t>PB2309-2310</t>
         </is>
       </c>
       <c r="B150" t="n">
         <v>0</v>
       </c>
       <c r="C150" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="D150" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="E150" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="F150" t="n">
         <v>-99999</v>
@@ -6449,23 +6451,23 @@
         <v>-99999</v>
       </c>
       <c r="K150" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L150" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>PF2308-2309</t>
+          <t>PB2402-2403</t>
         </is>
       </c>
       <c r="B151" t="n">
         <v>0</v>
       </c>
       <c r="C151" t="n">
-        <v>0</v>
+        <v>-70</v>
       </c>
       <c r="D151" t="n">
         <v>-99999</v>
@@ -6489,29 +6491,29 @@
         <v>-99999</v>
       </c>
       <c r="K151" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="L151" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>PF2309-2310</t>
+          <t>PF2307-2308</t>
         </is>
       </c>
       <c r="B152" t="n">
         <v>0</v>
       </c>
       <c r="C152" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="D152" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="E152" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="F152" t="n">
         <v>-99999</v>
@@ -6538,14 +6540,14 @@
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>PF2310-2311</t>
+          <t>PF2308-2309</t>
         </is>
       </c>
       <c r="B153" t="n">
         <v>0</v>
       </c>
       <c r="C153" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="D153" t="n">
         <v>-99999</v>
@@ -6569,7 +6571,7 @@
         <v>-99999</v>
       </c>
       <c r="K153" t="n">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="L153" t="n">
         <v>3</v>
@@ -6578,7 +6580,7 @@
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>PF2311-2312</t>
+          <t>PF2309-2310</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -6618,7 +6620,7 @@
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>PF2312-2401</t>
+          <t>PF2310-2311</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -6658,7 +6660,7 @@
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>PG2307-2308</t>
+          <t>PF2311-2312</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -6689,16 +6691,16 @@
         <v>-99999</v>
       </c>
       <c r="K156" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L156" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>PG2308-2309</t>
+          <t>PF2312-2401</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -6729,16 +6731,16 @@
         <v>-99999</v>
       </c>
       <c r="K157" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="L157" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>PG2309-2308</t>
+          <t>PG2307-2308</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -6769,7 +6771,7 @@
         <v>-99999</v>
       </c>
       <c r="K158" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L158" t="n">
         <v>0</v>
@@ -6778,20 +6780,20 @@
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>PP2307-2308</t>
+          <t>PG2308-2309</t>
         </is>
       </c>
       <c r="B159" t="n">
         <v>0</v>
       </c>
       <c r="C159" t="n">
-        <v>-8</v>
+        <v>-99999</v>
       </c>
       <c r="D159" t="n">
-        <v>-9</v>
+        <v>-99999</v>
       </c>
       <c r="E159" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="F159" t="n">
         <v>-99999</v>
@@ -6809,7 +6811,7 @@
         <v>-99999</v>
       </c>
       <c r="K159" t="n">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="L159" t="n">
         <v>1</v>
@@ -6818,17 +6820,17 @@
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>PP2308-2309</t>
+          <t>PG2309-2308</t>
         </is>
       </c>
       <c r="B160" t="n">
         <v>0</v>
       </c>
       <c r="C160" t="n">
-        <v>10</v>
+        <v>-99999</v>
       </c>
       <c r="D160" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="E160" t="n">
         <v>-99999</v>
@@ -6852,29 +6854,29 @@
         <v>20</v>
       </c>
       <c r="L160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>PP2309-2310</t>
+          <t>PP2307-2308</t>
         </is>
       </c>
       <c r="B161" t="n">
         <v>0</v>
       </c>
       <c r="C161" t="n">
-        <v>10</v>
+        <v>-8</v>
       </c>
       <c r="D161" t="n">
-        <v>5</v>
+        <v>-9</v>
       </c>
       <c r="E161" t="n">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="F161" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="G161" t="n">
         <v>-99999</v>
@@ -6889,7 +6891,7 @@
         <v>-99999</v>
       </c>
       <c r="K161" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="L161" t="n">
         <v>1</v>
@@ -6898,23 +6900,23 @@
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>PP2310-2311</t>
+          <t>PP2308-2309</t>
         </is>
       </c>
       <c r="B162" t="n">
         <v>0</v>
       </c>
       <c r="C162" t="n">
-        <v>10</v>
+        <v>-30</v>
       </c>
       <c r="D162" t="n">
-        <v>5</v>
+        <v>-99999</v>
       </c>
       <c r="E162" t="n">
-        <v>3</v>
+        <v>-99999</v>
       </c>
       <c r="F162" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="G162" t="n">
         <v>-99999</v>
@@ -6929,16 +6931,16 @@
         <v>-99999</v>
       </c>
       <c r="K162" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="L162" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>PP2311-2312</t>
+          <t>PP2309-2310</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -6951,7 +6953,7 @@
         <v>5</v>
       </c>
       <c r="E163" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F163" t="n">
         <v>-10</v>
@@ -6972,29 +6974,29 @@
         <v>35</v>
       </c>
       <c r="L163" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>PP2312-2401</t>
+          <t>PP2310-2311</t>
         </is>
       </c>
       <c r="B164" t="n">
         <v>0</v>
       </c>
       <c r="C164" t="n">
-        <v>-5</v>
+        <v>10</v>
       </c>
       <c r="D164" t="n">
+        <v>5</v>
+      </c>
+      <c r="E164" t="n">
+        <v>3</v>
+      </c>
+      <c r="F164" t="n">
         <v>-10</v>
-      </c>
-      <c r="E164" t="n">
-        <v>-15</v>
-      </c>
-      <c r="F164" t="n">
-        <v>-20</v>
       </c>
       <c r="G164" t="n">
         <v>-99999</v>
@@ -7018,23 +7020,23 @@
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>PP2401-2402</t>
+          <t>PP2311-2312</t>
         </is>
       </c>
       <c r="B165" t="n">
         <v>0</v>
       </c>
       <c r="C165" t="n">
-        <v>-5</v>
+        <v>10</v>
       </c>
       <c r="D165" t="n">
+        <v>5</v>
+      </c>
+      <c r="E165" t="n">
+        <v>3</v>
+      </c>
+      <c r="F165" t="n">
         <v>-10</v>
-      </c>
-      <c r="E165" t="n">
-        <v>-15</v>
-      </c>
-      <c r="F165" t="n">
-        <v>-20</v>
       </c>
       <c r="G165" t="n">
         <v>-99999</v>
@@ -7058,7 +7060,7 @@
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>PP2402-2403</t>
+          <t>PP2312-2401</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -7068,13 +7070,13 @@
         <v>-5</v>
       </c>
       <c r="D166" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="E166" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="F166" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="G166" t="n">
         <v>-99999</v>
@@ -7098,23 +7100,23 @@
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>RB2307-2308</t>
+          <t>PP2401-2402</t>
         </is>
       </c>
       <c r="B167" t="n">
         <v>0</v>
       </c>
       <c r="C167" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D167" t="n">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="E167" t="n">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="F167" t="n">
-        <v>-15</v>
+        <v>-20</v>
       </c>
       <c r="G167" t="n">
         <v>-99999</v>
@@ -7129,7 +7131,7 @@
         <v>-99999</v>
       </c>
       <c r="K167" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="L167" t="n">
         <v>3</v>
@@ -7138,17 +7140,17 @@
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>RB2308-2309</t>
+          <t>PP2402-2403</t>
         </is>
       </c>
       <c r="B168" t="n">
         <v>0</v>
       </c>
       <c r="C168" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D168" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="E168" t="n">
         <v>-99999</v>
@@ -7169,7 +7171,7 @@
         <v>-99999</v>
       </c>
       <c r="K168" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="L168" t="n">
         <v>3</v>
@@ -7178,23 +7180,23 @@
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>RB2309-2310</t>
+          <t>RB2307-2308</t>
         </is>
       </c>
       <c r="B169" t="n">
         <v>0</v>
       </c>
       <c r="C169" t="n">
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="D169" t="n">
-        <v>-40</v>
+        <v>-5</v>
       </c>
       <c r="E169" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="F169" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="G169" t="n">
         <v>-99999</v>
@@ -7209,7 +7211,7 @@
         <v>-99999</v>
       </c>
       <c r="K169" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L169" t="n">
         <v>3</v>
@@ -7218,17 +7220,17 @@
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>RB2310-2311</t>
+          <t>RB2308-2309</t>
         </is>
       </c>
       <c r="B170" t="n">
         <v>0</v>
       </c>
       <c r="C170" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="D170" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="E170" t="n">
         <v>-99999</v>
@@ -7249,32 +7251,32 @@
         <v>-99999</v>
       </c>
       <c r="K170" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L170" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>RB2311-2312</t>
+          <t>RB2309-2310</t>
         </is>
       </c>
       <c r="B171" t="n">
         <v>0</v>
       </c>
       <c r="C171" t="n">
-        <v>-99999</v>
+        <v>-35</v>
       </c>
       <c r="D171" t="n">
-        <v>-99999</v>
+        <v>-40</v>
       </c>
       <c r="E171" t="n">
-        <v>-99999</v>
+        <v>-45</v>
       </c>
       <c r="F171" t="n">
-        <v>-99999</v>
+        <v>-50</v>
       </c>
       <c r="G171" t="n">
         <v>-99999</v>
@@ -7289,16 +7291,16 @@
         <v>-99999</v>
       </c>
       <c r="K171" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L171" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>RB2312-2401</t>
+          <t>RB2310-2311</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -7332,13 +7334,13 @@
         <v>20</v>
       </c>
       <c r="L172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>RB2401-2402</t>
+          <t>RB2311-2312</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -7372,13 +7374,13 @@
         <v>20</v>
       </c>
       <c r="L173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>RB2402-2403</t>
+          <t>RB2312-2401</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -7418,7 +7420,7 @@
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>RB2403-2404</t>
+          <t>RB2401-2402</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -7458,17 +7460,17 @@
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>RM2307-2308</t>
+          <t>RB2402-2403</t>
         </is>
       </c>
       <c r="B176" t="n">
         <v>0</v>
       </c>
       <c r="C176" t="n">
-        <v>-70</v>
+        <v>-99999</v>
       </c>
       <c r="D176" t="n">
-        <v>-100</v>
+        <v>-99999</v>
       </c>
       <c r="E176" t="n">
         <v>-99999</v>
@@ -7489,35 +7491,35 @@
         <v>-99999</v>
       </c>
       <c r="K176" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L176" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>RM2308-2309</t>
+          <t>RB2403-2404</t>
         </is>
       </c>
       <c r="B177" t="n">
         <v>0</v>
       </c>
       <c r="C177" t="n">
-        <v>10</v>
+        <v>-99999</v>
       </c>
       <c r="D177" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="E177" t="n">
-        <v>-5</v>
+        <v>-99999</v>
       </c>
       <c r="F177" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="G177" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="H177" t="n">
         <v>-99999</v>
@@ -7532,32 +7534,32 @@
         <v>20</v>
       </c>
       <c r="L177" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>RM2309-2311</t>
+          <t>RM2307-2308</t>
         </is>
       </c>
       <c r="B178" t="n">
         <v>0</v>
       </c>
       <c r="C178" t="n">
-        <v>10</v>
+        <v>-70</v>
       </c>
       <c r="D178" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E178" t="n">
-        <v>-5</v>
+        <v>-99999</v>
       </c>
       <c r="F178" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="G178" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="H178" t="n">
         <v>-99999</v>
@@ -7569,7 +7571,7 @@
         <v>-99999</v>
       </c>
       <c r="K178" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L178" t="n">
         <v>3</v>
@@ -7578,26 +7580,26 @@
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>RM2401-2403</t>
+          <t>RM2308-2309</t>
         </is>
       </c>
       <c r="B179" t="n">
         <v>0</v>
       </c>
       <c r="C179" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D179" t="n">
+        <v>0</v>
+      </c>
+      <c r="E179" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F179" t="n">
         <v>-10</v>
       </c>
-      <c r="E179" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F179" t="n">
-        <v>-99999</v>
-      </c>
       <c r="G179" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="H179" t="n">
         <v>-99999</v>
@@ -7618,26 +7620,26 @@
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>RR2308-2309</t>
+          <t>RM2309-2311</t>
         </is>
       </c>
       <c r="B180" t="n">
         <v>0</v>
       </c>
       <c r="C180" t="n">
-        <v>-75</v>
+        <v>10</v>
       </c>
       <c r="D180" t="n">
-        <v>-80</v>
+        <v>0</v>
       </c>
       <c r="E180" t="n">
-        <v>-99999</v>
+        <v>-5</v>
       </c>
       <c r="F180" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="G180" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="H180" t="n">
         <v>-99999</v>
@@ -7649,29 +7651,29 @@
         <v>-99999</v>
       </c>
       <c r="K180" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L180" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>RU2307-2308</t>
+          <t>RM2401-2403</t>
         </is>
       </c>
       <c r="B181" t="n">
         <v>0</v>
       </c>
       <c r="C181" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="D181" t="n">
-        <v>-100</v>
+        <v>-10</v>
       </c>
       <c r="E181" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="F181" t="n">
         <v>-99999</v>
@@ -7689,16 +7691,16 @@
         <v>-99999</v>
       </c>
       <c r="K181" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="L181" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>RU2308-2309</t>
+          <t>RR2308-2309</t>
         </is>
       </c>
       <c r="B182" t="n">
@@ -7708,7 +7710,7 @@
         <v>-75</v>
       </c>
       <c r="D182" t="n">
-        <v>-99999</v>
+        <v>-80</v>
       </c>
       <c r="E182" t="n">
         <v>-99999</v>
@@ -7729,26 +7731,26 @@
         <v>-99999</v>
       </c>
       <c r="K182" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L182" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>RU2309-2310</t>
+          <t>RU2307-2308</t>
         </is>
       </c>
       <c r="B183" t="n">
         <v>0</v>
       </c>
       <c r="C183" t="n">
-        <v>-60</v>
+        <v>-100</v>
       </c>
       <c r="D183" t="n">
-        <v>-110</v>
+        <v>-100</v>
       </c>
       <c r="E183" t="n">
         <v>-99999</v>
@@ -7769,7 +7771,7 @@
         <v>-99999</v>
       </c>
       <c r="K183" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="L183" t="n">
         <v>1</v>
@@ -7778,20 +7780,20 @@
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>RU2310-2311</t>
+          <t>RU2308-2309</t>
         </is>
       </c>
       <c r="B184" t="n">
         <v>0</v>
       </c>
       <c r="C184" t="n">
-        <v>0</v>
+        <v>-75</v>
       </c>
       <c r="D184" t="n">
-        <v>-70</v>
+        <v>-99999</v>
       </c>
       <c r="E184" t="n">
-        <v>-80</v>
+        <v>-99999</v>
       </c>
       <c r="F184" t="n">
         <v>-99999</v>
@@ -7809,7 +7811,7 @@
         <v>-99999</v>
       </c>
       <c r="K184" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L184" t="n">
         <v>1</v>
@@ -7818,17 +7820,17 @@
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>RU2311-2401</t>
+          <t>RU2309-2310</t>
         </is>
       </c>
       <c r="B185" t="n">
         <v>0</v>
       </c>
       <c r="C185" t="n">
-        <v>-1800</v>
+        <v>-60</v>
       </c>
       <c r="D185" t="n">
-        <v>-99999</v>
+        <v>-110</v>
       </c>
       <c r="E185" t="n">
         <v>-99999</v>
@@ -7849,7 +7851,7 @@
         <v>-99999</v>
       </c>
       <c r="K185" t="n">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c r="L185" t="n">
         <v>1</v>
@@ -7858,20 +7860,20 @@
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>RU2401-2403</t>
+          <t>RU2310-2311</t>
         </is>
       </c>
       <c r="B186" t="n">
         <v>0</v>
       </c>
       <c r="C186" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="D186" t="n">
-        <v>-120</v>
+        <v>-70</v>
       </c>
       <c r="E186" t="n">
-        <v>-99999</v>
+        <v>-80</v>
       </c>
       <c r="F186" t="n">
         <v>-99999</v>
@@ -7889,7 +7891,7 @@
         <v>-99999</v>
       </c>
       <c r="K186" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="L186" t="n">
         <v>1</v>
@@ -7898,20 +7900,20 @@
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>RU2403-2404</t>
+          <t>RU2311-2401</t>
         </is>
       </c>
       <c r="B187" t="n">
         <v>0</v>
       </c>
       <c r="C187" t="n">
-        <v>-60</v>
+        <v>-1800</v>
       </c>
       <c r="D187" t="n">
-        <v>-70</v>
+        <v>-99999</v>
       </c>
       <c r="E187" t="n">
-        <v>-80</v>
+        <v>-99999</v>
       </c>
       <c r="F187" t="n">
         <v>-99999</v>
@@ -7929,7 +7931,7 @@
         <v>-99999</v>
       </c>
       <c r="K187" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="L187" t="n">
         <v>1</v>
@@ -7938,17 +7940,17 @@
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>SA2308-2309</t>
+          <t>RU2401-2403</t>
         </is>
       </c>
       <c r="B188" t="n">
         <v>0</v>
       </c>
       <c r="C188" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="D188" t="n">
-        <v>-99999</v>
+        <v>-120</v>
       </c>
       <c r="E188" t="n">
         <v>-99999</v>
@@ -7978,20 +7980,20 @@
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>SA2310-2311</t>
+          <t>RU2403-2404</t>
         </is>
       </c>
       <c r="B189" t="n">
         <v>0</v>
       </c>
       <c r="C189" t="n">
-        <v>0</v>
+        <v>-60</v>
       </c>
       <c r="D189" t="n">
-        <v>-99999</v>
+        <v>-70</v>
       </c>
       <c r="E189" t="n">
-        <v>-99999</v>
+        <v>-80</v>
       </c>
       <c r="F189" t="n">
         <v>-99999</v>
@@ -8009,7 +8011,7 @@
         <v>-99999</v>
       </c>
       <c r="K189" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="L189" t="n">
         <v>1</v>
@@ -8018,7 +8020,7 @@
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>SA2311-2312</t>
+          <t>SA2308-2309</t>
         </is>
       </c>
       <c r="B190" t="n">
@@ -8028,7 +8030,7 @@
         <v>0</v>
       </c>
       <c r="D190" t="n">
-        <v>-3</v>
+        <v>-99999</v>
       </c>
       <c r="E190" t="n">
         <v>-99999</v>
@@ -8049,23 +8051,23 @@
         <v>-99999</v>
       </c>
       <c r="K190" t="n">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="L190" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>SA2312-2401</t>
+          <t>SA2310-2311</t>
         </is>
       </c>
       <c r="B191" t="n">
         <v>0</v>
       </c>
       <c r="C191" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D191" t="n">
         <v>-99999</v>
@@ -8089,29 +8091,29 @@
         <v>-99999</v>
       </c>
       <c r="K191" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="L191" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>SA2401-2402</t>
+          <t>SA2311-2312</t>
         </is>
       </c>
       <c r="B192" t="n">
         <v>0</v>
       </c>
       <c r="C192" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="D192" t="n">
-        <v>-30</v>
+        <v>-3</v>
       </c>
       <c r="E192" t="n">
-        <v>-35</v>
+        <v>-99999</v>
       </c>
       <c r="F192" t="n">
         <v>-99999</v>
@@ -8129,29 +8131,29 @@
         <v>-99999</v>
       </c>
       <c r="K192" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L192" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>SA2402-2403</t>
+          <t>SA2312-2401</t>
         </is>
       </c>
       <c r="B193" t="n">
         <v>0</v>
       </c>
       <c r="C193" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D193" t="n">
-        <v>18</v>
+        <v>-99999</v>
       </c>
       <c r="E193" t="n">
-        <v>4</v>
+        <v>-99999</v>
       </c>
       <c r="F193" t="n">
         <v>-99999</v>
@@ -8178,23 +8180,23 @@
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>SA2403-2404</t>
+          <t>SA2401-2402</t>
         </is>
       </c>
       <c r="B194" t="n">
         <v>0</v>
       </c>
       <c r="C194" t="n">
-        <v>-15</v>
+        <v>-25</v>
       </c>
       <c r="D194" t="n">
-        <v>-17</v>
+        <v>-30</v>
       </c>
       <c r="E194" t="n">
         <v>-35</v>
       </c>
       <c r="F194" t="n">
-        <v>-40</v>
+        <v>-99999</v>
       </c>
       <c r="G194" t="n">
         <v>-99999</v>
@@ -8218,23 +8220,23 @@
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>SC2307-2308</t>
+          <t>SA2402-2403</t>
         </is>
       </c>
       <c r="B195" t="n">
         <v>0</v>
       </c>
       <c r="C195" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D195" t="n">
-        <v>-3.5</v>
+        <v>18</v>
       </c>
       <c r="E195" t="n">
-        <v>-3.5</v>
+        <v>4</v>
       </c>
       <c r="F195" t="n">
-        <v>-3.5</v>
+        <v>-99999</v>
       </c>
       <c r="G195" t="n">
         <v>-99999</v>
@@ -8249,35 +8251,35 @@
         <v>-99999</v>
       </c>
       <c r="K195" t="n">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="L195" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>SC2308-2309</t>
+          <t>SA2403-2404</t>
         </is>
       </c>
       <c r="B196" t="n">
         <v>0</v>
       </c>
       <c r="C196" t="n">
-        <v>4</v>
+        <v>-15</v>
       </c>
       <c r="D196" t="n">
-        <v>-1.1</v>
+        <v>-17</v>
       </c>
       <c r="E196" t="n">
-        <v>-2</v>
+        <v>-35</v>
       </c>
       <c r="F196" t="n">
-        <v>-2.5</v>
+        <v>-40</v>
       </c>
       <c r="G196" t="n">
-        <v>-4</v>
+        <v>-99999</v>
       </c>
       <c r="H196" t="n">
         <v>-99999</v>
@@ -8289,32 +8291,32 @@
         <v>-99999</v>
       </c>
       <c r="K196" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L196" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>SC2309-2308</t>
+          <t>SC2307-2308</t>
         </is>
       </c>
       <c r="B197" t="n">
         <v>0</v>
       </c>
       <c r="C197" t="n">
-        <v>-99999</v>
+        <v>1</v>
       </c>
       <c r="D197" t="n">
-        <v>-99999</v>
+        <v>-3.5</v>
       </c>
       <c r="E197" t="n">
-        <v>-99999</v>
+        <v>-3.5</v>
       </c>
       <c r="F197" t="n">
-        <v>-99999</v>
+        <v>-3.5</v>
       </c>
       <c r="G197" t="n">
         <v>-99999</v>
@@ -8329,7 +8331,7 @@
         <v>-99999</v>
       </c>
       <c r="K197" t="n">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="L197" t="n">
         <v>1</v>
@@ -8338,23 +8340,23 @@
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>SC2309-2310</t>
+          <t>SC2308-2309</t>
         </is>
       </c>
       <c r="B198" t="n">
         <v>0</v>
       </c>
       <c r="C198" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="D198" t="n">
-        <v>-0.5</v>
+        <v>-99999</v>
       </c>
       <c r="E198" t="n">
-        <v>-1</v>
+        <v>-99999</v>
       </c>
       <c r="F198" t="n">
-        <v>-1.5</v>
+        <v>-99999</v>
       </c>
       <c r="G198" t="n">
         <v>-99999</v>
@@ -8369,7 +8371,7 @@
         <v>-99999</v>
       </c>
       <c r="K198" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L198" t="n">
         <v>1</v>
@@ -8378,14 +8380,14 @@
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>SC2310-2309</t>
+          <t>SC2309-2308</t>
         </is>
       </c>
       <c r="B199" t="n">
         <v>0</v>
       </c>
       <c r="C199" t="n">
-        <v>-5</v>
+        <v>-99999</v>
       </c>
       <c r="D199" t="n">
         <v>-99999</v>
@@ -8409,7 +8411,7 @@
         <v>-99999</v>
       </c>
       <c r="K199" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L199" t="n">
         <v>1</v>
@@ -8418,23 +8420,23 @@
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>SC2310-2311</t>
+          <t>SC2309-2310</t>
         </is>
       </c>
       <c r="B200" t="n">
         <v>0</v>
       </c>
       <c r="C200" t="n">
+        <v>0</v>
+      </c>
+      <c r="D200" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="E200" t="n">
         <v>-1</v>
       </c>
-      <c r="D200" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E200" t="n">
-        <v>-99999</v>
-      </c>
       <c r="F200" t="n">
-        <v>-99999</v>
+        <v>-1.5</v>
       </c>
       <c r="G200" t="n">
         <v>-99999</v>
@@ -8449,7 +8451,7 @@
         <v>-99999</v>
       </c>
       <c r="K200" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L200" t="n">
         <v>1</v>
@@ -8458,14 +8460,14 @@
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>SC2311-2312</t>
+          <t>SC2310-2309</t>
         </is>
       </c>
       <c r="B201" t="n">
         <v>0</v>
       </c>
       <c r="C201" t="n">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="D201" t="n">
         <v>-99999</v>
@@ -8489,7 +8491,7 @@
         <v>-99999</v>
       </c>
       <c r="K201" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L201" t="n">
         <v>1</v>
@@ -8498,17 +8500,17 @@
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>SN2308-2309</t>
+          <t>SC2310-2311</t>
         </is>
       </c>
       <c r="B202" t="n">
         <v>0</v>
       </c>
       <c r="C202" t="n">
-        <v>-150</v>
+        <v>-1</v>
       </c>
       <c r="D202" t="n">
-        <v>-250</v>
+        <v>-99999</v>
       </c>
       <c r="E202" t="n">
         <v>-99999</v>
@@ -8529,7 +8531,7 @@
         <v>-99999</v>
       </c>
       <c r="K202" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="L202" t="n">
         <v>1</v>
@@ -8538,17 +8540,17 @@
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>SP2307-2308</t>
+          <t>SC2311-2312</t>
         </is>
       </c>
       <c r="B203" t="n">
         <v>0</v>
       </c>
       <c r="C203" t="n">
-        <v>-40</v>
+        <v>-2</v>
       </c>
       <c r="D203" t="n">
-        <v>-40</v>
+        <v>-99999</v>
       </c>
       <c r="E203" t="n">
         <v>-99999</v>
@@ -8572,23 +8574,23 @@
         <v>30</v>
       </c>
       <c r="L203" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>SP2308-2309</t>
+          <t>SN2308-2309</t>
         </is>
       </c>
       <c r="B204" t="n">
         <v>0</v>
       </c>
       <c r="C204" t="n">
-        <v>-36</v>
+        <v>-320</v>
       </c>
       <c r="D204" t="n">
-        <v>-99999</v>
+        <v>-320</v>
       </c>
       <c r="E204" t="n">
         <v>-99999</v>
@@ -8609,47 +8611,47 @@
         <v>-99999</v>
       </c>
       <c r="K204" t="n">
+        <v>25</v>
+      </c>
+      <c r="L204" t="n">
         <v>1</v>
-      </c>
-      <c r="L204" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>SP2309-2310</t>
+          <t>SP2307-2308</t>
         </is>
       </c>
       <c r="B205" t="n">
         <v>0</v>
       </c>
       <c r="C205" t="n">
-        <v>-2</v>
+        <v>-40</v>
       </c>
       <c r="D205" t="n">
-        <v>-12</v>
+        <v>-40</v>
       </c>
       <c r="E205" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="F205" t="n">
-        <v>-24</v>
+        <v>-99999</v>
       </c>
       <c r="G205" t="n">
-        <v>-26</v>
+        <v>-99999</v>
       </c>
       <c r="H205" t="n">
-        <v>-28</v>
+        <v>-99999</v>
       </c>
       <c r="I205" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="J205" t="n">
         <v>-99999</v>
       </c>
       <c r="K205" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="L205" t="n">
         <v>3</v>
@@ -8658,38 +8660,38 @@
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>SP2310-2311</t>
+          <t>SP2308-2309</t>
         </is>
       </c>
       <c r="B206" t="n">
         <v>0</v>
       </c>
       <c r="C206" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="D206" t="n">
-        <v>-2</v>
+        <v>-99999</v>
       </c>
       <c r="E206" t="n">
-        <v>-8</v>
+        <v>-99999</v>
       </c>
       <c r="F206" t="n">
-        <v>-18</v>
+        <v>-99999</v>
       </c>
       <c r="G206" t="n">
-        <v>-24</v>
+        <v>-99999</v>
       </c>
       <c r="H206" t="n">
-        <v>-28</v>
+        <v>-99999</v>
       </c>
       <c r="I206" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="J206" t="n">
         <v>-99999</v>
       </c>
       <c r="K206" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="L206" t="n">
         <v>3</v>
@@ -8698,32 +8700,32 @@
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>SP2311-2312</t>
+          <t>SP2309-2310</t>
         </is>
       </c>
       <c r="B207" t="n">
         <v>0</v>
       </c>
       <c r="C207" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D207" t="n">
-        <v>-2</v>
+        <v>-12</v>
       </c>
       <c r="E207" t="n">
-        <v>-8</v>
+        <v>-20</v>
       </c>
       <c r="F207" t="n">
-        <v>-20</v>
+        <v>-26</v>
       </c>
       <c r="G207" t="n">
-        <v>-26</v>
+        <v>-34</v>
       </c>
       <c r="H207" t="n">
-        <v>-28</v>
+        <v>-99999</v>
       </c>
       <c r="I207" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="J207" t="n">
         <v>-99999</v>
@@ -8732,32 +8734,32 @@
         <v>12</v>
       </c>
       <c r="L207" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>SP2312-2401</t>
+          <t>SP2310-2311</t>
         </is>
       </c>
       <c r="B208" t="n">
         <v>0</v>
       </c>
       <c r="C208" t="n">
-        <v>-160</v>
+        <v>0</v>
       </c>
       <c r="D208" t="n">
-        <v>-165</v>
+        <v>-2</v>
       </c>
       <c r="E208" t="n">
-        <v>-170</v>
+        <v>-8</v>
       </c>
       <c r="F208" t="n">
-        <v>-175</v>
+        <v>-26</v>
       </c>
       <c r="G208" t="n">
-        <v>-99999</v>
+        <v>-34</v>
       </c>
       <c r="H208" t="n">
         <v>-99999</v>
@@ -8772,32 +8774,32 @@
         <v>12</v>
       </c>
       <c r="L208" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>SP2401-2402</t>
+          <t>SP2311-2312</t>
         </is>
       </c>
       <c r="B209" t="n">
         <v>0</v>
       </c>
       <c r="C209" t="n">
+        <v>0</v>
+      </c>
+      <c r="D209" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E209" t="n">
         <v>-8</v>
       </c>
-      <c r="D209" t="n">
-        <v>-12</v>
-      </c>
-      <c r="E209" t="n">
-        <v>-16</v>
-      </c>
       <c r="F209" t="n">
-        <v>-20</v>
+        <v>-26</v>
       </c>
       <c r="G209" t="n">
-        <v>-24</v>
+        <v>-34</v>
       </c>
       <c r="H209" t="n">
         <v>-99999</v>
@@ -8818,23 +8820,23 @@
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>SP2402-2403</t>
+          <t>SP2312-2401</t>
         </is>
       </c>
       <c r="B210" t="n">
         <v>0</v>
       </c>
       <c r="C210" t="n">
-        <v>-15</v>
+        <v>-126</v>
       </c>
       <c r="D210" t="n">
-        <v>-20</v>
+        <v>-140</v>
       </c>
       <c r="E210" t="n">
-        <v>-25</v>
+        <v>-165</v>
       </c>
       <c r="F210" t="n">
-        <v>-30</v>
+        <v>-175</v>
       </c>
       <c r="G210" t="n">
         <v>-99999</v>
@@ -8849,35 +8851,35 @@
         <v>-99999</v>
       </c>
       <c r="K210" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L210" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>SP2403-2404</t>
+          <t>SP2401-2402</t>
         </is>
       </c>
       <c r="B211" t="n">
         <v>0</v>
       </c>
       <c r="C211" t="n">
-        <v>-15</v>
+        <v>-8</v>
       </c>
       <c r="D211" t="n">
+        <v>-12</v>
+      </c>
+      <c r="E211" t="n">
+        <v>-16</v>
+      </c>
+      <c r="F211" t="n">
         <v>-20</v>
       </c>
-      <c r="E211" t="n">
-        <v>-25</v>
-      </c>
-      <c r="F211" t="n">
-        <v>-30</v>
-      </c>
       <c r="G211" t="n">
-        <v>-99999</v>
+        <v>-24</v>
       </c>
       <c r="H211" t="n">
         <v>-99999</v>
@@ -8898,7 +8900,7 @@
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>SP2404-2405</t>
+          <t>SP2402-2403</t>
         </is>
       </c>
       <c r="B212" t="n">
@@ -8908,13 +8910,13 @@
         <v>-15</v>
       </c>
       <c r="D212" t="n">
-        <v>-20</v>
+        <v>-25</v>
       </c>
       <c r="E212" t="n">
-        <v>-25</v>
+        <v>-99999</v>
       </c>
       <c r="F212" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="G212" t="n">
         <v>-99999</v>
@@ -8938,17 +8940,17 @@
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>TA2307-2308</t>
+          <t>SP2403-2404</t>
         </is>
       </c>
       <c r="B213" t="n">
         <v>0</v>
       </c>
       <c r="C213" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="D213" t="n">
-        <v>-99999</v>
+        <v>-25</v>
       </c>
       <c r="E213" t="n">
         <v>-99999</v>
@@ -8969,7 +8971,7 @@
         <v>-99999</v>
       </c>
       <c r="K213" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L213" t="n">
         <v>3</v>
@@ -8978,17 +8980,17 @@
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>TA2307-2309</t>
+          <t>SP2404-2405</t>
         </is>
       </c>
       <c r="B214" t="n">
         <v>0</v>
       </c>
       <c r="C214" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="D214" t="n">
-        <v>-99999</v>
+        <v>-25</v>
       </c>
       <c r="E214" t="n">
         <v>-99999</v>
@@ -9009,7 +9011,7 @@
         <v>-99999</v>
       </c>
       <c r="K214" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L214" t="n">
         <v>3</v>
@@ -9018,7 +9020,7 @@
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>TA2308-2309</t>
+          <t>TA2307-2308</t>
         </is>
       </c>
       <c r="B215" t="n">
@@ -9058,7 +9060,7 @@
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>TA2309-2310</t>
+          <t>TA2307-2309</t>
         </is>
       </c>
       <c r="B216" t="n">
@@ -9098,7 +9100,7 @@
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>TA2310-2311</t>
+          <t>TA2308-2309</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -9138,7 +9140,7 @@
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>TA2311-2312</t>
+          <t>TA2309-2310</t>
         </is>
       </c>
       <c r="B218" t="n">
@@ -9178,17 +9180,17 @@
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>TA2312-2401</t>
+          <t>TA2310-2311</t>
         </is>
       </c>
       <c r="B219" t="n">
         <v>0</v>
       </c>
       <c r="C219" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="D219" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="E219" t="n">
         <v>-99999</v>
@@ -9209,7 +9211,7 @@
         <v>-99999</v>
       </c>
       <c r="K219" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="L219" t="n">
         <v>3</v>
@@ -9218,17 +9220,17 @@
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>TA2401-2402</t>
+          <t>TA2311-2312</t>
         </is>
       </c>
       <c r="B220" t="n">
         <v>0</v>
       </c>
       <c r="C220" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="D220" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="E220" t="n">
         <v>-99999</v>
@@ -9249,7 +9251,7 @@
         <v>-99999</v>
       </c>
       <c r="K220" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="L220" t="n">
         <v>3</v>
@@ -9258,17 +9260,17 @@
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>TA2402-2403</t>
+          <t>TA2312-2401</t>
         </is>
       </c>
       <c r="B221" t="n">
         <v>0</v>
       </c>
       <c r="C221" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="D221" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="E221" t="n">
         <v>-99999</v>
@@ -9298,17 +9300,17 @@
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>TA2403-2404</t>
+          <t>TA2401-2402</t>
         </is>
       </c>
       <c r="B222" t="n">
         <v>0</v>
       </c>
       <c r="C222" t="n">
-        <v>-28</v>
+        <v>-15</v>
       </c>
       <c r="D222" t="n">
-        <v>-30</v>
+        <v>-20</v>
       </c>
       <c r="E222" t="n">
         <v>-99999</v>
@@ -9329,7 +9331,7 @@
         <v>-99999</v>
       </c>
       <c r="K222" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="L222" t="n">
         <v>3</v>
@@ -9338,17 +9340,17 @@
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>UR2310-2311</t>
+          <t>TA2402-2403</t>
         </is>
       </c>
       <c r="B223" t="n">
         <v>0</v>
       </c>
       <c r="C223" t="n">
-        <v>-35</v>
+        <v>-99999</v>
       </c>
       <c r="D223" t="n">
-        <v>-45</v>
+        <v>-99999</v>
       </c>
       <c r="E223" t="n">
         <v>-99999</v>
@@ -9378,17 +9380,17 @@
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>UR2311-2312</t>
+          <t>TA2403-2404</t>
         </is>
       </c>
       <c r="B224" t="n">
         <v>0</v>
       </c>
       <c r="C224" t="n">
-        <v>5</v>
+        <v>-28</v>
       </c>
       <c r="D224" t="n">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="E224" t="n">
         <v>-99999</v>
@@ -9409,7 +9411,7 @@
         <v>-99999</v>
       </c>
       <c r="K224" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="L224" t="n">
         <v>3</v>
@@ -9418,17 +9420,17 @@
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>UR2312-2401</t>
+          <t>UR2310-2311</t>
         </is>
       </c>
       <c r="B225" t="n">
         <v>0</v>
       </c>
       <c r="C225" t="n">
-        <v>5</v>
+        <v>-35</v>
       </c>
       <c r="D225" t="n">
-        <v>0</v>
+        <v>-45</v>
       </c>
       <c r="E225" t="n">
         <v>-99999</v>
@@ -9449,7 +9451,7 @@
         <v>-99999</v>
       </c>
       <c r="K225" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L225" t="n">
         <v>3</v>
@@ -9458,17 +9460,17 @@
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>UR2401-2402</t>
+          <t>UR2311-2312</t>
         </is>
       </c>
       <c r="B226" t="n">
         <v>0</v>
       </c>
       <c r="C226" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D226" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="E226" t="n">
         <v>-99999</v>
@@ -9489,7 +9491,7 @@
         <v>-99999</v>
       </c>
       <c r="K226" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="L226" t="n">
         <v>3</v>
@@ -9498,17 +9500,17 @@
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>UR2402-2403</t>
+          <t>UR2312-2401</t>
         </is>
       </c>
       <c r="B227" t="n">
         <v>0</v>
       </c>
       <c r="C227" t="n">
-        <v>-50</v>
+        <v>5</v>
       </c>
       <c r="D227" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="E227" t="n">
         <v>-99999</v>
@@ -9529,7 +9531,7 @@
         <v>-99999</v>
       </c>
       <c r="K227" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="L227" t="n">
         <v>3</v>
@@ -9538,17 +9540,17 @@
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>UR2403-2404</t>
+          <t>UR2401-2402</t>
         </is>
       </c>
       <c r="B228" t="n">
         <v>0</v>
       </c>
       <c r="C228" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D228" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="E228" t="n">
         <v>-99999</v>
@@ -9578,20 +9580,20 @@
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>UR2404-2405</t>
+          <t>UR2402-2403</t>
         </is>
       </c>
       <c r="B229" t="n">
         <v>0</v>
       </c>
       <c r="C229" t="n">
-        <v>5</v>
+        <v>-50</v>
       </c>
       <c r="D229" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="E229" t="n">
-        <v>-5</v>
+        <v>-99999</v>
       </c>
       <c r="F229" t="n">
         <v>-99999</v>
@@ -9609,7 +9611,7 @@
         <v>-99999</v>
       </c>
       <c r="K229" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="L229" t="n">
         <v>3</v>
@@ -9618,7 +9620,7 @@
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>V2308-2309</t>
+          <t>UR2403-2404</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -9628,16 +9630,16 @@
         <v>5</v>
       </c>
       <c r="D230" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E230" t="n">
-        <v>-13</v>
+        <v>-99999</v>
       </c>
       <c r="F230" t="n">
-        <v>-14</v>
+        <v>-99999</v>
       </c>
       <c r="G230" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="H230" t="n">
         <v>-99999</v>
@@ -9649,7 +9651,7 @@
         <v>-99999</v>
       </c>
       <c r="K230" t="n">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="L230" t="n">
         <v>3</v>
@@ -9658,7 +9660,7 @@
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>V2309-2310</t>
+          <t>UR2404-2405</t>
         </is>
       </c>
       <c r="B231" t="n">
@@ -9668,16 +9670,16 @@
         <v>5</v>
       </c>
       <c r="D231" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E231" t="n">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="F231" t="n">
-        <v>-3</v>
+        <v>-99999</v>
       </c>
       <c r="G231" t="n">
-        <v>-28</v>
+        <v>-99999</v>
       </c>
       <c r="H231" t="n">
         <v>-99999</v>
@@ -9689,38 +9691,38 @@
         <v>-99999</v>
       </c>
       <c r="K231" t="n">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="L231" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>V2310-2311</t>
+          <t>V2308-2309</t>
         </is>
       </c>
       <c r="B232" t="n">
         <v>0</v>
       </c>
       <c r="C232" t="n">
-        <v>5</v>
+        <v>-99999</v>
       </c>
       <c r="D232" t="n">
-        <v>5</v>
+        <v>-99999</v>
       </c>
       <c r="E232" t="n">
-        <v>-2</v>
+        <v>-99999</v>
       </c>
       <c r="F232" t="n">
-        <v>-2</v>
+        <v>-99999</v>
       </c>
       <c r="G232" t="n">
-        <v>-28</v>
+        <v>-99999</v>
       </c>
       <c r="H232" t="n">
-        <v>-38</v>
+        <v>-99999</v>
       </c>
       <c r="I232" t="n">
         <v>-99999</v>
@@ -9729,16 +9731,16 @@
         <v>-99999</v>
       </c>
       <c r="K232" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="L232" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>V2311-2312</t>
+          <t>V2309-2310</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -9751,13 +9753,13 @@
         <v>5</v>
       </c>
       <c r="E233" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="F233" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="G233" t="n">
-        <v>-15</v>
+        <v>-28</v>
       </c>
       <c r="H233" t="n">
         <v>-99999</v>
@@ -9769,7 +9771,7 @@
         <v>-99999</v>
       </c>
       <c r="K233" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L233" t="n">
         <v>4</v>
@@ -9778,29 +9780,29 @@
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>V2312-2401</t>
+          <t>V2310-2311</t>
         </is>
       </c>
       <c r="B234" t="n">
         <v>0</v>
       </c>
       <c r="C234" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D234" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E234" t="n">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="F234" t="n">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="G234" t="n">
-        <v>1</v>
+        <v>-28</v>
       </c>
       <c r="H234" t="n">
-        <v>-99999</v>
+        <v>-38</v>
       </c>
       <c r="I234" t="n">
         <v>-99999</v>
@@ -9809,7 +9811,7 @@
         <v>-99999</v>
       </c>
       <c r="K234" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="L234" t="n">
         <v>4</v>
@@ -9818,26 +9820,26 @@
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
         <is>
-          <t>V2401-2402</t>
+          <t>V2311-2312</t>
         </is>
       </c>
       <c r="B235" t="n">
         <v>0</v>
       </c>
       <c r="C235" t="n">
-        <v>-3</v>
+        <v>5</v>
       </c>
       <c r="D235" t="n">
-        <v>-18</v>
+        <v>5</v>
       </c>
       <c r="E235" t="n">
-        <v>-30</v>
+        <v>2</v>
       </c>
       <c r="F235" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="G235" t="n">
-        <v>-99999</v>
+        <v>-13</v>
       </c>
       <c r="H235" t="n">
         <v>-99999</v>
@@ -9849,127 +9851,127 @@
         <v>-99999</v>
       </c>
       <c r="K235" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="L235" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
         <is>
-          <t>V2402-2403</t>
+          <t>V2312-2401</t>
         </is>
       </c>
       <c r="B236" t="n">
         <v>0</v>
       </c>
       <c r="C236" t="n">
-        <v>-5</v>
+        <v>20</v>
       </c>
       <c r="D236" t="n">
-        <v>-15</v>
+        <v>4</v>
       </c>
       <c r="E236" t="n">
-        <v>-30</v>
+        <v>3</v>
       </c>
       <c r="F236" t="n">
-        <v>-99999</v>
+        <v>3</v>
       </c>
       <c r="G236" t="n">
-        <v>-99999</v>
+        <v>-8</v>
       </c>
       <c r="H236" t="n">
         <v>-99999</v>
       </c>
       <c r="I236" t="n">
-        <v>-35</v>
+        <v>-99999</v>
       </c>
       <c r="J236" t="n">
         <v>-99999</v>
       </c>
       <c r="K236" t="n">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="L236" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
         <is>
-          <t>V2403-2404</t>
+          <t>V2401-2402</t>
         </is>
       </c>
       <c r="B237" t="n">
         <v>0</v>
       </c>
       <c r="C237" t="n">
-        <v>10</v>
+        <v>-3</v>
       </c>
       <c r="D237" t="n">
-        <v>10</v>
+        <v>-18</v>
       </c>
       <c r="E237" t="n">
-        <v>-36</v>
+        <v>-30</v>
       </c>
       <c r="F237" t="n">
-        <v>-40</v>
+        <v>-99999</v>
       </c>
       <c r="G237" t="n">
-        <v>-44</v>
+        <v>-99999</v>
       </c>
       <c r="H237" t="n">
-        <v>-48</v>
+        <v>-99999</v>
       </c>
       <c r="I237" t="n">
-        <v>-52</v>
+        <v>-99999</v>
       </c>
       <c r="J237" t="n">
         <v>-99999</v>
       </c>
       <c r="K237" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L237" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
         <is>
-          <t>V2404-2405</t>
+          <t>V2402-2403</t>
         </is>
       </c>
       <c r="B238" t="n">
         <v>0</v>
       </c>
       <c r="C238" t="n">
-        <v>-20</v>
+        <v>-5</v>
       </c>
       <c r="D238" t="n">
-        <v>-25</v>
+        <v>-15</v>
       </c>
       <c r="E238" t="n">
         <v>-30</v>
       </c>
       <c r="F238" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G238" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H238" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I238" t="n">
         <v>-35</v>
       </c>
-      <c r="G238" t="n">
-        <v>-40</v>
-      </c>
-      <c r="H238" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="I238" t="n">
-        <v>-99999</v>
-      </c>
       <c r="J238" t="n">
         <v>-99999</v>
       </c>
       <c r="K238" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="L238" t="n">
         <v>3</v>
@@ -9978,66 +9980,66 @@
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
         <is>
-          <t>V2405-2406</t>
+          <t>V2403-2404</t>
         </is>
       </c>
       <c r="B239" t="n">
         <v>0</v>
       </c>
       <c r="C239" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="D239" t="n">
-        <v>-15</v>
+        <v>-36</v>
       </c>
       <c r="E239" t="n">
-        <v>-20</v>
+        <v>-40</v>
       </c>
       <c r="F239" t="n">
-        <v>-99999</v>
+        <v>-44</v>
       </c>
       <c r="G239" t="n">
-        <v>-99999</v>
+        <v>-48</v>
       </c>
       <c r="H239" t="n">
-        <v>-99999</v>
+        <v>-52</v>
       </c>
       <c r="I239" t="n">
-        <v>-99999</v>
+        <v>-52</v>
       </c>
       <c r="J239" t="n">
         <v>-99999</v>
       </c>
       <c r="K239" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L239" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
         <is>
-          <t>Y2307-2308</t>
+          <t>V2404-2405</t>
         </is>
       </c>
       <c r="B240" t="n">
         <v>0</v>
       </c>
       <c r="C240" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="D240" t="n">
-        <v>-99999</v>
+        <v>-25</v>
       </c>
       <c r="E240" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="F240" t="n">
-        <v>-99999</v>
+        <v>-35</v>
       </c>
       <c r="G240" t="n">
-        <v>-99999</v>
+        <v>-40</v>
       </c>
       <c r="H240" t="n">
         <v>-99999</v>
@@ -10049,29 +10051,29 @@
         <v>-99999</v>
       </c>
       <c r="K240" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L240" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
         <is>
-          <t>Y2308-2309</t>
+          <t>V2405-2406</t>
         </is>
       </c>
       <c r="B241" t="n">
         <v>0</v>
       </c>
       <c r="C241" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="D241" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="E241" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="F241" t="n">
         <v>-99999</v>
@@ -10089,32 +10091,32 @@
         <v>-99999</v>
       </c>
       <c r="K241" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L241" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
         <is>
-          <t>Y2309-2311</t>
+          <t>Y2307-2308</t>
         </is>
       </c>
       <c r="B242" t="n">
         <v>0</v>
       </c>
       <c r="C242" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="D242" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="E242" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="F242" t="n">
-        <v>-35</v>
+        <v>-99999</v>
       </c>
       <c r="G242" t="n">
         <v>-99999</v>
@@ -10129,7 +10131,7 @@
         <v>-99999</v>
       </c>
       <c r="K242" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="L242" t="n">
         <v>2</v>
@@ -10138,20 +10140,20 @@
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
         <is>
-          <t>Y2311-2312</t>
+          <t>Y2308-2309</t>
         </is>
       </c>
       <c r="B243" t="n">
         <v>0</v>
       </c>
       <c r="C243" t="n">
-        <v>10</v>
+        <v>-99999</v>
       </c>
       <c r="D243" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="E243" t="n">
-        <v>-40</v>
+        <v>-99999</v>
       </c>
       <c r="F243" t="n">
         <v>-99999</v>
@@ -10169,49 +10171,129 @@
         <v>-99999</v>
       </c>
       <c r="K243" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="L243" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
         <is>
+          <t>Y2309-2311</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>0</v>
+      </c>
+      <c r="C244" t="n">
+        <v>-10</v>
+      </c>
+      <c r="D244" t="n">
+        <v>-20</v>
+      </c>
+      <c r="E244" t="n">
+        <v>-30</v>
+      </c>
+      <c r="F244" t="n">
+        <v>-35</v>
+      </c>
+      <c r="G244" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H244" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I244" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J244" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K244" t="n">
+        <v>10</v>
+      </c>
+      <c r="L244" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="inlineStr">
+        <is>
+          <t>Y2311-2312</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>0</v>
+      </c>
+      <c r="C245" t="n">
+        <v>10</v>
+      </c>
+      <c r="D245" t="n">
+        <v>-30</v>
+      </c>
+      <c r="E245" t="n">
+        <v>-40</v>
+      </c>
+      <c r="F245" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G245" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H245" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I245" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J245" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K245" t="n">
+        <v>100</v>
+      </c>
+      <c r="L245" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="inlineStr">
+        <is>
           <t>Y2312-2401</t>
         </is>
       </c>
-      <c r="B244" t="n">
-        <v>0</v>
-      </c>
-      <c r="C244" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D244" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E244" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="F244" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="G244" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="H244" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="I244" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="J244" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="K244" t="n">
+      <c r="B246" t="n">
+        <v>0</v>
+      </c>
+      <c r="C246" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D246" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E246" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F246" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G246" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H246" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I246" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J246" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K246" t="n">
         <v>18</v>
       </c>
-      <c r="L244" t="n">
+      <c r="L246" t="n">
         <v>2</v>
       </c>
     </row>

--- a/info/region_info.xlsx
+++ b/info/region_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L246"/>
+  <dimension ref="A1:L248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,10 +504,8 @@
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>199</t>
-        </is>
+      <c r="C2" t="n">
+        <v>201</v>
       </c>
       <c r="D2" t="n">
         <v>-99999</v>
@@ -1267,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>-15</v>
+        <v>-16</v>
       </c>
       <c r="D21" t="n">
         <v>-17</v>
@@ -1667,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>-1.14</v>
+        <v>-1.18</v>
       </c>
       <c r="D31" t="n">
         <v>-1.22</v>
@@ -2750,13 +2748,13 @@
         <v>-170</v>
       </c>
       <c r="D58" t="n">
-        <v>-180</v>
+        <v>-190</v>
       </c>
       <c r="E58" t="n">
-        <v>-200</v>
+        <v>-230</v>
       </c>
       <c r="F58" t="n">
-        <v>-220</v>
+        <v>-99999</v>
       </c>
       <c r="G58" t="n">
         <v>-99999</v>
@@ -2771,7 +2769,7 @@
         <v>-99999</v>
       </c>
       <c r="K58" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="L58" t="n">
         <v>2</v>
@@ -5054,7 +5052,7 @@
         <v>20</v>
       </c>
       <c r="L115" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -5094,7 +5092,7 @@
         <v>20</v>
       </c>
       <c r="L116" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -5134,7 +5132,7 @@
         <v>20</v>
       </c>
       <c r="L117" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -5174,7 +5172,7 @@
         <v>25</v>
       </c>
       <c r="L118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -5214,7 +5212,7 @@
         <v>20</v>
       </c>
       <c r="L119" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -5227,10 +5225,10 @@
         <v>0</v>
       </c>
       <c r="C120" t="n">
-        <v>-12</v>
+        <v>-99999</v>
       </c>
       <c r="D120" t="n">
-        <v>-13.6</v>
+        <v>-99999</v>
       </c>
       <c r="E120" t="n">
         <v>-99999</v>
@@ -5254,7 +5252,7 @@
         <v>23</v>
       </c>
       <c r="L120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -5294,7 +5292,7 @@
         <v>20</v>
       </c>
       <c r="L121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -5334,35 +5332,35 @@
         <v>20</v>
       </c>
       <c r="L122" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>L2307-2308</t>
+          <t>JD2403-2404</t>
         </is>
       </c>
       <c r="B123" t="n">
         <v>0</v>
       </c>
       <c r="C123" t="n">
-        <v>0</v>
+        <v>-190</v>
       </c>
       <c r="D123" t="n">
-        <v>-5</v>
+        <v>-99999</v>
       </c>
       <c r="E123" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="F123" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="G123" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="H123" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="I123" t="n">
         <v>-99999</v>
@@ -5371,16 +5369,16 @@
         <v>-99999</v>
       </c>
       <c r="K123" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="L123" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>L2308-2309</t>
+          <t>L2307-2308</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -5396,13 +5394,13 @@
         <v>-10</v>
       </c>
       <c r="F124" t="n">
+        <v>-15</v>
+      </c>
+      <c r="G124" t="n">
         <v>-20</v>
       </c>
-      <c r="G124" t="n">
+      <c r="H124" t="n">
         <v>-30</v>
-      </c>
-      <c r="H124" t="n">
-        <v>-40</v>
       </c>
       <c r="I124" t="n">
         <v>-99999</v>
@@ -5420,7 +5418,7 @@
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>L2309-2310</t>
+          <t>L2308-2309</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -5436,13 +5434,13 @@
         <v>-10</v>
       </c>
       <c r="F125" t="n">
-        <v>-15</v>
+        <v>-20</v>
       </c>
       <c r="G125" t="n">
-        <v>-20</v>
+        <v>-30</v>
       </c>
       <c r="H125" t="n">
-        <v>-30</v>
+        <v>-40</v>
       </c>
       <c r="I125" t="n">
         <v>-99999</v>
@@ -5460,7 +5458,7 @@
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>L2310-2311</t>
+          <t>L2309-2310</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -5479,10 +5477,10 @@
         <v>-15</v>
       </c>
       <c r="G126" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="H126" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="I126" t="n">
         <v>-99999</v>
@@ -5500,7 +5498,7 @@
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>L2311-2312</t>
+          <t>L2310-2311</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -5540,7 +5538,7 @@
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>L2312-2401</t>
+          <t>L2311-2312</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -5580,7 +5578,7 @@
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>L2402-2403</t>
+          <t>L2312-2401</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -5620,23 +5618,23 @@
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>LU2307-2306</t>
+          <t>L2402-2403</t>
         </is>
       </c>
       <c r="B130" t="n">
         <v>0</v>
       </c>
       <c r="C130" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="D130" t="n">
-        <v>-99999</v>
+        <v>-5</v>
       </c>
       <c r="E130" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="F130" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="G130" t="n">
         <v>-99999</v>
@@ -5660,26 +5658,26 @@
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>M2308-2309</t>
+          <t>LU2307-2306</t>
         </is>
       </c>
       <c r="B131" t="n">
         <v>0</v>
       </c>
       <c r="C131" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="D131" t="n">
-        <v>-5</v>
+        <v>-99999</v>
       </c>
       <c r="E131" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="F131" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="G131" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="H131" t="n">
         <v>-99999</v>
@@ -5691,7 +5689,7 @@
         <v>-99999</v>
       </c>
       <c r="K131" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="L131" t="n">
         <v>3</v>
@@ -5700,26 +5698,26 @@
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>M2309-2311</t>
+          <t>M2308-2309</t>
         </is>
       </c>
       <c r="B132" t="n">
         <v>0</v>
       </c>
       <c r="C132" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="D132" t="n">
-        <v>-99999</v>
+        <v>-5</v>
       </c>
       <c r="E132" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="F132" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="G132" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="H132" t="n">
         <v>-99999</v>
@@ -5731,7 +5729,7 @@
         <v>-99999</v>
       </c>
       <c r="K132" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L132" t="n">
         <v>3</v>
@@ -5740,17 +5738,17 @@
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>M2311-2312</t>
+          <t>M2309-2311</t>
         </is>
       </c>
       <c r="B133" t="n">
         <v>0</v>
       </c>
       <c r="C133" t="n">
-        <v>-40</v>
+        <v>-99999</v>
       </c>
       <c r="D133" t="n">
-        <v>-50</v>
+        <v>-99999</v>
       </c>
       <c r="E133" t="n">
         <v>-99999</v>
@@ -5771,29 +5769,29 @@
         <v>-99999</v>
       </c>
       <c r="K133" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="L133" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>M2312-2401</t>
+          <t>M2311-2312</t>
         </is>
       </c>
       <c r="B134" t="n">
         <v>0</v>
       </c>
       <c r="C134" t="n">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="D134" t="n">
-        <v>-5</v>
+        <v>-50</v>
       </c>
       <c r="E134" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="F134" t="n">
         <v>-99999</v>
@@ -5811,16 +5809,16 @@
         <v>-99999</v>
       </c>
       <c r="K134" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L134" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>M2401-2403</t>
+          <t>M2312-2401</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -5830,10 +5828,10 @@
         <v>0</v>
       </c>
       <c r="D135" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E135" t="n">
         <v>-10</v>
-      </c>
-      <c r="E135" t="n">
-        <v>-20</v>
       </c>
       <c r="F135" t="n">
         <v>-99999</v>
@@ -5860,20 +5858,20 @@
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>MA2308-2309</t>
+          <t>M2401-2403</t>
         </is>
       </c>
       <c r="B136" t="n">
         <v>0</v>
       </c>
       <c r="C136" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="D136" t="n">
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="E136" t="n">
-        <v>-6</v>
+        <v>-20</v>
       </c>
       <c r="F136" t="n">
         <v>-99999</v>
@@ -5891,87 +5889,87 @@
         <v>-99999</v>
       </c>
       <c r="K136" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="L136" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>MA2309-2310</t>
+          <t>MA2308-2309</t>
         </is>
       </c>
       <c r="B137" t="n">
         <v>0</v>
       </c>
       <c r="C137" t="n">
-        <v>-14</v>
+        <v>-6</v>
       </c>
       <c r="D137" t="n">
-        <v>-15</v>
+        <v>-6</v>
       </c>
       <c r="E137" t="n">
-        <v>-20</v>
+        <v>-6</v>
       </c>
       <c r="F137" t="n">
-        <v>-25</v>
+        <v>-99999</v>
       </c>
       <c r="G137" t="n">
-        <v>-25</v>
+        <v>-99999</v>
       </c>
       <c r="H137" t="n">
-        <v>-32</v>
+        <v>-99999</v>
       </c>
       <c r="I137" t="n">
-        <v>-40</v>
+        <v>-99999</v>
       </c>
       <c r="J137" t="n">
         <v>-99999</v>
       </c>
       <c r="K137" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="L137" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>MA2310-2311</t>
+          <t>MA2309-2310</t>
         </is>
       </c>
       <c r="B138" t="n">
         <v>0</v>
       </c>
       <c r="C138" t="n">
+        <v>-14</v>
+      </c>
+      <c r="D138" t="n">
+        <v>-15</v>
+      </c>
+      <c r="E138" t="n">
         <v>-20</v>
       </c>
-      <c r="D138" t="n">
-        <v>-22</v>
-      </c>
-      <c r="E138" t="n">
-        <v>-99999</v>
-      </c>
       <c r="F138" t="n">
-        <v>-99999</v>
+        <v>-25</v>
       </c>
       <c r="G138" t="n">
-        <v>-99999</v>
+        <v>-25</v>
       </c>
       <c r="H138" t="n">
-        <v>-99999</v>
+        <v>-32</v>
       </c>
       <c r="I138" t="n">
-        <v>-99999</v>
+        <v>-40</v>
       </c>
       <c r="J138" t="n">
         <v>-99999</v>
       </c>
       <c r="K138" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L138" t="n">
         <v>3</v>
@@ -5980,17 +5978,17 @@
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>MA2311-2312</t>
+          <t>MA2310-2311</t>
         </is>
       </c>
       <c r="B139" t="n">
         <v>0</v>
       </c>
       <c r="C139" t="n">
-        <v>-45</v>
+        <v>-20</v>
       </c>
       <c r="D139" t="n">
-        <v>-50</v>
+        <v>-22</v>
       </c>
       <c r="E139" t="n">
         <v>-99999</v>
@@ -6011,29 +6009,29 @@
         <v>-99999</v>
       </c>
       <c r="K139" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="L139" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>MA2312-2401</t>
+          <t>MA2311-2312</t>
         </is>
       </c>
       <c r="B140" t="n">
         <v>0</v>
       </c>
       <c r="C140" t="n">
-        <v>-5</v>
+        <v>-45</v>
       </c>
       <c r="D140" t="n">
-        <v>-15</v>
+        <v>-50</v>
       </c>
       <c r="E140" t="n">
-        <v>-25</v>
+        <v>-99999</v>
       </c>
       <c r="F140" t="n">
         <v>-99999</v>
@@ -6051,29 +6049,29 @@
         <v>-99999</v>
       </c>
       <c r="K140" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L140" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>NR2307-2308</t>
+          <t>MA2312-2401</t>
         </is>
       </c>
       <c r="B141" t="n">
         <v>0</v>
       </c>
       <c r="C141" t="n">
-        <v>-99999</v>
+        <v>-5</v>
       </c>
       <c r="D141" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="E141" t="n">
-        <v>-99999</v>
+        <v>-25</v>
       </c>
       <c r="F141" t="n">
         <v>-99999</v>
@@ -6091,26 +6089,26 @@
         <v>-99999</v>
       </c>
       <c r="K141" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="L141" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>NR2309-2310</t>
+          <t>NR2307-2308</t>
         </is>
       </c>
       <c r="B142" t="n">
         <v>0</v>
       </c>
       <c r="C142" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="D142" t="n">
-        <v>-40</v>
+        <v>-99999</v>
       </c>
       <c r="E142" t="n">
         <v>-99999</v>
@@ -6131,7 +6129,7 @@
         <v>-99999</v>
       </c>
       <c r="K142" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="L142" t="n">
         <v>1</v>
@@ -6140,17 +6138,17 @@
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>NR2310-2311</t>
+          <t>NR2309-2310</t>
         </is>
       </c>
       <c r="B143" t="n">
         <v>0</v>
       </c>
       <c r="C143" t="n">
-        <v>-160</v>
+        <v>-30</v>
       </c>
       <c r="D143" t="n">
-        <v>-99999</v>
+        <v>-40</v>
       </c>
       <c r="E143" t="n">
         <v>-99999</v>
@@ -6180,14 +6178,14 @@
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>NR2311-2312</t>
+          <t>NR2310-2311</t>
         </is>
       </c>
       <c r="B144" t="n">
         <v>0</v>
       </c>
       <c r="C144" t="n">
-        <v>-100</v>
+        <v>-160</v>
       </c>
       <c r="D144" t="n">
         <v>-99999</v>
@@ -6220,17 +6218,17 @@
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>NR2312-2401</t>
+          <t>NR2311-2312</t>
         </is>
       </c>
       <c r="B145" t="n">
         <v>0</v>
       </c>
       <c r="C145" t="n">
-        <v>-70</v>
+        <v>-100</v>
       </c>
       <c r="D145" t="n">
-        <v>-90</v>
+        <v>-99999</v>
       </c>
       <c r="E145" t="n">
         <v>-99999</v>
@@ -6260,20 +6258,20 @@
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>OI2307-2309</t>
+          <t>NR2312-2401</t>
         </is>
       </c>
       <c r="B146" t="n">
         <v>0</v>
       </c>
       <c r="C146" t="n">
-        <v>-5</v>
+        <v>-70</v>
       </c>
       <c r="D146" t="n">
-        <v>-10</v>
+        <v>-100</v>
       </c>
       <c r="E146" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="F146" t="n">
         <v>-99999</v>
@@ -6291,38 +6289,38 @@
         <v>-99999</v>
       </c>
       <c r="K146" t="n">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="L146" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>OI2309-2311</t>
+          <t>OI2307-2309</t>
         </is>
       </c>
       <c r="B147" t="n">
         <v>0</v>
       </c>
       <c r="C147" t="n">
-        <v>65</v>
+        <v>-5</v>
       </c>
       <c r="D147" t="n">
-        <v>12</v>
+        <v>-10</v>
       </c>
       <c r="E147" t="n">
-        <v>-5</v>
+        <v>-20</v>
       </c>
       <c r="F147" t="n">
-        <v>-11</v>
+        <v>-99999</v>
       </c>
       <c r="G147" t="n">
-        <v>-16</v>
+        <v>-99999</v>
       </c>
       <c r="H147" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="I147" t="n">
         <v>-99999</v>
@@ -6340,29 +6338,29 @@
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>OI2311-2401</t>
+          <t>OI2309-2311</t>
         </is>
       </c>
       <c r="B148" t="n">
         <v>0</v>
       </c>
       <c r="C148" t="n">
-        <v>-99999</v>
+        <v>65</v>
       </c>
       <c r="D148" t="n">
-        <v>-99999</v>
+        <v>12</v>
       </c>
       <c r="E148" t="n">
-        <v>-99999</v>
+        <v>-5</v>
       </c>
       <c r="F148" t="n">
-        <v>-99999</v>
+        <v>-11</v>
       </c>
       <c r="G148" t="n">
-        <v>-99999</v>
+        <v>-16</v>
       </c>
       <c r="H148" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="I148" t="n">
         <v>-99999</v>
@@ -6371,7 +6369,7 @@
         <v>-99999</v>
       </c>
       <c r="K148" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L148" t="n">
         <v>3</v>
@@ -6380,14 +6378,14 @@
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>OI2401-2311</t>
+          <t>OI2311-2401</t>
         </is>
       </c>
       <c r="B149" t="n">
         <v>0</v>
       </c>
       <c r="C149" t="n">
-        <v>-170</v>
+        <v>-99999</v>
       </c>
       <c r="D149" t="n">
         <v>-99999</v>
@@ -6411,23 +6409,23 @@
         <v>-99999</v>
       </c>
       <c r="K149" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L149" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>PB2309-2310</t>
+          <t>OI2401-2311</t>
         </is>
       </c>
       <c r="B150" t="n">
         <v>0</v>
       </c>
       <c r="C150" t="n">
-        <v>-99999</v>
+        <v>-170</v>
       </c>
       <c r="D150" t="n">
         <v>-99999</v>
@@ -6451,7 +6449,7 @@
         <v>-99999</v>
       </c>
       <c r="K150" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L150" t="n">
         <v>1</v>
@@ -6460,14 +6458,14 @@
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>PB2402-2403</t>
+          <t>PB2309-2310</t>
         </is>
       </c>
       <c r="B151" t="n">
         <v>0</v>
       </c>
       <c r="C151" t="n">
-        <v>-70</v>
+        <v>-99999</v>
       </c>
       <c r="D151" t="n">
         <v>-99999</v>
@@ -6500,20 +6498,20 @@
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>PF2307-2308</t>
+          <t>PB2402-2403</t>
         </is>
       </c>
       <c r="B152" t="n">
         <v>0</v>
       </c>
       <c r="C152" t="n">
-        <v>0</v>
+        <v>-70</v>
       </c>
       <c r="D152" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="E152" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="F152" t="n">
         <v>-99999</v>
@@ -6531,16 +6529,16 @@
         <v>-99999</v>
       </c>
       <c r="K152" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L152" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>PF2308-2309</t>
+          <t>PF2307-2308</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -6550,10 +6548,10 @@
         <v>0</v>
       </c>
       <c r="D153" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="E153" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="F153" t="n">
         <v>-99999</v>
@@ -6571,7 +6569,7 @@
         <v>-99999</v>
       </c>
       <c r="K153" t="n">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="L153" t="n">
         <v>3</v>
@@ -6580,14 +6578,14 @@
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>PF2309-2310</t>
+          <t>PF2308-2309</t>
         </is>
       </c>
       <c r="B154" t="n">
         <v>0</v>
       </c>
       <c r="C154" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="D154" t="n">
         <v>-99999</v>
@@ -6611,7 +6609,7 @@
         <v>-99999</v>
       </c>
       <c r="K154" t="n">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="L154" t="n">
         <v>3</v>
@@ -6620,7 +6618,7 @@
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>PF2310-2311</t>
+          <t>PF2309-2310</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -6660,7 +6658,7 @@
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>PF2311-2312</t>
+          <t>PF2310-2311</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -6700,7 +6698,7 @@
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>PF2312-2401</t>
+          <t>PF2311-2312</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -6740,7 +6738,7 @@
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>PG2307-2308</t>
+          <t>PF2312-2401</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -6771,16 +6769,16 @@
         <v>-99999</v>
       </c>
       <c r="K158" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L158" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>PG2308-2309</t>
+          <t>PG2307-2308</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -6811,16 +6809,16 @@
         <v>-99999</v>
       </c>
       <c r="K159" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="L159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>PG2309-2308</t>
+          <t>PG2308-2309</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -6851,29 +6849,29 @@
         <v>-99999</v>
       </c>
       <c r="K160" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>PP2307-2308</t>
+          <t>PG2309-2308</t>
         </is>
       </c>
       <c r="B161" t="n">
         <v>0</v>
       </c>
       <c r="C161" t="n">
-        <v>-8</v>
+        <v>-99999</v>
       </c>
       <c r="D161" t="n">
-        <v>-9</v>
+        <v>-99999</v>
       </c>
       <c r="E161" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="F161" t="n">
         <v>-99999</v>
@@ -6891,29 +6889,29 @@
         <v>-99999</v>
       </c>
       <c r="K161" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="L161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>PP2308-2309</t>
+          <t>PP2307-2308</t>
         </is>
       </c>
       <c r="B162" t="n">
         <v>0</v>
       </c>
       <c r="C162" t="n">
-        <v>-30</v>
+        <v>-8</v>
       </c>
       <c r="D162" t="n">
-        <v>-99999</v>
+        <v>-9</v>
       </c>
       <c r="E162" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="F162" t="n">
         <v>-99999</v>
@@ -6931,72 +6929,72 @@
         <v>-99999</v>
       </c>
       <c r="K162" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="L162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>PP2309-2310</t>
+          <t>PP2308-2309</t>
         </is>
       </c>
       <c r="B163" t="n">
         <v>0</v>
       </c>
       <c r="C163" t="n">
-        <v>10</v>
+        <v>-30</v>
       </c>
       <c r="D163" t="n">
-        <v>5</v>
+        <v>-99999</v>
       </c>
       <c r="E163" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F163" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H163" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I163" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J163" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K163" t="n">
+        <v>20</v>
+      </c>
+      <c r="L163" t="n">
         <v>2</v>
-      </c>
-      <c r="F163" t="n">
-        <v>-10</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="H163" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="I163" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="J163" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="K163" t="n">
-        <v>35</v>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>PP2310-2311</t>
+          <t>PP2309-2310</t>
         </is>
       </c>
       <c r="B164" t="n">
         <v>0</v>
       </c>
       <c r="C164" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="D164" t="n">
-        <v>5</v>
+        <v>-15</v>
       </c>
       <c r="E164" t="n">
-        <v>3</v>
+        <v>-20</v>
       </c>
       <c r="F164" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="G164" t="n">
         <v>-99999</v>
@@ -7014,13 +7012,13 @@
         <v>35</v>
       </c>
       <c r="L164" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>PP2311-2312</t>
+          <t>PP2310-2311</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -7033,10 +7031,10 @@
         <v>5</v>
       </c>
       <c r="E165" t="n">
-        <v>3</v>
+        <v>-10</v>
       </c>
       <c r="F165" t="n">
-        <v>-10</v>
+        <v>-20</v>
       </c>
       <c r="G165" t="n">
         <v>-99999</v>
@@ -7060,20 +7058,20 @@
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>PP2312-2401</t>
+          <t>PP2311-2312</t>
         </is>
       </c>
       <c r="B166" t="n">
         <v>0</v>
       </c>
       <c r="C166" t="n">
-        <v>-5</v>
+        <v>10</v>
       </c>
       <c r="D166" t="n">
+        <v>5</v>
+      </c>
+      <c r="E166" t="n">
         <v>-10</v>
-      </c>
-      <c r="E166" t="n">
-        <v>-15</v>
       </c>
       <c r="F166" t="n">
         <v>-20</v>
@@ -7100,7 +7098,7 @@
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>PP2401-2402</t>
+          <t>PP2312-2401</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -7140,7 +7138,7 @@
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>PP2402-2403</t>
+          <t>PP2401-2402</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -7150,13 +7148,13 @@
         <v>-5</v>
       </c>
       <c r="D168" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="E168" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="F168" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="G168" t="n">
         <v>-99999</v>
@@ -7180,23 +7178,23 @@
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>RB2307-2308</t>
+          <t>PP2402-2403</t>
         </is>
       </c>
       <c r="B169" t="n">
         <v>0</v>
       </c>
       <c r="C169" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D169" t="n">
-        <v>-5</v>
+        <v>-99999</v>
       </c>
       <c r="E169" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="F169" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="G169" t="n">
         <v>-99999</v>
@@ -7211,7 +7209,7 @@
         <v>-99999</v>
       </c>
       <c r="K169" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="L169" t="n">
         <v>3</v>
@@ -7220,7 +7218,7 @@
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>RB2308-2309</t>
+          <t>RB2307-2308</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -7230,13 +7228,13 @@
         <v>0</v>
       </c>
       <c r="D170" t="n">
-        <v>-20</v>
+        <v>-5</v>
       </c>
       <c r="E170" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="F170" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="G170" t="n">
         <v>-99999</v>
@@ -7251,7 +7249,7 @@
         <v>-99999</v>
       </c>
       <c r="K170" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L170" t="n">
         <v>3</v>
@@ -7260,23 +7258,23 @@
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>RB2309-2310</t>
+          <t>RB2308-2309</t>
         </is>
       </c>
       <c r="B171" t="n">
         <v>0</v>
       </c>
       <c r="C171" t="n">
-        <v>-35</v>
+        <v>0</v>
       </c>
       <c r="D171" t="n">
-        <v>-40</v>
+        <v>-20</v>
       </c>
       <c r="E171" t="n">
-        <v>-45</v>
+        <v>-99999</v>
       </c>
       <c r="F171" t="n">
-        <v>-50</v>
+        <v>-99999</v>
       </c>
       <c r="G171" t="n">
         <v>-99999</v>
@@ -7300,14 +7298,14 @@
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>RB2310-2311</t>
+          <t>RB2309-2310</t>
         </is>
       </c>
       <c r="B172" t="n">
         <v>0</v>
       </c>
       <c r="C172" t="n">
-        <v>-99999</v>
+        <v>-35</v>
       </c>
       <c r="D172" t="n">
         <v>-99999</v>
@@ -7331,16 +7329,16 @@
         <v>-99999</v>
       </c>
       <c r="K172" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L172" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>RB2311-2312</t>
+          <t>RB2310-2311</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -7380,7 +7378,7 @@
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>RB2312-2401</t>
+          <t>RB2311-2312</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -7414,13 +7412,13 @@
         <v>20</v>
       </c>
       <c r="L174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>RB2401-2402</t>
+          <t>RB2312-2401</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -7460,7 +7458,7 @@
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>RB2402-2403</t>
+          <t>RB2401-2402</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -7500,7 +7498,7 @@
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>RB2403-2404</t>
+          <t>RB2402-2403</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -7540,17 +7538,17 @@
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>RM2307-2308</t>
+          <t>RB2403-2404</t>
         </is>
       </c>
       <c r="B178" t="n">
         <v>0</v>
       </c>
       <c r="C178" t="n">
-        <v>-70</v>
+        <v>-99999</v>
       </c>
       <c r="D178" t="n">
-        <v>-100</v>
+        <v>-99999</v>
       </c>
       <c r="E178" t="n">
         <v>-99999</v>
@@ -7571,35 +7569,35 @@
         <v>-99999</v>
       </c>
       <c r="K178" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L178" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>RM2308-2309</t>
+          <t>RM2307-2308</t>
         </is>
       </c>
       <c r="B179" t="n">
         <v>0</v>
       </c>
       <c r="C179" t="n">
-        <v>10</v>
+        <v>-70</v>
       </c>
       <c r="D179" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E179" t="n">
-        <v>-5</v>
+        <v>-99999</v>
       </c>
       <c r="F179" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="G179" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="H179" t="n">
         <v>-99999</v>
@@ -7611,7 +7609,7 @@
         <v>-99999</v>
       </c>
       <c r="K179" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L179" t="n">
         <v>3</v>
@@ -7620,7 +7618,7 @@
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>RM2309-2311</t>
+          <t>RM2308-2309</t>
         </is>
       </c>
       <c r="B180" t="n">
@@ -7660,26 +7658,26 @@
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>RM2401-2403</t>
+          <t>RM2309-2311</t>
         </is>
       </c>
       <c r="B181" t="n">
         <v>0</v>
       </c>
       <c r="C181" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D181" t="n">
+        <v>0</v>
+      </c>
+      <c r="E181" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F181" t="n">
         <v>-10</v>
       </c>
-      <c r="E181" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F181" t="n">
-        <v>-99999</v>
-      </c>
       <c r="G181" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="H181" t="n">
         <v>-99999</v>
@@ -7700,20 +7698,20 @@
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>RR2308-2309</t>
+          <t>RM2401-2403</t>
         </is>
       </c>
       <c r="B182" t="n">
         <v>0</v>
       </c>
       <c r="C182" t="n">
-        <v>-75</v>
+        <v>0</v>
       </c>
       <c r="D182" t="n">
-        <v>-80</v>
+        <v>-10</v>
       </c>
       <c r="E182" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="F182" t="n">
         <v>-99999</v>
@@ -7731,26 +7729,26 @@
         <v>-99999</v>
       </c>
       <c r="K182" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L182" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>RU2307-2308</t>
+          <t>RR2308-2309</t>
         </is>
       </c>
       <c r="B183" t="n">
         <v>0</v>
       </c>
       <c r="C183" t="n">
-        <v>-100</v>
+        <v>-75</v>
       </c>
       <c r="D183" t="n">
-        <v>-100</v>
+        <v>-80</v>
       </c>
       <c r="E183" t="n">
         <v>-99999</v>
@@ -7771,23 +7769,23 @@
         <v>-99999</v>
       </c>
       <c r="K183" t="n">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="L183" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>RU2308-2309</t>
+          <t>RR2309-2310</t>
         </is>
       </c>
       <c r="B184" t="n">
         <v>0</v>
       </c>
       <c r="C184" t="n">
-        <v>-75</v>
+        <v>-80</v>
       </c>
       <c r="D184" t="n">
         <v>-99999</v>
@@ -7811,26 +7809,26 @@
         <v>-99999</v>
       </c>
       <c r="K184" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="L184" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>RU2309-2310</t>
+          <t>RU2307-2308</t>
         </is>
       </c>
       <c r="B185" t="n">
         <v>0</v>
       </c>
       <c r="C185" t="n">
-        <v>-60</v>
+        <v>-100</v>
       </c>
       <c r="D185" t="n">
-        <v>-110</v>
+        <v>-100</v>
       </c>
       <c r="E185" t="n">
         <v>-99999</v>
@@ -7851,7 +7849,7 @@
         <v>-99999</v>
       </c>
       <c r="K185" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="L185" t="n">
         <v>1</v>
@@ -7860,20 +7858,20 @@
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>RU2310-2311</t>
+          <t>RU2308-2309</t>
         </is>
       </c>
       <c r="B186" t="n">
         <v>0</v>
       </c>
       <c r="C186" t="n">
-        <v>0</v>
+        <v>-75</v>
       </c>
       <c r="D186" t="n">
-        <v>-70</v>
+        <v>-99999</v>
       </c>
       <c r="E186" t="n">
-        <v>-80</v>
+        <v>-99999</v>
       </c>
       <c r="F186" t="n">
         <v>-99999</v>
@@ -7891,7 +7889,7 @@
         <v>-99999</v>
       </c>
       <c r="K186" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L186" t="n">
         <v>1</v>
@@ -7900,17 +7898,17 @@
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>RU2311-2401</t>
+          <t>RU2309-2310</t>
         </is>
       </c>
       <c r="B187" t="n">
         <v>0</v>
       </c>
       <c r="C187" t="n">
-        <v>-1800</v>
+        <v>-60</v>
       </c>
       <c r="D187" t="n">
-        <v>-99999</v>
+        <v>-110</v>
       </c>
       <c r="E187" t="n">
         <v>-99999</v>
@@ -7931,7 +7929,7 @@
         <v>-99999</v>
       </c>
       <c r="K187" t="n">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c r="L187" t="n">
         <v>1</v>
@@ -7940,20 +7938,20 @@
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>RU2401-2403</t>
+          <t>RU2310-2311</t>
         </is>
       </c>
       <c r="B188" t="n">
         <v>0</v>
       </c>
       <c r="C188" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="D188" t="n">
-        <v>-120</v>
+        <v>-70</v>
       </c>
       <c r="E188" t="n">
-        <v>-99999</v>
+        <v>-80</v>
       </c>
       <c r="F188" t="n">
         <v>-99999</v>
@@ -7971,7 +7969,7 @@
         <v>-99999</v>
       </c>
       <c r="K188" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="L188" t="n">
         <v>1</v>
@@ -7980,20 +7978,20 @@
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>RU2403-2404</t>
+          <t>RU2311-2401</t>
         </is>
       </c>
       <c r="B189" t="n">
         <v>0</v>
       </c>
       <c r="C189" t="n">
-        <v>-60</v>
+        <v>-1800</v>
       </c>
       <c r="D189" t="n">
-        <v>-70</v>
+        <v>-99999</v>
       </c>
       <c r="E189" t="n">
-        <v>-80</v>
+        <v>-99999</v>
       </c>
       <c r="F189" t="n">
         <v>-99999</v>
@@ -8011,7 +8009,7 @@
         <v>-99999</v>
       </c>
       <c r="K189" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="L189" t="n">
         <v>1</v>
@@ -8020,17 +8018,17 @@
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>SA2308-2309</t>
+          <t>RU2401-2403</t>
         </is>
       </c>
       <c r="B190" t="n">
         <v>0</v>
       </c>
       <c r="C190" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="D190" t="n">
-        <v>-99999</v>
+        <v>-120</v>
       </c>
       <c r="E190" t="n">
         <v>-99999</v>
@@ -8060,20 +8058,20 @@
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>SA2310-2311</t>
+          <t>RU2403-2404</t>
         </is>
       </c>
       <c r="B191" t="n">
         <v>0</v>
       </c>
       <c r="C191" t="n">
-        <v>0</v>
+        <v>-60</v>
       </c>
       <c r="D191" t="n">
-        <v>-99999</v>
+        <v>-70</v>
       </c>
       <c r="E191" t="n">
-        <v>-99999</v>
+        <v>-80</v>
       </c>
       <c r="F191" t="n">
         <v>-99999</v>
@@ -8091,7 +8089,7 @@
         <v>-99999</v>
       </c>
       <c r="K191" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="L191" t="n">
         <v>1</v>
@@ -8100,7 +8098,7 @@
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>SA2311-2312</t>
+          <t>SA2308-2309</t>
         </is>
       </c>
       <c r="B192" t="n">
@@ -8110,7 +8108,7 @@
         <v>0</v>
       </c>
       <c r="D192" t="n">
-        <v>-3</v>
+        <v>-99999</v>
       </c>
       <c r="E192" t="n">
         <v>-99999</v>
@@ -8131,23 +8129,23 @@
         <v>-99999</v>
       </c>
       <c r="K192" t="n">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="L192" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>SA2312-2401</t>
+          <t>SA2310-2311</t>
         </is>
       </c>
       <c r="B193" t="n">
         <v>0</v>
       </c>
       <c r="C193" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D193" t="n">
         <v>-99999</v>
@@ -8171,29 +8169,29 @@
         <v>-99999</v>
       </c>
       <c r="K193" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="L193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>SA2401-2402</t>
+          <t>SA2311-2312</t>
         </is>
       </c>
       <c r="B194" t="n">
         <v>0</v>
       </c>
       <c r="C194" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="D194" t="n">
-        <v>-30</v>
+        <v>-3</v>
       </c>
       <c r="E194" t="n">
-        <v>-35</v>
+        <v>-99999</v>
       </c>
       <c r="F194" t="n">
         <v>-99999</v>
@@ -8211,29 +8209,29 @@
         <v>-99999</v>
       </c>
       <c r="K194" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L194" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>SA2402-2403</t>
+          <t>SA2312-2401</t>
         </is>
       </c>
       <c r="B195" t="n">
         <v>0</v>
       </c>
       <c r="C195" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D195" t="n">
-        <v>18</v>
+        <v>-99999</v>
       </c>
       <c r="E195" t="n">
-        <v>4</v>
+        <v>-99999</v>
       </c>
       <c r="F195" t="n">
         <v>-99999</v>
@@ -8260,23 +8258,23 @@
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>SA2403-2404</t>
+          <t>SA2401-2402</t>
         </is>
       </c>
       <c r="B196" t="n">
         <v>0</v>
       </c>
       <c r="C196" t="n">
-        <v>-15</v>
+        <v>-25</v>
       </c>
       <c r="D196" t="n">
-        <v>-17</v>
+        <v>-30</v>
       </c>
       <c r="E196" t="n">
         <v>-35</v>
       </c>
       <c r="F196" t="n">
-        <v>-40</v>
+        <v>-99999</v>
       </c>
       <c r="G196" t="n">
         <v>-99999</v>
@@ -8300,23 +8298,23 @@
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>SC2307-2308</t>
+          <t>SA2402-2403</t>
         </is>
       </c>
       <c r="B197" t="n">
         <v>0</v>
       </c>
       <c r="C197" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D197" t="n">
-        <v>-3.5</v>
+        <v>18</v>
       </c>
       <c r="E197" t="n">
-        <v>-3.5</v>
+        <v>4</v>
       </c>
       <c r="F197" t="n">
-        <v>-3.5</v>
+        <v>-99999</v>
       </c>
       <c r="G197" t="n">
         <v>-99999</v>
@@ -8331,32 +8329,32 @@
         <v>-99999</v>
       </c>
       <c r="K197" t="n">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="L197" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>SC2308-2309</t>
+          <t>SA2403-2404</t>
         </is>
       </c>
       <c r="B198" t="n">
         <v>0</v>
       </c>
       <c r="C198" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="D198" t="n">
-        <v>-99999</v>
+        <v>-17</v>
       </c>
       <c r="E198" t="n">
-        <v>-99999</v>
+        <v>-35</v>
       </c>
       <c r="F198" t="n">
-        <v>-99999</v>
+        <v>-40</v>
       </c>
       <c r="G198" t="n">
         <v>-99999</v>
@@ -8371,32 +8369,32 @@
         <v>-99999</v>
       </c>
       <c r="K198" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L198" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>SC2309-2308</t>
+          <t>SC2307-2308</t>
         </is>
       </c>
       <c r="B199" t="n">
         <v>0</v>
       </c>
       <c r="C199" t="n">
-        <v>-99999</v>
+        <v>1</v>
       </c>
       <c r="D199" t="n">
-        <v>-99999</v>
+        <v>-3.5</v>
       </c>
       <c r="E199" t="n">
-        <v>-99999</v>
+        <v>-3.5</v>
       </c>
       <c r="F199" t="n">
-        <v>-99999</v>
+        <v>-3.5</v>
       </c>
       <c r="G199" t="n">
         <v>-99999</v>
@@ -8411,7 +8409,7 @@
         <v>-99999</v>
       </c>
       <c r="K199" t="n">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="L199" t="n">
         <v>1</v>
@@ -8420,23 +8418,23 @@
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>SC2309-2310</t>
+          <t>SC2308-2309</t>
         </is>
       </c>
       <c r="B200" t="n">
         <v>0</v>
       </c>
       <c r="C200" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="D200" t="n">
-        <v>-0.5</v>
+        <v>-99999</v>
       </c>
       <c r="E200" t="n">
-        <v>-1</v>
+        <v>-99999</v>
       </c>
       <c r="F200" t="n">
-        <v>-1.5</v>
+        <v>-99999</v>
       </c>
       <c r="G200" t="n">
         <v>-99999</v>
@@ -8451,7 +8449,7 @@
         <v>-99999</v>
       </c>
       <c r="K200" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L200" t="n">
         <v>1</v>
@@ -8460,14 +8458,14 @@
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>SC2310-2309</t>
+          <t>SC2309-2308</t>
         </is>
       </c>
       <c r="B201" t="n">
         <v>0</v>
       </c>
       <c r="C201" t="n">
-        <v>-5</v>
+        <v>-99999</v>
       </c>
       <c r="D201" t="n">
         <v>-99999</v>
@@ -8491,7 +8489,7 @@
         <v>-99999</v>
       </c>
       <c r="K201" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="L201" t="n">
         <v>1</v>
@@ -8500,23 +8498,23 @@
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>SC2310-2311</t>
+          <t>SC2309-2310</t>
         </is>
       </c>
       <c r="B202" t="n">
         <v>0</v>
       </c>
       <c r="C202" t="n">
+        <v>0</v>
+      </c>
+      <c r="D202" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="E202" t="n">
         <v>-1</v>
       </c>
-      <c r="D202" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E202" t="n">
-        <v>-99999</v>
-      </c>
       <c r="F202" t="n">
-        <v>-99999</v>
+        <v>-1.5</v>
       </c>
       <c r="G202" t="n">
         <v>-99999</v>
@@ -8531,7 +8529,7 @@
         <v>-99999</v>
       </c>
       <c r="K202" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L202" t="n">
         <v>1</v>
@@ -8540,14 +8538,14 @@
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>SC2311-2312</t>
+          <t>SC2310-2309</t>
         </is>
       </c>
       <c r="B203" t="n">
         <v>0</v>
       </c>
       <c r="C203" t="n">
-        <v>-2</v>
+        <v>-99999</v>
       </c>
       <c r="D203" t="n">
         <v>-99999</v>
@@ -8571,7 +8569,7 @@
         <v>-99999</v>
       </c>
       <c r="K203" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L203" t="n">
         <v>1</v>
@@ -8580,17 +8578,17 @@
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>SN2308-2309</t>
+          <t>SC2310-2311</t>
         </is>
       </c>
       <c r="B204" t="n">
         <v>0</v>
       </c>
       <c r="C204" t="n">
-        <v>-320</v>
+        <v>-1</v>
       </c>
       <c r="D204" t="n">
-        <v>-320</v>
+        <v>-99999</v>
       </c>
       <c r="E204" t="n">
         <v>-99999</v>
@@ -8611,7 +8609,7 @@
         <v>-99999</v>
       </c>
       <c r="K204" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L204" t="n">
         <v>1</v>
@@ -8620,17 +8618,17 @@
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>SP2307-2308</t>
+          <t>SC2311-2312</t>
         </is>
       </c>
       <c r="B205" t="n">
         <v>0</v>
       </c>
       <c r="C205" t="n">
-        <v>-40</v>
+        <v>-2</v>
       </c>
       <c r="D205" t="n">
-        <v>-40</v>
+        <v>-99999</v>
       </c>
       <c r="E205" t="n">
         <v>-99999</v>
@@ -8654,23 +8652,23 @@
         <v>30</v>
       </c>
       <c r="L205" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>SP2308-2309</t>
+          <t>SN2308-2309</t>
         </is>
       </c>
       <c r="B206" t="n">
         <v>0</v>
       </c>
       <c r="C206" t="n">
-        <v>-99999</v>
+        <v>-320</v>
       </c>
       <c r="D206" t="n">
-        <v>-99999</v>
+        <v>-320</v>
       </c>
       <c r="E206" t="n">
         <v>-99999</v>
@@ -8691,35 +8689,35 @@
         <v>-99999</v>
       </c>
       <c r="K206" t="n">
+        <v>25</v>
+      </c>
+      <c r="L206" t="n">
         <v>1</v>
-      </c>
-      <c r="L206" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>SP2309-2310</t>
+          <t>SP2307-2308</t>
         </is>
       </c>
       <c r="B207" t="n">
         <v>0</v>
       </c>
       <c r="C207" t="n">
-        <v>-2</v>
+        <v>-40</v>
       </c>
       <c r="D207" t="n">
-        <v>-12</v>
+        <v>-40</v>
       </c>
       <c r="E207" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="F207" t="n">
-        <v>-26</v>
+        <v>-99999</v>
       </c>
       <c r="G207" t="n">
-        <v>-34</v>
+        <v>-99999</v>
       </c>
       <c r="H207" t="n">
         <v>-99999</v>
@@ -8731,7 +8729,7 @@
         <v>-99999</v>
       </c>
       <c r="K207" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="L207" t="n">
         <v>3</v>
@@ -8740,26 +8738,26 @@
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>SP2310-2311</t>
+          <t>SP2308-2309</t>
         </is>
       </c>
       <c r="B208" t="n">
         <v>0</v>
       </c>
       <c r="C208" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="D208" t="n">
-        <v>-2</v>
+        <v>-99999</v>
       </c>
       <c r="E208" t="n">
-        <v>-8</v>
+        <v>-99999</v>
       </c>
       <c r="F208" t="n">
-        <v>-26</v>
+        <v>-99999</v>
       </c>
       <c r="G208" t="n">
-        <v>-34</v>
+        <v>-99999</v>
       </c>
       <c r="H208" t="n">
         <v>-99999</v>
@@ -8771,7 +8769,7 @@
         <v>-99999</v>
       </c>
       <c r="K208" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="L208" t="n">
         <v>3</v>
@@ -8780,20 +8778,20 @@
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>SP2311-2312</t>
+          <t>SP2309-2310</t>
         </is>
       </c>
       <c r="B209" t="n">
         <v>0</v>
       </c>
       <c r="C209" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D209" t="n">
-        <v>-2</v>
+        <v>-12</v>
       </c>
       <c r="E209" t="n">
-        <v>-8</v>
+        <v>-20</v>
       </c>
       <c r="F209" t="n">
         <v>-26</v>
@@ -8820,26 +8818,26 @@
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>SP2312-2401</t>
+          <t>SP2310-2311</t>
         </is>
       </c>
       <c r="B210" t="n">
         <v>0</v>
       </c>
       <c r="C210" t="n">
-        <v>-126</v>
+        <v>0</v>
       </c>
       <c r="D210" t="n">
-        <v>-140</v>
+        <v>-2</v>
       </c>
       <c r="E210" t="n">
-        <v>-165</v>
+        <v>-8</v>
       </c>
       <c r="F210" t="n">
-        <v>-175</v>
+        <v>-26</v>
       </c>
       <c r="G210" t="n">
-        <v>-99999</v>
+        <v>-34</v>
       </c>
       <c r="H210" t="n">
         <v>-99999</v>
@@ -8851,35 +8849,35 @@
         <v>-99999</v>
       </c>
       <c r="K210" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L210" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>SP2401-2402</t>
+          <t>SP2311-2312</t>
         </is>
       </c>
       <c r="B211" t="n">
         <v>0</v>
       </c>
       <c r="C211" t="n">
+        <v>0</v>
+      </c>
+      <c r="D211" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E211" t="n">
         <v>-8</v>
       </c>
-      <c r="D211" t="n">
-        <v>-12</v>
-      </c>
-      <c r="E211" t="n">
-        <v>-16</v>
-      </c>
       <c r="F211" t="n">
-        <v>-20</v>
+        <v>-26</v>
       </c>
       <c r="G211" t="n">
-        <v>-24</v>
+        <v>-34</v>
       </c>
       <c r="H211" t="n">
         <v>-99999</v>
@@ -8900,23 +8898,23 @@
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>SP2402-2403</t>
+          <t>SP2312-2401</t>
         </is>
       </c>
       <c r="B212" t="n">
         <v>0</v>
       </c>
       <c r="C212" t="n">
-        <v>-15</v>
+        <v>-126</v>
       </c>
       <c r="D212" t="n">
-        <v>-25</v>
+        <v>-140</v>
       </c>
       <c r="E212" t="n">
-        <v>-99999</v>
+        <v>-165</v>
       </c>
       <c r="F212" t="n">
-        <v>-99999</v>
+        <v>-175</v>
       </c>
       <c r="G212" t="n">
         <v>-99999</v>
@@ -8931,35 +8929,35 @@
         <v>-99999</v>
       </c>
       <c r="K212" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L212" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>SP2403-2404</t>
+          <t>SP2401-2402</t>
         </is>
       </c>
       <c r="B213" t="n">
         <v>0</v>
       </c>
       <c r="C213" t="n">
-        <v>-15</v>
+        <v>-8</v>
       </c>
       <c r="D213" t="n">
-        <v>-25</v>
+        <v>-12</v>
       </c>
       <c r="E213" t="n">
-        <v>-99999</v>
+        <v>-16</v>
       </c>
       <c r="F213" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="G213" t="n">
-        <v>-99999</v>
+        <v>-24</v>
       </c>
       <c r="H213" t="n">
         <v>-99999</v>
@@ -8980,7 +8978,7 @@
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>SP2404-2405</t>
+          <t>SP2402-2403</t>
         </is>
       </c>
       <c r="B214" t="n">
@@ -9020,17 +9018,17 @@
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>TA2307-2308</t>
+          <t>SP2403-2404</t>
         </is>
       </c>
       <c r="B215" t="n">
         <v>0</v>
       </c>
       <c r="C215" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="D215" t="n">
-        <v>-99999</v>
+        <v>-25</v>
       </c>
       <c r="E215" t="n">
         <v>-99999</v>
@@ -9051,7 +9049,7 @@
         <v>-99999</v>
       </c>
       <c r="K215" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L215" t="n">
         <v>3</v>
@@ -9060,17 +9058,17 @@
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>TA2307-2309</t>
+          <t>SP2404-2405</t>
         </is>
       </c>
       <c r="B216" t="n">
         <v>0</v>
       </c>
       <c r="C216" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="D216" t="n">
-        <v>-99999</v>
+        <v>-25</v>
       </c>
       <c r="E216" t="n">
         <v>-99999</v>
@@ -9091,7 +9089,7 @@
         <v>-99999</v>
       </c>
       <c r="K216" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L216" t="n">
         <v>3</v>
@@ -9100,7 +9098,7 @@
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>TA2308-2309</t>
+          <t>TA2307-2308</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -9140,7 +9138,7 @@
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>TA2309-2310</t>
+          <t>TA2307-2309</t>
         </is>
       </c>
       <c r="B218" t="n">
@@ -9180,7 +9178,7 @@
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>TA2310-2311</t>
+          <t>TA2308-2309</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -9220,7 +9218,7 @@
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>TA2311-2312</t>
+          <t>TA2309-2310</t>
         </is>
       </c>
       <c r="B220" t="n">
@@ -9260,17 +9258,17 @@
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>TA2312-2401</t>
+          <t>TA2310-2311</t>
         </is>
       </c>
       <c r="B221" t="n">
         <v>0</v>
       </c>
       <c r="C221" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="D221" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="E221" t="n">
         <v>-99999</v>
@@ -9291,7 +9289,7 @@
         <v>-99999</v>
       </c>
       <c r="K221" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="L221" t="n">
         <v>3</v>
@@ -9300,17 +9298,17 @@
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>TA2401-2402</t>
+          <t>TA2311-2312</t>
         </is>
       </c>
       <c r="B222" t="n">
         <v>0</v>
       </c>
       <c r="C222" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="D222" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="E222" t="n">
         <v>-99999</v>
@@ -9331,7 +9329,7 @@
         <v>-99999</v>
       </c>
       <c r="K222" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="L222" t="n">
         <v>3</v>
@@ -9340,17 +9338,17 @@
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>TA2402-2403</t>
+          <t>TA2312-2401</t>
         </is>
       </c>
       <c r="B223" t="n">
         <v>0</v>
       </c>
       <c r="C223" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="D223" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="E223" t="n">
         <v>-99999</v>
@@ -9380,17 +9378,17 @@
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>TA2403-2404</t>
+          <t>TA2401-2402</t>
         </is>
       </c>
       <c r="B224" t="n">
         <v>0</v>
       </c>
       <c r="C224" t="n">
-        <v>-28</v>
+        <v>-15</v>
       </c>
       <c r="D224" t="n">
-        <v>-30</v>
+        <v>-20</v>
       </c>
       <c r="E224" t="n">
         <v>-99999</v>
@@ -9411,7 +9409,7 @@
         <v>-99999</v>
       </c>
       <c r="K224" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="L224" t="n">
         <v>3</v>
@@ -9420,17 +9418,17 @@
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>UR2310-2311</t>
+          <t>TA2402-2403</t>
         </is>
       </c>
       <c r="B225" t="n">
         <v>0</v>
       </c>
       <c r="C225" t="n">
-        <v>-35</v>
+        <v>-99999</v>
       </c>
       <c r="D225" t="n">
-        <v>-45</v>
+        <v>-99999</v>
       </c>
       <c r="E225" t="n">
         <v>-99999</v>
@@ -9460,17 +9458,17 @@
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>UR2311-2312</t>
+          <t>TA2403-2404</t>
         </is>
       </c>
       <c r="B226" t="n">
         <v>0</v>
       </c>
       <c r="C226" t="n">
-        <v>5</v>
+        <v>-28</v>
       </c>
       <c r="D226" t="n">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="E226" t="n">
         <v>-99999</v>
@@ -9491,7 +9489,7 @@
         <v>-99999</v>
       </c>
       <c r="K226" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="L226" t="n">
         <v>3</v>
@@ -9500,17 +9498,17 @@
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>UR2312-2401</t>
+          <t>UR2310-2311</t>
         </is>
       </c>
       <c r="B227" t="n">
         <v>0</v>
       </c>
       <c r="C227" t="n">
-        <v>5</v>
+        <v>-35</v>
       </c>
       <c r="D227" t="n">
-        <v>0</v>
+        <v>-45</v>
       </c>
       <c r="E227" t="n">
         <v>-99999</v>
@@ -9531,7 +9529,7 @@
         <v>-99999</v>
       </c>
       <c r="K227" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L227" t="n">
         <v>3</v>
@@ -9540,17 +9538,17 @@
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>UR2401-2402</t>
+          <t>UR2311-2312</t>
         </is>
       </c>
       <c r="B228" t="n">
         <v>0</v>
       </c>
       <c r="C228" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D228" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="E228" t="n">
         <v>-99999</v>
@@ -9571,7 +9569,7 @@
         <v>-99999</v>
       </c>
       <c r="K228" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="L228" t="n">
         <v>3</v>
@@ -9580,17 +9578,17 @@
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>UR2402-2403</t>
+          <t>UR2312-2401</t>
         </is>
       </c>
       <c r="B229" t="n">
         <v>0</v>
       </c>
       <c r="C229" t="n">
-        <v>-50</v>
+        <v>5</v>
       </c>
       <c r="D229" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="E229" t="n">
         <v>-99999</v>
@@ -9611,7 +9609,7 @@
         <v>-99999</v>
       </c>
       <c r="K229" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="L229" t="n">
         <v>3</v>
@@ -9620,17 +9618,17 @@
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>UR2403-2404</t>
+          <t>UR2401-2402</t>
         </is>
       </c>
       <c r="B230" t="n">
         <v>0</v>
       </c>
       <c r="C230" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D230" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="E230" t="n">
         <v>-99999</v>
@@ -9660,20 +9658,20 @@
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>UR2404-2405</t>
+          <t>UR2402-2403</t>
         </is>
       </c>
       <c r="B231" t="n">
         <v>0</v>
       </c>
       <c r="C231" t="n">
-        <v>5</v>
+        <v>-50</v>
       </c>
       <c r="D231" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="E231" t="n">
-        <v>-5</v>
+        <v>-99999</v>
       </c>
       <c r="F231" t="n">
         <v>-99999</v>
@@ -9691,7 +9689,7 @@
         <v>-99999</v>
       </c>
       <c r="K231" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="L231" t="n">
         <v>3</v>
@@ -9700,17 +9698,17 @@
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>V2308-2309</t>
+          <t>UR2403-2404</t>
         </is>
       </c>
       <c r="B232" t="n">
         <v>0</v>
       </c>
       <c r="C232" t="n">
-        <v>-99999</v>
+        <v>5</v>
       </c>
       <c r="D232" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="E232" t="n">
         <v>-99999</v>
@@ -9731,7 +9729,7 @@
         <v>-99999</v>
       </c>
       <c r="K232" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L232" t="n">
         <v>3</v>
@@ -9740,7 +9738,7 @@
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>V2309-2310</t>
+          <t>UR2404-2405</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -9750,16 +9748,16 @@
         <v>5</v>
       </c>
       <c r="D233" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E233" t="n">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="F233" t="n">
-        <v>-3</v>
+        <v>-99999</v>
       </c>
       <c r="G233" t="n">
-        <v>-28</v>
+        <v>-99999</v>
       </c>
       <c r="H233" t="n">
         <v>-99999</v>
@@ -9771,38 +9769,38 @@
         <v>-99999</v>
       </c>
       <c r="K233" t="n">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="L233" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>V2310-2311</t>
+          <t>V2308-2309</t>
         </is>
       </c>
       <c r="B234" t="n">
         <v>0</v>
       </c>
       <c r="C234" t="n">
-        <v>5</v>
+        <v>-99999</v>
       </c>
       <c r="D234" t="n">
-        <v>5</v>
+        <v>-99999</v>
       </c>
       <c r="E234" t="n">
-        <v>-2</v>
+        <v>-99999</v>
       </c>
       <c r="F234" t="n">
-        <v>-2</v>
+        <v>-99999</v>
       </c>
       <c r="G234" t="n">
-        <v>-28</v>
+        <v>-99999</v>
       </c>
       <c r="H234" t="n">
-        <v>-38</v>
+        <v>-99999</v>
       </c>
       <c r="I234" t="n">
         <v>-99999</v>
@@ -9811,16 +9809,16 @@
         <v>-99999</v>
       </c>
       <c r="K234" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="L234" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
         <is>
-          <t>V2311-2312</t>
+          <t>V2309-2310</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -9833,13 +9831,13 @@
         <v>5</v>
       </c>
       <c r="E235" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="F235" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="G235" t="n">
-        <v>-13</v>
+        <v>-28</v>
       </c>
       <c r="H235" t="n">
         <v>-99999</v>
@@ -9851,7 +9849,7 @@
         <v>-99999</v>
       </c>
       <c r="K235" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L235" t="n">
         <v>4</v>
@@ -9860,29 +9858,29 @@
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
         <is>
-          <t>V2312-2401</t>
+          <t>V2310-2311</t>
         </is>
       </c>
       <c r="B236" t="n">
         <v>0</v>
       </c>
       <c r="C236" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D236" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E236" t="n">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="F236" t="n">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="G236" t="n">
-        <v>-8</v>
+        <v>-28</v>
       </c>
       <c r="H236" t="n">
-        <v>-99999</v>
+        <v>-38</v>
       </c>
       <c r="I236" t="n">
         <v>-99999</v>
@@ -9891,7 +9889,7 @@
         <v>-99999</v>
       </c>
       <c r="K236" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="L236" t="n">
         <v>4</v>
@@ -9900,26 +9898,26 @@
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
         <is>
-          <t>V2401-2402</t>
+          <t>V2311-2312</t>
         </is>
       </c>
       <c r="B237" t="n">
         <v>0</v>
       </c>
       <c r="C237" t="n">
-        <v>-3</v>
+        <v>5</v>
       </c>
       <c r="D237" t="n">
-        <v>-18</v>
+        <v>5</v>
       </c>
       <c r="E237" t="n">
-        <v>-30</v>
+        <v>2</v>
       </c>
       <c r="F237" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="G237" t="n">
-        <v>-99999</v>
+        <v>-13</v>
       </c>
       <c r="H237" t="n">
         <v>-99999</v>
@@ -9931,127 +9929,127 @@
         <v>-99999</v>
       </c>
       <c r="K237" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="L237" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
         <is>
-          <t>V2402-2403</t>
+          <t>V2312-2401</t>
         </is>
       </c>
       <c r="B238" t="n">
         <v>0</v>
       </c>
       <c r="C238" t="n">
-        <v>-5</v>
+        <v>20</v>
       </c>
       <c r="D238" t="n">
-        <v>-15</v>
+        <v>4</v>
       </c>
       <c r="E238" t="n">
-        <v>-30</v>
+        <v>3</v>
       </c>
       <c r="F238" t="n">
-        <v>-99999</v>
+        <v>3</v>
       </c>
       <c r="G238" t="n">
-        <v>-99999</v>
+        <v>-8</v>
       </c>
       <c r="H238" t="n">
         <v>-99999</v>
       </c>
       <c r="I238" t="n">
-        <v>-35</v>
+        <v>-99999</v>
       </c>
       <c r="J238" t="n">
         <v>-99999</v>
       </c>
       <c r="K238" t="n">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="L238" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
         <is>
-          <t>V2403-2404</t>
+          <t>V2401-2402</t>
         </is>
       </c>
       <c r="B239" t="n">
         <v>0</v>
       </c>
       <c r="C239" t="n">
-        <v>10</v>
+        <v>-3</v>
       </c>
       <c r="D239" t="n">
-        <v>-36</v>
+        <v>-18</v>
       </c>
       <c r="E239" t="n">
-        <v>-40</v>
+        <v>-30</v>
       </c>
       <c r="F239" t="n">
-        <v>-44</v>
+        <v>-99999</v>
       </c>
       <c r="G239" t="n">
-        <v>-48</v>
+        <v>-99999</v>
       </c>
       <c r="H239" t="n">
-        <v>-52</v>
+        <v>-99999</v>
       </c>
       <c r="I239" t="n">
-        <v>-52</v>
+        <v>-99999</v>
       </c>
       <c r="J239" t="n">
         <v>-99999</v>
       </c>
       <c r="K239" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L239" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
         <is>
-          <t>V2404-2405</t>
+          <t>V2402-2403</t>
         </is>
       </c>
       <c r="B240" t="n">
         <v>0</v>
       </c>
       <c r="C240" t="n">
-        <v>-20</v>
+        <v>-5</v>
       </c>
       <c r="D240" t="n">
-        <v>-25</v>
+        <v>-15</v>
       </c>
       <c r="E240" t="n">
         <v>-30</v>
       </c>
       <c r="F240" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G240" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H240" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I240" t="n">
         <v>-35</v>
       </c>
-      <c r="G240" t="n">
-        <v>-40</v>
-      </c>
-      <c r="H240" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="I240" t="n">
-        <v>-99999</v>
-      </c>
       <c r="J240" t="n">
         <v>-99999</v>
       </c>
       <c r="K240" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="L240" t="n">
         <v>3</v>
@@ -10060,66 +10058,66 @@
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
         <is>
-          <t>V2405-2406</t>
+          <t>V2403-2404</t>
         </is>
       </c>
       <c r="B241" t="n">
         <v>0</v>
       </c>
       <c r="C241" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="D241" t="n">
-        <v>-15</v>
+        <v>-36</v>
       </c>
       <c r="E241" t="n">
-        <v>-20</v>
+        <v>-40</v>
       </c>
       <c r="F241" t="n">
-        <v>-99999</v>
+        <v>-44</v>
       </c>
       <c r="G241" t="n">
-        <v>-99999</v>
+        <v>-48</v>
       </c>
       <c r="H241" t="n">
-        <v>-99999</v>
+        <v>-52</v>
       </c>
       <c r="I241" t="n">
-        <v>-99999</v>
+        <v>-52</v>
       </c>
       <c r="J241" t="n">
         <v>-99999</v>
       </c>
       <c r="K241" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L241" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
         <is>
-          <t>Y2307-2308</t>
+          <t>V2404-2405</t>
         </is>
       </c>
       <c r="B242" t="n">
         <v>0</v>
       </c>
       <c r="C242" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="D242" t="n">
-        <v>-99999</v>
+        <v>-25</v>
       </c>
       <c r="E242" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="F242" t="n">
-        <v>-99999</v>
+        <v>-35</v>
       </c>
       <c r="G242" t="n">
-        <v>-99999</v>
+        <v>-40</v>
       </c>
       <c r="H242" t="n">
         <v>-99999</v>
@@ -10131,29 +10129,29 @@
         <v>-99999</v>
       </c>
       <c r="K242" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L242" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
         <is>
-          <t>Y2308-2309</t>
+          <t>V2405-2406</t>
         </is>
       </c>
       <c r="B243" t="n">
         <v>0</v>
       </c>
       <c r="C243" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="D243" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="E243" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="F243" t="n">
         <v>-99999</v>
@@ -10171,32 +10169,32 @@
         <v>-99999</v>
       </c>
       <c r="K243" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L243" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
         <is>
-          <t>Y2309-2311</t>
+          <t>Y2307-2308</t>
         </is>
       </c>
       <c r="B244" t="n">
         <v>0</v>
       </c>
       <c r="C244" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="D244" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="E244" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="F244" t="n">
-        <v>-35</v>
+        <v>-99999</v>
       </c>
       <c r="G244" t="n">
         <v>-99999</v>
@@ -10211,7 +10209,7 @@
         <v>-99999</v>
       </c>
       <c r="K244" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="L244" t="n">
         <v>2</v>
@@ -10220,20 +10218,20 @@
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
         <is>
-          <t>Y2311-2312</t>
+          <t>Y2308-2309</t>
         </is>
       </c>
       <c r="B245" t="n">
         <v>0</v>
       </c>
       <c r="C245" t="n">
-        <v>10</v>
+        <v>-99999</v>
       </c>
       <c r="D245" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="E245" t="n">
-        <v>-40</v>
+        <v>-99999</v>
       </c>
       <c r="F245" t="n">
         <v>-99999</v>
@@ -10251,49 +10249,129 @@
         <v>-99999</v>
       </c>
       <c r="K245" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="L245" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
         <is>
+          <t>Y2309-2311</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>0</v>
+      </c>
+      <c r="C246" t="n">
+        <v>-10</v>
+      </c>
+      <c r="D246" t="n">
+        <v>-20</v>
+      </c>
+      <c r="E246" t="n">
+        <v>-30</v>
+      </c>
+      <c r="F246" t="n">
+        <v>-35</v>
+      </c>
+      <c r="G246" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H246" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I246" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J246" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K246" t="n">
+        <v>10</v>
+      </c>
+      <c r="L246" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="inlineStr">
+        <is>
+          <t>Y2311-2312</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>0</v>
+      </c>
+      <c r="C247" t="n">
+        <v>10</v>
+      </c>
+      <c r="D247" t="n">
+        <v>-30</v>
+      </c>
+      <c r="E247" t="n">
+        <v>-40</v>
+      </c>
+      <c r="F247" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G247" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H247" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I247" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J247" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K247" t="n">
+        <v>100</v>
+      </c>
+      <c r="L247" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="inlineStr">
+        <is>
           <t>Y2312-2401</t>
         </is>
       </c>
-      <c r="B246" t="n">
-        <v>0</v>
-      </c>
-      <c r="C246" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D246" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E246" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="F246" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="G246" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="H246" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="I246" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="J246" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="K246" t="n">
+      <c r="B248" t="n">
+        <v>0</v>
+      </c>
+      <c r="C248" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D248" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E248" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F248" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G248" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H248" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I248" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J248" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K248" t="n">
         <v>18</v>
       </c>
-      <c r="L246" t="n">
+      <c r="L248" t="n">
         <v>2</v>
       </c>
     </row>

--- a/info/region_info.xlsx
+++ b/info/region_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L248"/>
+  <dimension ref="A1:L256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,7 +505,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="D2" t="n">
         <v>-99999</v>
@@ -625,7 +625,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>64</v>
+        <v>-99999</v>
       </c>
       <c r="D5" t="n">
         <v>-99999</v>
@@ -649,10 +649,10 @@
         <v>-99999</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -988,19 +988,19 @@
         <v>-13</v>
       </c>
       <c r="D14" t="n">
+        <v>-14</v>
+      </c>
+      <c r="E14" t="n">
         <v>-15</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
+        <v>-15</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-16</v>
+      </c>
+      <c r="H14" t="n">
         <v>-17</v>
-      </c>
-      <c r="F14" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="H14" t="n">
-        <v>-99999</v>
       </c>
       <c r="I14" t="n">
         <v>-99999</v>
@@ -1028,19 +1028,19 @@
         <v>-13</v>
       </c>
       <c r="D15" t="n">
+        <v>-14</v>
+      </c>
+      <c r="E15" t="n">
         <v>-15</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
+        <v>-15</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-16</v>
+      </c>
+      <c r="H15" t="n">
         <v>-17</v>
-      </c>
-      <c r="F15" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="H15" t="n">
-        <v>-99999</v>
       </c>
       <c r="I15" t="n">
         <v>-99999</v>
@@ -1068,19 +1068,19 @@
         <v>-13</v>
       </c>
       <c r="D16" t="n">
+        <v>-14</v>
+      </c>
+      <c r="E16" t="n">
         <v>-15</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
+        <v>-15</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-16</v>
+      </c>
+      <c r="H16" t="n">
         <v>-17</v>
-      </c>
-      <c r="F16" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="H16" t="n">
-        <v>-99999</v>
       </c>
       <c r="I16" t="n">
         <v>-99999</v>
@@ -1145,22 +1145,22 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
+        <v>-13</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-14</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-15</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-15</v>
+      </c>
+      <c r="G18" t="n">
         <v>-16</v>
       </c>
-      <c r="D18" t="n">
-        <v>-18</v>
-      </c>
-      <c r="E18" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F18" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="G18" t="n">
-        <v>-99999</v>
-      </c>
       <c r="H18" t="n">
-        <v>-99999</v>
+        <v>-17</v>
       </c>
       <c r="I18" t="n">
         <v>-99999</v>
@@ -1194,13 +1194,13 @@
         <v>-16</v>
       </c>
       <c r="F19" t="n">
-        <v>-16</v>
+        <v>-17</v>
       </c>
       <c r="G19" t="n">
         <v>-18</v>
       </c>
       <c r="H19" t="n">
-        <v>-18</v>
+        <v>-19</v>
       </c>
       <c r="I19" t="n">
         <v>-99999</v>
@@ -1212,7 +1212,7 @@
         <v>15</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -1225,13 +1225,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>-16</v>
+        <v>-13</v>
       </c>
       <c r="D20" t="n">
-        <v>-16</v>
+        <v>-14</v>
       </c>
       <c r="E20" t="n">
-        <v>-17</v>
+        <v>-15</v>
       </c>
       <c r="F20" t="n">
         <v>-17</v>
@@ -1240,7 +1240,7 @@
         <v>-18</v>
       </c>
       <c r="H20" t="n">
-        <v>-20</v>
+        <v>-19</v>
       </c>
       <c r="I20" t="n">
         <v>-99999</v>
@@ -1385,28 +1385,28 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="D24" t="n">
-        <v>-20</v>
+        <v>-50</v>
       </c>
       <c r="E24" t="n">
-        <v>-25</v>
+        <v>-70</v>
       </c>
       <c r="F24" t="n">
-        <v>-30</v>
+        <v>-80</v>
       </c>
       <c r="G24" t="n">
-        <v>-40</v>
+        <v>-90</v>
       </c>
       <c r="H24" t="n">
-        <v>-50</v>
+        <v>-100</v>
       </c>
       <c r="I24" t="n">
-        <v>-70</v>
+        <v>-110</v>
       </c>
       <c r="J24" t="n">
-        <v>-80</v>
+        <v>-120</v>
       </c>
       <c r="K24" t="n">
         <v>5</v>
@@ -1425,28 +1425,28 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="D25" t="n">
-        <v>-20</v>
+        <v>-50</v>
       </c>
       <c r="E25" t="n">
-        <v>-25</v>
+        <v>-70</v>
       </c>
       <c r="F25" t="n">
-        <v>-30</v>
+        <v>-80</v>
       </c>
       <c r="G25" t="n">
-        <v>-40</v>
+        <v>-90</v>
       </c>
       <c r="H25" t="n">
-        <v>-50</v>
+        <v>-100</v>
       </c>
       <c r="I25" t="n">
-        <v>-70</v>
+        <v>-110</v>
       </c>
       <c r="J25" t="n">
-        <v>-80</v>
+        <v>-120</v>
       </c>
       <c r="K25" t="n">
         <v>2</v>
@@ -1477,16 +1477,16 @@
         <v>-40</v>
       </c>
       <c r="G26" t="n">
-        <v>-50</v>
+        <v>-90</v>
       </c>
       <c r="H26" t="n">
-        <v>-70</v>
+        <v>-100</v>
       </c>
       <c r="I26" t="n">
-        <v>-80</v>
+        <v>-110</v>
       </c>
       <c r="J26" t="n">
-        <v>-80</v>
+        <v>-120</v>
       </c>
       <c r="K26" t="n">
         <v>12</v>
@@ -1517,16 +1517,16 @@
         <v>-40</v>
       </c>
       <c r="G27" t="n">
-        <v>-50</v>
+        <v>-90</v>
       </c>
       <c r="H27" t="n">
-        <v>-70</v>
+        <v>-100</v>
       </c>
       <c r="I27" t="n">
-        <v>-80</v>
+        <v>-110</v>
       </c>
       <c r="J27" t="n">
-        <v>-80</v>
+        <v>-120</v>
       </c>
       <c r="K27" t="n">
         <v>25</v>
@@ -1714,13 +1714,13 @@
         <v>-1.32</v>
       </c>
       <c r="F32" t="n">
+        <v>-1.34</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-1.36</v>
+      </c>
+      <c r="H32" t="n">
         <v>-1.42</v>
-      </c>
-      <c r="G32" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="H32" t="n">
-        <v>-99999</v>
       </c>
       <c r="I32" t="n">
         <v>-99999</v>
@@ -1748,25 +1748,25 @@
         <v>-1.22</v>
       </c>
       <c r="D33" t="n">
-        <v>-1.4</v>
+        <v>-1.28</v>
       </c>
       <c r="E33" t="n">
-        <v>-1.4</v>
+        <v>-1.34</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.6</v>
+        <v>-1.38</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.8</v>
+        <v>-1.42</v>
       </c>
       <c r="H33" t="n">
-        <v>-2</v>
+        <v>-1.46</v>
       </c>
       <c r="I33" t="n">
-        <v>-99999</v>
+        <v>-1.56</v>
       </c>
       <c r="J33" t="n">
-        <v>-99999</v>
+        <v>-1.7</v>
       </c>
       <c r="K33" t="n">
         <v>22</v>
@@ -1785,31 +1785,31 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>-1.3</v>
+        <v>-1.28</v>
       </c>
       <c r="D34" t="n">
-        <v>-1.4</v>
+        <v>-1.32</v>
       </c>
       <c r="E34" t="n">
-        <v>-1.5</v>
+        <v>-1.34</v>
       </c>
       <c r="F34" t="n">
+        <v>-1.36</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-1.42</v>
+      </c>
+      <c r="H34" t="n">
         <v>-1.56</v>
       </c>
-      <c r="G34" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="H34" t="n">
-        <v>-99999</v>
-      </c>
       <c r="I34" t="n">
-        <v>-99999</v>
+        <v>-1.56</v>
       </c>
       <c r="J34" t="n">
-        <v>-99999</v>
+        <v>-1.7</v>
       </c>
       <c r="K34" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L34" t="n">
         <v>1</v>
@@ -2418,17 +2418,17 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>C2307-2309</t>
+          <t>BU2405-2406</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>-99999</v>
       </c>
       <c r="D50" t="n">
-        <v>5</v>
+        <v>-99999</v>
       </c>
       <c r="E50" t="n">
         <v>-99999</v>
@@ -2449,26 +2449,26 @@
         <v>-99999</v>
       </c>
       <c r="K50" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="L50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>C2309-2307</t>
+          <t>C2307-2309</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>-99999</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
-        <v>-99999</v>
+        <v>5</v>
       </c>
       <c r="E51" t="n">
         <v>-99999</v>
@@ -2489,7 +2489,7 @@
         <v>-99999</v>
       </c>
       <c r="K51" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="L51" t="n">
         <v>3</v>
@@ -2498,14 +2498,14 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>C2309-2311</t>
+          <t>C2309-2307</t>
         </is>
       </c>
       <c r="B52" t="n">
         <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>58</v>
+        <v>-99999</v>
       </c>
       <c r="D52" t="n">
         <v>-99999</v>
@@ -2529,7 +2529,7 @@
         <v>-99999</v>
       </c>
       <c r="K52" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="L52" t="n">
         <v>3</v>
@@ -2538,14 +2538,14 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>C2311-2309</t>
+          <t>C2309-2311</t>
         </is>
       </c>
       <c r="B53" t="n">
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>-130</v>
+        <v>58</v>
       </c>
       <c r="D53" t="n">
         <v>-99999</v>
@@ -2569,7 +2569,7 @@
         <v>-99999</v>
       </c>
       <c r="K53" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="L53" t="n">
         <v>3</v>
@@ -2578,14 +2578,14 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>C2311-2401</t>
+          <t>C2311-2309</t>
         </is>
       </c>
       <c r="B54" t="n">
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>44</v>
+        <v>-130</v>
       </c>
       <c r="D54" t="n">
         <v>-99999</v>
@@ -2609,7 +2609,7 @@
         <v>-99999</v>
       </c>
       <c r="K54" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="L54" t="n">
         <v>3</v>
@@ -2618,14 +2618,14 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>C2401-2403</t>
+          <t>C2311-2401</t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D55" t="n">
         <v>-99999</v>
@@ -2649,7 +2649,7 @@
         <v>-99999</v>
       </c>
       <c r="K55" t="n">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="L55" t="n">
         <v>3</v>
@@ -2658,14 +2658,14 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>C2403-2405</t>
+          <t>C2401-2403</t>
         </is>
       </c>
       <c r="B56" t="n">
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>-60</v>
+        <v>23</v>
       </c>
       <c r="D56" t="n">
         <v>-99999</v>
@@ -2689,7 +2689,7 @@
         <v>-99999</v>
       </c>
       <c r="K56" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L56" t="n">
         <v>3</v>
@@ -2698,14 +2698,14 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>CF2307-2309</t>
+          <t>C2403-2405</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>-99999</v>
+        <v>-60</v>
       </c>
       <c r="D57" t="n">
         <v>-99999</v>
@@ -2729,29 +2729,29 @@
         <v>-99999</v>
       </c>
       <c r="K57" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>CF2309-2311</t>
+          <t>CF2307-2309</t>
         </is>
       </c>
       <c r="B58" t="n">
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>-170</v>
+        <v>-99999</v>
       </c>
       <c r="D58" t="n">
-        <v>-190</v>
+        <v>-99999</v>
       </c>
       <c r="E58" t="n">
-        <v>-230</v>
+        <v>-99999</v>
       </c>
       <c r="F58" t="n">
         <v>-99999</v>
@@ -2769,7 +2769,7 @@
         <v>-99999</v>
       </c>
       <c r="K58" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="L58" t="n">
         <v>2</v>
@@ -2778,20 +2778,20 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>CF2311-2401</t>
+          <t>CF2309-2311</t>
         </is>
       </c>
       <c r="B59" t="n">
         <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>-99999</v>
+        <v>-170</v>
       </c>
       <c r="D59" t="n">
-        <v>-99999</v>
+        <v>-190</v>
       </c>
       <c r="E59" t="n">
-        <v>-99999</v>
+        <v>-230</v>
       </c>
       <c r="F59" t="n">
         <v>-99999</v>
@@ -2809,16 +2809,16 @@
         <v>-99999</v>
       </c>
       <c r="K59" t="n">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="L59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>CS2307-2309</t>
+          <t>CF2311-2401</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -2849,16 +2849,16 @@
         <v>-99999</v>
       </c>
       <c r="K60" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="L60" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>CS2309-2311</t>
+          <t>CS2307-2309</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -2898,7 +2898,7 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>CS2311-2309</t>
+          <t>CS2309-2311</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -2938,14 +2938,14 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>CS2311-2401</t>
+          <t>CS2311-2309</t>
         </is>
       </c>
       <c r="B63" t="n">
         <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>25</v>
+        <v>-99999</v>
       </c>
       <c r="D63" t="n">
         <v>-99999</v>
@@ -2978,14 +2978,14 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>CS2403-2405</t>
+          <t>CS2311-2401</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>-15</v>
+        <v>25</v>
       </c>
       <c r="D64" t="n">
         <v>-99999</v>
@@ -3009,26 +3009,26 @@
         <v>-99999</v>
       </c>
       <c r="K64" t="n">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="L64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>EG2307-2308</t>
+          <t>CS2403-2405</t>
         </is>
       </c>
       <c r="B65" t="n">
         <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>-40</v>
+        <v>-15</v>
       </c>
       <c r="D65" t="n">
-        <v>-40</v>
+        <v>-99999</v>
       </c>
       <c r="E65" t="n">
         <v>-99999</v>
@@ -3049,32 +3049,32 @@
         <v>-99999</v>
       </c>
       <c r="K65" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="L65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>EG2308-2309</t>
+          <t>EG2307-2308</t>
         </is>
       </c>
       <c r="B66" t="n">
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>-49</v>
+        <v>-40</v>
       </c>
       <c r="D66" t="n">
-        <v>-50</v>
+        <v>-40</v>
       </c>
       <c r="E66" t="n">
-        <v>-50</v>
+        <v>-99999</v>
       </c>
       <c r="F66" t="n">
-        <v>-51</v>
+        <v>-99999</v>
       </c>
       <c r="G66" t="n">
         <v>-99999</v>
@@ -3089,38 +3089,38 @@
         <v>-99999</v>
       </c>
       <c r="K66" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>EG2309-2310</t>
+          <t>EG2308-2309</t>
         </is>
       </c>
       <c r="B67" t="n">
         <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>-20</v>
+        <v>-49</v>
       </c>
       <c r="D67" t="n">
-        <v>-21</v>
+        <v>-50</v>
       </c>
       <c r="E67" t="n">
-        <v>-22</v>
+        <v>-50</v>
       </c>
       <c r="F67" t="n">
-        <v>-40</v>
+        <v>-51</v>
       </c>
       <c r="G67" t="n">
-        <v>-42</v>
+        <v>-99999</v>
       </c>
       <c r="H67" t="n">
-        <v>-48</v>
+        <v>-99999</v>
       </c>
       <c r="I67" t="n">
         <v>-99999</v>
@@ -3129,38 +3129,38 @@
         <v>-99999</v>
       </c>
       <c r="K67" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>EG2310-2311</t>
+          <t>EG2309-2310</t>
         </is>
       </c>
       <c r="B68" t="n">
         <v>0</v>
       </c>
       <c r="C68" t="n">
+        <v>-20</v>
+      </c>
+      <c r="D68" t="n">
         <v>-21</v>
       </c>
-      <c r="D68" t="n">
+      <c r="E68" t="n">
         <v>-22</v>
       </c>
-      <c r="E68" t="n">
-        <v>-23</v>
-      </c>
       <c r="F68" t="n">
-        <v>-36</v>
+        <v>-38</v>
       </c>
       <c r="G68" t="n">
-        <v>-40</v>
+        <v>-48</v>
       </c>
       <c r="H68" t="n">
-        <v>-44</v>
+        <v>-99999</v>
       </c>
       <c r="I68" t="n">
         <v>-99999</v>
@@ -3169,7 +3169,7 @@
         <v>-99999</v>
       </c>
       <c r="K68" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L68" t="n">
         <v>4</v>
@@ -3178,29 +3178,29 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>EG2311-2312</t>
+          <t>EG2310-2311</t>
         </is>
       </c>
       <c r="B69" t="n">
         <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>-20</v>
+        <v>-21</v>
       </c>
       <c r="D69" t="n">
-        <v>-21</v>
+        <v>-22</v>
       </c>
       <c r="E69" t="n">
-        <v>-22</v>
+        <v>-23</v>
       </c>
       <c r="F69" t="n">
-        <v>-24</v>
+        <v>-38</v>
       </c>
       <c r="G69" t="n">
-        <v>-30</v>
+        <v>-48</v>
       </c>
       <c r="H69" t="n">
-        <v>-35</v>
+        <v>-99999</v>
       </c>
       <c r="I69" t="n">
         <v>-99999</v>
@@ -3209,7 +3209,7 @@
         <v>-99999</v>
       </c>
       <c r="K69" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L69" t="n">
         <v>4</v>
@@ -3218,7 +3218,7 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>EG2312-2401</t>
+          <t>EG2311-2312</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -3228,16 +3228,16 @@
         <v>-20</v>
       </c>
       <c r="D70" t="n">
-        <v>-99999</v>
+        <v>-21</v>
       </c>
       <c r="E70" t="n">
-        <v>-99999</v>
+        <v>-22</v>
       </c>
       <c r="F70" t="n">
-        <v>-99999</v>
+        <v>-24</v>
       </c>
       <c r="G70" t="n">
-        <v>-99999</v>
+        <v>-40</v>
       </c>
       <c r="H70" t="n">
         <v>-99999</v>
@@ -3249,7 +3249,7 @@
         <v>-99999</v>
       </c>
       <c r="K70" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="L70" t="n">
         <v>4</v>
@@ -3258,17 +3258,17 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>EG2401-2402</t>
+          <t>EG2312-2401</t>
         </is>
       </c>
       <c r="B71" t="n">
         <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>-45</v>
+        <v>-20</v>
       </c>
       <c r="D71" t="n">
-        <v>-60</v>
+        <v>-40</v>
       </c>
       <c r="E71" t="n">
         <v>-99999</v>
@@ -3298,17 +3298,17 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>EG2402-2403</t>
+          <t>EG2401-2402</t>
         </is>
       </c>
       <c r="B72" t="n">
         <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>-20</v>
+        <v>-45</v>
       </c>
       <c r="D72" t="n">
-        <v>-30</v>
+        <v>-60</v>
       </c>
       <c r="E72" t="n">
         <v>-99999</v>
@@ -3338,17 +3338,17 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>FG2306-2309</t>
+          <t>EG2402-2403</t>
         </is>
       </c>
       <c r="B73" t="n">
         <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="D73" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="E73" t="n">
         <v>-99999</v>
@@ -3369,16 +3369,16 @@
         <v>-99999</v>
       </c>
       <c r="K73" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="L73" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>FG2307-2309</t>
+          <t>FG2306-2309</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -3418,23 +3418,23 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>FG2308-2309</t>
+          <t>FG2307-2309</t>
         </is>
       </c>
       <c r="B75" t="n">
         <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>-99999</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="E75" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="F75" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="G75" t="n">
         <v>-99999</v>
@@ -3449,16 +3449,16 @@
         <v>-99999</v>
       </c>
       <c r="K75" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>FG2310-2311</t>
+          <t>FG2308-2309</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -3498,17 +3498,17 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>FG2312-2401</t>
+          <t>FG2310-2311</t>
         </is>
       </c>
       <c r="B77" t="n">
         <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E77" t="n">
         <v>-10</v>
@@ -3538,7 +3538,7 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>FG2402-2403</t>
+          <t>FG2312-2401</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -3578,23 +3578,23 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>FU2307-2308</t>
+          <t>FG2402-2403</t>
         </is>
       </c>
       <c r="B79" t="n">
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>-99999</v>
+        <v>-5</v>
       </c>
       <c r="E79" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="F79" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="G79" t="n">
         <v>-99999</v>
@@ -3609,16 +3609,16 @@
         <v>-99999</v>
       </c>
       <c r="K79" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="L79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>FU2307-2309</t>
+          <t>FU2307-2308</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -3649,16 +3649,16 @@
         <v>-99999</v>
       </c>
       <c r="K80" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="L80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>FU2308-2307</t>
+          <t>FU2307-2309</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -3689,32 +3689,32 @@
         <v>-99999</v>
       </c>
       <c r="K81" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="L81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>FU2308-2309</t>
+          <t>FU2308-2307</t>
         </is>
       </c>
       <c r="B82" t="n">
         <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>10</v>
+        <v>-99999</v>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="E82" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="F82" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="G82" t="n">
         <v>-99999</v>
@@ -3729,32 +3729,32 @@
         <v>-99999</v>
       </c>
       <c r="K82" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>FU2309-2307</t>
+          <t>FU2308-2309</t>
         </is>
       </c>
       <c r="B83" t="n">
         <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>-99999</v>
+        <v>10</v>
       </c>
       <c r="D83" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="F83" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="G83" t="n">
         <v>-99999</v>
@@ -3769,26 +3769,26 @@
         <v>-99999</v>
       </c>
       <c r="K83" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="L83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>FU2309-2310</t>
+          <t>FU2309-2307</t>
         </is>
       </c>
       <c r="B84" t="n">
         <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="D84" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="E84" t="n">
         <v>-99999</v>
@@ -3809,26 +3809,26 @@
         <v>-99999</v>
       </c>
       <c r="K84" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="L84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>FU2310-2309</t>
+          <t>FU2309-2310</t>
         </is>
       </c>
       <c r="B85" t="n">
         <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>-53</v>
+        <v>-10</v>
       </c>
       <c r="D85" t="n">
-        <v>-59</v>
+        <v>-20</v>
       </c>
       <c r="E85" t="n">
         <v>-99999</v>
@@ -3849,26 +3849,26 @@
         <v>-99999</v>
       </c>
       <c r="K85" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="L85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>FU2310-2311</t>
+          <t>FU2310-2309</t>
         </is>
       </c>
       <c r="B86" t="n">
         <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>-99999</v>
+        <v>-53</v>
       </c>
       <c r="D86" t="n">
-        <v>-99999</v>
+        <v>-59</v>
       </c>
       <c r="E86" t="n">
         <v>-99999</v>
@@ -3892,13 +3892,13 @@
         <v>20</v>
       </c>
       <c r="L86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>FU2311-2309</t>
+          <t>FU2310-2311</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -3929,23 +3929,23 @@
         <v>-99999</v>
       </c>
       <c r="K87" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="L87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>FU2311-2310</t>
+          <t>FU2311-2309</t>
         </is>
       </c>
       <c r="B88" t="n">
         <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>-80</v>
+        <v>-99999</v>
       </c>
       <c r="D88" t="n">
         <v>-99999</v>
@@ -3969,23 +3969,23 @@
         <v>-99999</v>
       </c>
       <c r="K88" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="L88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>FU2311-2312</t>
+          <t>FU2311-2310</t>
         </is>
       </c>
       <c r="B89" t="n">
         <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>20</v>
+        <v>-80</v>
       </c>
       <c r="D89" t="n">
         <v>-99999</v>
@@ -4009,7 +4009,7 @@
         <v>-99999</v>
       </c>
       <c r="K89" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L89" t="n">
         <v>3</v>
@@ -4018,60 +4018,60 @@
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>FU2312-2401</t>
+          <t>FU2311-2312</t>
         </is>
       </c>
       <c r="B90" t="n">
         <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D90" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E90" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F90" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H90" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I90" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K90" t="n">
         <v>20</v>
       </c>
-      <c r="E90" t="n">
-        <v>3</v>
-      </c>
-      <c r="F90" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="G90" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="H90" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="I90" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="J90" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="K90" t="n">
-        <v>35</v>
-      </c>
       <c r="L90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>FU2401-2402</t>
+          <t>FU2312-2401</t>
         </is>
       </c>
       <c r="B91" t="n">
         <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D91" t="n">
-        <v>-99999</v>
+        <v>20</v>
       </c>
       <c r="E91" t="n">
-        <v>-99999</v>
+        <v>3</v>
       </c>
       <c r="F91" t="n">
         <v>-99999</v>
@@ -4089,26 +4089,26 @@
         <v>-99999</v>
       </c>
       <c r="K91" t="n">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="L91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>FU2402-2403</t>
+          <t>FU2401-2402</t>
         </is>
       </c>
       <c r="B92" t="n">
         <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>-15</v>
+        <v>21</v>
       </c>
       <c r="D92" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="E92" t="n">
         <v>-99999</v>
@@ -4129,7 +4129,7 @@
         <v>-99999</v>
       </c>
       <c r="K92" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="L92" t="n">
         <v>3</v>
@@ -4138,7 +4138,7 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>FU2403-2404</t>
+          <t>FU2402-2403</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -4178,7 +4178,7 @@
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>FU2404-2405</t>
+          <t>FU2403-2404</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -4218,7 +4218,7 @@
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>FU2405-2406</t>
+          <t>FU2404-2405</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -4258,26 +4258,26 @@
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>HC2307-2308</t>
+          <t>FU2405-2406</t>
         </is>
       </c>
       <c r="B96" t="n">
         <v>0</v>
       </c>
       <c r="C96" t="n">
-        <v>-5</v>
+        <v>-15</v>
       </c>
       <c r="D96" t="n">
-        <v>-15</v>
+        <v>-20</v>
       </c>
       <c r="E96" t="n">
-        <v>-25</v>
+        <v>-99999</v>
       </c>
       <c r="F96" t="n">
-        <v>-35</v>
+        <v>-99999</v>
       </c>
       <c r="G96" t="n">
-        <v>-45</v>
+        <v>-99999</v>
       </c>
       <c r="H96" t="n">
         <v>-99999</v>
@@ -4289,7 +4289,7 @@
         <v>-99999</v>
       </c>
       <c r="K96" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="L96" t="n">
         <v>3</v>
@@ -4298,38 +4298,38 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>HC2307-2309</t>
+          <t>HC2307-2308</t>
         </is>
       </c>
       <c r="B97" t="n">
         <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>10</v>
+        <v>-5</v>
       </c>
       <c r="D97" t="n">
-        <v>5</v>
+        <v>-15</v>
       </c>
       <c r="E97" t="n">
-        <v>5</v>
+        <v>-25</v>
       </c>
       <c r="F97" t="n">
-        <v>4</v>
+        <v>-35</v>
       </c>
       <c r="G97" t="n">
-        <v>3</v>
+        <v>-45</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>-99999</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>-99999</v>
       </c>
       <c r="J97" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="K97" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L97" t="n">
         <v>3</v>
@@ -4338,38 +4338,38 @@
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>HC2308-2309</t>
+          <t>HC2307-2309</t>
         </is>
       </c>
       <c r="B98" t="n">
         <v>0</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D98" t="n">
-        <v>-10</v>
+        <v>5</v>
       </c>
       <c r="E98" t="n">
-        <v>-99999</v>
+        <v>5</v>
       </c>
       <c r="F98" t="n">
-        <v>-99999</v>
+        <v>4</v>
       </c>
       <c r="G98" t="n">
-        <v>-99999</v>
+        <v>3</v>
       </c>
       <c r="H98" t="n">
-        <v>-99999</v>
+        <v>2</v>
       </c>
       <c r="I98" t="n">
-        <v>-99999</v>
+        <v>1</v>
       </c>
       <c r="J98" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="K98" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L98" t="n">
         <v>3</v>
@@ -4378,26 +4378,26 @@
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>HC2309-2310</t>
+          <t>HC2308-2309</t>
         </is>
       </c>
       <c r="B99" t="n">
         <v>0</v>
       </c>
       <c r="C99" t="n">
+        <v>0</v>
+      </c>
+      <c r="D99" t="n">
         <v>-10</v>
       </c>
-      <c r="D99" t="n">
-        <v>-20</v>
-      </c>
       <c r="E99" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="F99" t="n">
-        <v>-40</v>
+        <v>-99999</v>
       </c>
       <c r="G99" t="n">
-        <v>-50</v>
+        <v>-99999</v>
       </c>
       <c r="H99" t="n">
         <v>-99999</v>
@@ -4409,7 +4409,7 @@
         <v>-99999</v>
       </c>
       <c r="K99" t="n">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="L99" t="n">
         <v>3</v>
@@ -4418,7 +4418,7 @@
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>HC2310-2311</t>
+          <t>HC2309-2310</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -4449,16 +4449,16 @@
         <v>-99999</v>
       </c>
       <c r="K100" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="L100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>HC2311-2312</t>
+          <t>HC2310-2311</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -4471,13 +4471,13 @@
         <v>-20</v>
       </c>
       <c r="E101" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="F101" t="n">
-        <v>-99999</v>
+        <v>-40</v>
       </c>
       <c r="G101" t="n">
-        <v>-99999</v>
+        <v>-50</v>
       </c>
       <c r="H101" t="n">
         <v>-99999</v>
@@ -4489,7 +4489,7 @@
         <v>-99999</v>
       </c>
       <c r="K101" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L101" t="n">
         <v>3</v>
@@ -4498,17 +4498,17 @@
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>HC2312-2401</t>
+          <t>HC2311-2312</t>
         </is>
       </c>
       <c r="B102" t="n">
         <v>0</v>
       </c>
       <c r="C102" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="D102" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="E102" t="n">
         <v>-99999</v>
@@ -4538,14 +4538,14 @@
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>HC2401-2402</t>
+          <t>HC2312-2401</t>
         </is>
       </c>
       <c r="B103" t="n">
         <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="D103" t="n">
         <v>-99999</v>
@@ -4569,7 +4569,7 @@
         <v>-99999</v>
       </c>
       <c r="K103" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="L103" t="n">
         <v>3</v>
@@ -4578,14 +4578,14 @@
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>HC2402-2403</t>
+          <t>HC2401-2402</t>
         </is>
       </c>
       <c r="B104" t="n">
         <v>0</v>
       </c>
       <c r="C104" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="D104" t="n">
         <v>-99999</v>
@@ -4609,7 +4609,7 @@
         <v>-99999</v>
       </c>
       <c r="K104" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="L104" t="n">
         <v>3</v>
@@ -4618,7 +4618,7 @@
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>HC2403-2404</t>
+          <t>HC2402-2403</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -4658,17 +4658,17 @@
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>I2307-2308</t>
+          <t>HC2403-2404</t>
         </is>
       </c>
       <c r="B106" t="n">
         <v>0</v>
       </c>
       <c r="C106" t="n">
-        <v>4</v>
+        <v>-99999</v>
       </c>
       <c r="D106" t="n">
-        <v>-1</v>
+        <v>-99999</v>
       </c>
       <c r="E106" t="n">
         <v>-99999</v>
@@ -4689,23 +4689,23 @@
         <v>-99999</v>
       </c>
       <c r="K106" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="L106" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>I2308-2309</t>
+          <t>I2307-2308</t>
         </is>
       </c>
       <c r="B107" t="n">
         <v>0</v>
       </c>
       <c r="C107" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="D107" t="n">
         <v>-1</v>
@@ -4729,7 +4729,7 @@
         <v>-99999</v>
       </c>
       <c r="K107" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L107" t="n">
         <v>1</v>
@@ -4738,17 +4738,17 @@
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>I2309-2310</t>
+          <t>I2308-2309</t>
         </is>
       </c>
       <c r="B108" t="n">
         <v>0</v>
       </c>
       <c r="C108" t="n">
-        <v>-99999</v>
+        <v>4.5</v>
       </c>
       <c r="D108" t="n">
-        <v>-99999</v>
+        <v>-1</v>
       </c>
       <c r="E108" t="n">
         <v>-99999</v>
@@ -4769,7 +4769,7 @@
         <v>-99999</v>
       </c>
       <c r="K108" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L108" t="n">
         <v>1</v>
@@ -4778,17 +4778,17 @@
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>I2310-2311</t>
+          <t>I2309-2310</t>
         </is>
       </c>
       <c r="B109" t="n">
         <v>0</v>
       </c>
       <c r="C109" t="n">
-        <v>3</v>
+        <v>-99999</v>
       </c>
       <c r="D109" t="n">
-        <v>2</v>
+        <v>-99999</v>
       </c>
       <c r="E109" t="n">
         <v>-99999</v>
@@ -4809,16 +4809,16 @@
         <v>-99999</v>
       </c>
       <c r="K109" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L109" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>I2311-2312</t>
+          <t>I2310-2311</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -4858,14 +4858,14 @@
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>I2312-2401</t>
+          <t>I2311-2312</t>
         </is>
       </c>
       <c r="B111" t="n">
         <v>0</v>
       </c>
       <c r="C111" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="D111" t="n">
         <v>2</v>
@@ -4898,17 +4898,17 @@
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>I2401-2402</t>
+          <t>I2312-2401</t>
         </is>
       </c>
       <c r="B112" t="n">
         <v>0</v>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="D112" t="n">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="E112" t="n">
         <v>-99999</v>
@@ -4938,7 +4938,7 @@
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>I2402-2403</t>
+          <t>I2401-2402</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -4978,7 +4978,7 @@
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>I2403-2404</t>
+          <t>I2402-2403</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -5018,17 +5018,17 @@
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>IC2306-2309</t>
+          <t>I2403-2404</t>
         </is>
       </c>
       <c r="B115" t="n">
         <v>0</v>
       </c>
       <c r="C115" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="D115" t="n">
-        <v>-99999</v>
+        <v>-3</v>
       </c>
       <c r="E115" t="n">
         <v>-99999</v>
@@ -5049,16 +5049,16 @@
         <v>-99999</v>
       </c>
       <c r="K115" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="L115" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>IC2309-2312</t>
+          <t>IC2306-2309</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -5098,7 +5098,7 @@
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>IF2306-2309</t>
+          <t>IC2309-2312</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -5138,17 +5138,17 @@
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>IF2308-2309</t>
+          <t>IF2306-2309</t>
         </is>
       </c>
       <c r="B118" t="n">
         <v>0</v>
       </c>
       <c r="C118" t="n">
-        <v>-7.4</v>
+        <v>-99999</v>
       </c>
       <c r="D118" t="n">
-        <v>-8.199999999999999</v>
+        <v>-99999</v>
       </c>
       <c r="E118" t="n">
         <v>-99999</v>
@@ -5169,7 +5169,7 @@
         <v>-99999</v>
       </c>
       <c r="K118" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L118" t="n">
         <v>1</v>
@@ -5178,7 +5178,7 @@
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>IF2309-2312</t>
+          <t>IF2308-2309</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -5209,7 +5209,7 @@
         <v>-99999</v>
       </c>
       <c r="K119" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L119" t="n">
         <v>1</v>
@@ -5218,26 +5218,26 @@
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>IH2307-2309</t>
+          <t>IF2309-2312</t>
         </is>
       </c>
       <c r="B120" t="n">
         <v>0</v>
       </c>
       <c r="C120" t="n">
-        <v>-99999</v>
+        <v>-14.2</v>
       </c>
       <c r="D120" t="n">
-        <v>-99999</v>
+        <v>-16.2</v>
       </c>
       <c r="E120" t="n">
-        <v>-99999</v>
+        <v>-16.8</v>
       </c>
       <c r="F120" t="n">
-        <v>-99999</v>
+        <v>-18.4</v>
       </c>
       <c r="G120" t="n">
-        <v>-99999</v>
+        <v>-20.4</v>
       </c>
       <c r="H120" t="n">
         <v>-99999</v>
@@ -5249,7 +5249,7 @@
         <v>-99999</v>
       </c>
       <c r="K120" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="L120" t="n">
         <v>1</v>
@@ -5258,20 +5258,20 @@
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>IH2309-2312</t>
+          <t>IH2307-2309</t>
         </is>
       </c>
       <c r="B121" t="n">
         <v>0</v>
       </c>
       <c r="C121" t="n">
-        <v>-16.4</v>
+        <v>-99999</v>
       </c>
       <c r="D121" t="n">
-        <v>-18.4</v>
+        <v>-99999</v>
       </c>
       <c r="E121" t="n">
-        <v>-20.4</v>
+        <v>-99999</v>
       </c>
       <c r="F121" t="n">
         <v>-99999</v>
@@ -5289,7 +5289,7 @@
         <v>-99999</v>
       </c>
       <c r="K121" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L121" t="n">
         <v>1</v>
@@ -5298,20 +5298,20 @@
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>IM2309-2312</t>
+          <t>IH2309-2312</t>
         </is>
       </c>
       <c r="B122" t="n">
         <v>0</v>
       </c>
       <c r="C122" t="n">
-        <v>-99999</v>
+        <v>-16.4</v>
       </c>
       <c r="D122" t="n">
-        <v>-99999</v>
+        <v>-18.4</v>
       </c>
       <c r="E122" t="n">
-        <v>-99999</v>
+        <v>-20.4</v>
       </c>
       <c r="F122" t="n">
         <v>-99999</v>
@@ -5338,14 +5338,14 @@
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>JD2403-2404</t>
+          <t>IM2309-2312</t>
         </is>
       </c>
       <c r="B123" t="n">
         <v>0</v>
       </c>
       <c r="C123" t="n">
-        <v>-190</v>
+        <v>-99999</v>
       </c>
       <c r="D123" t="n">
         <v>-99999</v>
@@ -5369,38 +5369,38 @@
         <v>-99999</v>
       </c>
       <c r="K123" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="L123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>L2307-2308</t>
+          <t>JD2403-2404</t>
         </is>
       </c>
       <c r="B124" t="n">
         <v>0</v>
       </c>
       <c r="C124" t="n">
-        <v>0</v>
+        <v>-190</v>
       </c>
       <c r="D124" t="n">
-        <v>-5</v>
+        <v>-99999</v>
       </c>
       <c r="E124" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="F124" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="G124" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="H124" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="I124" t="n">
         <v>-99999</v>
@@ -5409,16 +5409,16 @@
         <v>-99999</v>
       </c>
       <c r="K124" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="L124" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>L2308-2309</t>
+          <t>L2307-2308</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -5434,13 +5434,13 @@
         <v>-10</v>
       </c>
       <c r="F125" t="n">
+        <v>-15</v>
+      </c>
+      <c r="G125" t="n">
         <v>-20</v>
       </c>
-      <c r="G125" t="n">
+      <c r="H125" t="n">
         <v>-30</v>
-      </c>
-      <c r="H125" t="n">
-        <v>-40</v>
       </c>
       <c r="I125" t="n">
         <v>-99999</v>
@@ -5458,7 +5458,7 @@
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>L2309-2310</t>
+          <t>L2308-2309</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -5474,13 +5474,13 @@
         <v>-10</v>
       </c>
       <c r="F126" t="n">
-        <v>-15</v>
+        <v>-20</v>
       </c>
       <c r="G126" t="n">
-        <v>-20</v>
+        <v>-30</v>
       </c>
       <c r="H126" t="n">
-        <v>-30</v>
+        <v>-40</v>
       </c>
       <c r="I126" t="n">
         <v>-99999</v>
@@ -5498,7 +5498,7 @@
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>L2310-2311</t>
+          <t>L2309-2310</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -5517,10 +5517,10 @@
         <v>-15</v>
       </c>
       <c r="G127" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="H127" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="I127" t="n">
         <v>-99999</v>
@@ -5538,7 +5538,7 @@
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>L2311-2312</t>
+          <t>L2310-2311</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -5578,7 +5578,7 @@
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>L2312-2401</t>
+          <t>L2311-2312</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -5618,7 +5618,7 @@
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>L2402-2403</t>
+          <t>L2312-2401</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -5658,23 +5658,23 @@
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>LU2307-2306</t>
+          <t>L2402-2403</t>
         </is>
       </c>
       <c r="B131" t="n">
         <v>0</v>
       </c>
       <c r="C131" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="D131" t="n">
-        <v>-99999</v>
+        <v>-5</v>
       </c>
       <c r="E131" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="F131" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="G131" t="n">
         <v>-99999</v>
@@ -5698,26 +5698,26 @@
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>M2308-2309</t>
+          <t>LU2307-2306</t>
         </is>
       </c>
       <c r="B132" t="n">
         <v>0</v>
       </c>
       <c r="C132" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="D132" t="n">
-        <v>-5</v>
+        <v>-99999</v>
       </c>
       <c r="E132" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="F132" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="G132" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="H132" t="n">
         <v>-99999</v>
@@ -5729,7 +5729,7 @@
         <v>-99999</v>
       </c>
       <c r="K132" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="L132" t="n">
         <v>3</v>
@@ -5738,14 +5738,14 @@
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>M2309-2311</t>
+          <t>LU2309-2310</t>
         </is>
       </c>
       <c r="B133" t="n">
         <v>0</v>
       </c>
       <c r="C133" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="D133" t="n">
         <v>-99999</v>
@@ -5769,7 +5769,7 @@
         <v>-99999</v>
       </c>
       <c r="K133" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="L133" t="n">
         <v>3</v>
@@ -5778,26 +5778,26 @@
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>M2311-2312</t>
+          <t>M2308-2309</t>
         </is>
       </c>
       <c r="B134" t="n">
         <v>0</v>
       </c>
       <c r="C134" t="n">
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="D134" t="n">
-        <v>-50</v>
+        <v>-5</v>
       </c>
       <c r="E134" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="F134" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="G134" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="H134" t="n">
         <v>-99999</v>
@@ -5809,29 +5809,29 @@
         <v>-99999</v>
       </c>
       <c r="K134" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L134" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>M2312-2401</t>
+          <t>M2309-2311</t>
         </is>
       </c>
       <c r="B135" t="n">
         <v>0</v>
       </c>
       <c r="C135" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="D135" t="n">
-        <v>-5</v>
+        <v>-99999</v>
       </c>
       <c r="E135" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="F135" t="n">
         <v>-99999</v>
@@ -5849,7 +5849,7 @@
         <v>-99999</v>
       </c>
       <c r="K135" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L135" t="n">
         <v>3</v>
@@ -5858,20 +5858,20 @@
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>M2401-2403</t>
+          <t>M2311-2312</t>
         </is>
       </c>
       <c r="B136" t="n">
         <v>0</v>
       </c>
       <c r="C136" t="n">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="D136" t="n">
-        <v>-10</v>
+        <v>-50</v>
       </c>
       <c r="E136" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="F136" t="n">
         <v>-99999</v>
@@ -5889,29 +5889,29 @@
         <v>-99999</v>
       </c>
       <c r="K136" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L136" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>MA2308-2309</t>
+          <t>M2312-2401</t>
         </is>
       </c>
       <c r="B137" t="n">
         <v>0</v>
       </c>
       <c r="C137" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="D137" t="n">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="E137" t="n">
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="F137" t="n">
         <v>-99999</v>
@@ -5929,47 +5929,47 @@
         <v>-99999</v>
       </c>
       <c r="K137" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="L137" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>MA2309-2310</t>
+          <t>M2401-2403</t>
         </is>
       </c>
       <c r="B138" t="n">
         <v>0</v>
       </c>
       <c r="C138" t="n">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="D138" t="n">
-        <v>-15</v>
+        <v>-10</v>
       </c>
       <c r="E138" t="n">
         <v>-20</v>
       </c>
       <c r="F138" t="n">
-        <v>-25</v>
+        <v>-99999</v>
       </c>
       <c r="G138" t="n">
-        <v>-25</v>
+        <v>-99999</v>
       </c>
       <c r="H138" t="n">
-        <v>-32</v>
+        <v>-99999</v>
       </c>
       <c r="I138" t="n">
-        <v>-40</v>
+        <v>-99999</v>
       </c>
       <c r="J138" t="n">
         <v>-99999</v>
       </c>
       <c r="K138" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L138" t="n">
         <v>3</v>
@@ -5978,21 +5978,21 @@
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>MA2310-2311</t>
+          <t>M2403-2405</t>
         </is>
       </c>
       <c r="B139" t="n">
         <v>0</v>
       </c>
       <c r="C139" t="n">
+        <v>0</v>
+      </c>
+      <c r="D139" t="n">
+        <v>-10</v>
+      </c>
+      <c r="E139" t="n">
         <v>-20</v>
       </c>
-      <c r="D139" t="n">
-        <v>-22</v>
-      </c>
-      <c r="E139" t="n">
-        <v>-99999</v>
-      </c>
       <c r="F139" t="n">
         <v>-99999</v>
       </c>
@@ -6009,7 +6009,7 @@
         <v>-99999</v>
       </c>
       <c r="K139" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="L139" t="n">
         <v>3</v>
@@ -6018,23 +6018,23 @@
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>MA2311-2312</t>
+          <t>M2405-2407</t>
         </is>
       </c>
       <c r="B140" t="n">
         <v>0</v>
       </c>
       <c r="C140" t="n">
-        <v>-45</v>
+        <v>2</v>
       </c>
       <c r="D140" t="n">
-        <v>-50</v>
+        <v>-20</v>
       </c>
       <c r="E140" t="n">
-        <v>-99999</v>
+        <v>-25</v>
       </c>
       <c r="F140" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="G140" t="n">
         <v>-99999</v>
@@ -6049,29 +6049,29 @@
         <v>-99999</v>
       </c>
       <c r="K140" t="n">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="L140" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>MA2312-2401</t>
+          <t>MA2308-2309</t>
         </is>
       </c>
       <c r="B141" t="n">
         <v>0</v>
       </c>
       <c r="C141" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="D141" t="n">
-        <v>-15</v>
+        <v>-6</v>
       </c>
       <c r="E141" t="n">
-        <v>-25</v>
+        <v>-6</v>
       </c>
       <c r="F141" t="n">
         <v>-99999</v>
@@ -6089,69 +6089,69 @@
         <v>-99999</v>
       </c>
       <c r="K141" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="L141" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>NR2307-2308</t>
+          <t>MA2309-2310</t>
         </is>
       </c>
       <c r="B142" t="n">
         <v>0</v>
       </c>
       <c r="C142" t="n">
-        <v>-99999</v>
+        <v>-14</v>
       </c>
       <c r="D142" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="E142" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="F142" t="n">
-        <v>-99999</v>
+        <v>-25</v>
       </c>
       <c r="G142" t="n">
-        <v>-99999</v>
+        <v>-25</v>
       </c>
       <c r="H142" t="n">
-        <v>-99999</v>
+        <v>-32</v>
       </c>
       <c r="I142" t="n">
-        <v>-99999</v>
+        <v>-40</v>
       </c>
       <c r="J142" t="n">
         <v>-99999</v>
       </c>
       <c r="K142" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="L142" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>NR2309-2310</t>
+          <t>MA2310-2311</t>
         </is>
       </c>
       <c r="B143" t="n">
         <v>0</v>
       </c>
       <c r="C143" t="n">
-        <v>-30</v>
+        <v>-20</v>
       </c>
       <c r="D143" t="n">
-        <v>-40</v>
+        <v>-22</v>
       </c>
       <c r="E143" t="n">
-        <v>-99999</v>
+        <v>-25</v>
       </c>
       <c r="F143" t="n">
         <v>-99999</v>
@@ -6169,26 +6169,26 @@
         <v>-99999</v>
       </c>
       <c r="K143" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="L143" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>NR2310-2311</t>
+          <t>MA2311-2312</t>
         </is>
       </c>
       <c r="B144" t="n">
         <v>0</v>
       </c>
       <c r="C144" t="n">
-        <v>-160</v>
+        <v>-45</v>
       </c>
       <c r="D144" t="n">
-        <v>-99999</v>
+        <v>-50</v>
       </c>
       <c r="E144" t="n">
         <v>-99999</v>
@@ -6218,20 +6218,20 @@
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>NR2311-2312</t>
+          <t>MA2312-2401</t>
         </is>
       </c>
       <c r="B145" t="n">
         <v>0</v>
       </c>
       <c r="C145" t="n">
-        <v>-100</v>
+        <v>-5</v>
       </c>
       <c r="D145" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="E145" t="n">
-        <v>-99999</v>
+        <v>-25</v>
       </c>
       <c r="F145" t="n">
         <v>-99999</v>
@@ -6249,26 +6249,26 @@
         <v>-99999</v>
       </c>
       <c r="K145" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L145" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>NR2312-2401</t>
+          <t>NR2307-2308</t>
         </is>
       </c>
       <c r="B146" t="n">
         <v>0</v>
       </c>
       <c r="C146" t="n">
-        <v>-70</v>
+        <v>-99999</v>
       </c>
       <c r="D146" t="n">
-        <v>-100</v>
+        <v>-99999</v>
       </c>
       <c r="E146" t="n">
         <v>-99999</v>
@@ -6289,7 +6289,7 @@
         <v>-99999</v>
       </c>
       <c r="K146" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="L146" t="n">
         <v>1</v>
@@ -6298,20 +6298,20 @@
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>OI2307-2309</t>
+          <t>NR2309-2310</t>
         </is>
       </c>
       <c r="B147" t="n">
         <v>0</v>
       </c>
       <c r="C147" t="n">
-        <v>-5</v>
+        <v>-30</v>
       </c>
       <c r="D147" t="n">
-        <v>-10</v>
+        <v>-40</v>
       </c>
       <c r="E147" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="F147" t="n">
         <v>-99999</v>
@@ -6329,38 +6329,38 @@
         <v>-99999</v>
       </c>
       <c r="K147" t="n">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="L147" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>OI2309-2311</t>
+          <t>NR2310-2311</t>
         </is>
       </c>
       <c r="B148" t="n">
         <v>0</v>
       </c>
       <c r="C148" t="n">
-        <v>65</v>
+        <v>-160</v>
       </c>
       <c r="D148" t="n">
-        <v>12</v>
+        <v>-99999</v>
       </c>
       <c r="E148" t="n">
-        <v>-5</v>
+        <v>-99999</v>
       </c>
       <c r="F148" t="n">
-        <v>-11</v>
+        <v>-99999</v>
       </c>
       <c r="G148" t="n">
-        <v>-16</v>
+        <v>-99999</v>
       </c>
       <c r="H148" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="I148" t="n">
         <v>-99999</v>
@@ -6369,23 +6369,23 @@
         <v>-99999</v>
       </c>
       <c r="K148" t="n">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="L148" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>OI2311-2401</t>
+          <t>NR2311-2312</t>
         </is>
       </c>
       <c r="B149" t="n">
         <v>0</v>
       </c>
       <c r="C149" t="n">
-        <v>-99999</v>
+        <v>-100</v>
       </c>
       <c r="D149" t="n">
         <v>-99999</v>
@@ -6409,26 +6409,26 @@
         <v>-99999</v>
       </c>
       <c r="K149" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L149" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>OI2401-2311</t>
+          <t>NR2312-2401</t>
         </is>
       </c>
       <c r="B150" t="n">
         <v>0</v>
       </c>
       <c r="C150" t="n">
-        <v>-170</v>
+        <v>-70</v>
       </c>
       <c r="D150" t="n">
-        <v>-99999</v>
+        <v>-100</v>
       </c>
       <c r="E150" t="n">
         <v>-99999</v>
@@ -6449,7 +6449,7 @@
         <v>-99999</v>
       </c>
       <c r="K150" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L150" t="n">
         <v>1</v>
@@ -6458,20 +6458,20 @@
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>PB2309-2310</t>
+          <t>OI2307-2309</t>
         </is>
       </c>
       <c r="B151" t="n">
         <v>0</v>
       </c>
       <c r="C151" t="n">
-        <v>-99999</v>
+        <v>-5</v>
       </c>
       <c r="D151" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="E151" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="F151" t="n">
         <v>-99999</v>
@@ -6489,35 +6489,35 @@
         <v>-99999</v>
       </c>
       <c r="K151" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L151" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>PB2402-2403</t>
+          <t>OI2309-2311</t>
         </is>
       </c>
       <c r="B152" t="n">
         <v>0</v>
       </c>
       <c r="C152" t="n">
-        <v>-70</v>
+        <v>61</v>
       </c>
       <c r="D152" t="n">
-        <v>-99999</v>
+        <v>12</v>
       </c>
       <c r="E152" t="n">
-        <v>-99999</v>
+        <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>-99999</v>
+        <v>-8</v>
       </c>
       <c r="G152" t="n">
-        <v>-99999</v>
+        <v>-50</v>
       </c>
       <c r="H152" t="n">
         <v>-99999</v>
@@ -6529,29 +6529,29 @@
         <v>-99999</v>
       </c>
       <c r="K152" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L152" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>PF2307-2308</t>
+          <t>OI2311-2401</t>
         </is>
       </c>
       <c r="B153" t="n">
         <v>0</v>
       </c>
       <c r="C153" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="D153" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="E153" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="F153" t="n">
         <v>-99999</v>
@@ -6569,7 +6569,7 @@
         <v>-99999</v>
       </c>
       <c r="K153" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L153" t="n">
         <v>3</v>
@@ -6578,14 +6578,14 @@
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>PF2308-2309</t>
+          <t>OI2401-2311</t>
         </is>
       </c>
       <c r="B154" t="n">
         <v>0</v>
       </c>
       <c r="C154" t="n">
-        <v>0</v>
+        <v>-205</v>
       </c>
       <c r="D154" t="n">
         <v>-99999</v>
@@ -6609,16 +6609,16 @@
         <v>-99999</v>
       </c>
       <c r="K154" t="n">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="L154" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>PF2309-2310</t>
+          <t>PB2309-2310</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -6649,23 +6649,23 @@
         <v>-99999</v>
       </c>
       <c r="K155" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L155" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>PF2310-2311</t>
+          <t>PB2402-2403</t>
         </is>
       </c>
       <c r="B156" t="n">
         <v>0</v>
       </c>
       <c r="C156" t="n">
-        <v>-99999</v>
+        <v>-70</v>
       </c>
       <c r="D156" t="n">
         <v>-99999</v>
@@ -6689,16 +6689,16 @@
         <v>-99999</v>
       </c>
       <c r="K156" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L156" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>PF2311-2312</t>
+          <t>PB2403-2404</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -6729,29 +6729,29 @@
         <v>-99999</v>
       </c>
       <c r="K157" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L157" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>PF2312-2401</t>
+          <t>PF2307-2308</t>
         </is>
       </c>
       <c r="B158" t="n">
         <v>0</v>
       </c>
       <c r="C158" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="D158" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="E158" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="F158" t="n">
         <v>-99999</v>
@@ -6778,14 +6778,14 @@
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>PG2307-2308</t>
+          <t>PF2308-2309</t>
         </is>
       </c>
       <c r="B159" t="n">
         <v>0</v>
       </c>
       <c r="C159" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="D159" t="n">
         <v>-99999</v>
@@ -6809,16 +6809,16 @@
         <v>-99999</v>
       </c>
       <c r="K159" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="L159" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>PG2308-2309</t>
+          <t>PF2309-2310</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -6849,16 +6849,16 @@
         <v>-99999</v>
       </c>
       <c r="K160" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="L160" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>PG2309-2308</t>
+          <t>PF2310-2311</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -6889,29 +6889,29 @@
         <v>-99999</v>
       </c>
       <c r="K161" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="L161" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>PP2307-2308</t>
+          <t>PF2311-2312</t>
         </is>
       </c>
       <c r="B162" t="n">
         <v>0</v>
       </c>
       <c r="C162" t="n">
-        <v>-8</v>
+        <v>-99999</v>
       </c>
       <c r="D162" t="n">
-        <v>-9</v>
+        <v>-99999</v>
       </c>
       <c r="E162" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="F162" t="n">
         <v>-99999</v>
@@ -6929,23 +6929,23 @@
         <v>-99999</v>
       </c>
       <c r="K162" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="L162" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>PP2308-2309</t>
+          <t>PF2312-2401</t>
         </is>
       </c>
       <c r="B163" t="n">
         <v>0</v>
       </c>
       <c r="C163" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="D163" t="n">
         <v>-99999</v>
@@ -6969,29 +6969,29 @@
         <v>-99999</v>
       </c>
       <c r="K163" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="L163" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>PP2309-2310</t>
+          <t>PG2307-2308</t>
         </is>
       </c>
       <c r="B164" t="n">
         <v>0</v>
       </c>
       <c r="C164" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="D164" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="E164" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="F164" t="n">
         <v>-99999</v>
@@ -7009,32 +7009,32 @@
         <v>-99999</v>
       </c>
       <c r="K164" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="L164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>PP2310-2311</t>
+          <t>PG2308-2309</t>
         </is>
       </c>
       <c r="B165" t="n">
         <v>0</v>
       </c>
       <c r="C165" t="n">
-        <v>10</v>
+        <v>-99999</v>
       </c>
       <c r="D165" t="n">
-        <v>5</v>
+        <v>-99999</v>
       </c>
       <c r="E165" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="F165" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="G165" t="n">
         <v>-99999</v>
@@ -7049,32 +7049,32 @@
         <v>-99999</v>
       </c>
       <c r="K165" t="n">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="L165" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>PP2311-2312</t>
+          <t>PG2309-2308</t>
         </is>
       </c>
       <c r="B166" t="n">
         <v>0</v>
       </c>
       <c r="C166" t="n">
-        <v>10</v>
+        <v>-99999</v>
       </c>
       <c r="D166" t="n">
-        <v>5</v>
+        <v>-99999</v>
       </c>
       <c r="E166" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="F166" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="G166" t="n">
         <v>-99999</v>
@@ -7089,32 +7089,32 @@
         <v>-99999</v>
       </c>
       <c r="K166" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="L166" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>PP2312-2401</t>
+          <t>PP2307-2308</t>
         </is>
       </c>
       <c r="B167" t="n">
         <v>0</v>
       </c>
       <c r="C167" t="n">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="D167" t="n">
+        <v>-9</v>
+      </c>
+      <c r="E167" t="n">
         <v>-10</v>
       </c>
-      <c r="E167" t="n">
-        <v>-15</v>
-      </c>
       <c r="F167" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="G167" t="n">
         <v>-99999</v>
@@ -7129,32 +7129,32 @@
         <v>-99999</v>
       </c>
       <c r="K167" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="L167" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>PP2401-2402</t>
+          <t>PP2308-2309</t>
         </is>
       </c>
       <c r="B168" t="n">
         <v>0</v>
       </c>
       <c r="C168" t="n">
-        <v>-5</v>
+        <v>-30</v>
       </c>
       <c r="D168" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="E168" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="F168" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="G168" t="n">
         <v>-99999</v>
@@ -7169,29 +7169,29 @@
         <v>-99999</v>
       </c>
       <c r="K168" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="L168" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>PP2402-2403</t>
+          <t>PP2309-2310</t>
         </is>
       </c>
       <c r="B169" t="n">
         <v>0</v>
       </c>
       <c r="C169" t="n">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="D169" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="E169" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="F169" t="n">
         <v>-99999</v>
@@ -7212,29 +7212,29 @@
         <v>35</v>
       </c>
       <c r="L169" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>RB2307-2308</t>
+          <t>PP2310-2311</t>
         </is>
       </c>
       <c r="B170" t="n">
         <v>0</v>
       </c>
       <c r="C170" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D170" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="E170" t="n">
         <v>-10</v>
       </c>
       <c r="F170" t="n">
-        <v>-15</v>
+        <v>-20</v>
       </c>
       <c r="G170" t="n">
         <v>-99999</v>
@@ -7249,7 +7249,7 @@
         <v>-99999</v>
       </c>
       <c r="K170" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="L170" t="n">
         <v>3</v>
@@ -7258,24 +7258,24 @@
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>RB2308-2309</t>
+          <t>PP2311-2312</t>
         </is>
       </c>
       <c r="B171" t="n">
         <v>0</v>
       </c>
       <c r="C171" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D171" t="n">
+        <v>5</v>
+      </c>
+      <c r="E171" t="n">
+        <v>-10</v>
+      </c>
+      <c r="F171" t="n">
         <v>-20</v>
       </c>
-      <c r="E171" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="F171" t="n">
-        <v>-99999</v>
-      </c>
       <c r="G171" t="n">
         <v>-99999</v>
       </c>
@@ -7289,7 +7289,7 @@
         <v>-99999</v>
       </c>
       <c r="K171" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="L171" t="n">
         <v>3</v>
@@ -7298,23 +7298,23 @@
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>RB2309-2310</t>
+          <t>PP2312-2401</t>
         </is>
       </c>
       <c r="B172" t="n">
         <v>0</v>
       </c>
       <c r="C172" t="n">
-        <v>-35</v>
+        <v>-5</v>
       </c>
       <c r="D172" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="E172" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="F172" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="G172" t="n">
         <v>-99999</v>
@@ -7329,7 +7329,7 @@
         <v>-99999</v>
       </c>
       <c r="K172" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="L172" t="n">
         <v>3</v>
@@ -7338,23 +7338,23 @@
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>RB2310-2311</t>
+          <t>PP2401-2402</t>
         </is>
       </c>
       <c r="B173" t="n">
         <v>0</v>
       </c>
       <c r="C173" t="n">
-        <v>-99999</v>
+        <v>-5</v>
       </c>
       <c r="D173" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="E173" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="F173" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="G173" t="n">
         <v>-99999</v>
@@ -7369,23 +7369,23 @@
         <v>-99999</v>
       </c>
       <c r="K173" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="L173" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>RB2311-2312</t>
+          <t>PP2402-2403</t>
         </is>
       </c>
       <c r="B174" t="n">
         <v>0</v>
       </c>
       <c r="C174" t="n">
-        <v>-99999</v>
+        <v>-5</v>
       </c>
       <c r="D174" t="n">
         <v>-99999</v>
@@ -7409,32 +7409,32 @@
         <v>-99999</v>
       </c>
       <c r="K174" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="L174" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>RB2312-2401</t>
+          <t>RB2307-2308</t>
         </is>
       </c>
       <c r="B175" t="n">
         <v>0</v>
       </c>
       <c r="C175" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="D175" t="n">
-        <v>-99999</v>
+        <v>-5</v>
       </c>
       <c r="E175" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="F175" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="G175" t="n">
         <v>-99999</v>
@@ -7452,23 +7452,23 @@
         <v>20</v>
       </c>
       <c r="L175" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>RB2401-2402</t>
+          <t>RB2308-2309</t>
         </is>
       </c>
       <c r="B176" t="n">
         <v>0</v>
       </c>
       <c r="C176" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="D176" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="E176" t="n">
         <v>-99999</v>
@@ -7489,23 +7489,23 @@
         <v>-99999</v>
       </c>
       <c r="K176" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L176" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>RB2402-2403</t>
+          <t>RB2309-2310</t>
         </is>
       </c>
       <c r="B177" t="n">
         <v>0</v>
       </c>
       <c r="C177" t="n">
-        <v>-99999</v>
+        <v>-100</v>
       </c>
       <c r="D177" t="n">
         <v>-99999</v>
@@ -7529,16 +7529,16 @@
         <v>-99999</v>
       </c>
       <c r="K177" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="L177" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>RB2403-2404</t>
+          <t>RB2310-2311</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -7572,23 +7572,23 @@
         <v>20</v>
       </c>
       <c r="L178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>RM2307-2308</t>
+          <t>RB2311-2312</t>
         </is>
       </c>
       <c r="B179" t="n">
         <v>0</v>
       </c>
       <c r="C179" t="n">
-        <v>-70</v>
+        <v>-99999</v>
       </c>
       <c r="D179" t="n">
-        <v>-100</v>
+        <v>-99999</v>
       </c>
       <c r="E179" t="n">
         <v>-99999</v>
@@ -7609,35 +7609,35 @@
         <v>-99999</v>
       </c>
       <c r="K179" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L179" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>RM2308-2309</t>
+          <t>RB2312-2401</t>
         </is>
       </c>
       <c r="B180" t="n">
         <v>0</v>
       </c>
       <c r="C180" t="n">
-        <v>10</v>
+        <v>-99999</v>
       </c>
       <c r="D180" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="E180" t="n">
-        <v>-5</v>
+        <v>-99999</v>
       </c>
       <c r="F180" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="G180" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="H180" t="n">
         <v>-99999</v>
@@ -7652,32 +7652,32 @@
         <v>20</v>
       </c>
       <c r="L180" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>RM2309-2311</t>
+          <t>RB2401-2402</t>
         </is>
       </c>
       <c r="B181" t="n">
         <v>0</v>
       </c>
       <c r="C181" t="n">
-        <v>10</v>
+        <v>-99999</v>
       </c>
       <c r="D181" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="E181" t="n">
-        <v>-5</v>
+        <v>-99999</v>
       </c>
       <c r="F181" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="G181" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="H181" t="n">
         <v>-99999</v>
@@ -7692,26 +7692,26 @@
         <v>20</v>
       </c>
       <c r="L181" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>RM2401-2403</t>
+          <t>RB2402-2403</t>
         </is>
       </c>
       <c r="B182" t="n">
         <v>0</v>
       </c>
       <c r="C182" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="D182" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="E182" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="F182" t="n">
         <v>-99999</v>
@@ -7732,23 +7732,23 @@
         <v>20</v>
       </c>
       <c r="L182" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>RR2308-2309</t>
+          <t>RB2403-2404</t>
         </is>
       </c>
       <c r="B183" t="n">
         <v>0</v>
       </c>
       <c r="C183" t="n">
-        <v>-75</v>
+        <v>-99999</v>
       </c>
       <c r="D183" t="n">
-        <v>-80</v>
+        <v>-99999</v>
       </c>
       <c r="E183" t="n">
         <v>-99999</v>
@@ -7769,26 +7769,26 @@
         <v>-99999</v>
       </c>
       <c r="K183" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>RR2309-2310</t>
+          <t>RM2307-2308</t>
         </is>
       </c>
       <c r="B184" t="n">
         <v>0</v>
       </c>
       <c r="C184" t="n">
-        <v>-80</v>
+        <v>-70</v>
       </c>
       <c r="D184" t="n">
-        <v>-99999</v>
+        <v>-100</v>
       </c>
       <c r="E184" t="n">
         <v>-99999</v>
@@ -7809,7 +7809,7 @@
         <v>-99999</v>
       </c>
       <c r="K184" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="L184" t="n">
         <v>3</v>
@@ -7818,26 +7818,26 @@
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>RU2307-2308</t>
+          <t>RM2308-2309</t>
         </is>
       </c>
       <c r="B185" t="n">
         <v>0</v>
       </c>
       <c r="C185" t="n">
-        <v>-100</v>
+        <v>10</v>
       </c>
       <c r="D185" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E185" t="n">
-        <v>-99999</v>
+        <v>-5</v>
       </c>
       <c r="F185" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="G185" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="H185" t="n">
         <v>-99999</v>
@@ -7849,35 +7849,35 @@
         <v>-99999</v>
       </c>
       <c r="K185" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="L185" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>RU2308-2309</t>
+          <t>RM2309-2311</t>
         </is>
       </c>
       <c r="B186" t="n">
         <v>0</v>
       </c>
       <c r="C186" t="n">
-        <v>-75</v>
+        <v>10</v>
       </c>
       <c r="D186" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="E186" t="n">
-        <v>-99999</v>
+        <v>-5</v>
       </c>
       <c r="F186" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="G186" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="H186" t="n">
         <v>-99999</v>
@@ -7889,29 +7889,29 @@
         <v>-99999</v>
       </c>
       <c r="K186" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L186" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>RU2309-2310</t>
+          <t>RM2401-2403</t>
         </is>
       </c>
       <c r="B187" t="n">
         <v>0</v>
       </c>
       <c r="C187" t="n">
-        <v>-60</v>
+        <v>0</v>
       </c>
       <c r="D187" t="n">
-        <v>-110</v>
+        <v>-10</v>
       </c>
       <c r="E187" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="F187" t="n">
         <v>-99999</v>
@@ -7929,29 +7929,29 @@
         <v>-99999</v>
       </c>
       <c r="K187" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L187" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>RU2310-2311</t>
+          <t>RR2308-2309</t>
         </is>
       </c>
       <c r="B188" t="n">
         <v>0</v>
       </c>
       <c r="C188" t="n">
-        <v>0</v>
+        <v>-75</v>
       </c>
       <c r="D188" t="n">
-        <v>-70</v>
+        <v>-80</v>
       </c>
       <c r="E188" t="n">
-        <v>-80</v>
+        <v>-99999</v>
       </c>
       <c r="F188" t="n">
         <v>-99999</v>
@@ -7969,23 +7969,23 @@
         <v>-99999</v>
       </c>
       <c r="K188" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="L188" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>RU2311-2401</t>
+          <t>RR2309-2310</t>
         </is>
       </c>
       <c r="B189" t="n">
         <v>0</v>
       </c>
       <c r="C189" t="n">
-        <v>-1800</v>
+        <v>-72</v>
       </c>
       <c r="D189" t="n">
         <v>-99999</v>
@@ -8009,16 +8009,16 @@
         <v>-99999</v>
       </c>
       <c r="K189" t="n">
-        <v>200</v>
+        <v>22</v>
       </c>
       <c r="L189" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>RU2401-2403</t>
+          <t>RU2307-2308</t>
         </is>
       </c>
       <c r="B190" t="n">
@@ -8028,7 +8028,7 @@
         <v>-100</v>
       </c>
       <c r="D190" t="n">
-        <v>-120</v>
+        <v>-100</v>
       </c>
       <c r="E190" t="n">
         <v>-99999</v>
@@ -8049,7 +8049,7 @@
         <v>-99999</v>
       </c>
       <c r="K190" t="n">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="L190" t="n">
         <v>1</v>
@@ -8058,20 +8058,20 @@
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>RU2403-2404</t>
+          <t>RU2308-2309</t>
         </is>
       </c>
       <c r="B191" t="n">
         <v>0</v>
       </c>
       <c r="C191" t="n">
-        <v>-60</v>
+        <v>-75</v>
       </c>
       <c r="D191" t="n">
-        <v>-70</v>
+        <v>-99999</v>
       </c>
       <c r="E191" t="n">
-        <v>-80</v>
+        <v>-99999</v>
       </c>
       <c r="F191" t="n">
         <v>-99999</v>
@@ -8089,7 +8089,7 @@
         <v>-99999</v>
       </c>
       <c r="K191" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L191" t="n">
         <v>1</v>
@@ -8098,17 +8098,17 @@
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>SA2308-2309</t>
+          <t>RU2309-2310</t>
         </is>
       </c>
       <c r="B192" t="n">
         <v>0</v>
       </c>
       <c r="C192" t="n">
-        <v>0</v>
+        <v>-60</v>
       </c>
       <c r="D192" t="n">
-        <v>-99999</v>
+        <v>-110</v>
       </c>
       <c r="E192" t="n">
         <v>-99999</v>
@@ -8129,7 +8129,7 @@
         <v>-99999</v>
       </c>
       <c r="K192" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="L192" t="n">
         <v>1</v>
@@ -8138,7 +8138,7 @@
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>SA2310-2311</t>
+          <t>RU2310-2311</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -8148,10 +8148,10 @@
         <v>0</v>
       </c>
       <c r="D193" t="n">
-        <v>-99999</v>
+        <v>-70</v>
       </c>
       <c r="E193" t="n">
-        <v>-99999</v>
+        <v>-80</v>
       </c>
       <c r="F193" t="n">
         <v>-99999</v>
@@ -8169,7 +8169,7 @@
         <v>-99999</v>
       </c>
       <c r="K193" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="L193" t="n">
         <v>1</v>
@@ -8178,17 +8178,17 @@
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>SA2311-2312</t>
+          <t>RU2311-2401</t>
         </is>
       </c>
       <c r="B194" t="n">
         <v>0</v>
       </c>
       <c r="C194" t="n">
-        <v>0</v>
+        <v>-1800</v>
       </c>
       <c r="D194" t="n">
-        <v>-3</v>
+        <v>-99999</v>
       </c>
       <c r="E194" t="n">
         <v>-99999</v>
@@ -8209,26 +8209,26 @@
         <v>-99999</v>
       </c>
       <c r="K194" t="n">
-        <v>16</v>
+        <v>200</v>
       </c>
       <c r="L194" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>SA2312-2401</t>
+          <t>RU2401-2403</t>
         </is>
       </c>
       <c r="B195" t="n">
         <v>0</v>
       </c>
       <c r="C195" t="n">
-        <v>22</v>
+        <v>-100</v>
       </c>
       <c r="D195" t="n">
-        <v>-99999</v>
+        <v>-120</v>
       </c>
       <c r="E195" t="n">
         <v>-99999</v>
@@ -8249,29 +8249,29 @@
         <v>-99999</v>
       </c>
       <c r="K195" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="L195" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>SA2401-2402</t>
+          <t>RU2403-2404</t>
         </is>
       </c>
       <c r="B196" t="n">
         <v>0</v>
       </c>
       <c r="C196" t="n">
-        <v>-25</v>
+        <v>-60</v>
       </c>
       <c r="D196" t="n">
-        <v>-30</v>
+        <v>-70</v>
       </c>
       <c r="E196" t="n">
-        <v>-35</v>
+        <v>-80</v>
       </c>
       <c r="F196" t="n">
         <v>-99999</v>
@@ -8289,29 +8289,29 @@
         <v>-99999</v>
       </c>
       <c r="K196" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L196" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>SA2402-2403</t>
+          <t>SA2308-2309</t>
         </is>
       </c>
       <c r="B197" t="n">
         <v>0</v>
       </c>
       <c r="C197" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D197" t="n">
-        <v>18</v>
+        <v>-99999</v>
       </c>
       <c r="E197" t="n">
-        <v>4</v>
+        <v>-99999</v>
       </c>
       <c r="F197" t="n">
         <v>-99999</v>
@@ -8329,32 +8329,32 @@
         <v>-99999</v>
       </c>
       <c r="K197" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="L197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>SA2403-2404</t>
+          <t>SA2310-2311</t>
         </is>
       </c>
       <c r="B198" t="n">
         <v>0</v>
       </c>
       <c r="C198" t="n">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="D198" t="n">
-        <v>-17</v>
+        <v>-99999</v>
       </c>
       <c r="E198" t="n">
-        <v>-35</v>
+        <v>-99999</v>
       </c>
       <c r="F198" t="n">
-        <v>-40</v>
+        <v>-99999</v>
       </c>
       <c r="G198" t="n">
         <v>-99999</v>
@@ -8369,32 +8369,32 @@
         <v>-99999</v>
       </c>
       <c r="K198" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>SC2307-2308</t>
+          <t>SA2311-2312</t>
         </is>
       </c>
       <c r="B199" t="n">
         <v>0</v>
       </c>
       <c r="C199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D199" t="n">
-        <v>-3.5</v>
+        <v>-3</v>
       </c>
       <c r="E199" t="n">
-        <v>-3.5</v>
+        <v>-99999</v>
       </c>
       <c r="F199" t="n">
-        <v>-3.5</v>
+        <v>-99999</v>
       </c>
       <c r="G199" t="n">
         <v>-99999</v>
@@ -8409,23 +8409,23 @@
         <v>-99999</v>
       </c>
       <c r="K199" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="L199" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>SC2308-2309</t>
+          <t>SA2312-2401</t>
         </is>
       </c>
       <c r="B200" t="n">
         <v>0</v>
       </c>
       <c r="C200" t="n">
-        <v>-99999</v>
+        <v>22</v>
       </c>
       <c r="D200" t="n">
         <v>-99999</v>
@@ -8449,29 +8449,29 @@
         <v>-99999</v>
       </c>
       <c r="K200" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="L200" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>SC2309-2308</t>
+          <t>SA2401-2402</t>
         </is>
       </c>
       <c r="B201" t="n">
         <v>0</v>
       </c>
       <c r="C201" t="n">
-        <v>-99999</v>
+        <v>-25</v>
       </c>
       <c r="D201" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="E201" t="n">
-        <v>-99999</v>
+        <v>-35</v>
       </c>
       <c r="F201" t="n">
         <v>-99999</v>
@@ -8489,32 +8489,32 @@
         <v>-99999</v>
       </c>
       <c r="K201" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L201" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>SC2309-2310</t>
+          <t>SA2402-2403</t>
         </is>
       </c>
       <c r="B202" t="n">
         <v>0</v>
       </c>
       <c r="C202" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D202" t="n">
-        <v>-0.5</v>
+        <v>18</v>
       </c>
       <c r="E202" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="F202" t="n">
-        <v>-1.5</v>
+        <v>-99999</v>
       </c>
       <c r="G202" t="n">
         <v>-99999</v>
@@ -8529,26 +8529,26 @@
         <v>-99999</v>
       </c>
       <c r="K202" t="n">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="L202" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>SC2310-2309</t>
+          <t>SA2403-2404</t>
         </is>
       </c>
       <c r="B203" t="n">
         <v>0</v>
       </c>
       <c r="C203" t="n">
-        <v>-99999</v>
+        <v>-35</v>
       </c>
       <c r="D203" t="n">
-        <v>-99999</v>
+        <v>-40</v>
       </c>
       <c r="E203" t="n">
         <v>-99999</v>
@@ -8569,32 +8569,32 @@
         <v>-99999</v>
       </c>
       <c r="K203" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L203" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>SC2310-2311</t>
+          <t>SC2307-2308</t>
         </is>
       </c>
       <c r="B204" t="n">
         <v>0</v>
       </c>
       <c r="C204" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D204" t="n">
-        <v>-99999</v>
+        <v>-3.5</v>
       </c>
       <c r="E204" t="n">
-        <v>-99999</v>
+        <v>-3.5</v>
       </c>
       <c r="F204" t="n">
-        <v>-99999</v>
+        <v>-3.5</v>
       </c>
       <c r="G204" t="n">
         <v>-99999</v>
@@ -8609,7 +8609,7 @@
         <v>-99999</v>
       </c>
       <c r="K204" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="L204" t="n">
         <v>1</v>
@@ -8618,14 +8618,14 @@
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>SC2311-2312</t>
+          <t>SC2308-2309</t>
         </is>
       </c>
       <c r="B205" t="n">
         <v>0</v>
       </c>
       <c r="C205" t="n">
-        <v>-2</v>
+        <v>-99999</v>
       </c>
       <c r="D205" t="n">
         <v>-99999</v>
@@ -8649,7 +8649,7 @@
         <v>-99999</v>
       </c>
       <c r="K205" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L205" t="n">
         <v>1</v>
@@ -8658,17 +8658,17 @@
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>SN2308-2309</t>
+          <t>SC2309-2308</t>
         </is>
       </c>
       <c r="B206" t="n">
         <v>0</v>
       </c>
       <c r="C206" t="n">
-        <v>-320</v>
+        <v>-99999</v>
       </c>
       <c r="D206" t="n">
-        <v>-320</v>
+        <v>-99999</v>
       </c>
       <c r="E206" t="n">
         <v>-99999</v>
@@ -8689,7 +8689,7 @@
         <v>-99999</v>
       </c>
       <c r="K206" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="L206" t="n">
         <v>1</v>
@@ -8698,23 +8698,23 @@
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>SP2307-2308</t>
+          <t>SC2309-2310</t>
         </is>
       </c>
       <c r="B207" t="n">
         <v>0</v>
       </c>
       <c r="C207" t="n">
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="D207" t="n">
-        <v>-40</v>
+        <v>-0.5</v>
       </c>
       <c r="E207" t="n">
-        <v>-99999</v>
+        <v>-1</v>
       </c>
       <c r="F207" t="n">
-        <v>-99999</v>
+        <v>-1.5</v>
       </c>
       <c r="G207" t="n">
         <v>-99999</v>
@@ -8729,16 +8729,16 @@
         <v>-99999</v>
       </c>
       <c r="K207" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L207" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>SP2308-2309</t>
+          <t>SC2310-2309</t>
         </is>
       </c>
       <c r="B208" t="n">
@@ -8769,35 +8769,35 @@
         <v>-99999</v>
       </c>
       <c r="K208" t="n">
+        <v>19</v>
+      </c>
+      <c r="L208" t="n">
         <v>1</v>
-      </c>
-      <c r="L208" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>SP2309-2310</t>
+          <t>SC2310-2311</t>
         </is>
       </c>
       <c r="B209" t="n">
         <v>0</v>
       </c>
       <c r="C209" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D209" t="n">
-        <v>-12</v>
+        <v>-99999</v>
       </c>
       <c r="E209" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="F209" t="n">
-        <v>-26</v>
+        <v>-99999</v>
       </c>
       <c r="G209" t="n">
-        <v>-34</v>
+        <v>-99999</v>
       </c>
       <c r="H209" t="n">
         <v>-99999</v>
@@ -8809,35 +8809,35 @@
         <v>-99999</v>
       </c>
       <c r="K209" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="L209" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>SP2310-2311</t>
+          <t>SC2311-2312</t>
         </is>
       </c>
       <c r="B210" t="n">
         <v>0</v>
       </c>
       <c r="C210" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D210" t="n">
-        <v>-2</v>
+        <v>-99999</v>
       </c>
       <c r="E210" t="n">
-        <v>-8</v>
+        <v>-99999</v>
       </c>
       <c r="F210" t="n">
-        <v>-26</v>
+        <v>-99999</v>
       </c>
       <c r="G210" t="n">
-        <v>-34</v>
+        <v>-99999</v>
       </c>
       <c r="H210" t="n">
         <v>-99999</v>
@@ -8849,35 +8849,35 @@
         <v>-99999</v>
       </c>
       <c r="K210" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="L210" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>SP2311-2312</t>
+          <t>SN2308-2309</t>
         </is>
       </c>
       <c r="B211" t="n">
         <v>0</v>
       </c>
       <c r="C211" t="n">
-        <v>0</v>
+        <v>-320</v>
       </c>
       <c r="D211" t="n">
-        <v>-2</v>
+        <v>-320</v>
       </c>
       <c r="E211" t="n">
-        <v>-8</v>
+        <v>-99999</v>
       </c>
       <c r="F211" t="n">
-        <v>-26</v>
+        <v>-99999</v>
       </c>
       <c r="G211" t="n">
-        <v>-34</v>
+        <v>-99999</v>
       </c>
       <c r="H211" t="n">
         <v>-99999</v>
@@ -8889,32 +8889,32 @@
         <v>-99999</v>
       </c>
       <c r="K211" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="L211" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>SP2312-2401</t>
+          <t>SP2307-2308</t>
         </is>
       </c>
       <c r="B212" t="n">
         <v>0</v>
       </c>
       <c r="C212" t="n">
-        <v>-126</v>
+        <v>-40</v>
       </c>
       <c r="D212" t="n">
-        <v>-140</v>
+        <v>-40</v>
       </c>
       <c r="E212" t="n">
-        <v>-165</v>
+        <v>-99999</v>
       </c>
       <c r="F212" t="n">
-        <v>-175</v>
+        <v>-99999</v>
       </c>
       <c r="G212" t="n">
         <v>-99999</v>
@@ -8929,35 +8929,35 @@
         <v>-99999</v>
       </c>
       <c r="K212" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L212" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>SP2401-2402</t>
+          <t>SP2309-2310</t>
         </is>
       </c>
       <c r="B213" t="n">
         <v>0</v>
       </c>
       <c r="C213" t="n">
-        <v>-8</v>
+        <v>40</v>
       </c>
       <c r="D213" t="n">
-        <v>-12</v>
+        <v>40</v>
       </c>
       <c r="E213" t="n">
-        <v>-16</v>
+        <v>-22</v>
       </c>
       <c r="F213" t="n">
-        <v>-20</v>
+        <v>-26</v>
       </c>
       <c r="G213" t="n">
-        <v>-24</v>
+        <v>-99999</v>
       </c>
       <c r="H213" t="n">
         <v>-99999</v>
@@ -8969,7 +8969,7 @@
         <v>-99999</v>
       </c>
       <c r="K213" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L213" t="n">
         <v>3</v>
@@ -8978,23 +8978,23 @@
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>SP2402-2403</t>
+          <t>SP2310-2311</t>
         </is>
       </c>
       <c r="B214" t="n">
         <v>0</v>
       </c>
       <c r="C214" t="n">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="D214" t="n">
-        <v>-25</v>
+        <v>-2</v>
       </c>
       <c r="E214" t="n">
-        <v>-99999</v>
+        <v>-8</v>
       </c>
       <c r="F214" t="n">
-        <v>-99999</v>
+        <v>-26</v>
       </c>
       <c r="G214" t="n">
         <v>-99999</v>
@@ -9018,23 +9018,23 @@
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>SP2403-2404</t>
+          <t>SP2311-2312</t>
         </is>
       </c>
       <c r="B215" t="n">
         <v>0</v>
       </c>
       <c r="C215" t="n">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="D215" t="n">
-        <v>-25</v>
+        <v>-2</v>
       </c>
       <c r="E215" t="n">
-        <v>-99999</v>
+        <v>-8</v>
       </c>
       <c r="F215" t="n">
-        <v>-99999</v>
+        <v>-26</v>
       </c>
       <c r="G215" t="n">
         <v>-99999</v>
@@ -9058,23 +9058,23 @@
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>SP2404-2405</t>
+          <t>SP2312-2401</t>
         </is>
       </c>
       <c r="B216" t="n">
         <v>0</v>
       </c>
       <c r="C216" t="n">
-        <v>-15</v>
+        <v>-126</v>
       </c>
       <c r="D216" t="n">
-        <v>-25</v>
+        <v>-140</v>
       </c>
       <c r="E216" t="n">
-        <v>-99999</v>
+        <v>-165</v>
       </c>
       <c r="F216" t="n">
-        <v>-99999</v>
+        <v>-175</v>
       </c>
       <c r="G216" t="n">
         <v>-99999</v>
@@ -9089,23 +9089,23 @@
         <v>-99999</v>
       </c>
       <c r="K216" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L216" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>TA2307-2308</t>
+          <t>SP2401-2402</t>
         </is>
       </c>
       <c r="B217" t="n">
         <v>0</v>
       </c>
       <c r="C217" t="n">
-        <v>-99999</v>
+        <v>-24</v>
       </c>
       <c r="D217" t="n">
         <v>-99999</v>
@@ -9129,7 +9129,7 @@
         <v>-99999</v>
       </c>
       <c r="K217" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L217" t="n">
         <v>3</v>
@@ -9138,17 +9138,17 @@
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>TA2307-2309</t>
+          <t>SP2402-2403</t>
         </is>
       </c>
       <c r="B218" t="n">
         <v>0</v>
       </c>
       <c r="C218" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="D218" t="n">
-        <v>-99999</v>
+        <v>-32</v>
       </c>
       <c r="E218" t="n">
         <v>-99999</v>
@@ -9169,7 +9169,7 @@
         <v>-99999</v>
       </c>
       <c r="K218" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L218" t="n">
         <v>3</v>
@@ -9178,17 +9178,17 @@
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>TA2308-2309</t>
+          <t>SP2403-2404</t>
         </is>
       </c>
       <c r="B219" t="n">
         <v>0</v>
       </c>
       <c r="C219" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="D219" t="n">
-        <v>-99999</v>
+        <v>-32</v>
       </c>
       <c r="E219" t="n">
         <v>-99999</v>
@@ -9209,7 +9209,7 @@
         <v>-99999</v>
       </c>
       <c r="K219" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L219" t="n">
         <v>3</v>
@@ -9218,17 +9218,17 @@
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>TA2309-2310</t>
+          <t>SP2404-2405</t>
         </is>
       </c>
       <c r="B220" t="n">
         <v>0</v>
       </c>
       <c r="C220" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="D220" t="n">
-        <v>-99999</v>
+        <v>-32</v>
       </c>
       <c r="E220" t="n">
         <v>-99999</v>
@@ -9249,7 +9249,7 @@
         <v>-99999</v>
       </c>
       <c r="K220" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L220" t="n">
         <v>3</v>
@@ -9258,17 +9258,17 @@
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>TA2310-2311</t>
+          <t>SP2405-2406</t>
         </is>
       </c>
       <c r="B221" t="n">
         <v>0</v>
       </c>
       <c r="C221" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="D221" t="n">
-        <v>-99999</v>
+        <v>-32</v>
       </c>
       <c r="E221" t="n">
         <v>-99999</v>
@@ -9289,7 +9289,7 @@
         <v>-99999</v>
       </c>
       <c r="K221" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L221" t="n">
         <v>3</v>
@@ -9298,7 +9298,7 @@
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>TA2311-2312</t>
+          <t>TA2307-2308</t>
         </is>
       </c>
       <c r="B222" t="n">
@@ -9338,17 +9338,17 @@
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>TA2312-2401</t>
+          <t>TA2307-2309</t>
         </is>
       </c>
       <c r="B223" t="n">
         <v>0</v>
       </c>
       <c r="C223" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="D223" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="E223" t="n">
         <v>-99999</v>
@@ -9369,7 +9369,7 @@
         <v>-99999</v>
       </c>
       <c r="K223" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="L223" t="n">
         <v>3</v>
@@ -9378,17 +9378,17 @@
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>TA2401-2402</t>
+          <t>TA2308-2309</t>
         </is>
       </c>
       <c r="B224" t="n">
         <v>0</v>
       </c>
       <c r="C224" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="D224" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="E224" t="n">
         <v>-99999</v>
@@ -9409,7 +9409,7 @@
         <v>-99999</v>
       </c>
       <c r="K224" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="L224" t="n">
         <v>3</v>
@@ -9418,17 +9418,17 @@
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>TA2402-2403</t>
+          <t>TA2309-2310</t>
         </is>
       </c>
       <c r="B225" t="n">
         <v>0</v>
       </c>
       <c r="C225" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="D225" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="E225" t="n">
         <v>-99999</v>
@@ -9449,7 +9449,7 @@
         <v>-99999</v>
       </c>
       <c r="K225" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="L225" t="n">
         <v>3</v>
@@ -9458,17 +9458,17 @@
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>TA2403-2404</t>
+          <t>TA2310-2311</t>
         </is>
       </c>
       <c r="B226" t="n">
         <v>0</v>
       </c>
       <c r="C226" t="n">
-        <v>-28</v>
+        <v>-99999</v>
       </c>
       <c r="D226" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="E226" t="n">
         <v>-99999</v>
@@ -9489,7 +9489,7 @@
         <v>-99999</v>
       </c>
       <c r="K226" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="L226" t="n">
         <v>3</v>
@@ -9498,17 +9498,17 @@
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>UR2310-2311</t>
+          <t>TA2311-2312</t>
         </is>
       </c>
       <c r="B227" t="n">
         <v>0</v>
       </c>
       <c r="C227" t="n">
-        <v>-35</v>
+        <v>-99999</v>
       </c>
       <c r="D227" t="n">
-        <v>-45</v>
+        <v>-99999</v>
       </c>
       <c r="E227" t="n">
         <v>-99999</v>
@@ -9529,7 +9529,7 @@
         <v>-99999</v>
       </c>
       <c r="K227" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="L227" t="n">
         <v>3</v>
@@ -9538,17 +9538,17 @@
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>UR2311-2312</t>
+          <t>TA2312-2401</t>
         </is>
       </c>
       <c r="B228" t="n">
         <v>0</v>
       </c>
       <c r="C228" t="n">
-        <v>5</v>
+        <v>-20</v>
       </c>
       <c r="D228" t="n">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="E228" t="n">
         <v>-99999</v>
@@ -9569,7 +9569,7 @@
         <v>-99999</v>
       </c>
       <c r="K228" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L228" t="n">
         <v>3</v>
@@ -9578,17 +9578,17 @@
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>UR2312-2401</t>
+          <t>TA2401-2402</t>
         </is>
       </c>
       <c r="B229" t="n">
         <v>0</v>
       </c>
       <c r="C229" t="n">
-        <v>5</v>
+        <v>-15</v>
       </c>
       <c r="D229" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="E229" t="n">
         <v>-99999</v>
@@ -9609,7 +9609,7 @@
         <v>-99999</v>
       </c>
       <c r="K229" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L229" t="n">
         <v>3</v>
@@ -9618,14 +9618,14 @@
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>UR2401-2402</t>
+          <t>TA2402-2403</t>
         </is>
       </c>
       <c r="B230" t="n">
         <v>0</v>
       </c>
       <c r="C230" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="D230" t="n">
         <v>-99999</v>
@@ -9649,7 +9649,7 @@
         <v>-99999</v>
       </c>
       <c r="K230" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L230" t="n">
         <v>3</v>
@@ -9658,17 +9658,17 @@
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>UR2402-2403</t>
+          <t>TA2403-2404</t>
         </is>
       </c>
       <c r="B231" t="n">
         <v>0</v>
       </c>
       <c r="C231" t="n">
-        <v>-50</v>
+        <v>-28</v>
       </c>
       <c r="D231" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="E231" t="n">
         <v>-99999</v>
@@ -9689,7 +9689,7 @@
         <v>-99999</v>
       </c>
       <c r="K231" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L231" t="n">
         <v>3</v>
@@ -9698,17 +9698,17 @@
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>UR2403-2404</t>
+          <t>UR2310-2311</t>
         </is>
       </c>
       <c r="B232" t="n">
         <v>0</v>
       </c>
       <c r="C232" t="n">
-        <v>5</v>
+        <v>-35</v>
       </c>
       <c r="D232" t="n">
-        <v>0</v>
+        <v>-45</v>
       </c>
       <c r="E232" t="n">
         <v>-99999</v>
@@ -9729,7 +9729,7 @@
         <v>-99999</v>
       </c>
       <c r="K232" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L232" t="n">
         <v>3</v>
@@ -9738,7 +9738,7 @@
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>UR2404-2405</t>
+          <t>UR2311-2312</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -9751,7 +9751,7 @@
         <v>0</v>
       </c>
       <c r="E233" t="n">
-        <v>-5</v>
+        <v>-99999</v>
       </c>
       <c r="F233" t="n">
         <v>-99999</v>
@@ -9769,7 +9769,7 @@
         <v>-99999</v>
       </c>
       <c r="K233" t="n">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="L233" t="n">
         <v>3</v>
@@ -9778,17 +9778,17 @@
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>V2308-2309</t>
+          <t>UR2312-2401</t>
         </is>
       </c>
       <c r="B234" t="n">
         <v>0</v>
       </c>
       <c r="C234" t="n">
-        <v>-99999</v>
+        <v>5</v>
       </c>
       <c r="D234" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="E234" t="n">
         <v>-99999</v>
@@ -9809,7 +9809,7 @@
         <v>-99999</v>
       </c>
       <c r="K234" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L234" t="n">
         <v>3</v>
@@ -9818,26 +9818,26 @@
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
         <is>
-          <t>V2309-2310</t>
+          <t>UR2401-2402</t>
         </is>
       </c>
       <c r="B235" t="n">
         <v>0</v>
       </c>
       <c r="C235" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D235" t="n">
-        <v>5</v>
+        <v>-99999</v>
       </c>
       <c r="E235" t="n">
-        <v>-2</v>
+        <v>-99999</v>
       </c>
       <c r="F235" t="n">
-        <v>-3</v>
+        <v>-99999</v>
       </c>
       <c r="G235" t="n">
-        <v>-28</v>
+        <v>-99999</v>
       </c>
       <c r="H235" t="n">
         <v>-99999</v>
@@ -9849,38 +9849,38 @@
         <v>-99999</v>
       </c>
       <c r="K235" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="L235" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
         <is>
-          <t>V2310-2311</t>
+          <t>UR2402-2403</t>
         </is>
       </c>
       <c r="B236" t="n">
         <v>0</v>
       </c>
       <c r="C236" t="n">
-        <v>5</v>
+        <v>-50</v>
       </c>
       <c r="D236" t="n">
-        <v>5</v>
+        <v>-99999</v>
       </c>
       <c r="E236" t="n">
-        <v>-2</v>
+        <v>-99999</v>
       </c>
       <c r="F236" t="n">
-        <v>-2</v>
+        <v>-99999</v>
       </c>
       <c r="G236" t="n">
-        <v>-28</v>
+        <v>-99999</v>
       </c>
       <c r="H236" t="n">
-        <v>-38</v>
+        <v>-99999</v>
       </c>
       <c r="I236" t="n">
         <v>-99999</v>
@@ -9889,16 +9889,16 @@
         <v>-99999</v>
       </c>
       <c r="K236" t="n">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="L236" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
         <is>
-          <t>V2311-2312</t>
+          <t>UR2403-2404</t>
         </is>
       </c>
       <c r="B237" t="n">
@@ -9908,16 +9908,16 @@
         <v>5</v>
       </c>
       <c r="D237" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E237" t="n">
-        <v>2</v>
+        <v>-99999</v>
       </c>
       <c r="F237" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="G237" t="n">
-        <v>-13</v>
+        <v>-99999</v>
       </c>
       <c r="H237" t="n">
         <v>-99999</v>
@@ -9929,35 +9929,35 @@
         <v>-99999</v>
       </c>
       <c r="K237" t="n">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="L237" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
         <is>
-          <t>V2312-2401</t>
+          <t>UR2404-2405</t>
         </is>
       </c>
       <c r="B238" t="n">
         <v>0</v>
       </c>
       <c r="C238" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D238" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E238" t="n">
-        <v>3</v>
+        <v>-5</v>
       </c>
       <c r="F238" t="n">
-        <v>3</v>
+        <v>-99999</v>
       </c>
       <c r="G238" t="n">
-        <v>-8</v>
+        <v>-99999</v>
       </c>
       <c r="H238" t="n">
         <v>-99999</v>
@@ -9969,29 +9969,29 @@
         <v>-99999</v>
       </c>
       <c r="K238" t="n">
-        <v>9</v>
+        <v>200</v>
       </c>
       <c r="L238" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
         <is>
-          <t>V2401-2402</t>
+          <t>V2308-2309</t>
         </is>
       </c>
       <c r="B239" t="n">
         <v>0</v>
       </c>
       <c r="C239" t="n">
-        <v>-3</v>
+        <v>-99999</v>
       </c>
       <c r="D239" t="n">
-        <v>-18</v>
+        <v>-99999</v>
       </c>
       <c r="E239" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="F239" t="n">
         <v>-99999</v>
@@ -10009,7 +10009,7 @@
         <v>-99999</v>
       </c>
       <c r="K239" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L239" t="n">
         <v>3</v>
@@ -10018,106 +10018,106 @@
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
         <is>
-          <t>V2402-2403</t>
+          <t>V2309-2310</t>
         </is>
       </c>
       <c r="B240" t="n">
         <v>0</v>
       </c>
       <c r="C240" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="D240" t="n">
+        <v>5</v>
+      </c>
+      <c r="E240" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F240" t="n">
         <v>-15</v>
       </c>
-      <c r="E240" t="n">
-        <v>-30</v>
-      </c>
-      <c r="F240" t="n">
-        <v>-99999</v>
-      </c>
       <c r="G240" t="n">
-        <v>-99999</v>
+        <v>-28</v>
       </c>
       <c r="H240" t="n">
         <v>-99999</v>
       </c>
       <c r="I240" t="n">
-        <v>-35</v>
+        <v>-99999</v>
       </c>
       <c r="J240" t="n">
         <v>-99999</v>
       </c>
       <c r="K240" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="L240" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
         <is>
-          <t>V2403-2404</t>
+          <t>V2310-2311</t>
         </is>
       </c>
       <c r="B241" t="n">
         <v>0</v>
       </c>
       <c r="C241" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D241" t="n">
-        <v>-36</v>
+        <v>5</v>
       </c>
       <c r="E241" t="n">
-        <v>-40</v>
+        <v>-2</v>
       </c>
       <c r="F241" t="n">
-        <v>-44</v>
+        <v>-15</v>
       </c>
       <c r="G241" t="n">
-        <v>-48</v>
+        <v>-28</v>
       </c>
       <c r="H241" t="n">
-        <v>-52</v>
+        <v>-38</v>
       </c>
       <c r="I241" t="n">
-        <v>-52</v>
+        <v>-99999</v>
       </c>
       <c r="J241" t="n">
         <v>-99999</v>
       </c>
       <c r="K241" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L241" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
         <is>
-          <t>V2404-2405</t>
+          <t>V2311-2312</t>
         </is>
       </c>
       <c r="B242" t="n">
         <v>0</v>
       </c>
       <c r="C242" t="n">
-        <v>-20</v>
+        <v>5</v>
       </c>
       <c r="D242" t="n">
-        <v>-25</v>
+        <v>5</v>
       </c>
       <c r="E242" t="n">
-        <v>-30</v>
+        <v>2</v>
       </c>
       <c r="F242" t="n">
-        <v>-35</v>
+        <v>0</v>
       </c>
       <c r="G242" t="n">
-        <v>-40</v>
+        <v>-13</v>
       </c>
       <c r="H242" t="n">
         <v>-99999</v>
@@ -10129,35 +10129,35 @@
         <v>-99999</v>
       </c>
       <c r="K242" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L242" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
         <is>
-          <t>V2405-2406</t>
+          <t>V2312-2401</t>
         </is>
       </c>
       <c r="B243" t="n">
         <v>0</v>
       </c>
       <c r="C243" t="n">
-        <v>-10</v>
+        <v>20</v>
       </c>
       <c r="D243" t="n">
-        <v>-15</v>
+        <v>4</v>
       </c>
       <c r="E243" t="n">
-        <v>-20</v>
+        <v>3</v>
       </c>
       <c r="F243" t="n">
-        <v>-99999</v>
+        <v>3</v>
       </c>
       <c r="G243" t="n">
-        <v>-99999</v>
+        <v>-8</v>
       </c>
       <c r="H243" t="n">
         <v>-99999</v>
@@ -10169,29 +10169,29 @@
         <v>-99999</v>
       </c>
       <c r="K243" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L243" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
         <is>
-          <t>Y2307-2308</t>
+          <t>V2401-2402</t>
         </is>
       </c>
       <c r="B244" t="n">
         <v>0</v>
       </c>
       <c r="C244" t="n">
-        <v>-99999</v>
+        <v>-3</v>
       </c>
       <c r="D244" t="n">
-        <v>-99999</v>
+        <v>-18</v>
       </c>
       <c r="E244" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="F244" t="n">
         <v>-99999</v>
@@ -10209,29 +10209,29 @@
         <v>-99999</v>
       </c>
       <c r="K244" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L244" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
         <is>
-          <t>Y2308-2309</t>
+          <t>V2402-2403</t>
         </is>
       </c>
       <c r="B245" t="n">
         <v>0</v>
       </c>
       <c r="C245" t="n">
-        <v>-99999</v>
+        <v>-5</v>
       </c>
       <c r="D245" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="E245" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="F245" t="n">
         <v>-99999</v>
@@ -10243,53 +10243,53 @@
         <v>-99999</v>
       </c>
       <c r="I245" t="n">
-        <v>-99999</v>
+        <v>-35</v>
       </c>
       <c r="J245" t="n">
         <v>-99999</v>
       </c>
       <c r="K245" t="n">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="L245" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
         <is>
-          <t>Y2309-2311</t>
+          <t>V2403-2404</t>
         </is>
       </c>
       <c r="B246" t="n">
         <v>0</v>
       </c>
       <c r="C246" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="D246" t="n">
-        <v>-20</v>
+        <v>-36</v>
       </c>
       <c r="E246" t="n">
-        <v>-30</v>
+        <v>-40</v>
       </c>
       <c r="F246" t="n">
-        <v>-35</v>
+        <v>-44</v>
       </c>
       <c r="G246" t="n">
-        <v>-99999</v>
+        <v>-48</v>
       </c>
       <c r="H246" t="n">
-        <v>-99999</v>
+        <v>-52</v>
       </c>
       <c r="I246" t="n">
-        <v>-99999</v>
+        <v>-52</v>
       </c>
       <c r="J246" t="n">
         <v>-99999</v>
       </c>
       <c r="K246" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L246" t="n">
         <v>2</v>
@@ -10298,27 +10298,27 @@
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
         <is>
-          <t>Y2311-2312</t>
+          <t>V2404-2405</t>
         </is>
       </c>
       <c r="B247" t="n">
         <v>0</v>
       </c>
       <c r="C247" t="n">
-        <v>10</v>
+        <v>-20</v>
       </c>
       <c r="D247" t="n">
+        <v>-25</v>
+      </c>
+      <c r="E247" t="n">
         <v>-30</v>
       </c>
-      <c r="E247" t="n">
+      <c r="F247" t="n">
+        <v>-35</v>
+      </c>
+      <c r="G247" t="n">
         <v>-40</v>
       </c>
-      <c r="F247" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="G247" t="n">
-        <v>-99999</v>
-      </c>
       <c r="H247" t="n">
         <v>-99999</v>
       </c>
@@ -10329,7 +10329,7 @@
         <v>-99999</v>
       </c>
       <c r="K247" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="L247" t="n">
         <v>3</v>
@@ -10338,41 +10338,361 @@
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
         <is>
+          <t>V2405-2406</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>0</v>
+      </c>
+      <c r="C248" t="n">
+        <v>-7</v>
+      </c>
+      <c r="D248" t="n">
+        <v>-10</v>
+      </c>
+      <c r="E248" t="n">
+        <v>-15</v>
+      </c>
+      <c r="F248" t="n">
+        <v>-20</v>
+      </c>
+      <c r="G248" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H248" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I248" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J248" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K248" t="n">
+        <v>30</v>
+      </c>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="inlineStr">
+        <is>
+          <t>Y2307-2308</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>0</v>
+      </c>
+      <c r="C249" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D249" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E249" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F249" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G249" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H249" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I249" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J249" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K249" t="n">
+        <v>18</v>
+      </c>
+      <c r="L249" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="inlineStr">
+        <is>
+          <t>Y2308-2309</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>0</v>
+      </c>
+      <c r="C250" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D250" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E250" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F250" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G250" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H250" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I250" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J250" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K250" t="n">
+        <v>18</v>
+      </c>
+      <c r="L250" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="inlineStr">
+        <is>
+          <t>Y2309-2311</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>0</v>
+      </c>
+      <c r="C251" t="n">
+        <v>10</v>
+      </c>
+      <c r="D251" t="n">
+        <v>10</v>
+      </c>
+      <c r="E251" t="n">
+        <v>-16</v>
+      </c>
+      <c r="F251" t="n">
+        <v>-22</v>
+      </c>
+      <c r="G251" t="n">
+        <v>-34</v>
+      </c>
+      <c r="H251" t="n">
+        <v>-44</v>
+      </c>
+      <c r="I251" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J251" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K251" t="n">
+        <v>11</v>
+      </c>
+      <c r="L251" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="inlineStr">
+        <is>
+          <t>Y2311-2312</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>0</v>
+      </c>
+      <c r="C252" t="n">
+        <v>10</v>
+      </c>
+      <c r="D252" t="n">
+        <v>0</v>
+      </c>
+      <c r="E252" t="n">
+        <v>-40</v>
+      </c>
+      <c r="F252" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G252" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H252" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I252" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J252" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K252" t="n">
+        <v>100</v>
+      </c>
+      <c r="L252" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="inlineStr">
+        <is>
           <t>Y2312-2401</t>
         </is>
       </c>
-      <c r="B248" t="n">
-        <v>0</v>
-      </c>
-      <c r="C248" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D248" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E248" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="F248" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="G248" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="H248" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="I248" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="J248" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="K248" t="n">
+      <c r="B253" t="n">
+        <v>0</v>
+      </c>
+      <c r="C253" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D253" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E253" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F253" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G253" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H253" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I253" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J253" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K253" t="n">
         <v>18</v>
       </c>
-      <c r="L248" t="n">
+      <c r="L253" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="inlineStr">
+        <is>
+          <t>V2406-2407</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>0</v>
+      </c>
+      <c r="C254" t="n">
+        <v>-10</v>
+      </c>
+      <c r="D254" t="n">
+        <v>-10</v>
+      </c>
+      <c r="E254" t="n">
+        <v>-15</v>
+      </c>
+      <c r="F254" t="n">
+        <v>-15</v>
+      </c>
+      <c r="G254" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H254" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I254" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J254" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K254" t="n">
+        <v>30</v>
+      </c>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="inlineStr">
+        <is>
+          <t>SN2309-2310</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>0</v>
+      </c>
+      <c r="C255" t="n">
+        <v>-220</v>
+      </c>
+      <c r="D255" t="n">
+        <v>-220</v>
+      </c>
+      <c r="E255" t="n">
+        <v>-250</v>
+      </c>
+      <c r="F255" t="n">
+        <v>-280</v>
+      </c>
+      <c r="G255" t="n">
+        <v>-300</v>
+      </c>
+      <c r="H255" t="n">
+        <v>-330</v>
+      </c>
+      <c r="I255" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J255" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K255" t="n">
+        <v>43</v>
+      </c>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="inlineStr">
+        <is>
+          <t>RR2312-2401</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>0</v>
+      </c>
+      <c r="C256" t="n">
+        <v>-60</v>
+      </c>
+      <c r="D256" t="n">
+        <v>-65</v>
+      </c>
+      <c r="E256" t="n">
+        <v>-70</v>
+      </c>
+      <c r="F256" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G256" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H256" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I256" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J256" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K256" t="n">
+        <v>80</v>
+      </c>
+      <c r="L256" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/info/region_info.xlsx
+++ b/info/region_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L256"/>
+  <dimension ref="A1:L221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,14 +498,14 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>A2307-2309</t>
+          <t>A2309-2311</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>188</v>
+        <v>-99999</v>
       </c>
       <c r="D2" t="n">
         <v>-99999</v>
@@ -529,16 +529,16 @@
         <v>-99999</v>
       </c>
       <c r="K2" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>A2307-2311</t>
+          <t>A2311-2309</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -569,23 +569,23 @@
         <v>-99999</v>
       </c>
       <c r="K3" t="n">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>A2309-2307</t>
+          <t>A2311-2401</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>-250</v>
+        <v>-99999</v>
       </c>
       <c r="D4" t="n">
         <v>-99999</v>
@@ -609,7 +609,7 @@
         <v>-99999</v>
       </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="L4" t="n">
         <v>3</v>
@@ -618,20 +618,20 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>A2309-2311</t>
+          <t>A2401-2403</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>-99999</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="F5" t="n">
         <v>-99999</v>
@@ -649,16 +649,16 @@
         <v>-99999</v>
       </c>
       <c r="K5" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>A2311-2309</t>
+          <t>AG2307-2308</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -689,16 +689,16 @@
         <v>-99999</v>
       </c>
       <c r="K6" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="L6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>A2311-2401</t>
+          <t>AG2308-2311</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -729,29 +729,29 @@
         <v>-99999</v>
       </c>
       <c r="K7" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>A2401-2403</t>
+          <t>AG2309-2310</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>-13</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="E8" t="n">
-        <v>-10</v>
+        <v>-17</v>
       </c>
       <c r="F8" t="n">
         <v>-99999</v>
@@ -769,16 +769,16 @@
         <v>-99999</v>
       </c>
       <c r="K8" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AG2307-2308</t>
+          <t>AG2309-2312</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -809,16 +809,16 @@
         <v>-99999</v>
       </c>
       <c r="K9" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AG2308-2309</t>
+          <t>AG2310-2311</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -828,20 +828,20 @@
         <v>-13</v>
       </c>
       <c r="D10" t="n">
+        <v>-14</v>
+      </c>
+      <c r="E10" t="n">
         <v>-15</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
+        <v>-15</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-16</v>
+      </c>
+      <c r="H10" t="n">
         <v>-17</v>
       </c>
-      <c r="F10" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="G10" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="H10" t="n">
-        <v>-99999</v>
-      </c>
       <c r="I10" t="n">
         <v>-99999</v>
       </c>
@@ -849,7 +849,7 @@
         <v>-99999</v>
       </c>
       <c r="K10" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="L10" t="n">
         <v>1</v>
@@ -858,29 +858,29 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>AG2308-2311</t>
+          <t>AG2311-2312</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-99999</v>
+        <v>-14</v>
       </c>
       <c r="D11" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="E11" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="F11" t="n">
-        <v>-99999</v>
+        <v>-16</v>
       </c>
       <c r="G11" t="n">
-        <v>-99999</v>
+        <v>-17</v>
       </c>
       <c r="H11" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="I11" t="n">
         <v>-99999</v>
@@ -889,7 +889,7 @@
         <v>-99999</v>
       </c>
       <c r="K11" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="L11" t="n">
         <v>1</v>
@@ -898,29 +898,29 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>AG2309-2310</t>
+          <t>AG2312-2401</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>-13</v>
+        <v>-14</v>
       </c>
       <c r="D12" t="n">
         <v>-15</v>
       </c>
       <c r="E12" t="n">
+        <v>-15</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-16</v>
+      </c>
+      <c r="G12" t="n">
         <v>-17</v>
       </c>
-      <c r="F12" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-99999</v>
-      </c>
       <c r="H12" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="I12" t="n">
         <v>-99999</v>
@@ -929,7 +929,7 @@
         <v>-99999</v>
       </c>
       <c r="K12" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
@@ -938,32 +938,32 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>AG2309-2312</t>
+          <t>AG2401-2402</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="D13" t="n">
-        <v>-99999</v>
+        <v>-16</v>
       </c>
       <c r="E13" t="n">
-        <v>-99999</v>
+        <v>-17</v>
       </c>
       <c r="F13" t="n">
-        <v>-99999</v>
+        <v>-18</v>
       </c>
       <c r="G13" t="n">
-        <v>-99999</v>
+        <v>-19</v>
       </c>
       <c r="H13" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="I13" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="J13" t="n">
         <v>-99999</v>
@@ -972,35 +972,35 @@
         <v>17</v>
       </c>
       <c r="L13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>AG2310-2311</t>
+          <t>AG2402-2403</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-13</v>
+        <v>-14</v>
       </c>
       <c r="D14" t="n">
-        <v>-14</v>
+        <v>-15</v>
       </c>
       <c r="E14" t="n">
         <v>-15</v>
       </c>
       <c r="F14" t="n">
-        <v>-15</v>
+        <v>-16</v>
       </c>
       <c r="G14" t="n">
-        <v>-16</v>
+        <v>-17</v>
       </c>
       <c r="H14" t="n">
-        <v>-17</v>
+        <v>-20</v>
       </c>
       <c r="I14" t="n">
         <v>-99999</v>
@@ -1009,7 +1009,7 @@
         <v>-99999</v>
       </c>
       <c r="K14" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="L14" t="n">
         <v>1</v>
@@ -1018,29 +1018,29 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>AG2311-2312</t>
+          <t>AG2403-2404</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>-13</v>
+        <v>-16</v>
       </c>
       <c r="D15" t="n">
-        <v>-14</v>
+        <v>-16</v>
       </c>
       <c r="E15" t="n">
-        <v>-15</v>
+        <v>-17</v>
       </c>
       <c r="F15" t="n">
-        <v>-15</v>
+        <v>-18</v>
       </c>
       <c r="G15" t="n">
-        <v>-16</v>
+        <v>-19</v>
       </c>
       <c r="H15" t="n">
-        <v>-17</v>
+        <v>-20</v>
       </c>
       <c r="I15" t="n">
         <v>-99999</v>
@@ -1049,38 +1049,38 @@
         <v>-99999</v>
       </c>
       <c r="K15" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>AG2312-2401</t>
+          <t>AG2404-2405</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>-13</v>
+        <v>-14</v>
       </c>
       <c r="D16" t="n">
-        <v>-14</v>
+        <v>-15</v>
       </c>
       <c r="E16" t="n">
-        <v>-15</v>
+        <v>-17</v>
       </c>
       <c r="F16" t="n">
-        <v>-15</v>
+        <v>-18</v>
       </c>
       <c r="G16" t="n">
-        <v>-16</v>
+        <v>-19</v>
       </c>
       <c r="H16" t="n">
-        <v>-17</v>
+        <v>-20</v>
       </c>
       <c r="I16" t="n">
         <v>-99999</v>
@@ -1089,87 +1089,87 @@
         <v>-99999</v>
       </c>
       <c r="K16" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>AG2401-2402</t>
+          <t>AG2405-2406</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-13</v>
+        <v>-17</v>
       </c>
       <c r="D17" t="n">
-        <v>-15</v>
+        <v>-19</v>
       </c>
       <c r="E17" t="n">
-        <v>-16</v>
+        <v>-20</v>
       </c>
       <c r="F17" t="n">
-        <v>-17</v>
+        <v>-21</v>
       </c>
       <c r="G17" t="n">
-        <v>-18</v>
+        <v>-22</v>
       </c>
       <c r="H17" t="n">
-        <v>-19</v>
+        <v>-22</v>
       </c>
       <c r="I17" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="J17" t="n">
         <v>-99999</v>
       </c>
       <c r="K17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>AG2402-2403</t>
+          <t>AL2309-2310</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>-13</v>
+        <v>-40</v>
       </c>
       <c r="D18" t="n">
-        <v>-14</v>
+        <v>-50</v>
       </c>
       <c r="E18" t="n">
-        <v>-15</v>
+        <v>-70</v>
       </c>
       <c r="F18" t="n">
-        <v>-15</v>
+        <v>-80</v>
       </c>
       <c r="G18" t="n">
-        <v>-16</v>
+        <v>-90</v>
       </c>
       <c r="H18" t="n">
-        <v>-17</v>
+        <v>-100</v>
       </c>
       <c r="I18" t="n">
-        <v>-99999</v>
+        <v>-110</v>
       </c>
       <c r="J18" t="n">
-        <v>-99999</v>
+        <v>-120</v>
       </c>
       <c r="K18" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="L18" t="n">
         <v>1</v>
@@ -1178,127 +1178,127 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>AG2403-2404</t>
+          <t>AL2310-2311</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>-15</v>
+        <v>-40</v>
       </c>
       <c r="D19" t="n">
-        <v>-16</v>
+        <v>-50</v>
       </c>
       <c r="E19" t="n">
-        <v>-16</v>
+        <v>-70</v>
       </c>
       <c r="F19" t="n">
-        <v>-17</v>
+        <v>-80</v>
       </c>
       <c r="G19" t="n">
-        <v>-18</v>
+        <v>-90</v>
       </c>
       <c r="H19" t="n">
-        <v>-19</v>
+        <v>-100</v>
       </c>
       <c r="I19" t="n">
-        <v>-99999</v>
+        <v>-110</v>
       </c>
       <c r="J19" t="n">
-        <v>-99999</v>
+        <v>-120</v>
       </c>
       <c r="K19" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="L19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>AG2404-2405</t>
+          <t>AL2311-2312</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>-13</v>
+        <v>-20</v>
       </c>
       <c r="D20" t="n">
-        <v>-14</v>
+        <v>-25</v>
       </c>
       <c r="E20" t="n">
-        <v>-15</v>
+        <v>-30</v>
       </c>
       <c r="F20" t="n">
-        <v>-17</v>
+        <v>-40</v>
       </c>
       <c r="G20" t="n">
-        <v>-18</v>
+        <v>-90</v>
       </c>
       <c r="H20" t="n">
-        <v>-19</v>
+        <v>-100</v>
       </c>
       <c r="I20" t="n">
-        <v>-99999</v>
+        <v>-110</v>
       </c>
       <c r="J20" t="n">
-        <v>-99999</v>
+        <v>-120</v>
       </c>
       <c r="K20" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>AG2405-2406</t>
+          <t>AL2312-2401</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>-16</v>
+        <v>20</v>
       </c>
       <c r="D21" t="n">
-        <v>-17</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>-19</v>
+        <v>-30</v>
       </c>
       <c r="F21" t="n">
-        <v>-20</v>
+        <v>-40</v>
       </c>
       <c r="G21" t="n">
-        <v>-21</v>
+        <v>-90</v>
       </c>
       <c r="H21" t="n">
-        <v>-22</v>
+        <v>-100</v>
       </c>
       <c r="I21" t="n">
-        <v>-99999</v>
+        <v>-110</v>
       </c>
       <c r="J21" t="n">
-        <v>-99999</v>
+        <v>-120</v>
       </c>
       <c r="K21" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="L21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>AL2307-2308</t>
+          <t>AL2401-2402</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1308,28 +1308,28 @@
         <v>10</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="E22" t="n">
         <v>-20</v>
       </c>
       <c r="F22" t="n">
-        <v>-25</v>
+        <v>-100</v>
       </c>
       <c r="G22" t="n">
-        <v>-30</v>
+        <v>-120</v>
       </c>
       <c r="H22" t="n">
-        <v>-40</v>
+        <v>-99999</v>
       </c>
       <c r="I22" t="n">
-        <v>-50</v>
+        <v>-99999</v>
       </c>
       <c r="J22" t="n">
-        <v>-70</v>
+        <v>-99999</v>
       </c>
       <c r="K22" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="L22" t="n">
         <v>1</v>
@@ -1338,38 +1338,38 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>AL2308-2309</t>
+          <t>AL2402-2403</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="E23" t="n">
-        <v>-20</v>
+        <v>-30</v>
       </c>
       <c r="F23" t="n">
-        <v>-25</v>
+        <v>-100</v>
       </c>
       <c r="G23" t="n">
-        <v>-30</v>
+        <v>-120</v>
       </c>
       <c r="H23" t="n">
-        <v>-40</v>
+        <v>-99999</v>
       </c>
       <c r="I23" t="n">
-        <v>-50</v>
+        <v>-99999</v>
       </c>
       <c r="J23" t="n">
-        <v>-70</v>
+        <v>-99999</v>
       </c>
       <c r="K23" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="L23" t="n">
         <v>1</v>
@@ -1378,38 +1378,38 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>AL2309-2310</t>
+          <t>AL2403-2404</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>-40</v>
+        <v>10</v>
       </c>
       <c r="D24" t="n">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>-70</v>
+        <v>-100</v>
       </c>
       <c r="F24" t="n">
-        <v>-80</v>
+        <v>-120</v>
       </c>
       <c r="G24" t="n">
-        <v>-90</v>
+        <v>-99999</v>
       </c>
       <c r="H24" t="n">
-        <v>-100</v>
+        <v>-99999</v>
       </c>
       <c r="I24" t="n">
-        <v>-110</v>
+        <v>-99999</v>
       </c>
       <c r="J24" t="n">
-        <v>-120</v>
+        <v>-99999</v>
       </c>
       <c r="K24" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="L24" t="n">
         <v>1</v>
@@ -1418,38 +1418,38 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>AL2310-2311</t>
+          <t>AU2310-2312</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>-40</v>
+        <v>-1.14</v>
       </c>
       <c r="D25" t="n">
-        <v>-50</v>
+        <v>-1.22</v>
       </c>
       <c r="E25" t="n">
-        <v>-70</v>
+        <v>-1.32</v>
       </c>
       <c r="F25" t="n">
-        <v>-80</v>
+        <v>-1.34</v>
       </c>
       <c r="G25" t="n">
-        <v>-90</v>
+        <v>-1.36</v>
       </c>
       <c r="H25" t="n">
-        <v>-100</v>
+        <v>-1.42</v>
       </c>
       <c r="I25" t="n">
-        <v>-110</v>
+        <v>-99999</v>
       </c>
       <c r="J25" t="n">
-        <v>-120</v>
+        <v>-99999</v>
       </c>
       <c r="K25" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="L25" t="n">
         <v>1</v>
@@ -1458,38 +1458,38 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>AL2311-2312</t>
+          <t>AU2312-2402</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>-20</v>
+        <v>-1.22</v>
       </c>
       <c r="D26" t="n">
-        <v>-25</v>
+        <v>-1.28</v>
       </c>
       <c r="E26" t="n">
-        <v>-30</v>
+        <v>-1.34</v>
       </c>
       <c r="F26" t="n">
-        <v>-40</v>
+        <v>-1.38</v>
       </c>
       <c r="G26" t="n">
-        <v>-90</v>
+        <v>-1.42</v>
       </c>
       <c r="H26" t="n">
-        <v>-100</v>
+        <v>-1.46</v>
       </c>
       <c r="I26" t="n">
-        <v>-110</v>
+        <v>-1.56</v>
       </c>
       <c r="J26" t="n">
-        <v>-120</v>
+        <v>-1.7</v>
       </c>
       <c r="K26" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="L26" t="n">
         <v>1</v>
@@ -1498,38 +1498,38 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>AL2312-2401</t>
+          <t>AU2402-2404</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>20</v>
+        <v>-1.28</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>-1.32</v>
       </c>
       <c r="E27" t="n">
-        <v>-30</v>
+        <v>-1.34</v>
       </c>
       <c r="F27" t="n">
-        <v>-40</v>
+        <v>-1.36</v>
       </c>
       <c r="G27" t="n">
-        <v>-90</v>
+        <v>-1.42</v>
       </c>
       <c r="H27" t="n">
-        <v>-100</v>
+        <v>-1.56</v>
       </c>
       <c r="I27" t="n">
-        <v>-110</v>
+        <v>-1.56</v>
       </c>
       <c r="J27" t="n">
-        <v>-120</v>
+        <v>-1.7</v>
       </c>
       <c r="K27" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L27" t="n">
         <v>1</v>
@@ -1538,26 +1538,26 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>AL2401-2402</t>
+          <t>B2309-2310</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>10</v>
+        <v>-30</v>
       </c>
       <c r="D28" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="E28" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="F28" t="n">
-        <v>-100</v>
+        <v>-99999</v>
       </c>
       <c r="G28" t="n">
-        <v>-120</v>
+        <v>-99999</v>
       </c>
       <c r="H28" t="n">
         <v>-99999</v>
@@ -1569,39 +1569,39 @@
         <v>-99999</v>
       </c>
       <c r="K28" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="L28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>AL2402-2403</t>
+          <t>B2310-2311</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>0</v>
       </c>
       <c r="C29" t="n">
+        <v>-30</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F29" t="n">
         <v>-10</v>
       </c>
-      <c r="D29" t="n">
+      <c r="G29" t="n">
+        <v>-15</v>
+      </c>
+      <c r="H29" t="n">
         <v>-20</v>
       </c>
-      <c r="E29" t="n">
-        <v>-30</v>
-      </c>
-      <c r="F29" t="n">
-        <v>-100</v>
-      </c>
-      <c r="G29" t="n">
-        <v>-120</v>
-      </c>
-      <c r="H29" t="n">
-        <v>-99999</v>
-      </c>
       <c r="I29" t="n">
         <v>-99999</v>
       </c>
@@ -1609,7 +1609,7 @@
         <v>-99999</v>
       </c>
       <c r="K29" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="L29" t="n">
         <v>1</v>
@@ -1618,26 +1618,26 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>AL2403-2404</t>
+          <t>BU2309-2310</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>10</v>
+        <v>-5</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="E30" t="n">
-        <v>-100</v>
+        <v>-20</v>
       </c>
       <c r="F30" t="n">
-        <v>-120</v>
+        <v>-30</v>
       </c>
       <c r="G30" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="H30" t="n">
         <v>-99999</v>
@@ -1649,7 +1649,7 @@
         <v>-99999</v>
       </c>
       <c r="K30" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L30" t="n">
         <v>1</v>
@@ -1658,26 +1658,26 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>AU2308-2310</t>
+          <t>BU2310-2311</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>-1.18</v>
+        <v>-5</v>
       </c>
       <c r="D31" t="n">
-        <v>-1.22</v>
+        <v>-10</v>
       </c>
       <c r="E31" t="n">
-        <v>-1.32</v>
+        <v>-20</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.32</v>
+        <v>-30</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.4</v>
+        <v>-30</v>
       </c>
       <c r="H31" t="n">
         <v>-99999</v>
@@ -1689,38 +1689,38 @@
         <v>-99999</v>
       </c>
       <c r="K31" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="L31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>AU2310-2312</t>
+          <t>BU2311-2312</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>-1.14</v>
+        <v>-5</v>
       </c>
       <c r="D32" t="n">
-        <v>-1.22</v>
+        <v>-10</v>
       </c>
       <c r="E32" t="n">
-        <v>-1.32</v>
+        <v>-20</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.34</v>
+        <v>-30</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.36</v>
+        <v>-30</v>
       </c>
       <c r="H32" t="n">
-        <v>-1.42</v>
+        <v>-99999</v>
       </c>
       <c r="I32" t="n">
         <v>-99999</v>
@@ -1729,7 +1729,7 @@
         <v>-99999</v>
       </c>
       <c r="K32" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L32" t="n">
         <v>1</v>
@@ -1738,38 +1738,38 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>AU2312-2402</t>
+          <t>BU2312-2401</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>-1.22</v>
+        <v>-5</v>
       </c>
       <c r="D33" t="n">
-        <v>-1.28</v>
+        <v>-10</v>
       </c>
       <c r="E33" t="n">
-        <v>-1.34</v>
+        <v>-20</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.38</v>
+        <v>-30</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.42</v>
+        <v>-30</v>
       </c>
       <c r="H33" t="n">
-        <v>-1.46</v>
+        <v>-99999</v>
       </c>
       <c r="I33" t="n">
-        <v>-1.56</v>
+        <v>-99999</v>
       </c>
       <c r="J33" t="n">
-        <v>-1.7</v>
+        <v>-99999</v>
       </c>
       <c r="K33" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="L33" t="n">
         <v>1</v>
@@ -1778,38 +1778,38 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>AU2402-2404</t>
+          <t>BU2401-2402</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>-1.28</v>
+        <v>-5</v>
       </c>
       <c r="D34" t="n">
-        <v>-1.32</v>
+        <v>-10</v>
       </c>
       <c r="E34" t="n">
-        <v>-1.34</v>
+        <v>-20</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.36</v>
+        <v>-30</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.42</v>
+        <v>-30</v>
       </c>
       <c r="H34" t="n">
-        <v>-1.56</v>
+        <v>-99999</v>
       </c>
       <c r="I34" t="n">
-        <v>-1.56</v>
+        <v>-99999</v>
       </c>
       <c r="J34" t="n">
-        <v>-1.7</v>
+        <v>-99999</v>
       </c>
       <c r="K34" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="L34" t="n">
         <v>1</v>
@@ -1818,26 +1818,26 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>B2308-2307</t>
+          <t>BU2402-2403</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>-45</v>
+        <v>-5</v>
       </c>
       <c r="D35" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="E35" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="F35" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="G35" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="H35" t="n">
         <v>-99999</v>
@@ -1849,35 +1849,35 @@
         <v>-99999</v>
       </c>
       <c r="K35" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="L35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>B2308-2309</t>
+          <t>BU2403-2404</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>-99999</v>
+        <v>-5</v>
       </c>
       <c r="D36" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="E36" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="F36" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="G36" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="H36" t="n">
         <v>-99999</v>
@@ -1889,35 +1889,35 @@
         <v>-99999</v>
       </c>
       <c r="K36" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="L36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>B2309-2308</t>
+          <t>BU2404-2405</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>-110</v>
+        <v>-5</v>
       </c>
       <c r="D37" t="n">
-        <v>-115</v>
+        <v>-10</v>
       </c>
       <c r="E37" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="F37" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="G37" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="H37" t="n">
         <v>-99999</v>
@@ -1929,35 +1929,35 @@
         <v>-99999</v>
       </c>
       <c r="K37" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>B2309-2310</t>
+          <t>BU2405-2406</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="D38" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="E38" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="F38" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="G38" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="H38" t="n">
         <v>-99999</v>
@@ -1972,35 +1972,35 @@
         <v>30</v>
       </c>
       <c r="L38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>B2310-2311</t>
+          <t>C2309-2311</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>-99999</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="E39" t="n">
-        <v>-5</v>
+        <v>-99999</v>
       </c>
       <c r="F39" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="G39" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="H39" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="I39" t="n">
         <v>-99999</v>
@@ -2009,23 +2009,23 @@
         <v>-99999</v>
       </c>
       <c r="K39" t="n">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="L39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>BU2307-2308</t>
+          <t>C2311-2309</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>-99999</v>
       </c>
       <c r="D40" t="n">
         <v>-99999</v>
@@ -2052,23 +2052,23 @@
         <v>10</v>
       </c>
       <c r="L40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>BU2308-2309</t>
+          <t>C2311-2401</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="D41" t="n">
-        <v>-99999</v>
+        <v>-40</v>
       </c>
       <c r="E41" t="n">
         <v>-99999</v>
@@ -2089,35 +2089,35 @@
         <v>-99999</v>
       </c>
       <c r="K41" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="L41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>BU2309-2310</t>
+          <t>C2401-2403</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="D42" t="n">
-        <v>-5</v>
+        <v>-99999</v>
       </c>
       <c r="E42" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="F42" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="G42" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="H42" t="n">
         <v>-99999</v>
@@ -2129,23 +2129,23 @@
         <v>-99999</v>
       </c>
       <c r="K42" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="L42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>BU2310-2311</t>
+          <t>C2403-2405</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>-99999</v>
+        <v>-55</v>
       </c>
       <c r="D43" t="n">
         <v>-99999</v>
@@ -2169,35 +2169,35 @@
         <v>-99999</v>
       </c>
       <c r="K43" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="L43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>BU2311-2312</t>
+          <t>CF2309-2311</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>-210</v>
       </c>
       <c r="D44" t="n">
-        <v>-5</v>
+        <v>-230</v>
       </c>
       <c r="E44" t="n">
-        <v>-10</v>
+        <v>-250</v>
       </c>
       <c r="F44" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="G44" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="H44" t="n">
         <v>-99999</v>
@@ -2209,23 +2209,23 @@
         <v>-99999</v>
       </c>
       <c r="K44" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="L44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>BU2312-2401</t>
+          <t>CF2311-2401</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>10</v>
+        <v>-99999</v>
       </c>
       <c r="D45" t="n">
         <v>-99999</v>
@@ -2249,16 +2249,16 @@
         <v>-99999</v>
       </c>
       <c r="K45" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="L45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>BU2401-2402</t>
+          <t>CS2307-2309</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -2289,7 +2289,7 @@
         <v>-99999</v>
       </c>
       <c r="K46" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="L46" t="n">
         <v>1</v>
@@ -2298,7 +2298,7 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>BU2402-2403</t>
+          <t>CS2309-2311</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -2329,7 +2329,7 @@
         <v>-99999</v>
       </c>
       <c r="K47" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="L47" t="n">
         <v>1</v>
@@ -2338,7 +2338,7 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>BU2403-2404</t>
+          <t>CS2311-2309</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -2369,7 +2369,7 @@
         <v>-99999</v>
       </c>
       <c r="K48" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="L48" t="n">
         <v>1</v>
@@ -2378,14 +2378,14 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>BU2404-2405</t>
+          <t>CS2311-2401</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="D49" t="n">
         <v>-99999</v>
@@ -2409,7 +2409,7 @@
         <v>-99999</v>
       </c>
       <c r="K49" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="L49" t="n">
         <v>1</v>
@@ -2418,14 +2418,14 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>BU2405-2406</t>
+          <t>CS2403-2405</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>-99999</v>
+        <v>-150</v>
       </c>
       <c r="D50" t="n">
         <v>-99999</v>
@@ -2449,7 +2449,7 @@
         <v>-99999</v>
       </c>
       <c r="K50" t="n">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="L50" t="n">
         <v>1</v>
@@ -2458,26 +2458,26 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>C2307-2309</t>
+          <t>EG2309-2310</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>-40</v>
       </c>
       <c r="D51" t="n">
-        <v>5</v>
+        <v>-50</v>
       </c>
       <c r="E51" t="n">
-        <v>-99999</v>
+        <v>-60</v>
       </c>
       <c r="F51" t="n">
-        <v>-99999</v>
+        <v>-70</v>
       </c>
       <c r="G51" t="n">
-        <v>-99999</v>
+        <v>-80</v>
       </c>
       <c r="H51" t="n">
         <v>-99999</v>
@@ -2489,35 +2489,35 @@
         <v>-99999</v>
       </c>
       <c r="K51" t="n">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="L51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>C2309-2307</t>
+          <t>EG2310-2311</t>
         </is>
       </c>
       <c r="B52" t="n">
         <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>-99999</v>
+        <v>-34</v>
       </c>
       <c r="D52" t="n">
-        <v>-99999</v>
+        <v>-36</v>
       </c>
       <c r="E52" t="n">
-        <v>-99999</v>
+        <v>-60</v>
       </c>
       <c r="F52" t="n">
-        <v>-99999</v>
+        <v>-70</v>
       </c>
       <c r="G52" t="n">
-        <v>-99999</v>
+        <v>-80</v>
       </c>
       <c r="H52" t="n">
         <v>-99999</v>
@@ -2529,32 +2529,32 @@
         <v>-99999</v>
       </c>
       <c r="K52" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>C2309-2311</t>
+          <t>EG2311-2312</t>
         </is>
       </c>
       <c r="B53" t="n">
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>58</v>
+        <v>-24</v>
       </c>
       <c r="D53" t="n">
-        <v>-99999</v>
+        <v>-32</v>
       </c>
       <c r="E53" t="n">
-        <v>-99999</v>
+        <v>-40</v>
       </c>
       <c r="F53" t="n">
-        <v>-99999</v>
+        <v>-40</v>
       </c>
       <c r="G53" t="n">
         <v>-99999</v>
@@ -2569,29 +2569,29 @@
         <v>-99999</v>
       </c>
       <c r="K53" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="L53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>C2311-2309</t>
+          <t>EG2312-2401</t>
         </is>
       </c>
       <c r="B54" t="n">
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>-130</v>
+        <v>-24</v>
       </c>
       <c r="D54" t="n">
-        <v>-99999</v>
+        <v>-32</v>
       </c>
       <c r="E54" t="n">
-        <v>-99999</v>
+        <v>-40</v>
       </c>
       <c r="F54" t="n">
         <v>-99999</v>
@@ -2609,26 +2609,26 @@
         <v>-99999</v>
       </c>
       <c r="K54" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="L54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>C2311-2401</t>
+          <t>EG2401-2402</t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>44</v>
+        <v>-24</v>
       </c>
       <c r="D55" t="n">
-        <v>-99999</v>
+        <v>-32</v>
       </c>
       <c r="E55" t="n">
         <v>-99999</v>
@@ -2649,26 +2649,26 @@
         <v>-99999</v>
       </c>
       <c r="K55" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="L55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>C2401-2403</t>
+          <t>EG2402-2403</t>
         </is>
       </c>
       <c r="B56" t="n">
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>23</v>
+        <v>-20</v>
       </c>
       <c r="D56" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="E56" t="n">
         <v>-99999</v>
@@ -2689,23 +2689,23 @@
         <v>-99999</v>
       </c>
       <c r="K56" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="L56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>C2403-2405</t>
+          <t>EG2403-2404</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>-60</v>
+        <v>-80</v>
       </c>
       <c r="D57" t="n">
         <v>-99999</v>
@@ -2729,26 +2729,26 @@
         <v>-99999</v>
       </c>
       <c r="K57" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="L57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>CF2307-2309</t>
+          <t>FG2309-2310</t>
         </is>
       </c>
       <c r="B58" t="n">
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="D58" t="n">
-        <v>-99999</v>
+        <v>-60</v>
       </c>
       <c r="E58" t="n">
         <v>-99999</v>
@@ -2769,7 +2769,7 @@
         <v>-99999</v>
       </c>
       <c r="K58" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="L58" t="n">
         <v>2</v>
@@ -2778,20 +2778,20 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>CF2309-2311</t>
+          <t>FG2310-2311</t>
         </is>
       </c>
       <c r="B59" t="n">
         <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>-170</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-190</v>
+        <v>-5</v>
       </c>
       <c r="E59" t="n">
-        <v>-230</v>
+        <v>-10</v>
       </c>
       <c r="F59" t="n">
         <v>-99999</v>
@@ -2809,7 +2809,7 @@
         <v>-99999</v>
       </c>
       <c r="K59" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="L59" t="n">
         <v>2</v>
@@ -2818,20 +2818,20 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>CF2311-2401</t>
+          <t>FG2312-2401</t>
         </is>
       </c>
       <c r="B60" t="n">
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-99999</v>
+        <v>-5</v>
       </c>
       <c r="E60" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="F60" t="n">
         <v>-99999</v>
@@ -2849,29 +2849,29 @@
         <v>-99999</v>
       </c>
       <c r="K60" t="n">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="L60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>CS2307-2309</t>
+          <t>FG2402-2403</t>
         </is>
       </c>
       <c r="B61" t="n">
         <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-99999</v>
+        <v>-5</v>
       </c>
       <c r="E61" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="F61" t="n">
         <v>-99999</v>
@@ -2889,26 +2889,26 @@
         <v>-99999</v>
       </c>
       <c r="K61" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>CS2309-2311</t>
+          <t>FU2309-2310</t>
         </is>
       </c>
       <c r="B62" t="n">
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="D62" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="E62" t="n">
         <v>-99999</v>
@@ -2929,26 +2929,26 @@
         <v>-99999</v>
       </c>
       <c r="K62" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="L62" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>CS2311-2309</t>
+          <t>FU2310-2309</t>
         </is>
       </c>
       <c r="B63" t="n">
         <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>-99999</v>
+        <v>-53</v>
       </c>
       <c r="D63" t="n">
-        <v>-99999</v>
+        <v>-59</v>
       </c>
       <c r="E63" t="n">
         <v>-99999</v>
@@ -2969,23 +2969,23 @@
         <v>-99999</v>
       </c>
       <c r="K63" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="L63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>CS2311-2401</t>
+          <t>FU2310-2311</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>25</v>
+        <v>-99999</v>
       </c>
       <c r="D64" t="n">
         <v>-99999</v>
@@ -3009,23 +3009,23 @@
         <v>-99999</v>
       </c>
       <c r="K64" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="L64" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>CS2403-2405</t>
+          <t>FU2311-2309</t>
         </is>
       </c>
       <c r="B65" t="n">
         <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="D65" t="n">
         <v>-99999</v>
@@ -3049,26 +3049,26 @@
         <v>-99999</v>
       </c>
       <c r="K65" t="n">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="L65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>EG2307-2308</t>
+          <t>FU2311-2310</t>
         </is>
       </c>
       <c r="B66" t="n">
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>-40</v>
+        <v>-80</v>
       </c>
       <c r="D66" t="n">
-        <v>-40</v>
+        <v>-99999</v>
       </c>
       <c r="E66" t="n">
         <v>-99999</v>
@@ -3089,32 +3089,32 @@
         <v>-99999</v>
       </c>
       <c r="K66" t="n">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="L66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>EG2308-2309</t>
+          <t>FU2311-2312</t>
         </is>
       </c>
       <c r="B67" t="n">
         <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>-49</v>
+        <v>-99999</v>
       </c>
       <c r="D67" t="n">
-        <v>-50</v>
+        <v>-99999</v>
       </c>
       <c r="E67" t="n">
-        <v>-50</v>
+        <v>-99999</v>
       </c>
       <c r="F67" t="n">
-        <v>-51</v>
+        <v>-99999</v>
       </c>
       <c r="G67" t="n">
         <v>-99999</v>
@@ -3129,35 +3129,35 @@
         <v>-99999</v>
       </c>
       <c r="K67" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>EG2309-2310</t>
+          <t>FU2312-2401</t>
         </is>
       </c>
       <c r="B68" t="n">
         <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>-20</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
-        <v>-21</v>
+        <v>-5</v>
       </c>
       <c r="E68" t="n">
-        <v>-22</v>
+        <v>-99999</v>
       </c>
       <c r="F68" t="n">
-        <v>-38</v>
+        <v>-99999</v>
       </c>
       <c r="G68" t="n">
-        <v>-48</v>
+        <v>-99999</v>
       </c>
       <c r="H68" t="n">
         <v>-99999</v>
@@ -3169,35 +3169,35 @@
         <v>-99999</v>
       </c>
       <c r="K68" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="L68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>EG2310-2311</t>
+          <t>FU2401-2402</t>
         </is>
       </c>
       <c r="B69" t="n">
         <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>-21</v>
+        <v>-10</v>
       </c>
       <c r="D69" t="n">
-        <v>-22</v>
+        <v>-99999</v>
       </c>
       <c r="E69" t="n">
-        <v>-23</v>
+        <v>-99999</v>
       </c>
       <c r="F69" t="n">
-        <v>-38</v>
+        <v>-99999</v>
       </c>
       <c r="G69" t="n">
-        <v>-48</v>
+        <v>-99999</v>
       </c>
       <c r="H69" t="n">
         <v>-99999</v>
@@ -3209,35 +3209,35 @@
         <v>-99999</v>
       </c>
       <c r="K69" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="L69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>EG2311-2312</t>
+          <t>FU2402-2403</t>
         </is>
       </c>
       <c r="B70" t="n">
         <v>0</v>
       </c>
       <c r="C70" t="n">
+        <v>-15</v>
+      </c>
+      <c r="D70" t="n">
         <v>-20</v>
       </c>
-      <c r="D70" t="n">
-        <v>-21</v>
-      </c>
       <c r="E70" t="n">
-        <v>-22</v>
+        <v>-99999</v>
       </c>
       <c r="F70" t="n">
-        <v>-24</v>
+        <v>-99999</v>
       </c>
       <c r="G70" t="n">
-        <v>-40</v>
+        <v>-99999</v>
       </c>
       <c r="H70" t="n">
         <v>-99999</v>
@@ -3249,27 +3249,27 @@
         <v>-99999</v>
       </c>
       <c r="K70" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>EG2312-2401</t>
+          <t>FU2403-2404</t>
         </is>
       </c>
       <c r="B71" t="n">
         <v>0</v>
       </c>
       <c r="C71" t="n">
+        <v>-15</v>
+      </c>
+      <c r="D71" t="n">
         <v>-20</v>
       </c>
-      <c r="D71" t="n">
-        <v>-40</v>
-      </c>
       <c r="E71" t="n">
         <v>-99999</v>
       </c>
@@ -3289,26 +3289,26 @@
         <v>-99999</v>
       </c>
       <c r="K71" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>EG2401-2402</t>
+          <t>FU2404-2405</t>
         </is>
       </c>
       <c r="B72" t="n">
         <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>-45</v>
+        <v>-15</v>
       </c>
       <c r="D72" t="n">
-        <v>-60</v>
+        <v>-20</v>
       </c>
       <c r="E72" t="n">
         <v>-99999</v>
@@ -3329,27 +3329,27 @@
         <v>-99999</v>
       </c>
       <c r="K72" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>EG2402-2403</t>
+          <t>FU2405-2406</t>
         </is>
       </c>
       <c r="B73" t="n">
         <v>0</v>
       </c>
       <c r="C73" t="n">
+        <v>-15</v>
+      </c>
+      <c r="D73" t="n">
         <v>-20</v>
       </c>
-      <c r="D73" t="n">
-        <v>-30</v>
-      </c>
       <c r="E73" t="n">
         <v>-99999</v>
       </c>
@@ -3369,26 +3369,26 @@
         <v>-99999</v>
       </c>
       <c r="K73" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>FG2306-2309</t>
+          <t>HC2309-2310</t>
         </is>
       </c>
       <c r="B74" t="n">
         <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="D74" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="E74" t="n">
         <v>-99999</v>
@@ -3409,29 +3409,29 @@
         <v>-99999</v>
       </c>
       <c r="K74" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>FG2307-2309</t>
+          <t>HC2310-2311</t>
         </is>
       </c>
       <c r="B75" t="n">
         <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="D75" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="E75" t="n">
-        <v>-99999</v>
+        <v>-40</v>
       </c>
       <c r="F75" t="n">
         <v>-99999</v>
@@ -3449,32 +3449,32 @@
         <v>-99999</v>
       </c>
       <c r="K75" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="L75" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>FG2308-2309</t>
+          <t>HC2311-2312</t>
         </is>
       </c>
       <c r="B76" t="n">
         <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>-10</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="E76" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="F76" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="G76" t="n">
         <v>-99999</v>
@@ -3489,32 +3489,32 @@
         <v>-99999</v>
       </c>
       <c r="K76" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="L76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>FG2310-2311</t>
+          <t>HC2312-2401</t>
         </is>
       </c>
       <c r="B77" t="n">
         <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>-99999</v>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="E77" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="F77" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="G77" t="n">
         <v>-99999</v>
@@ -3529,32 +3529,32 @@
         <v>-99999</v>
       </c>
       <c r="K77" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="L77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>FG2312-2401</t>
+          <t>HC2401-2402</t>
         </is>
       </c>
       <c r="B78" t="n">
         <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="D78" t="n">
-        <v>-5</v>
+        <v>-99999</v>
       </c>
       <c r="E78" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="F78" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="G78" t="n">
         <v>-99999</v>
@@ -3572,29 +3572,29 @@
         <v>50</v>
       </c>
       <c r="L78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>FG2402-2403</t>
+          <t>HC2402-2403</t>
         </is>
       </c>
       <c r="B79" t="n">
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="D79" t="n">
-        <v>-5</v>
+        <v>-99999</v>
       </c>
       <c r="E79" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="F79" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="G79" t="n">
         <v>-99999</v>
@@ -3609,16 +3609,16 @@
         <v>-99999</v>
       </c>
       <c r="K79" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="L79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>FU2307-2308</t>
+          <t>HC2403-2404</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -3649,7 +3649,7 @@
         <v>-99999</v>
       </c>
       <c r="K80" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L80" t="n">
         <v>3</v>
@@ -3658,7 +3658,7 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>FU2307-2309</t>
+          <t>I2309-2310</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -3689,29 +3689,29 @@
         <v>-99999</v>
       </c>
       <c r="K81" t="n">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="L81" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>FU2308-2307</t>
+          <t>I2310-2311</t>
         </is>
       </c>
       <c r="B82" t="n">
         <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>-99999</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>-99999</v>
+        <v>-3</v>
       </c>
       <c r="F82" t="n">
         <v>-99999</v>
@@ -3729,32 +3729,32 @@
         <v>-99999</v>
       </c>
       <c r="K82" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="L82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>FU2308-2309</t>
+          <t>I2311-2312</t>
         </is>
       </c>
       <c r="B83" t="n">
         <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>-10</v>
+        <v>-3</v>
       </c>
       <c r="F83" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="G83" t="n">
         <v>-99999</v>
@@ -3769,7 +3769,7 @@
         <v>-99999</v>
       </c>
       <c r="K83" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L83" t="n">
         <v>3</v>
@@ -3778,20 +3778,20 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>FU2309-2307</t>
+          <t>I2312-2401</t>
         </is>
       </c>
       <c r="B84" t="n">
         <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>-99999</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>-99999</v>
+        <v>-3</v>
       </c>
       <c r="F84" t="n">
         <v>-99999</v>
@@ -3809,29 +3809,29 @@
         <v>-99999</v>
       </c>
       <c r="K84" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="L84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>FU2309-2310</t>
+          <t>I2401-2402</t>
         </is>
       </c>
       <c r="B85" t="n">
         <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>-10</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>-99999</v>
+        <v>-3</v>
       </c>
       <c r="F85" t="n">
         <v>-99999</v>
@@ -3849,7 +3849,7 @@
         <v>-99999</v>
       </c>
       <c r="K85" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L85" t="n">
         <v>3</v>
@@ -3858,20 +3858,20 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>FU2310-2309</t>
+          <t>I2402-2403</t>
         </is>
       </c>
       <c r="B86" t="n">
         <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>-53</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
-        <v>-59</v>
+        <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>-99999</v>
+        <v>-3</v>
       </c>
       <c r="F86" t="n">
         <v>-99999</v>
@@ -3889,29 +3889,29 @@
         <v>-99999</v>
       </c>
       <c r="K86" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="L86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>FU2310-2311</t>
+          <t>I2403-2404</t>
         </is>
       </c>
       <c r="B87" t="n">
         <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>-99999</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>-99999</v>
+        <v>-3</v>
       </c>
       <c r="F87" t="n">
         <v>-99999</v>
@@ -3929,7 +3929,7 @@
         <v>-99999</v>
       </c>
       <c r="K87" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="L87" t="n">
         <v>3</v>
@@ -3938,7 +3938,7 @@
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>FU2311-2309</t>
+          <t>IC2309-2312</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -3969,23 +3969,23 @@
         <v>-99999</v>
       </c>
       <c r="K88" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="L88" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>FU2311-2310</t>
+          <t>IF2308-2309</t>
         </is>
       </c>
       <c r="B89" t="n">
         <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>-80</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="D89" t="n">
         <v>-99999</v>
@@ -4009,32 +4009,32 @@
         <v>-99999</v>
       </c>
       <c r="K89" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="L89" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>FU2311-2312</t>
+          <t>IF2309-2312</t>
         </is>
       </c>
       <c r="B90" t="n">
         <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>20</v>
+        <v>-16.4</v>
       </c>
       <c r="D90" t="n">
-        <v>-99999</v>
+        <v>-18.4</v>
       </c>
       <c r="E90" t="n">
-        <v>-99999</v>
+        <v>-20.4</v>
       </c>
       <c r="F90" t="n">
-        <v>-99999</v>
+        <v>-22.4</v>
       </c>
       <c r="G90" t="n">
         <v>-99999</v>
@@ -4049,32 +4049,34 @@
         <v>-99999</v>
       </c>
       <c r="K90" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="L90" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>FU2312-2401</t>
+          <t>IH2309-2312</t>
         </is>
       </c>
       <c r="B91" t="n">
         <v>0</v>
       </c>
-      <c r="C91" t="n">
-        <v>25</v>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>-17</t>
+        </is>
       </c>
       <c r="D91" t="n">
-        <v>20</v>
+        <v>-18.4</v>
       </c>
       <c r="E91" t="n">
-        <v>3</v>
+        <v>-20.4</v>
       </c>
       <c r="F91" t="n">
-        <v>-99999</v>
+        <v>-20.4</v>
       </c>
       <c r="G91" t="n">
         <v>-99999</v>
@@ -4088,24 +4090,26 @@
       <c r="J91" t="n">
         <v>-99999</v>
       </c>
-      <c r="K91" t="n">
-        <v>35</v>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
       </c>
       <c r="L91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>FU2401-2402</t>
+          <t>IM2309-2312</t>
         </is>
       </c>
       <c r="B92" t="n">
         <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>21</v>
+        <v>-99999</v>
       </c>
       <c r="D92" t="n">
         <v>-99999</v>
@@ -4129,26 +4133,26 @@
         <v>-99999</v>
       </c>
       <c r="K92" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L92" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>FU2402-2403</t>
+          <t>JD2403-2404</t>
         </is>
       </c>
       <c r="B93" t="n">
         <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>-15</v>
+        <v>-190</v>
       </c>
       <c r="D93" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="E93" t="n">
         <v>-99999</v>
@@ -4169,30 +4173,30 @@
         <v>-99999</v>
       </c>
       <c r="K93" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="L93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>FU2403-2404</t>
+          <t>L2309-2310</t>
         </is>
       </c>
       <c r="B94" t="n">
         <v>0</v>
       </c>
       <c r="C94" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D94" t="n">
+        <v>-10</v>
+      </c>
+      <c r="E94" t="n">
         <v>-15</v>
       </c>
-      <c r="D94" t="n">
-        <v>-20</v>
-      </c>
-      <c r="E94" t="n">
-        <v>-99999</v>
-      </c>
       <c r="F94" t="n">
         <v>-99999</v>
       </c>
@@ -4209,7 +4213,7 @@
         <v>-99999</v>
       </c>
       <c r="K94" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L94" t="n">
         <v>3</v>
@@ -4218,24 +4222,24 @@
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>FU2404-2405</t>
+          <t>L2310-2311</t>
         </is>
       </c>
       <c r="B95" t="n">
         <v>0</v>
       </c>
       <c r="C95" t="n">
+        <v>0</v>
+      </c>
+      <c r="D95" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E95" t="n">
+        <v>-10</v>
+      </c>
+      <c r="F95" t="n">
         <v>-15</v>
       </c>
-      <c r="D95" t="n">
-        <v>-20</v>
-      </c>
-      <c r="E95" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="F95" t="n">
-        <v>-99999</v>
-      </c>
       <c r="G95" t="n">
         <v>-99999</v>
       </c>
@@ -4249,7 +4253,7 @@
         <v>-99999</v>
       </c>
       <c r="K95" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L95" t="n">
         <v>3</v>
@@ -4258,24 +4262,24 @@
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>FU2405-2406</t>
+          <t>L2311-2312</t>
         </is>
       </c>
       <c r="B96" t="n">
         <v>0</v>
       </c>
       <c r="C96" t="n">
+        <v>0</v>
+      </c>
+      <c r="D96" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E96" t="n">
+        <v>-10</v>
+      </c>
+      <c r="F96" t="n">
         <v>-15</v>
       </c>
-      <c r="D96" t="n">
-        <v>-20</v>
-      </c>
-      <c r="E96" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="F96" t="n">
-        <v>-99999</v>
-      </c>
       <c r="G96" t="n">
         <v>-99999</v>
       </c>
@@ -4289,7 +4293,7 @@
         <v>-99999</v>
       </c>
       <c r="K96" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L96" t="n">
         <v>3</v>
@@ -4298,26 +4302,26 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>HC2307-2308</t>
+          <t>L2312-2401</t>
         </is>
       </c>
       <c r="B97" t="n">
         <v>0</v>
       </c>
       <c r="C97" t="n">
+        <v>0</v>
+      </c>
+      <c r="D97" t="n">
         <v>-5</v>
       </c>
-      <c r="D97" t="n">
+      <c r="E97" t="n">
+        <v>-10</v>
+      </c>
+      <c r="F97" t="n">
         <v>-15</v>
       </c>
-      <c r="E97" t="n">
-        <v>-25</v>
-      </c>
-      <c r="F97" t="n">
-        <v>-35</v>
-      </c>
       <c r="G97" t="n">
-        <v>-45</v>
+        <v>-99999</v>
       </c>
       <c r="H97" t="n">
         <v>-99999</v>
@@ -4329,7 +4333,7 @@
         <v>-99999</v>
       </c>
       <c r="K97" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="L97" t="n">
         <v>3</v>
@@ -4338,38 +4342,38 @@
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>HC2307-2309</t>
+          <t>L2402-2403</t>
         </is>
       </c>
       <c r="B98" t="n">
         <v>0</v>
       </c>
       <c r="C98" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D98" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="E98" t="n">
-        <v>5</v>
+        <v>-10</v>
       </c>
       <c r="F98" t="n">
-        <v>4</v>
+        <v>-15</v>
       </c>
       <c r="G98" t="n">
-        <v>3</v>
+        <v>-99999</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>-99999</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>-99999</v>
       </c>
       <c r="J98" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="K98" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L98" t="n">
         <v>3</v>
@@ -4378,17 +4382,17 @@
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>HC2308-2309</t>
+          <t>LU2309-2310</t>
         </is>
       </c>
       <c r="B99" t="n">
         <v>0</v>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="D99" t="n">
-        <v>-10</v>
+        <v>-25</v>
       </c>
       <c r="E99" t="n">
         <v>-99999</v>
@@ -4409,7 +4413,7 @@
         <v>-99999</v>
       </c>
       <c r="K99" t="n">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="L99" t="n">
         <v>3</v>
@@ -4418,26 +4422,26 @@
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>HC2309-2310</t>
+          <t>M2309-2311</t>
         </is>
       </c>
       <c r="B100" t="n">
         <v>0</v>
       </c>
       <c r="C100" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="D100" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="E100" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="F100" t="n">
-        <v>-40</v>
+        <v>-99999</v>
       </c>
       <c r="G100" t="n">
-        <v>-50</v>
+        <v>-99999</v>
       </c>
       <c r="H100" t="n">
         <v>-99999</v>
@@ -4449,35 +4453,35 @@
         <v>-99999</v>
       </c>
       <c r="K100" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="L100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>HC2310-2311</t>
+          <t>M2311-2312</t>
         </is>
       </c>
       <c r="B101" t="n">
         <v>0</v>
       </c>
       <c r="C101" t="n">
-        <v>-10</v>
+        <v>-40</v>
       </c>
       <c r="D101" t="n">
-        <v>-20</v>
+        <v>-50</v>
       </c>
       <c r="E101" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="F101" t="n">
-        <v>-40</v>
+        <v>-99999</v>
       </c>
       <c r="G101" t="n">
-        <v>-50</v>
+        <v>-99999</v>
       </c>
       <c r="H101" t="n">
         <v>-99999</v>
@@ -4489,30 +4493,30 @@
         <v>-99999</v>
       </c>
       <c r="K101" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="L101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>HC2311-2312</t>
+          <t>M2312-2401</t>
         </is>
       </c>
       <c r="B102" t="n">
         <v>0</v>
       </c>
       <c r="C102" t="n">
+        <v>0</v>
+      </c>
+      <c r="D102" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E102" t="n">
         <v>-10</v>
       </c>
-      <c r="D102" t="n">
-        <v>-20</v>
-      </c>
-      <c r="E102" t="n">
-        <v>-99999</v>
-      </c>
       <c r="F102" t="n">
         <v>-99999</v>
       </c>
@@ -4529,7 +4533,7 @@
         <v>-99999</v>
       </c>
       <c r="K102" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L102" t="n">
         <v>3</v>
@@ -4538,20 +4542,20 @@
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>HC2312-2401</t>
+          <t>M2401-2403</t>
         </is>
       </c>
       <c r="B103" t="n">
         <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="E103" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="F103" t="n">
         <v>-99999</v>
@@ -4569,7 +4573,7 @@
         <v>-99999</v>
       </c>
       <c r="K103" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L103" t="n">
         <v>3</v>
@@ -4578,17 +4582,17 @@
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>HC2401-2402</t>
+          <t>M2403-2405</t>
         </is>
       </c>
       <c r="B104" t="n">
         <v>0</v>
       </c>
       <c r="C104" t="n">
-        <v>-20</v>
+        <v>-50</v>
       </c>
       <c r="D104" t="n">
-        <v>-99999</v>
+        <v>-100</v>
       </c>
       <c r="E104" t="n">
         <v>-99999</v>
@@ -4609,7 +4613,7 @@
         <v>-99999</v>
       </c>
       <c r="K104" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="L104" t="n">
         <v>3</v>
@@ -4618,23 +4622,23 @@
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>HC2402-2403</t>
+          <t>M2405-2407</t>
         </is>
       </c>
       <c r="B105" t="n">
         <v>0</v>
       </c>
       <c r="C105" t="n">
-        <v>-99999</v>
+        <v>2</v>
       </c>
       <c r="D105" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="E105" t="n">
-        <v>-99999</v>
+        <v>-25</v>
       </c>
       <c r="F105" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="G105" t="n">
         <v>-99999</v>
@@ -4649,7 +4653,7 @@
         <v>-99999</v>
       </c>
       <c r="K105" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L105" t="n">
         <v>3</v>
@@ -4658,38 +4662,38 @@
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>HC2403-2404</t>
+          <t>MA2309-2310</t>
         </is>
       </c>
       <c r="B106" t="n">
         <v>0</v>
       </c>
       <c r="C106" t="n">
-        <v>-99999</v>
+        <v>-35</v>
       </c>
       <c r="D106" t="n">
-        <v>-99999</v>
+        <v>-40</v>
       </c>
       <c r="E106" t="n">
-        <v>-99999</v>
+        <v>-45</v>
       </c>
       <c r="F106" t="n">
-        <v>-99999</v>
+        <v>-50</v>
       </c>
       <c r="G106" t="n">
-        <v>-99999</v>
+        <v>-55</v>
       </c>
       <c r="H106" t="n">
-        <v>-99999</v>
+        <v>-60</v>
       </c>
       <c r="I106" t="n">
-        <v>-99999</v>
+        <v>-60</v>
       </c>
       <c r="J106" t="n">
         <v>-99999</v>
       </c>
       <c r="K106" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L106" t="n">
         <v>3</v>
@@ -4698,20 +4702,20 @@
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>I2307-2308</t>
+          <t>MA2310-2311</t>
         </is>
       </c>
       <c r="B107" t="n">
         <v>0</v>
       </c>
       <c r="C107" t="n">
-        <v>4</v>
+        <v>-30</v>
       </c>
       <c r="D107" t="n">
-        <v>-1</v>
+        <v>-35</v>
       </c>
       <c r="E107" t="n">
-        <v>-99999</v>
+        <v>-50</v>
       </c>
       <c r="F107" t="n">
         <v>-99999</v>
@@ -4729,26 +4733,26 @@
         <v>-99999</v>
       </c>
       <c r="K107" t="n">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="L107" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>I2308-2309</t>
+          <t>MA2311-2312</t>
         </is>
       </c>
       <c r="B108" t="n">
         <v>0</v>
       </c>
       <c r="C108" t="n">
-        <v>4.5</v>
+        <v>-45</v>
       </c>
       <c r="D108" t="n">
-        <v>-1</v>
+        <v>-50</v>
       </c>
       <c r="E108" t="n">
         <v>-99999</v>
@@ -4769,7 +4773,7 @@
         <v>-99999</v>
       </c>
       <c r="K108" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="L108" t="n">
         <v>1</v>
@@ -4778,20 +4782,20 @@
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>I2309-2310</t>
+          <t>MA2312-2401</t>
         </is>
       </c>
       <c r="B109" t="n">
         <v>0</v>
       </c>
       <c r="C109" t="n">
-        <v>-99999</v>
+        <v>-5</v>
       </c>
       <c r="D109" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="E109" t="n">
-        <v>-99999</v>
+        <v>-25</v>
       </c>
       <c r="F109" t="n">
         <v>-99999</v>
@@ -4809,26 +4813,26 @@
         <v>-99999</v>
       </c>
       <c r="K109" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L109" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>I2310-2311</t>
+          <t>NR2309-2310</t>
         </is>
       </c>
       <c r="B110" t="n">
         <v>0</v>
       </c>
       <c r="C110" t="n">
-        <v>3</v>
+        <v>-30</v>
       </c>
       <c r="D110" t="n">
-        <v>2</v>
+        <v>-40</v>
       </c>
       <c r="E110" t="n">
         <v>-99999</v>
@@ -4849,26 +4853,26 @@
         <v>-99999</v>
       </c>
       <c r="K110" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L110" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>I2311-2312</t>
+          <t>NR2310-2311</t>
         </is>
       </c>
       <c r="B111" t="n">
         <v>0</v>
       </c>
       <c r="C111" t="n">
-        <v>3</v>
+        <v>-50</v>
       </c>
       <c r="D111" t="n">
-        <v>2</v>
+        <v>-80</v>
       </c>
       <c r="E111" t="n">
         <v>-99999</v>
@@ -4889,26 +4893,26 @@
         <v>-99999</v>
       </c>
       <c r="K111" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L111" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>I2312-2401</t>
+          <t>NR2311-2312</t>
         </is>
       </c>
       <c r="B112" t="n">
         <v>0</v>
       </c>
       <c r="C112" t="n">
-        <v>3.5</v>
+        <v>-60</v>
       </c>
       <c r="D112" t="n">
-        <v>2</v>
+        <v>-90</v>
       </c>
       <c r="E112" t="n">
         <v>-99999</v>
@@ -4929,26 +4933,26 @@
         <v>-99999</v>
       </c>
       <c r="K112" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L112" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>I2401-2402</t>
+          <t>NR2312-2401</t>
         </is>
       </c>
       <c r="B113" t="n">
         <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>-70</v>
       </c>
       <c r="D113" t="n">
-        <v>-3</v>
+        <v>-100</v>
       </c>
       <c r="E113" t="n">
         <v>-99999</v>
@@ -4969,32 +4973,32 @@
         <v>-99999</v>
       </c>
       <c r="K113" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L113" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>I2402-2403</t>
+          <t>OI2309-2311</t>
         </is>
       </c>
       <c r="B114" t="n">
         <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="D114" t="n">
-        <v>-3</v>
+        <v>-40</v>
       </c>
       <c r="E114" t="n">
-        <v>-99999</v>
+        <v>-60</v>
       </c>
       <c r="F114" t="n">
-        <v>-99999</v>
+        <v>-80</v>
       </c>
       <c r="G114" t="n">
         <v>-99999</v>
@@ -5009,7 +5013,7 @@
         <v>-99999</v>
       </c>
       <c r="K114" t="n">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="L114" t="n">
         <v>3</v>
@@ -5018,17 +5022,17 @@
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>I2403-2404</t>
+          <t>OI2311-2401</t>
         </is>
       </c>
       <c r="B115" t="n">
         <v>0</v>
       </c>
       <c r="C115" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="D115" t="n">
-        <v>-3</v>
+        <v>-99999</v>
       </c>
       <c r="E115" t="n">
         <v>-99999</v>
@@ -5049,7 +5053,7 @@
         <v>-99999</v>
       </c>
       <c r="K115" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L115" t="n">
         <v>3</v>
@@ -5058,7 +5062,7 @@
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>IC2306-2309</t>
+          <t>OI2401-2311</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -5089,26 +5093,26 @@
         <v>-99999</v>
       </c>
       <c r="K116" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>IC2309-2312</t>
+          <t>OI2401-2403</t>
         </is>
       </c>
       <c r="B117" t="n">
         <v>0</v>
       </c>
       <c r="C117" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="D117" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="E117" t="n">
         <v>-99999</v>
@@ -5129,23 +5133,23 @@
         <v>-99999</v>
       </c>
       <c r="K117" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>IF2306-2309</t>
+          <t>OI2403-2401</t>
         </is>
       </c>
       <c r="B118" t="n">
         <v>0</v>
       </c>
       <c r="C118" t="n">
-        <v>-99999</v>
+        <v>-400</v>
       </c>
       <c r="D118" t="n">
         <v>-99999</v>
@@ -5169,26 +5173,26 @@
         <v>-99999</v>
       </c>
       <c r="K118" t="n">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="L118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>IF2308-2309</t>
+          <t>OI2403-2405</t>
         </is>
       </c>
       <c r="B119" t="n">
         <v>0</v>
       </c>
       <c r="C119" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="D119" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="E119" t="n">
         <v>-99999</v>
@@ -5209,35 +5213,35 @@
         <v>-99999</v>
       </c>
       <c r="K119" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>IF2309-2312</t>
+          <t>PB2309-2310</t>
         </is>
       </c>
       <c r="B120" t="n">
         <v>0</v>
       </c>
       <c r="C120" t="n">
-        <v>-14.2</v>
+        <v>-52</v>
       </c>
       <c r="D120" t="n">
-        <v>-16.2</v>
+        <v>-99999</v>
       </c>
       <c r="E120" t="n">
-        <v>-16.8</v>
+        <v>-99999</v>
       </c>
       <c r="F120" t="n">
-        <v>-18.4</v>
+        <v>-99999</v>
       </c>
       <c r="G120" t="n">
-        <v>-20.4</v>
+        <v>-99999</v>
       </c>
       <c r="H120" t="n">
         <v>-99999</v>
@@ -5249,7 +5253,7 @@
         <v>-99999</v>
       </c>
       <c r="K120" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="L120" t="n">
         <v>1</v>
@@ -5258,14 +5262,14 @@
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>IH2307-2309</t>
+          <t>PB2310-2311</t>
         </is>
       </c>
       <c r="B121" t="n">
         <v>0</v>
       </c>
       <c r="C121" t="n">
-        <v>-99999</v>
+        <v>-25</v>
       </c>
       <c r="D121" t="n">
         <v>-99999</v>
@@ -5289,29 +5293,29 @@
         <v>-99999</v>
       </c>
       <c r="K121" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="L121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>IH2309-2312</t>
+          <t>PB2402-2403</t>
         </is>
       </c>
       <c r="B122" t="n">
         <v>0</v>
       </c>
       <c r="C122" t="n">
-        <v>-16.4</v>
+        <v>-55</v>
       </c>
       <c r="D122" t="n">
-        <v>-18.4</v>
+        <v>-99999</v>
       </c>
       <c r="E122" t="n">
-        <v>-20.4</v>
+        <v>-99999</v>
       </c>
       <c r="F122" t="n">
         <v>-99999</v>
@@ -5338,14 +5342,14 @@
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>IM2309-2312</t>
+          <t>PB2403-2404</t>
         </is>
       </c>
       <c r="B123" t="n">
         <v>0</v>
       </c>
       <c r="C123" t="n">
-        <v>-99999</v>
+        <v>-55</v>
       </c>
       <c r="D123" t="n">
         <v>-99999</v>
@@ -5378,14 +5382,14 @@
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>JD2403-2404</t>
+          <t>PF2309-2310</t>
         </is>
       </c>
       <c r="B124" t="n">
         <v>0</v>
       </c>
       <c r="C124" t="n">
-        <v>-190</v>
+        <v>-52</v>
       </c>
       <c r="D124" t="n">
         <v>-99999</v>
@@ -5418,29 +5422,29 @@
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>L2307-2308</t>
+          <t>PF2310-2311</t>
         </is>
       </c>
       <c r="B125" t="n">
         <v>0</v>
       </c>
       <c r="C125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D125" t="n">
-        <v>-5</v>
+        <v>-99999</v>
       </c>
       <c r="E125" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="F125" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="G125" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="H125" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="I125" t="n">
         <v>-99999</v>
@@ -5449,7 +5453,7 @@
         <v>-99999</v>
       </c>
       <c r="K125" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="L125" t="n">
         <v>3</v>
@@ -5458,29 +5462,29 @@
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>L2308-2309</t>
+          <t>PF2311-2312</t>
         </is>
       </c>
       <c r="B126" t="n">
         <v>0</v>
       </c>
       <c r="C126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D126" t="n">
-        <v>-5</v>
+        <v>-20</v>
       </c>
       <c r="E126" t="n">
-        <v>-10</v>
+        <v>-40</v>
       </c>
       <c r="F126" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="G126" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="H126" t="n">
-        <v>-40</v>
+        <v>-99999</v>
       </c>
       <c r="I126" t="n">
         <v>-99999</v>
@@ -5489,7 +5493,7 @@
         <v>-99999</v>
       </c>
       <c r="K126" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="L126" t="n">
         <v>3</v>
@@ -5498,29 +5502,29 @@
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>L2309-2310</t>
+          <t>PF2312-2401</t>
         </is>
       </c>
       <c r="B127" t="n">
         <v>0</v>
       </c>
       <c r="C127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D127" t="n">
-        <v>-5</v>
+        <v>-99999</v>
       </c>
       <c r="E127" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="F127" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="G127" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="H127" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="I127" t="n">
         <v>-99999</v>
@@ -5529,7 +5533,7 @@
         <v>-99999</v>
       </c>
       <c r="K127" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="L127" t="n">
         <v>3</v>
@@ -5538,23 +5542,23 @@
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>L2310-2311</t>
+          <t>PG2307-2308</t>
         </is>
       </c>
       <c r="B128" t="n">
         <v>0</v>
       </c>
       <c r="C128" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="D128" t="n">
-        <v>-5</v>
+        <v>-99999</v>
       </c>
       <c r="E128" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="F128" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="G128" t="n">
         <v>-99999</v>
@@ -5569,32 +5573,32 @@
         <v>-99999</v>
       </c>
       <c r="K128" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>L2311-2312</t>
+          <t>PG2308-2309</t>
         </is>
       </c>
       <c r="B129" t="n">
         <v>0</v>
       </c>
       <c r="C129" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="D129" t="n">
-        <v>-5</v>
+        <v>-99999</v>
       </c>
       <c r="E129" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="F129" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="G129" t="n">
         <v>-99999</v>
@@ -5609,32 +5613,32 @@
         <v>-99999</v>
       </c>
       <c r="K129" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="L129" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>L2312-2401</t>
+          <t>PG2309-2308</t>
         </is>
       </c>
       <c r="B130" t="n">
         <v>0</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="D130" t="n">
-        <v>-5</v>
+        <v>-99999</v>
       </c>
       <c r="E130" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="F130" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="G130" t="n">
         <v>-99999</v>
@@ -5649,32 +5653,32 @@
         <v>-99999</v>
       </c>
       <c r="K130" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>L2402-2403</t>
+          <t>PP2309-2310</t>
         </is>
       </c>
       <c r="B131" t="n">
         <v>0</v>
       </c>
       <c r="C131" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="D131" t="n">
-        <v>-5</v>
+        <v>-15</v>
       </c>
       <c r="E131" t="n">
-        <v>-10</v>
+        <v>-20</v>
       </c>
       <c r="F131" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="G131" t="n">
         <v>-99999</v>
@@ -5689,35 +5693,35 @@
         <v>-99999</v>
       </c>
       <c r="K131" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="L131" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>LU2307-2306</t>
+          <t>PP2310-2311</t>
         </is>
       </c>
       <c r="B132" t="n">
         <v>0</v>
       </c>
       <c r="C132" t="n">
-        <v>-99999</v>
+        <v>2</v>
       </c>
       <c r="D132" t="n">
-        <v>-99999</v>
+        <v>-5</v>
       </c>
       <c r="E132" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="F132" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="G132" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="H132" t="n">
         <v>-99999</v>
@@ -5729,7 +5733,7 @@
         <v>-99999</v>
       </c>
       <c r="K132" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="L132" t="n">
         <v>3</v>
@@ -5738,27 +5742,27 @@
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>LU2309-2310</t>
+          <t>PP2311-2312</t>
         </is>
       </c>
       <c r="B133" t="n">
         <v>0</v>
       </c>
       <c r="C133" t="n">
+        <v>2</v>
+      </c>
+      <c r="D133" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E133" t="n">
+        <v>-10</v>
+      </c>
+      <c r="F133" t="n">
+        <v>-15</v>
+      </c>
+      <c r="G133" t="n">
         <v>-20</v>
       </c>
-      <c r="D133" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E133" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="F133" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-99999</v>
-      </c>
       <c r="H133" t="n">
         <v>-99999</v>
       </c>
@@ -5769,7 +5773,7 @@
         <v>-99999</v>
       </c>
       <c r="K133" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="L133" t="n">
         <v>3</v>
@@ -5778,14 +5782,14 @@
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>M2308-2309</t>
+          <t>PP2312-2401</t>
         </is>
       </c>
       <c r="B134" t="n">
         <v>0</v>
       </c>
       <c r="C134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D134" t="n">
         <v>-5</v>
@@ -5794,11 +5798,11 @@
         <v>-10</v>
       </c>
       <c r="F134" t="n">
+        <v>-15</v>
+      </c>
+      <c r="G134" t="n">
         <v>-20</v>
       </c>
-      <c r="G134" t="n">
-        <v>-30</v>
-      </c>
       <c r="H134" t="n">
         <v>-99999</v>
       </c>
@@ -5809,7 +5813,7 @@
         <v>-99999</v>
       </c>
       <c r="K134" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="L134" t="n">
         <v>3</v>
@@ -5818,26 +5822,26 @@
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>M2309-2311</t>
+          <t>PP2401-2402</t>
         </is>
       </c>
       <c r="B135" t="n">
         <v>0</v>
       </c>
       <c r="C135" t="n">
-        <v>-99999</v>
+        <v>2</v>
       </c>
       <c r="D135" t="n">
-        <v>-99999</v>
+        <v>-5</v>
       </c>
       <c r="E135" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="F135" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="G135" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="H135" t="n">
         <v>-99999</v>
@@ -5849,7 +5853,7 @@
         <v>-99999</v>
       </c>
       <c r="K135" t="n">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="L135" t="n">
         <v>3</v>
@@ -5858,17 +5862,17 @@
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>M2311-2312</t>
+          <t>PP2402-2403</t>
         </is>
       </c>
       <c r="B136" t="n">
         <v>0</v>
       </c>
       <c r="C136" t="n">
-        <v>-40</v>
+        <v>-5</v>
       </c>
       <c r="D136" t="n">
-        <v>-50</v>
+        <v>-99999</v>
       </c>
       <c r="E136" t="n">
         <v>-99999</v>
@@ -5889,29 +5893,29 @@
         <v>-99999</v>
       </c>
       <c r="K136" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L136" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>M2312-2401</t>
+          <t>PP2405-2406</t>
         </is>
       </c>
       <c r="B137" t="n">
         <v>0</v>
       </c>
       <c r="C137" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="D137" t="n">
-        <v>-5</v>
+        <v>-15</v>
       </c>
       <c r="E137" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="F137" t="n">
         <v>-99999</v>
@@ -5929,7 +5933,7 @@
         <v>-99999</v>
       </c>
       <c r="K137" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="L137" t="n">
         <v>3</v>
@@ -5938,7 +5942,7 @@
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>M2401-2403</t>
+          <t>RB2307-2308</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -5948,13 +5952,13 @@
         <v>0</v>
       </c>
       <c r="D138" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E138" t="n">
         <v>-10</v>
       </c>
-      <c r="E138" t="n">
-        <v>-20</v>
-      </c>
       <c r="F138" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="G138" t="n">
         <v>-99999</v>
@@ -5969,7 +5973,7 @@
         <v>-99999</v>
       </c>
       <c r="K138" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L138" t="n">
         <v>3</v>
@@ -5978,7 +5982,7 @@
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>M2403-2405</t>
+          <t>RB2308-2309</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -5988,10 +5992,10 @@
         <v>0</v>
       </c>
       <c r="D139" t="n">
-        <v>-10</v>
+        <v>-20</v>
       </c>
       <c r="E139" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="F139" t="n">
         <v>-99999</v>
@@ -6009,7 +6013,7 @@
         <v>-99999</v>
       </c>
       <c r="K139" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="L139" t="n">
         <v>3</v>
@@ -6018,23 +6022,23 @@
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>M2405-2407</t>
+          <t>RB2309-2310</t>
         </is>
       </c>
       <c r="B140" t="n">
         <v>0</v>
       </c>
       <c r="C140" t="n">
-        <v>2</v>
+        <v>-100</v>
       </c>
       <c r="D140" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="E140" t="n">
-        <v>-25</v>
+        <v>-99999</v>
       </c>
       <c r="F140" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="G140" t="n">
         <v>-99999</v>
@@ -6049,7 +6053,7 @@
         <v>-99999</v>
       </c>
       <c r="K140" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="L140" t="n">
         <v>3</v>
@@ -6058,20 +6062,20 @@
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>MA2308-2309</t>
+          <t>RB2310-2311</t>
         </is>
       </c>
       <c r="B141" t="n">
         <v>0</v>
       </c>
       <c r="C141" t="n">
-        <v>-6</v>
+        <v>-99999</v>
       </c>
       <c r="D141" t="n">
-        <v>-6</v>
+        <v>-99999</v>
       </c>
       <c r="E141" t="n">
-        <v>-6</v>
+        <v>-99999</v>
       </c>
       <c r="F141" t="n">
         <v>-99999</v>
@@ -6089,69 +6093,69 @@
         <v>-99999</v>
       </c>
       <c r="K141" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="L141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>MA2309-2310</t>
+          <t>RB2311-2312</t>
         </is>
       </c>
       <c r="B142" t="n">
         <v>0</v>
       </c>
       <c r="C142" t="n">
-        <v>-14</v>
+        <v>-99999</v>
       </c>
       <c r="D142" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="E142" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="F142" t="n">
-        <v>-25</v>
+        <v>-99999</v>
       </c>
       <c r="G142" t="n">
-        <v>-25</v>
+        <v>-99999</v>
       </c>
       <c r="H142" t="n">
-        <v>-32</v>
+        <v>-99999</v>
       </c>
       <c r="I142" t="n">
-        <v>-40</v>
+        <v>-99999</v>
       </c>
       <c r="J142" t="n">
         <v>-99999</v>
       </c>
       <c r="K142" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L142" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>MA2310-2311</t>
+          <t>RB2312-2401</t>
         </is>
       </c>
       <c r="B143" t="n">
         <v>0</v>
       </c>
       <c r="C143" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="D143" t="n">
-        <v>-22</v>
+        <v>-99999</v>
       </c>
       <c r="E143" t="n">
-        <v>-25</v>
+        <v>-99999</v>
       </c>
       <c r="F143" t="n">
         <v>-99999</v>
@@ -6169,26 +6173,26 @@
         <v>-99999</v>
       </c>
       <c r="K143" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L143" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>MA2311-2312</t>
+          <t>RB2401-2402</t>
         </is>
       </c>
       <c r="B144" t="n">
         <v>0</v>
       </c>
       <c r="C144" t="n">
-        <v>-45</v>
+        <v>-99999</v>
       </c>
       <c r="D144" t="n">
-        <v>-50</v>
+        <v>-99999</v>
       </c>
       <c r="E144" t="n">
         <v>-99999</v>
@@ -6209,7 +6213,7 @@
         <v>-99999</v>
       </c>
       <c r="K144" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L144" t="n">
         <v>1</v>
@@ -6218,20 +6222,20 @@
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>MA2312-2401</t>
+          <t>RB2402-2403</t>
         </is>
       </c>
       <c r="B145" t="n">
         <v>0</v>
       </c>
       <c r="C145" t="n">
-        <v>-5</v>
+        <v>-99999</v>
       </c>
       <c r="D145" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="E145" t="n">
-        <v>-25</v>
+        <v>-99999</v>
       </c>
       <c r="F145" t="n">
         <v>-99999</v>
@@ -6249,16 +6253,16 @@
         <v>-99999</v>
       </c>
       <c r="K145" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L145" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>NR2307-2308</t>
+          <t>RB2403-2404</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -6289,7 +6293,7 @@
         <v>-99999</v>
       </c>
       <c r="K146" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L146" t="n">
         <v>1</v>
@@ -6298,17 +6302,17 @@
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>NR2309-2310</t>
+          <t>RM2307-2308</t>
         </is>
       </c>
       <c r="B147" t="n">
         <v>0</v>
       </c>
       <c r="C147" t="n">
-        <v>-30</v>
+        <v>-70</v>
       </c>
       <c r="D147" t="n">
-        <v>-40</v>
+        <v>-100</v>
       </c>
       <c r="E147" t="n">
         <v>-99999</v>
@@ -6329,35 +6333,35 @@
         <v>-99999</v>
       </c>
       <c r="K147" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="L147" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>NR2310-2311</t>
+          <t>RM2308-2309</t>
         </is>
       </c>
       <c r="B148" t="n">
         <v>0</v>
       </c>
       <c r="C148" t="n">
-        <v>-160</v>
+        <v>10</v>
       </c>
       <c r="D148" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>-99999</v>
+        <v>-5</v>
       </c>
       <c r="F148" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="G148" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="H148" t="n">
         <v>-99999</v>
@@ -6369,35 +6373,35 @@
         <v>-99999</v>
       </c>
       <c r="K148" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L148" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>NR2311-2312</t>
+          <t>RM2309-2311</t>
         </is>
       </c>
       <c r="B149" t="n">
         <v>0</v>
       </c>
       <c r="C149" t="n">
-        <v>-100</v>
+        <v>10</v>
       </c>
       <c r="D149" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>-99999</v>
+        <v>-5</v>
       </c>
       <c r="F149" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="G149" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="H149" t="n">
         <v>-99999</v>
@@ -6409,29 +6413,29 @@
         <v>-99999</v>
       </c>
       <c r="K149" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L149" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>NR2312-2401</t>
+          <t>RM2401-2403</t>
         </is>
       </c>
       <c r="B150" t="n">
         <v>0</v>
       </c>
       <c r="C150" t="n">
-        <v>-70</v>
+        <v>0</v>
       </c>
       <c r="D150" t="n">
-        <v>-100</v>
+        <v>-10</v>
       </c>
       <c r="E150" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="F150" t="n">
         <v>-99999</v>
@@ -6449,29 +6453,29 @@
         <v>-99999</v>
       </c>
       <c r="K150" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L150" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>OI2307-2309</t>
+          <t>RM2405-2407</t>
         </is>
       </c>
       <c r="B151" t="n">
         <v>0</v>
       </c>
       <c r="C151" t="n">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="D151" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="E151" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="F151" t="n">
         <v>-99999</v>
@@ -6489,35 +6493,35 @@
         <v>-99999</v>
       </c>
       <c r="K151" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L151" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>OI2309-2311</t>
+          <t>RR2308-2309</t>
         </is>
       </c>
       <c r="B152" t="n">
         <v>0</v>
       </c>
       <c r="C152" t="n">
-        <v>61</v>
+        <v>-75</v>
       </c>
       <c r="D152" t="n">
-        <v>12</v>
+        <v>-80</v>
       </c>
       <c r="E152" t="n">
-        <v>1</v>
+        <v>-99999</v>
       </c>
       <c r="F152" t="n">
-        <v>-8</v>
+        <v>-99999</v>
       </c>
       <c r="G152" t="n">
-        <v>-50</v>
+        <v>-99999</v>
       </c>
       <c r="H152" t="n">
         <v>-99999</v>
@@ -6532,20 +6536,20 @@
         <v>50</v>
       </c>
       <c r="L152" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>OI2311-2401</t>
+          <t>RR2309-2310</t>
         </is>
       </c>
       <c r="B153" t="n">
         <v>0</v>
       </c>
       <c r="C153" t="n">
-        <v>-99999</v>
+        <v>-72</v>
       </c>
       <c r="D153" t="n">
         <v>-99999</v>
@@ -6578,20 +6582,20 @@
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>OI2401-2311</t>
+          <t>RR2312-2401</t>
         </is>
       </c>
       <c r="B154" t="n">
         <v>0</v>
       </c>
       <c r="C154" t="n">
-        <v>-205</v>
+        <v>-60</v>
       </c>
       <c r="D154" t="n">
-        <v>-99999</v>
+        <v>-65</v>
       </c>
       <c r="E154" t="n">
-        <v>-99999</v>
+        <v>-70</v>
       </c>
       <c r="F154" t="n">
         <v>-99999</v>
@@ -6609,26 +6613,26 @@
         <v>-99999</v>
       </c>
       <c r="K154" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="L154" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>PB2309-2310</t>
+          <t>RU2307-2308</t>
         </is>
       </c>
       <c r="B155" t="n">
         <v>0</v>
       </c>
       <c r="C155" t="n">
-        <v>-99999</v>
+        <v>-100</v>
       </c>
       <c r="D155" t="n">
-        <v>-99999</v>
+        <v>-100</v>
       </c>
       <c r="E155" t="n">
         <v>-99999</v>
@@ -6649,7 +6653,7 @@
         <v>-99999</v>
       </c>
       <c r="K155" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="L155" t="n">
         <v>1</v>
@@ -6658,14 +6662,14 @@
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>PB2402-2403</t>
+          <t>RU2308-2309</t>
         </is>
       </c>
       <c r="B156" t="n">
         <v>0</v>
       </c>
       <c r="C156" t="n">
-        <v>-70</v>
+        <v>-75</v>
       </c>
       <c r="D156" t="n">
         <v>-99999</v>
@@ -6689,7 +6693,7 @@
         <v>-99999</v>
       </c>
       <c r="K156" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L156" t="n">
         <v>1</v>
@@ -6698,17 +6702,17 @@
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>PB2403-2404</t>
+          <t>RU2309-2310</t>
         </is>
       </c>
       <c r="B157" t="n">
         <v>0</v>
       </c>
       <c r="C157" t="n">
-        <v>-99999</v>
+        <v>-60</v>
       </c>
       <c r="D157" t="n">
-        <v>-99999</v>
+        <v>-110</v>
       </c>
       <c r="E157" t="n">
         <v>-99999</v>
@@ -6729,7 +6733,7 @@
         <v>-99999</v>
       </c>
       <c r="K157" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="L157" t="n">
         <v>1</v>
@@ -6738,7 +6742,7 @@
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>PF2307-2308</t>
+          <t>RU2310-2311</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -6748,10 +6752,10 @@
         <v>0</v>
       </c>
       <c r="D158" t="n">
-        <v>-10</v>
+        <v>-70</v>
       </c>
       <c r="E158" t="n">
-        <v>-20</v>
+        <v>-80</v>
       </c>
       <c r="F158" t="n">
         <v>-99999</v>
@@ -6769,23 +6773,23 @@
         <v>-99999</v>
       </c>
       <c r="K158" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="L158" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>PF2308-2309</t>
+          <t>RU2311-2401</t>
         </is>
       </c>
       <c r="B159" t="n">
         <v>0</v>
       </c>
       <c r="C159" t="n">
-        <v>0</v>
+        <v>-1800</v>
       </c>
       <c r="D159" t="n">
         <v>-99999</v>
@@ -6809,26 +6813,26 @@
         <v>-99999</v>
       </c>
       <c r="K159" t="n">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="L159" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>PF2309-2310</t>
+          <t>RU2401-2403</t>
         </is>
       </c>
       <c r="B160" t="n">
         <v>0</v>
       </c>
       <c r="C160" t="n">
-        <v>-99999</v>
+        <v>-100</v>
       </c>
       <c r="D160" t="n">
-        <v>-99999</v>
+        <v>-120</v>
       </c>
       <c r="E160" t="n">
         <v>-99999</v>
@@ -6849,29 +6853,29 @@
         <v>-99999</v>
       </c>
       <c r="K160" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L160" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>PF2310-2311</t>
+          <t>RU2403-2404</t>
         </is>
       </c>
       <c r="B161" t="n">
         <v>0</v>
       </c>
       <c r="C161" t="n">
-        <v>-99999</v>
+        <v>-60</v>
       </c>
       <c r="D161" t="n">
-        <v>-99999</v>
+        <v>-70</v>
       </c>
       <c r="E161" t="n">
-        <v>-99999</v>
+        <v>-80</v>
       </c>
       <c r="F161" t="n">
         <v>-99999</v>
@@ -6889,23 +6893,23 @@
         <v>-99999</v>
       </c>
       <c r="K161" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="L161" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>PF2311-2312</t>
+          <t>SA2308-2309</t>
         </is>
       </c>
       <c r="B162" t="n">
         <v>0</v>
       </c>
       <c r="C162" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="D162" t="n">
         <v>-99999</v>
@@ -6929,23 +6933,23 @@
         <v>-99999</v>
       </c>
       <c r="K162" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L162" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>PF2312-2401</t>
+          <t>SA2310-2311</t>
         </is>
       </c>
       <c r="B163" t="n">
         <v>0</v>
       </c>
       <c r="C163" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="D163" t="n">
         <v>-99999</v>
@@ -6969,26 +6973,26 @@
         <v>-99999</v>
       </c>
       <c r="K163" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L163" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>PG2307-2308</t>
+          <t>SA2311-2312</t>
         </is>
       </c>
       <c r="B164" t="n">
         <v>0</v>
       </c>
       <c r="C164" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="D164" t="n">
-        <v>-99999</v>
+        <v>-3</v>
       </c>
       <c r="E164" t="n">
         <v>-99999</v>
@@ -7009,23 +7013,23 @@
         <v>-99999</v>
       </c>
       <c r="K164" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="L164" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>PG2308-2309</t>
+          <t>SA2312-2401</t>
         </is>
       </c>
       <c r="B165" t="n">
         <v>0</v>
       </c>
       <c r="C165" t="n">
-        <v>-99999</v>
+        <v>22</v>
       </c>
       <c r="D165" t="n">
         <v>-99999</v>
@@ -7049,29 +7053,29 @@
         <v>-99999</v>
       </c>
       <c r="K165" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="L165" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>PG2309-2308</t>
+          <t>SA2401-2402</t>
         </is>
       </c>
       <c r="B166" t="n">
         <v>0</v>
       </c>
       <c r="C166" t="n">
-        <v>-99999</v>
+        <v>-25</v>
       </c>
       <c r="D166" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="E166" t="n">
-        <v>-99999</v>
+        <v>-35</v>
       </c>
       <c r="F166" t="n">
         <v>-99999</v>
@@ -7092,26 +7096,26 @@
         <v>20</v>
       </c>
       <c r="L166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>PP2307-2308</t>
+          <t>SA2402-2403</t>
         </is>
       </c>
       <c r="B167" t="n">
         <v>0</v>
       </c>
       <c r="C167" t="n">
-        <v>-8</v>
+        <v>10</v>
       </c>
       <c r="D167" t="n">
-        <v>-9</v>
+        <v>7</v>
       </c>
       <c r="E167" t="n">
-        <v>-10</v>
+        <v>5</v>
       </c>
       <c r="F167" t="n">
         <v>-99999</v>
@@ -7129,26 +7133,26 @@
         <v>-99999</v>
       </c>
       <c r="K167" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="L167" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>PP2308-2309</t>
+          <t>SA2403-2404</t>
         </is>
       </c>
       <c r="B168" t="n">
         <v>0</v>
       </c>
       <c r="C168" t="n">
-        <v>-30</v>
+        <v>-35</v>
       </c>
       <c r="D168" t="n">
-        <v>-99999</v>
+        <v>-40</v>
       </c>
       <c r="E168" t="n">
         <v>-99999</v>
@@ -7169,7 +7173,7 @@
         <v>-99999</v>
       </c>
       <c r="K168" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L168" t="n">
         <v>2</v>
@@ -7178,23 +7182,23 @@
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>PP2309-2310</t>
+          <t>SC2307-2308</t>
         </is>
       </c>
       <c r="B169" t="n">
         <v>0</v>
       </c>
       <c r="C169" t="n">
-        <v>-10</v>
+        <v>1</v>
       </c>
       <c r="D169" t="n">
-        <v>-15</v>
+        <v>-3.5</v>
       </c>
       <c r="E169" t="n">
-        <v>-20</v>
+        <v>-3.5</v>
       </c>
       <c r="F169" t="n">
-        <v>-99999</v>
+        <v>-3.5</v>
       </c>
       <c r="G169" t="n">
         <v>-99999</v>
@@ -7209,32 +7213,32 @@
         <v>-99999</v>
       </c>
       <c r="K169" t="n">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="L169" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>PP2310-2311</t>
+          <t>SC2308-2309</t>
         </is>
       </c>
       <c r="B170" t="n">
         <v>0</v>
       </c>
       <c r="C170" t="n">
-        <v>10</v>
+        <v>-99999</v>
       </c>
       <c r="D170" t="n">
-        <v>5</v>
+        <v>-99999</v>
       </c>
       <c r="E170" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="F170" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="G170" t="n">
         <v>-99999</v>
@@ -7249,32 +7253,32 @@
         <v>-99999</v>
       </c>
       <c r="K170" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="L170" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>PP2311-2312</t>
+          <t>SC2309-2308</t>
         </is>
       </c>
       <c r="B171" t="n">
         <v>0</v>
       </c>
       <c r="C171" t="n">
-        <v>10</v>
+        <v>-99999</v>
       </c>
       <c r="D171" t="n">
-        <v>5</v>
+        <v>-99999</v>
       </c>
       <c r="E171" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="F171" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="G171" t="n">
         <v>-99999</v>
@@ -7289,32 +7293,32 @@
         <v>-99999</v>
       </c>
       <c r="K171" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="L171" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>PP2312-2401</t>
+          <t>SC2309-2310</t>
         </is>
       </c>
       <c r="B172" t="n">
         <v>0</v>
       </c>
       <c r="C172" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="D172" t="n">
-        <v>-10</v>
+        <v>-1</v>
       </c>
       <c r="E172" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="F172" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="G172" t="n">
         <v>-99999</v>
@@ -7329,32 +7333,32 @@
         <v>-99999</v>
       </c>
       <c r="K172" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="L172" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>PP2401-2402</t>
+          <t>SC2310-2309</t>
         </is>
       </c>
       <c r="B173" t="n">
         <v>0</v>
       </c>
       <c r="C173" t="n">
-        <v>-5</v>
+        <v>-99999</v>
       </c>
       <c r="D173" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="E173" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="F173" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="G173" t="n">
         <v>-99999</v>
@@ -7369,23 +7373,23 @@
         <v>-99999</v>
       </c>
       <c r="K173" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="L173" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>PP2402-2403</t>
+          <t>SC2310-2311</t>
         </is>
       </c>
       <c r="B174" t="n">
         <v>0</v>
       </c>
       <c r="C174" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="D174" t="n">
         <v>-99999</v>
@@ -7409,32 +7413,32 @@
         <v>-99999</v>
       </c>
       <c r="K174" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="L174" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>RB2307-2308</t>
+          <t>SC2311-2312</t>
         </is>
       </c>
       <c r="B175" t="n">
         <v>0</v>
       </c>
       <c r="C175" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D175" t="n">
-        <v>-5</v>
+        <v>-99999</v>
       </c>
       <c r="E175" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="F175" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="G175" t="n">
         <v>-99999</v>
@@ -7449,26 +7453,26 @@
         <v>-99999</v>
       </c>
       <c r="K175" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L175" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>RB2308-2309</t>
+          <t>SN2308-2309</t>
         </is>
       </c>
       <c r="B176" t="n">
         <v>0</v>
       </c>
       <c r="C176" t="n">
-        <v>0</v>
+        <v>-320</v>
       </c>
       <c r="D176" t="n">
-        <v>-20</v>
+        <v>-320</v>
       </c>
       <c r="E176" t="n">
         <v>-99999</v>
@@ -7492,35 +7496,35 @@
         <v>25</v>
       </c>
       <c r="L176" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>RB2309-2310</t>
+          <t>SN2309-2310</t>
         </is>
       </c>
       <c r="B177" t="n">
         <v>0</v>
       </c>
       <c r="C177" t="n">
-        <v>-100</v>
+        <v>-250</v>
       </c>
       <c r="D177" t="n">
-        <v>-99999</v>
+        <v>-270</v>
       </c>
       <c r="E177" t="n">
-        <v>-99999</v>
+        <v>-300</v>
       </c>
       <c r="F177" t="n">
-        <v>-99999</v>
+        <v>-330</v>
       </c>
       <c r="G177" t="n">
-        <v>-99999</v>
+        <v>-330</v>
       </c>
       <c r="H177" t="n">
-        <v>-99999</v>
+        <v>-330</v>
       </c>
       <c r="I177" t="n">
         <v>-99999</v>
@@ -7529,38 +7533,38 @@
         <v>-99999</v>
       </c>
       <c r="K177" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="L177" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>RB2310-2311</t>
+          <t>SN2310-2311</t>
         </is>
       </c>
       <c r="B178" t="n">
         <v>0</v>
       </c>
       <c r="C178" t="n">
-        <v>-99999</v>
+        <v>-250</v>
       </c>
       <c r="D178" t="n">
-        <v>-99999</v>
+        <v>-270</v>
       </c>
       <c r="E178" t="n">
-        <v>-99999</v>
+        <v>-300</v>
       </c>
       <c r="F178" t="n">
-        <v>-99999</v>
+        <v>-330</v>
       </c>
       <c r="G178" t="n">
-        <v>-99999</v>
+        <v>-330</v>
       </c>
       <c r="H178" t="n">
-        <v>-99999</v>
+        <v>-330</v>
       </c>
       <c r="I178" t="n">
         <v>-99999</v>
@@ -7569,26 +7573,26 @@
         <v>-99999</v>
       </c>
       <c r="K178" t="n">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="L178" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>RB2311-2312</t>
+          <t>SP2307-2308</t>
         </is>
       </c>
       <c r="B179" t="n">
         <v>0</v>
       </c>
       <c r="C179" t="n">
-        <v>-99999</v>
+        <v>-40</v>
       </c>
       <c r="D179" t="n">
-        <v>-99999</v>
+        <v>-40</v>
       </c>
       <c r="E179" t="n">
         <v>-99999</v>
@@ -7609,32 +7613,32 @@
         <v>-99999</v>
       </c>
       <c r="K179" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L179" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>RB2312-2401</t>
+          <t>SP2309-2310</t>
         </is>
       </c>
       <c r="B180" t="n">
         <v>0</v>
       </c>
       <c r="C180" t="n">
-        <v>-99999</v>
+        <v>-18</v>
       </c>
       <c r="D180" t="n">
-        <v>-99999</v>
+        <v>-24</v>
       </c>
       <c r="E180" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="F180" t="n">
-        <v>-99999</v>
+        <v>-36</v>
       </c>
       <c r="G180" t="n">
         <v>-99999</v>
@@ -7649,32 +7653,32 @@
         <v>-99999</v>
       </c>
       <c r="K180" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="L180" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>RB2401-2402</t>
+          <t>SP2310-2311</t>
         </is>
       </c>
       <c r="B181" t="n">
         <v>0</v>
       </c>
       <c r="C181" t="n">
-        <v>-99999</v>
+        <v>-18</v>
       </c>
       <c r="D181" t="n">
-        <v>-99999</v>
+        <v>-24</v>
       </c>
       <c r="E181" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="F181" t="n">
-        <v>-99999</v>
+        <v>-36</v>
       </c>
       <c r="G181" t="n">
         <v>-99999</v>
@@ -7689,32 +7693,32 @@
         <v>-99999</v>
       </c>
       <c r="K181" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="L181" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>RB2402-2403</t>
+          <t>SP2311-2312</t>
         </is>
       </c>
       <c r="B182" t="n">
         <v>0</v>
       </c>
       <c r="C182" t="n">
-        <v>-99999</v>
+        <v>-18</v>
       </c>
       <c r="D182" t="n">
-        <v>-99999</v>
+        <v>-24</v>
       </c>
       <c r="E182" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="F182" t="n">
-        <v>-99999</v>
+        <v>-36</v>
       </c>
       <c r="G182" t="n">
         <v>-99999</v>
@@ -7729,32 +7733,32 @@
         <v>-99999</v>
       </c>
       <c r="K182" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="L182" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>RB2403-2404</t>
+          <t>SP2312-2401</t>
         </is>
       </c>
       <c r="B183" t="n">
         <v>0</v>
       </c>
       <c r="C183" t="n">
-        <v>-99999</v>
+        <v>-126</v>
       </c>
       <c r="D183" t="n">
-        <v>-99999</v>
+        <v>-140</v>
       </c>
       <c r="E183" t="n">
-        <v>-99999</v>
+        <v>-165</v>
       </c>
       <c r="F183" t="n">
-        <v>-99999</v>
+        <v>-175</v>
       </c>
       <c r="G183" t="n">
         <v>-99999</v>
@@ -7769,26 +7773,26 @@
         <v>-99999</v>
       </c>
       <c r="K183" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L183" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>RM2307-2308</t>
+          <t>SP2401-2402</t>
         </is>
       </c>
       <c r="B184" t="n">
         <v>0</v>
       </c>
       <c r="C184" t="n">
-        <v>-70</v>
+        <v>-24</v>
       </c>
       <c r="D184" t="n">
-        <v>-100</v>
+        <v>-99999</v>
       </c>
       <c r="E184" t="n">
         <v>-99999</v>
@@ -7809,7 +7813,7 @@
         <v>-99999</v>
       </c>
       <c r="K184" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="L184" t="n">
         <v>3</v>
@@ -7818,26 +7822,26 @@
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>RM2308-2309</t>
+          <t>SP2402-2403</t>
         </is>
       </c>
       <c r="B185" t="n">
         <v>0</v>
       </c>
       <c r="C185" t="n">
-        <v>10</v>
+        <v>-24</v>
       </c>
       <c r="D185" t="n">
-        <v>0</v>
+        <v>-32</v>
       </c>
       <c r="E185" t="n">
-        <v>-5</v>
+        <v>-99999</v>
       </c>
       <c r="F185" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="G185" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="H185" t="n">
         <v>-99999</v>
@@ -7849,7 +7853,7 @@
         <v>-99999</v>
       </c>
       <c r="K185" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L185" t="n">
         <v>3</v>
@@ -7858,26 +7862,26 @@
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>RM2309-2311</t>
+          <t>SP2403-2404</t>
         </is>
       </c>
       <c r="B186" t="n">
         <v>0</v>
       </c>
       <c r="C186" t="n">
-        <v>10</v>
+        <v>-24</v>
       </c>
       <c r="D186" t="n">
-        <v>0</v>
+        <v>-32</v>
       </c>
       <c r="E186" t="n">
-        <v>-5</v>
+        <v>-99999</v>
       </c>
       <c r="F186" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="G186" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="H186" t="n">
         <v>-99999</v>
@@ -7889,7 +7893,7 @@
         <v>-99999</v>
       </c>
       <c r="K186" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L186" t="n">
         <v>3</v>
@@ -7898,20 +7902,20 @@
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>RM2401-2403</t>
+          <t>SP2404-2405</t>
         </is>
       </c>
       <c r="B187" t="n">
         <v>0</v>
       </c>
       <c r="C187" t="n">
-        <v>0</v>
+        <v>-24</v>
       </c>
       <c r="D187" t="n">
-        <v>-10</v>
+        <v>-32</v>
       </c>
       <c r="E187" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="F187" t="n">
         <v>-99999</v>
@@ -7929,7 +7933,7 @@
         <v>-99999</v>
       </c>
       <c r="K187" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L187" t="n">
         <v>3</v>
@@ -7938,17 +7942,17 @@
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>RR2308-2309</t>
+          <t>SP2405-2406</t>
         </is>
       </c>
       <c r="B188" t="n">
         <v>0</v>
       </c>
       <c r="C188" t="n">
-        <v>-75</v>
+        <v>-24</v>
       </c>
       <c r="D188" t="n">
-        <v>-80</v>
+        <v>-32</v>
       </c>
       <c r="E188" t="n">
         <v>-99999</v>
@@ -7969,23 +7973,23 @@
         <v>-99999</v>
       </c>
       <c r="K188" t="n">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="L188" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>RR2309-2310</t>
+          <t>TA2307-2308</t>
         </is>
       </c>
       <c r="B189" t="n">
         <v>0</v>
       </c>
       <c r="C189" t="n">
-        <v>-72</v>
+        <v>-99999</v>
       </c>
       <c r="D189" t="n">
         <v>-99999</v>
@@ -8009,7 +8013,7 @@
         <v>-99999</v>
       </c>
       <c r="K189" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L189" t="n">
         <v>3</v>
@@ -8018,17 +8022,17 @@
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>RU2307-2308</t>
+          <t>TA2307-2309</t>
         </is>
       </c>
       <c r="B190" t="n">
         <v>0</v>
       </c>
       <c r="C190" t="n">
-        <v>-100</v>
+        <v>-99999</v>
       </c>
       <c r="D190" t="n">
-        <v>-100</v>
+        <v>-99999</v>
       </c>
       <c r="E190" t="n">
         <v>-99999</v>
@@ -8049,23 +8053,23 @@
         <v>-99999</v>
       </c>
       <c r="K190" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="L190" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>RU2308-2309</t>
+          <t>TA2308-2309</t>
         </is>
       </c>
       <c r="B191" t="n">
         <v>0</v>
       </c>
       <c r="C191" t="n">
-        <v>-75</v>
+        <v>-99999</v>
       </c>
       <c r="D191" t="n">
         <v>-99999</v>
@@ -8089,26 +8093,26 @@
         <v>-99999</v>
       </c>
       <c r="K191" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L191" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>RU2309-2310</t>
+          <t>TA2309-2310</t>
         </is>
       </c>
       <c r="B192" t="n">
         <v>0</v>
       </c>
       <c r="C192" t="n">
-        <v>-60</v>
+        <v>0</v>
       </c>
       <c r="D192" t="n">
-        <v>-110</v>
+        <v>-10</v>
       </c>
       <c r="E192" t="n">
         <v>-99999</v>
@@ -8129,29 +8133,29 @@
         <v>-99999</v>
       </c>
       <c r="K192" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="L192" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>RU2310-2311</t>
+          <t>TA2310-2311</t>
         </is>
       </c>
       <c r="B193" t="n">
         <v>0</v>
       </c>
       <c r="C193" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="D193" t="n">
-        <v>-70</v>
+        <v>-99999</v>
       </c>
       <c r="E193" t="n">
-        <v>-80</v>
+        <v>-99999</v>
       </c>
       <c r="F193" t="n">
         <v>-99999</v>
@@ -8172,20 +8176,20 @@
         <v>15</v>
       </c>
       <c r="L193" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>RU2311-2401</t>
+          <t>TA2311-2312</t>
         </is>
       </c>
       <c r="B194" t="n">
         <v>0</v>
       </c>
       <c r="C194" t="n">
-        <v>-1800</v>
+        <v>-99999</v>
       </c>
       <c r="D194" t="n">
         <v>-99999</v>
@@ -8209,26 +8213,26 @@
         <v>-99999</v>
       </c>
       <c r="K194" t="n">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c r="L194" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>RU2401-2403</t>
+          <t>TA2312-2401</t>
         </is>
       </c>
       <c r="B195" t="n">
         <v>0</v>
       </c>
       <c r="C195" t="n">
-        <v>-100</v>
+        <v>-20</v>
       </c>
       <c r="D195" t="n">
-        <v>-120</v>
+        <v>-15</v>
       </c>
       <c r="E195" t="n">
         <v>-99999</v>
@@ -8249,29 +8253,29 @@
         <v>-99999</v>
       </c>
       <c r="K195" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L195" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>RU2403-2404</t>
+          <t>TA2401-2402</t>
         </is>
       </c>
       <c r="B196" t="n">
         <v>0</v>
       </c>
       <c r="C196" t="n">
-        <v>-60</v>
+        <v>-15</v>
       </c>
       <c r="D196" t="n">
-        <v>-70</v>
+        <v>-20</v>
       </c>
       <c r="E196" t="n">
-        <v>-80</v>
+        <v>-99999</v>
       </c>
       <c r="F196" t="n">
         <v>-99999</v>
@@ -8289,23 +8293,23 @@
         <v>-99999</v>
       </c>
       <c r="K196" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L196" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>SA2308-2309</t>
+          <t>TA2402-2403</t>
         </is>
       </c>
       <c r="B197" t="n">
         <v>0</v>
       </c>
       <c r="C197" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="D197" t="n">
         <v>-99999</v>
@@ -8329,26 +8333,26 @@
         <v>-99999</v>
       </c>
       <c r="K197" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L197" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>SA2310-2311</t>
+          <t>TA2403-2404</t>
         </is>
       </c>
       <c r="B198" t="n">
         <v>0</v>
       </c>
       <c r="C198" t="n">
-        <v>0</v>
+        <v>-28</v>
       </c>
       <c r="D198" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="E198" t="n">
         <v>-99999</v>
@@ -8369,26 +8373,26 @@
         <v>-99999</v>
       </c>
       <c r="K198" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L198" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>SA2311-2312</t>
+          <t>UR2310-2311</t>
         </is>
       </c>
       <c r="B199" t="n">
         <v>0</v>
       </c>
       <c r="C199" t="n">
-        <v>0</v>
+        <v>-35</v>
       </c>
       <c r="D199" t="n">
-        <v>-3</v>
+        <v>-45</v>
       </c>
       <c r="E199" t="n">
         <v>-99999</v>
@@ -8409,7 +8413,7 @@
         <v>-99999</v>
       </c>
       <c r="K199" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="L199" t="n">
         <v>3</v>
@@ -8418,17 +8422,17 @@
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>SA2312-2401</t>
+          <t>UR2311-2312</t>
         </is>
       </c>
       <c r="B200" t="n">
         <v>0</v>
       </c>
       <c r="C200" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D200" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="E200" t="n">
         <v>-99999</v>
@@ -8449,29 +8453,29 @@
         <v>-99999</v>
       </c>
       <c r="K200" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L200" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>SA2401-2402</t>
+          <t>UR2312-2401</t>
         </is>
       </c>
       <c r="B201" t="n">
         <v>0</v>
       </c>
       <c r="C201" t="n">
-        <v>-25</v>
+        <v>5</v>
       </c>
       <c r="D201" t="n">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="E201" t="n">
-        <v>-35</v>
+        <v>-99999</v>
       </c>
       <c r="F201" t="n">
         <v>-99999</v>
@@ -8489,29 +8493,29 @@
         <v>-99999</v>
       </c>
       <c r="K201" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L201" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>SA2402-2403</t>
+          <t>UR2401-2402</t>
         </is>
       </c>
       <c r="B202" t="n">
         <v>0</v>
       </c>
       <c r="C202" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D202" t="n">
-        <v>18</v>
+        <v>-99999</v>
       </c>
       <c r="E202" t="n">
-        <v>4</v>
+        <v>-99999</v>
       </c>
       <c r="F202" t="n">
         <v>-99999</v>
@@ -8529,26 +8533,26 @@
         <v>-99999</v>
       </c>
       <c r="K202" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="L202" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>SA2403-2404</t>
+          <t>UR2402-2403</t>
         </is>
       </c>
       <c r="B203" t="n">
         <v>0</v>
       </c>
       <c r="C203" t="n">
-        <v>-35</v>
+        <v>-50</v>
       </c>
       <c r="D203" t="n">
-        <v>-40</v>
+        <v>-99999</v>
       </c>
       <c r="E203" t="n">
         <v>-99999</v>
@@ -8569,32 +8573,32 @@
         <v>-99999</v>
       </c>
       <c r="K203" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="L203" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>SC2307-2308</t>
+          <t>UR2403-2404</t>
         </is>
       </c>
       <c r="B204" t="n">
         <v>0</v>
       </c>
       <c r="C204" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D204" t="n">
-        <v>-3.5</v>
+        <v>0</v>
       </c>
       <c r="E204" t="n">
-        <v>-3.5</v>
+        <v>-99999</v>
       </c>
       <c r="F204" t="n">
-        <v>-3.5</v>
+        <v>-99999</v>
       </c>
       <c r="G204" t="n">
         <v>-99999</v>
@@ -8609,29 +8613,29 @@
         <v>-99999</v>
       </c>
       <c r="K204" t="n">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="L204" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>SC2308-2309</t>
+          <t>UR2404-2405</t>
         </is>
       </c>
       <c r="B205" t="n">
         <v>0</v>
       </c>
       <c r="C205" t="n">
-        <v>-99999</v>
+        <v>5</v>
       </c>
       <c r="D205" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="E205" t="n">
-        <v>-99999</v>
+        <v>-5</v>
       </c>
       <c r="F205" t="n">
         <v>-99999</v>
@@ -8649,16 +8653,16 @@
         <v>-99999</v>
       </c>
       <c r="K205" t="n">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="L205" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>SC2309-2308</t>
+          <t>V2308-2309</t>
         </is>
       </c>
       <c r="B206" t="n">
@@ -8689,35 +8693,35 @@
         <v>-99999</v>
       </c>
       <c r="K206" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L206" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>SC2309-2310</t>
+          <t>V2309-2310</t>
         </is>
       </c>
       <c r="B207" t="n">
         <v>0</v>
       </c>
       <c r="C207" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="D207" t="n">
-        <v>-0.5</v>
+        <v>-15</v>
       </c>
       <c r="E207" t="n">
-        <v>-1</v>
+        <v>-20</v>
       </c>
       <c r="F207" t="n">
-        <v>-1.5</v>
+        <v>-25</v>
       </c>
       <c r="G207" t="n">
-        <v>-99999</v>
+        <v>-28</v>
       </c>
       <c r="H207" t="n">
         <v>-99999</v>
@@ -8729,38 +8733,38 @@
         <v>-99999</v>
       </c>
       <c r="K207" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L207" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>SC2310-2309</t>
+          <t>V2310-2311</t>
         </is>
       </c>
       <c r="B208" t="n">
         <v>0</v>
       </c>
       <c r="C208" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="D208" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="E208" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="F208" t="n">
-        <v>-99999</v>
+        <v>-25</v>
       </c>
       <c r="G208" t="n">
-        <v>-99999</v>
+        <v>-28</v>
       </c>
       <c r="H208" t="n">
-        <v>-99999</v>
+        <v>-38</v>
       </c>
       <c r="I208" t="n">
         <v>-99999</v>
@@ -8769,38 +8773,38 @@
         <v>-99999</v>
       </c>
       <c r="K208" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L208" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>SC2310-2311</t>
+          <t>V2311-2312</t>
         </is>
       </c>
       <c r="B209" t="n">
         <v>0</v>
       </c>
       <c r="C209" t="n">
-        <v>-1</v>
+        <v>-10</v>
       </c>
       <c r="D209" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="E209" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="F209" t="n">
-        <v>-99999</v>
+        <v>-25</v>
       </c>
       <c r="G209" t="n">
-        <v>-99999</v>
+        <v>-28</v>
       </c>
       <c r="H209" t="n">
-        <v>-99999</v>
+        <v>-38</v>
       </c>
       <c r="I209" t="n">
         <v>-99999</v>
@@ -8812,35 +8816,35 @@
         <v>30</v>
       </c>
       <c r="L209" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>SC2311-2312</t>
+          <t>V2312-2401</t>
         </is>
       </c>
       <c r="B210" t="n">
         <v>0</v>
       </c>
       <c r="C210" t="n">
-        <v>-2</v>
+        <v>-10</v>
       </c>
       <c r="D210" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="E210" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="F210" t="n">
-        <v>-99999</v>
+        <v>-25</v>
       </c>
       <c r="G210" t="n">
-        <v>-99999</v>
+        <v>-28</v>
       </c>
       <c r="H210" t="n">
-        <v>-99999</v>
+        <v>-38</v>
       </c>
       <c r="I210" t="n">
         <v>-99999</v>
@@ -8852,26 +8856,26 @@
         <v>30</v>
       </c>
       <c r="L210" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>SN2308-2309</t>
+          <t>V2401-2402</t>
         </is>
       </c>
       <c r="B211" t="n">
         <v>0</v>
       </c>
       <c r="C211" t="n">
-        <v>-320</v>
+        <v>-3</v>
       </c>
       <c r="D211" t="n">
-        <v>-320</v>
+        <v>-18</v>
       </c>
       <c r="E211" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="F211" t="n">
         <v>-99999</v>
@@ -8889,29 +8893,29 @@
         <v>-99999</v>
       </c>
       <c r="K211" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L211" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>SP2307-2308</t>
+          <t>V2402-2403</t>
         </is>
       </c>
       <c r="B212" t="n">
         <v>0</v>
       </c>
       <c r="C212" t="n">
-        <v>-40</v>
+        <v>-5</v>
       </c>
       <c r="D212" t="n">
-        <v>-40</v>
+        <v>-15</v>
       </c>
       <c r="E212" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="F212" t="n">
         <v>-99999</v>
@@ -8923,13 +8927,13 @@
         <v>-99999</v>
       </c>
       <c r="I212" t="n">
-        <v>-99999</v>
+        <v>-35</v>
       </c>
       <c r="J212" t="n">
         <v>-99999</v>
       </c>
       <c r="K212" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="L212" t="n">
         <v>3</v>
@@ -8938,66 +8942,66 @@
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>SP2309-2310</t>
+          <t>V2403-2404</t>
         </is>
       </c>
       <c r="B213" t="n">
         <v>0</v>
       </c>
       <c r="C213" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D213" t="n">
-        <v>40</v>
+        <v>-36</v>
       </c>
       <c r="E213" t="n">
-        <v>-22</v>
+        <v>-40</v>
       </c>
       <c r="F213" t="n">
-        <v>-26</v>
+        <v>-44</v>
       </c>
       <c r="G213" t="n">
-        <v>-99999</v>
+        <v>-48</v>
       </c>
       <c r="H213" t="n">
-        <v>-99999</v>
+        <v>-52</v>
       </c>
       <c r="I213" t="n">
-        <v>-99999</v>
+        <v>-52</v>
       </c>
       <c r="J213" t="n">
         <v>-99999</v>
       </c>
       <c r="K213" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L213" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>SP2310-2311</t>
+          <t>V2404-2405</t>
         </is>
       </c>
       <c r="B214" t="n">
         <v>0</v>
       </c>
       <c r="C214" t="n">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="D214" t="n">
-        <v>-2</v>
+        <v>-22</v>
       </c>
       <c r="E214" t="n">
-        <v>-8</v>
+        <v>-30</v>
       </c>
       <c r="F214" t="n">
-        <v>-26</v>
+        <v>-35</v>
       </c>
       <c r="G214" t="n">
-        <v>-99999</v>
+        <v>-40</v>
       </c>
       <c r="H214" t="n">
         <v>-99999</v>
@@ -9009,7 +9013,7 @@
         <v>-99999</v>
       </c>
       <c r="K214" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="L214" t="n">
         <v>3</v>
@@ -9018,23 +9022,23 @@
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>SP2311-2312</t>
+          <t>V2405-2406</t>
         </is>
       </c>
       <c r="B215" t="n">
         <v>0</v>
       </c>
       <c r="C215" t="n">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="D215" t="n">
-        <v>-2</v>
+        <v>-15</v>
       </c>
       <c r="E215" t="n">
-        <v>-8</v>
+        <v>-20</v>
       </c>
       <c r="F215" t="n">
-        <v>-26</v>
+        <v>-30</v>
       </c>
       <c r="G215" t="n">
         <v>-99999</v>
@@ -9049,32 +9053,32 @@
         <v>-99999</v>
       </c>
       <c r="K215" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="L215" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>SP2312-2401</t>
+          <t>V2406-2407</t>
         </is>
       </c>
       <c r="B216" t="n">
         <v>0</v>
       </c>
       <c r="C216" t="n">
-        <v>-126</v>
+        <v>-10</v>
       </c>
       <c r="D216" t="n">
-        <v>-140</v>
+        <v>-10</v>
       </c>
       <c r="E216" t="n">
-        <v>-165</v>
+        <v>-15</v>
       </c>
       <c r="F216" t="n">
-        <v>-175</v>
+        <v>-15</v>
       </c>
       <c r="G216" t="n">
         <v>-99999</v>
@@ -9089,23 +9093,23 @@
         <v>-99999</v>
       </c>
       <c r="K216" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L216" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>SP2401-2402</t>
+          <t>Y2307-2308</t>
         </is>
       </c>
       <c r="B217" t="n">
         <v>0</v>
       </c>
       <c r="C217" t="n">
-        <v>-24</v>
+        <v>-99999</v>
       </c>
       <c r="D217" t="n">
         <v>-99999</v>
@@ -9129,26 +9133,26 @@
         <v>-99999</v>
       </c>
       <c r="K217" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L217" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>SP2402-2403</t>
+          <t>Y2308-2309</t>
         </is>
       </c>
       <c r="B218" t="n">
         <v>0</v>
       </c>
       <c r="C218" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="D218" t="n">
-        <v>-32</v>
+        <v>-99999</v>
       </c>
       <c r="E218" t="n">
         <v>-99999</v>
@@ -9169,35 +9173,35 @@
         <v>-99999</v>
       </c>
       <c r="K218" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L218" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>SP2403-2404</t>
+          <t>Y2309-2311</t>
         </is>
       </c>
       <c r="B219" t="n">
         <v>0</v>
       </c>
       <c r="C219" t="n">
-        <v>-15</v>
+        <v>-34</v>
       </c>
       <c r="D219" t="n">
-        <v>-32</v>
+        <v>-36</v>
       </c>
       <c r="E219" t="n">
-        <v>-99999</v>
+        <v>-40</v>
       </c>
       <c r="F219" t="n">
-        <v>-99999</v>
+        <v>-46</v>
       </c>
       <c r="G219" t="n">
-        <v>-99999</v>
+        <v>-56</v>
       </c>
       <c r="H219" t="n">
         <v>-99999</v>
@@ -9209,29 +9213,29 @@
         <v>-99999</v>
       </c>
       <c r="K219" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="L219" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>SP2404-2405</t>
+          <t>Y2311-2312</t>
         </is>
       </c>
       <c r="B220" t="n">
         <v>0</v>
       </c>
       <c r="C220" t="n">
-        <v>-15</v>
+        <v>-40</v>
       </c>
       <c r="D220" t="n">
-        <v>-32</v>
+        <v>-42</v>
       </c>
       <c r="E220" t="n">
-        <v>-99999</v>
+        <v>-60</v>
       </c>
       <c r="F220" t="n">
         <v>-99999</v>
@@ -9249,7 +9253,7 @@
         <v>-99999</v>
       </c>
       <c r="K220" t="n">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="L220" t="n">
         <v>3</v>
@@ -9258,17 +9262,17 @@
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>SP2405-2406</t>
+          <t>Y2312-2401</t>
         </is>
       </c>
       <c r="B221" t="n">
         <v>0</v>
       </c>
       <c r="C221" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="D221" t="n">
-        <v>-32</v>
+        <v>-99999</v>
       </c>
       <c r="E221" t="n">
         <v>-99999</v>
@@ -9289,1410 +9293,10 @@
         <v>-99999</v>
       </c>
       <c r="K221" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L221" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="inlineStr">
-        <is>
-          <t>TA2307-2308</t>
-        </is>
-      </c>
-      <c r="B222" t="n">
-        <v>0</v>
-      </c>
-      <c r="C222" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D222" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E222" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="F222" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="G222" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="H222" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="I222" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="J222" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="K222" t="n">
-        <v>15</v>
-      </c>
-      <c r="L222" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="inlineStr">
-        <is>
-          <t>TA2307-2309</t>
-        </is>
-      </c>
-      <c r="B223" t="n">
-        <v>0</v>
-      </c>
-      <c r="C223" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D223" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E223" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="F223" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="G223" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="H223" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="I223" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="J223" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="K223" t="n">
-        <v>15</v>
-      </c>
-      <c r="L223" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="inlineStr">
-        <is>
-          <t>TA2308-2309</t>
-        </is>
-      </c>
-      <c r="B224" t="n">
-        <v>0</v>
-      </c>
-      <c r="C224" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D224" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E224" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="F224" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="G224" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="H224" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="I224" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="J224" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="K224" t="n">
-        <v>15</v>
-      </c>
-      <c r="L224" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="inlineStr">
-        <is>
-          <t>TA2309-2310</t>
-        </is>
-      </c>
-      <c r="B225" t="n">
-        <v>0</v>
-      </c>
-      <c r="C225" t="n">
-        <v>0</v>
-      </c>
-      <c r="D225" t="n">
-        <v>-10</v>
-      </c>
-      <c r="E225" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="F225" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="G225" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="H225" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="I225" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="J225" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="K225" t="n">
-        <v>40</v>
-      </c>
-      <c r="L225" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="inlineStr">
-        <is>
-          <t>TA2310-2311</t>
-        </is>
-      </c>
-      <c r="B226" t="n">
-        <v>0</v>
-      </c>
-      <c r="C226" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D226" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E226" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="F226" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="G226" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="H226" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="I226" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="J226" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="K226" t="n">
-        <v>15</v>
-      </c>
-      <c r="L226" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="inlineStr">
-        <is>
-          <t>TA2311-2312</t>
-        </is>
-      </c>
-      <c r="B227" t="n">
-        <v>0</v>
-      </c>
-      <c r="C227" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D227" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E227" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="F227" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="G227" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="H227" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="I227" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="J227" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="K227" t="n">
-        <v>15</v>
-      </c>
-      <c r="L227" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="inlineStr">
-        <is>
-          <t>TA2312-2401</t>
-        </is>
-      </c>
-      <c r="B228" t="n">
-        <v>0</v>
-      </c>
-      <c r="C228" t="n">
-        <v>-20</v>
-      </c>
-      <c r="D228" t="n">
-        <v>-15</v>
-      </c>
-      <c r="E228" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="F228" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="G228" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="H228" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="I228" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="J228" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="K228" t="n">
-        <v>20</v>
-      </c>
-      <c r="L228" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="inlineStr">
-        <is>
-          <t>TA2401-2402</t>
-        </is>
-      </c>
-      <c r="B229" t="n">
-        <v>0</v>
-      </c>
-      <c r="C229" t="n">
-        <v>-15</v>
-      </c>
-      <c r="D229" t="n">
-        <v>-20</v>
-      </c>
-      <c r="E229" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="F229" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="G229" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="H229" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="I229" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="J229" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="K229" t="n">
-        <v>20</v>
-      </c>
-      <c r="L229" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="inlineStr">
-        <is>
-          <t>TA2402-2403</t>
-        </is>
-      </c>
-      <c r="B230" t="n">
-        <v>0</v>
-      </c>
-      <c r="C230" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D230" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E230" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="F230" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="G230" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="H230" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="I230" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="J230" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="K230" t="n">
-        <v>20</v>
-      </c>
-      <c r="L230" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="inlineStr">
-        <is>
-          <t>TA2403-2404</t>
-        </is>
-      </c>
-      <c r="B231" t="n">
-        <v>0</v>
-      </c>
-      <c r="C231" t="n">
-        <v>-28</v>
-      </c>
-      <c r="D231" t="n">
-        <v>-30</v>
-      </c>
-      <c r="E231" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="F231" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="G231" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="H231" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="I231" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="J231" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="K231" t="n">
-        <v>100</v>
-      </c>
-      <c r="L231" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="inlineStr">
-        <is>
-          <t>UR2310-2311</t>
-        </is>
-      </c>
-      <c r="B232" t="n">
-        <v>0</v>
-      </c>
-      <c r="C232" t="n">
-        <v>-35</v>
-      </c>
-      <c r="D232" t="n">
-        <v>-45</v>
-      </c>
-      <c r="E232" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="F232" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="G232" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="H232" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="I232" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="J232" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="K232" t="n">
-        <v>20</v>
-      </c>
-      <c r="L232" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="inlineStr">
-        <is>
-          <t>UR2311-2312</t>
-        </is>
-      </c>
-      <c r="B233" t="n">
-        <v>0</v>
-      </c>
-      <c r="C233" t="n">
-        <v>5</v>
-      </c>
-      <c r="D233" t="n">
-        <v>0</v>
-      </c>
-      <c r="E233" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="F233" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="G233" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="H233" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="I233" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="J233" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="K233" t="n">
-        <v>30</v>
-      </c>
-      <c r="L233" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="inlineStr">
-        <is>
-          <t>UR2312-2401</t>
-        </is>
-      </c>
-      <c r="B234" t="n">
-        <v>0</v>
-      </c>
-      <c r="C234" t="n">
-        <v>5</v>
-      </c>
-      <c r="D234" t="n">
-        <v>0</v>
-      </c>
-      <c r="E234" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="F234" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="G234" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="H234" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="I234" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="J234" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="K234" t="n">
-        <v>25</v>
-      </c>
-      <c r="L234" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="inlineStr">
-        <is>
-          <t>UR2401-2402</t>
-        </is>
-      </c>
-      <c r="B235" t="n">
-        <v>0</v>
-      </c>
-      <c r="C235" t="n">
-        <v>0</v>
-      </c>
-      <c r="D235" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E235" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="F235" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="G235" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="H235" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="I235" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="J235" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="K235" t="n">
-        <v>50</v>
-      </c>
-      <c r="L235" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="inlineStr">
-        <is>
-          <t>UR2402-2403</t>
-        </is>
-      </c>
-      <c r="B236" t="n">
-        <v>0</v>
-      </c>
-      <c r="C236" t="n">
-        <v>-50</v>
-      </c>
-      <c r="D236" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E236" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="F236" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="G236" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="H236" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="I236" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="J236" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="K236" t="n">
-        <v>60</v>
-      </c>
-      <c r="L236" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="inlineStr">
-        <is>
-          <t>UR2403-2404</t>
-        </is>
-      </c>
-      <c r="B237" t="n">
-        <v>0</v>
-      </c>
-      <c r="C237" t="n">
-        <v>5</v>
-      </c>
-      <c r="D237" t="n">
-        <v>0</v>
-      </c>
-      <c r="E237" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="F237" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="G237" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="H237" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="I237" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="J237" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="K237" t="n">
-        <v>50</v>
-      </c>
-      <c r="L237" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="inlineStr">
-        <is>
-          <t>UR2404-2405</t>
-        </is>
-      </c>
-      <c r="B238" t="n">
-        <v>0</v>
-      </c>
-      <c r="C238" t="n">
-        <v>5</v>
-      </c>
-      <c r="D238" t="n">
-        <v>0</v>
-      </c>
-      <c r="E238" t="n">
-        <v>-5</v>
-      </c>
-      <c r="F238" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="G238" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="H238" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="I238" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="J238" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="K238" t="n">
-        <v>200</v>
-      </c>
-      <c r="L238" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="inlineStr">
-        <is>
-          <t>V2308-2309</t>
-        </is>
-      </c>
-      <c r="B239" t="n">
-        <v>0</v>
-      </c>
-      <c r="C239" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D239" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E239" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="F239" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="G239" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="H239" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="I239" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="J239" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="K239" t="n">
-        <v>0</v>
-      </c>
-      <c r="L239" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="inlineStr">
-        <is>
-          <t>V2309-2310</t>
-        </is>
-      </c>
-      <c r="B240" t="n">
-        <v>0</v>
-      </c>
-      <c r="C240" t="n">
-        <v>5</v>
-      </c>
-      <c r="D240" t="n">
-        <v>5</v>
-      </c>
-      <c r="E240" t="n">
-        <v>-2</v>
-      </c>
-      <c r="F240" t="n">
-        <v>-15</v>
-      </c>
-      <c r="G240" t="n">
-        <v>-28</v>
-      </c>
-      <c r="H240" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="I240" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="J240" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="K240" t="n">
-        <v>15</v>
-      </c>
-      <c r="L240" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="inlineStr">
-        <is>
-          <t>V2310-2311</t>
-        </is>
-      </c>
-      <c r="B241" t="n">
-        <v>0</v>
-      </c>
-      <c r="C241" t="n">
-        <v>5</v>
-      </c>
-      <c r="D241" t="n">
-        <v>5</v>
-      </c>
-      <c r="E241" t="n">
-        <v>-2</v>
-      </c>
-      <c r="F241" t="n">
-        <v>-15</v>
-      </c>
-      <c r="G241" t="n">
-        <v>-28</v>
-      </c>
-      <c r="H241" t="n">
-        <v>-38</v>
-      </c>
-      <c r="I241" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="J241" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="K241" t="n">
-        <v>19</v>
-      </c>
-      <c r="L241" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="inlineStr">
-        <is>
-          <t>V2311-2312</t>
-        </is>
-      </c>
-      <c r="B242" t="n">
-        <v>0</v>
-      </c>
-      <c r="C242" t="n">
-        <v>5</v>
-      </c>
-      <c r="D242" t="n">
-        <v>5</v>
-      </c>
-      <c r="E242" t="n">
         <v>2</v>
-      </c>
-      <c r="F242" t="n">
-        <v>0</v>
-      </c>
-      <c r="G242" t="n">
-        <v>-13</v>
-      </c>
-      <c r="H242" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="I242" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="J242" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="K242" t="n">
-        <v>15</v>
-      </c>
-      <c r="L242" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="inlineStr">
-        <is>
-          <t>V2312-2401</t>
-        </is>
-      </c>
-      <c r="B243" t="n">
-        <v>0</v>
-      </c>
-      <c r="C243" t="n">
-        <v>20</v>
-      </c>
-      <c r="D243" t="n">
-        <v>4</v>
-      </c>
-      <c r="E243" t="n">
-        <v>3</v>
-      </c>
-      <c r="F243" t="n">
-        <v>3</v>
-      </c>
-      <c r="G243" t="n">
-        <v>-8</v>
-      </c>
-      <c r="H243" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="I243" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="J243" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="K243" t="n">
-        <v>15</v>
-      </c>
-      <c r="L243" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="inlineStr">
-        <is>
-          <t>V2401-2402</t>
-        </is>
-      </c>
-      <c r="B244" t="n">
-        <v>0</v>
-      </c>
-      <c r="C244" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D244" t="n">
-        <v>-18</v>
-      </c>
-      <c r="E244" t="n">
-        <v>-30</v>
-      </c>
-      <c r="F244" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="G244" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="H244" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="I244" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="J244" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="K244" t="n">
-        <v>30</v>
-      </c>
-      <c r="L244" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="inlineStr">
-        <is>
-          <t>V2402-2403</t>
-        </is>
-      </c>
-      <c r="B245" t="n">
-        <v>0</v>
-      </c>
-      <c r="C245" t="n">
-        <v>-5</v>
-      </c>
-      <c r="D245" t="n">
-        <v>-15</v>
-      </c>
-      <c r="E245" t="n">
-        <v>-30</v>
-      </c>
-      <c r="F245" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="G245" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="H245" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="I245" t="n">
-        <v>-35</v>
-      </c>
-      <c r="J245" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="K245" t="n">
-        <v>50</v>
-      </c>
-      <c r="L245" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="inlineStr">
-        <is>
-          <t>V2403-2404</t>
-        </is>
-      </c>
-      <c r="B246" t="n">
-        <v>0</v>
-      </c>
-      <c r="C246" t="n">
-        <v>10</v>
-      </c>
-      <c r="D246" t="n">
-        <v>-36</v>
-      </c>
-      <c r="E246" t="n">
-        <v>-40</v>
-      </c>
-      <c r="F246" t="n">
-        <v>-44</v>
-      </c>
-      <c r="G246" t="n">
-        <v>-48</v>
-      </c>
-      <c r="H246" t="n">
-        <v>-52</v>
-      </c>
-      <c r="I246" t="n">
-        <v>-52</v>
-      </c>
-      <c r="J246" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="K246" t="n">
-        <v>15</v>
-      </c>
-      <c r="L246" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="inlineStr">
-        <is>
-          <t>V2404-2405</t>
-        </is>
-      </c>
-      <c r="B247" t="n">
-        <v>0</v>
-      </c>
-      <c r="C247" t="n">
-        <v>-20</v>
-      </c>
-      <c r="D247" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E247" t="n">
-        <v>-30</v>
-      </c>
-      <c r="F247" t="n">
-        <v>-35</v>
-      </c>
-      <c r="G247" t="n">
-        <v>-40</v>
-      </c>
-      <c r="H247" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="I247" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="J247" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="K247" t="n">
-        <v>30</v>
-      </c>
-      <c r="L247" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="inlineStr">
-        <is>
-          <t>V2405-2406</t>
-        </is>
-      </c>
-      <c r="B248" t="n">
-        <v>0</v>
-      </c>
-      <c r="C248" t="n">
-        <v>-7</v>
-      </c>
-      <c r="D248" t="n">
-        <v>-10</v>
-      </c>
-      <c r="E248" t="n">
-        <v>-15</v>
-      </c>
-      <c r="F248" t="n">
-        <v>-20</v>
-      </c>
-      <c r="G248" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="H248" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="I248" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="J248" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="K248" t="n">
-        <v>30</v>
-      </c>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="inlineStr">
-        <is>
-          <t>Y2307-2308</t>
-        </is>
-      </c>
-      <c r="B249" t="n">
-        <v>0</v>
-      </c>
-      <c r="C249" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D249" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E249" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="F249" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="G249" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="H249" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="I249" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="J249" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="K249" t="n">
-        <v>18</v>
-      </c>
-      <c r="L249" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="inlineStr">
-        <is>
-          <t>Y2308-2309</t>
-        </is>
-      </c>
-      <c r="B250" t="n">
-        <v>0</v>
-      </c>
-      <c r="C250" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D250" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E250" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="F250" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="G250" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="H250" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="I250" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="J250" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="K250" t="n">
-        <v>18</v>
-      </c>
-      <c r="L250" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="inlineStr">
-        <is>
-          <t>Y2309-2311</t>
-        </is>
-      </c>
-      <c r="B251" t="n">
-        <v>0</v>
-      </c>
-      <c r="C251" t="n">
-        <v>10</v>
-      </c>
-      <c r="D251" t="n">
-        <v>10</v>
-      </c>
-      <c r="E251" t="n">
-        <v>-16</v>
-      </c>
-      <c r="F251" t="n">
-        <v>-22</v>
-      </c>
-      <c r="G251" t="n">
-        <v>-34</v>
-      </c>
-      <c r="H251" t="n">
-        <v>-44</v>
-      </c>
-      <c r="I251" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="J251" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="K251" t="n">
-        <v>11</v>
-      </c>
-      <c r="L251" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="inlineStr">
-        <is>
-          <t>Y2311-2312</t>
-        </is>
-      </c>
-      <c r="B252" t="n">
-        <v>0</v>
-      </c>
-      <c r="C252" t="n">
-        <v>10</v>
-      </c>
-      <c r="D252" t="n">
-        <v>0</v>
-      </c>
-      <c r="E252" t="n">
-        <v>-40</v>
-      </c>
-      <c r="F252" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="G252" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="H252" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="I252" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="J252" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="K252" t="n">
-        <v>100</v>
-      </c>
-      <c r="L252" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="inlineStr">
-        <is>
-          <t>Y2312-2401</t>
-        </is>
-      </c>
-      <c r="B253" t="n">
-        <v>0</v>
-      </c>
-      <c r="C253" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D253" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E253" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="F253" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="G253" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="H253" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="I253" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="J253" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="K253" t="n">
-        <v>18</v>
-      </c>
-      <c r="L253" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="inlineStr">
-        <is>
-          <t>V2406-2407</t>
-        </is>
-      </c>
-      <c r="B254" t="n">
-        <v>0</v>
-      </c>
-      <c r="C254" t="n">
-        <v>-10</v>
-      </c>
-      <c r="D254" t="n">
-        <v>-10</v>
-      </c>
-      <c r="E254" t="n">
-        <v>-15</v>
-      </c>
-      <c r="F254" t="n">
-        <v>-15</v>
-      </c>
-      <c r="G254" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="H254" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="I254" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="J254" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="K254" t="n">
-        <v>30</v>
-      </c>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="inlineStr">
-        <is>
-          <t>SN2309-2310</t>
-        </is>
-      </c>
-      <c r="B255" t="n">
-        <v>0</v>
-      </c>
-      <c r="C255" t="n">
-        <v>-220</v>
-      </c>
-      <c r="D255" t="n">
-        <v>-220</v>
-      </c>
-      <c r="E255" t="n">
-        <v>-250</v>
-      </c>
-      <c r="F255" t="n">
-        <v>-280</v>
-      </c>
-      <c r="G255" t="n">
-        <v>-300</v>
-      </c>
-      <c r="H255" t="n">
-        <v>-330</v>
-      </c>
-      <c r="I255" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="J255" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="K255" t="n">
-        <v>43</v>
-      </c>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="inlineStr">
-        <is>
-          <t>RR2312-2401</t>
-        </is>
-      </c>
-      <c r="B256" t="n">
-        <v>0</v>
-      </c>
-      <c r="C256" t="n">
-        <v>-60</v>
-      </c>
-      <c r="D256" t="n">
-        <v>-65</v>
-      </c>
-      <c r="E256" t="n">
-        <v>-70</v>
-      </c>
-      <c r="F256" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="G256" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="H256" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="I256" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="J256" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="K256" t="n">
-        <v>80</v>
-      </c>
-      <c r="L256" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/info/region_info.xlsx
+++ b/info/region_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L221"/>
+  <dimension ref="A1:L223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -625,13 +625,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="E5" t="n">
-        <v>-10</v>
+        <v>-20</v>
       </c>
       <c r="F5" t="n">
         <v>-99999</v>
@@ -2191,7 +2191,7 @@
         <v>-230</v>
       </c>
       <c r="E44" t="n">
-        <v>-250</v>
+        <v>-99999</v>
       </c>
       <c r="F44" t="n">
         <v>-99999</v>
@@ -2471,10 +2471,10 @@
         <v>-50</v>
       </c>
       <c r="E51" t="n">
-        <v>-60</v>
+        <v>-78</v>
       </c>
       <c r="F51" t="n">
-        <v>-70</v>
+        <v>-79</v>
       </c>
       <c r="G51" t="n">
         <v>-80</v>
@@ -2489,7 +2489,7 @@
         <v>-99999</v>
       </c>
       <c r="K51" t="n">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="L51" t="n">
         <v>4</v>
@@ -3385,7 +3385,7 @@
         <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>-10</v>
+        <v>-14</v>
       </c>
       <c r="D74" t="n">
         <v>-20</v>
@@ -3409,7 +3409,7 @@
         <v>-99999</v>
       </c>
       <c r="K74" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="L74" t="n">
         <v>2</v>
@@ -3988,7 +3988,7 @@
         <v>-9.199999999999999</v>
       </c>
       <c r="D89" t="n">
-        <v>-99999</v>
+        <v>-10.6</v>
       </c>
       <c r="E89" t="n">
         <v>-99999</v>
@@ -4009,7 +4009,7 @@
         <v>-99999</v>
       </c>
       <c r="K89" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="L89" t="n">
         <v>1</v>
@@ -4031,16 +4031,16 @@
         <v>-18.4</v>
       </c>
       <c r="E90" t="n">
+        <v>-19.6</v>
+      </c>
+      <c r="F90" t="n">
         <v>-20.4</v>
       </c>
-      <c r="F90" t="n">
+      <c r="G90" t="n">
+        <v>-20.8</v>
+      </c>
+      <c r="H90" t="n">
         <v>-22.4</v>
-      </c>
-      <c r="G90" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="H90" t="n">
-        <v>-99999</v>
       </c>
       <c r="I90" t="n">
         <v>-99999</v>
@@ -4058,25 +4058,23 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>IH2309-2312</t>
+          <t>IF2312-2403</t>
         </is>
       </c>
       <c r="B91" t="n">
         <v>0</v>
       </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>-17</t>
-        </is>
+      <c r="C91" t="n">
+        <v>-18.4</v>
       </c>
       <c r="D91" t="n">
-        <v>-18.4</v>
+        <v>-18.6</v>
       </c>
       <c r="E91" t="n">
-        <v>-20.4</v>
+        <v>-19.6</v>
       </c>
       <c r="F91" t="n">
-        <v>-20.4</v>
+        <v>-20.8</v>
       </c>
       <c r="G91" t="n">
         <v>-99999</v>
@@ -4090,10 +4088,8 @@
       <c r="J91" t="n">
         <v>-99999</v>
       </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
+      <c r="K91" t="n">
+        <v>25</v>
       </c>
       <c r="L91" t="n">
         <v>1</v>
@@ -4102,23 +4098,23 @@
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>IM2309-2312</t>
+          <t>IH2309-2312</t>
         </is>
       </c>
       <c r="B92" t="n">
         <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>-99999</v>
+        <v>-17</v>
       </c>
       <c r="D92" t="n">
-        <v>-99999</v>
+        <v>-18.4</v>
       </c>
       <c r="E92" t="n">
-        <v>-99999</v>
+        <v>-20.4</v>
       </c>
       <c r="F92" t="n">
-        <v>-99999</v>
+        <v>-20.4</v>
       </c>
       <c r="G92" t="n">
         <v>-99999</v>
@@ -4133,7 +4129,7 @@
         <v>-99999</v>
       </c>
       <c r="K92" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L92" t="n">
         <v>1</v>
@@ -4142,23 +4138,23 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>JD2403-2404</t>
+          <t>IH2312-2403</t>
         </is>
       </c>
       <c r="B93" t="n">
         <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>-190</v>
+        <v>-18.4</v>
       </c>
       <c r="D93" t="n">
-        <v>-99999</v>
+        <v>-20.4</v>
       </c>
       <c r="E93" t="n">
-        <v>-99999</v>
+        <v>-20.8</v>
       </c>
       <c r="F93" t="n">
-        <v>-99999</v>
+        <v>-22.6</v>
       </c>
       <c r="G93" t="n">
         <v>-99999</v>
@@ -4173,29 +4169,29 @@
         <v>-99999</v>
       </c>
       <c r="K93" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="L93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>L2309-2310</t>
+          <t>IM2309-2312</t>
         </is>
       </c>
       <c r="B94" t="n">
         <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>-5</v>
+        <v>-99999</v>
       </c>
       <c r="D94" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="E94" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="F94" t="n">
         <v>-99999</v>
@@ -4213,32 +4209,32 @@
         <v>-99999</v>
       </c>
       <c r="K94" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L94" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>L2310-2311</t>
+          <t>JD2403-2404</t>
         </is>
       </c>
       <c r="B95" t="n">
         <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>-190</v>
       </c>
       <c r="D95" t="n">
-        <v>-5</v>
+        <v>-99999</v>
       </c>
       <c r="E95" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="F95" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="G95" t="n">
         <v>-99999</v>
@@ -4253,32 +4249,32 @@
         <v>-99999</v>
       </c>
       <c r="K95" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="L95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>L2311-2312</t>
+          <t>L2309-2310</t>
         </is>
       </c>
       <c r="B96" t="n">
         <v>0</v>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D96" t="n">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="E96" t="n">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="F96" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="G96" t="n">
         <v>-99999</v>
@@ -4302,7 +4298,7 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>L2312-2401</t>
+          <t>L2310-2311</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -4342,7 +4338,7 @@
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>L2402-2403</t>
+          <t>L2311-2312</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -4382,23 +4378,23 @@
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>LU2309-2310</t>
+          <t>L2312-2401</t>
         </is>
       </c>
       <c r="B99" t="n">
         <v>0</v>
       </c>
       <c r="C99" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="D99" t="n">
-        <v>-25</v>
+        <v>-5</v>
       </c>
       <c r="E99" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="F99" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="G99" t="n">
         <v>-99999</v>
@@ -4413,7 +4409,7 @@
         <v>-99999</v>
       </c>
       <c r="K99" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="L99" t="n">
         <v>3</v>
@@ -4422,23 +4418,23 @@
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>M2309-2311</t>
+          <t>L2402-2403</t>
         </is>
       </c>
       <c r="B100" t="n">
         <v>0</v>
       </c>
       <c r="C100" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>-99999</v>
+        <v>-5</v>
       </c>
       <c r="E100" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="F100" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="G100" t="n">
         <v>-99999</v>
@@ -4453,7 +4449,7 @@
         <v>-99999</v>
       </c>
       <c r="K100" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="L100" t="n">
         <v>3</v>
@@ -4462,17 +4458,17 @@
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>M2311-2312</t>
+          <t>LU2309-2310</t>
         </is>
       </c>
       <c r="B101" t="n">
         <v>0</v>
       </c>
       <c r="C101" t="n">
-        <v>-40</v>
+        <v>-20</v>
       </c>
       <c r="D101" t="n">
-        <v>-50</v>
+        <v>-25</v>
       </c>
       <c r="E101" t="n">
         <v>-99999</v>
@@ -4493,29 +4489,29 @@
         <v>-99999</v>
       </c>
       <c r="K101" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>M2312-2401</t>
+          <t>M2309-2311</t>
         </is>
       </c>
       <c r="B102" t="n">
         <v>0</v>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="D102" t="n">
-        <v>-5</v>
+        <v>-99999</v>
       </c>
       <c r="E102" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="F102" t="n">
         <v>-99999</v>
@@ -4533,7 +4529,7 @@
         <v>-99999</v>
       </c>
       <c r="K102" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L102" t="n">
         <v>3</v>
@@ -4542,20 +4538,20 @@
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>M2401-2403</t>
+          <t>M2311-2312</t>
         </is>
       </c>
       <c r="B103" t="n">
         <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="D103" t="n">
-        <v>-10</v>
+        <v>-50</v>
       </c>
       <c r="E103" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="F103" t="n">
         <v>-99999</v>
@@ -4573,29 +4569,29 @@
         <v>-99999</v>
       </c>
       <c r="K103" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>M2403-2405</t>
+          <t>M2312-2401</t>
         </is>
       </c>
       <c r="B104" t="n">
         <v>0</v>
       </c>
       <c r="C104" t="n">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="D104" t="n">
-        <v>-100</v>
+        <v>-5</v>
       </c>
       <c r="E104" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="F104" t="n">
         <v>-99999</v>
@@ -4622,23 +4618,23 @@
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>M2405-2407</t>
+          <t>M2401-2403</t>
         </is>
       </c>
       <c r="B105" t="n">
         <v>0</v>
       </c>
       <c r="C105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D105" t="n">
+        <v>-10</v>
+      </c>
+      <c r="E105" t="n">
         <v>-20</v>
       </c>
-      <c r="E105" t="n">
-        <v>-25</v>
-      </c>
       <c r="F105" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="G105" t="n">
         <v>-99999</v>
@@ -4653,7 +4649,7 @@
         <v>-99999</v>
       </c>
       <c r="K105" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="L105" t="n">
         <v>3</v>
@@ -4662,38 +4658,38 @@
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>MA2309-2310</t>
+          <t>M2403-2405</t>
         </is>
       </c>
       <c r="B106" t="n">
         <v>0</v>
       </c>
       <c r="C106" t="n">
-        <v>-35</v>
+        <v>-50</v>
       </c>
       <c r="D106" t="n">
-        <v>-40</v>
+        <v>-100</v>
       </c>
       <c r="E106" t="n">
-        <v>-45</v>
+        <v>-99999</v>
       </c>
       <c r="F106" t="n">
-        <v>-50</v>
+        <v>-99999</v>
       </c>
       <c r="G106" t="n">
-        <v>-55</v>
+        <v>-99999</v>
       </c>
       <c r="H106" t="n">
-        <v>-60</v>
+        <v>-99999</v>
       </c>
       <c r="I106" t="n">
-        <v>-60</v>
+        <v>-99999</v>
       </c>
       <c r="J106" t="n">
         <v>-99999</v>
       </c>
       <c r="K106" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="L106" t="n">
         <v>3</v>
@@ -4702,24 +4698,24 @@
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>MA2310-2311</t>
+          <t>M2405-2407</t>
         </is>
       </c>
       <c r="B107" t="n">
         <v>0</v>
       </c>
       <c r="C107" t="n">
+        <v>2</v>
+      </c>
+      <c r="D107" t="n">
+        <v>-20</v>
+      </c>
+      <c r="E107" t="n">
+        <v>-25</v>
+      </c>
+      <c r="F107" t="n">
         <v>-30</v>
       </c>
-      <c r="D107" t="n">
-        <v>-35</v>
-      </c>
-      <c r="E107" t="n">
-        <v>-50</v>
-      </c>
-      <c r="F107" t="n">
-        <v>-99999</v>
-      </c>
       <c r="G107" t="n">
         <v>-99999</v>
       </c>
@@ -4733,7 +4729,7 @@
         <v>-99999</v>
       </c>
       <c r="K107" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L107" t="n">
         <v>3</v>
@@ -4742,60 +4738,60 @@
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>MA2311-2312</t>
+          <t>MA2309-2310</t>
         </is>
       </c>
       <c r="B108" t="n">
         <v>0</v>
       </c>
       <c r="C108" t="n">
+        <v>-35</v>
+      </c>
+      <c r="D108" t="n">
+        <v>-40</v>
+      </c>
+      <c r="E108" t="n">
         <v>-45</v>
       </c>
-      <c r="D108" t="n">
+      <c r="F108" t="n">
         <v>-50</v>
       </c>
-      <c r="E108" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="F108" t="n">
-        <v>-99999</v>
-      </c>
       <c r="G108" t="n">
-        <v>-99999</v>
+        <v>-55</v>
       </c>
       <c r="H108" t="n">
-        <v>-99999</v>
+        <v>-60</v>
       </c>
       <c r="I108" t="n">
-        <v>-99999</v>
+        <v>-60</v>
       </c>
       <c r="J108" t="n">
         <v>-99999</v>
       </c>
       <c r="K108" t="n">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="L108" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>MA2312-2401</t>
+          <t>MA2310-2311</t>
         </is>
       </c>
       <c r="B109" t="n">
         <v>0</v>
       </c>
       <c r="C109" t="n">
-        <v>-5</v>
+        <v>-30</v>
       </c>
       <c r="D109" t="n">
-        <v>-15</v>
+        <v>-35</v>
       </c>
       <c r="E109" t="n">
-        <v>-25</v>
+        <v>-50</v>
       </c>
       <c r="F109" t="n">
         <v>-99999</v>
@@ -4813,7 +4809,7 @@
         <v>-99999</v>
       </c>
       <c r="K109" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L109" t="n">
         <v>3</v>
@@ -4822,17 +4818,17 @@
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>NR2309-2310</t>
+          <t>MA2311-2312</t>
         </is>
       </c>
       <c r="B110" t="n">
         <v>0</v>
       </c>
       <c r="C110" t="n">
-        <v>-30</v>
+        <v>-45</v>
       </c>
       <c r="D110" t="n">
-        <v>-40</v>
+        <v>-50</v>
       </c>
       <c r="E110" t="n">
         <v>-99999</v>
@@ -4862,20 +4858,20 @@
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>NR2310-2311</t>
+          <t>MA2312-2401</t>
         </is>
       </c>
       <c r="B111" t="n">
         <v>0</v>
       </c>
       <c r="C111" t="n">
-        <v>-50</v>
+        <v>-5</v>
       </c>
       <c r="D111" t="n">
-        <v>-80</v>
+        <v>-15</v>
       </c>
       <c r="E111" t="n">
-        <v>-99999</v>
+        <v>-25</v>
       </c>
       <c r="F111" t="n">
         <v>-99999</v>
@@ -4893,26 +4889,26 @@
         <v>-99999</v>
       </c>
       <c r="K111" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L111" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>NR2311-2312</t>
+          <t>NR2309-2310</t>
         </is>
       </c>
       <c r="B112" t="n">
         <v>0</v>
       </c>
       <c r="C112" t="n">
-        <v>-60</v>
+        <v>-30</v>
       </c>
       <c r="D112" t="n">
-        <v>-90</v>
+        <v>-40</v>
       </c>
       <c r="E112" t="n">
         <v>-99999</v>
@@ -4942,17 +4938,17 @@
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>NR2312-2401</t>
+          <t>NR2310-2311</t>
         </is>
       </c>
       <c r="B113" t="n">
         <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>-70</v>
+        <v>-50</v>
       </c>
       <c r="D113" t="n">
-        <v>-100</v>
+        <v>-80</v>
       </c>
       <c r="E113" t="n">
         <v>-99999</v>
@@ -4982,23 +4978,23 @@
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>OI2309-2311</t>
+          <t>NR2311-2312</t>
         </is>
       </c>
       <c r="B114" t="n">
         <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>-30</v>
+        <v>-60</v>
       </c>
       <c r="D114" t="n">
-        <v>-40</v>
+        <v>-90</v>
       </c>
       <c r="E114" t="n">
-        <v>-60</v>
+        <v>-99999</v>
       </c>
       <c r="F114" t="n">
-        <v>-80</v>
+        <v>-99999</v>
       </c>
       <c r="G114" t="n">
         <v>-99999</v>
@@ -5013,26 +5009,26 @@
         <v>-99999</v>
       </c>
       <c r="K114" t="n">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="L114" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>OI2311-2401</t>
+          <t>NR2312-2401</t>
         </is>
       </c>
       <c r="B115" t="n">
         <v>0</v>
       </c>
       <c r="C115" t="n">
-        <v>-99999</v>
+        <v>-70</v>
       </c>
       <c r="D115" t="n">
-        <v>-99999</v>
+        <v>-100</v>
       </c>
       <c r="E115" t="n">
         <v>-99999</v>
@@ -5053,32 +5049,32 @@
         <v>-99999</v>
       </c>
       <c r="K115" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L115" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>OI2401-2311</t>
+          <t>OI2309-2311</t>
         </is>
       </c>
       <c r="B116" t="n">
         <v>0</v>
       </c>
       <c r="C116" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="D116" t="n">
-        <v>-99999</v>
+        <v>-40</v>
       </c>
       <c r="E116" t="n">
-        <v>-99999</v>
+        <v>-60</v>
       </c>
       <c r="F116" t="n">
-        <v>-99999</v>
+        <v>-80</v>
       </c>
       <c r="G116" t="n">
         <v>-99999</v>
@@ -5093,26 +5089,26 @@
         <v>-99999</v>
       </c>
       <c r="K116" t="n">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="L116" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>OI2401-2403</t>
+          <t>OI2311-2401</t>
         </is>
       </c>
       <c r="B117" t="n">
         <v>0</v>
       </c>
       <c r="C117" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="D117" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="E117" t="n">
         <v>-99999</v>
@@ -5133,23 +5129,23 @@
         <v>-99999</v>
       </c>
       <c r="K117" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L117" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>OI2403-2401</t>
+          <t>OI2401-2311</t>
         </is>
       </c>
       <c r="B118" t="n">
         <v>0</v>
       </c>
       <c r="C118" t="n">
-        <v>-400</v>
+        <v>-99999</v>
       </c>
       <c r="D118" t="n">
         <v>-99999</v>
@@ -5173,7 +5169,7 @@
         <v>-99999</v>
       </c>
       <c r="K118" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="L118" t="n">
         <v>2</v>
@@ -5182,7 +5178,7 @@
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>OI2403-2405</t>
+          <t>OI2401-2403</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -5222,14 +5218,14 @@
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>PB2309-2310</t>
+          <t>OI2403-2401</t>
         </is>
       </c>
       <c r="B120" t="n">
         <v>0</v>
       </c>
       <c r="C120" t="n">
-        <v>-52</v>
+        <v>-400</v>
       </c>
       <c r="D120" t="n">
         <v>-99999</v>
@@ -5253,26 +5249,26 @@
         <v>-99999</v>
       </c>
       <c r="K120" t="n">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="L120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>PB2310-2311</t>
+          <t>OI2403-2405</t>
         </is>
       </c>
       <c r="B121" t="n">
         <v>0</v>
       </c>
       <c r="C121" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="D121" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="E121" t="n">
         <v>-99999</v>
@@ -5293,7 +5289,7 @@
         <v>-99999</v>
       </c>
       <c r="K121" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="L121" t="n">
         <v>2</v>
@@ -5302,14 +5298,14 @@
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>PB2402-2403</t>
+          <t>PB2309-2310</t>
         </is>
       </c>
       <c r="B122" t="n">
         <v>0</v>
       </c>
       <c r="C122" t="n">
-        <v>-55</v>
+        <v>-52</v>
       </c>
       <c r="D122" t="n">
         <v>-99999</v>
@@ -5342,14 +5338,14 @@
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>PB2403-2404</t>
+          <t>PB2310-2311</t>
         </is>
       </c>
       <c r="B123" t="n">
         <v>0</v>
       </c>
       <c r="C123" t="n">
-        <v>-55</v>
+        <v>-25</v>
       </c>
       <c r="D123" t="n">
         <v>-99999</v>
@@ -5373,23 +5369,23 @@
         <v>-99999</v>
       </c>
       <c r="K123" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>PF2309-2310</t>
+          <t>PB2402-2403</t>
         </is>
       </c>
       <c r="B124" t="n">
         <v>0</v>
       </c>
       <c r="C124" t="n">
-        <v>-52</v>
+        <v>-55</v>
       </c>
       <c r="D124" t="n">
         <v>-99999</v>
@@ -5413,23 +5409,23 @@
         <v>-99999</v>
       </c>
       <c r="K124" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="L124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>PF2310-2311</t>
+          <t>PB2403-2404</t>
         </is>
       </c>
       <c r="B125" t="n">
         <v>0</v>
       </c>
       <c r="C125" t="n">
-        <v>2</v>
+        <v>-55</v>
       </c>
       <c r="D125" t="n">
         <v>-99999</v>
@@ -5453,56 +5449,56 @@
         <v>-99999</v>
       </c>
       <c r="K125" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L125" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>PF2311-2312</t>
+          <t>PF2309-2310</t>
         </is>
       </c>
       <c r="B126" t="n">
         <v>0</v>
       </c>
       <c r="C126" t="n">
+        <v>-52</v>
+      </c>
+      <c r="D126" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E126" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F126" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H126" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I126" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J126" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K126" t="n">
+        <v>100</v>
+      </c>
+      <c r="L126" t="n">
         <v>2</v>
-      </c>
-      <c r="D126" t="n">
-        <v>-20</v>
-      </c>
-      <c r="E126" t="n">
-        <v>-40</v>
-      </c>
-      <c r="F126" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="H126" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="I126" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="J126" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="K126" t="n">
-        <v>40</v>
-      </c>
-      <c r="L126" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>PF2312-2401</t>
+          <t>PF2310-2311</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -5542,20 +5538,20 @@
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>PG2307-2308</t>
+          <t>PF2311-2312</t>
         </is>
       </c>
       <c r="B128" t="n">
         <v>0</v>
       </c>
       <c r="C128" t="n">
-        <v>-99999</v>
+        <v>2</v>
       </c>
       <c r="D128" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="E128" t="n">
-        <v>-99999</v>
+        <v>-40</v>
       </c>
       <c r="F128" t="n">
         <v>-99999</v>
@@ -5573,23 +5569,23 @@
         <v>-99999</v>
       </c>
       <c r="K128" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L128" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>PG2308-2309</t>
+          <t>PF2312-2401</t>
         </is>
       </c>
       <c r="B129" t="n">
         <v>0</v>
       </c>
       <c r="C129" t="n">
-        <v>-99999</v>
+        <v>2</v>
       </c>
       <c r="D129" t="n">
         <v>-99999</v>
@@ -5613,16 +5609,16 @@
         <v>-99999</v>
       </c>
       <c r="K129" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="L129" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>PG2309-2308</t>
+          <t>PG2307-2308</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -5653,7 +5649,7 @@
         <v>-99999</v>
       </c>
       <c r="K130" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L130" t="n">
         <v>0</v>
@@ -5662,20 +5658,20 @@
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>PP2309-2310</t>
+          <t>PG2308-2309</t>
         </is>
       </c>
       <c r="B131" t="n">
         <v>0</v>
       </c>
       <c r="C131" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="D131" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="E131" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="F131" t="n">
         <v>-99999</v>
@@ -5693,35 +5689,35 @@
         <v>-99999</v>
       </c>
       <c r="K131" t="n">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="L131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>PP2310-2311</t>
+          <t>PG2309-2308</t>
         </is>
       </c>
       <c r="B132" t="n">
         <v>0</v>
       </c>
       <c r="C132" t="n">
-        <v>2</v>
+        <v>-99999</v>
       </c>
       <c r="D132" t="n">
-        <v>-5</v>
+        <v>-99999</v>
       </c>
       <c r="E132" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="F132" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="G132" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="H132" t="n">
         <v>-99999</v>
@@ -5733,35 +5729,35 @@
         <v>-99999</v>
       </c>
       <c r="K132" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="L132" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>PP2311-2312</t>
+          <t>PP2309-2310</t>
         </is>
       </c>
       <c r="B133" t="n">
         <v>0</v>
       </c>
       <c r="C133" t="n">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="D133" t="n">
-        <v>-5</v>
+        <v>-15</v>
       </c>
       <c r="E133" t="n">
-        <v>-10</v>
+        <v>-20</v>
       </c>
       <c r="F133" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="G133" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="H133" t="n">
         <v>-99999</v>
@@ -5776,13 +5772,13 @@
         <v>35</v>
       </c>
       <c r="L133" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>PP2312-2401</t>
+          <t>PP2310-2311</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -5822,7 +5818,7 @@
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>PP2401-2402</t>
+          <t>PP2311-2312</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -5862,26 +5858,26 @@
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>PP2402-2403</t>
+          <t>PP2312-2401</t>
         </is>
       </c>
       <c r="B136" t="n">
         <v>0</v>
       </c>
       <c r="C136" t="n">
+        <v>2</v>
+      </c>
+      <c r="D136" t="n">
         <v>-5</v>
       </c>
-      <c r="D136" t="n">
-        <v>-99999</v>
-      </c>
       <c r="E136" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="F136" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="G136" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="H136" t="n">
         <v>-99999</v>
@@ -5902,26 +5898,26 @@
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>PP2405-2406</t>
+          <t>PP2401-2402</t>
         </is>
       </c>
       <c r="B137" t="n">
         <v>0</v>
       </c>
       <c r="C137" t="n">
+        <v>2</v>
+      </c>
+      <c r="D137" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E137" t="n">
         <v>-10</v>
       </c>
-      <c r="D137" t="n">
+      <c r="F137" t="n">
         <v>-15</v>
       </c>
-      <c r="E137" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="F137" t="n">
-        <v>-99999</v>
-      </c>
       <c r="G137" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="H137" t="n">
         <v>-99999</v>
@@ -5942,23 +5938,23 @@
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>RB2307-2308</t>
+          <t>PP2402-2403</t>
         </is>
       </c>
       <c r="B138" t="n">
         <v>0</v>
       </c>
       <c r="C138" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D138" t="n">
-        <v>-5</v>
+        <v>-99999</v>
       </c>
       <c r="E138" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="F138" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="G138" t="n">
         <v>-99999</v>
@@ -5973,7 +5969,7 @@
         <v>-99999</v>
       </c>
       <c r="K138" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="L138" t="n">
         <v>3</v>
@@ -5982,17 +5978,17 @@
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>RB2308-2309</t>
+          <t>PP2405-2406</t>
         </is>
       </c>
       <c r="B139" t="n">
         <v>0</v>
       </c>
       <c r="C139" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="D139" t="n">
-        <v>-20</v>
+        <v>-15</v>
       </c>
       <c r="E139" t="n">
         <v>-99999</v>
@@ -6013,7 +6009,7 @@
         <v>-99999</v>
       </c>
       <c r="K139" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="L139" t="n">
         <v>3</v>
@@ -6022,23 +6018,23 @@
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>RB2309-2310</t>
+          <t>RB2307-2308</t>
         </is>
       </c>
       <c r="B140" t="n">
         <v>0</v>
       </c>
       <c r="C140" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="D140" t="n">
-        <v>-99999</v>
+        <v>-5</v>
       </c>
       <c r="E140" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="F140" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="G140" t="n">
         <v>-99999</v>
@@ -6053,7 +6049,7 @@
         <v>-99999</v>
       </c>
       <c r="K140" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L140" t="n">
         <v>3</v>
@@ -6062,17 +6058,17 @@
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>RB2310-2311</t>
+          <t>RB2308-2309</t>
         </is>
       </c>
       <c r="B141" t="n">
         <v>0</v>
       </c>
       <c r="C141" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="D141" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="E141" t="n">
         <v>-99999</v>
@@ -6093,23 +6089,23 @@
         <v>-99999</v>
       </c>
       <c r="K141" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L141" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>RB2311-2312</t>
+          <t>RB2309-2310</t>
         </is>
       </c>
       <c r="B142" t="n">
         <v>0</v>
       </c>
       <c r="C142" t="n">
-        <v>-99999</v>
+        <v>-100</v>
       </c>
       <c r="D142" t="n">
         <v>-99999</v>
@@ -6133,16 +6129,16 @@
         <v>-99999</v>
       </c>
       <c r="K142" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="L142" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>RB2312-2401</t>
+          <t>RB2310-2311</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -6176,13 +6172,13 @@
         <v>20</v>
       </c>
       <c r="L143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>RB2401-2402</t>
+          <t>RB2311-2312</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -6216,13 +6212,13 @@
         <v>20</v>
       </c>
       <c r="L144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>RB2402-2403</t>
+          <t>RB2312-2401</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -6262,7 +6258,7 @@
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>RB2403-2404</t>
+          <t>RB2401-2402</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -6302,17 +6298,17 @@
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>RM2307-2308</t>
+          <t>RB2402-2403</t>
         </is>
       </c>
       <c r="B147" t="n">
         <v>0</v>
       </c>
       <c r="C147" t="n">
-        <v>-70</v>
+        <v>-99999</v>
       </c>
       <c r="D147" t="n">
-        <v>-100</v>
+        <v>-99999</v>
       </c>
       <c r="E147" t="n">
         <v>-99999</v>
@@ -6333,35 +6329,35 @@
         <v>-99999</v>
       </c>
       <c r="K147" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L147" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>RM2308-2309</t>
+          <t>RB2403-2404</t>
         </is>
       </c>
       <c r="B148" t="n">
         <v>0</v>
       </c>
       <c r="C148" t="n">
-        <v>10</v>
+        <v>-99999</v>
       </c>
       <c r="D148" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="E148" t="n">
-        <v>-5</v>
+        <v>-99999</v>
       </c>
       <c r="F148" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="G148" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="H148" t="n">
         <v>-99999</v>
@@ -6376,32 +6372,32 @@
         <v>20</v>
       </c>
       <c r="L148" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>RM2309-2311</t>
+          <t>RM2307-2308</t>
         </is>
       </c>
       <c r="B149" t="n">
         <v>0</v>
       </c>
       <c r="C149" t="n">
-        <v>10</v>
+        <v>-70</v>
       </c>
       <c r="D149" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E149" t="n">
-        <v>-5</v>
+        <v>-99999</v>
       </c>
       <c r="F149" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="G149" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="H149" t="n">
         <v>-99999</v>
@@ -6413,7 +6409,7 @@
         <v>-99999</v>
       </c>
       <c r="K149" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L149" t="n">
         <v>3</v>
@@ -6422,26 +6418,26 @@
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>RM2401-2403</t>
+          <t>RM2308-2309</t>
         </is>
       </c>
       <c r="B150" t="n">
         <v>0</v>
       </c>
       <c r="C150" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D150" t="n">
+        <v>0</v>
+      </c>
+      <c r="E150" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F150" t="n">
         <v>-10</v>
       </c>
-      <c r="E150" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F150" t="n">
-        <v>-99999</v>
-      </c>
       <c r="G150" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="H150" t="n">
         <v>-99999</v>
@@ -6462,26 +6458,26 @@
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>RM2405-2407</t>
+          <t>RM2309-2311</t>
         </is>
       </c>
       <c r="B151" t="n">
         <v>0</v>
       </c>
       <c r="C151" t="n">
+        <v>10</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0</v>
+      </c>
+      <c r="E151" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F151" t="n">
         <v>-10</v>
       </c>
-      <c r="D151" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E151" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="F151" t="n">
-        <v>-99999</v>
-      </c>
       <c r="G151" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="H151" t="n">
         <v>-99999</v>
@@ -6493,29 +6489,29 @@
         <v>-99999</v>
       </c>
       <c r="K151" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="L151" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>RR2308-2309</t>
+          <t>RM2401-2403</t>
         </is>
       </c>
       <c r="B152" t="n">
         <v>0</v>
       </c>
       <c r="C152" t="n">
-        <v>-75</v>
+        <v>0</v>
       </c>
       <c r="D152" t="n">
-        <v>-80</v>
+        <v>-10</v>
       </c>
       <c r="E152" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="F152" t="n">
         <v>-99999</v>
@@ -6533,23 +6529,23 @@
         <v>-99999</v>
       </c>
       <c r="K152" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L152" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>RR2309-2310</t>
+          <t>RM2405-2407</t>
         </is>
       </c>
       <c r="B153" t="n">
         <v>0</v>
       </c>
       <c r="C153" t="n">
-        <v>-72</v>
+        <v>-10</v>
       </c>
       <c r="D153" t="n">
         <v>-99999</v>
@@ -6573,29 +6569,29 @@
         <v>-99999</v>
       </c>
       <c r="K153" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L153" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>RR2312-2401</t>
+          <t>RR2308-2309</t>
         </is>
       </c>
       <c r="B154" t="n">
         <v>0</v>
       </c>
       <c r="C154" t="n">
-        <v>-60</v>
+        <v>-75</v>
       </c>
       <c r="D154" t="n">
-        <v>-65</v>
+        <v>-80</v>
       </c>
       <c r="E154" t="n">
-        <v>-70</v>
+        <v>-99999</v>
       </c>
       <c r="F154" t="n">
         <v>-99999</v>
@@ -6613,26 +6609,26 @@
         <v>-99999</v>
       </c>
       <c r="K154" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="L154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>RU2307-2308</t>
+          <t>RR2309-2310</t>
         </is>
       </c>
       <c r="B155" t="n">
         <v>0</v>
       </c>
       <c r="C155" t="n">
-        <v>-100</v>
+        <v>-72</v>
       </c>
       <c r="D155" t="n">
-        <v>-100</v>
+        <v>-99999</v>
       </c>
       <c r="E155" t="n">
         <v>-99999</v>
@@ -6653,29 +6649,29 @@
         <v>-99999</v>
       </c>
       <c r="K155" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L155" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>RU2308-2309</t>
+          <t>RR2312-2401</t>
         </is>
       </c>
       <c r="B156" t="n">
         <v>0</v>
       </c>
       <c r="C156" t="n">
-        <v>-75</v>
+        <v>-60</v>
       </c>
       <c r="D156" t="n">
-        <v>-99999</v>
+        <v>-65</v>
       </c>
       <c r="E156" t="n">
-        <v>-99999</v>
+        <v>-70</v>
       </c>
       <c r="F156" t="n">
         <v>-99999</v>
@@ -6693,7 +6689,7 @@
         <v>-99999</v>
       </c>
       <c r="K156" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="L156" t="n">
         <v>1</v>
@@ -6702,17 +6698,17 @@
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>RU2309-2310</t>
+          <t>RU2307-2308</t>
         </is>
       </c>
       <c r="B157" t="n">
         <v>0</v>
       </c>
       <c r="C157" t="n">
-        <v>-60</v>
+        <v>-100</v>
       </c>
       <c r="D157" t="n">
-        <v>-110</v>
+        <v>-100</v>
       </c>
       <c r="E157" t="n">
         <v>-99999</v>
@@ -6733,7 +6729,7 @@
         <v>-99999</v>
       </c>
       <c r="K157" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="L157" t="n">
         <v>1</v>
@@ -6742,20 +6738,20 @@
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>RU2310-2311</t>
+          <t>RU2308-2309</t>
         </is>
       </c>
       <c r="B158" t="n">
         <v>0</v>
       </c>
       <c r="C158" t="n">
-        <v>0</v>
+        <v>-75</v>
       </c>
       <c r="D158" t="n">
-        <v>-70</v>
+        <v>-99999</v>
       </c>
       <c r="E158" t="n">
-        <v>-80</v>
+        <v>-99999</v>
       </c>
       <c r="F158" t="n">
         <v>-99999</v>
@@ -6773,7 +6769,7 @@
         <v>-99999</v>
       </c>
       <c r="K158" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L158" t="n">
         <v>1</v>
@@ -6782,17 +6778,17 @@
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>RU2311-2401</t>
+          <t>RU2309-2310</t>
         </is>
       </c>
       <c r="B159" t="n">
         <v>0</v>
       </c>
       <c r="C159" t="n">
-        <v>-1800</v>
+        <v>-60</v>
       </c>
       <c r="D159" t="n">
-        <v>-99999</v>
+        <v>-110</v>
       </c>
       <c r="E159" t="n">
         <v>-99999</v>
@@ -6813,7 +6809,7 @@
         <v>-99999</v>
       </c>
       <c r="K159" t="n">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c r="L159" t="n">
         <v>1</v>
@@ -6822,20 +6818,20 @@
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>RU2401-2403</t>
+          <t>RU2310-2311</t>
         </is>
       </c>
       <c r="B160" t="n">
         <v>0</v>
       </c>
       <c r="C160" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="D160" t="n">
-        <v>-120</v>
+        <v>-70</v>
       </c>
       <c r="E160" t="n">
-        <v>-99999</v>
+        <v>-80</v>
       </c>
       <c r="F160" t="n">
         <v>-99999</v>
@@ -6853,7 +6849,7 @@
         <v>-99999</v>
       </c>
       <c r="K160" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="L160" t="n">
         <v>1</v>
@@ -6862,20 +6858,20 @@
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>RU2403-2404</t>
+          <t>RU2311-2401</t>
         </is>
       </c>
       <c r="B161" t="n">
         <v>0</v>
       </c>
       <c r="C161" t="n">
-        <v>-60</v>
+        <v>-1800</v>
       </c>
       <c r="D161" t="n">
-        <v>-70</v>
+        <v>-99999</v>
       </c>
       <c r="E161" t="n">
-        <v>-80</v>
+        <v>-99999</v>
       </c>
       <c r="F161" t="n">
         <v>-99999</v>
@@ -6893,7 +6889,7 @@
         <v>-99999</v>
       </c>
       <c r="K161" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="L161" t="n">
         <v>1</v>
@@ -6902,17 +6898,17 @@
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>SA2308-2309</t>
+          <t>RU2401-2403</t>
         </is>
       </c>
       <c r="B162" t="n">
         <v>0</v>
       </c>
       <c r="C162" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="D162" t="n">
-        <v>-99999</v>
+        <v>-120</v>
       </c>
       <c r="E162" t="n">
         <v>-99999</v>
@@ -6942,20 +6938,20 @@
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>SA2310-2311</t>
+          <t>RU2403-2404</t>
         </is>
       </c>
       <c r="B163" t="n">
         <v>0</v>
       </c>
       <c r="C163" t="n">
-        <v>0</v>
+        <v>-60</v>
       </c>
       <c r="D163" t="n">
-        <v>-99999</v>
+        <v>-70</v>
       </c>
       <c r="E163" t="n">
-        <v>-99999</v>
+        <v>-80</v>
       </c>
       <c r="F163" t="n">
         <v>-99999</v>
@@ -6973,7 +6969,7 @@
         <v>-99999</v>
       </c>
       <c r="K163" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="L163" t="n">
         <v>1</v>
@@ -6982,7 +6978,7 @@
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>SA2311-2312</t>
+          <t>SA2308-2309</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -6992,7 +6988,7 @@
         <v>0</v>
       </c>
       <c r="D164" t="n">
-        <v>-3</v>
+        <v>-99999</v>
       </c>
       <c r="E164" t="n">
         <v>-99999</v>
@@ -7013,23 +7009,23 @@
         <v>-99999</v>
       </c>
       <c r="K164" t="n">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="L164" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>SA2312-2401</t>
+          <t>SA2310-2311</t>
         </is>
       </c>
       <c r="B165" t="n">
         <v>0</v>
       </c>
       <c r="C165" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D165" t="n">
         <v>-99999</v>
@@ -7053,29 +7049,29 @@
         <v>-99999</v>
       </c>
       <c r="K165" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="L165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>SA2401-2402</t>
+          <t>SA2311-2312</t>
         </is>
       </c>
       <c r="B166" t="n">
         <v>0</v>
       </c>
       <c r="C166" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="D166" t="n">
-        <v>-30</v>
+        <v>-3</v>
       </c>
       <c r="E166" t="n">
-        <v>-35</v>
+        <v>-99999</v>
       </c>
       <c r="F166" t="n">
         <v>-99999</v>
@@ -7093,29 +7089,29 @@
         <v>-99999</v>
       </c>
       <c r="K166" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L166" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>SA2402-2403</t>
+          <t>SA2312-2401</t>
         </is>
       </c>
       <c r="B167" t="n">
         <v>0</v>
       </c>
       <c r="C167" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D167" t="n">
-        <v>7</v>
+        <v>-99999</v>
       </c>
       <c r="E167" t="n">
-        <v>5</v>
+        <v>-99999</v>
       </c>
       <c r="F167" t="n">
         <v>-99999</v>
@@ -7133,7 +7129,7 @@
         <v>-99999</v>
       </c>
       <c r="K167" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="L167" t="n">
         <v>2</v>
@@ -7142,21 +7138,21 @@
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>SA2403-2404</t>
+          <t>SA2401-2402</t>
         </is>
       </c>
       <c r="B168" t="n">
         <v>0</v>
       </c>
       <c r="C168" t="n">
+        <v>-25</v>
+      </c>
+      <c r="D168" t="n">
+        <v>-30</v>
+      </c>
+      <c r="E168" t="n">
         <v>-35</v>
       </c>
-      <c r="D168" t="n">
-        <v>-40</v>
-      </c>
-      <c r="E168" t="n">
-        <v>-99999</v>
-      </c>
       <c r="F168" t="n">
         <v>-99999</v>
       </c>
@@ -7173,7 +7169,7 @@
         <v>-99999</v>
       </c>
       <c r="K168" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L168" t="n">
         <v>2</v>
@@ -7182,23 +7178,23 @@
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>SC2307-2308</t>
+          <t>SA2402-2403</t>
         </is>
       </c>
       <c r="B169" t="n">
         <v>0</v>
       </c>
       <c r="C169" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D169" t="n">
-        <v>-3.5</v>
+        <v>7</v>
       </c>
       <c r="E169" t="n">
-        <v>-3.5</v>
+        <v>5</v>
       </c>
       <c r="F169" t="n">
-        <v>-3.5</v>
+        <v>-99999</v>
       </c>
       <c r="G169" t="n">
         <v>-99999</v>
@@ -7213,26 +7209,26 @@
         <v>-99999</v>
       </c>
       <c r="K169" t="n">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="L169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>SC2308-2309</t>
+          <t>SA2403-2404</t>
         </is>
       </c>
       <c r="B170" t="n">
         <v>0</v>
       </c>
       <c r="C170" t="n">
-        <v>-99999</v>
+        <v>-35</v>
       </c>
       <c r="D170" t="n">
-        <v>-99999</v>
+        <v>-40</v>
       </c>
       <c r="E170" t="n">
         <v>-99999</v>
@@ -7253,32 +7249,32 @@
         <v>-99999</v>
       </c>
       <c r="K170" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="L170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>SC2309-2308</t>
+          <t>SC2307-2308</t>
         </is>
       </c>
       <c r="B171" t="n">
         <v>0</v>
       </c>
       <c r="C171" t="n">
-        <v>-99999</v>
+        <v>1</v>
       </c>
       <c r="D171" t="n">
-        <v>-99999</v>
+        <v>-3.5</v>
       </c>
       <c r="E171" t="n">
-        <v>-99999</v>
+        <v>-3.5</v>
       </c>
       <c r="F171" t="n">
-        <v>-99999</v>
+        <v>-3.5</v>
       </c>
       <c r="G171" t="n">
         <v>-99999</v>
@@ -7293,7 +7289,7 @@
         <v>-99999</v>
       </c>
       <c r="K171" t="n">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="L171" t="n">
         <v>1</v>
@@ -7302,17 +7298,17 @@
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>SC2309-2310</t>
+          <t>SC2308-2309</t>
         </is>
       </c>
       <c r="B172" t="n">
         <v>0</v>
       </c>
       <c r="C172" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="D172" t="n">
-        <v>-1</v>
+        <v>-99999</v>
       </c>
       <c r="E172" t="n">
         <v>-99999</v>
@@ -7333,7 +7329,7 @@
         <v>-99999</v>
       </c>
       <c r="K172" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L172" t="n">
         <v>1</v>
@@ -7342,7 +7338,7 @@
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>SC2310-2309</t>
+          <t>SC2309-2308</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -7373,7 +7369,7 @@
         <v>-99999</v>
       </c>
       <c r="K173" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="L173" t="n">
         <v>1</v>
@@ -7382,18 +7378,18 @@
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>SC2310-2311</t>
+          <t>SC2309-2310</t>
         </is>
       </c>
       <c r="B174" t="n">
         <v>0</v>
       </c>
       <c r="C174" t="n">
+        <v>0</v>
+      </c>
+      <c r="D174" t="n">
         <v>-1</v>
       </c>
-      <c r="D174" t="n">
-        <v>-99999</v>
-      </c>
       <c r="E174" t="n">
         <v>-99999</v>
       </c>
@@ -7413,7 +7409,7 @@
         <v>-99999</v>
       </c>
       <c r="K174" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L174" t="n">
         <v>1</v>
@@ -7422,14 +7418,14 @@
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>SC2311-2312</t>
+          <t>SC2310-2309</t>
         </is>
       </c>
       <c r="B175" t="n">
         <v>0</v>
       </c>
       <c r="C175" t="n">
-        <v>-2</v>
+        <v>-5.4</v>
       </c>
       <c r="D175" t="n">
         <v>-99999</v>
@@ -7453,7 +7449,7 @@
         <v>-99999</v>
       </c>
       <c r="K175" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L175" t="n">
         <v>1</v>
@@ -7462,17 +7458,17 @@
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>SN2308-2309</t>
+          <t>SC2310-2311</t>
         </is>
       </c>
       <c r="B176" t="n">
         <v>0</v>
       </c>
       <c r="C176" t="n">
-        <v>-320</v>
+        <v>-1</v>
       </c>
       <c r="D176" t="n">
-        <v>-320</v>
+        <v>-99999</v>
       </c>
       <c r="E176" t="n">
         <v>-99999</v>
@@ -7493,7 +7489,7 @@
         <v>-99999</v>
       </c>
       <c r="K176" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L176" t="n">
         <v>1</v>
@@ -7502,29 +7498,29 @@
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>SN2309-2310</t>
+          <t>SC2311-2312</t>
         </is>
       </c>
       <c r="B177" t="n">
         <v>0</v>
       </c>
       <c r="C177" t="n">
-        <v>-250</v>
+        <v>-2</v>
       </c>
       <c r="D177" t="n">
-        <v>-270</v>
+        <v>-99999</v>
       </c>
       <c r="E177" t="n">
-        <v>-300</v>
+        <v>-99999</v>
       </c>
       <c r="F177" t="n">
-        <v>-330</v>
+        <v>-99999</v>
       </c>
       <c r="G177" t="n">
-        <v>-330</v>
+        <v>-99999</v>
       </c>
       <c r="H177" t="n">
-        <v>-330</v>
+        <v>-99999</v>
       </c>
       <c r="I177" t="n">
         <v>-99999</v>
@@ -7533,7 +7529,7 @@
         <v>-99999</v>
       </c>
       <c r="K177" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="L177" t="n">
         <v>1</v>
@@ -7542,29 +7538,29 @@
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>SN2310-2311</t>
+          <t>SN2308-2309</t>
         </is>
       </c>
       <c r="B178" t="n">
         <v>0</v>
       </c>
       <c r="C178" t="n">
-        <v>-250</v>
+        <v>-320</v>
       </c>
       <c r="D178" t="n">
-        <v>-270</v>
+        <v>-320</v>
       </c>
       <c r="E178" t="n">
-        <v>-300</v>
+        <v>-99999</v>
       </c>
       <c r="F178" t="n">
-        <v>-330</v>
+        <v>-99999</v>
       </c>
       <c r="G178" t="n">
-        <v>-330</v>
+        <v>-99999</v>
       </c>
       <c r="H178" t="n">
-        <v>-330</v>
+        <v>-99999</v>
       </c>
       <c r="I178" t="n">
         <v>-99999</v>
@@ -7573,7 +7569,7 @@
         <v>-99999</v>
       </c>
       <c r="K178" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="L178" t="n">
         <v>1</v>
@@ -7582,29 +7578,29 @@
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>SP2307-2308</t>
+          <t>SN2309-2310</t>
         </is>
       </c>
       <c r="B179" t="n">
         <v>0</v>
       </c>
       <c r="C179" t="n">
-        <v>-40</v>
+        <v>-250</v>
       </c>
       <c r="D179" t="n">
-        <v>-40</v>
+        <v>-270</v>
       </c>
       <c r="E179" t="n">
-        <v>-99999</v>
+        <v>-300</v>
       </c>
       <c r="F179" t="n">
-        <v>-99999</v>
+        <v>-330</v>
       </c>
       <c r="G179" t="n">
-        <v>-99999</v>
+        <v>-330</v>
       </c>
       <c r="H179" t="n">
-        <v>-99999</v>
+        <v>-330</v>
       </c>
       <c r="I179" t="n">
         <v>-99999</v>
@@ -7613,38 +7609,38 @@
         <v>-99999</v>
       </c>
       <c r="K179" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="L179" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>SP2309-2310</t>
+          <t>SN2310-2311</t>
         </is>
       </c>
       <c r="B180" t="n">
         <v>0</v>
       </c>
       <c r="C180" t="n">
-        <v>-18</v>
+        <v>-250</v>
       </c>
       <c r="D180" t="n">
-        <v>-24</v>
+        <v>-270</v>
       </c>
       <c r="E180" t="n">
-        <v>-30</v>
+        <v>-300</v>
       </c>
       <c r="F180" t="n">
-        <v>-36</v>
+        <v>-330</v>
       </c>
       <c r="G180" t="n">
-        <v>-99999</v>
+        <v>-330</v>
       </c>
       <c r="H180" t="n">
-        <v>-99999</v>
+        <v>-330</v>
       </c>
       <c r="I180" t="n">
         <v>-99999</v>
@@ -7653,32 +7649,32 @@
         <v>-99999</v>
       </c>
       <c r="K180" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L180" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>SP2310-2311</t>
+          <t>SP2307-2308</t>
         </is>
       </c>
       <c r="B181" t="n">
         <v>0</v>
       </c>
       <c r="C181" t="n">
-        <v>-18</v>
+        <v>-40</v>
       </c>
       <c r="D181" t="n">
-        <v>-24</v>
+        <v>-40</v>
       </c>
       <c r="E181" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="F181" t="n">
-        <v>-36</v>
+        <v>-99999</v>
       </c>
       <c r="G181" t="n">
         <v>-99999</v>
@@ -7693,7 +7689,7 @@
         <v>-99999</v>
       </c>
       <c r="K181" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="L181" t="n">
         <v>3</v>
@@ -7702,7 +7698,7 @@
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>SP2311-2312</t>
+          <t>SP2309-2310</t>
         </is>
       </c>
       <c r="B182" t="n">
@@ -7742,23 +7738,23 @@
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>SP2312-2401</t>
+          <t>SP2310-2311</t>
         </is>
       </c>
       <c r="B183" t="n">
         <v>0</v>
       </c>
       <c r="C183" t="n">
-        <v>-126</v>
+        <v>-18</v>
       </c>
       <c r="D183" t="n">
-        <v>-140</v>
+        <v>-24</v>
       </c>
       <c r="E183" t="n">
-        <v>-165</v>
+        <v>-30</v>
       </c>
       <c r="F183" t="n">
-        <v>-175</v>
+        <v>-36</v>
       </c>
       <c r="G183" t="n">
         <v>-99999</v>
@@ -7773,32 +7769,32 @@
         <v>-99999</v>
       </c>
       <c r="K183" t="n">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="L183" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>SP2401-2402</t>
+          <t>SP2311-2312</t>
         </is>
       </c>
       <c r="B184" t="n">
         <v>0</v>
       </c>
       <c r="C184" t="n">
+        <v>-18</v>
+      </c>
+      <c r="D184" t="n">
         <v>-24</v>
       </c>
-      <c r="D184" t="n">
-        <v>-99999</v>
-      </c>
       <c r="E184" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="F184" t="n">
-        <v>-99999</v>
+        <v>-36</v>
       </c>
       <c r="G184" t="n">
         <v>-99999</v>
@@ -7813,7 +7809,7 @@
         <v>-99999</v>
       </c>
       <c r="K184" t="n">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="L184" t="n">
         <v>3</v>
@@ -7822,23 +7818,23 @@
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>SP2402-2403</t>
+          <t>SP2312-2401</t>
         </is>
       </c>
       <c r="B185" t="n">
         <v>0</v>
       </c>
       <c r="C185" t="n">
-        <v>-24</v>
+        <v>-126</v>
       </c>
       <c r="D185" t="n">
-        <v>-32</v>
+        <v>-140</v>
       </c>
       <c r="E185" t="n">
-        <v>-99999</v>
+        <v>-165</v>
       </c>
       <c r="F185" t="n">
-        <v>-99999</v>
+        <v>-175</v>
       </c>
       <c r="G185" t="n">
         <v>-99999</v>
@@ -7856,13 +7852,13 @@
         <v>18</v>
       </c>
       <c r="L185" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>SP2403-2404</t>
+          <t>SP2401-2402</t>
         </is>
       </c>
       <c r="B186" t="n">
@@ -7872,7 +7868,7 @@
         <v>-24</v>
       </c>
       <c r="D186" t="n">
-        <v>-32</v>
+        <v>-99999</v>
       </c>
       <c r="E186" t="n">
         <v>-99999</v>
@@ -7902,7 +7898,7 @@
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>SP2404-2405</t>
+          <t>SP2402-2403</t>
         </is>
       </c>
       <c r="B187" t="n">
@@ -7942,7 +7938,7 @@
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>SP2405-2406</t>
+          <t>SP2403-2404</t>
         </is>
       </c>
       <c r="B188" t="n">
@@ -7982,17 +7978,17 @@
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>TA2307-2308</t>
+          <t>SP2404-2405</t>
         </is>
       </c>
       <c r="B189" t="n">
         <v>0</v>
       </c>
       <c r="C189" t="n">
-        <v>-99999</v>
+        <v>-24</v>
       </c>
       <c r="D189" t="n">
-        <v>-99999</v>
+        <v>-32</v>
       </c>
       <c r="E189" t="n">
         <v>-99999</v>
@@ -8013,7 +8009,7 @@
         <v>-99999</v>
       </c>
       <c r="K189" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L189" t="n">
         <v>3</v>
@@ -8022,17 +8018,17 @@
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>TA2307-2309</t>
+          <t>SP2405-2406</t>
         </is>
       </c>
       <c r="B190" t="n">
         <v>0</v>
       </c>
       <c r="C190" t="n">
-        <v>-99999</v>
+        <v>-24</v>
       </c>
       <c r="D190" t="n">
-        <v>-99999</v>
+        <v>-32</v>
       </c>
       <c r="E190" t="n">
         <v>-99999</v>
@@ -8053,7 +8049,7 @@
         <v>-99999</v>
       </c>
       <c r="K190" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L190" t="n">
         <v>3</v>
@@ -8062,7 +8058,7 @@
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>TA2308-2309</t>
+          <t>TA2307-2308</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -8102,17 +8098,17 @@
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>TA2309-2310</t>
+          <t>TA2307-2309</t>
         </is>
       </c>
       <c r="B192" t="n">
         <v>0</v>
       </c>
       <c r="C192" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="D192" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="E192" t="n">
         <v>-99999</v>
@@ -8133,7 +8129,7 @@
         <v>-99999</v>
       </c>
       <c r="K192" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="L192" t="n">
         <v>3</v>
@@ -8142,7 +8138,7 @@
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>TA2310-2311</t>
+          <t>TA2308-2309</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -8182,17 +8178,17 @@
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>TA2311-2312</t>
+          <t>TA2309-2310</t>
         </is>
       </c>
       <c r="B194" t="n">
         <v>0</v>
       </c>
       <c r="C194" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="D194" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="E194" t="n">
         <v>-99999</v>
@@ -8213,7 +8209,7 @@
         <v>-99999</v>
       </c>
       <c r="K194" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="L194" t="n">
         <v>3</v>
@@ -8222,17 +8218,17 @@
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>TA2312-2401</t>
+          <t>TA2310-2311</t>
         </is>
       </c>
       <c r="B195" t="n">
         <v>0</v>
       </c>
       <c r="C195" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="D195" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="E195" t="n">
         <v>-99999</v>
@@ -8253,7 +8249,7 @@
         <v>-99999</v>
       </c>
       <c r="K195" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="L195" t="n">
         <v>3</v>
@@ -8262,17 +8258,17 @@
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>TA2401-2402</t>
+          <t>TA2311-2312</t>
         </is>
       </c>
       <c r="B196" t="n">
         <v>0</v>
       </c>
       <c r="C196" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="D196" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="E196" t="n">
         <v>-99999</v>
@@ -8293,7 +8289,7 @@
         <v>-99999</v>
       </c>
       <c r="K196" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="L196" t="n">
         <v>3</v>
@@ -8302,17 +8298,17 @@
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>TA2402-2403</t>
+          <t>TA2312-2401</t>
         </is>
       </c>
       <c r="B197" t="n">
         <v>0</v>
       </c>
       <c r="C197" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="D197" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="E197" t="n">
         <v>-99999</v>
@@ -8342,17 +8338,17 @@
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>TA2403-2404</t>
+          <t>TA2401-2402</t>
         </is>
       </c>
       <c r="B198" t="n">
         <v>0</v>
       </c>
       <c r="C198" t="n">
-        <v>-28</v>
+        <v>-15</v>
       </c>
       <c r="D198" t="n">
-        <v>-30</v>
+        <v>-20</v>
       </c>
       <c r="E198" t="n">
         <v>-99999</v>
@@ -8373,7 +8369,7 @@
         <v>-99999</v>
       </c>
       <c r="K198" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="L198" t="n">
         <v>3</v>
@@ -8382,17 +8378,17 @@
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>UR2310-2311</t>
+          <t>TA2402-2403</t>
         </is>
       </c>
       <c r="B199" t="n">
         <v>0</v>
       </c>
       <c r="C199" t="n">
-        <v>-35</v>
+        <v>-99999</v>
       </c>
       <c r="D199" t="n">
-        <v>-45</v>
+        <v>-99999</v>
       </c>
       <c r="E199" t="n">
         <v>-99999</v>
@@ -8422,17 +8418,17 @@
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>UR2311-2312</t>
+          <t>TA2403-2404</t>
         </is>
       </c>
       <c r="B200" t="n">
         <v>0</v>
       </c>
       <c r="C200" t="n">
-        <v>5</v>
+        <v>-28</v>
       </c>
       <c r="D200" t="n">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="E200" t="n">
         <v>-99999</v>
@@ -8453,7 +8449,7 @@
         <v>-99999</v>
       </c>
       <c r="K200" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="L200" t="n">
         <v>3</v>
@@ -8462,17 +8458,17 @@
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>UR2312-2401</t>
+          <t>UR2310-2311</t>
         </is>
       </c>
       <c r="B201" t="n">
         <v>0</v>
       </c>
       <c r="C201" t="n">
-        <v>5</v>
+        <v>-35</v>
       </c>
       <c r="D201" t="n">
-        <v>0</v>
+        <v>-45</v>
       </c>
       <c r="E201" t="n">
         <v>-99999</v>
@@ -8493,7 +8489,7 @@
         <v>-99999</v>
       </c>
       <c r="K201" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L201" t="n">
         <v>3</v>
@@ -8502,17 +8498,17 @@
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>UR2401-2402</t>
+          <t>UR2311-2312</t>
         </is>
       </c>
       <c r="B202" t="n">
         <v>0</v>
       </c>
       <c r="C202" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D202" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="E202" t="n">
         <v>-99999</v>
@@ -8533,7 +8529,7 @@
         <v>-99999</v>
       </c>
       <c r="K202" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="L202" t="n">
         <v>3</v>
@@ -8542,17 +8538,17 @@
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>UR2402-2403</t>
+          <t>UR2312-2401</t>
         </is>
       </c>
       <c r="B203" t="n">
         <v>0</v>
       </c>
       <c r="C203" t="n">
-        <v>-50</v>
+        <v>5</v>
       </c>
       <c r="D203" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="E203" t="n">
         <v>-99999</v>
@@ -8573,7 +8569,7 @@
         <v>-99999</v>
       </c>
       <c r="K203" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="L203" t="n">
         <v>3</v>
@@ -8582,17 +8578,17 @@
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>UR2403-2404</t>
+          <t>UR2401-2402</t>
         </is>
       </c>
       <c r="B204" t="n">
         <v>0</v>
       </c>
       <c r="C204" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D204" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="E204" t="n">
         <v>-99999</v>
@@ -8622,20 +8618,20 @@
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>UR2404-2405</t>
+          <t>UR2402-2403</t>
         </is>
       </c>
       <c r="B205" t="n">
         <v>0</v>
       </c>
       <c r="C205" t="n">
-        <v>5</v>
+        <v>-50</v>
       </c>
       <c r="D205" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="E205" t="n">
-        <v>-5</v>
+        <v>-99999</v>
       </c>
       <c r="F205" t="n">
         <v>-99999</v>
@@ -8653,7 +8649,7 @@
         <v>-99999</v>
       </c>
       <c r="K205" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="L205" t="n">
         <v>3</v>
@@ -8662,17 +8658,17 @@
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>V2308-2309</t>
+          <t>UR2403-2404</t>
         </is>
       </c>
       <c r="B206" t="n">
         <v>0</v>
       </c>
       <c r="C206" t="n">
-        <v>-99999</v>
+        <v>5</v>
       </c>
       <c r="D206" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="E206" t="n">
         <v>-99999</v>
@@ -8693,7 +8689,7 @@
         <v>-99999</v>
       </c>
       <c r="K206" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L206" t="n">
         <v>3</v>
@@ -8702,26 +8698,26 @@
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>V2309-2310</t>
+          <t>UR2404-2405</t>
         </is>
       </c>
       <c r="B207" t="n">
         <v>0</v>
       </c>
       <c r="C207" t="n">
-        <v>-10</v>
+        <v>5</v>
       </c>
       <c r="D207" t="n">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="E207" t="n">
-        <v>-20</v>
+        <v>-5</v>
       </c>
       <c r="F207" t="n">
-        <v>-25</v>
+        <v>-99999</v>
       </c>
       <c r="G207" t="n">
-        <v>-28</v>
+        <v>-99999</v>
       </c>
       <c r="H207" t="n">
         <v>-99999</v>
@@ -8733,38 +8729,38 @@
         <v>-99999</v>
       </c>
       <c r="K207" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="L207" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>V2310-2311</t>
+          <t>V2308-2309</t>
         </is>
       </c>
       <c r="B208" t="n">
         <v>0</v>
       </c>
       <c r="C208" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="D208" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="E208" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="F208" t="n">
-        <v>-25</v>
+        <v>-99999</v>
       </c>
       <c r="G208" t="n">
-        <v>-28</v>
+        <v>-99999</v>
       </c>
       <c r="H208" t="n">
-        <v>-38</v>
+        <v>-99999</v>
       </c>
       <c r="I208" t="n">
         <v>-99999</v>
@@ -8773,16 +8769,16 @@
         <v>-99999</v>
       </c>
       <c r="K208" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L208" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>V2311-2312</t>
+          <t>V2309-2310</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -8804,7 +8800,7 @@
         <v>-28</v>
       </c>
       <c r="H209" t="n">
-        <v>-38</v>
+        <v>-99999</v>
       </c>
       <c r="I209" t="n">
         <v>-99999</v>
@@ -8822,7 +8818,7 @@
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>V2312-2401</t>
+          <t>V2310-2311</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -8862,29 +8858,29 @@
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>V2401-2402</t>
+          <t>V2311-2312</t>
         </is>
       </c>
       <c r="B211" t="n">
         <v>0</v>
       </c>
       <c r="C211" t="n">
-        <v>-3</v>
+        <v>-10</v>
       </c>
       <c r="D211" t="n">
-        <v>-18</v>
+        <v>-15</v>
       </c>
       <c r="E211" t="n">
-        <v>-30</v>
+        <v>-20</v>
       </c>
       <c r="F211" t="n">
-        <v>-99999</v>
+        <v>-25</v>
       </c>
       <c r="G211" t="n">
-        <v>-99999</v>
+        <v>-28</v>
       </c>
       <c r="H211" t="n">
-        <v>-99999</v>
+        <v>-38</v>
       </c>
       <c r="I211" t="n">
         <v>-99999</v>
@@ -8896,124 +8892,124 @@
         <v>30</v>
       </c>
       <c r="L211" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>V2402-2403</t>
+          <t>V2312-2401</t>
         </is>
       </c>
       <c r="B212" t="n">
         <v>0</v>
       </c>
       <c r="C212" t="n">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="D212" t="n">
         <v>-15</v>
       </c>
       <c r="E212" t="n">
-        <v>-30</v>
+        <v>-20</v>
       </c>
       <c r="F212" t="n">
-        <v>-99999</v>
+        <v>-25</v>
       </c>
       <c r="G212" t="n">
-        <v>-99999</v>
+        <v>-28</v>
       </c>
       <c r="H212" t="n">
-        <v>-99999</v>
+        <v>-38</v>
       </c>
       <c r="I212" t="n">
-        <v>-35</v>
+        <v>-99999</v>
       </c>
       <c r="J212" t="n">
         <v>-99999</v>
       </c>
       <c r="K212" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="L212" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>V2403-2404</t>
+          <t>V2401-2402</t>
         </is>
       </c>
       <c r="B213" t="n">
         <v>0</v>
       </c>
       <c r="C213" t="n">
-        <v>10</v>
+        <v>-3</v>
       </c>
       <c r="D213" t="n">
-        <v>-36</v>
+        <v>-18</v>
       </c>
       <c r="E213" t="n">
-        <v>-40</v>
+        <v>-30</v>
       </c>
       <c r="F213" t="n">
-        <v>-44</v>
+        <v>-99999</v>
       </c>
       <c r="G213" t="n">
-        <v>-48</v>
+        <v>-99999</v>
       </c>
       <c r="H213" t="n">
-        <v>-52</v>
+        <v>-99999</v>
       </c>
       <c r="I213" t="n">
-        <v>-52</v>
+        <v>-99999</v>
       </c>
       <c r="J213" t="n">
         <v>-99999</v>
       </c>
       <c r="K213" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L213" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>V2404-2405</t>
+          <t>V2402-2403</t>
         </is>
       </c>
       <c r="B214" t="n">
         <v>0</v>
       </c>
       <c r="C214" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D214" t="n">
         <v>-15</v>
-      </c>
-      <c r="D214" t="n">
-        <v>-22</v>
       </c>
       <c r="E214" t="n">
         <v>-30</v>
       </c>
       <c r="F214" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H214" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I214" t="n">
         <v>-35</v>
       </c>
-      <c r="G214" t="n">
-        <v>-40</v>
-      </c>
-      <c r="H214" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="I214" t="n">
-        <v>-99999</v>
-      </c>
       <c r="J214" t="n">
         <v>-99999</v>
       </c>
       <c r="K214" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="L214" t="n">
         <v>3</v>
@@ -9022,66 +9018,66 @@
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>V2405-2406</t>
+          <t>V2403-2404</t>
         </is>
       </c>
       <c r="B215" t="n">
         <v>0</v>
       </c>
       <c r="C215" t="n">
-        <v>-7</v>
+        <v>10</v>
       </c>
       <c r="D215" t="n">
-        <v>-15</v>
+        <v>-36</v>
       </c>
       <c r="E215" t="n">
-        <v>-20</v>
+        <v>-40</v>
       </c>
       <c r="F215" t="n">
-        <v>-30</v>
+        <v>-44</v>
       </c>
       <c r="G215" t="n">
-        <v>-99999</v>
+        <v>-48</v>
       </c>
       <c r="H215" t="n">
-        <v>-99999</v>
+        <v>-52</v>
       </c>
       <c r="I215" t="n">
-        <v>-99999</v>
+        <v>-52</v>
       </c>
       <c r="J215" t="n">
         <v>-99999</v>
       </c>
       <c r="K215" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L215" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>V2406-2407</t>
+          <t>V2404-2405</t>
         </is>
       </c>
       <c r="B216" t="n">
         <v>0</v>
       </c>
       <c r="C216" t="n">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="D216" t="n">
-        <v>-10</v>
+        <v>-22</v>
       </c>
       <c r="E216" t="n">
-        <v>-15</v>
+        <v>-30</v>
       </c>
       <c r="F216" t="n">
-        <v>-15</v>
+        <v>-35</v>
       </c>
       <c r="G216" t="n">
-        <v>-99999</v>
+        <v>-40</v>
       </c>
       <c r="H216" t="n">
         <v>-99999</v>
@@ -9096,29 +9092,29 @@
         <v>30</v>
       </c>
       <c r="L216" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>Y2307-2308</t>
+          <t>V2405-2406</t>
         </is>
       </c>
       <c r="B217" t="n">
         <v>0</v>
       </c>
       <c r="C217" t="n">
-        <v>-99999</v>
+        <v>-7</v>
       </c>
       <c r="D217" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="E217" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="F217" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="G217" t="n">
         <v>-99999</v>
@@ -9133,32 +9129,32 @@
         <v>-99999</v>
       </c>
       <c r="K217" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L217" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>Y2308-2309</t>
+          <t>V2406-2407</t>
         </is>
       </c>
       <c r="B218" t="n">
         <v>0</v>
       </c>
       <c r="C218" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="D218" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="E218" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="F218" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="G218" t="n">
         <v>-99999</v>
@@ -9173,35 +9169,35 @@
         <v>-99999</v>
       </c>
       <c r="K218" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L218" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>Y2309-2311</t>
+          <t>Y2307-2308</t>
         </is>
       </c>
       <c r="B219" t="n">
         <v>0</v>
       </c>
       <c r="C219" t="n">
-        <v>-34</v>
+        <v>-99999</v>
       </c>
       <c r="D219" t="n">
-        <v>-36</v>
+        <v>-99999</v>
       </c>
       <c r="E219" t="n">
-        <v>-40</v>
+        <v>-99999</v>
       </c>
       <c r="F219" t="n">
-        <v>-46</v>
+        <v>-99999</v>
       </c>
       <c r="G219" t="n">
-        <v>-56</v>
+        <v>-99999</v>
       </c>
       <c r="H219" t="n">
         <v>-99999</v>
@@ -9213,7 +9209,7 @@
         <v>-99999</v>
       </c>
       <c r="K219" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="L219" t="n">
         <v>2</v>
@@ -9222,20 +9218,20 @@
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>Y2311-2312</t>
+          <t>Y2308-2309</t>
         </is>
       </c>
       <c r="B220" t="n">
         <v>0</v>
       </c>
       <c r="C220" t="n">
-        <v>-40</v>
+        <v>-99999</v>
       </c>
       <c r="D220" t="n">
-        <v>-42</v>
+        <v>-99999</v>
       </c>
       <c r="E220" t="n">
-        <v>-60</v>
+        <v>-99999</v>
       </c>
       <c r="F220" t="n">
         <v>-99999</v>
@@ -9253,49 +9249,129 @@
         <v>-99999</v>
       </c>
       <c r="K220" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="L220" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
+          <t>Y2309-2311</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>0</v>
+      </c>
+      <c r="C221" t="n">
+        <v>-34</v>
+      </c>
+      <c r="D221" t="n">
+        <v>-36</v>
+      </c>
+      <c r="E221" t="n">
+        <v>-40</v>
+      </c>
+      <c r="F221" t="n">
+        <v>-46</v>
+      </c>
+      <c r="G221" t="n">
+        <v>-56</v>
+      </c>
+      <c r="H221" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I221" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J221" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K221" t="n">
+        <v>26</v>
+      </c>
+      <c r="L221" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="inlineStr">
+        <is>
+          <t>Y2311-2312</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>0</v>
+      </c>
+      <c r="C222" t="n">
+        <v>-40</v>
+      </c>
+      <c r="D222" t="n">
+        <v>-42</v>
+      </c>
+      <c r="E222" t="n">
+        <v>-60</v>
+      </c>
+      <c r="F222" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G222" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H222" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I222" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J222" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K222" t="n">
+        <v>100</v>
+      </c>
+      <c r="L222" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="inlineStr">
+        <is>
           <t>Y2312-2401</t>
         </is>
       </c>
-      <c r="B221" t="n">
-        <v>0</v>
-      </c>
-      <c r="C221" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D221" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E221" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="F221" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="G221" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="H221" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="I221" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="J221" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="K221" t="n">
+      <c r="B223" t="n">
+        <v>0</v>
+      </c>
+      <c r="C223" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D223" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E223" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F223" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G223" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H223" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I223" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J223" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K223" t="n">
         <v>18</v>
       </c>
-      <c r="L221" t="n">
+      <c r="L223" t="n">
         <v>2</v>
       </c>
     </row>

--- a/info/region_info.xlsx
+++ b/info/region_info.xlsx
@@ -4030,17 +4030,25 @@
       <c r="D90" t="n">
         <v>-18.4</v>
       </c>
-      <c r="E90" t="n">
-        <v>-19.6</v>
-      </c>
-      <c r="F90" t="n">
-        <v>-20.4</v>
-      </c>
-      <c r="G90" t="n">
-        <v>-20.8</v>
-      </c>
-      <c r="H90" t="n">
-        <v>-22.4</v>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>-21.6</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>-24</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="I90" t="n">
         <v>-99999</v>
@@ -4048,8 +4056,10 @@
       <c r="J90" t="n">
         <v>-99999</v>
       </c>
-      <c r="K90" t="n">
-        <v>35</v>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
       </c>
       <c r="L90" t="n">
         <v>1</v>
@@ -5088,8 +5098,10 @@
       <c r="J116" t="n">
         <v>-99999</v>
       </c>
-      <c r="K116" t="n">
-        <v>72</v>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
       </c>
       <c r="L116" t="n">
         <v>3</v>

--- a/info/region_info.xlsx
+++ b/info/region_info.xlsx
@@ -1548,10 +1548,10 @@
         <v>-30</v>
       </c>
       <c r="D28" t="n">
-        <v>-99999</v>
+        <v>-45</v>
       </c>
       <c r="E28" t="n">
-        <v>-99999</v>
+        <v>-60</v>
       </c>
       <c r="F28" t="n">
         <v>-99999</v>
@@ -1572,7 +1572,7 @@
         <v>100</v>
       </c>
       <c r="L28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -4030,25 +4030,17 @@
       <c r="D90" t="n">
         <v>-18.4</v>
       </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>-21.6</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>-24</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="E90" t="n">
+        <v>-21.6</v>
+      </c>
+      <c r="F90" t="n">
+        <v>-24</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H90" t="n">
+        <v>-99999</v>
       </c>
       <c r="I90" t="n">
         <v>-99999</v>
@@ -4056,10 +4048,8 @@
       <c r="J90" t="n">
         <v>-99999</v>
       </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
+      <c r="K90" t="n">
+        <v>25</v>
       </c>
       <c r="L90" t="n">
         <v>1</v>
@@ -5098,10 +5088,8 @@
       <c r="J116" t="n">
         <v>-99999</v>
       </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
+      <c r="K116" t="n">
+        <v>70</v>
       </c>
       <c r="L116" t="n">
         <v>3</v>

--- a/info/region_info.xlsx
+++ b/info/region_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L223"/>
+  <dimension ref="A1:L225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1569,7 +1569,7 @@
         <v>-99999</v>
       </c>
       <c r="K28" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="L28" t="n">
         <v>1</v>
@@ -4031,10 +4031,10 @@
         <v>-18.4</v>
       </c>
       <c r="E90" t="n">
-        <v>-21.6</v>
+        <v>-23.6</v>
       </c>
       <c r="F90" t="n">
-        <v>-24</v>
+        <v>-99999</v>
       </c>
       <c r="G90" t="n">
         <v>-99999</v>
@@ -4049,7 +4049,7 @@
         <v>-99999</v>
       </c>
       <c r="K90" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L90" t="n">
         <v>1</v>
@@ -4105,16 +4105,16 @@
         <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>-17</v>
+        <v>-20.4</v>
       </c>
       <c r="D92" t="n">
-        <v>-18.4</v>
+        <v>-22.4</v>
       </c>
       <c r="E92" t="n">
-        <v>-20.4</v>
+        <v>-99999</v>
       </c>
       <c r="F92" t="n">
-        <v>-20.4</v>
+        <v>-99999</v>
       </c>
       <c r="G92" t="n">
         <v>-99999</v>
@@ -4151,10 +4151,10 @@
         <v>-20.4</v>
       </c>
       <c r="E93" t="n">
-        <v>-20.8</v>
+        <v>-99999</v>
       </c>
       <c r="F93" t="n">
-        <v>-22.6</v>
+        <v>-99999</v>
       </c>
       <c r="G93" t="n">
         <v>-99999</v>
@@ -4489,7 +4489,7 @@
         <v>-99999</v>
       </c>
       <c r="K101" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="L101" t="n">
         <v>3</v>
@@ -4498,20 +4498,20 @@
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>M2309-2311</t>
+          <t>LU2310-2311</t>
         </is>
       </c>
       <c r="B102" t="n">
         <v>0</v>
       </c>
       <c r="C102" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="D102" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="E102" t="n">
-        <v>-99999</v>
+        <v>-40</v>
       </c>
       <c r="F102" t="n">
         <v>-99999</v>
@@ -4529,26 +4529,26 @@
         <v>-99999</v>
       </c>
       <c r="K102" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="L102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>M2311-2312</t>
+          <t>M2309-2311</t>
         </is>
       </c>
       <c r="B103" t="n">
         <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>-40</v>
+        <v>-99999</v>
       </c>
       <c r="D103" t="n">
-        <v>-50</v>
+        <v>-99999</v>
       </c>
       <c r="E103" t="n">
         <v>-99999</v>
@@ -4569,29 +4569,29 @@
         <v>-99999</v>
       </c>
       <c r="K103" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="L103" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>M2312-2401</t>
+          <t>M2311-2312</t>
         </is>
       </c>
       <c r="B104" t="n">
         <v>0</v>
       </c>
       <c r="C104" t="n">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="D104" t="n">
-        <v>-5</v>
+        <v>-50</v>
       </c>
       <c r="E104" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="F104" t="n">
         <v>-99999</v>
@@ -4609,16 +4609,16 @@
         <v>-99999</v>
       </c>
       <c r="K104" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>M2401-2403</t>
+          <t>M2312-2401</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -4628,10 +4628,10 @@
         <v>0</v>
       </c>
       <c r="D105" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E105" t="n">
         <v>-10</v>
-      </c>
-      <c r="E105" t="n">
-        <v>-20</v>
       </c>
       <c r="F105" t="n">
         <v>-99999</v>
@@ -4658,20 +4658,20 @@
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>M2403-2405</t>
+          <t>M2401-2403</t>
         </is>
       </c>
       <c r="B106" t="n">
         <v>0</v>
       </c>
       <c r="C106" t="n">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="D106" t="n">
-        <v>-100</v>
+        <v>-10</v>
       </c>
       <c r="E106" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="F106" t="n">
         <v>-99999</v>
@@ -4698,23 +4698,23 @@
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>M2405-2407</t>
+          <t>M2403-2405</t>
         </is>
       </c>
       <c r="B107" t="n">
         <v>0</v>
       </c>
       <c r="C107" t="n">
-        <v>2</v>
+        <v>-50</v>
       </c>
       <c r="D107" t="n">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="E107" t="n">
-        <v>-25</v>
+        <v>-99999</v>
       </c>
       <c r="F107" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="G107" t="n">
         <v>-99999</v>
@@ -4729,7 +4729,7 @@
         <v>-99999</v>
       </c>
       <c r="K107" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="L107" t="n">
         <v>3</v>
@@ -4738,32 +4738,32 @@
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>MA2309-2310</t>
+          <t>M2405-2407</t>
         </is>
       </c>
       <c r="B108" t="n">
         <v>0</v>
       </c>
       <c r="C108" t="n">
-        <v>-35</v>
+        <v>2</v>
       </c>
       <c r="D108" t="n">
-        <v>-40</v>
+        <v>-20</v>
       </c>
       <c r="E108" t="n">
-        <v>-45</v>
+        <v>-25</v>
       </c>
       <c r="F108" t="n">
-        <v>-50</v>
+        <v>-30</v>
       </c>
       <c r="G108" t="n">
-        <v>-55</v>
+        <v>-99999</v>
       </c>
       <c r="H108" t="n">
-        <v>-60</v>
+        <v>-99999</v>
       </c>
       <c r="I108" t="n">
-        <v>-60</v>
+        <v>-99999</v>
       </c>
       <c r="J108" t="n">
         <v>-99999</v>
@@ -4778,38 +4778,38 @@
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>MA2310-2311</t>
+          <t>MA2309-2310</t>
         </is>
       </c>
       <c r="B109" t="n">
         <v>0</v>
       </c>
       <c r="C109" t="n">
-        <v>-30</v>
+        <v>-35</v>
       </c>
       <c r="D109" t="n">
-        <v>-35</v>
+        <v>-40</v>
       </c>
       <c r="E109" t="n">
+        <v>-45</v>
+      </c>
+      <c r="F109" t="n">
         <v>-50</v>
       </c>
-      <c r="F109" t="n">
-        <v>-99999</v>
-      </c>
       <c r="G109" t="n">
-        <v>-99999</v>
+        <v>-55</v>
       </c>
       <c r="H109" t="n">
-        <v>-99999</v>
+        <v>-60</v>
       </c>
       <c r="I109" t="n">
-        <v>-99999</v>
+        <v>-60</v>
       </c>
       <c r="J109" t="n">
         <v>-99999</v>
       </c>
       <c r="K109" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L109" t="n">
         <v>3</v>
@@ -4818,21 +4818,21 @@
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>MA2311-2312</t>
+          <t>MA2310-2311</t>
         </is>
       </c>
       <c r="B110" t="n">
         <v>0</v>
       </c>
       <c r="C110" t="n">
-        <v>-45</v>
+        <v>-30</v>
       </c>
       <c r="D110" t="n">
+        <v>-35</v>
+      </c>
+      <c r="E110" t="n">
         <v>-50</v>
       </c>
-      <c r="E110" t="n">
-        <v>-99999</v>
-      </c>
       <c r="F110" t="n">
         <v>-99999</v>
       </c>
@@ -4849,29 +4849,29 @@
         <v>-99999</v>
       </c>
       <c r="K110" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="L110" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>MA2312-2401</t>
+          <t>MA2311-2312</t>
         </is>
       </c>
       <c r="B111" t="n">
         <v>0</v>
       </c>
       <c r="C111" t="n">
-        <v>-5</v>
+        <v>-45</v>
       </c>
       <c r="D111" t="n">
-        <v>-15</v>
+        <v>-50</v>
       </c>
       <c r="E111" t="n">
-        <v>-25</v>
+        <v>-99999</v>
       </c>
       <c r="F111" t="n">
         <v>-99999</v>
@@ -4889,29 +4889,29 @@
         <v>-99999</v>
       </c>
       <c r="K111" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L111" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>NR2309-2310</t>
+          <t>MA2312-2401</t>
         </is>
       </c>
       <c r="B112" t="n">
         <v>0</v>
       </c>
       <c r="C112" t="n">
-        <v>-30</v>
+        <v>-5</v>
       </c>
       <c r="D112" t="n">
-        <v>-40</v>
+        <v>-15</v>
       </c>
       <c r="E112" t="n">
-        <v>-99999</v>
+        <v>-25</v>
       </c>
       <c r="F112" t="n">
         <v>-99999</v>
@@ -4929,26 +4929,26 @@
         <v>-99999</v>
       </c>
       <c r="K112" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L112" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>NR2310-2311</t>
+          <t>NR2309-2310</t>
         </is>
       </c>
       <c r="B113" t="n">
         <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>-50</v>
+        <v>-30</v>
       </c>
       <c r="D113" t="n">
-        <v>-80</v>
+        <v>-40</v>
       </c>
       <c r="E113" t="n">
         <v>-99999</v>
@@ -4978,17 +4978,17 @@
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>NR2311-2312</t>
+          <t>NR2310-2311</t>
         </is>
       </c>
       <c r="B114" t="n">
         <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>-60</v>
+        <v>-50</v>
       </c>
       <c r="D114" t="n">
-        <v>-90</v>
+        <v>-80</v>
       </c>
       <c r="E114" t="n">
         <v>-99999</v>
@@ -5018,17 +5018,17 @@
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>NR2312-2401</t>
+          <t>NR2311-2312</t>
         </is>
       </c>
       <c r="B115" t="n">
         <v>0</v>
       </c>
       <c r="C115" t="n">
-        <v>-70</v>
+        <v>-60</v>
       </c>
       <c r="D115" t="n">
-        <v>-100</v>
+        <v>-90</v>
       </c>
       <c r="E115" t="n">
         <v>-99999</v>
@@ -5058,23 +5058,23 @@
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>OI2309-2311</t>
+          <t>NR2312-2401</t>
         </is>
       </c>
       <c r="B116" t="n">
         <v>0</v>
       </c>
       <c r="C116" t="n">
-        <v>-30</v>
+        <v>-70</v>
       </c>
       <c r="D116" t="n">
-        <v>-40</v>
+        <v>-100</v>
       </c>
       <c r="E116" t="n">
-        <v>-60</v>
+        <v>-99999</v>
       </c>
       <c r="F116" t="n">
-        <v>-80</v>
+        <v>-99999</v>
       </c>
       <c r="G116" t="n">
         <v>-99999</v>
@@ -5089,32 +5089,32 @@
         <v>-99999</v>
       </c>
       <c r="K116" t="n">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="L116" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>OI2311-2401</t>
+          <t>OI2309-2311</t>
         </is>
       </c>
       <c r="B117" t="n">
         <v>0</v>
       </c>
       <c r="C117" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="D117" t="n">
-        <v>-99999</v>
+        <v>-40</v>
       </c>
       <c r="E117" t="n">
-        <v>-99999</v>
+        <v>-60</v>
       </c>
       <c r="F117" t="n">
-        <v>-99999</v>
+        <v>-80</v>
       </c>
       <c r="G117" t="n">
         <v>-99999</v>
@@ -5129,7 +5129,7 @@
         <v>-99999</v>
       </c>
       <c r="K117" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="L117" t="n">
         <v>3</v>
@@ -5138,7 +5138,7 @@
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>OI2401-2311</t>
+          <t>OI2311-2401</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -5169,26 +5169,26 @@
         <v>-99999</v>
       </c>
       <c r="K118" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="L118" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>OI2401-2403</t>
+          <t>OI2401-2311</t>
         </is>
       </c>
       <c r="B119" t="n">
         <v>0</v>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="D119" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="E119" t="n">
         <v>-99999</v>
@@ -5209,7 +5209,7 @@
         <v>-99999</v>
       </c>
       <c r="K119" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="L119" t="n">
         <v>2</v>
@@ -5218,17 +5218,17 @@
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>OI2403-2401</t>
+          <t>OI2401-2403</t>
         </is>
       </c>
       <c r="B120" t="n">
         <v>0</v>
       </c>
       <c r="C120" t="n">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="D120" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="E120" t="n">
         <v>-99999</v>
@@ -5249,7 +5249,7 @@
         <v>-99999</v>
       </c>
       <c r="K120" t="n">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="L120" t="n">
         <v>2</v>
@@ -5258,17 +5258,17 @@
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>OI2403-2405</t>
+          <t>OI2403-2401</t>
         </is>
       </c>
       <c r="B121" t="n">
         <v>0</v>
       </c>
       <c r="C121" t="n">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="D121" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="E121" t="n">
         <v>-99999</v>
@@ -5289,7 +5289,7 @@
         <v>-99999</v>
       </c>
       <c r="K121" t="n">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="L121" t="n">
         <v>2</v>
@@ -5298,17 +5298,17 @@
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>PB2309-2310</t>
+          <t>OI2403-2405</t>
         </is>
       </c>
       <c r="B122" t="n">
         <v>0</v>
       </c>
       <c r="C122" t="n">
-        <v>-52</v>
+        <v>0</v>
       </c>
       <c r="D122" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="E122" t="n">
         <v>-99999</v>
@@ -5329,23 +5329,23 @@
         <v>-99999</v>
       </c>
       <c r="K122" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>PB2310-2311</t>
+          <t>PB2309-2310</t>
         </is>
       </c>
       <c r="B123" t="n">
         <v>0</v>
       </c>
       <c r="C123" t="n">
-        <v>-25</v>
+        <v>-52</v>
       </c>
       <c r="D123" t="n">
         <v>-99999</v>
@@ -5369,23 +5369,23 @@
         <v>-99999</v>
       </c>
       <c r="K123" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>PB2402-2403</t>
+          <t>PB2310-2311</t>
         </is>
       </c>
       <c r="B124" t="n">
         <v>0</v>
       </c>
       <c r="C124" t="n">
-        <v>-55</v>
+        <v>-25</v>
       </c>
       <c r="D124" t="n">
         <v>-99999</v>
@@ -5409,26 +5409,26 @@
         <v>-99999</v>
       </c>
       <c r="K124" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>PB2403-2404</t>
+          <t>PB2312-2401</t>
         </is>
       </c>
       <c r="B125" t="n">
         <v>0</v>
       </c>
       <c r="C125" t="n">
-        <v>-55</v>
+        <v>-40</v>
       </c>
       <c r="D125" t="n">
-        <v>-99999</v>
+        <v>-80</v>
       </c>
       <c r="E125" t="n">
         <v>-99999</v>
@@ -5449,23 +5449,23 @@
         <v>-99999</v>
       </c>
       <c r="K125" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>PF2309-2310</t>
+          <t>PB2402-2403</t>
         </is>
       </c>
       <c r="B126" t="n">
         <v>0</v>
       </c>
       <c r="C126" t="n">
-        <v>-52</v>
+        <v>-55</v>
       </c>
       <c r="D126" t="n">
         <v>-99999</v>
@@ -5489,23 +5489,23 @@
         <v>-99999</v>
       </c>
       <c r="K126" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="L126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>PF2310-2311</t>
+          <t>PB2403-2404</t>
         </is>
       </c>
       <c r="B127" t="n">
         <v>0</v>
       </c>
       <c r="C127" t="n">
-        <v>2</v>
+        <v>-55</v>
       </c>
       <c r="D127" t="n">
         <v>-99999</v>
@@ -5529,56 +5529,56 @@
         <v>-99999</v>
       </c>
       <c r="K127" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L127" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>PF2311-2312</t>
+          <t>PF2309-2310</t>
         </is>
       </c>
       <c r="B128" t="n">
         <v>0</v>
       </c>
       <c r="C128" t="n">
+        <v>-52</v>
+      </c>
+      <c r="D128" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E128" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F128" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H128" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I128" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J128" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K128" t="n">
+        <v>100</v>
+      </c>
+      <c r="L128" t="n">
         <v>2</v>
-      </c>
-      <c r="D128" t="n">
-        <v>-20</v>
-      </c>
-      <c r="E128" t="n">
-        <v>-40</v>
-      </c>
-      <c r="F128" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="H128" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="I128" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="J128" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="K128" t="n">
-        <v>40</v>
-      </c>
-      <c r="L128" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>PF2312-2401</t>
+          <t>PF2310-2311</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -5618,20 +5618,20 @@
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>PG2307-2308</t>
+          <t>PF2311-2312</t>
         </is>
       </c>
       <c r="B130" t="n">
         <v>0</v>
       </c>
       <c r="C130" t="n">
-        <v>-99999</v>
+        <v>2</v>
       </c>
       <c r="D130" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="E130" t="n">
-        <v>-99999</v>
+        <v>-40</v>
       </c>
       <c r="F130" t="n">
         <v>-99999</v>
@@ -5649,23 +5649,23 @@
         <v>-99999</v>
       </c>
       <c r="K130" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L130" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>PG2308-2309</t>
+          <t>PF2312-2401</t>
         </is>
       </c>
       <c r="B131" t="n">
         <v>0</v>
       </c>
       <c r="C131" t="n">
-        <v>-99999</v>
+        <v>2</v>
       </c>
       <c r="D131" t="n">
         <v>-99999</v>
@@ -5689,16 +5689,16 @@
         <v>-99999</v>
       </c>
       <c r="K131" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="L131" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>PG2309-2308</t>
+          <t>PG2307-2308</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -5729,7 +5729,7 @@
         <v>-99999</v>
       </c>
       <c r="K132" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L132" t="n">
         <v>0</v>
@@ -5738,20 +5738,20 @@
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>PP2309-2310</t>
+          <t>PG2308-2309</t>
         </is>
       </c>
       <c r="B133" t="n">
         <v>0</v>
       </c>
       <c r="C133" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="D133" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="E133" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="F133" t="n">
         <v>-99999</v>
@@ -5769,35 +5769,35 @@
         <v>-99999</v>
       </c>
       <c r="K133" t="n">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="L133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>PP2310-2311</t>
+          <t>PG2309-2308</t>
         </is>
       </c>
       <c r="B134" t="n">
         <v>0</v>
       </c>
       <c r="C134" t="n">
-        <v>2</v>
+        <v>-99999</v>
       </c>
       <c r="D134" t="n">
-        <v>-5</v>
+        <v>-99999</v>
       </c>
       <c r="E134" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="F134" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="G134" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="H134" t="n">
         <v>-99999</v>
@@ -5809,35 +5809,35 @@
         <v>-99999</v>
       </c>
       <c r="K134" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="L134" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>PP2311-2312</t>
+          <t>PP2309-2310</t>
         </is>
       </c>
       <c r="B135" t="n">
         <v>0</v>
       </c>
       <c r="C135" t="n">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="D135" t="n">
-        <v>-5</v>
+        <v>-15</v>
       </c>
       <c r="E135" t="n">
-        <v>-10</v>
+        <v>-20</v>
       </c>
       <c r="F135" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="G135" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="H135" t="n">
         <v>-99999</v>
@@ -5852,13 +5852,13 @@
         <v>35</v>
       </c>
       <c r="L135" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>PP2312-2401</t>
+          <t>PP2310-2311</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -5898,7 +5898,7 @@
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>PP2401-2402</t>
+          <t>PP2311-2312</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -5938,26 +5938,26 @@
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>PP2402-2403</t>
+          <t>PP2312-2401</t>
         </is>
       </c>
       <c r="B138" t="n">
         <v>0</v>
       </c>
       <c r="C138" t="n">
+        <v>2</v>
+      </c>
+      <c r="D138" t="n">
         <v>-5</v>
       </c>
-      <c r="D138" t="n">
-        <v>-99999</v>
-      </c>
       <c r="E138" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="F138" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="G138" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="H138" t="n">
         <v>-99999</v>
@@ -5978,26 +5978,26 @@
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>PP2405-2406</t>
+          <t>PP2401-2402</t>
         </is>
       </c>
       <c r="B139" t="n">
         <v>0</v>
       </c>
       <c r="C139" t="n">
+        <v>2</v>
+      </c>
+      <c r="D139" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E139" t="n">
         <v>-10</v>
       </c>
-      <c r="D139" t="n">
+      <c r="F139" t="n">
         <v>-15</v>
       </c>
-      <c r="E139" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="F139" t="n">
-        <v>-99999</v>
-      </c>
       <c r="G139" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="H139" t="n">
         <v>-99999</v>
@@ -6018,23 +6018,23 @@
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>RB2307-2308</t>
+          <t>PP2402-2403</t>
         </is>
       </c>
       <c r="B140" t="n">
         <v>0</v>
       </c>
       <c r="C140" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D140" t="n">
-        <v>-5</v>
+        <v>-99999</v>
       </c>
       <c r="E140" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="F140" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="G140" t="n">
         <v>-99999</v>
@@ -6049,7 +6049,7 @@
         <v>-99999</v>
       </c>
       <c r="K140" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="L140" t="n">
         <v>3</v>
@@ -6058,17 +6058,17 @@
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>RB2308-2309</t>
+          <t>PP2405-2406</t>
         </is>
       </c>
       <c r="B141" t="n">
         <v>0</v>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="D141" t="n">
-        <v>-20</v>
+        <v>-15</v>
       </c>
       <c r="E141" t="n">
         <v>-99999</v>
@@ -6089,7 +6089,7 @@
         <v>-99999</v>
       </c>
       <c r="K141" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="L141" t="n">
         <v>3</v>
@@ -6098,23 +6098,23 @@
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>RB2309-2310</t>
+          <t>RB2307-2308</t>
         </is>
       </c>
       <c r="B142" t="n">
         <v>0</v>
       </c>
       <c r="C142" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="D142" t="n">
-        <v>-99999</v>
+        <v>-5</v>
       </c>
       <c r="E142" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="F142" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="G142" t="n">
         <v>-99999</v>
@@ -6129,7 +6129,7 @@
         <v>-99999</v>
       </c>
       <c r="K142" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L142" t="n">
         <v>3</v>
@@ -6138,17 +6138,17 @@
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>RB2310-2311</t>
+          <t>RB2308-2309</t>
         </is>
       </c>
       <c r="B143" t="n">
         <v>0</v>
       </c>
       <c r="C143" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="D143" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="E143" t="n">
         <v>-99999</v>
@@ -6169,23 +6169,23 @@
         <v>-99999</v>
       </c>
       <c r="K143" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L143" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>RB2311-2312</t>
+          <t>RB2309-2310</t>
         </is>
       </c>
       <c r="B144" t="n">
         <v>0</v>
       </c>
       <c r="C144" t="n">
-        <v>-99999</v>
+        <v>-100</v>
       </c>
       <c r="D144" t="n">
         <v>-99999</v>
@@ -6209,16 +6209,16 @@
         <v>-99999</v>
       </c>
       <c r="K144" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="L144" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>RB2312-2401</t>
+          <t>RB2310-2311</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -6252,13 +6252,13 @@
         <v>20</v>
       </c>
       <c r="L145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>RB2401-2402</t>
+          <t>RB2311-2312</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -6292,13 +6292,13 @@
         <v>20</v>
       </c>
       <c r="L146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>RB2402-2403</t>
+          <t>RB2312-2401</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -6338,7 +6338,7 @@
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>RB2403-2404</t>
+          <t>RB2401-2402</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -6378,17 +6378,17 @@
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>RM2307-2308</t>
+          <t>RB2402-2403</t>
         </is>
       </c>
       <c r="B149" t="n">
         <v>0</v>
       </c>
       <c r="C149" t="n">
-        <v>-70</v>
+        <v>-99999</v>
       </c>
       <c r="D149" t="n">
-        <v>-100</v>
+        <v>-99999</v>
       </c>
       <c r="E149" t="n">
         <v>-99999</v>
@@ -6409,35 +6409,35 @@
         <v>-99999</v>
       </c>
       <c r="K149" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L149" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>RM2308-2309</t>
+          <t>RB2403-2404</t>
         </is>
       </c>
       <c r="B150" t="n">
         <v>0</v>
       </c>
       <c r="C150" t="n">
-        <v>10</v>
+        <v>-99999</v>
       </c>
       <c r="D150" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="E150" t="n">
-        <v>-5</v>
+        <v>-99999</v>
       </c>
       <c r="F150" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="G150" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="H150" t="n">
         <v>-99999</v>
@@ -6452,32 +6452,32 @@
         <v>20</v>
       </c>
       <c r="L150" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>RM2309-2311</t>
+          <t>RM2307-2308</t>
         </is>
       </c>
       <c r="B151" t="n">
         <v>0</v>
       </c>
       <c r="C151" t="n">
-        <v>10</v>
+        <v>-70</v>
       </c>
       <c r="D151" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E151" t="n">
-        <v>-5</v>
+        <v>-99999</v>
       </c>
       <c r="F151" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="G151" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="H151" t="n">
         <v>-99999</v>
@@ -6489,7 +6489,7 @@
         <v>-99999</v>
       </c>
       <c r="K151" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L151" t="n">
         <v>3</v>
@@ -6498,26 +6498,26 @@
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>RM2401-2403</t>
+          <t>RM2308-2309</t>
         </is>
       </c>
       <c r="B152" t="n">
         <v>0</v>
       </c>
       <c r="C152" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D152" t="n">
+        <v>0</v>
+      </c>
+      <c r="E152" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F152" t="n">
         <v>-10</v>
       </c>
-      <c r="E152" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F152" t="n">
-        <v>-99999</v>
-      </c>
       <c r="G152" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="H152" t="n">
         <v>-99999</v>
@@ -6538,26 +6538,26 @@
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>RM2405-2407</t>
+          <t>RM2309-2311</t>
         </is>
       </c>
       <c r="B153" t="n">
         <v>0</v>
       </c>
       <c r="C153" t="n">
+        <v>10</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0</v>
+      </c>
+      <c r="E153" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F153" t="n">
         <v>-10</v>
       </c>
-      <c r="D153" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E153" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="F153" t="n">
-        <v>-99999</v>
-      </c>
       <c r="G153" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="H153" t="n">
         <v>-99999</v>
@@ -6569,29 +6569,29 @@
         <v>-99999</v>
       </c>
       <c r="K153" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="L153" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>RR2308-2309</t>
+          <t>RM2401-2403</t>
         </is>
       </c>
       <c r="B154" t="n">
         <v>0</v>
       </c>
       <c r="C154" t="n">
-        <v>-75</v>
+        <v>0</v>
       </c>
       <c r="D154" t="n">
-        <v>-80</v>
+        <v>-10</v>
       </c>
       <c r="E154" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="F154" t="n">
         <v>-99999</v>
@@ -6609,23 +6609,23 @@
         <v>-99999</v>
       </c>
       <c r="K154" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L154" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>RR2309-2310</t>
+          <t>RM2405-2407</t>
         </is>
       </c>
       <c r="B155" t="n">
         <v>0</v>
       </c>
       <c r="C155" t="n">
-        <v>-72</v>
+        <v>-10</v>
       </c>
       <c r="D155" t="n">
         <v>-99999</v>
@@ -6649,29 +6649,29 @@
         <v>-99999</v>
       </c>
       <c r="K155" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="L155" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>RR2312-2401</t>
+          <t>RR2308-2309</t>
         </is>
       </c>
       <c r="B156" t="n">
         <v>0</v>
       </c>
       <c r="C156" t="n">
-        <v>-60</v>
+        <v>-75</v>
       </c>
       <c r="D156" t="n">
-        <v>-65</v>
+        <v>-80</v>
       </c>
       <c r="E156" t="n">
-        <v>-70</v>
+        <v>-99999</v>
       </c>
       <c r="F156" t="n">
         <v>-99999</v>
@@ -6689,26 +6689,26 @@
         <v>-99999</v>
       </c>
       <c r="K156" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="L156" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>RU2307-2308</t>
+          <t>RR2309-2310</t>
         </is>
       </c>
       <c r="B157" t="n">
         <v>0</v>
       </c>
       <c r="C157" t="n">
-        <v>-100</v>
+        <v>-72</v>
       </c>
       <c r="D157" t="n">
-        <v>-100</v>
+        <v>-99999</v>
       </c>
       <c r="E157" t="n">
         <v>-99999</v>
@@ -6729,29 +6729,29 @@
         <v>-99999</v>
       </c>
       <c r="K157" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L157" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>RU2308-2309</t>
+          <t>RR2312-2401</t>
         </is>
       </c>
       <c r="B158" t="n">
         <v>0</v>
       </c>
       <c r="C158" t="n">
-        <v>-75</v>
+        <v>-60</v>
       </c>
       <c r="D158" t="n">
-        <v>-99999</v>
+        <v>-65</v>
       </c>
       <c r="E158" t="n">
-        <v>-99999</v>
+        <v>-70</v>
       </c>
       <c r="F158" t="n">
         <v>-99999</v>
@@ -6769,7 +6769,7 @@
         <v>-99999</v>
       </c>
       <c r="K158" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="L158" t="n">
         <v>1</v>
@@ -6778,17 +6778,17 @@
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>RU2309-2310</t>
+          <t>RU2307-2308</t>
         </is>
       </c>
       <c r="B159" t="n">
         <v>0</v>
       </c>
       <c r="C159" t="n">
-        <v>-60</v>
+        <v>-100</v>
       </c>
       <c r="D159" t="n">
-        <v>-110</v>
+        <v>-100</v>
       </c>
       <c r="E159" t="n">
         <v>-99999</v>
@@ -6809,7 +6809,7 @@
         <v>-99999</v>
       </c>
       <c r="K159" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="L159" t="n">
         <v>1</v>
@@ -6818,20 +6818,20 @@
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>RU2310-2311</t>
+          <t>RU2308-2309</t>
         </is>
       </c>
       <c r="B160" t="n">
         <v>0</v>
       </c>
       <c r="C160" t="n">
-        <v>0</v>
+        <v>-75</v>
       </c>
       <c r="D160" t="n">
-        <v>-70</v>
+        <v>-99999</v>
       </c>
       <c r="E160" t="n">
-        <v>-80</v>
+        <v>-99999</v>
       </c>
       <c r="F160" t="n">
         <v>-99999</v>
@@ -6849,7 +6849,7 @@
         <v>-99999</v>
       </c>
       <c r="K160" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L160" t="n">
         <v>1</v>
@@ -6858,17 +6858,17 @@
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>RU2311-2401</t>
+          <t>RU2309-2310</t>
         </is>
       </c>
       <c r="B161" t="n">
         <v>0</v>
       </c>
       <c r="C161" t="n">
-        <v>-1800</v>
+        <v>-60</v>
       </c>
       <c r="D161" t="n">
-        <v>-99999</v>
+        <v>-110</v>
       </c>
       <c r="E161" t="n">
         <v>-99999</v>
@@ -6889,7 +6889,7 @@
         <v>-99999</v>
       </c>
       <c r="K161" t="n">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c r="L161" t="n">
         <v>1</v>
@@ -6898,20 +6898,20 @@
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>RU2401-2403</t>
+          <t>RU2310-2311</t>
         </is>
       </c>
       <c r="B162" t="n">
         <v>0</v>
       </c>
       <c r="C162" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="D162" t="n">
-        <v>-120</v>
+        <v>-70</v>
       </c>
       <c r="E162" t="n">
-        <v>-99999</v>
+        <v>-80</v>
       </c>
       <c r="F162" t="n">
         <v>-99999</v>
@@ -6929,7 +6929,7 @@
         <v>-99999</v>
       </c>
       <c r="K162" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="L162" t="n">
         <v>1</v>
@@ -6938,20 +6938,20 @@
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>RU2403-2404</t>
+          <t>RU2311-2401</t>
         </is>
       </c>
       <c r="B163" t="n">
         <v>0</v>
       </c>
       <c r="C163" t="n">
-        <v>-60</v>
+        <v>-1800</v>
       </c>
       <c r="D163" t="n">
-        <v>-70</v>
+        <v>-99999</v>
       </c>
       <c r="E163" t="n">
-        <v>-80</v>
+        <v>-99999</v>
       </c>
       <c r="F163" t="n">
         <v>-99999</v>
@@ -6969,7 +6969,7 @@
         <v>-99999</v>
       </c>
       <c r="K163" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="L163" t="n">
         <v>1</v>
@@ -6978,17 +6978,17 @@
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>SA2308-2309</t>
+          <t>RU2401-2403</t>
         </is>
       </c>
       <c r="B164" t="n">
         <v>0</v>
       </c>
       <c r="C164" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="D164" t="n">
-        <v>-99999</v>
+        <v>-120</v>
       </c>
       <c r="E164" t="n">
         <v>-99999</v>
@@ -7018,20 +7018,20 @@
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>SA2310-2311</t>
+          <t>RU2403-2404</t>
         </is>
       </c>
       <c r="B165" t="n">
         <v>0</v>
       </c>
       <c r="C165" t="n">
-        <v>0</v>
+        <v>-60</v>
       </c>
       <c r="D165" t="n">
-        <v>-99999</v>
+        <v>-70</v>
       </c>
       <c r="E165" t="n">
-        <v>-99999</v>
+        <v>-80</v>
       </c>
       <c r="F165" t="n">
         <v>-99999</v>
@@ -7049,7 +7049,7 @@
         <v>-99999</v>
       </c>
       <c r="K165" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="L165" t="n">
         <v>1</v>
@@ -7058,7 +7058,7 @@
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>SA2311-2312</t>
+          <t>SA2308-2309</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -7068,7 +7068,7 @@
         <v>0</v>
       </c>
       <c r="D166" t="n">
-        <v>-3</v>
+        <v>-99999</v>
       </c>
       <c r="E166" t="n">
         <v>-99999</v>
@@ -7089,23 +7089,23 @@
         <v>-99999</v>
       </c>
       <c r="K166" t="n">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="L166" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>SA2312-2401</t>
+          <t>SA2310-2311</t>
         </is>
       </c>
       <c r="B167" t="n">
         <v>0</v>
       </c>
       <c r="C167" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D167" t="n">
         <v>-99999</v>
@@ -7129,29 +7129,29 @@
         <v>-99999</v>
       </c>
       <c r="K167" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="L167" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>SA2401-2402</t>
+          <t>SA2311-2312</t>
         </is>
       </c>
       <c r="B168" t="n">
         <v>0</v>
       </c>
       <c r="C168" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="D168" t="n">
-        <v>-30</v>
+        <v>-3</v>
       </c>
       <c r="E168" t="n">
-        <v>-35</v>
+        <v>-99999</v>
       </c>
       <c r="F168" t="n">
         <v>-99999</v>
@@ -7169,29 +7169,29 @@
         <v>-99999</v>
       </c>
       <c r="K168" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L168" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>SA2402-2403</t>
+          <t>SA2312-2401</t>
         </is>
       </c>
       <c r="B169" t="n">
         <v>0</v>
       </c>
       <c r="C169" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D169" t="n">
-        <v>7</v>
+        <v>-99999</v>
       </c>
       <c r="E169" t="n">
-        <v>5</v>
+        <v>-99999</v>
       </c>
       <c r="F169" t="n">
         <v>-99999</v>
@@ -7209,7 +7209,7 @@
         <v>-99999</v>
       </c>
       <c r="K169" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="L169" t="n">
         <v>2</v>
@@ -7218,21 +7218,21 @@
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>SA2403-2404</t>
+          <t>SA2401-2402</t>
         </is>
       </c>
       <c r="B170" t="n">
         <v>0</v>
       </c>
       <c r="C170" t="n">
+        <v>-25</v>
+      </c>
+      <c r="D170" t="n">
+        <v>-30</v>
+      </c>
+      <c r="E170" t="n">
         <v>-35</v>
       </c>
-      <c r="D170" t="n">
-        <v>-40</v>
-      </c>
-      <c r="E170" t="n">
-        <v>-99999</v>
-      </c>
       <c r="F170" t="n">
         <v>-99999</v>
       </c>
@@ -7249,7 +7249,7 @@
         <v>-99999</v>
       </c>
       <c r="K170" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L170" t="n">
         <v>2</v>
@@ -7258,23 +7258,23 @@
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>SC2307-2308</t>
+          <t>SA2402-2403</t>
         </is>
       </c>
       <c r="B171" t="n">
         <v>0</v>
       </c>
       <c r="C171" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D171" t="n">
-        <v>-3.5</v>
+        <v>7</v>
       </c>
       <c r="E171" t="n">
-        <v>-3.5</v>
+        <v>5</v>
       </c>
       <c r="F171" t="n">
-        <v>-3.5</v>
+        <v>-99999</v>
       </c>
       <c r="G171" t="n">
         <v>-99999</v>
@@ -7289,26 +7289,26 @@
         <v>-99999</v>
       </c>
       <c r="K171" t="n">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="L171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>SC2308-2309</t>
+          <t>SA2403-2404</t>
         </is>
       </c>
       <c r="B172" t="n">
         <v>0</v>
       </c>
       <c r="C172" t="n">
-        <v>-99999</v>
+        <v>-35</v>
       </c>
       <c r="D172" t="n">
-        <v>-99999</v>
+        <v>-40</v>
       </c>
       <c r="E172" t="n">
         <v>-99999</v>
@@ -7329,32 +7329,32 @@
         <v>-99999</v>
       </c>
       <c r="K172" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="L172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>SC2309-2308</t>
+          <t>SC2307-2308</t>
         </is>
       </c>
       <c r="B173" t="n">
         <v>0</v>
       </c>
       <c r="C173" t="n">
-        <v>-99999</v>
+        <v>1</v>
       </c>
       <c r="D173" t="n">
-        <v>-99999</v>
+        <v>-3.5</v>
       </c>
       <c r="E173" t="n">
-        <v>-99999</v>
+        <v>-3.5</v>
       </c>
       <c r="F173" t="n">
-        <v>-99999</v>
+        <v>-3.5</v>
       </c>
       <c r="G173" t="n">
         <v>-99999</v>
@@ -7369,7 +7369,7 @@
         <v>-99999</v>
       </c>
       <c r="K173" t="n">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="L173" t="n">
         <v>1</v>
@@ -7378,17 +7378,17 @@
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>SC2309-2310</t>
+          <t>SC2308-2309</t>
         </is>
       </c>
       <c r="B174" t="n">
         <v>0</v>
       </c>
       <c r="C174" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="D174" t="n">
-        <v>-1</v>
+        <v>-99999</v>
       </c>
       <c r="E174" t="n">
         <v>-99999</v>
@@ -7409,7 +7409,7 @@
         <v>-99999</v>
       </c>
       <c r="K174" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L174" t="n">
         <v>1</v>
@@ -7418,14 +7418,14 @@
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>SC2310-2309</t>
+          <t>SC2309-2308</t>
         </is>
       </c>
       <c r="B175" t="n">
         <v>0</v>
       </c>
       <c r="C175" t="n">
-        <v>-5.4</v>
+        <v>-99999</v>
       </c>
       <c r="D175" t="n">
         <v>-99999</v>
@@ -7449,7 +7449,7 @@
         <v>-99999</v>
       </c>
       <c r="K175" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="L175" t="n">
         <v>1</v>
@@ -7458,18 +7458,18 @@
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>SC2310-2311</t>
+          <t>SC2309-2310</t>
         </is>
       </c>
       <c r="B176" t="n">
         <v>0</v>
       </c>
       <c r="C176" t="n">
+        <v>0</v>
+      </c>
+      <c r="D176" t="n">
         <v>-1</v>
       </c>
-      <c r="D176" t="n">
-        <v>-99999</v>
-      </c>
       <c r="E176" t="n">
         <v>-99999</v>
       </c>
@@ -7489,7 +7489,7 @@
         <v>-99999</v>
       </c>
       <c r="K176" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L176" t="n">
         <v>1</v>
@@ -7498,14 +7498,14 @@
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>SC2311-2312</t>
+          <t>SC2310-2309</t>
         </is>
       </c>
       <c r="B177" t="n">
         <v>0</v>
       </c>
       <c r="C177" t="n">
-        <v>-2</v>
+        <v>-99999</v>
       </c>
       <c r="D177" t="n">
         <v>-99999</v>
@@ -7529,7 +7529,7 @@
         <v>-99999</v>
       </c>
       <c r="K177" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L177" t="n">
         <v>1</v>
@@ -7538,17 +7538,17 @@
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>SN2308-2309</t>
+          <t>SC2310-2311</t>
         </is>
       </c>
       <c r="B178" t="n">
         <v>0</v>
       </c>
       <c r="C178" t="n">
-        <v>-320</v>
+        <v>-1</v>
       </c>
       <c r="D178" t="n">
-        <v>-320</v>
+        <v>-99999</v>
       </c>
       <c r="E178" t="n">
         <v>-99999</v>
@@ -7569,7 +7569,7 @@
         <v>-99999</v>
       </c>
       <c r="K178" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L178" t="n">
         <v>1</v>
@@ -7578,29 +7578,29 @@
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>SN2309-2310</t>
+          <t>SC2311-2312</t>
         </is>
       </c>
       <c r="B179" t="n">
         <v>0</v>
       </c>
       <c r="C179" t="n">
-        <v>-250</v>
+        <v>-2</v>
       </c>
       <c r="D179" t="n">
-        <v>-270</v>
+        <v>-99999</v>
       </c>
       <c r="E179" t="n">
-        <v>-300</v>
+        <v>-99999</v>
       </c>
       <c r="F179" t="n">
-        <v>-330</v>
+        <v>-99999</v>
       </c>
       <c r="G179" t="n">
-        <v>-330</v>
+        <v>-99999</v>
       </c>
       <c r="H179" t="n">
-        <v>-330</v>
+        <v>-99999</v>
       </c>
       <c r="I179" t="n">
         <v>-99999</v>
@@ -7609,7 +7609,7 @@
         <v>-99999</v>
       </c>
       <c r="K179" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="L179" t="n">
         <v>1</v>
@@ -7618,29 +7618,29 @@
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>SN2310-2311</t>
+          <t>SN2308-2309</t>
         </is>
       </c>
       <c r="B180" t="n">
         <v>0</v>
       </c>
       <c r="C180" t="n">
-        <v>-250</v>
+        <v>-320</v>
       </c>
       <c r="D180" t="n">
-        <v>-270</v>
+        <v>-320</v>
       </c>
       <c r="E180" t="n">
-        <v>-300</v>
+        <v>-99999</v>
       </c>
       <c r="F180" t="n">
-        <v>-330</v>
+        <v>-99999</v>
       </c>
       <c r="G180" t="n">
-        <v>-330</v>
+        <v>-99999</v>
       </c>
       <c r="H180" t="n">
-        <v>-330</v>
+        <v>-99999</v>
       </c>
       <c r="I180" t="n">
         <v>-99999</v>
@@ -7649,7 +7649,7 @@
         <v>-99999</v>
       </c>
       <c r="K180" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="L180" t="n">
         <v>1</v>
@@ -7658,29 +7658,29 @@
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>SP2307-2308</t>
+          <t>SN2309-2310</t>
         </is>
       </c>
       <c r="B181" t="n">
         <v>0</v>
       </c>
       <c r="C181" t="n">
-        <v>-40</v>
+        <v>-250</v>
       </c>
       <c r="D181" t="n">
-        <v>-40</v>
+        <v>-270</v>
       </c>
       <c r="E181" t="n">
-        <v>-99999</v>
+        <v>-300</v>
       </c>
       <c r="F181" t="n">
-        <v>-99999</v>
+        <v>-330</v>
       </c>
       <c r="G181" t="n">
-        <v>-99999</v>
+        <v>-330</v>
       </c>
       <c r="H181" t="n">
-        <v>-99999</v>
+        <v>-330</v>
       </c>
       <c r="I181" t="n">
         <v>-99999</v>
@@ -7689,38 +7689,38 @@
         <v>-99999</v>
       </c>
       <c r="K181" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="L181" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>SP2309-2310</t>
+          <t>SN2310-2311</t>
         </is>
       </c>
       <c r="B182" t="n">
         <v>0</v>
       </c>
       <c r="C182" t="n">
-        <v>-18</v>
+        <v>-250</v>
       </c>
       <c r="D182" t="n">
-        <v>-24</v>
+        <v>-270</v>
       </c>
       <c r="E182" t="n">
-        <v>-30</v>
+        <v>-300</v>
       </c>
       <c r="F182" t="n">
-        <v>-36</v>
+        <v>-330</v>
       </c>
       <c r="G182" t="n">
-        <v>-99999</v>
+        <v>-330</v>
       </c>
       <c r="H182" t="n">
-        <v>-99999</v>
+        <v>-330</v>
       </c>
       <c r="I182" t="n">
         <v>-99999</v>
@@ -7729,32 +7729,32 @@
         <v>-99999</v>
       </c>
       <c r="K182" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L182" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>SP2310-2311</t>
+          <t>SP2307-2308</t>
         </is>
       </c>
       <c r="B183" t="n">
         <v>0</v>
       </c>
       <c r="C183" t="n">
-        <v>-18</v>
+        <v>-40</v>
       </c>
       <c r="D183" t="n">
-        <v>-24</v>
+        <v>-40</v>
       </c>
       <c r="E183" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="F183" t="n">
-        <v>-36</v>
+        <v>-99999</v>
       </c>
       <c r="G183" t="n">
         <v>-99999</v>
@@ -7769,7 +7769,7 @@
         <v>-99999</v>
       </c>
       <c r="K183" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="L183" t="n">
         <v>3</v>
@@ -7778,7 +7778,7 @@
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>SP2311-2312</t>
+          <t>SP2309-2310</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -7818,23 +7818,23 @@
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>SP2312-2401</t>
+          <t>SP2310-2311</t>
         </is>
       </c>
       <c r="B185" t="n">
         <v>0</v>
       </c>
       <c r="C185" t="n">
-        <v>-126</v>
+        <v>-18</v>
       </c>
       <c r="D185" t="n">
-        <v>-140</v>
+        <v>-24</v>
       </c>
       <c r="E185" t="n">
-        <v>-165</v>
+        <v>-30</v>
       </c>
       <c r="F185" t="n">
-        <v>-175</v>
+        <v>-36</v>
       </c>
       <c r="G185" t="n">
         <v>-99999</v>
@@ -7849,32 +7849,32 @@
         <v>-99999</v>
       </c>
       <c r="K185" t="n">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="L185" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>SP2401-2402</t>
+          <t>SP2311-2312</t>
         </is>
       </c>
       <c r="B186" t="n">
         <v>0</v>
       </c>
       <c r="C186" t="n">
+        <v>-18</v>
+      </c>
+      <c r="D186" t="n">
         <v>-24</v>
       </c>
-      <c r="D186" t="n">
-        <v>-99999</v>
-      </c>
       <c r="E186" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="F186" t="n">
-        <v>-99999</v>
+        <v>-36</v>
       </c>
       <c r="G186" t="n">
         <v>-99999</v>
@@ -7889,7 +7889,7 @@
         <v>-99999</v>
       </c>
       <c r="K186" t="n">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="L186" t="n">
         <v>3</v>
@@ -7898,23 +7898,23 @@
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>SP2402-2403</t>
+          <t>SP2312-2401</t>
         </is>
       </c>
       <c r="B187" t="n">
         <v>0</v>
       </c>
       <c r="C187" t="n">
-        <v>-24</v>
+        <v>-126</v>
       </c>
       <c r="D187" t="n">
-        <v>-32</v>
+        <v>-140</v>
       </c>
       <c r="E187" t="n">
-        <v>-99999</v>
+        <v>-165</v>
       </c>
       <c r="F187" t="n">
-        <v>-99999</v>
+        <v>-175</v>
       </c>
       <c r="G187" t="n">
         <v>-99999</v>
@@ -7932,13 +7932,13 @@
         <v>18</v>
       </c>
       <c r="L187" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>SP2403-2404</t>
+          <t>SP2401-2402</t>
         </is>
       </c>
       <c r="B188" t="n">
@@ -7948,7 +7948,7 @@
         <v>-24</v>
       </c>
       <c r="D188" t="n">
-        <v>-32</v>
+        <v>-99999</v>
       </c>
       <c r="E188" t="n">
         <v>-99999</v>
@@ -7978,7 +7978,7 @@
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>SP2404-2405</t>
+          <t>SP2402-2403</t>
         </is>
       </c>
       <c r="B189" t="n">
@@ -8018,7 +8018,7 @@
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>SP2405-2406</t>
+          <t>SP2403-2404</t>
         </is>
       </c>
       <c r="B190" t="n">
@@ -8058,17 +8058,17 @@
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>TA2307-2308</t>
+          <t>SP2404-2405</t>
         </is>
       </c>
       <c r="B191" t="n">
         <v>0</v>
       </c>
       <c r="C191" t="n">
-        <v>-99999</v>
+        <v>-24</v>
       </c>
       <c r="D191" t="n">
-        <v>-99999</v>
+        <v>-32</v>
       </c>
       <c r="E191" t="n">
         <v>-99999</v>
@@ -8089,7 +8089,7 @@
         <v>-99999</v>
       </c>
       <c r="K191" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L191" t="n">
         <v>3</v>
@@ -8098,17 +8098,17 @@
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>TA2307-2309</t>
+          <t>SP2405-2406</t>
         </is>
       </c>
       <c r="B192" t="n">
         <v>0</v>
       </c>
       <c r="C192" t="n">
-        <v>-99999</v>
+        <v>-24</v>
       </c>
       <c r="D192" t="n">
-        <v>-99999</v>
+        <v>-32</v>
       </c>
       <c r="E192" t="n">
         <v>-99999</v>
@@ -8129,7 +8129,7 @@
         <v>-99999</v>
       </c>
       <c r="K192" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L192" t="n">
         <v>3</v>
@@ -8138,7 +8138,7 @@
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>TA2308-2309</t>
+          <t>TA2307-2308</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -8178,17 +8178,17 @@
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>TA2309-2310</t>
+          <t>TA2307-2309</t>
         </is>
       </c>
       <c r="B194" t="n">
         <v>0</v>
       </c>
       <c r="C194" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="D194" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="E194" t="n">
         <v>-99999</v>
@@ -8209,7 +8209,7 @@
         <v>-99999</v>
       </c>
       <c r="K194" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="L194" t="n">
         <v>3</v>
@@ -8218,7 +8218,7 @@
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>TA2310-2311</t>
+          <t>TA2308-2309</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -8258,17 +8258,17 @@
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>TA2311-2312</t>
+          <t>TA2309-2310</t>
         </is>
       </c>
       <c r="B196" t="n">
         <v>0</v>
       </c>
       <c r="C196" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="D196" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="E196" t="n">
         <v>-99999</v>
@@ -8289,7 +8289,7 @@
         <v>-99999</v>
       </c>
       <c r="K196" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="L196" t="n">
         <v>3</v>
@@ -8298,17 +8298,17 @@
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>TA2312-2401</t>
+          <t>TA2310-2311</t>
         </is>
       </c>
       <c r="B197" t="n">
         <v>0</v>
       </c>
       <c r="C197" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="D197" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="E197" t="n">
         <v>-99999</v>
@@ -8329,7 +8329,7 @@
         <v>-99999</v>
       </c>
       <c r="K197" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="L197" t="n">
         <v>3</v>
@@ -8338,17 +8338,17 @@
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>TA2401-2402</t>
+          <t>TA2311-2312</t>
         </is>
       </c>
       <c r="B198" t="n">
         <v>0</v>
       </c>
       <c r="C198" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="D198" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="E198" t="n">
         <v>-99999</v>
@@ -8369,7 +8369,7 @@
         <v>-99999</v>
       </c>
       <c r="K198" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="L198" t="n">
         <v>3</v>
@@ -8378,17 +8378,17 @@
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>TA2402-2403</t>
+          <t>TA2312-2401</t>
         </is>
       </c>
       <c r="B199" t="n">
         <v>0</v>
       </c>
       <c r="C199" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="D199" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="E199" t="n">
         <v>-99999</v>
@@ -8418,17 +8418,17 @@
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>TA2403-2404</t>
+          <t>TA2401-2402</t>
         </is>
       </c>
       <c r="B200" t="n">
         <v>0</v>
       </c>
       <c r="C200" t="n">
-        <v>-28</v>
+        <v>-15</v>
       </c>
       <c r="D200" t="n">
-        <v>-30</v>
+        <v>-20</v>
       </c>
       <c r="E200" t="n">
         <v>-99999</v>
@@ -8449,7 +8449,7 @@
         <v>-99999</v>
       </c>
       <c r="K200" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="L200" t="n">
         <v>3</v>
@@ -8458,17 +8458,17 @@
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>UR2310-2311</t>
+          <t>TA2402-2403</t>
         </is>
       </c>
       <c r="B201" t="n">
         <v>0</v>
       </c>
       <c r="C201" t="n">
-        <v>-35</v>
+        <v>-99999</v>
       </c>
       <c r="D201" t="n">
-        <v>-45</v>
+        <v>-99999</v>
       </c>
       <c r="E201" t="n">
         <v>-99999</v>
@@ -8498,17 +8498,17 @@
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>UR2311-2312</t>
+          <t>TA2403-2404</t>
         </is>
       </c>
       <c r="B202" t="n">
         <v>0</v>
       </c>
       <c r="C202" t="n">
-        <v>5</v>
+        <v>-28</v>
       </c>
       <c r="D202" t="n">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="E202" t="n">
         <v>-99999</v>
@@ -8529,7 +8529,7 @@
         <v>-99999</v>
       </c>
       <c r="K202" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="L202" t="n">
         <v>3</v>
@@ -8538,17 +8538,17 @@
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>UR2312-2401</t>
+          <t>UR2310-2311</t>
         </is>
       </c>
       <c r="B203" t="n">
         <v>0</v>
       </c>
       <c r="C203" t="n">
-        <v>5</v>
+        <v>-35</v>
       </c>
       <c r="D203" t="n">
-        <v>0</v>
+        <v>-45</v>
       </c>
       <c r="E203" t="n">
         <v>-99999</v>
@@ -8569,7 +8569,7 @@
         <v>-99999</v>
       </c>
       <c r="K203" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L203" t="n">
         <v>3</v>
@@ -8578,17 +8578,17 @@
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>UR2401-2402</t>
+          <t>UR2311-2312</t>
         </is>
       </c>
       <c r="B204" t="n">
         <v>0</v>
       </c>
       <c r="C204" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D204" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="E204" t="n">
         <v>-99999</v>
@@ -8609,7 +8609,7 @@
         <v>-99999</v>
       </c>
       <c r="K204" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="L204" t="n">
         <v>3</v>
@@ -8618,17 +8618,17 @@
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>UR2402-2403</t>
+          <t>UR2312-2401</t>
         </is>
       </c>
       <c r="B205" t="n">
         <v>0</v>
       </c>
       <c r="C205" t="n">
-        <v>-50</v>
+        <v>5</v>
       </c>
       <c r="D205" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="E205" t="n">
         <v>-99999</v>
@@ -8649,7 +8649,7 @@
         <v>-99999</v>
       </c>
       <c r="K205" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="L205" t="n">
         <v>3</v>
@@ -8658,17 +8658,17 @@
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>UR2403-2404</t>
+          <t>UR2401-2402</t>
         </is>
       </c>
       <c r="B206" t="n">
         <v>0</v>
       </c>
       <c r="C206" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D206" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="E206" t="n">
         <v>-99999</v>
@@ -8698,20 +8698,20 @@
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>UR2404-2405</t>
+          <t>UR2402-2403</t>
         </is>
       </c>
       <c r="B207" t="n">
         <v>0</v>
       </c>
       <c r="C207" t="n">
-        <v>5</v>
+        <v>-50</v>
       </c>
       <c r="D207" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="E207" t="n">
-        <v>-5</v>
+        <v>-99999</v>
       </c>
       <c r="F207" t="n">
         <v>-99999</v>
@@ -8729,7 +8729,7 @@
         <v>-99999</v>
       </c>
       <c r="K207" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="L207" t="n">
         <v>3</v>
@@ -8738,17 +8738,17 @@
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>V2308-2309</t>
+          <t>UR2403-2404</t>
         </is>
       </c>
       <c r="B208" t="n">
         <v>0</v>
       </c>
       <c r="C208" t="n">
-        <v>-99999</v>
+        <v>5</v>
       </c>
       <c r="D208" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="E208" t="n">
         <v>-99999</v>
@@ -8769,7 +8769,7 @@
         <v>-99999</v>
       </c>
       <c r="K208" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L208" t="n">
         <v>3</v>
@@ -8778,26 +8778,26 @@
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>V2309-2310</t>
+          <t>UR2404-2405</t>
         </is>
       </c>
       <c r="B209" t="n">
         <v>0</v>
       </c>
       <c r="C209" t="n">
-        <v>-10</v>
+        <v>5</v>
       </c>
       <c r="D209" t="n">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="E209" t="n">
-        <v>-20</v>
+        <v>-5</v>
       </c>
       <c r="F209" t="n">
-        <v>-25</v>
+        <v>-99999</v>
       </c>
       <c r="G209" t="n">
-        <v>-28</v>
+        <v>-99999</v>
       </c>
       <c r="H209" t="n">
         <v>-99999</v>
@@ -8809,38 +8809,38 @@
         <v>-99999</v>
       </c>
       <c r="K209" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="L209" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>V2310-2311</t>
+          <t>V2308-2309</t>
         </is>
       </c>
       <c r="B210" t="n">
         <v>0</v>
       </c>
       <c r="C210" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="D210" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="E210" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="F210" t="n">
-        <v>-25</v>
+        <v>-99999</v>
       </c>
       <c r="G210" t="n">
-        <v>-28</v>
+        <v>-99999</v>
       </c>
       <c r="H210" t="n">
-        <v>-38</v>
+        <v>-99999</v>
       </c>
       <c r="I210" t="n">
         <v>-99999</v>
@@ -8849,16 +8849,16 @@
         <v>-99999</v>
       </c>
       <c r="K210" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L210" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>V2311-2312</t>
+          <t>V2309-2310</t>
         </is>
       </c>
       <c r="B211" t="n">
@@ -8880,7 +8880,7 @@
         <v>-28</v>
       </c>
       <c r="H211" t="n">
-        <v>-38</v>
+        <v>-99999</v>
       </c>
       <c r="I211" t="n">
         <v>-99999</v>
@@ -8898,7 +8898,7 @@
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>V2312-2401</t>
+          <t>V2310-2311</t>
         </is>
       </c>
       <c r="B212" t="n">
@@ -8938,29 +8938,29 @@
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>V2401-2402</t>
+          <t>V2311-2312</t>
         </is>
       </c>
       <c r="B213" t="n">
         <v>0</v>
       </c>
       <c r="C213" t="n">
-        <v>-3</v>
+        <v>-10</v>
       </c>
       <c r="D213" t="n">
-        <v>-18</v>
+        <v>-15</v>
       </c>
       <c r="E213" t="n">
-        <v>-30</v>
+        <v>-20</v>
       </c>
       <c r="F213" t="n">
-        <v>-99999</v>
+        <v>-25</v>
       </c>
       <c r="G213" t="n">
-        <v>-99999</v>
+        <v>-28</v>
       </c>
       <c r="H213" t="n">
-        <v>-99999</v>
+        <v>-38</v>
       </c>
       <c r="I213" t="n">
         <v>-99999</v>
@@ -8972,124 +8972,124 @@
         <v>30</v>
       </c>
       <c r="L213" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>V2402-2403</t>
+          <t>V2312-2401</t>
         </is>
       </c>
       <c r="B214" t="n">
         <v>0</v>
       </c>
       <c r="C214" t="n">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="D214" t="n">
         <v>-15</v>
       </c>
       <c r="E214" t="n">
-        <v>-30</v>
+        <v>-20</v>
       </c>
       <c r="F214" t="n">
-        <v>-99999</v>
+        <v>-25</v>
       </c>
       <c r="G214" t="n">
-        <v>-99999</v>
+        <v>-28</v>
       </c>
       <c r="H214" t="n">
-        <v>-99999</v>
+        <v>-38</v>
       </c>
       <c r="I214" t="n">
-        <v>-35</v>
+        <v>-99999</v>
       </c>
       <c r="J214" t="n">
         <v>-99999</v>
       </c>
       <c r="K214" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="L214" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>V2403-2404</t>
+          <t>V2401-2402</t>
         </is>
       </c>
       <c r="B215" t="n">
         <v>0</v>
       </c>
       <c r="C215" t="n">
-        <v>10</v>
+        <v>-3</v>
       </c>
       <c r="D215" t="n">
-        <v>-36</v>
+        <v>-18</v>
       </c>
       <c r="E215" t="n">
-        <v>-40</v>
+        <v>-30</v>
       </c>
       <c r="F215" t="n">
-        <v>-44</v>
+        <v>-99999</v>
       </c>
       <c r="G215" t="n">
-        <v>-48</v>
+        <v>-99999</v>
       </c>
       <c r="H215" t="n">
-        <v>-52</v>
+        <v>-99999</v>
       </c>
       <c r="I215" t="n">
-        <v>-52</v>
+        <v>-99999</v>
       </c>
       <c r="J215" t="n">
         <v>-99999</v>
       </c>
       <c r="K215" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L215" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>V2404-2405</t>
+          <t>V2402-2403</t>
         </is>
       </c>
       <c r="B216" t="n">
         <v>0</v>
       </c>
       <c r="C216" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D216" t="n">
         <v>-15</v>
-      </c>
-      <c r="D216" t="n">
-        <v>-22</v>
       </c>
       <c r="E216" t="n">
         <v>-30</v>
       </c>
       <c r="F216" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G216" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H216" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I216" t="n">
         <v>-35</v>
       </c>
-      <c r="G216" t="n">
-        <v>-40</v>
-      </c>
-      <c r="H216" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="I216" t="n">
-        <v>-99999</v>
-      </c>
       <c r="J216" t="n">
         <v>-99999</v>
       </c>
       <c r="K216" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="L216" t="n">
         <v>3</v>
@@ -9098,66 +9098,66 @@
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>V2405-2406</t>
+          <t>V2403-2404</t>
         </is>
       </c>
       <c r="B217" t="n">
         <v>0</v>
       </c>
       <c r="C217" t="n">
-        <v>-7</v>
+        <v>10</v>
       </c>
       <c r="D217" t="n">
-        <v>-15</v>
+        <v>-36</v>
       </c>
       <c r="E217" t="n">
-        <v>-20</v>
+        <v>-40</v>
       </c>
       <c r="F217" t="n">
-        <v>-30</v>
+        <v>-44</v>
       </c>
       <c r="G217" t="n">
-        <v>-99999</v>
+        <v>-48</v>
       </c>
       <c r="H217" t="n">
-        <v>-99999</v>
+        <v>-52</v>
       </c>
       <c r="I217" t="n">
-        <v>-99999</v>
+        <v>-52</v>
       </c>
       <c r="J217" t="n">
         <v>-99999</v>
       </c>
       <c r="K217" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L217" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>V2406-2407</t>
+          <t>V2404-2405</t>
         </is>
       </c>
       <c r="B218" t="n">
         <v>0</v>
       </c>
       <c r="C218" t="n">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="D218" t="n">
-        <v>-10</v>
+        <v>-22</v>
       </c>
       <c r="E218" t="n">
-        <v>-15</v>
+        <v>-30</v>
       </c>
       <c r="F218" t="n">
-        <v>-15</v>
+        <v>-35</v>
       </c>
       <c r="G218" t="n">
-        <v>-99999</v>
+        <v>-40</v>
       </c>
       <c r="H218" t="n">
         <v>-99999</v>
@@ -9172,29 +9172,29 @@
         <v>30</v>
       </c>
       <c r="L218" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>Y2307-2308</t>
+          <t>V2405-2406</t>
         </is>
       </c>
       <c r="B219" t="n">
         <v>0</v>
       </c>
       <c r="C219" t="n">
-        <v>-99999</v>
+        <v>-7</v>
       </c>
       <c r="D219" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="E219" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="F219" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="G219" t="n">
         <v>-99999</v>
@@ -9209,32 +9209,32 @@
         <v>-99999</v>
       </c>
       <c r="K219" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L219" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>Y2308-2309</t>
+          <t>V2406-2407</t>
         </is>
       </c>
       <c r="B220" t="n">
         <v>0</v>
       </c>
       <c r="C220" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="D220" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="E220" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="F220" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="G220" t="n">
         <v>-99999</v>
@@ -9249,35 +9249,35 @@
         <v>-99999</v>
       </c>
       <c r="K220" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L220" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>Y2309-2311</t>
+          <t>Y2307-2308</t>
         </is>
       </c>
       <c r="B221" t="n">
         <v>0</v>
       </c>
       <c r="C221" t="n">
-        <v>-34</v>
+        <v>-99999</v>
       </c>
       <c r="D221" t="n">
-        <v>-36</v>
+        <v>-99999</v>
       </c>
       <c r="E221" t="n">
-        <v>-40</v>
+        <v>-99999</v>
       </c>
       <c r="F221" t="n">
-        <v>-46</v>
+        <v>-99999</v>
       </c>
       <c r="G221" t="n">
-        <v>-56</v>
+        <v>-99999</v>
       </c>
       <c r="H221" t="n">
         <v>-99999</v>
@@ -9289,7 +9289,7 @@
         <v>-99999</v>
       </c>
       <c r="K221" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="L221" t="n">
         <v>2</v>
@@ -9298,20 +9298,20 @@
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>Y2311-2312</t>
+          <t>Y2308-2309</t>
         </is>
       </c>
       <c r="B222" t="n">
         <v>0</v>
       </c>
       <c r="C222" t="n">
-        <v>-40</v>
+        <v>-99999</v>
       </c>
       <c r="D222" t="n">
-        <v>-42</v>
+        <v>-99999</v>
       </c>
       <c r="E222" t="n">
-        <v>-60</v>
+        <v>-99999</v>
       </c>
       <c r="F222" t="n">
         <v>-99999</v>
@@ -9329,49 +9329,129 @@
         <v>-99999</v>
       </c>
       <c r="K222" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="L222" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
+          <t>Y2309-2311</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>0</v>
+      </c>
+      <c r="C223" t="n">
+        <v>-34</v>
+      </c>
+      <c r="D223" t="n">
+        <v>-36</v>
+      </c>
+      <c r="E223" t="n">
+        <v>-40</v>
+      </c>
+      <c r="F223" t="n">
+        <v>-46</v>
+      </c>
+      <c r="G223" t="n">
+        <v>-56</v>
+      </c>
+      <c r="H223" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I223" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J223" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K223" t="n">
+        <v>26</v>
+      </c>
+      <c r="L223" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="inlineStr">
+        <is>
+          <t>Y2311-2312</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>0</v>
+      </c>
+      <c r="C224" t="n">
+        <v>-40</v>
+      </c>
+      <c r="D224" t="n">
+        <v>-42</v>
+      </c>
+      <c r="E224" t="n">
+        <v>-60</v>
+      </c>
+      <c r="F224" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G224" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H224" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I224" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J224" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K224" t="n">
+        <v>100</v>
+      </c>
+      <c r="L224" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="inlineStr">
+        <is>
           <t>Y2312-2401</t>
         </is>
       </c>
-      <c r="B223" t="n">
-        <v>0</v>
-      </c>
-      <c r="C223" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D223" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E223" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="F223" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="G223" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="H223" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="I223" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="J223" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="K223" t="n">
+      <c r="B225" t="n">
+        <v>0</v>
+      </c>
+      <c r="C225" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D225" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E225" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F225" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G225" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H225" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I225" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J225" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K225" t="n">
         <v>18</v>
       </c>
-      <c r="L223" t="n">
+      <c r="L225" t="n">
         <v>2</v>
       </c>
     </row>

--- a/info/region_info.xlsx
+++ b/info/region_info.xlsx
@@ -2468,13 +2468,13 @@
         <v>-40</v>
       </c>
       <c r="D51" t="n">
-        <v>-50</v>
+        <v>-80</v>
       </c>
       <c r="E51" t="n">
-        <v>-78</v>
+        <v>-80</v>
       </c>
       <c r="F51" t="n">
-        <v>-79</v>
+        <v>-80</v>
       </c>
       <c r="G51" t="n">
         <v>-80</v>
@@ -4028,10 +4028,10 @@
         <v>-16.4</v>
       </c>
       <c r="D90" t="n">
-        <v>-18.4</v>
+        <v>-23.6</v>
       </c>
       <c r="E90" t="n">
-        <v>-23.6</v>
+        <v>-24</v>
       </c>
       <c r="F90" t="n">
         <v>-99999</v>
@@ -4065,16 +4065,16 @@
         <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>-18.4</v>
+        <v>-22.6</v>
       </c>
       <c r="D91" t="n">
-        <v>-18.6</v>
+        <v>-99999</v>
       </c>
       <c r="E91" t="n">
-        <v>-19.6</v>
+        <v>-99999</v>
       </c>
       <c r="F91" t="n">
-        <v>-20.8</v>
+        <v>-99999</v>
       </c>
       <c r="G91" t="n">
         <v>-99999</v>
@@ -4148,7 +4148,7 @@
         <v>-18.4</v>
       </c>
       <c r="D93" t="n">
-        <v>-20.4</v>
+        <v>-23.2</v>
       </c>
       <c r="E93" t="n">
         <v>-99999</v>
@@ -4169,7 +4169,7 @@
         <v>-99999</v>
       </c>
       <c r="K93" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="L93" t="n">
         <v>1</v>
@@ -4489,7 +4489,7 @@
         <v>-99999</v>
       </c>
       <c r="K101" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L101" t="n">
         <v>3</v>
@@ -7785,10 +7785,10 @@
         <v>0</v>
       </c>
       <c r="C184" t="n">
-        <v>-18</v>
+        <v>30</v>
       </c>
       <c r="D184" t="n">
-        <v>-24</v>
+        <v>-14</v>
       </c>
       <c r="E184" t="n">
         <v>-30</v>
@@ -7809,7 +7809,7 @@
         <v>-99999</v>
       </c>
       <c r="K184" t="n">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="L184" t="n">
         <v>3</v>
@@ -9369,7 +9369,7 @@
         <v>-99999</v>
       </c>
       <c r="K223" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L223" t="n">
         <v>2</v>

--- a/info/region_info.xlsx
+++ b/info/region_info.xlsx
@@ -2468,16 +2468,16 @@
         <v>-40</v>
       </c>
       <c r="D51" t="n">
-        <v>-80</v>
+        <v>-70</v>
       </c>
       <c r="E51" t="n">
-        <v>-80</v>
+        <v>-75</v>
       </c>
       <c r="F51" t="n">
-        <v>-80</v>
+        <v>-81</v>
       </c>
       <c r="G51" t="n">
-        <v>-80</v>
+        <v>-81</v>
       </c>
       <c r="H51" t="n">
         <v>-99999</v>
@@ -2529,7 +2529,7 @@
         <v>-99999</v>
       </c>
       <c r="K52" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="L52" t="n">
         <v>4</v>
@@ -2569,7 +2569,7 @@
         <v>-99999</v>
       </c>
       <c r="K53" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="L53" t="n">
         <v>4</v>
@@ -4028,10 +4028,10 @@
         <v>-16.4</v>
       </c>
       <c r="D90" t="n">
-        <v>-23.6</v>
+        <v>-24</v>
       </c>
       <c r="E90" t="n">
-        <v>-24</v>
+        <v>-99999</v>
       </c>
       <c r="F90" t="n">
         <v>-99999</v>
@@ -4048,8 +4048,10 @@
       <c r="J90" t="n">
         <v>-99999</v>
       </c>
-      <c r="K90" t="n">
-        <v>30</v>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
       </c>
       <c r="L90" t="n">
         <v>1</v>
@@ -4064,8 +4066,10 @@
       <c r="B91" t="n">
         <v>0</v>
       </c>
-      <c r="C91" t="n">
-        <v>-22.6</v>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>-20.4</t>
+        </is>
       </c>
       <c r="D91" t="n">
         <v>-99999</v>
@@ -4292,7 +4296,7 @@
         <v>25</v>
       </c>
       <c r="L96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97">
@@ -4465,10 +4469,10 @@
         <v>0</v>
       </c>
       <c r="C101" t="n">
-        <v>-20</v>
+        <v>-28</v>
       </c>
       <c r="D101" t="n">
-        <v>-25</v>
+        <v>-28</v>
       </c>
       <c r="E101" t="n">
         <v>-99999</v>
@@ -4489,7 +4493,7 @@
         <v>-99999</v>
       </c>
       <c r="K101" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="L101" t="n">
         <v>3</v>
@@ -4791,16 +4795,16 @@
         <v>-40</v>
       </c>
       <c r="E109" t="n">
+        <v>-40</v>
+      </c>
+      <c r="F109" t="n">
+        <v>-40</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-43</v>
+      </c>
+      <c r="H109" t="n">
         <v>-45</v>
-      </c>
-      <c r="F109" t="n">
-        <v>-50</v>
-      </c>
-      <c r="G109" t="n">
-        <v>-55</v>
-      </c>
-      <c r="H109" t="n">
-        <v>-60</v>
       </c>
       <c r="I109" t="n">
         <v>-60</v>
@@ -4809,7 +4813,7 @@
         <v>-99999</v>
       </c>
       <c r="K109" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="L109" t="n">
         <v>3</v>
@@ -4951,7 +4955,7 @@
         <v>-40</v>
       </c>
       <c r="E113" t="n">
-        <v>-99999</v>
+        <v>-50</v>
       </c>
       <c r="F113" t="n">
         <v>-99999</v>
@@ -4969,7 +4973,7 @@
         <v>-99999</v>
       </c>
       <c r="K113" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L113" t="n">
         <v>1</v>
@@ -5025,14 +5029,14 @@
         <v>0</v>
       </c>
       <c r="C115" t="n">
+        <v>-50</v>
+      </c>
+      <c r="D115" t="n">
         <v>-60</v>
       </c>
-      <c r="D115" t="n">
+      <c r="E115" t="n">
         <v>-90</v>
       </c>
-      <c r="E115" t="n">
-        <v>-99999</v>
-      </c>
       <c r="F115" t="n">
         <v>-99999</v>
       </c>
@@ -5048,11 +5052,13 @@
       <c r="J115" t="n">
         <v>-99999</v>
       </c>
-      <c r="K115" t="n">
-        <v>18</v>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
       </c>
       <c r="L115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116">
@@ -6625,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="C155" t="n">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="D155" t="n">
         <v>-99999</v>
@@ -7794,7 +7800,7 @@
         <v>-30</v>
       </c>
       <c r="F184" t="n">
-        <v>-36</v>
+        <v>-99999</v>
       </c>
       <c r="G184" t="n">
         <v>-99999</v>
@@ -7809,7 +7815,7 @@
         <v>-99999</v>
       </c>
       <c r="K184" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L184" t="n">
         <v>3</v>
@@ -7914,7 +7920,7 @@
         <v>-165</v>
       </c>
       <c r="F187" t="n">
-        <v>-175</v>
+        <v>-182</v>
       </c>
       <c r="G187" t="n">
         <v>-99999</v>
@@ -9345,19 +9351,19 @@
         <v>0</v>
       </c>
       <c r="C223" t="n">
-        <v>-34</v>
+        <v>-20</v>
       </c>
       <c r="D223" t="n">
-        <v>-36</v>
+        <v>-30</v>
       </c>
       <c r="E223" t="n">
+        <v>-38</v>
+      </c>
+      <c r="F223" t="n">
         <v>-40</v>
       </c>
-      <c r="F223" t="n">
-        <v>-46</v>
-      </c>
       <c r="G223" t="n">
-        <v>-56</v>
+        <v>-99999</v>
       </c>
       <c r="H223" t="n">
         <v>-99999</v>
@@ -9369,7 +9375,7 @@
         <v>-99999</v>
       </c>
       <c r="K223" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L223" t="n">
         <v>2</v>

--- a/info/region_info.xlsx
+++ b/info/region_info.xlsx
@@ -4048,10 +4048,8 @@
       <c r="J90" t="n">
         <v>-99999</v>
       </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+      <c r="K90" t="n">
+        <v>30</v>
       </c>
       <c r="L90" t="n">
         <v>1</v>
@@ -4066,10 +4064,8 @@
       <c r="B91" t="n">
         <v>0</v>
       </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>-20.4</t>
-        </is>
+      <c r="C91" t="n">
+        <v>-20.4</v>
       </c>
       <c r="D91" t="n">
         <v>-99999</v>
@@ -4469,10 +4465,10 @@
         <v>0</v>
       </c>
       <c r="C101" t="n">
-        <v>-28</v>
+        <v>-29</v>
       </c>
       <c r="D101" t="n">
-        <v>-28</v>
+        <v>-30</v>
       </c>
       <c r="E101" t="n">
         <v>-99999</v>
@@ -5052,10 +5048,8 @@
       <c r="J115" t="n">
         <v>-99999</v>
       </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+      <c r="K115" t="n">
+        <v>20</v>
       </c>
       <c r="L115" t="n">
         <v>2</v>
@@ -5111,16 +5105,16 @@
         <v>0</v>
       </c>
       <c r="C117" t="n">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="D117" t="n">
-        <v>-40</v>
+        <v>-10</v>
       </c>
       <c r="E117" t="n">
-        <v>-60</v>
+        <v>-20</v>
       </c>
       <c r="F117" t="n">
-        <v>-80</v>
+        <v>-25</v>
       </c>
       <c r="G117" t="n">
         <v>-99999</v>
@@ -5135,7 +5129,7 @@
         <v>-99999</v>
       </c>
       <c r="K117" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="L117" t="n">
         <v>3</v>
@@ -7695,7 +7689,7 @@
         <v>-99999</v>
       </c>
       <c r="K181" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="L181" t="n">
         <v>1</v>
@@ -8271,7 +8265,7 @@
         <v>0</v>
       </c>
       <c r="C196" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D196" t="n">
         <v>-10</v>
@@ -9375,7 +9369,7 @@
         <v>-99999</v>
       </c>
       <c r="K223" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L223" t="n">
         <v>2</v>

--- a/info/region_info.xlsx
+++ b/info/region_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L225"/>
+  <dimension ref="A1:L224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,7 +532,7 @@
         <v>30</v>
       </c>
       <c r="L2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -658,7 +658,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>AG2307-2308</t>
+          <t>AG2308-2311</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -689,7 +689,7 @@
         <v>-99999</v>
       </c>
       <c r="K6" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="L6" t="n">
         <v>1</v>
@@ -698,20 +698,20 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>AG2308-2311</t>
+          <t>AG2309-2310</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>-99999</v>
+        <v>-13</v>
       </c>
       <c r="D7" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="E7" t="n">
-        <v>-99999</v>
+        <v>-17</v>
       </c>
       <c r="F7" t="n">
         <v>-99999</v>
@@ -729,7 +729,7 @@
         <v>-99999</v>
       </c>
       <c r="K7" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="L7" t="n">
         <v>1</v>
@@ -738,20 +738,20 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>AG2309-2310</t>
+          <t>AG2309-2312</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>-13</v>
+        <v>-99999</v>
       </c>
       <c r="D8" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="E8" t="n">
-        <v>-17</v>
+        <v>-99999</v>
       </c>
       <c r="F8" t="n">
         <v>-99999</v>
@@ -769,38 +769,38 @@
         <v>-99999</v>
       </c>
       <c r="K8" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AG2309-2312</t>
+          <t>AG2310-2311</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>-99999</v>
+        <v>-13</v>
       </c>
       <c r="D9" t="n">
-        <v>-99999</v>
+        <v>-14</v>
       </c>
       <c r="E9" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="F9" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="G9" t="n">
-        <v>-99999</v>
+        <v>-16</v>
       </c>
       <c r="H9" t="n">
-        <v>-99999</v>
+        <v>-17</v>
       </c>
       <c r="I9" t="n">
         <v>-99999</v>
@@ -812,35 +812,35 @@
         <v>17</v>
       </c>
       <c r="L9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AG2310-2311</t>
+          <t>AG2311-2312</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>-13</v>
+        <v>-14</v>
       </c>
       <c r="D10" t="n">
-        <v>-14</v>
+        <v>-15</v>
       </c>
       <c r="E10" t="n">
         <v>-15</v>
       </c>
       <c r="F10" t="n">
-        <v>-15</v>
+        <v>-16</v>
       </c>
       <c r="G10" t="n">
-        <v>-16</v>
+        <v>-17</v>
       </c>
       <c r="H10" t="n">
-        <v>-17</v>
+        <v>-20</v>
       </c>
       <c r="I10" t="n">
         <v>-99999</v>
@@ -858,7 +858,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>AG2311-2312</t>
+          <t>AG2312-2401</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -898,32 +898,32 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>AG2312-2401</t>
+          <t>AG2401-2402</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>-14</v>
+        <v>-15</v>
       </c>
       <c r="D12" t="n">
-        <v>-15</v>
+        <v>-16</v>
       </c>
       <c r="E12" t="n">
-        <v>-15</v>
+        <v>-17</v>
       </c>
       <c r="F12" t="n">
-        <v>-16</v>
+        <v>-18</v>
       </c>
       <c r="G12" t="n">
-        <v>-17</v>
+        <v>-19</v>
       </c>
       <c r="H12" t="n">
         <v>-20</v>
       </c>
       <c r="I12" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="J12" t="n">
         <v>-99999</v>
@@ -938,32 +938,32 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>AG2401-2402</t>
+          <t>AG2402-2403</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>0</v>
       </c>
       <c r="C13" t="n">
+        <v>-14</v>
+      </c>
+      <c r="D13" t="n">
         <v>-15</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
+        <v>-15</v>
+      </c>
+      <c r="F13" t="n">
         <v>-16</v>
       </c>
-      <c r="E13" t="n">
+      <c r="G13" t="n">
         <v>-17</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-18</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-19</v>
       </c>
       <c r="H13" t="n">
         <v>-20</v>
       </c>
       <c r="I13" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="J13" t="n">
         <v>-99999</v>
@@ -978,26 +978,26 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>AG2402-2403</t>
+          <t>AG2403-2404</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-14</v>
+        <v>-16</v>
       </c>
       <c r="D14" t="n">
-        <v>-15</v>
+        <v>-16</v>
       </c>
       <c r="E14" t="n">
-        <v>-15</v>
+        <v>-17</v>
       </c>
       <c r="F14" t="n">
-        <v>-16</v>
+        <v>-18</v>
       </c>
       <c r="G14" t="n">
-        <v>-17</v>
+        <v>-19</v>
       </c>
       <c r="H14" t="n">
         <v>-20</v>
@@ -1012,23 +1012,23 @@
         <v>17</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>AG2403-2404</t>
+          <t>AG2404-2405</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>-16</v>
+        <v>-14</v>
       </c>
       <c r="D15" t="n">
-        <v>-16</v>
+        <v>-15</v>
       </c>
       <c r="E15" t="n">
         <v>-17</v>
@@ -1058,29 +1058,29 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>AG2404-2405</t>
+          <t>AG2405-2406</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>-14</v>
+        <v>-17</v>
       </c>
       <c r="D16" t="n">
-        <v>-15</v>
+        <v>-19</v>
       </c>
       <c r="E16" t="n">
-        <v>-17</v>
+        <v>-20</v>
       </c>
       <c r="F16" t="n">
-        <v>-18</v>
+        <v>-21</v>
       </c>
       <c r="G16" t="n">
-        <v>-19</v>
+        <v>-22</v>
       </c>
       <c r="H16" t="n">
-        <v>-20</v>
+        <v>-22</v>
       </c>
       <c r="I16" t="n">
         <v>-99999</v>
@@ -1098,47 +1098,47 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>AG2405-2406</t>
+          <t>AL2309-2310</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-17</v>
+        <v>-40</v>
       </c>
       <c r="D17" t="n">
-        <v>-19</v>
+        <v>-50</v>
       </c>
       <c r="E17" t="n">
-        <v>-20</v>
+        <v>-70</v>
       </c>
       <c r="F17" t="n">
-        <v>-21</v>
+        <v>-80</v>
       </c>
       <c r="G17" t="n">
-        <v>-22</v>
+        <v>-90</v>
       </c>
       <c r="H17" t="n">
-        <v>-22</v>
+        <v>-100</v>
       </c>
       <c r="I17" t="n">
-        <v>-99999</v>
+        <v>-110</v>
       </c>
       <c r="J17" t="n">
-        <v>-99999</v>
+        <v>-120</v>
       </c>
       <c r="K17" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="L17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>AL2309-2310</t>
+          <t>AL2310-2311</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1169,7 +1169,7 @@
         <v>-120</v>
       </c>
       <c r="K18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L18" t="n">
         <v>1</v>
@@ -1178,23 +1178,23 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>AL2310-2311</t>
+          <t>AL2311-2312</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>0</v>
       </c>
       <c r="C19" t="n">
+        <v>-20</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-25</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-30</v>
+      </c>
+      <c r="F19" t="n">
         <v>-40</v>
-      </c>
-      <c r="D19" t="n">
-        <v>-50</v>
-      </c>
-      <c r="E19" t="n">
-        <v>-70</v>
-      </c>
-      <c r="F19" t="n">
-        <v>-80</v>
       </c>
       <c r="G19" t="n">
         <v>-90</v>
@@ -1209,7 +1209,7 @@
         <v>-120</v>
       </c>
       <c r="K19" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L19" t="n">
         <v>1</v>
@@ -1218,17 +1218,17 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>AL2311-2312</t>
+          <t>AL2312-2401</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>-20</v>
+        <v>20</v>
       </c>
       <c r="D20" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>-30</v>
@@ -1249,7 +1249,7 @@
         <v>-120</v>
       </c>
       <c r="K20" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="L20" t="n">
         <v>1</v>
@@ -1258,35 +1258,35 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>AL2312-2401</t>
+          <t>AL2401-2402</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="E21" t="n">
-        <v>-30</v>
+        <v>-20</v>
       </c>
       <c r="F21" t="n">
-        <v>-40</v>
+        <v>-100</v>
       </c>
       <c r="G21" t="n">
-        <v>-90</v>
+        <v>-120</v>
       </c>
       <c r="H21" t="n">
-        <v>-100</v>
+        <v>-99999</v>
       </c>
       <c r="I21" t="n">
-        <v>-110</v>
+        <v>-99999</v>
       </c>
       <c r="J21" t="n">
-        <v>-120</v>
+        <v>-99999</v>
       </c>
       <c r="K21" t="n">
         <v>25</v>
@@ -1298,20 +1298,20 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>AL2401-2402</t>
+          <t>AL2402-2403</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="D22" t="n">
-        <v>-10</v>
+        <v>-20</v>
       </c>
       <c r="E22" t="n">
-        <v>-20</v>
+        <v>-30</v>
       </c>
       <c r="F22" t="n">
         <v>-100</v>
@@ -1338,26 +1338,26 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>AL2402-2403</t>
+          <t>AL2403-2404</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="D23" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>-30</v>
+        <v>-100</v>
       </c>
       <c r="F23" t="n">
-        <v>-100</v>
+        <v>-120</v>
       </c>
       <c r="G23" t="n">
-        <v>-120</v>
+        <v>-99999</v>
       </c>
       <c r="H23" t="n">
         <v>-99999</v>
@@ -1378,29 +1378,29 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>AL2403-2404</t>
+          <t>AU2310-2312</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>10</v>
+        <v>-1.14</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>-1.22</v>
       </c>
       <c r="E24" t="n">
-        <v>-100</v>
+        <v>-1.32</v>
       </c>
       <c r="F24" t="n">
-        <v>-120</v>
+        <v>-1.34</v>
       </c>
       <c r="G24" t="n">
-        <v>-99999</v>
+        <v>-1.36</v>
       </c>
       <c r="H24" t="n">
-        <v>-99999</v>
+        <v>-1.42</v>
       </c>
       <c r="I24" t="n">
         <v>-99999</v>
@@ -1409,7 +1409,7 @@
         <v>-99999</v>
       </c>
       <c r="K24" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L24" t="n">
         <v>1</v>
@@ -1418,38 +1418,38 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>AU2310-2312</t>
+          <t>AU2312-2402</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>-1.14</v>
+        <v>-1.22</v>
       </c>
       <c r="D25" t="n">
-        <v>-1.22</v>
+        <v>-1.28</v>
       </c>
       <c r="E25" t="n">
-        <v>-1.32</v>
+        <v>-1.34</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.34</v>
+        <v>-1.38</v>
       </c>
       <c r="G25" t="n">
-        <v>-1.36</v>
+        <v>-1.42</v>
       </c>
       <c r="H25" t="n">
-        <v>-1.42</v>
+        <v>-1.46</v>
       </c>
       <c r="I25" t="n">
-        <v>-99999</v>
+        <v>-1.56</v>
       </c>
       <c r="J25" t="n">
-        <v>-99999</v>
+        <v>-1.7</v>
       </c>
       <c r="K25" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L25" t="n">
         <v>1</v>
@@ -1458,29 +1458,29 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>AU2312-2402</t>
+          <t>AU2402-2404</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>-1.22</v>
+        <v>-1.28</v>
       </c>
       <c r="D26" t="n">
-        <v>-1.28</v>
+        <v>-1.32</v>
       </c>
       <c r="E26" t="n">
         <v>-1.34</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.38</v>
+        <v>-1.36</v>
       </c>
       <c r="G26" t="n">
         <v>-1.42</v>
       </c>
       <c r="H26" t="n">
-        <v>-1.46</v>
+        <v>-1.56</v>
       </c>
       <c r="I26" t="n">
         <v>-1.56</v>
@@ -1498,47 +1498,47 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>AU2402-2404</t>
+          <t>B2309-2310</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>-1.28</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-1.32</v>
+        <v>-10</v>
       </c>
       <c r="E27" t="n">
-        <v>-1.34</v>
+        <v>-20</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.36</v>
+        <v>-99999</v>
       </c>
       <c r="G27" t="n">
-        <v>-1.42</v>
+        <v>-99999</v>
       </c>
       <c r="H27" t="n">
-        <v>-1.56</v>
+        <v>-99999</v>
       </c>
       <c r="I27" t="n">
-        <v>-1.56</v>
+        <v>-99999</v>
       </c>
       <c r="J27" t="n">
-        <v>-1.7</v>
+        <v>-99999</v>
       </c>
       <c r="K27" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="L27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>B2309-2310</t>
+          <t>B2310-2311</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1548,19 +1548,19 @@
         <v>-30</v>
       </c>
       <c r="D28" t="n">
-        <v>-45</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>-60</v>
+        <v>-5</v>
       </c>
       <c r="F28" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="G28" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="H28" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="I28" t="n">
         <v>-99999</v>
@@ -1569,7 +1569,7 @@
         <v>-99999</v>
       </c>
       <c r="K28" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="L28" t="n">
         <v>1</v>
@@ -1578,29 +1578,29 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>B2310-2311</t>
+          <t>BU2309-2310</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>0</v>
       </c>
       <c r="C29" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-10</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F29" t="n">
         <v>-30</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>-5</v>
-      </c>
-      <c r="F29" t="n">
-        <v>-10</v>
-      </c>
       <c r="G29" t="n">
-        <v>-15</v>
+        <v>-30</v>
       </c>
       <c r="H29" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="I29" t="n">
         <v>-99999</v>
@@ -1609,7 +1609,7 @@
         <v>-99999</v>
       </c>
       <c r="K29" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="L29" t="n">
         <v>1</v>
@@ -1618,7 +1618,7 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>BU2309-2310</t>
+          <t>BU2310-2311</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1658,7 +1658,7 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>BU2310-2311</t>
+          <t>BU2311-2312</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1698,7 +1698,7 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>BU2311-2312</t>
+          <t>BU2312-2401</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1738,7 +1738,7 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>BU2312-2401</t>
+          <t>BU2401-2402</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1778,7 +1778,7 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>BU2401-2402</t>
+          <t>BU2402-2403</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1818,7 +1818,7 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>BU2402-2403</t>
+          <t>BU2403-2404</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1858,7 +1858,7 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>BU2403-2404</t>
+          <t>BU2404-2405</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1898,7 +1898,7 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>BU2404-2405</t>
+          <t>BU2405-2406</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1938,26 +1938,26 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>BU2405-2406</t>
+          <t>C2309-2311</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>-5</v>
+        <v>-99999</v>
       </c>
       <c r="D38" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="E38" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="F38" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="G38" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="H38" t="n">
         <v>-99999</v>
@@ -1969,16 +1969,16 @@
         <v>-99999</v>
       </c>
       <c r="K38" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="L38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>C2309-2311</t>
+          <t>C2311-2309</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -2009,7 +2009,7 @@
         <v>-99999</v>
       </c>
       <c r="K39" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="L39" t="n">
         <v>3</v>
@@ -2018,17 +2018,17 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>C2311-2309</t>
+          <t>C2311-2401</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="D40" t="n">
-        <v>-99999</v>
+        <v>-40</v>
       </c>
       <c r="E40" t="n">
         <v>-99999</v>
@@ -2049,7 +2049,7 @@
         <v>-99999</v>
       </c>
       <c r="K40" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="L40" t="n">
         <v>3</v>
@@ -2058,17 +2058,17 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>C2311-2401</t>
+          <t>C2401-2403</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>-20</v>
+        <v>-25</v>
       </c>
       <c r="D41" t="n">
-        <v>-40</v>
+        <v>-99999</v>
       </c>
       <c r="E41" t="n">
         <v>-99999</v>
@@ -2098,14 +2098,14 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>C2401-2403</t>
+          <t>C2403-2405</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>-25</v>
+        <v>-55</v>
       </c>
       <c r="D42" t="n">
         <v>-99999</v>
@@ -2132,23 +2132,23 @@
         <v>80</v>
       </c>
       <c r="L42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>C2403-2405</t>
+          <t>CF2309-2311</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>-55</v>
+        <v>-210</v>
       </c>
       <c r="D43" t="n">
-        <v>-99999</v>
+        <v>-230</v>
       </c>
       <c r="E43" t="n">
         <v>-99999</v>
@@ -2178,17 +2178,17 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>CF2309-2311</t>
+          <t>CF2311-2401</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>-210</v>
+        <v>-99999</v>
       </c>
       <c r="D44" t="n">
-        <v>-230</v>
+        <v>-99999</v>
       </c>
       <c r="E44" t="n">
         <v>-99999</v>
@@ -2209,16 +2209,16 @@
         <v>-99999</v>
       </c>
       <c r="K44" t="n">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="L44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>CF2311-2401</t>
+          <t>CS2307-2309</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -2249,16 +2249,16 @@
         <v>-99999</v>
       </c>
       <c r="K45" t="n">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="L45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>CS2307-2309</t>
+          <t>CS2309-2311</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -2298,7 +2298,7 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>CS2309-2311</t>
+          <t>CS2311-2309</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -2338,14 +2338,14 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>CS2311-2309</t>
+          <t>CS2311-2401</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="D48" t="n">
         <v>-99999</v>
@@ -2378,14 +2378,14 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>CS2311-2401</t>
+          <t>CS2403-2405</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>-20</v>
+        <v>-150</v>
       </c>
       <c r="D49" t="n">
         <v>-99999</v>
@@ -2409,7 +2409,7 @@
         <v>-99999</v>
       </c>
       <c r="K49" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="L49" t="n">
         <v>1</v>
@@ -2418,26 +2418,26 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>CS2403-2405</t>
+          <t>EG2309-2310</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>-150</v>
+        <v>-40</v>
       </c>
       <c r="D50" t="n">
-        <v>-99999</v>
+        <v>-70</v>
       </c>
       <c r="E50" t="n">
-        <v>-99999</v>
+        <v>-75</v>
       </c>
       <c r="F50" t="n">
-        <v>-99999</v>
+        <v>-81</v>
       </c>
       <c r="G50" t="n">
-        <v>-99999</v>
+        <v>-81</v>
       </c>
       <c r="H50" t="n">
         <v>-99999</v>
@@ -2449,35 +2449,35 @@
         <v>-99999</v>
       </c>
       <c r="K50" t="n">
-        <v>130</v>
+        <v>36</v>
       </c>
       <c r="L50" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>EG2309-2310</t>
+          <t>EG2310-2311</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>-40</v>
+        <v>-34</v>
       </c>
       <c r="D51" t="n">
+        <v>-36</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-60</v>
+      </c>
+      <c r="F51" t="n">
         <v>-70</v>
       </c>
-      <c r="E51" t="n">
-        <v>-75</v>
-      </c>
-      <c r="F51" t="n">
-        <v>-81</v>
-      </c>
       <c r="G51" t="n">
-        <v>-81</v>
+        <v>-80</v>
       </c>
       <c r="H51" t="n">
         <v>-99999</v>
@@ -2489,7 +2489,7 @@
         <v>-99999</v>
       </c>
       <c r="K51" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="L51" t="n">
         <v>4</v>
@@ -2498,26 +2498,26 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>EG2310-2311</t>
+          <t>EG2311-2312</t>
         </is>
       </c>
       <c r="B52" t="n">
         <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>-34</v>
+        <v>-24</v>
       </c>
       <c r="D52" t="n">
-        <v>-36</v>
+        <v>-32</v>
       </c>
       <c r="E52" t="n">
-        <v>-60</v>
+        <v>-40</v>
       </c>
       <c r="F52" t="n">
-        <v>-70</v>
+        <v>-40</v>
       </c>
       <c r="G52" t="n">
-        <v>-80</v>
+        <v>-99999</v>
       </c>
       <c r="H52" t="n">
         <v>-99999</v>
@@ -2529,7 +2529,7 @@
         <v>-99999</v>
       </c>
       <c r="K52" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L52" t="n">
         <v>4</v>
@@ -2538,7 +2538,7 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>EG2311-2312</t>
+          <t>EG2312-2401</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -2554,7 +2554,7 @@
         <v>-40</v>
       </c>
       <c r="F53" t="n">
-        <v>-40</v>
+        <v>-99999</v>
       </c>
       <c r="G53" t="n">
         <v>-99999</v>
@@ -2578,7 +2578,7 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>EG2312-2401</t>
+          <t>EG2401-2402</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -2591,7 +2591,7 @@
         <v>-32</v>
       </c>
       <c r="E54" t="n">
-        <v>-40</v>
+        <v>-99999</v>
       </c>
       <c r="F54" t="n">
         <v>-99999</v>
@@ -2618,17 +2618,17 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>EG2401-2402</t>
+          <t>EG2402-2403</t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>-24</v>
+        <v>-20</v>
       </c>
       <c r="D55" t="n">
-        <v>-32</v>
+        <v>-30</v>
       </c>
       <c r="E55" t="n">
         <v>-99999</v>
@@ -2658,17 +2658,17 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>EG2402-2403</t>
+          <t>EG2403-2404</t>
         </is>
       </c>
       <c r="B56" t="n">
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>-20</v>
+        <v>-80</v>
       </c>
       <c r="D56" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="E56" t="n">
         <v>-99999</v>
@@ -2689,26 +2689,26 @@
         <v>-99999</v>
       </c>
       <c r="K56" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="L56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>EG2403-2404</t>
+          <t>FG2309-2310</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>-80</v>
+        <v>-30</v>
       </c>
       <c r="D57" t="n">
-        <v>-99999</v>
+        <v>-60</v>
       </c>
       <c r="E57" t="n">
         <v>-99999</v>
@@ -2729,7 +2729,7 @@
         <v>-99999</v>
       </c>
       <c r="K57" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="L57" t="n">
         <v>2</v>
@@ -2738,20 +2738,20 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>FG2309-2310</t>
+          <t>FG2310-2311</t>
         </is>
       </c>
       <c r="B58" t="n">
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-60</v>
+        <v>-5</v>
       </c>
       <c r="E58" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="F58" t="n">
         <v>-99999</v>
@@ -2769,7 +2769,7 @@
         <v>-99999</v>
       </c>
       <c r="K58" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L58" t="n">
         <v>2</v>
@@ -2778,7 +2778,7 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>FG2310-2311</t>
+          <t>FG2312-2401</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -2818,7 +2818,7 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>FG2312-2401</t>
+          <t>FG2402-2403</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -2858,20 +2858,20 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>FG2402-2403</t>
+          <t>FU2309-2310</t>
         </is>
       </c>
       <c r="B61" t="n">
         <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="D61" t="n">
-        <v>-5</v>
+        <v>-20</v>
       </c>
       <c r="E61" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="F61" t="n">
         <v>-99999</v>
@@ -2889,26 +2889,26 @@
         <v>-99999</v>
       </c>
       <c r="K61" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="L61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>FU2309-2310</t>
+          <t>FU2310-2309</t>
         </is>
       </c>
       <c r="B62" t="n">
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>-10</v>
+        <v>-53</v>
       </c>
       <c r="D62" t="n">
-        <v>-20</v>
+        <v>-59</v>
       </c>
       <c r="E62" t="n">
         <v>-99999</v>
@@ -2929,26 +2929,26 @@
         <v>-99999</v>
       </c>
       <c r="K62" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>FU2310-2309</t>
+          <t>FU2310-2311</t>
         </is>
       </c>
       <c r="B63" t="n">
         <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>-53</v>
+        <v>-99999</v>
       </c>
       <c r="D63" t="n">
-        <v>-59</v>
+        <v>-99999</v>
       </c>
       <c r="E63" t="n">
         <v>-99999</v>
@@ -2972,13 +2972,13 @@
         <v>20</v>
       </c>
       <c r="L63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>FU2310-2311</t>
+          <t>FU2311-2309</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -3009,23 +3009,23 @@
         <v>-99999</v>
       </c>
       <c r="K64" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="L64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>FU2311-2309</t>
+          <t>FU2311-2310</t>
         </is>
       </c>
       <c r="B65" t="n">
         <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>-99999</v>
+        <v>-80</v>
       </c>
       <c r="D65" t="n">
         <v>-99999</v>
@@ -3049,23 +3049,23 @@
         <v>-99999</v>
       </c>
       <c r="K65" t="n">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="L65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>FU2311-2310</t>
+          <t>FU2311-2312</t>
         </is>
       </c>
       <c r="B66" t="n">
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>-80</v>
+        <v>-99999</v>
       </c>
       <c r="D66" t="n">
         <v>-99999</v>
@@ -3089,7 +3089,7 @@
         <v>-99999</v>
       </c>
       <c r="K66" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="L66" t="n">
         <v>3</v>
@@ -3098,17 +3098,17 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>FU2311-2312</t>
+          <t>FU2312-2401</t>
         </is>
       </c>
       <c r="B67" t="n">
         <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>-99999</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
-        <v>-99999</v>
+        <v>-5</v>
       </c>
       <c r="E67" t="n">
         <v>-99999</v>
@@ -3129,26 +3129,26 @@
         <v>-99999</v>
       </c>
       <c r="K67" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="L67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>FU2312-2401</t>
+          <t>FU2401-2402</t>
         </is>
       </c>
       <c r="B68" t="n">
         <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>-10</v>
       </c>
       <c r="D68" t="n">
-        <v>-5</v>
+        <v>-99999</v>
       </c>
       <c r="E68" t="n">
         <v>-99999</v>
@@ -3169,26 +3169,26 @@
         <v>-99999</v>
       </c>
       <c r="K68" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="L68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>FU2401-2402</t>
+          <t>FU2402-2403</t>
         </is>
       </c>
       <c r="B69" t="n">
         <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="D69" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="E69" t="n">
         <v>-99999</v>
@@ -3209,7 +3209,7 @@
         <v>-99999</v>
       </c>
       <c r="K69" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="L69" t="n">
         <v>3</v>
@@ -3218,7 +3218,7 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>FU2402-2403</t>
+          <t>FU2403-2404</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -3258,7 +3258,7 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>FU2403-2404</t>
+          <t>FU2404-2405</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -3298,7 +3298,7 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>FU2404-2405</t>
+          <t>FU2405-2406</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -3338,14 +3338,14 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>FU2405-2406</t>
+          <t>HC2309-2310</t>
         </is>
       </c>
       <c r="B73" t="n">
         <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>-15</v>
+        <v>-14</v>
       </c>
       <c r="D73" t="n">
         <v>-20</v>
@@ -3369,29 +3369,29 @@
         <v>-99999</v>
       </c>
       <c r="K73" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="L73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>HC2309-2310</t>
+          <t>HC2310-2311</t>
         </is>
       </c>
       <c r="B74" t="n">
         <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>-14</v>
+        <v>-20</v>
       </c>
       <c r="D74" t="n">
-        <v>-20</v>
+        <v>-30</v>
       </c>
       <c r="E74" t="n">
-        <v>-99999</v>
+        <v>-40</v>
       </c>
       <c r="F74" t="n">
         <v>-99999</v>
@@ -3409,29 +3409,29 @@
         <v>-99999</v>
       </c>
       <c r="K74" t="n">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="L74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>HC2310-2311</t>
+          <t>HC2311-2312</t>
         </is>
       </c>
       <c r="B75" t="n">
         <v>0</v>
       </c>
       <c r="C75" t="n">
+        <v>-10</v>
+      </c>
+      <c r="D75" t="n">
         <v>-20</v>
       </c>
-      <c r="D75" t="n">
-        <v>-30</v>
-      </c>
       <c r="E75" t="n">
-        <v>-40</v>
+        <v>-99999</v>
       </c>
       <c r="F75" t="n">
         <v>-99999</v>
@@ -3449,7 +3449,7 @@
         <v>-99999</v>
       </c>
       <c r="K75" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="L75" t="n">
         <v>3</v>
@@ -3458,17 +3458,17 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>HC2311-2312</t>
+          <t>HC2312-2401</t>
         </is>
       </c>
       <c r="B76" t="n">
         <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="D76" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="E76" t="n">
         <v>-99999</v>
@@ -3498,14 +3498,14 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>HC2312-2401</t>
+          <t>HC2401-2402</t>
         </is>
       </c>
       <c r="B77" t="n">
         <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="D77" t="n">
         <v>-99999</v>
@@ -3529,7 +3529,7 @@
         <v>-99999</v>
       </c>
       <c r="K77" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="L77" t="n">
         <v>3</v>
@@ -3538,14 +3538,14 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>HC2401-2402</t>
+          <t>HC2402-2403</t>
         </is>
       </c>
       <c r="B78" t="n">
         <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="D78" t="n">
         <v>-99999</v>
@@ -3569,7 +3569,7 @@
         <v>-99999</v>
       </c>
       <c r="K78" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="L78" t="n">
         <v>3</v>
@@ -3578,7 +3578,7 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>HC2402-2403</t>
+          <t>HC2403-2404</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -3618,7 +3618,7 @@
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>HC2403-2404</t>
+          <t>I2309-2310</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -3649,29 +3649,29 @@
         <v>-99999</v>
       </c>
       <c r="K80" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="L80" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>I2309-2310</t>
+          <t>I2310-2311</t>
         </is>
       </c>
       <c r="B81" t="n">
         <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>-99999</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>-99999</v>
+        <v>-3</v>
       </c>
       <c r="F81" t="n">
         <v>-99999</v>
@@ -3689,16 +3689,16 @@
         <v>-99999</v>
       </c>
       <c r="K81" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L81" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>I2310-2311</t>
+          <t>I2311-2312</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -3738,7 +3738,7 @@
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>I2311-2312</t>
+          <t>I2312-2401</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -3778,7 +3778,7 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>I2312-2401</t>
+          <t>I2401-2402</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -3818,7 +3818,7 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>I2401-2402</t>
+          <t>I2402-2403</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -3858,7 +3858,7 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>I2402-2403</t>
+          <t>I2403-2404</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -3898,20 +3898,20 @@
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>I2403-2404</t>
+          <t>IC2309-2312</t>
         </is>
       </c>
       <c r="B87" t="n">
         <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>-99999</v>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="E87" t="n">
-        <v>-3</v>
+        <v>-99999</v>
       </c>
       <c r="F87" t="n">
         <v>-99999</v>
@@ -3929,26 +3929,26 @@
         <v>-99999</v>
       </c>
       <c r="K87" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L87" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>IC2309-2312</t>
+          <t>IF2308-2309</t>
         </is>
       </c>
       <c r="B88" t="n">
         <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>-99999</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="D88" t="n">
-        <v>-99999</v>
+        <v>-10.6</v>
       </c>
       <c r="E88" t="n">
         <v>-99999</v>
@@ -3978,17 +3978,17 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>IF2308-2309</t>
+          <t>IF2309-2312</t>
         </is>
       </c>
       <c r="B89" t="n">
         <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>-9.199999999999999</v>
+        <v>-16.4</v>
       </c>
       <c r="D89" t="n">
-        <v>-10.6</v>
+        <v>-24</v>
       </c>
       <c r="E89" t="n">
         <v>-99999</v>
@@ -4018,17 +4018,17 @@
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>IF2309-2312</t>
+          <t>IF2312-2403</t>
         </is>
       </c>
       <c r="B90" t="n">
         <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>-16.4</v>
+        <v>-20.4</v>
       </c>
       <c r="D90" t="n">
-        <v>-24</v>
+        <v>-99999</v>
       </c>
       <c r="E90" t="n">
         <v>-99999</v>
@@ -4049,7 +4049,7 @@
         <v>-99999</v>
       </c>
       <c r="K90" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L90" t="n">
         <v>1</v>
@@ -4058,17 +4058,17 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>IF2312-2403</t>
+          <t>IH2309-2312</t>
         </is>
       </c>
       <c r="B91" t="n">
         <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>-20.4</v>
+        <v>-15.2</v>
       </c>
       <c r="D91" t="n">
-        <v>-99999</v>
+        <v>-17</v>
       </c>
       <c r="E91" t="n">
         <v>-99999</v>
@@ -4098,17 +4098,17 @@
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>IH2309-2312</t>
+          <t>IH2312-2403</t>
         </is>
       </c>
       <c r="B92" t="n">
         <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>-20.4</v>
+        <v>-18.4</v>
       </c>
       <c r="D92" t="n">
-        <v>-22.4</v>
+        <v>-23.2</v>
       </c>
       <c r="E92" t="n">
         <v>-99999</v>
@@ -4129,7 +4129,7 @@
         <v>-99999</v>
       </c>
       <c r="K92" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="L92" t="n">
         <v>1</v>
@@ -4138,17 +4138,17 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>IH2312-2403</t>
+          <t>IM2309-2312</t>
         </is>
       </c>
       <c r="B93" t="n">
         <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>-18.4</v>
+        <v>-99999</v>
       </c>
       <c r="D93" t="n">
-        <v>-23.2</v>
+        <v>-99999</v>
       </c>
       <c r="E93" t="n">
         <v>-99999</v>
@@ -4169,7 +4169,7 @@
         <v>-99999</v>
       </c>
       <c r="K93" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L93" t="n">
         <v>1</v>
@@ -4178,14 +4178,14 @@
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>IM2309-2312</t>
+          <t>JD2403-2404</t>
         </is>
       </c>
       <c r="B94" t="n">
         <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>-99999</v>
+        <v>-190</v>
       </c>
       <c r="D94" t="n">
         <v>-99999</v>
@@ -4209,29 +4209,29 @@
         <v>-99999</v>
       </c>
       <c r="K94" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>JD2403-2404</t>
+          <t>L2309-2310</t>
         </is>
       </c>
       <c r="B95" t="n">
         <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>-190</v>
+        <v>-5</v>
       </c>
       <c r="D95" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="E95" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="F95" t="n">
         <v>-99999</v>
@@ -4249,7 +4249,7 @@
         <v>-99999</v>
       </c>
       <c r="K95" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="L95" t="n">
         <v>2</v>
@@ -4258,23 +4258,23 @@
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>L2309-2310</t>
+          <t>L2310-2311</t>
         </is>
       </c>
       <c r="B96" t="n">
         <v>0</v>
       </c>
       <c r="C96" t="n">
+        <v>0</v>
+      </c>
+      <c r="D96" t="n">
         <v>-5</v>
       </c>
-      <c r="D96" t="n">
+      <c r="E96" t="n">
         <v>-10</v>
       </c>
-      <c r="E96" t="n">
+      <c r="F96" t="n">
         <v>-15</v>
-      </c>
-      <c r="F96" t="n">
-        <v>-99999</v>
       </c>
       <c r="G96" t="n">
         <v>-99999</v>
@@ -4292,13 +4292,13 @@
         <v>25</v>
       </c>
       <c r="L96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>L2310-2311</t>
+          <t>L2311-2312</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -4338,7 +4338,7 @@
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>L2311-2312</t>
+          <t>L2312-2401</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -4378,7 +4378,7 @@
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>L2312-2401</t>
+          <t>L2402-2403</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -4418,23 +4418,23 @@
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>L2402-2403</t>
+          <t>LU2309-2310</t>
         </is>
       </c>
       <c r="B100" t="n">
         <v>0</v>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>-29</v>
       </c>
       <c r="D100" t="n">
-        <v>-5</v>
+        <v>-30</v>
       </c>
       <c r="E100" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="F100" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="G100" t="n">
         <v>-99999</v>
@@ -4449,7 +4449,7 @@
         <v>-99999</v>
       </c>
       <c r="K100" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="L100" t="n">
         <v>3</v>
@@ -4458,20 +4458,20 @@
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>LU2309-2310</t>
+          <t>LU2310-2311</t>
         </is>
       </c>
       <c r="B101" t="n">
         <v>0</v>
       </c>
       <c r="C101" t="n">
-        <v>-29</v>
+        <v>-20</v>
       </c>
       <c r="D101" t="n">
         <v>-30</v>
       </c>
       <c r="E101" t="n">
-        <v>-99999</v>
+        <v>-40</v>
       </c>
       <c r="F101" t="n">
         <v>-99999</v>
@@ -4489,29 +4489,29 @@
         <v>-99999</v>
       </c>
       <c r="K101" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="L101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>LU2310-2311</t>
+          <t>M2309-2311</t>
         </is>
       </c>
       <c r="B102" t="n">
         <v>0</v>
       </c>
       <c r="C102" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="D102" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="E102" t="n">
-        <v>-40</v>
+        <v>-99999</v>
       </c>
       <c r="F102" t="n">
         <v>-99999</v>
@@ -4529,26 +4529,26 @@
         <v>-99999</v>
       </c>
       <c r="K102" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="L102" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>M2309-2311</t>
+          <t>M2311-2312</t>
         </is>
       </c>
       <c r="B103" t="n">
         <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>-99999</v>
+        <v>-40</v>
       </c>
       <c r="D103" t="n">
-        <v>-99999</v>
+        <v>-50</v>
       </c>
       <c r="E103" t="n">
         <v>-99999</v>
@@ -4569,29 +4569,29 @@
         <v>-99999</v>
       </c>
       <c r="K103" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="L103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>M2311-2312</t>
+          <t>M2312-2401</t>
         </is>
       </c>
       <c r="B104" t="n">
         <v>0</v>
       </c>
       <c r="C104" t="n">
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="D104" t="n">
-        <v>-50</v>
+        <v>-5</v>
       </c>
       <c r="E104" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="F104" t="n">
         <v>-99999</v>
@@ -4609,16 +4609,16 @@
         <v>-99999</v>
       </c>
       <c r="K104" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L104" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>M2312-2401</t>
+          <t>M2401-2403</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -4628,10 +4628,10 @@
         <v>0</v>
       </c>
       <c r="D105" t="n">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="E105" t="n">
-        <v>-10</v>
+        <v>-20</v>
       </c>
       <c r="F105" t="n">
         <v>-99999</v>
@@ -4658,20 +4658,20 @@
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>M2401-2403</t>
+          <t>M2403-2405</t>
         </is>
       </c>
       <c r="B106" t="n">
         <v>0</v>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="D106" t="n">
-        <v>-10</v>
+        <v>-100</v>
       </c>
       <c r="E106" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="F106" t="n">
         <v>-99999</v>
@@ -4698,23 +4698,23 @@
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>M2403-2405</t>
+          <t>M2405-2407</t>
         </is>
       </c>
       <c r="B107" t="n">
         <v>0</v>
       </c>
       <c r="C107" t="n">
-        <v>-50</v>
+        <v>2</v>
       </c>
       <c r="D107" t="n">
-        <v>-100</v>
+        <v>-20</v>
       </c>
       <c r="E107" t="n">
-        <v>-99999</v>
+        <v>-25</v>
       </c>
       <c r="F107" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="G107" t="n">
         <v>-99999</v>
@@ -4729,7 +4729,7 @@
         <v>-99999</v>
       </c>
       <c r="K107" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="L107" t="n">
         <v>3</v>
@@ -4738,38 +4738,38 @@
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>M2405-2407</t>
+          <t>MA2309-2310</t>
         </is>
       </c>
       <c r="B108" t="n">
         <v>0</v>
       </c>
       <c r="C108" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D108" t="n">
-        <v>-20</v>
+        <v>-35</v>
       </c>
       <c r="E108" t="n">
-        <v>-25</v>
+        <v>-40</v>
       </c>
       <c r="F108" t="n">
-        <v>-30</v>
+        <v>-40</v>
       </c>
       <c r="G108" t="n">
-        <v>-99999</v>
+        <v>-43</v>
       </c>
       <c r="H108" t="n">
-        <v>-99999</v>
+        <v>-45</v>
       </c>
       <c r="I108" t="n">
-        <v>-99999</v>
+        <v>-60</v>
       </c>
       <c r="J108" t="n">
         <v>-99999</v>
       </c>
       <c r="K108" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="L108" t="n">
         <v>3</v>
@@ -4778,38 +4778,38 @@
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>MA2309-2310</t>
+          <t>MA2310-2311</t>
         </is>
       </c>
       <c r="B109" t="n">
         <v>0</v>
       </c>
       <c r="C109" t="n">
+        <v>-30</v>
+      </c>
+      <c r="D109" t="n">
         <v>-35</v>
       </c>
-      <c r="D109" t="n">
-        <v>-40</v>
-      </c>
       <c r="E109" t="n">
-        <v>-40</v>
+        <v>-50</v>
       </c>
       <c r="F109" t="n">
-        <v>-40</v>
+        <v>-99999</v>
       </c>
       <c r="G109" t="n">
-        <v>-43</v>
+        <v>-99999</v>
       </c>
       <c r="H109" t="n">
-        <v>-45</v>
+        <v>-99999</v>
       </c>
       <c r="I109" t="n">
-        <v>-60</v>
+        <v>-99999</v>
       </c>
       <c r="J109" t="n">
         <v>-99999</v>
       </c>
       <c r="K109" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="L109" t="n">
         <v>3</v>
@@ -4818,20 +4818,20 @@
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>MA2310-2311</t>
+          <t>MA2311-2312</t>
         </is>
       </c>
       <c r="B110" t="n">
         <v>0</v>
       </c>
       <c r="C110" t="n">
-        <v>-30</v>
+        <v>-45</v>
       </c>
       <c r="D110" t="n">
-        <v>-35</v>
+        <v>-50</v>
       </c>
       <c r="E110" t="n">
-        <v>-50</v>
+        <v>-99999</v>
       </c>
       <c r="F110" t="n">
         <v>-99999</v>
@@ -4849,29 +4849,29 @@
         <v>-99999</v>
       </c>
       <c r="K110" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="L110" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>MA2311-2312</t>
+          <t>MA2312-2401</t>
         </is>
       </c>
       <c r="B111" t="n">
         <v>0</v>
       </c>
       <c r="C111" t="n">
-        <v>-45</v>
+        <v>-5</v>
       </c>
       <c r="D111" t="n">
-        <v>-50</v>
+        <v>-15</v>
       </c>
       <c r="E111" t="n">
-        <v>-99999</v>
+        <v>-25</v>
       </c>
       <c r="F111" t="n">
         <v>-99999</v>
@@ -4889,29 +4889,29 @@
         <v>-99999</v>
       </c>
       <c r="K111" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L111" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>MA2312-2401</t>
+          <t>NR2309-2310</t>
         </is>
       </c>
       <c r="B112" t="n">
         <v>0</v>
       </c>
       <c r="C112" t="n">
-        <v>-5</v>
+        <v>-30</v>
       </c>
       <c r="D112" t="n">
-        <v>-15</v>
+        <v>-40</v>
       </c>
       <c r="E112" t="n">
-        <v>-25</v>
+        <v>-50</v>
       </c>
       <c r="F112" t="n">
         <v>-99999</v>
@@ -4932,26 +4932,26 @@
         <v>30</v>
       </c>
       <c r="L112" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>NR2309-2310</t>
+          <t>NR2310-2311</t>
         </is>
       </c>
       <c r="B113" t="n">
         <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>-30</v>
+        <v>-50</v>
       </c>
       <c r="D113" t="n">
-        <v>-40</v>
+        <v>-80</v>
       </c>
       <c r="E113" t="n">
-        <v>-50</v>
+        <v>-99999</v>
       </c>
       <c r="F113" t="n">
         <v>-99999</v>
@@ -4969,7 +4969,7 @@
         <v>-99999</v>
       </c>
       <c r="K113" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L113" t="n">
         <v>1</v>
@@ -4978,7 +4978,7 @@
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>NR2310-2311</t>
+          <t>NR2311-2312</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -4988,10 +4988,10 @@
         <v>-50</v>
       </c>
       <c r="D114" t="n">
-        <v>-80</v>
+        <v>-60</v>
       </c>
       <c r="E114" t="n">
-        <v>-99999</v>
+        <v>-90</v>
       </c>
       <c r="F114" t="n">
         <v>-99999</v>
@@ -5009,29 +5009,29 @@
         <v>-99999</v>
       </c>
       <c r="K114" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>NR2311-2312</t>
+          <t>NR2312-2401</t>
         </is>
       </c>
       <c r="B115" t="n">
         <v>0</v>
       </c>
       <c r="C115" t="n">
-        <v>-50</v>
+        <v>-70</v>
       </c>
       <c r="D115" t="n">
-        <v>-60</v>
+        <v>-100</v>
       </c>
       <c r="E115" t="n">
-        <v>-90</v>
+        <v>-99999</v>
       </c>
       <c r="F115" t="n">
         <v>-99999</v>
@@ -5049,32 +5049,32 @@
         <v>-99999</v>
       </c>
       <c r="K115" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>NR2312-2401</t>
+          <t>OI2309-2311</t>
         </is>
       </c>
       <c r="B116" t="n">
         <v>0</v>
       </c>
       <c r="C116" t="n">
-        <v>-70</v>
+        <v>5</v>
       </c>
       <c r="D116" t="n">
-        <v>-100</v>
+        <v>-5</v>
       </c>
       <c r="E116" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="F116" t="n">
-        <v>-99999</v>
+        <v>-25</v>
       </c>
       <c r="G116" t="n">
         <v>-99999</v>
@@ -5089,32 +5089,32 @@
         <v>-99999</v>
       </c>
       <c r="K116" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="L116" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>OI2309-2311</t>
+          <t>OI2311-2401</t>
         </is>
       </c>
       <c r="B117" t="n">
         <v>0</v>
       </c>
       <c r="C117" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="D117" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="E117" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="F117" t="n">
-        <v>-25</v>
+        <v>-99999</v>
       </c>
       <c r="G117" t="n">
         <v>-99999</v>
@@ -5129,7 +5129,7 @@
         <v>-99999</v>
       </c>
       <c r="K117" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L117" t="n">
         <v>3</v>
@@ -5138,7 +5138,7 @@
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>OI2311-2401</t>
+          <t>OI2401-2311</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -5169,26 +5169,26 @@
         <v>-99999</v>
       </c>
       <c r="K118" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L118" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>OI2401-2311</t>
+          <t>OI2401-2403</t>
         </is>
       </c>
       <c r="B119" t="n">
         <v>0</v>
       </c>
       <c r="C119" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="D119" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="E119" t="n">
         <v>-99999</v>
@@ -5209,7 +5209,7 @@
         <v>-99999</v>
       </c>
       <c r="K119" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="L119" t="n">
         <v>2</v>
@@ -5218,17 +5218,17 @@
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>OI2401-2403</t>
+          <t>OI2403-2401</t>
         </is>
       </c>
       <c r="B120" t="n">
         <v>0</v>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="D120" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="E120" t="n">
         <v>-99999</v>
@@ -5249,7 +5249,7 @@
         <v>-99999</v>
       </c>
       <c r="K120" t="n">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="L120" t="n">
         <v>2</v>
@@ -5258,17 +5258,17 @@
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>OI2403-2401</t>
+          <t>OI2403-2405</t>
         </is>
       </c>
       <c r="B121" t="n">
         <v>0</v>
       </c>
       <c r="C121" t="n">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="D121" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="E121" t="n">
         <v>-99999</v>
@@ -5289,7 +5289,7 @@
         <v>-99999</v>
       </c>
       <c r="K121" t="n">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="L121" t="n">
         <v>2</v>
@@ -5298,17 +5298,17 @@
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>OI2403-2405</t>
+          <t>PB2309-2310</t>
         </is>
       </c>
       <c r="B122" t="n">
         <v>0</v>
       </c>
       <c r="C122" t="n">
-        <v>0</v>
+        <v>-52</v>
       </c>
       <c r="D122" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="E122" t="n">
         <v>-99999</v>
@@ -5329,23 +5329,23 @@
         <v>-99999</v>
       </c>
       <c r="K122" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>PB2309-2310</t>
+          <t>PB2310-2311</t>
         </is>
       </c>
       <c r="B123" t="n">
         <v>0</v>
       </c>
       <c r="C123" t="n">
-        <v>-52</v>
+        <v>-25</v>
       </c>
       <c r="D123" t="n">
         <v>-99999</v>
@@ -5369,26 +5369,26 @@
         <v>-99999</v>
       </c>
       <c r="K123" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>PB2310-2311</t>
+          <t>PB2312-2401</t>
         </is>
       </c>
       <c r="B124" t="n">
         <v>0</v>
       </c>
       <c r="C124" t="n">
-        <v>-25</v>
+        <v>-40</v>
       </c>
       <c r="D124" t="n">
-        <v>-99999</v>
+        <v>-80</v>
       </c>
       <c r="E124" t="n">
         <v>-99999</v>
@@ -5409,7 +5409,7 @@
         <v>-99999</v>
       </c>
       <c r="K124" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="L124" t="n">
         <v>2</v>
@@ -5418,17 +5418,17 @@
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>PB2312-2401</t>
+          <t>PB2402-2403</t>
         </is>
       </c>
       <c r="B125" t="n">
         <v>0</v>
       </c>
       <c r="C125" t="n">
-        <v>-40</v>
+        <v>-55</v>
       </c>
       <c r="D125" t="n">
-        <v>-80</v>
+        <v>-99999</v>
       </c>
       <c r="E125" t="n">
         <v>-99999</v>
@@ -5449,16 +5449,16 @@
         <v>-99999</v>
       </c>
       <c r="K125" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="L125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>PB2402-2403</t>
+          <t>PB2403-2404</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -5498,14 +5498,14 @@
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>PB2403-2404</t>
+          <t>PF2309-2310</t>
         </is>
       </c>
       <c r="B127" t="n">
         <v>0</v>
       </c>
       <c r="C127" t="n">
-        <v>-55</v>
+        <v>-52</v>
       </c>
       <c r="D127" t="n">
         <v>-99999</v>
@@ -5529,23 +5529,23 @@
         <v>-99999</v>
       </c>
       <c r="K127" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>PF2309-2310</t>
+          <t>PF2310-2311</t>
         </is>
       </c>
       <c r="B128" t="n">
         <v>0</v>
       </c>
       <c r="C128" t="n">
-        <v>-52</v>
+        <v>2</v>
       </c>
       <c r="D128" t="n">
         <v>-99999</v>
@@ -5569,16 +5569,16 @@
         <v>-99999</v>
       </c>
       <c r="K128" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="L128" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>PF2310-2311</t>
+          <t>PF2311-2312</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -5588,10 +5588,10 @@
         <v>2</v>
       </c>
       <c r="D129" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="E129" t="n">
-        <v>-99999</v>
+        <v>-40</v>
       </c>
       <c r="F129" t="n">
         <v>-99999</v>
@@ -5618,7 +5618,7 @@
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>PF2311-2312</t>
+          <t>PF2312-2401</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -5628,10 +5628,10 @@
         <v>2</v>
       </c>
       <c r="D130" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="E130" t="n">
-        <v>-40</v>
+        <v>-99999</v>
       </c>
       <c r="F130" t="n">
         <v>-99999</v>
@@ -5658,14 +5658,14 @@
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>PF2312-2401</t>
+          <t>PG2307-2308</t>
         </is>
       </c>
       <c r="B131" t="n">
         <v>0</v>
       </c>
       <c r="C131" t="n">
-        <v>2</v>
+        <v>-99999</v>
       </c>
       <c r="D131" t="n">
         <v>-99999</v>
@@ -5689,16 +5689,16 @@
         <v>-99999</v>
       </c>
       <c r="K131" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="L131" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>PG2307-2308</t>
+          <t>PG2308-2309</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -5729,16 +5729,16 @@
         <v>-99999</v>
       </c>
       <c r="K132" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="L132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>PG2308-2309</t>
+          <t>PG2309-2308</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -5769,29 +5769,29 @@
         <v>-99999</v>
       </c>
       <c r="K133" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="L133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>PG2309-2308</t>
+          <t>PP2309-2310</t>
         </is>
       </c>
       <c r="B134" t="n">
         <v>0</v>
       </c>
       <c r="C134" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="D134" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="E134" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="F134" t="n">
         <v>-99999</v>
@@ -5809,35 +5809,35 @@
         <v>-99999</v>
       </c>
       <c r="K134" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="L134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>PP2309-2310</t>
+          <t>PP2310-2311</t>
         </is>
       </c>
       <c r="B135" t="n">
         <v>0</v>
       </c>
       <c r="C135" t="n">
+        <v>2</v>
+      </c>
+      <c r="D135" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E135" t="n">
         <v>-10</v>
       </c>
-      <c r="D135" t="n">
+      <c r="F135" t="n">
         <v>-15</v>
       </c>
-      <c r="E135" t="n">
+      <c r="G135" t="n">
         <v>-20</v>
-      </c>
-      <c r="F135" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-99999</v>
       </c>
       <c r="H135" t="n">
         <v>-99999</v>
@@ -5852,13 +5852,13 @@
         <v>35</v>
       </c>
       <c r="L135" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>PP2310-2311</t>
+          <t>PP2311-2312</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -5898,7 +5898,7 @@
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>PP2311-2312</t>
+          <t>PP2312-2401</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -5938,7 +5938,7 @@
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>PP2312-2401</t>
+          <t>PP2401-2402</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -5978,26 +5978,26 @@
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>PP2401-2402</t>
+          <t>PP2402-2403</t>
         </is>
       </c>
       <c r="B139" t="n">
         <v>0</v>
       </c>
       <c r="C139" t="n">
-        <v>2</v>
+        <v>-5</v>
       </c>
       <c r="D139" t="n">
-        <v>-5</v>
+        <v>-99999</v>
       </c>
       <c r="E139" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="F139" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="G139" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="H139" t="n">
         <v>-99999</v>
@@ -6018,17 +6018,17 @@
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>PP2402-2403</t>
+          <t>PP2405-2406</t>
         </is>
       </c>
       <c r="B140" t="n">
         <v>0</v>
       </c>
       <c r="C140" t="n">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="D140" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="E140" t="n">
         <v>-99999</v>
@@ -6058,24 +6058,24 @@
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>PP2405-2406</t>
+          <t>RB2307-2308</t>
         </is>
       </c>
       <c r="B141" t="n">
         <v>0</v>
       </c>
       <c r="C141" t="n">
+        <v>0</v>
+      </c>
+      <c r="D141" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E141" t="n">
         <v>-10</v>
       </c>
-      <c r="D141" t="n">
+      <c r="F141" t="n">
         <v>-15</v>
       </c>
-      <c r="E141" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="F141" t="n">
-        <v>-99999</v>
-      </c>
       <c r="G141" t="n">
         <v>-99999</v>
       </c>
@@ -6089,7 +6089,7 @@
         <v>-99999</v>
       </c>
       <c r="K141" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="L141" t="n">
         <v>3</v>
@@ -6098,7 +6098,7 @@
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>RB2307-2308</t>
+          <t>RB2308-2309</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -6108,13 +6108,13 @@
         <v>0</v>
       </c>
       <c r="D142" t="n">
-        <v>-5</v>
+        <v>-20</v>
       </c>
       <c r="E142" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="F142" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="G142" t="n">
         <v>-99999</v>
@@ -6129,7 +6129,7 @@
         <v>-99999</v>
       </c>
       <c r="K142" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L142" t="n">
         <v>3</v>
@@ -6138,17 +6138,17 @@
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>RB2308-2309</t>
+          <t>RB2309-2310</t>
         </is>
       </c>
       <c r="B143" t="n">
         <v>0</v>
       </c>
       <c r="C143" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="D143" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="E143" t="n">
         <v>-99999</v>
@@ -6169,7 +6169,7 @@
         <v>-99999</v>
       </c>
       <c r="K143" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="L143" t="n">
         <v>3</v>
@@ -6178,14 +6178,14 @@
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>RB2309-2310</t>
+          <t>RB2310-2311</t>
         </is>
       </c>
       <c r="B144" t="n">
         <v>0</v>
       </c>
       <c r="C144" t="n">
-        <v>-100</v>
+        <v>-99999</v>
       </c>
       <c r="D144" t="n">
         <v>-99999</v>
@@ -6209,16 +6209,16 @@
         <v>-99999</v>
       </c>
       <c r="K144" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L144" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>RB2310-2311</t>
+          <t>RB2311-2312</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -6258,7 +6258,7 @@
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>RB2311-2312</t>
+          <t>RB2312-2401</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -6292,13 +6292,13 @@
         <v>20</v>
       </c>
       <c r="L146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>RB2312-2401</t>
+          <t>RB2401-2402</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -6338,7 +6338,7 @@
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>RB2401-2402</t>
+          <t>RB2402-2403</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -6378,7 +6378,7 @@
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>RB2402-2403</t>
+          <t>RB2403-2404</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -6418,17 +6418,17 @@
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>RB2403-2404</t>
+          <t>RM2307-2308</t>
         </is>
       </c>
       <c r="B150" t="n">
         <v>0</v>
       </c>
       <c r="C150" t="n">
-        <v>-99999</v>
+        <v>-70</v>
       </c>
       <c r="D150" t="n">
-        <v>-99999</v>
+        <v>-100</v>
       </c>
       <c r="E150" t="n">
         <v>-99999</v>
@@ -6449,35 +6449,35 @@
         <v>-99999</v>
       </c>
       <c r="K150" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L150" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>RM2307-2308</t>
+          <t>RM2308-2309</t>
         </is>
       </c>
       <c r="B151" t="n">
         <v>0</v>
       </c>
       <c r="C151" t="n">
-        <v>-70</v>
+        <v>10</v>
       </c>
       <c r="D151" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E151" t="n">
-        <v>-99999</v>
+        <v>-5</v>
       </c>
       <c r="F151" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="G151" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="H151" t="n">
         <v>-99999</v>
@@ -6489,7 +6489,7 @@
         <v>-99999</v>
       </c>
       <c r="K151" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L151" t="n">
         <v>3</v>
@@ -6498,7 +6498,7 @@
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>RM2308-2309</t>
+          <t>RM2309-2311</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -6538,26 +6538,26 @@
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>RM2309-2311</t>
+          <t>RM2401-2403</t>
         </is>
       </c>
       <c r="B153" t="n">
         <v>0</v>
       </c>
       <c r="C153" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D153" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="E153" t="n">
-        <v>-5</v>
+        <v>-20</v>
       </c>
       <c r="F153" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="G153" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="H153" t="n">
         <v>-99999</v>
@@ -6578,20 +6578,20 @@
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>RM2401-2403</t>
+          <t>RM2405-2407</t>
         </is>
       </c>
       <c r="B154" t="n">
         <v>0</v>
       </c>
       <c r="C154" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D154" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="E154" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="F154" t="n">
         <v>-99999</v>
@@ -6609,26 +6609,26 @@
         <v>-99999</v>
       </c>
       <c r="K154" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L154" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>RM2405-2407</t>
+          <t>RR2308-2309</t>
         </is>
       </c>
       <c r="B155" t="n">
         <v>0</v>
       </c>
       <c r="C155" t="n">
-        <v>30</v>
+        <v>-75</v>
       </c>
       <c r="D155" t="n">
-        <v>-99999</v>
+        <v>-80</v>
       </c>
       <c r="E155" t="n">
         <v>-99999</v>
@@ -6649,7 +6649,7 @@
         <v>-99999</v>
       </c>
       <c r="K155" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L155" t="n">
         <v>2</v>
@@ -6658,17 +6658,17 @@
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>RR2308-2309</t>
+          <t>RR2309-2310</t>
         </is>
       </c>
       <c r="B156" t="n">
         <v>0</v>
       </c>
       <c r="C156" t="n">
-        <v>-75</v>
+        <v>-72</v>
       </c>
       <c r="D156" t="n">
-        <v>-80</v>
+        <v>-99999</v>
       </c>
       <c r="E156" t="n">
         <v>-99999</v>
@@ -6689,29 +6689,29 @@
         <v>-99999</v>
       </c>
       <c r="K156" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="L156" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>RR2309-2310</t>
+          <t>RR2312-2401</t>
         </is>
       </c>
       <c r="B157" t="n">
         <v>0</v>
       </c>
       <c r="C157" t="n">
-        <v>-72</v>
+        <v>-60</v>
       </c>
       <c r="D157" t="n">
-        <v>-99999</v>
+        <v>-65</v>
       </c>
       <c r="E157" t="n">
-        <v>-99999</v>
+        <v>-70</v>
       </c>
       <c r="F157" t="n">
         <v>-99999</v>
@@ -6729,29 +6729,29 @@
         <v>-99999</v>
       </c>
       <c r="K157" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="L157" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>RR2312-2401</t>
+          <t>RU2307-2308</t>
         </is>
       </c>
       <c r="B158" t="n">
         <v>0</v>
       </c>
       <c r="C158" t="n">
-        <v>-60</v>
+        <v>-100</v>
       </c>
       <c r="D158" t="n">
-        <v>-65</v>
+        <v>-100</v>
       </c>
       <c r="E158" t="n">
-        <v>-70</v>
+        <v>-99999</v>
       </c>
       <c r="F158" t="n">
         <v>-99999</v>
@@ -6769,7 +6769,7 @@
         <v>-99999</v>
       </c>
       <c r="K158" t="n">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="L158" t="n">
         <v>1</v>
@@ -6778,17 +6778,17 @@
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>RU2307-2308</t>
+          <t>RU2308-2309</t>
         </is>
       </c>
       <c r="B159" t="n">
         <v>0</v>
       </c>
       <c r="C159" t="n">
-        <v>-100</v>
+        <v>-75</v>
       </c>
       <c r="D159" t="n">
-        <v>-100</v>
+        <v>-99999</v>
       </c>
       <c r="E159" t="n">
         <v>-99999</v>
@@ -6809,7 +6809,7 @@
         <v>-99999</v>
       </c>
       <c r="K159" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L159" t="n">
         <v>1</v>
@@ -6818,17 +6818,17 @@
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>RU2308-2309</t>
+          <t>RU2309-2310</t>
         </is>
       </c>
       <c r="B160" t="n">
         <v>0</v>
       </c>
       <c r="C160" t="n">
-        <v>-75</v>
+        <v>-60</v>
       </c>
       <c r="D160" t="n">
-        <v>-99999</v>
+        <v>-110</v>
       </c>
       <c r="E160" t="n">
         <v>-99999</v>
@@ -6849,7 +6849,7 @@
         <v>-99999</v>
       </c>
       <c r="K160" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L160" t="n">
         <v>1</v>
@@ -6858,20 +6858,20 @@
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>RU2309-2310</t>
+          <t>RU2310-2311</t>
         </is>
       </c>
       <c r="B161" t="n">
         <v>0</v>
       </c>
       <c r="C161" t="n">
-        <v>-60</v>
+        <v>0</v>
       </c>
       <c r="D161" t="n">
-        <v>-110</v>
+        <v>-70</v>
       </c>
       <c r="E161" t="n">
-        <v>-99999</v>
+        <v>-80</v>
       </c>
       <c r="F161" t="n">
         <v>-99999</v>
@@ -6898,20 +6898,20 @@
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>RU2310-2311</t>
+          <t>RU2311-2401</t>
         </is>
       </c>
       <c r="B162" t="n">
         <v>0</v>
       </c>
       <c r="C162" t="n">
-        <v>0</v>
+        <v>-1800</v>
       </c>
       <c r="D162" t="n">
-        <v>-70</v>
+        <v>-99999</v>
       </c>
       <c r="E162" t="n">
-        <v>-80</v>
+        <v>-99999</v>
       </c>
       <c r="F162" t="n">
         <v>-99999</v>
@@ -6929,7 +6929,7 @@
         <v>-99999</v>
       </c>
       <c r="K162" t="n">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="L162" t="n">
         <v>1</v>
@@ -6938,17 +6938,17 @@
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>RU2311-2401</t>
+          <t>RU2401-2403</t>
         </is>
       </c>
       <c r="B163" t="n">
         <v>0</v>
       </c>
       <c r="C163" t="n">
-        <v>-1800</v>
+        <v>-100</v>
       </c>
       <c r="D163" t="n">
-        <v>-99999</v>
+        <v>-120</v>
       </c>
       <c r="E163" t="n">
         <v>-99999</v>
@@ -6969,7 +6969,7 @@
         <v>-99999</v>
       </c>
       <c r="K163" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="L163" t="n">
         <v>1</v>
@@ -6978,20 +6978,20 @@
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>RU2401-2403</t>
+          <t>RU2403-2404</t>
         </is>
       </c>
       <c r="B164" t="n">
         <v>0</v>
       </c>
       <c r="C164" t="n">
-        <v>-100</v>
+        <v>-60</v>
       </c>
       <c r="D164" t="n">
-        <v>-120</v>
+        <v>-70</v>
       </c>
       <c r="E164" t="n">
-        <v>-99999</v>
+        <v>-80</v>
       </c>
       <c r="F164" t="n">
         <v>-99999</v>
@@ -7009,7 +7009,7 @@
         <v>-99999</v>
       </c>
       <c r="K164" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="L164" t="n">
         <v>1</v>
@@ -7018,20 +7018,20 @@
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>RU2403-2404</t>
+          <t>SA2308-2309</t>
         </is>
       </c>
       <c r="B165" t="n">
         <v>0</v>
       </c>
       <c r="C165" t="n">
-        <v>-60</v>
+        <v>0</v>
       </c>
       <c r="D165" t="n">
-        <v>-70</v>
+        <v>-99999</v>
       </c>
       <c r="E165" t="n">
-        <v>-80</v>
+        <v>-99999</v>
       </c>
       <c r="F165" t="n">
         <v>-99999</v>
@@ -7049,7 +7049,7 @@
         <v>-99999</v>
       </c>
       <c r="K165" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="L165" t="n">
         <v>1</v>
@@ -7058,7 +7058,7 @@
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>SA2308-2309</t>
+          <t>SA2310-2311</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -7098,7 +7098,7 @@
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>SA2310-2311</t>
+          <t>SA2311-2312</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -7108,7 +7108,7 @@
         <v>0</v>
       </c>
       <c r="D167" t="n">
-        <v>-99999</v>
+        <v>-3</v>
       </c>
       <c r="E167" t="n">
         <v>-99999</v>
@@ -7129,26 +7129,26 @@
         <v>-99999</v>
       </c>
       <c r="K167" t="n">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="L167" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>SA2311-2312</t>
+          <t>SA2312-2401</t>
         </is>
       </c>
       <c r="B168" t="n">
         <v>0</v>
       </c>
       <c r="C168" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D168" t="n">
-        <v>-3</v>
+        <v>-99999</v>
       </c>
       <c r="E168" t="n">
         <v>-99999</v>
@@ -7169,29 +7169,29 @@
         <v>-99999</v>
       </c>
       <c r="K168" t="n">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="L168" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>SA2312-2401</t>
+          <t>SA2401-2402</t>
         </is>
       </c>
       <c r="B169" t="n">
         <v>0</v>
       </c>
       <c r="C169" t="n">
-        <v>22</v>
+        <v>-25</v>
       </c>
       <c r="D169" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="E169" t="n">
-        <v>-99999</v>
+        <v>-35</v>
       </c>
       <c r="F169" t="n">
         <v>-99999</v>
@@ -7209,7 +7209,7 @@
         <v>-99999</v>
       </c>
       <c r="K169" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="L169" t="n">
         <v>2</v>
@@ -7218,20 +7218,20 @@
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>SA2401-2402</t>
+          <t>SA2402-2403</t>
         </is>
       </c>
       <c r="B170" t="n">
         <v>0</v>
       </c>
       <c r="C170" t="n">
-        <v>-25</v>
+        <v>10</v>
       </c>
       <c r="D170" t="n">
-        <v>-30</v>
+        <v>7</v>
       </c>
       <c r="E170" t="n">
-        <v>-35</v>
+        <v>5</v>
       </c>
       <c r="F170" t="n">
         <v>-99999</v>
@@ -7249,7 +7249,7 @@
         <v>-99999</v>
       </c>
       <c r="K170" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="L170" t="n">
         <v>2</v>
@@ -7258,20 +7258,20 @@
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>SA2402-2403</t>
+          <t>SA2403-2404</t>
         </is>
       </c>
       <c r="B171" t="n">
         <v>0</v>
       </c>
       <c r="C171" t="n">
-        <v>10</v>
+        <v>-35</v>
       </c>
       <c r="D171" t="n">
-        <v>7</v>
+        <v>-40</v>
       </c>
       <c r="E171" t="n">
-        <v>5</v>
+        <v>-99999</v>
       </c>
       <c r="F171" t="n">
         <v>-99999</v>
@@ -7289,7 +7289,7 @@
         <v>-99999</v>
       </c>
       <c r="K171" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L171" t="n">
         <v>2</v>
@@ -7298,23 +7298,23 @@
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>SA2403-2404</t>
+          <t>SC2307-2308</t>
         </is>
       </c>
       <c r="B172" t="n">
         <v>0</v>
       </c>
       <c r="C172" t="n">
-        <v>-35</v>
+        <v>1</v>
       </c>
       <c r="D172" t="n">
-        <v>-40</v>
+        <v>-3.5</v>
       </c>
       <c r="E172" t="n">
-        <v>-99999</v>
+        <v>-3.5</v>
       </c>
       <c r="F172" t="n">
-        <v>-99999</v>
+        <v>-3.5</v>
       </c>
       <c r="G172" t="n">
         <v>-99999</v>
@@ -7329,32 +7329,32 @@
         <v>-99999</v>
       </c>
       <c r="K172" t="n">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="L172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>SC2307-2308</t>
+          <t>SC2308-2309</t>
         </is>
       </c>
       <c r="B173" t="n">
         <v>0</v>
       </c>
       <c r="C173" t="n">
-        <v>1</v>
+        <v>-99999</v>
       </c>
       <c r="D173" t="n">
-        <v>-3.5</v>
+        <v>-99999</v>
       </c>
       <c r="E173" t="n">
-        <v>-3.5</v>
+        <v>-99999</v>
       </c>
       <c r="F173" t="n">
-        <v>-3.5</v>
+        <v>-99999</v>
       </c>
       <c r="G173" t="n">
         <v>-99999</v>
@@ -7369,7 +7369,7 @@
         <v>-99999</v>
       </c>
       <c r="K173" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L173" t="n">
         <v>1</v>
@@ -7378,7 +7378,7 @@
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>SC2308-2309</t>
+          <t>SC2309-2308</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -7409,7 +7409,7 @@
         <v>-99999</v>
       </c>
       <c r="K174" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="L174" t="n">
         <v>1</v>
@@ -7418,17 +7418,17 @@
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>SC2309-2308</t>
+          <t>SC2309-2310</t>
         </is>
       </c>
       <c r="B175" t="n">
         <v>0</v>
       </c>
       <c r="C175" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="D175" t="n">
-        <v>-99999</v>
+        <v>-1</v>
       </c>
       <c r="E175" t="n">
         <v>-99999</v>
@@ -7449,7 +7449,7 @@
         <v>-99999</v>
       </c>
       <c r="K175" t="n">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="L175" t="n">
         <v>1</v>
@@ -7458,17 +7458,17 @@
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>SC2309-2310</t>
+          <t>SC2310-2309</t>
         </is>
       </c>
       <c r="B176" t="n">
         <v>0</v>
       </c>
       <c r="C176" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="D176" t="n">
-        <v>-1</v>
+        <v>-99999</v>
       </c>
       <c r="E176" t="n">
         <v>-99999</v>
@@ -7489,7 +7489,7 @@
         <v>-99999</v>
       </c>
       <c r="K176" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L176" t="n">
         <v>1</v>
@@ -7498,14 +7498,14 @@
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>SC2310-2309</t>
+          <t>SC2310-2311</t>
         </is>
       </c>
       <c r="B177" t="n">
         <v>0</v>
       </c>
       <c r="C177" t="n">
-        <v>-99999</v>
+        <v>-1</v>
       </c>
       <c r="D177" t="n">
         <v>-99999</v>
@@ -7529,7 +7529,7 @@
         <v>-99999</v>
       </c>
       <c r="K177" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L177" t="n">
         <v>1</v>
@@ -7538,14 +7538,14 @@
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>SC2310-2311</t>
+          <t>SC2311-2312</t>
         </is>
       </c>
       <c r="B178" t="n">
         <v>0</v>
       </c>
       <c r="C178" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D178" t="n">
         <v>-99999</v>
@@ -7578,17 +7578,17 @@
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>SC2311-2312</t>
+          <t>SN2308-2309</t>
         </is>
       </c>
       <c r="B179" t="n">
         <v>0</v>
       </c>
       <c r="C179" t="n">
-        <v>-2</v>
+        <v>-320</v>
       </c>
       <c r="D179" t="n">
-        <v>-99999</v>
+        <v>-320</v>
       </c>
       <c r="E179" t="n">
         <v>-99999</v>
@@ -7609,7 +7609,7 @@
         <v>-99999</v>
       </c>
       <c r="K179" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L179" t="n">
         <v>1</v>
@@ -7618,29 +7618,29 @@
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>SN2308-2309</t>
+          <t>SN2309-2310</t>
         </is>
       </c>
       <c r="B180" t="n">
         <v>0</v>
       </c>
       <c r="C180" t="n">
-        <v>-320</v>
+        <v>-250</v>
       </c>
       <c r="D180" t="n">
-        <v>-320</v>
+        <v>-270</v>
       </c>
       <c r="E180" t="n">
-        <v>-99999</v>
+        <v>-300</v>
       </c>
       <c r="F180" t="n">
-        <v>-99999</v>
+        <v>-330</v>
       </c>
       <c r="G180" t="n">
-        <v>-99999</v>
+        <v>-330</v>
       </c>
       <c r="H180" t="n">
-        <v>-99999</v>
+        <v>-330</v>
       </c>
       <c r="I180" t="n">
         <v>-99999</v>
@@ -7649,7 +7649,7 @@
         <v>-99999</v>
       </c>
       <c r="K180" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L180" t="n">
         <v>1</v>
@@ -7658,7 +7658,7 @@
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>SN2309-2310</t>
+          <t>SN2310-2311</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -7689,7 +7689,7 @@
         <v>-99999</v>
       </c>
       <c r="K181" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="L181" t="n">
         <v>1</v>
@@ -7698,29 +7698,29 @@
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>SN2310-2311</t>
+          <t>SP2307-2308</t>
         </is>
       </c>
       <c r="B182" t="n">
         <v>0</v>
       </c>
       <c r="C182" t="n">
-        <v>-250</v>
+        <v>-40</v>
       </c>
       <c r="D182" t="n">
-        <v>-270</v>
+        <v>-40</v>
       </c>
       <c r="E182" t="n">
-        <v>-300</v>
+        <v>-99999</v>
       </c>
       <c r="F182" t="n">
-        <v>-330</v>
+        <v>-99999</v>
       </c>
       <c r="G182" t="n">
-        <v>-330</v>
+        <v>-99999</v>
       </c>
       <c r="H182" t="n">
-        <v>-330</v>
+        <v>-99999</v>
       </c>
       <c r="I182" t="n">
         <v>-99999</v>
@@ -7729,26 +7729,26 @@
         <v>-99999</v>
       </c>
       <c r="K182" t="n">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="L182" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>SP2307-2308</t>
+          <t>SP2309-2310</t>
         </is>
       </c>
       <c r="B183" t="n">
         <v>0</v>
       </c>
       <c r="C183" t="n">
-        <v>-40</v>
+        <v>30</v>
       </c>
       <c r="D183" t="n">
-        <v>-40</v>
+        <v>-14</v>
       </c>
       <c r="E183" t="n">
         <v>-99999</v>
@@ -7769,7 +7769,7 @@
         <v>-99999</v>
       </c>
       <c r="K183" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="L183" t="n">
         <v>3</v>
@@ -7778,23 +7778,23 @@
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>SP2309-2310</t>
+          <t>SP2310-2311</t>
         </is>
       </c>
       <c r="B184" t="n">
         <v>0</v>
       </c>
       <c r="C184" t="n">
-        <v>30</v>
+        <v>-18</v>
       </c>
       <c r="D184" t="n">
-        <v>-14</v>
+        <v>-24</v>
       </c>
       <c r="E184" t="n">
         <v>-30</v>
       </c>
       <c r="F184" t="n">
-        <v>-99999</v>
+        <v>-36</v>
       </c>
       <c r="G184" t="n">
         <v>-99999</v>
@@ -7809,7 +7809,7 @@
         <v>-99999</v>
       </c>
       <c r="K184" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="L184" t="n">
         <v>3</v>
@@ -7818,7 +7818,7 @@
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>SP2310-2311</t>
+          <t>SP2311-2312</t>
         </is>
       </c>
       <c r="B185" t="n">
@@ -7858,23 +7858,23 @@
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>SP2311-2312</t>
+          <t>SP2312-2401</t>
         </is>
       </c>
       <c r="B186" t="n">
         <v>0</v>
       </c>
       <c r="C186" t="n">
-        <v>-18</v>
+        <v>-126</v>
       </c>
       <c r="D186" t="n">
-        <v>-24</v>
+        <v>-140</v>
       </c>
       <c r="E186" t="n">
-        <v>-30</v>
+        <v>-165</v>
       </c>
       <c r="F186" t="n">
-        <v>-36</v>
+        <v>-182</v>
       </c>
       <c r="G186" t="n">
         <v>-99999</v>
@@ -7889,32 +7889,32 @@
         <v>-99999</v>
       </c>
       <c r="K186" t="n">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="L186" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>SP2312-2401</t>
+          <t>SP2401-2402</t>
         </is>
       </c>
       <c r="B187" t="n">
         <v>0</v>
       </c>
       <c r="C187" t="n">
-        <v>-126</v>
+        <v>-24</v>
       </c>
       <c r="D187" t="n">
-        <v>-140</v>
+        <v>-99999</v>
       </c>
       <c r="E187" t="n">
-        <v>-165</v>
+        <v>-99999</v>
       </c>
       <c r="F187" t="n">
-        <v>-182</v>
+        <v>-99999</v>
       </c>
       <c r="G187" t="n">
         <v>-99999</v>
@@ -7932,13 +7932,13 @@
         <v>18</v>
       </c>
       <c r="L187" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>SP2401-2402</t>
+          <t>SP2402-2403</t>
         </is>
       </c>
       <c r="B188" t="n">
@@ -7948,7 +7948,7 @@
         <v>-24</v>
       </c>
       <c r="D188" t="n">
-        <v>-99999</v>
+        <v>-32</v>
       </c>
       <c r="E188" t="n">
         <v>-99999</v>
@@ -7978,7 +7978,7 @@
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>SP2402-2403</t>
+          <t>SP2403-2404</t>
         </is>
       </c>
       <c r="B189" t="n">
@@ -8018,7 +8018,7 @@
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>SP2403-2404</t>
+          <t>SP2404-2405</t>
         </is>
       </c>
       <c r="B190" t="n">
@@ -8058,7 +8058,7 @@
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>SP2404-2405</t>
+          <t>SP2405-2406</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -8098,17 +8098,17 @@
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>SP2405-2406</t>
+          <t>TA2307-2308</t>
         </is>
       </c>
       <c r="B192" t="n">
         <v>0</v>
       </c>
       <c r="C192" t="n">
-        <v>-24</v>
+        <v>-99999</v>
       </c>
       <c r="D192" t="n">
-        <v>-32</v>
+        <v>-99999</v>
       </c>
       <c r="E192" t="n">
         <v>-99999</v>
@@ -8129,7 +8129,7 @@
         <v>-99999</v>
       </c>
       <c r="K192" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L192" t="n">
         <v>3</v>
@@ -8138,7 +8138,7 @@
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>TA2307-2308</t>
+          <t>TA2307-2309</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -8178,7 +8178,7 @@
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>TA2307-2309</t>
+          <t>TA2308-2309</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -8218,17 +8218,17 @@
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>TA2308-2309</t>
+          <t>TA2309-2310</t>
         </is>
       </c>
       <c r="B195" t="n">
         <v>0</v>
       </c>
       <c r="C195" t="n">
-        <v>-99999</v>
+        <v>-5</v>
       </c>
       <c r="D195" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="E195" t="n">
         <v>-99999</v>
@@ -8249,7 +8249,7 @@
         <v>-99999</v>
       </c>
       <c r="K195" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="L195" t="n">
         <v>3</v>
@@ -8258,17 +8258,17 @@
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>TA2309-2310</t>
+          <t>TA2310-2311</t>
         </is>
       </c>
       <c r="B196" t="n">
         <v>0</v>
       </c>
       <c r="C196" t="n">
-        <v>-5</v>
+        <v>-99999</v>
       </c>
       <c r="D196" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="E196" t="n">
         <v>-99999</v>
@@ -8289,7 +8289,7 @@
         <v>-99999</v>
       </c>
       <c r="K196" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="L196" t="n">
         <v>3</v>
@@ -8298,7 +8298,7 @@
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>TA2310-2311</t>
+          <t>TA2311-2312</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -8338,17 +8338,17 @@
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>TA2311-2312</t>
+          <t>TA2312-2401</t>
         </is>
       </c>
       <c r="B198" t="n">
         <v>0</v>
       </c>
       <c r="C198" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="D198" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="E198" t="n">
         <v>-99999</v>
@@ -8369,7 +8369,7 @@
         <v>-99999</v>
       </c>
       <c r="K198" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L198" t="n">
         <v>3</v>
@@ -8378,17 +8378,17 @@
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>TA2312-2401</t>
+          <t>TA2401-2402</t>
         </is>
       </c>
       <c r="B199" t="n">
         <v>0</v>
       </c>
       <c r="C199" t="n">
+        <v>-15</v>
+      </c>
+      <c r="D199" t="n">
         <v>-20</v>
-      </c>
-      <c r="D199" t="n">
-        <v>-15</v>
       </c>
       <c r="E199" t="n">
         <v>-99999</v>
@@ -8418,17 +8418,17 @@
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>TA2401-2402</t>
+          <t>TA2402-2403</t>
         </is>
       </c>
       <c r="B200" t="n">
         <v>0</v>
       </c>
       <c r="C200" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="D200" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="E200" t="n">
         <v>-99999</v>
@@ -8458,17 +8458,17 @@
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>TA2402-2403</t>
+          <t>TA2403-2404</t>
         </is>
       </c>
       <c r="B201" t="n">
         <v>0</v>
       </c>
       <c r="C201" t="n">
-        <v>-99999</v>
+        <v>-28</v>
       </c>
       <c r="D201" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="E201" t="n">
         <v>-99999</v>
@@ -8489,7 +8489,7 @@
         <v>-99999</v>
       </c>
       <c r="K201" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L201" t="n">
         <v>3</v>
@@ -8498,17 +8498,17 @@
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>TA2403-2404</t>
+          <t>UR2310-2311</t>
         </is>
       </c>
       <c r="B202" t="n">
         <v>0</v>
       </c>
       <c r="C202" t="n">
-        <v>-28</v>
+        <v>-35</v>
       </c>
       <c r="D202" t="n">
-        <v>-30</v>
+        <v>-45</v>
       </c>
       <c r="E202" t="n">
         <v>-99999</v>
@@ -8529,7 +8529,7 @@
         <v>-99999</v>
       </c>
       <c r="K202" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="L202" t="n">
         <v>3</v>
@@ -8538,17 +8538,17 @@
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>UR2310-2311</t>
+          <t>UR2311-2312</t>
         </is>
       </c>
       <c r="B203" t="n">
         <v>0</v>
       </c>
       <c r="C203" t="n">
-        <v>-35</v>
+        <v>5</v>
       </c>
       <c r="D203" t="n">
-        <v>-45</v>
+        <v>0</v>
       </c>
       <c r="E203" t="n">
         <v>-99999</v>
@@ -8569,7 +8569,7 @@
         <v>-99999</v>
       </c>
       <c r="K203" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L203" t="n">
         <v>3</v>
@@ -8578,7 +8578,7 @@
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>UR2311-2312</t>
+          <t>UR2312-2401</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -8609,7 +8609,7 @@
         <v>-99999</v>
       </c>
       <c r="K204" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L204" t="n">
         <v>3</v>
@@ -8618,17 +8618,17 @@
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>UR2312-2401</t>
+          <t>UR2401-2402</t>
         </is>
       </c>
       <c r="B205" t="n">
         <v>0</v>
       </c>
       <c r="C205" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D205" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="E205" t="n">
         <v>-99999</v>
@@ -8649,7 +8649,7 @@
         <v>-99999</v>
       </c>
       <c r="K205" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="L205" t="n">
         <v>3</v>
@@ -8658,14 +8658,14 @@
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>UR2401-2402</t>
+          <t>UR2402-2403</t>
         </is>
       </c>
       <c r="B206" t="n">
         <v>0</v>
       </c>
       <c r="C206" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="D206" t="n">
         <v>-99999</v>
@@ -8689,7 +8689,7 @@
         <v>-99999</v>
       </c>
       <c r="K206" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="L206" t="n">
         <v>3</v>
@@ -8698,17 +8698,17 @@
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>UR2402-2403</t>
+          <t>UR2403-2404</t>
         </is>
       </c>
       <c r="B207" t="n">
         <v>0</v>
       </c>
       <c r="C207" t="n">
-        <v>-50</v>
+        <v>5</v>
       </c>
       <c r="D207" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="E207" t="n">
         <v>-99999</v>
@@ -8729,7 +8729,7 @@
         <v>-99999</v>
       </c>
       <c r="K207" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="L207" t="n">
         <v>3</v>
@@ -8738,7 +8738,7 @@
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>UR2403-2404</t>
+          <t>UR2404-2405</t>
         </is>
       </c>
       <c r="B208" t="n">
@@ -8751,7 +8751,7 @@
         <v>0</v>
       </c>
       <c r="E208" t="n">
-        <v>-99999</v>
+        <v>-5</v>
       </c>
       <c r="F208" t="n">
         <v>-99999</v>
@@ -8769,7 +8769,7 @@
         <v>-99999</v>
       </c>
       <c r="K208" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="L208" t="n">
         <v>3</v>
@@ -8778,20 +8778,20 @@
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>UR2404-2405</t>
+          <t>V2308-2309</t>
         </is>
       </c>
       <c r="B209" t="n">
         <v>0</v>
       </c>
       <c r="C209" t="n">
-        <v>5</v>
+        <v>-99999</v>
       </c>
       <c r="D209" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="E209" t="n">
-        <v>-5</v>
+        <v>-99999</v>
       </c>
       <c r="F209" t="n">
         <v>-99999</v>
@@ -8809,7 +8809,7 @@
         <v>-99999</v>
       </c>
       <c r="K209" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L209" t="n">
         <v>3</v>
@@ -8818,23 +8818,23 @@
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>V2308-2309</t>
+          <t>V2309-2310</t>
         </is>
       </c>
       <c r="B210" t="n">
         <v>0</v>
       </c>
       <c r="C210" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="D210" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="E210" t="n">
-        <v>-99999</v>
+        <v>-25</v>
       </c>
       <c r="F210" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="G210" t="n">
         <v>-99999</v>
@@ -8849,16 +8849,16 @@
         <v>-99999</v>
       </c>
       <c r="K210" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L210" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>V2309-2310</t>
+          <t>V2310-2311</t>
         </is>
       </c>
       <c r="B211" t="n">
@@ -8880,7 +8880,7 @@
         <v>-28</v>
       </c>
       <c r="H211" t="n">
-        <v>-99999</v>
+        <v>-38</v>
       </c>
       <c r="I211" t="n">
         <v>-99999</v>
@@ -8898,7 +8898,7 @@
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>V2310-2311</t>
+          <t>V2311-2312</t>
         </is>
       </c>
       <c r="B212" t="n">
@@ -8938,7 +8938,7 @@
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>V2311-2312</t>
+          <t>V2312-2401</t>
         </is>
       </c>
       <c r="B213" t="n">
@@ -8978,29 +8978,29 @@
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>V2312-2401</t>
+          <t>V2401-2402</t>
         </is>
       </c>
       <c r="B214" t="n">
         <v>0</v>
       </c>
       <c r="C214" t="n">
-        <v>-10</v>
+        <v>-3</v>
       </c>
       <c r="D214" t="n">
-        <v>-15</v>
+        <v>-18</v>
       </c>
       <c r="E214" t="n">
-        <v>-20</v>
+        <v>-30</v>
       </c>
       <c r="F214" t="n">
-        <v>-25</v>
+        <v>-99999</v>
       </c>
       <c r="G214" t="n">
-        <v>-28</v>
+        <v>-99999</v>
       </c>
       <c r="H214" t="n">
-        <v>-38</v>
+        <v>-99999</v>
       </c>
       <c r="I214" t="n">
         <v>-99999</v>
@@ -9012,23 +9012,23 @@
         <v>30</v>
       </c>
       <c r="L214" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>V2401-2402</t>
+          <t>V2402-2403</t>
         </is>
       </c>
       <c r="B215" t="n">
         <v>0</v>
       </c>
       <c r="C215" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="D215" t="n">
-        <v>-18</v>
+        <v>-15</v>
       </c>
       <c r="E215" t="n">
         <v>-30</v>
@@ -9043,13 +9043,13 @@
         <v>-99999</v>
       </c>
       <c r="I215" t="n">
-        <v>-99999</v>
+        <v>-35</v>
       </c>
       <c r="J215" t="n">
         <v>-99999</v>
       </c>
       <c r="K215" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="L215" t="n">
         <v>3</v>
@@ -9058,106 +9058,106 @@
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>V2402-2403</t>
+          <t>V2403-2404</t>
         </is>
       </c>
       <c r="B216" t="n">
         <v>0</v>
       </c>
       <c r="C216" t="n">
-        <v>-5</v>
+        <v>10</v>
       </c>
       <c r="D216" t="n">
-        <v>-15</v>
+        <v>-36</v>
       </c>
       <c r="E216" t="n">
-        <v>-30</v>
+        <v>-40</v>
       </c>
       <c r="F216" t="n">
-        <v>-99999</v>
+        <v>-44</v>
       </c>
       <c r="G216" t="n">
-        <v>-99999</v>
+        <v>-48</v>
       </c>
       <c r="H216" t="n">
-        <v>-99999</v>
+        <v>-52</v>
       </c>
       <c r="I216" t="n">
-        <v>-35</v>
+        <v>-52</v>
       </c>
       <c r="J216" t="n">
         <v>-99999</v>
       </c>
       <c r="K216" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="L216" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>V2403-2404</t>
+          <t>V2404-2405</t>
         </is>
       </c>
       <c r="B217" t="n">
         <v>0</v>
       </c>
       <c r="C217" t="n">
-        <v>10</v>
+        <v>-15</v>
       </c>
       <c r="D217" t="n">
-        <v>-36</v>
+        <v>-22</v>
       </c>
       <c r="E217" t="n">
+        <v>-30</v>
+      </c>
+      <c r="F217" t="n">
+        <v>-35</v>
+      </c>
+      <c r="G217" t="n">
         <v>-40</v>
       </c>
-      <c r="F217" t="n">
-        <v>-44</v>
-      </c>
-      <c r="G217" t="n">
-        <v>-48</v>
-      </c>
       <c r="H217" t="n">
-        <v>-52</v>
+        <v>-99999</v>
       </c>
       <c r="I217" t="n">
-        <v>-52</v>
+        <v>-99999</v>
       </c>
       <c r="J217" t="n">
         <v>-99999</v>
       </c>
       <c r="K217" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L217" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>V2404-2405</t>
+          <t>V2405-2406</t>
         </is>
       </c>
       <c r="B218" t="n">
         <v>0</v>
       </c>
       <c r="C218" t="n">
+        <v>-7</v>
+      </c>
+      <c r="D218" t="n">
         <v>-15</v>
       </c>
-      <c r="D218" t="n">
-        <v>-22</v>
-      </c>
       <c r="E218" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F218" t="n">
         <v>-30</v>
       </c>
-      <c r="F218" t="n">
-        <v>-35</v>
-      </c>
       <c r="G218" t="n">
-        <v>-40</v>
+        <v>-99999</v>
       </c>
       <c r="H218" t="n">
         <v>-99999</v>
@@ -9172,29 +9172,29 @@
         <v>30</v>
       </c>
       <c r="L218" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>V2405-2406</t>
+          <t>V2406-2407</t>
         </is>
       </c>
       <c r="B219" t="n">
         <v>0</v>
       </c>
       <c r="C219" t="n">
-        <v>-7</v>
+        <v>-10</v>
       </c>
       <c r="D219" t="n">
+        <v>-10</v>
+      </c>
+      <c r="E219" t="n">
         <v>-15</v>
       </c>
-      <c r="E219" t="n">
-        <v>-20</v>
-      </c>
       <c r="F219" t="n">
-        <v>-30</v>
+        <v>-15</v>
       </c>
       <c r="G219" t="n">
         <v>-99999</v>
@@ -9218,23 +9218,23 @@
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>V2406-2407</t>
+          <t>Y2307-2308</t>
         </is>
       </c>
       <c r="B220" t="n">
         <v>0</v>
       </c>
       <c r="C220" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="D220" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="E220" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="F220" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="G220" t="n">
         <v>-99999</v>
@@ -9249,16 +9249,16 @@
         <v>-99999</v>
       </c>
       <c r="K220" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L220" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>Y2307-2308</t>
+          <t>Y2308-2309</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -9298,23 +9298,23 @@
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>Y2308-2309</t>
+          <t>Y2309-2311</t>
         </is>
       </c>
       <c r="B222" t="n">
         <v>0</v>
       </c>
       <c r="C222" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="D222" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="E222" t="n">
-        <v>-99999</v>
+        <v>-38</v>
       </c>
       <c r="F222" t="n">
-        <v>-99999</v>
+        <v>-40</v>
       </c>
       <c r="G222" t="n">
         <v>-99999</v>
@@ -9329,7 +9329,7 @@
         <v>-99999</v>
       </c>
       <c r="K222" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L222" t="n">
         <v>2</v>
@@ -9338,23 +9338,23 @@
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>Y2309-2311</t>
+          <t>Y2311-2312</t>
         </is>
       </c>
       <c r="B223" t="n">
         <v>0</v>
       </c>
       <c r="C223" t="n">
-        <v>-20</v>
+        <v>-40</v>
       </c>
       <c r="D223" t="n">
-        <v>-30</v>
+        <v>-42</v>
       </c>
       <c r="E223" t="n">
-        <v>-38</v>
+        <v>-60</v>
       </c>
       <c r="F223" t="n">
-        <v>-40</v>
+        <v>-99999</v>
       </c>
       <c r="G223" t="n">
         <v>-99999</v>
@@ -9369,29 +9369,29 @@
         <v>-99999</v>
       </c>
       <c r="K223" t="n">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="L223" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>Y2311-2312</t>
+          <t>Y2312-2401</t>
         </is>
       </c>
       <c r="B224" t="n">
         <v>0</v>
       </c>
       <c r="C224" t="n">
-        <v>-40</v>
+        <v>-99999</v>
       </c>
       <c r="D224" t="n">
-        <v>-42</v>
+        <v>-99999</v>
       </c>
       <c r="E224" t="n">
-        <v>-60</v>
+        <v>-99999</v>
       </c>
       <c r="F224" t="n">
         <v>-99999</v>
@@ -9409,49 +9409,9 @@
         <v>-99999</v>
       </c>
       <c r="K224" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="L224" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="inlineStr">
-        <is>
-          <t>Y2312-2401</t>
-        </is>
-      </c>
-      <c r="B225" t="n">
-        <v>0</v>
-      </c>
-      <c r="C225" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D225" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E225" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="F225" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="G225" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="H225" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="I225" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="J225" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="K225" t="n">
-        <v>18</v>
-      </c>
-      <c r="L225" t="n">
         <v>2</v>
       </c>
     </row>

--- a/info/region_info.xlsx
+++ b/info/region_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L224"/>
+  <dimension ref="A1:L239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,7 +505,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>-99999</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
         <v>-99999</v>
@@ -529,10 +529,10 @@
         <v>-99999</v>
       </c>
       <c r="K2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1098,38 +1098,38 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>AL2309-2310</t>
+          <t>AG2406-2407</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-40</v>
+        <v>-15</v>
       </c>
       <c r="D17" t="n">
-        <v>-50</v>
+        <v>-17</v>
       </c>
       <c r="E17" t="n">
-        <v>-70</v>
+        <v>-19</v>
       </c>
       <c r="F17" t="n">
-        <v>-80</v>
+        <v>-21</v>
       </c>
       <c r="G17" t="n">
-        <v>-90</v>
+        <v>-23</v>
       </c>
       <c r="H17" t="n">
-        <v>-100</v>
+        <v>-99999</v>
       </c>
       <c r="I17" t="n">
-        <v>-110</v>
+        <v>-99999</v>
       </c>
       <c r="J17" t="n">
-        <v>-120</v>
+        <v>-99999</v>
       </c>
       <c r="K17" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="L17" t="n">
         <v>1</v>
@@ -1138,7 +1138,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>AL2310-2311</t>
+          <t>AL2309-2310</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1169,7 +1169,7 @@
         <v>-120</v>
       </c>
       <c r="K18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L18" t="n">
         <v>1</v>
@@ -1178,23 +1178,23 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>AL2311-2312</t>
+          <t>AL2310-2311</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>-20</v>
+        <v>-40</v>
       </c>
       <c r="D19" t="n">
-        <v>-25</v>
+        <v>-50</v>
       </c>
       <c r="E19" t="n">
-        <v>-30</v>
+        <v>-70</v>
       </c>
       <c r="F19" t="n">
-        <v>-40</v>
+        <v>-80</v>
       </c>
       <c r="G19" t="n">
         <v>-90</v>
@@ -1209,7 +1209,7 @@
         <v>-120</v>
       </c>
       <c r="K19" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="L19" t="n">
         <v>1</v>
@@ -1218,17 +1218,17 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>AL2312-2401</t>
+          <t>AL2311-2312</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>20</v>
+        <v>-20</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="E20" t="n">
         <v>-30</v>
@@ -1249,7 +1249,7 @@
         <v>-120</v>
       </c>
       <c r="K20" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="L20" t="n">
         <v>1</v>
@@ -1258,35 +1258,35 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>AL2401-2402</t>
+          <t>AL2312-2401</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D21" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>-20</v>
+        <v>-30</v>
       </c>
       <c r="F21" t="n">
+        <v>-40</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-90</v>
+      </c>
+      <c r="H21" t="n">
         <v>-100</v>
       </c>
-      <c r="G21" t="n">
+      <c r="I21" t="n">
+        <v>-110</v>
+      </c>
+      <c r="J21" t="n">
         <v>-120</v>
-      </c>
-      <c r="H21" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="I21" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="J21" t="n">
-        <v>-99999</v>
       </c>
       <c r="K21" t="n">
         <v>25</v>
@@ -1298,20 +1298,20 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>AL2402-2403</t>
+          <t>AL2401-2402</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>0</v>
       </c>
       <c r="C22" t="n">
+        <v>10</v>
+      </c>
+      <c r="D22" t="n">
         <v>-10</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
         <v>-20</v>
-      </c>
-      <c r="E22" t="n">
-        <v>-30</v>
       </c>
       <c r="F22" t="n">
         <v>-100</v>
@@ -1338,26 +1338,26 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>AL2403-2404</t>
+          <t>AL2402-2403</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="E23" t="n">
+        <v>-30</v>
+      </c>
+      <c r="F23" t="n">
         <v>-100</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>-120</v>
-      </c>
-      <c r="G23" t="n">
-        <v>-99999</v>
       </c>
       <c r="H23" t="n">
         <v>-99999</v>
@@ -1378,29 +1378,29 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>AU2310-2312</t>
+          <t>AL2403-2404</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>-1.14</v>
+        <v>10</v>
       </c>
       <c r="D24" t="n">
-        <v>-1.22</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>-1.32</v>
+        <v>-100</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.34</v>
+        <v>-120</v>
       </c>
       <c r="G24" t="n">
-        <v>-1.36</v>
+        <v>-99999</v>
       </c>
       <c r="H24" t="n">
-        <v>-1.42</v>
+        <v>-99999</v>
       </c>
       <c r="I24" t="n">
         <v>-99999</v>
@@ -1409,7 +1409,7 @@
         <v>-99999</v>
       </c>
       <c r="K24" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L24" t="n">
         <v>1</v>
@@ -1418,38 +1418,38 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>AU2312-2402</t>
+          <t>AU2310-2312</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>0</v>
       </c>
       <c r="C25" t="n">
+        <v>-1.14</v>
+      </c>
+      <c r="D25" t="n">
         <v>-1.22</v>
       </c>
-      <c r="D25" t="n">
-        <v>-1.28</v>
-      </c>
       <c r="E25" t="n">
+        <v>-1.32</v>
+      </c>
+      <c r="F25" t="n">
         <v>-1.34</v>
       </c>
-      <c r="F25" t="n">
-        <v>-1.38</v>
-      </c>
       <c r="G25" t="n">
+        <v>-1.36</v>
+      </c>
+      <c r="H25" t="n">
         <v>-1.42</v>
       </c>
-      <c r="H25" t="n">
-        <v>-1.46</v>
-      </c>
       <c r="I25" t="n">
-        <v>-1.56</v>
+        <v>-99999</v>
       </c>
       <c r="J25" t="n">
-        <v>-1.7</v>
+        <v>-99999</v>
       </c>
       <c r="K25" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L25" t="n">
         <v>1</v>
@@ -1458,29 +1458,29 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>AU2402-2404</t>
+          <t>AU2312-2402</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>0</v>
       </c>
       <c r="C26" t="n">
+        <v>-1.22</v>
+      </c>
+      <c r="D26" t="n">
         <v>-1.28</v>
-      </c>
-      <c r="D26" t="n">
-        <v>-1.32</v>
       </c>
       <c r="E26" t="n">
         <v>-1.34</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.36</v>
+        <v>-1.38</v>
       </c>
       <c r="G26" t="n">
         <v>-1.42</v>
       </c>
       <c r="H26" t="n">
-        <v>-1.56</v>
+        <v>-1.46</v>
       </c>
       <c r="I26" t="n">
         <v>-1.56</v>
@@ -1498,69 +1498,69 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>B2309-2310</t>
+          <t>AU2402-2404</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>-1.28</v>
       </c>
       <c r="D27" t="n">
-        <v>-10</v>
+        <v>-1.32</v>
       </c>
       <c r="E27" t="n">
-        <v>-20</v>
+        <v>-1.34</v>
       </c>
       <c r="F27" t="n">
-        <v>-99999</v>
+        <v>-1.36</v>
       </c>
       <c r="G27" t="n">
-        <v>-99999</v>
+        <v>-1.42</v>
       </c>
       <c r="H27" t="n">
-        <v>-99999</v>
+        <v>-1.56</v>
       </c>
       <c r="I27" t="n">
-        <v>-99999</v>
+        <v>-1.56</v>
       </c>
       <c r="J27" t="n">
-        <v>-99999</v>
+        <v>-1.7</v>
       </c>
       <c r="K27" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="L27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>B2310-2311</t>
+          <t>B2309-2310</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>0</v>
       </c>
       <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-10</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F28" t="n">
         <v>-30</v>
       </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>-5</v>
-      </c>
-      <c r="F28" t="n">
-        <v>-10</v>
-      </c>
       <c r="G28" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="H28" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="I28" t="n">
         <v>-99999</v>
@@ -1569,39 +1569,39 @@
         <v>-99999</v>
       </c>
       <c r="K28" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="L28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>BU2309-2310</t>
+          <t>B2310-2311</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>0</v>
       </c>
       <c r="C29" t="n">
+        <v>-30</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
         <v>-5</v>
       </c>
-      <c r="D29" t="n">
+      <c r="F29" t="n">
         <v>-10</v>
       </c>
-      <c r="E29" t="n">
+      <c r="G29" t="n">
+        <v>-15</v>
+      </c>
+      <c r="H29" t="n">
         <v>-20</v>
       </c>
-      <c r="F29" t="n">
-        <v>-30</v>
-      </c>
-      <c r="G29" t="n">
-        <v>-30</v>
-      </c>
-      <c r="H29" t="n">
-        <v>-99999</v>
-      </c>
       <c r="I29" t="n">
         <v>-99999</v>
       </c>
@@ -1609,7 +1609,7 @@
         <v>-99999</v>
       </c>
       <c r="K29" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="L29" t="n">
         <v>1</v>
@@ -1618,26 +1618,26 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>BU2310-2311</t>
+          <t>BR2401-2402</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>0</v>
       </c>
       <c r="C30" t="n">
+        <v>25</v>
+      </c>
+      <c r="D30" t="n">
+        <v>15</v>
+      </c>
+      <c r="E30" t="n">
         <v>-5</v>
       </c>
-      <c r="D30" t="n">
-        <v>-10</v>
-      </c>
-      <c r="E30" t="n">
-        <v>-20</v>
-      </c>
       <c r="F30" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="G30" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="H30" t="n">
         <v>-99999</v>
@@ -1649,7 +1649,7 @@
         <v>-99999</v>
       </c>
       <c r="K30" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="L30" t="n">
         <v>1</v>
@@ -1658,26 +1658,26 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>BU2311-2312</t>
+          <t>BR2402-2403</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>0</v>
       </c>
       <c r="C31" t="n">
+        <v>20</v>
+      </c>
+      <c r="D31" t="n">
+        <v>10</v>
+      </c>
+      <c r="E31" t="n">
         <v>-5</v>
       </c>
-      <c r="D31" t="n">
-        <v>-10</v>
-      </c>
-      <c r="E31" t="n">
-        <v>-20</v>
-      </c>
       <c r="F31" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="G31" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="H31" t="n">
         <v>-99999</v>
@@ -1689,7 +1689,7 @@
         <v>-99999</v>
       </c>
       <c r="K31" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="L31" t="n">
         <v>1</v>
@@ -1698,26 +1698,26 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>BU2312-2401</t>
+          <t>BR2403-2404</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>0</v>
       </c>
       <c r="C32" t="n">
+        <v>20</v>
+      </c>
+      <c r="D32" t="n">
+        <v>10</v>
+      </c>
+      <c r="E32" t="n">
         <v>-5</v>
       </c>
-      <c r="D32" t="n">
-        <v>-10</v>
-      </c>
-      <c r="E32" t="n">
-        <v>-20</v>
-      </c>
       <c r="F32" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="G32" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="H32" t="n">
         <v>-99999</v>
@@ -1729,7 +1729,7 @@
         <v>-99999</v>
       </c>
       <c r="K32" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="L32" t="n">
         <v>1</v>
@@ -1738,26 +1738,26 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>BU2401-2402</t>
+          <t>BR2404-2405</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>0</v>
       </c>
       <c r="C33" t="n">
+        <v>20</v>
+      </c>
+      <c r="D33" t="n">
+        <v>10</v>
+      </c>
+      <c r="E33" t="n">
         <v>-5</v>
       </c>
-      <c r="D33" t="n">
-        <v>-10</v>
-      </c>
-      <c r="E33" t="n">
-        <v>-20</v>
-      </c>
       <c r="F33" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="G33" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="H33" t="n">
         <v>-99999</v>
@@ -1769,7 +1769,7 @@
         <v>-99999</v>
       </c>
       <c r="K33" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="L33" t="n">
         <v>1</v>
@@ -1778,26 +1778,26 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>BU2402-2403</t>
+          <t>BR2405-2406</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>0</v>
       </c>
       <c r="C34" t="n">
+        <v>20</v>
+      </c>
+      <c r="D34" t="n">
+        <v>10</v>
+      </c>
+      <c r="E34" t="n">
         <v>-5</v>
       </c>
-      <c r="D34" t="n">
-        <v>-10</v>
-      </c>
-      <c r="E34" t="n">
-        <v>-20</v>
-      </c>
       <c r="F34" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="G34" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="H34" t="n">
         <v>-99999</v>
@@ -1809,7 +1809,7 @@
         <v>-99999</v>
       </c>
       <c r="K34" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="L34" t="n">
         <v>1</v>
@@ -1818,7 +1818,7 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>BU2403-2404</t>
+          <t>BU2309-2310</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1858,7 +1858,7 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>BU2404-2405</t>
+          <t>BU2310-2311</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1898,7 +1898,7 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>BU2405-2406</t>
+          <t>BU2311-2312</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1938,26 +1938,26 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>C2309-2311</t>
+          <t>BU2312-2401</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>-99999</v>
+        <v>-5</v>
       </c>
       <c r="D38" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="E38" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="F38" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="G38" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="H38" t="n">
         <v>-99999</v>
@@ -1969,35 +1969,35 @@
         <v>-99999</v>
       </c>
       <c r="K38" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="L38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>C2311-2309</t>
+          <t>BU2401-2402</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>-99999</v>
+        <v>-5</v>
       </c>
       <c r="D39" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="E39" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="F39" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="G39" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="H39" t="n">
         <v>-99999</v>
@@ -2009,35 +2009,35 @@
         <v>-99999</v>
       </c>
       <c r="K39" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="L39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>C2311-2401</t>
+          <t>BU2402-2403</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>0</v>
       </c>
       <c r="C40" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-10</v>
+      </c>
+      <c r="E40" t="n">
         <v>-20</v>
       </c>
-      <c r="D40" t="n">
-        <v>-40</v>
-      </c>
-      <c r="E40" t="n">
-        <v>-99999</v>
-      </c>
       <c r="F40" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="G40" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="H40" t="n">
         <v>-99999</v>
@@ -2049,35 +2049,35 @@
         <v>-99999</v>
       </c>
       <c r="K40" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="L40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>C2401-2403</t>
+          <t>BU2403-2404</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>-25</v>
+        <v>-5</v>
       </c>
       <c r="D41" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="E41" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="F41" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="G41" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="H41" t="n">
         <v>-99999</v>
@@ -2089,35 +2089,35 @@
         <v>-99999</v>
       </c>
       <c r="K41" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="L41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>C2403-2405</t>
+          <t>BU2404-2405</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>-55</v>
+        <v>-5</v>
       </c>
       <c r="D42" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="E42" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="F42" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="G42" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="H42" t="n">
         <v>-99999</v>
@@ -2129,35 +2129,35 @@
         <v>-99999</v>
       </c>
       <c r="K42" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="L42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>CF2309-2311</t>
+          <t>BU2405-2406</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>-210</v>
+        <v>-5</v>
       </c>
       <c r="D43" t="n">
-        <v>-230</v>
+        <v>-10</v>
       </c>
       <c r="E43" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="F43" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="G43" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="H43" t="n">
         <v>-99999</v>
@@ -2169,16 +2169,16 @@
         <v>-99999</v>
       </c>
       <c r="K43" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="L43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>CF2311-2401</t>
+          <t>C2309-2311</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -2209,7 +2209,7 @@
         <v>-99999</v>
       </c>
       <c r="K44" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="L44" t="n">
         <v>3</v>
@@ -2218,7 +2218,7 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>CS2307-2309</t>
+          <t>C2311-2309</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -2249,23 +2249,23 @@
         <v>-99999</v>
       </c>
       <c r="K45" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="L45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>CS2309-2311</t>
+          <t>C2311-2401</t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>-99999</v>
+        <v>70</v>
       </c>
       <c r="D46" t="n">
         <v>-99999</v>
@@ -2289,29 +2289,29 @@
         <v>-99999</v>
       </c>
       <c r="K46" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="L46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>CS2311-2309</t>
+          <t>C2401-2403</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>-99999</v>
+        <v>23</v>
       </c>
       <c r="D47" t="n">
-        <v>-99999</v>
+        <v>15</v>
       </c>
       <c r="E47" t="n">
-        <v>-99999</v>
+        <v>5</v>
       </c>
       <c r="F47" t="n">
         <v>-99999</v>
@@ -2332,20 +2332,20 @@
         <v>100</v>
       </c>
       <c r="L47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>CS2311-2401</t>
+          <t>C2403-2405</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>-20</v>
+        <v>-55</v>
       </c>
       <c r="D48" t="n">
         <v>-99999</v>
@@ -2369,26 +2369,26 @@
         <v>-99999</v>
       </c>
       <c r="K48" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="L48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>CS2403-2405</t>
+          <t>CF2309-2311</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>-150</v>
+        <v>-210</v>
       </c>
       <c r="D49" t="n">
-        <v>-99999</v>
+        <v>-230</v>
       </c>
       <c r="E49" t="n">
         <v>-99999</v>
@@ -2409,35 +2409,35 @@
         <v>-99999</v>
       </c>
       <c r="K49" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="L49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>EG2309-2310</t>
+          <t>CF2311-2401</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>-40</v>
+        <v>-99999</v>
       </c>
       <c r="D50" t="n">
-        <v>-70</v>
+        <v>-99999</v>
       </c>
       <c r="E50" t="n">
-        <v>-75</v>
+        <v>-99999</v>
       </c>
       <c r="F50" t="n">
-        <v>-81</v>
+        <v>-99999</v>
       </c>
       <c r="G50" t="n">
-        <v>-81</v>
+        <v>-99999</v>
       </c>
       <c r="H50" t="n">
         <v>-99999</v>
@@ -2449,35 +2449,35 @@
         <v>-99999</v>
       </c>
       <c r="K50" t="n">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="L50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>EG2310-2311</t>
+          <t>CS2307-2309</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>-34</v>
+        <v>-99999</v>
       </c>
       <c r="D51" t="n">
-        <v>-36</v>
+        <v>-99999</v>
       </c>
       <c r="E51" t="n">
-        <v>-60</v>
+        <v>-99999</v>
       </c>
       <c r="F51" t="n">
-        <v>-70</v>
+        <v>-99999</v>
       </c>
       <c r="G51" t="n">
-        <v>-80</v>
+        <v>-99999</v>
       </c>
       <c r="H51" t="n">
         <v>-99999</v>
@@ -2489,32 +2489,32 @@
         <v>-99999</v>
       </c>
       <c r="K51" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="L51" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>EG2311-2312</t>
+          <t>CS2309-2311</t>
         </is>
       </c>
       <c r="B52" t="n">
         <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>-24</v>
+        <v>-99999</v>
       </c>
       <c r="D52" t="n">
-        <v>-32</v>
+        <v>-99999</v>
       </c>
       <c r="E52" t="n">
-        <v>-40</v>
+        <v>-99999</v>
       </c>
       <c r="F52" t="n">
-        <v>-40</v>
+        <v>-99999</v>
       </c>
       <c r="G52" t="n">
         <v>-99999</v>
@@ -2529,29 +2529,29 @@
         <v>-99999</v>
       </c>
       <c r="K52" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="L52" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>EG2312-2401</t>
+          <t>CS2311-2309</t>
         </is>
       </c>
       <c r="B53" t="n">
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>-24</v>
+        <v>-99999</v>
       </c>
       <c r="D53" t="n">
-        <v>-32</v>
+        <v>-99999</v>
       </c>
       <c r="E53" t="n">
-        <v>-40</v>
+        <v>-99999</v>
       </c>
       <c r="F53" t="n">
         <v>-99999</v>
@@ -2569,26 +2569,26 @@
         <v>-99999</v>
       </c>
       <c r="K53" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="L53" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>EG2401-2402</t>
+          <t>CS2311-2401</t>
         </is>
       </c>
       <c r="B54" t="n">
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>-24</v>
+        <v>-20</v>
       </c>
       <c r="D54" t="n">
-        <v>-32</v>
+        <v>-99999</v>
       </c>
       <c r="E54" t="n">
         <v>-99999</v>
@@ -2609,26 +2609,26 @@
         <v>-99999</v>
       </c>
       <c r="K54" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="L54" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>EG2402-2403</t>
+          <t>CS2403-2405</t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>-20</v>
+        <v>-150</v>
       </c>
       <c r="D55" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="E55" t="n">
         <v>-99999</v>
@@ -2649,35 +2649,35 @@
         <v>-99999</v>
       </c>
       <c r="K55" t="n">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="L55" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>EG2403-2404</t>
+          <t>EG2309-2310</t>
         </is>
       </c>
       <c r="B56" t="n">
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>-80</v>
+        <v>-40</v>
       </c>
       <c r="D56" t="n">
-        <v>-99999</v>
+        <v>-70</v>
       </c>
       <c r="E56" t="n">
-        <v>-99999</v>
+        <v>-75</v>
       </c>
       <c r="F56" t="n">
-        <v>-99999</v>
+        <v>-81</v>
       </c>
       <c r="G56" t="n">
-        <v>-99999</v>
+        <v>-81</v>
       </c>
       <c r="H56" t="n">
         <v>-99999</v>
@@ -2689,35 +2689,35 @@
         <v>-99999</v>
       </c>
       <c r="K56" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>FG2309-2310</t>
+          <t>EG2310-2311</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>-30</v>
+        <v>-34</v>
       </c>
       <c r="D57" t="n">
+        <v>-36</v>
+      </c>
+      <c r="E57" t="n">
         <v>-60</v>
       </c>
-      <c r="E57" t="n">
-        <v>-99999</v>
-      </c>
       <c r="F57" t="n">
-        <v>-99999</v>
+        <v>-70</v>
       </c>
       <c r="G57" t="n">
-        <v>-99999</v>
+        <v>-80</v>
       </c>
       <c r="H57" t="n">
         <v>-99999</v>
@@ -2729,32 +2729,32 @@
         <v>-99999</v>
       </c>
       <c r="K57" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="L57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>FG2310-2311</t>
+          <t>EG2311-2312</t>
         </is>
       </c>
       <c r="B58" t="n">
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>-24</v>
       </c>
       <c r="D58" t="n">
-        <v>-5</v>
+        <v>-32</v>
       </c>
       <c r="E58" t="n">
-        <v>-10</v>
+        <v>-40</v>
       </c>
       <c r="F58" t="n">
-        <v>-99999</v>
+        <v>-40</v>
       </c>
       <c r="G58" t="n">
         <v>-99999</v>
@@ -2769,29 +2769,29 @@
         <v>-99999</v>
       </c>
       <c r="K58" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="L58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>FG2312-2401</t>
+          <t>EG2312-2401</t>
         </is>
       </c>
       <c r="B59" t="n">
         <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>-24</v>
       </c>
       <c r="D59" t="n">
-        <v>-5</v>
+        <v>-32</v>
       </c>
       <c r="E59" t="n">
-        <v>-10</v>
+        <v>-40</v>
       </c>
       <c r="F59" t="n">
         <v>-99999</v>
@@ -2809,29 +2809,29 @@
         <v>-99999</v>
       </c>
       <c r="K59" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="L59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>FG2402-2403</t>
+          <t>EG2401-2402</t>
         </is>
       </c>
       <c r="B60" t="n">
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>-24</v>
       </c>
       <c r="D60" t="n">
-        <v>-5</v>
+        <v>-32</v>
       </c>
       <c r="E60" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="F60" t="n">
         <v>-99999</v>
@@ -2849,26 +2849,26 @@
         <v>-99999</v>
       </c>
       <c r="K60" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="L60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>FU2309-2310</t>
+          <t>EG2402-2403</t>
         </is>
       </c>
       <c r="B61" t="n">
         <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>-10</v>
+        <v>-20</v>
       </c>
       <c r="D61" t="n">
-        <v>-20</v>
+        <v>-30</v>
       </c>
       <c r="E61" t="n">
         <v>-99999</v>
@@ -2889,26 +2889,26 @@
         <v>-99999</v>
       </c>
       <c r="K61" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="L61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>FU2310-2309</t>
+          <t>EG2403-2404</t>
         </is>
       </c>
       <c r="B62" t="n">
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>-53</v>
+        <v>-80</v>
       </c>
       <c r="D62" t="n">
-        <v>-59</v>
+        <v>-99999</v>
       </c>
       <c r="E62" t="n">
         <v>-99999</v>
@@ -2929,7 +2929,7 @@
         <v>-99999</v>
       </c>
       <c r="K62" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="L62" t="n">
         <v>2</v>
@@ -2938,17 +2938,17 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>FU2310-2311</t>
+          <t>FG2309-2310</t>
         </is>
       </c>
       <c r="B63" t="n">
         <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="D63" t="n">
-        <v>-99999</v>
+        <v>-60</v>
       </c>
       <c r="E63" t="n">
         <v>-99999</v>
@@ -2969,29 +2969,29 @@
         <v>-99999</v>
       </c>
       <c r="K63" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>FU2311-2309</t>
+          <t>FG2310-2311</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>-99999</v>
+        <v>-5</v>
       </c>
       <c r="E64" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="F64" t="n">
         <v>-99999</v>
@@ -3009,29 +3009,29 @@
         <v>-99999</v>
       </c>
       <c r="K64" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="L64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>FU2311-2310</t>
+          <t>FG2312-2401</t>
         </is>
       </c>
       <c r="B65" t="n">
         <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>-80</v>
+        <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>-99999</v>
+        <v>-5</v>
       </c>
       <c r="E65" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="F65" t="n">
         <v>-99999</v>
@@ -3049,29 +3049,29 @@
         <v>-99999</v>
       </c>
       <c r="K65" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>FU2311-2312</t>
+          <t>FG2402-2403</t>
         </is>
       </c>
       <c r="B66" t="n">
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>-99999</v>
+        <v>-5</v>
       </c>
       <c r="E66" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="F66" t="n">
         <v>-99999</v>
@@ -3089,26 +3089,26 @@
         <v>-99999</v>
       </c>
       <c r="K66" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>FU2312-2401</t>
+          <t>FU2309-2310</t>
         </is>
       </c>
       <c r="B67" t="n">
         <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>-10</v>
       </c>
       <c r="D67" t="n">
-        <v>-5</v>
+        <v>-20</v>
       </c>
       <c r="E67" t="n">
         <v>-99999</v>
@@ -3129,26 +3129,26 @@
         <v>-99999</v>
       </c>
       <c r="K67" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="L67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>FU2401-2402</t>
+          <t>FU2310-2309</t>
         </is>
       </c>
       <c r="B68" t="n">
         <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>-10</v>
+        <v>-53</v>
       </c>
       <c r="D68" t="n">
-        <v>-99999</v>
+        <v>-59</v>
       </c>
       <c r="E68" t="n">
         <v>-99999</v>
@@ -3169,26 +3169,26 @@
         <v>-99999</v>
       </c>
       <c r="K68" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>FU2402-2403</t>
+          <t>FU2310-2311</t>
         </is>
       </c>
       <c r="B69" t="n">
         <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="D69" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="E69" t="n">
         <v>-99999</v>
@@ -3209,7 +3209,7 @@
         <v>-99999</v>
       </c>
       <c r="K69" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L69" t="n">
         <v>3</v>
@@ -3218,17 +3218,17 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>FU2403-2404</t>
+          <t>FU2311-2309</t>
         </is>
       </c>
       <c r="B70" t="n">
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="D70" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="E70" t="n">
         <v>-99999</v>
@@ -3249,26 +3249,26 @@
         <v>-99999</v>
       </c>
       <c r="K70" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>FU2404-2405</t>
+          <t>FU2311-2310</t>
         </is>
       </c>
       <c r="B71" t="n">
         <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>-15</v>
+        <v>-80</v>
       </c>
       <c r="D71" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="E71" t="n">
         <v>-99999</v>
@@ -3289,7 +3289,7 @@
         <v>-99999</v>
       </c>
       <c r="K71" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="L71" t="n">
         <v>3</v>
@@ -3298,17 +3298,17 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>FU2405-2406</t>
+          <t>FU2311-2312</t>
         </is>
       </c>
       <c r="B72" t="n">
         <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="D72" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="E72" t="n">
         <v>-99999</v>
@@ -3329,7 +3329,7 @@
         <v>-99999</v>
       </c>
       <c r="K72" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L72" t="n">
         <v>3</v>
@@ -3338,17 +3338,17 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>HC2309-2310</t>
+          <t>FU2312-2401</t>
         </is>
       </c>
       <c r="B73" t="n">
         <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>-14</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
-        <v>-20</v>
+        <v>-5</v>
       </c>
       <c r="E73" t="n">
         <v>-99999</v>
@@ -3369,7 +3369,7 @@
         <v>-99999</v>
       </c>
       <c r="K73" t="n">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="L73" t="n">
         <v>2</v>
@@ -3378,20 +3378,20 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>HC2310-2311</t>
+          <t>FU2401-2402</t>
         </is>
       </c>
       <c r="B74" t="n">
         <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>-20</v>
+        <v>-10</v>
       </c>
       <c r="D74" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="E74" t="n">
-        <v>-40</v>
+        <v>-99999</v>
       </c>
       <c r="F74" t="n">
         <v>-99999</v>
@@ -3409,7 +3409,7 @@
         <v>-99999</v>
       </c>
       <c r="K74" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="L74" t="n">
         <v>3</v>
@@ -3418,14 +3418,14 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>HC2311-2312</t>
+          <t>FU2402-2403</t>
         </is>
       </c>
       <c r="B75" t="n">
         <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="D75" t="n">
         <v>-20</v>
@@ -3458,17 +3458,17 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>HC2312-2401</t>
+          <t>FU2403-2404</t>
         </is>
       </c>
       <c r="B76" t="n">
         <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="D76" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="E76" t="n">
         <v>-99999</v>
@@ -3498,18 +3498,18 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>HC2401-2402</t>
+          <t>FU2404-2405</t>
         </is>
       </c>
       <c r="B77" t="n">
         <v>0</v>
       </c>
       <c r="C77" t="n">
+        <v>-15</v>
+      </c>
+      <c r="D77" t="n">
         <v>-20</v>
       </c>
-      <c r="D77" t="n">
-        <v>-99999</v>
-      </c>
       <c r="E77" t="n">
         <v>-99999</v>
       </c>
@@ -3529,7 +3529,7 @@
         <v>-99999</v>
       </c>
       <c r="K77" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="L77" t="n">
         <v>3</v>
@@ -3538,17 +3538,17 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>HC2402-2403</t>
+          <t>FU2405-2406</t>
         </is>
       </c>
       <c r="B78" t="n">
         <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="D78" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="E78" t="n">
         <v>-99999</v>
@@ -3578,17 +3578,17 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>HC2403-2404</t>
+          <t>HC2309-2310</t>
         </is>
       </c>
       <c r="B79" t="n">
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>-99999</v>
+        <v>-14</v>
       </c>
       <c r="D79" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="E79" t="n">
         <v>-99999</v>
@@ -3609,29 +3609,29 @@
         <v>-99999</v>
       </c>
       <c r="K79" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="L79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>I2309-2310</t>
+          <t>HC2310-2311</t>
         </is>
       </c>
       <c r="B80" t="n">
         <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="D80" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="E80" t="n">
-        <v>-99999</v>
+        <v>-40</v>
       </c>
       <c r="F80" t="n">
         <v>-99999</v>
@@ -3649,29 +3649,29 @@
         <v>-99999</v>
       </c>
       <c r="K80" t="n">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="L80" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>I2310-2311</t>
+          <t>HC2311-2312</t>
         </is>
       </c>
       <c r="B81" t="n">
         <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>-10</v>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="E81" t="n">
-        <v>-3</v>
+        <v>-99999</v>
       </c>
       <c r="F81" t="n">
         <v>-99999</v>
@@ -3689,7 +3689,7 @@
         <v>-99999</v>
       </c>
       <c r="K81" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="L81" t="n">
         <v>3</v>
@@ -3698,20 +3698,20 @@
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>I2311-2312</t>
+          <t>HC2312-2401</t>
         </is>
       </c>
       <c r="B82" t="n">
         <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>-99999</v>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="E82" t="n">
-        <v>-3</v>
+        <v>-99999</v>
       </c>
       <c r="F82" t="n">
         <v>-99999</v>
@@ -3729,7 +3729,7 @@
         <v>-99999</v>
       </c>
       <c r="K82" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="L82" t="n">
         <v>3</v>
@@ -3738,20 +3738,20 @@
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>I2312-2401</t>
+          <t>HC2401-2402</t>
         </is>
       </c>
       <c r="B83" t="n">
         <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>-20</v>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="E83" t="n">
-        <v>-3</v>
+        <v>-99999</v>
       </c>
       <c r="F83" t="n">
         <v>-99999</v>
@@ -3769,7 +3769,7 @@
         <v>-99999</v>
       </c>
       <c r="K83" t="n">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="L83" t="n">
         <v>3</v>
@@ -3778,20 +3778,20 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>I2401-2402</t>
+          <t>HC2402-2403</t>
         </is>
       </c>
       <c r="B84" t="n">
         <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>-99999</v>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="E84" t="n">
-        <v>-3</v>
+        <v>-99999</v>
       </c>
       <c r="F84" t="n">
         <v>-99999</v>
@@ -3809,7 +3809,7 @@
         <v>-99999</v>
       </c>
       <c r="K84" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="L84" t="n">
         <v>3</v>
@@ -3818,20 +3818,20 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>I2402-2403</t>
+          <t>HC2403-2404</t>
         </is>
       </c>
       <c r="B85" t="n">
         <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>-99999</v>
       </c>
       <c r="D85" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="E85" t="n">
-        <v>-3</v>
+        <v>-99999</v>
       </c>
       <c r="F85" t="n">
         <v>-99999</v>
@@ -3849,7 +3849,7 @@
         <v>-99999</v>
       </c>
       <c r="K85" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="L85" t="n">
         <v>3</v>
@@ -3858,20 +3858,20 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>I2403-2404</t>
+          <t>I2309-2310</t>
         </is>
       </c>
       <c r="B86" t="n">
         <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>-99999</v>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="E86" t="n">
-        <v>-3</v>
+        <v>-99999</v>
       </c>
       <c r="F86" t="n">
         <v>-99999</v>
@@ -3889,29 +3889,29 @@
         <v>-99999</v>
       </c>
       <c r="K86" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L86" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>IC2309-2312</t>
+          <t>I2310-2311</t>
         </is>
       </c>
       <c r="B87" t="n">
         <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>-99999</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>-99999</v>
+        <v>-3</v>
       </c>
       <c r="F87" t="n">
         <v>-99999</v>
@@ -3929,29 +3929,29 @@
         <v>-99999</v>
       </c>
       <c r="K87" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="L87" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>IF2308-2309</t>
+          <t>I2311-2312</t>
         </is>
       </c>
       <c r="B88" t="n">
         <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>-9.199999999999999</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
-        <v>-10.6</v>
+        <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>-99999</v>
+        <v>-3</v>
       </c>
       <c r="F88" t="n">
         <v>-99999</v>
@@ -3969,29 +3969,29 @@
         <v>-99999</v>
       </c>
       <c r="K88" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="L88" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>IF2309-2312</t>
+          <t>I2312-2401</t>
         </is>
       </c>
       <c r="B89" t="n">
         <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>-16.4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
-        <v>-24</v>
+        <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>-99999</v>
+        <v>-3</v>
       </c>
       <c r="F89" t="n">
         <v>-99999</v>
@@ -4009,29 +4009,29 @@
         <v>-99999</v>
       </c>
       <c r="K89" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="L89" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>IF2312-2403</t>
+          <t>I2401-2402</t>
         </is>
       </c>
       <c r="B90" t="n">
         <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>-20.4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>-99999</v>
+        <v>-3</v>
       </c>
       <c r="F90" t="n">
         <v>-99999</v>
@@ -4049,29 +4049,29 @@
         <v>-99999</v>
       </c>
       <c r="K90" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="L90" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>IH2309-2312</t>
+          <t>I2402-2403</t>
         </is>
       </c>
       <c r="B91" t="n">
         <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>-15.2</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
-        <v>-17</v>
+        <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>-99999</v>
+        <v>-3</v>
       </c>
       <c r="F91" t="n">
         <v>-99999</v>
@@ -4089,29 +4089,29 @@
         <v>-99999</v>
       </c>
       <c r="K91" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="L91" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>IH2312-2403</t>
+          <t>I2403-2404</t>
         </is>
       </c>
       <c r="B92" t="n">
         <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>-18.4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
-        <v>-23.2</v>
+        <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>-99999</v>
+        <v>-3</v>
       </c>
       <c r="F92" t="n">
         <v>-99999</v>
@@ -4129,16 +4129,16 @@
         <v>-99999</v>
       </c>
       <c r="K92" t="n">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="L92" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>IM2309-2312</t>
+          <t>IC2309-2312</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -4178,17 +4178,17 @@
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>JD2403-2404</t>
+          <t>IF2308-2309</t>
         </is>
       </c>
       <c r="B94" t="n">
         <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>-190</v>
+        <v>-10</v>
       </c>
       <c r="D94" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="E94" t="n">
         <v>-99999</v>
@@ -4209,29 +4209,29 @@
         <v>-99999</v>
       </c>
       <c r="K94" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="L94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>L2309-2310</t>
+          <t>IF2309-2312</t>
         </is>
       </c>
       <c r="B95" t="n">
         <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>-5</v>
+        <v>-12</v>
       </c>
       <c r="D95" t="n">
-        <v>-10</v>
+        <v>-20</v>
       </c>
       <c r="E95" t="n">
-        <v>-15</v>
+        <v>-30</v>
       </c>
       <c r="F95" t="n">
         <v>-99999</v>
@@ -4249,32 +4249,32 @@
         <v>-99999</v>
       </c>
       <c r="K95" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="L95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>L2310-2311</t>
+          <t>IF2312-2403</t>
         </is>
       </c>
       <c r="B96" t="n">
         <v>0</v>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>-32</v>
       </c>
       <c r="D96" t="n">
-        <v>-5</v>
+        <v>-99999</v>
       </c>
       <c r="E96" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="F96" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="G96" t="n">
         <v>-99999</v>
@@ -4292,29 +4292,29 @@
         <v>25</v>
       </c>
       <c r="L96" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>L2311-2312</t>
+          <t>IH2309-2312</t>
         </is>
       </c>
       <c r="B97" t="n">
         <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="D97" t="n">
-        <v>-5</v>
+        <v>-17</v>
       </c>
       <c r="E97" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="F97" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="G97" t="n">
         <v>-99999</v>
@@ -4329,32 +4329,32 @@
         <v>-99999</v>
       </c>
       <c r="K97" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L97" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>L2312-2401</t>
+          <t>IH2312-2403</t>
         </is>
       </c>
       <c r="B98" t="n">
         <v>0</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>-18</v>
       </c>
       <c r="D98" t="n">
-        <v>-5</v>
+        <v>-23</v>
       </c>
       <c r="E98" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="F98" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="G98" t="n">
         <v>-99999</v>
@@ -4369,32 +4369,32 @@
         <v>-99999</v>
       </c>
       <c r="K98" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="L98" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>L2402-2403</t>
+          <t>IM2309-2312</t>
         </is>
       </c>
       <c r="B99" t="n">
         <v>0</v>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="D99" t="n">
-        <v>-5</v>
+        <v>-99999</v>
       </c>
       <c r="E99" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="F99" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="G99" t="n">
         <v>-99999</v>
@@ -4409,26 +4409,26 @@
         <v>-99999</v>
       </c>
       <c r="K99" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L99" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>LU2309-2310</t>
+          <t>JD2403-2404</t>
         </is>
       </c>
       <c r="B100" t="n">
         <v>0</v>
       </c>
       <c r="C100" t="n">
-        <v>-29</v>
+        <v>-200</v>
       </c>
       <c r="D100" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="E100" t="n">
         <v>-99999</v>
@@ -4449,29 +4449,29 @@
         <v>-99999</v>
       </c>
       <c r="K100" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="L100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>LU2310-2311</t>
+          <t>L2309-2310</t>
         </is>
       </c>
       <c r="B101" t="n">
         <v>0</v>
       </c>
       <c r="C101" t="n">
-        <v>-20</v>
+        <v>-5</v>
       </c>
       <c r="D101" t="n">
-        <v>-30</v>
+        <v>-10</v>
       </c>
       <c r="E101" t="n">
-        <v>-40</v>
+        <v>-15</v>
       </c>
       <c r="F101" t="n">
         <v>-99999</v>
@@ -4489,7 +4489,7 @@
         <v>-99999</v>
       </c>
       <c r="K101" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L101" t="n">
         <v>2</v>
@@ -4498,23 +4498,23 @@
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>M2309-2311</t>
+          <t>L2310-2311</t>
         </is>
       </c>
       <c r="B102" t="n">
         <v>0</v>
       </c>
       <c r="C102" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="D102" t="n">
-        <v>-99999</v>
+        <v>-5</v>
       </c>
       <c r="E102" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="F102" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="G102" t="n">
         <v>-99999</v>
@@ -4529,7 +4529,7 @@
         <v>-99999</v>
       </c>
       <c r="K102" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="L102" t="n">
         <v>3</v>
@@ -4538,23 +4538,23 @@
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>M2311-2312</t>
+          <t>L2311-2312</t>
         </is>
       </c>
       <c r="B103" t="n">
         <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>-50</v>
+        <v>-5</v>
       </c>
       <c r="E103" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="F103" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="G103" t="n">
         <v>-99999</v>
@@ -4569,16 +4569,16 @@
         <v>-99999</v>
       </c>
       <c r="K103" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L103" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>M2312-2401</t>
+          <t>L2312-2401</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -4594,7 +4594,7 @@
         <v>-10</v>
       </c>
       <c r="F104" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="G104" t="n">
         <v>-99999</v>
@@ -4609,7 +4609,7 @@
         <v>-99999</v>
       </c>
       <c r="K104" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="L104" t="n">
         <v>3</v>
@@ -4618,7 +4618,7 @@
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>M2401-2403</t>
+          <t>L2402-2403</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -4628,13 +4628,13 @@
         <v>0</v>
       </c>
       <c r="D105" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E105" t="n">
         <v>-10</v>
       </c>
-      <c r="E105" t="n">
-        <v>-20</v>
-      </c>
       <c r="F105" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="G105" t="n">
         <v>-99999</v>
@@ -4649,7 +4649,7 @@
         <v>-99999</v>
       </c>
       <c r="K105" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="L105" t="n">
         <v>3</v>
@@ -4658,17 +4658,17 @@
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>M2403-2405</t>
+          <t>L2405-2406</t>
         </is>
       </c>
       <c r="B106" t="n">
         <v>0</v>
       </c>
       <c r="C106" t="n">
-        <v>-50</v>
+        <v>-10</v>
       </c>
       <c r="D106" t="n">
-        <v>-100</v>
+        <v>-20</v>
       </c>
       <c r="E106" t="n">
         <v>-99999</v>
@@ -4689,32 +4689,32 @@
         <v>-99999</v>
       </c>
       <c r="K106" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="L106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>M2405-2407</t>
+          <t>LU2309-2310</t>
         </is>
       </c>
       <c r="B107" t="n">
         <v>0</v>
       </c>
       <c r="C107" t="n">
-        <v>2</v>
+        <v>-99999</v>
       </c>
       <c r="D107" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="E107" t="n">
-        <v>-25</v>
+        <v>-99999</v>
       </c>
       <c r="F107" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="G107" t="n">
         <v>-99999</v>
@@ -4729,7 +4729,7 @@
         <v>-99999</v>
       </c>
       <c r="K107" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="L107" t="n">
         <v>3</v>
@@ -4738,60 +4738,60 @@
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>MA2309-2310</t>
+          <t>LU2310-2311</t>
         </is>
       </c>
       <c r="B108" t="n">
         <v>0</v>
       </c>
       <c r="C108" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D108" t="n">
-        <v>-35</v>
+        <v>-10</v>
       </c>
       <c r="E108" t="n">
-        <v>-40</v>
+        <v>-20</v>
       </c>
       <c r="F108" t="n">
-        <v>-40</v>
+        <v>-26</v>
       </c>
       <c r="G108" t="n">
-        <v>-43</v>
+        <v>-28</v>
       </c>
       <c r="H108" t="n">
-        <v>-45</v>
+        <v>-30</v>
       </c>
       <c r="I108" t="n">
-        <v>-60</v>
+        <v>-99999</v>
       </c>
       <c r="J108" t="n">
         <v>-99999</v>
       </c>
       <c r="K108" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L108" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>MA2310-2311</t>
+          <t>M2309-2311</t>
         </is>
       </c>
       <c r="B109" t="n">
         <v>0</v>
       </c>
       <c r="C109" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="D109" t="n">
-        <v>-35</v>
+        <v>-99999</v>
       </c>
       <c r="E109" t="n">
-        <v>-50</v>
+        <v>-99999</v>
       </c>
       <c r="F109" t="n">
         <v>-99999</v>
@@ -4809,7 +4809,7 @@
         <v>-99999</v>
       </c>
       <c r="K109" t="n">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="L109" t="n">
         <v>3</v>
@@ -4818,14 +4818,14 @@
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>MA2311-2312</t>
+          <t>M2311-2312</t>
         </is>
       </c>
       <c r="B110" t="n">
         <v>0</v>
       </c>
       <c r="C110" t="n">
-        <v>-45</v>
+        <v>-40</v>
       </c>
       <c r="D110" t="n">
         <v>-50</v>
@@ -4849,29 +4849,29 @@
         <v>-99999</v>
       </c>
       <c r="K110" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>MA2312-2401</t>
+          <t>M2312-2401</t>
         </is>
       </c>
       <c r="B111" t="n">
         <v>0</v>
       </c>
       <c r="C111" t="n">
+        <v>0</v>
+      </c>
+      <c r="D111" t="n">
         <v>-5</v>
       </c>
-      <c r="D111" t="n">
-        <v>-15</v>
-      </c>
       <c r="E111" t="n">
-        <v>-25</v>
+        <v>-10</v>
       </c>
       <c r="F111" t="n">
         <v>-99999</v>
@@ -4889,7 +4889,7 @@
         <v>-99999</v>
       </c>
       <c r="K111" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L111" t="n">
         <v>3</v>
@@ -4898,20 +4898,20 @@
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>NR2309-2310</t>
+          <t>M2401-2403</t>
         </is>
       </c>
       <c r="B112" t="n">
         <v>0</v>
       </c>
       <c r="C112" t="n">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="D112" t="n">
-        <v>-40</v>
+        <v>-10</v>
       </c>
       <c r="E112" t="n">
-        <v>-50</v>
+        <v>-20</v>
       </c>
       <c r="F112" t="n">
         <v>-99999</v>
@@ -4929,16 +4929,16 @@
         <v>-99999</v>
       </c>
       <c r="K112" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L112" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>NR2310-2311</t>
+          <t>M2403-2405</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -4948,7 +4948,7 @@
         <v>-50</v>
       </c>
       <c r="D113" t="n">
-        <v>-80</v>
+        <v>-100</v>
       </c>
       <c r="E113" t="n">
         <v>-99999</v>
@@ -4969,32 +4969,32 @@
         <v>-99999</v>
       </c>
       <c r="K113" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L113" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>NR2311-2312</t>
+          <t>M2405-2407</t>
         </is>
       </c>
       <c r="B114" t="n">
         <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>-50</v>
+        <v>2</v>
       </c>
       <c r="D114" t="n">
-        <v>-60</v>
+        <v>-20</v>
       </c>
       <c r="E114" t="n">
-        <v>-90</v>
+        <v>-25</v>
       </c>
       <c r="F114" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="G114" t="n">
         <v>-99999</v>
@@ -5009,72 +5009,72 @@
         <v>-99999</v>
       </c>
       <c r="K114" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="L114" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>NR2312-2401</t>
+          <t>MA2309-2310</t>
         </is>
       </c>
       <c r="B115" t="n">
         <v>0</v>
       </c>
       <c r="C115" t="n">
-        <v>-70</v>
+        <v>10</v>
       </c>
       <c r="D115" t="n">
-        <v>-100</v>
+        <v>-35</v>
       </c>
       <c r="E115" t="n">
-        <v>-99999</v>
+        <v>-40</v>
       </c>
       <c r="F115" t="n">
-        <v>-99999</v>
+        <v>-40</v>
       </c>
       <c r="G115" t="n">
-        <v>-99999</v>
+        <v>-43</v>
       </c>
       <c r="H115" t="n">
-        <v>-99999</v>
+        <v>-45</v>
       </c>
       <c r="I115" t="n">
-        <v>-99999</v>
+        <v>-60</v>
       </c>
       <c r="J115" t="n">
         <v>-99999</v>
       </c>
       <c r="K115" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L115" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>OI2309-2311</t>
+          <t>MA2310-2311</t>
         </is>
       </c>
       <c r="B116" t="n">
         <v>0</v>
       </c>
       <c r="C116" t="n">
-        <v>5</v>
+        <v>-30</v>
       </c>
       <c r="D116" t="n">
-        <v>-5</v>
+        <v>-35</v>
       </c>
       <c r="E116" t="n">
-        <v>-15</v>
+        <v>-50</v>
       </c>
       <c r="F116" t="n">
-        <v>-25</v>
+        <v>-99999</v>
       </c>
       <c r="G116" t="n">
         <v>-99999</v>
@@ -5089,7 +5089,7 @@
         <v>-99999</v>
       </c>
       <c r="K116" t="n">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="L116" t="n">
         <v>3</v>
@@ -5098,17 +5098,17 @@
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>OI2311-2401</t>
+          <t>MA2311-2312</t>
         </is>
       </c>
       <c r="B117" t="n">
         <v>0</v>
       </c>
       <c r="C117" t="n">
-        <v>-99999</v>
+        <v>-45</v>
       </c>
       <c r="D117" t="n">
-        <v>-99999</v>
+        <v>-50</v>
       </c>
       <c r="E117" t="n">
         <v>-99999</v>
@@ -5129,29 +5129,29 @@
         <v>-99999</v>
       </c>
       <c r="K117" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L117" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>OI2401-2311</t>
+          <t>MA2312-2401</t>
         </is>
       </c>
       <c r="B118" t="n">
         <v>0</v>
       </c>
       <c r="C118" t="n">
-        <v>-99999</v>
+        <v>-5</v>
       </c>
       <c r="D118" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="E118" t="n">
-        <v>-99999</v>
+        <v>-25</v>
       </c>
       <c r="F118" t="n">
         <v>-99999</v>
@@ -5169,26 +5169,26 @@
         <v>-99999</v>
       </c>
       <c r="K118" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="L118" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>OI2401-2403</t>
+          <t>MA2402-2403</t>
         </is>
       </c>
       <c r="B119" t="n">
         <v>0</v>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="D119" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="E119" t="n">
         <v>-99999</v>
@@ -5212,26 +5212,26 @@
         <v>30</v>
       </c>
       <c r="L119" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>OI2403-2401</t>
+          <t>NR2309-2310</t>
         </is>
       </c>
       <c r="B120" t="n">
         <v>0</v>
       </c>
       <c r="C120" t="n">
-        <v>-400</v>
+        <v>-30</v>
       </c>
       <c r="D120" t="n">
-        <v>-99999</v>
+        <v>-40</v>
       </c>
       <c r="E120" t="n">
-        <v>-99999</v>
+        <v>-50</v>
       </c>
       <c r="F120" t="n">
         <v>-99999</v>
@@ -5249,26 +5249,26 @@
         <v>-99999</v>
       </c>
       <c r="K120" t="n">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="L120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>OI2403-2405</t>
+          <t>NR2310-2311</t>
         </is>
       </c>
       <c r="B121" t="n">
         <v>0</v>
       </c>
       <c r="C121" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="D121" t="n">
-        <v>-10</v>
+        <v>-80</v>
       </c>
       <c r="E121" t="n">
         <v>-99999</v>
@@ -5289,29 +5289,29 @@
         <v>-99999</v>
       </c>
       <c r="K121" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>PB2309-2310</t>
+          <t>NR2311-2312</t>
         </is>
       </c>
       <c r="B122" t="n">
         <v>0</v>
       </c>
       <c r="C122" t="n">
-        <v>-52</v>
+        <v>-50</v>
       </c>
       <c r="D122" t="n">
-        <v>-99999</v>
+        <v>-60</v>
       </c>
       <c r="E122" t="n">
-        <v>-99999</v>
+        <v>-90</v>
       </c>
       <c r="F122" t="n">
         <v>-99999</v>
@@ -5332,26 +5332,26 @@
         <v>20</v>
       </c>
       <c r="L122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>PB2310-2311</t>
+          <t>NR2312-2401</t>
         </is>
       </c>
       <c r="B123" t="n">
         <v>0</v>
       </c>
       <c r="C123" t="n">
-        <v>-25</v>
+        <v>-70</v>
       </c>
       <c r="D123" t="n">
-        <v>-99999</v>
+        <v>-85</v>
       </c>
       <c r="E123" t="n">
-        <v>-99999</v>
+        <v>-100</v>
       </c>
       <c r="F123" t="n">
         <v>-99999</v>
@@ -5369,32 +5369,32 @@
         <v>-99999</v>
       </c>
       <c r="K123" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="L123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>PB2312-2401</t>
+          <t>OI2309-2311</t>
         </is>
       </c>
       <c r="B124" t="n">
         <v>0</v>
       </c>
       <c r="C124" t="n">
-        <v>-40</v>
+        <v>50</v>
       </c>
       <c r="D124" t="n">
-        <v>-80</v>
+        <v>12</v>
       </c>
       <c r="E124" t="n">
-        <v>-99999</v>
+        <v>10</v>
       </c>
       <c r="F124" t="n">
-        <v>-99999</v>
+        <v>5</v>
       </c>
       <c r="G124" t="n">
         <v>-99999</v>
@@ -5409,23 +5409,23 @@
         <v>-99999</v>
       </c>
       <c r="K124" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="L124" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>PB2402-2403</t>
+          <t>OI2311-2401</t>
         </is>
       </c>
       <c r="B125" t="n">
         <v>0</v>
       </c>
       <c r="C125" t="n">
-        <v>-55</v>
+        <v>-99999</v>
       </c>
       <c r="D125" t="n">
         <v>-99999</v>
@@ -5452,20 +5452,20 @@
         <v>20</v>
       </c>
       <c r="L125" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>PB2403-2404</t>
+          <t>OI2401-2311</t>
         </is>
       </c>
       <c r="B126" t="n">
         <v>0</v>
       </c>
       <c r="C126" t="n">
-        <v>-55</v>
+        <v>-99999</v>
       </c>
       <c r="D126" t="n">
         <v>-99999</v>
@@ -5489,26 +5489,26 @@
         <v>-99999</v>
       </c>
       <c r="K126" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>PF2309-2310</t>
+          <t>OI2401-2403</t>
         </is>
       </c>
       <c r="B127" t="n">
         <v>0</v>
       </c>
       <c r="C127" t="n">
-        <v>-52</v>
+        <v>0</v>
       </c>
       <c r="D127" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="E127" t="n">
         <v>-99999</v>
@@ -5529,7 +5529,7 @@
         <v>-99999</v>
       </c>
       <c r="K127" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="L127" t="n">
         <v>2</v>
@@ -5538,94 +5538,94 @@
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>PF2310-2311</t>
+          <t>OI2403-2401</t>
         </is>
       </c>
       <c r="B128" t="n">
         <v>0</v>
       </c>
       <c r="C128" t="n">
+        <v>-400</v>
+      </c>
+      <c r="D128" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E128" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F128" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H128" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I128" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J128" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K128" t="n">
+        <v>300</v>
+      </c>
+      <c r="L128" t="n">
         <v>2</v>
-      </c>
-      <c r="D128" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E128" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="F128" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="H128" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="I128" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="J128" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="K128" t="n">
-        <v>40</v>
-      </c>
-      <c r="L128" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>PF2311-2312</t>
+          <t>OI2403-2405</t>
         </is>
       </c>
       <c r="B129" t="n">
         <v>0</v>
       </c>
       <c r="C129" t="n">
+        <v>0</v>
+      </c>
+      <c r="D129" t="n">
+        <v>-10</v>
+      </c>
+      <c r="E129" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F129" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H129" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I129" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J129" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K129" t="n">
+        <v>30</v>
+      </c>
+      <c r="L129" t="n">
         <v>2</v>
-      </c>
-      <c r="D129" t="n">
-        <v>-20</v>
-      </c>
-      <c r="E129" t="n">
-        <v>-40</v>
-      </c>
-      <c r="F129" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="H129" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="I129" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="J129" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="K129" t="n">
-        <v>40</v>
-      </c>
-      <c r="L129" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>PF2312-2401</t>
+          <t>PB2309-2310</t>
         </is>
       </c>
       <c r="B130" t="n">
         <v>0</v>
       </c>
       <c r="C130" t="n">
-        <v>2</v>
+        <v>-52</v>
       </c>
       <c r="D130" t="n">
         <v>-99999</v>
@@ -5649,23 +5649,23 @@
         <v>-99999</v>
       </c>
       <c r="K130" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L130" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>PG2307-2308</t>
+          <t>PB2310-2311</t>
         </is>
       </c>
       <c r="B131" t="n">
         <v>0</v>
       </c>
       <c r="C131" t="n">
-        <v>-99999</v>
+        <v>-25</v>
       </c>
       <c r="D131" t="n">
         <v>-99999</v>
@@ -5689,26 +5689,26 @@
         <v>-99999</v>
       </c>
       <c r="K131" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="L131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>PG2308-2309</t>
+          <t>PB2312-2401</t>
         </is>
       </c>
       <c r="B132" t="n">
         <v>0</v>
       </c>
       <c r="C132" t="n">
-        <v>-99999</v>
+        <v>-40</v>
       </c>
       <c r="D132" t="n">
-        <v>-99999</v>
+        <v>-80</v>
       </c>
       <c r="E132" t="n">
         <v>-99999</v>
@@ -5732,20 +5732,20 @@
         <v>100</v>
       </c>
       <c r="L132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>PG2309-2308</t>
+          <t>PB2402-2403</t>
         </is>
       </c>
       <c r="B133" t="n">
         <v>0</v>
       </c>
       <c r="C133" t="n">
-        <v>-99999</v>
+        <v>-55</v>
       </c>
       <c r="D133" t="n">
         <v>-99999</v>
@@ -5772,26 +5772,26 @@
         <v>20</v>
       </c>
       <c r="L133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>PP2309-2310</t>
+          <t>PB2403-2404</t>
         </is>
       </c>
       <c r="B134" t="n">
         <v>0</v>
       </c>
       <c r="C134" t="n">
-        <v>-10</v>
+        <v>-55</v>
       </c>
       <c r="D134" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="E134" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="F134" t="n">
         <v>-99999</v>
@@ -5809,56 +5809,56 @@
         <v>-99999</v>
       </c>
       <c r="K134" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="L134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>PP2310-2311</t>
+          <t>PF2309-2310</t>
         </is>
       </c>
       <c r="B135" t="n">
         <v>0</v>
       </c>
       <c r="C135" t="n">
+        <v>-52</v>
+      </c>
+      <c r="D135" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E135" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F135" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H135" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I135" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J135" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K135" t="n">
+        <v>100</v>
+      </c>
+      <c r="L135" t="n">
         <v>2</v>
-      </c>
-      <c r="D135" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E135" t="n">
-        <v>-10</v>
-      </c>
-      <c r="F135" t="n">
-        <v>-15</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-20</v>
-      </c>
-      <c r="H135" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="I135" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="J135" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="K135" t="n">
-        <v>35</v>
-      </c>
-      <c r="L135" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>PP2311-2312</t>
+          <t>PF2310-2311</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -5868,16 +5868,16 @@
         <v>2</v>
       </c>
       <c r="D136" t="n">
-        <v>-5</v>
+        <v>-99999</v>
       </c>
       <c r="E136" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="F136" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="G136" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="H136" t="n">
         <v>-99999</v>
@@ -5889,7 +5889,7 @@
         <v>-99999</v>
       </c>
       <c r="K136" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L136" t="n">
         <v>3</v>
@@ -5898,7 +5898,7 @@
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>PP2312-2401</t>
+          <t>PF2311-2312</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -5908,16 +5908,16 @@
         <v>2</v>
       </c>
       <c r="D137" t="n">
-        <v>-5</v>
+        <v>-20</v>
       </c>
       <c r="E137" t="n">
-        <v>-10</v>
+        <v>-40</v>
       </c>
       <c r="F137" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="G137" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="H137" t="n">
         <v>-99999</v>
@@ -5929,7 +5929,7 @@
         <v>-99999</v>
       </c>
       <c r="K137" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L137" t="n">
         <v>3</v>
@@ -5938,7 +5938,7 @@
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>PP2401-2402</t>
+          <t>PF2312-2401</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -5948,16 +5948,16 @@
         <v>2</v>
       </c>
       <c r="D138" t="n">
-        <v>-5</v>
+        <v>-99999</v>
       </c>
       <c r="E138" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="F138" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="G138" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="H138" t="n">
         <v>-99999</v>
@@ -5969,7 +5969,7 @@
         <v>-99999</v>
       </c>
       <c r="K138" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L138" t="n">
         <v>3</v>
@@ -5978,14 +5978,14 @@
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>PP2402-2403</t>
+          <t>PG2307-2308</t>
         </is>
       </c>
       <c r="B139" t="n">
         <v>0</v>
       </c>
       <c r="C139" t="n">
-        <v>-5</v>
+        <v>-99999</v>
       </c>
       <c r="D139" t="n">
         <v>-99999</v>
@@ -6009,26 +6009,26 @@
         <v>-99999</v>
       </c>
       <c r="K139" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="L139" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>PP2405-2406</t>
+          <t>PG2308-2309</t>
         </is>
       </c>
       <c r="B140" t="n">
         <v>0</v>
       </c>
       <c r="C140" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="D140" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="E140" t="n">
         <v>-99999</v>
@@ -6049,32 +6049,32 @@
         <v>-99999</v>
       </c>
       <c r="K140" t="n">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="L140" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>RB2307-2308</t>
+          <t>PG2309-2308</t>
         </is>
       </c>
       <c r="B141" t="n">
         <v>0</v>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="D141" t="n">
-        <v>-5</v>
+        <v>-99999</v>
       </c>
       <c r="E141" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="F141" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="G141" t="n">
         <v>-99999</v>
@@ -6092,27 +6092,27 @@
         <v>20</v>
       </c>
       <c r="L141" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>RB2308-2309</t>
+          <t>PP2309-2310</t>
         </is>
       </c>
       <c r="B142" t="n">
         <v>0</v>
       </c>
       <c r="C142" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="D142" t="n">
+        <v>-15</v>
+      </c>
+      <c r="E142" t="n">
         <v>-20</v>
       </c>
-      <c r="E142" t="n">
-        <v>-99999</v>
-      </c>
       <c r="F142" t="n">
         <v>-99999</v>
       </c>
@@ -6129,35 +6129,35 @@
         <v>-99999</v>
       </c>
       <c r="K142" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="L142" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>RB2309-2310</t>
+          <t>PP2310-2311</t>
         </is>
       </c>
       <c r="B143" t="n">
         <v>0</v>
       </c>
       <c r="C143" t="n">
-        <v>-100</v>
+        <v>2</v>
       </c>
       <c r="D143" t="n">
-        <v>-99999</v>
+        <v>-5</v>
       </c>
       <c r="E143" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="F143" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="G143" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="H143" t="n">
         <v>-99999</v>
@@ -6169,7 +6169,7 @@
         <v>-99999</v>
       </c>
       <c r="K143" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="L143" t="n">
         <v>3</v>
@@ -6178,26 +6178,26 @@
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>RB2310-2311</t>
+          <t>PP2311-2312</t>
         </is>
       </c>
       <c r="B144" t="n">
         <v>0</v>
       </c>
       <c r="C144" t="n">
-        <v>-99999</v>
+        <v>2</v>
       </c>
       <c r="D144" t="n">
-        <v>-99999</v>
+        <v>-5</v>
       </c>
       <c r="E144" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="F144" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="G144" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="H144" t="n">
         <v>-99999</v>
@@ -6209,35 +6209,35 @@
         <v>-99999</v>
       </c>
       <c r="K144" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="L144" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>RB2311-2312</t>
+          <t>PP2312-2401</t>
         </is>
       </c>
       <c r="B145" t="n">
         <v>0</v>
       </c>
       <c r="C145" t="n">
-        <v>-99999</v>
+        <v>2</v>
       </c>
       <c r="D145" t="n">
-        <v>-99999</v>
+        <v>-5</v>
       </c>
       <c r="E145" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="F145" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="G145" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="H145" t="n">
         <v>-99999</v>
@@ -6249,35 +6249,35 @@
         <v>-99999</v>
       </c>
       <c r="K145" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="L145" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>RB2312-2401</t>
+          <t>PP2401-2402</t>
         </is>
       </c>
       <c r="B146" t="n">
         <v>0</v>
       </c>
       <c r="C146" t="n">
-        <v>-99999</v>
+        <v>2</v>
       </c>
       <c r="D146" t="n">
-        <v>-99999</v>
+        <v>-5</v>
       </c>
       <c r="E146" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="F146" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="G146" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="H146" t="n">
         <v>-99999</v>
@@ -6289,23 +6289,23 @@
         <v>-99999</v>
       </c>
       <c r="K146" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="L146" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>RB2401-2402</t>
+          <t>PP2402-2403</t>
         </is>
       </c>
       <c r="B147" t="n">
         <v>0</v>
       </c>
       <c r="C147" t="n">
-        <v>-99999</v>
+        <v>-5</v>
       </c>
       <c r="D147" t="n">
         <v>-99999</v>
@@ -6329,29 +6329,29 @@
         <v>-99999</v>
       </c>
       <c r="K147" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="L147" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>RB2402-2403</t>
+          <t>PP2404-2405</t>
         </is>
       </c>
       <c r="B148" t="n">
         <v>0</v>
       </c>
       <c r="C148" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="D148" t="n">
-        <v>-99999</v>
+        <v>-5</v>
       </c>
       <c r="E148" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="F148" t="n">
         <v>-99999</v>
@@ -6369,26 +6369,26 @@
         <v>-99999</v>
       </c>
       <c r="K148" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="L148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>RB2403-2404</t>
+          <t>PP2405-2406</t>
         </is>
       </c>
       <c r="B149" t="n">
         <v>0</v>
       </c>
       <c r="C149" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="D149" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="E149" t="n">
         <v>-99999</v>
@@ -6409,32 +6409,32 @@
         <v>-99999</v>
       </c>
       <c r="K149" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="L149" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>RM2307-2308</t>
+          <t>RB2307-2308</t>
         </is>
       </c>
       <c r="B150" t="n">
         <v>0</v>
       </c>
       <c r="C150" t="n">
-        <v>-70</v>
+        <v>0</v>
       </c>
       <c r="D150" t="n">
-        <v>-100</v>
+        <v>-5</v>
       </c>
       <c r="E150" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="F150" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="G150" t="n">
         <v>-99999</v>
@@ -6449,7 +6449,7 @@
         <v>-99999</v>
       </c>
       <c r="K150" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L150" t="n">
         <v>3</v>
@@ -6458,26 +6458,26 @@
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>RM2308-2309</t>
+          <t>RB2308-2309</t>
         </is>
       </c>
       <c r="B151" t="n">
         <v>0</v>
       </c>
       <c r="C151" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D151" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="E151" t="n">
-        <v>-5</v>
+        <v>-99999</v>
       </c>
       <c r="F151" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="G151" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="H151" t="n">
         <v>-99999</v>
@@ -6489,7 +6489,7 @@
         <v>-99999</v>
       </c>
       <c r="K151" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L151" t="n">
         <v>3</v>
@@ -6498,26 +6498,26 @@
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>RM2309-2311</t>
+          <t>RB2309-2310</t>
         </is>
       </c>
       <c r="B152" t="n">
         <v>0</v>
       </c>
       <c r="C152" t="n">
-        <v>10</v>
+        <v>-100</v>
       </c>
       <c r="D152" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="E152" t="n">
-        <v>-5</v>
+        <v>-99999</v>
       </c>
       <c r="F152" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="G152" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="H152" t="n">
         <v>-99999</v>
@@ -6529,7 +6529,7 @@
         <v>-99999</v>
       </c>
       <c r="K152" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="L152" t="n">
         <v>3</v>
@@ -6538,20 +6538,20 @@
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>RM2401-2403</t>
+          <t>RB2310-2311</t>
         </is>
       </c>
       <c r="B153" t="n">
         <v>0</v>
       </c>
       <c r="C153" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="D153" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="E153" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="F153" t="n">
         <v>-99999</v>
@@ -6572,20 +6572,20 @@
         <v>20</v>
       </c>
       <c r="L153" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>RM2405-2407</t>
+          <t>RB2311-2312</t>
         </is>
       </c>
       <c r="B154" t="n">
         <v>0</v>
       </c>
       <c r="C154" t="n">
-        <v>30</v>
+        <v>-99999</v>
       </c>
       <c r="D154" t="n">
         <v>-99999</v>
@@ -6609,7 +6609,7 @@
         <v>-99999</v>
       </c>
       <c r="K154" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="L154" t="n">
         <v>2</v>
@@ -6618,17 +6618,17 @@
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>RR2308-2309</t>
+          <t>RB2312-2401</t>
         </is>
       </c>
       <c r="B155" t="n">
         <v>0</v>
       </c>
       <c r="C155" t="n">
-        <v>-75</v>
+        <v>-99999</v>
       </c>
       <c r="D155" t="n">
-        <v>-80</v>
+        <v>-99999</v>
       </c>
       <c r="E155" t="n">
         <v>-99999</v>
@@ -6649,23 +6649,23 @@
         <v>-99999</v>
       </c>
       <c r="K155" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>RR2309-2310</t>
+          <t>RB2401-2402</t>
         </is>
       </c>
       <c r="B156" t="n">
         <v>0</v>
       </c>
       <c r="C156" t="n">
-        <v>-72</v>
+        <v>-99999</v>
       </c>
       <c r="D156" t="n">
         <v>-99999</v>
@@ -6689,29 +6689,29 @@
         <v>-99999</v>
       </c>
       <c r="K156" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L156" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>RR2312-2401</t>
+          <t>RB2402-2403</t>
         </is>
       </c>
       <c r="B157" t="n">
         <v>0</v>
       </c>
       <c r="C157" t="n">
-        <v>-60</v>
+        <v>-99999</v>
       </c>
       <c r="D157" t="n">
-        <v>-65</v>
+        <v>-99999</v>
       </c>
       <c r="E157" t="n">
-        <v>-70</v>
+        <v>-99999</v>
       </c>
       <c r="F157" t="n">
         <v>-99999</v>
@@ -6729,7 +6729,7 @@
         <v>-99999</v>
       </c>
       <c r="K157" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="L157" t="n">
         <v>1</v>
@@ -6738,17 +6738,17 @@
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>RU2307-2308</t>
+          <t>RB2403-2404</t>
         </is>
       </c>
       <c r="B158" t="n">
         <v>0</v>
       </c>
       <c r="C158" t="n">
-        <v>-100</v>
+        <v>-99999</v>
       </c>
       <c r="D158" t="n">
-        <v>-100</v>
+        <v>-99999</v>
       </c>
       <c r="E158" t="n">
         <v>-99999</v>
@@ -6769,7 +6769,7 @@
         <v>-99999</v>
       </c>
       <c r="K158" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="L158" t="n">
         <v>1</v>
@@ -6778,17 +6778,17 @@
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>RU2308-2309</t>
+          <t>RM2307-2308</t>
         </is>
       </c>
       <c r="B159" t="n">
         <v>0</v>
       </c>
       <c r="C159" t="n">
-        <v>-75</v>
+        <v>-70</v>
       </c>
       <c r="D159" t="n">
-        <v>-99999</v>
+        <v>-100</v>
       </c>
       <c r="E159" t="n">
         <v>-99999</v>
@@ -6809,35 +6809,35 @@
         <v>-99999</v>
       </c>
       <c r="K159" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L159" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>RU2309-2310</t>
+          <t>RM2308-2309</t>
         </is>
       </c>
       <c r="B160" t="n">
         <v>0</v>
       </c>
       <c r="C160" t="n">
-        <v>-60</v>
+        <v>10</v>
       </c>
       <c r="D160" t="n">
-        <v>-110</v>
+        <v>0</v>
       </c>
       <c r="E160" t="n">
-        <v>-99999</v>
+        <v>-5</v>
       </c>
       <c r="F160" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="G160" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="H160" t="n">
         <v>-99999</v>
@@ -6849,35 +6849,35 @@
         <v>-99999</v>
       </c>
       <c r="K160" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L160" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>RU2310-2311</t>
+          <t>RM2309-2311</t>
         </is>
       </c>
       <c r="B161" t="n">
         <v>0</v>
       </c>
       <c r="C161" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D161" t="n">
-        <v>-70</v>
+        <v>0</v>
       </c>
       <c r="E161" t="n">
-        <v>-80</v>
+        <v>-5</v>
       </c>
       <c r="F161" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="G161" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="H161" t="n">
         <v>-99999</v>
@@ -6889,29 +6889,29 @@
         <v>-99999</v>
       </c>
       <c r="K161" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L161" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>RU2311-2401</t>
+          <t>RM2401-2403</t>
         </is>
       </c>
       <c r="B162" t="n">
         <v>0</v>
       </c>
       <c r="C162" t="n">
-        <v>-1800</v>
+        <v>0</v>
       </c>
       <c r="D162" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="E162" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="F162" t="n">
         <v>-99999</v>
@@ -6929,26 +6929,26 @@
         <v>-99999</v>
       </c>
       <c r="K162" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="L162" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>RU2401-2403</t>
+          <t>RM2405-2407</t>
         </is>
       </c>
       <c r="B163" t="n">
         <v>0</v>
       </c>
       <c r="C163" t="n">
-        <v>-100</v>
+        <v>30</v>
       </c>
       <c r="D163" t="n">
-        <v>-120</v>
+        <v>-99999</v>
       </c>
       <c r="E163" t="n">
         <v>-99999</v>
@@ -6969,29 +6969,29 @@
         <v>-99999</v>
       </c>
       <c r="K163" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L163" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>RU2403-2404</t>
+          <t>RR2308-2309</t>
         </is>
       </c>
       <c r="B164" t="n">
         <v>0</v>
       </c>
       <c r="C164" t="n">
-        <v>-60</v>
+        <v>-75</v>
       </c>
       <c r="D164" t="n">
-        <v>-70</v>
+        <v>-80</v>
       </c>
       <c r="E164" t="n">
-        <v>-80</v>
+        <v>-99999</v>
       </c>
       <c r="F164" t="n">
         <v>-99999</v>
@@ -7009,23 +7009,23 @@
         <v>-99999</v>
       </c>
       <c r="K164" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="L164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>SA2308-2309</t>
+          <t>RR2309-2310</t>
         </is>
       </c>
       <c r="B165" t="n">
         <v>0</v>
       </c>
       <c r="C165" t="n">
-        <v>0</v>
+        <v>-72</v>
       </c>
       <c r="D165" t="n">
         <v>-99999</v>
@@ -7049,29 +7049,29 @@
         <v>-99999</v>
       </c>
       <c r="K165" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="L165" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>SA2310-2311</t>
+          <t>RR2312-2401</t>
         </is>
       </c>
       <c r="B166" t="n">
         <v>0</v>
       </c>
       <c r="C166" t="n">
-        <v>0</v>
+        <v>-60</v>
       </c>
       <c r="D166" t="n">
-        <v>-99999</v>
+        <v>-65</v>
       </c>
       <c r="E166" t="n">
-        <v>-99999</v>
+        <v>-70</v>
       </c>
       <c r="F166" t="n">
         <v>-99999</v>
@@ -7089,7 +7089,7 @@
         <v>-99999</v>
       </c>
       <c r="K166" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="L166" t="n">
         <v>1</v>
@@ -7098,17 +7098,17 @@
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>SA2311-2312</t>
+          <t>RU2307-2308</t>
         </is>
       </c>
       <c r="B167" t="n">
         <v>0</v>
       </c>
       <c r="C167" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="D167" t="n">
-        <v>-3</v>
+        <v>-100</v>
       </c>
       <c r="E167" t="n">
         <v>-99999</v>
@@ -7129,23 +7129,23 @@
         <v>-99999</v>
       </c>
       <c r="K167" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="L167" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>SA2312-2401</t>
+          <t>RU2308-2309</t>
         </is>
       </c>
       <c r="B168" t="n">
         <v>0</v>
       </c>
       <c r="C168" t="n">
-        <v>22</v>
+        <v>-75</v>
       </c>
       <c r="D168" t="n">
         <v>-99999</v>
@@ -7169,29 +7169,29 @@
         <v>-99999</v>
       </c>
       <c r="K168" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="L168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>SA2401-2402</t>
+          <t>RU2309-2310</t>
         </is>
       </c>
       <c r="B169" t="n">
         <v>0</v>
       </c>
       <c r="C169" t="n">
-        <v>-25</v>
+        <v>-60</v>
       </c>
       <c r="D169" t="n">
-        <v>-30</v>
+        <v>-110</v>
       </c>
       <c r="E169" t="n">
-        <v>-35</v>
+        <v>-99999</v>
       </c>
       <c r="F169" t="n">
         <v>-99999</v>
@@ -7209,29 +7209,29 @@
         <v>-99999</v>
       </c>
       <c r="K169" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="L169" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>SA2402-2403</t>
+          <t>RU2310-2311</t>
         </is>
       </c>
       <c r="B170" t="n">
         <v>0</v>
       </c>
       <c r="C170" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D170" t="n">
-        <v>7</v>
+        <v>-70</v>
       </c>
       <c r="E170" t="n">
-        <v>5</v>
+        <v>-80</v>
       </c>
       <c r="F170" t="n">
         <v>-99999</v>
@@ -7249,26 +7249,26 @@
         <v>-99999</v>
       </c>
       <c r="K170" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="L170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>SA2403-2404</t>
+          <t>RU2311-2401</t>
         </is>
       </c>
       <c r="B171" t="n">
         <v>0</v>
       </c>
       <c r="C171" t="n">
-        <v>-35</v>
+        <v>-1800</v>
       </c>
       <c r="D171" t="n">
-        <v>-40</v>
+        <v>-99999</v>
       </c>
       <c r="E171" t="n">
         <v>-99999</v>
@@ -7289,32 +7289,32 @@
         <v>-99999</v>
       </c>
       <c r="K171" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="L171" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>SC2307-2308</t>
+          <t>RU2401-2403</t>
         </is>
       </c>
       <c r="B172" t="n">
         <v>0</v>
       </c>
       <c r="C172" t="n">
-        <v>1</v>
+        <v>-100</v>
       </c>
       <c r="D172" t="n">
-        <v>-3.5</v>
+        <v>-120</v>
       </c>
       <c r="E172" t="n">
-        <v>-3.5</v>
+        <v>-99999</v>
       </c>
       <c r="F172" t="n">
-        <v>-3.5</v>
+        <v>-99999</v>
       </c>
       <c r="G172" t="n">
         <v>-99999</v>
@@ -7329,7 +7329,7 @@
         <v>-99999</v>
       </c>
       <c r="K172" t="n">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="L172" t="n">
         <v>1</v>
@@ -7338,20 +7338,20 @@
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>SC2308-2309</t>
+          <t>RU2403-2404</t>
         </is>
       </c>
       <c r="B173" t="n">
         <v>0</v>
       </c>
       <c r="C173" t="n">
-        <v>-99999</v>
+        <v>-60</v>
       </c>
       <c r="D173" t="n">
-        <v>-99999</v>
+        <v>-70</v>
       </c>
       <c r="E173" t="n">
-        <v>-99999</v>
+        <v>-80</v>
       </c>
       <c r="F173" t="n">
         <v>-99999</v>
@@ -7369,7 +7369,7 @@
         <v>-99999</v>
       </c>
       <c r="K173" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L173" t="n">
         <v>1</v>
@@ -7378,14 +7378,14 @@
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>SC2309-2308</t>
+          <t>SA2308-2309</t>
         </is>
       </c>
       <c r="B174" t="n">
         <v>0</v>
       </c>
       <c r="C174" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="D174" t="n">
         <v>-99999</v>
@@ -7418,7 +7418,7 @@
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>SC2309-2310</t>
+          <t>SA2310-2311</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -7428,7 +7428,7 @@
         <v>0</v>
       </c>
       <c r="D175" t="n">
-        <v>-1</v>
+        <v>-99999</v>
       </c>
       <c r="E175" t="n">
         <v>-99999</v>
@@ -7449,7 +7449,7 @@
         <v>-99999</v>
       </c>
       <c r="K175" t="n">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="L175" t="n">
         <v>1</v>
@@ -7458,17 +7458,17 @@
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>SC2310-2309</t>
+          <t>SA2311-2312</t>
         </is>
       </c>
       <c r="B176" t="n">
         <v>0</v>
       </c>
       <c r="C176" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="D176" t="n">
-        <v>-99999</v>
+        <v>-3</v>
       </c>
       <c r="E176" t="n">
         <v>-99999</v>
@@ -7489,23 +7489,23 @@
         <v>-99999</v>
       </c>
       <c r="K176" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L176" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>SC2310-2311</t>
+          <t>SA2312-2401</t>
         </is>
       </c>
       <c r="B177" t="n">
         <v>0</v>
       </c>
       <c r="C177" t="n">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="D177" t="n">
         <v>-99999</v>
@@ -7529,29 +7529,29 @@
         <v>-99999</v>
       </c>
       <c r="K177" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>SC2311-2312</t>
+          <t>SA2401-2402</t>
         </is>
       </c>
       <c r="B178" t="n">
         <v>0</v>
       </c>
       <c r="C178" t="n">
-        <v>-2</v>
+        <v>-25</v>
       </c>
       <c r="D178" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="E178" t="n">
-        <v>-99999</v>
+        <v>-35</v>
       </c>
       <c r="F178" t="n">
         <v>-99999</v>
@@ -7569,29 +7569,29 @@
         <v>-99999</v>
       </c>
       <c r="K178" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>SN2308-2309</t>
+          <t>SA2402-2403</t>
         </is>
       </c>
       <c r="B179" t="n">
         <v>0</v>
       </c>
       <c r="C179" t="n">
-        <v>-320</v>
+        <v>10</v>
       </c>
       <c r="D179" t="n">
-        <v>-320</v>
+        <v>7</v>
       </c>
       <c r="E179" t="n">
-        <v>-99999</v>
+        <v>5</v>
       </c>
       <c r="F179" t="n">
         <v>-99999</v>
@@ -7609,38 +7609,38 @@
         <v>-99999</v>
       </c>
       <c r="K179" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="L179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>SN2309-2310</t>
+          <t>SA2403-2404</t>
         </is>
       </c>
       <c r="B180" t="n">
         <v>0</v>
       </c>
       <c r="C180" t="n">
-        <v>-250</v>
+        <v>-35</v>
       </c>
       <c r="D180" t="n">
-        <v>-270</v>
+        <v>-40</v>
       </c>
       <c r="E180" t="n">
-        <v>-300</v>
+        <v>-99999</v>
       </c>
       <c r="F180" t="n">
-        <v>-330</v>
+        <v>-99999</v>
       </c>
       <c r="G180" t="n">
-        <v>-330</v>
+        <v>-99999</v>
       </c>
       <c r="H180" t="n">
-        <v>-330</v>
+        <v>-99999</v>
       </c>
       <c r="I180" t="n">
         <v>-99999</v>
@@ -7649,38 +7649,38 @@
         <v>-99999</v>
       </c>
       <c r="K180" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="L180" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>SN2310-2311</t>
+          <t>SC2307-2308</t>
         </is>
       </c>
       <c r="B181" t="n">
         <v>0</v>
       </c>
       <c r="C181" t="n">
-        <v>-250</v>
+        <v>1</v>
       </c>
       <c r="D181" t="n">
-        <v>-270</v>
+        <v>-3.5</v>
       </c>
       <c r="E181" t="n">
-        <v>-300</v>
+        <v>-3.5</v>
       </c>
       <c r="F181" t="n">
-        <v>-330</v>
+        <v>-3.5</v>
       </c>
       <c r="G181" t="n">
-        <v>-330</v>
+        <v>-99999</v>
       </c>
       <c r="H181" t="n">
-        <v>-330</v>
+        <v>-99999</v>
       </c>
       <c r="I181" t="n">
         <v>-99999</v>
@@ -7689,7 +7689,7 @@
         <v>-99999</v>
       </c>
       <c r="K181" t="n">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="L181" t="n">
         <v>1</v>
@@ -7698,17 +7698,17 @@
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>SP2307-2308</t>
+          <t>SC2308-2309</t>
         </is>
       </c>
       <c r="B182" t="n">
         <v>0</v>
       </c>
       <c r="C182" t="n">
-        <v>-40</v>
+        <v>-99999</v>
       </c>
       <c r="D182" t="n">
-        <v>-40</v>
+        <v>-99999</v>
       </c>
       <c r="E182" t="n">
         <v>-99999</v>
@@ -7729,26 +7729,26 @@
         <v>-99999</v>
       </c>
       <c r="K182" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L182" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>SP2309-2310</t>
+          <t>SC2309-2308</t>
         </is>
       </c>
       <c r="B183" t="n">
         <v>0</v>
       </c>
       <c r="C183" t="n">
-        <v>30</v>
+        <v>-99999</v>
       </c>
       <c r="D183" t="n">
-        <v>-14</v>
+        <v>-99999</v>
       </c>
       <c r="E183" t="n">
         <v>-99999</v>
@@ -7769,32 +7769,32 @@
         <v>-99999</v>
       </c>
       <c r="K183" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="L183" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>SP2310-2311</t>
+          <t>SC2309-2310</t>
         </is>
       </c>
       <c r="B184" t="n">
         <v>0</v>
       </c>
       <c r="C184" t="n">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="D184" t="n">
-        <v>-24</v>
+        <v>-1</v>
       </c>
       <c r="E184" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="F184" t="n">
-        <v>-36</v>
+        <v>-99999</v>
       </c>
       <c r="G184" t="n">
         <v>-99999</v>
@@ -7809,32 +7809,32 @@
         <v>-99999</v>
       </c>
       <c r="K184" t="n">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="L184" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>SP2311-2312</t>
+          <t>SC2310-2309</t>
         </is>
       </c>
       <c r="B185" t="n">
         <v>0</v>
       </c>
       <c r="C185" t="n">
-        <v>-18</v>
+        <v>-6</v>
       </c>
       <c r="D185" t="n">
-        <v>-24</v>
+        <v>-99999</v>
       </c>
       <c r="E185" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="F185" t="n">
-        <v>-36</v>
+        <v>-99999</v>
       </c>
       <c r="G185" t="n">
         <v>-99999</v>
@@ -7849,32 +7849,32 @@
         <v>-99999</v>
       </c>
       <c r="K185" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="L185" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>SP2312-2401</t>
+          <t>SC2310-2311</t>
         </is>
       </c>
       <c r="B186" t="n">
         <v>0</v>
       </c>
       <c r="C186" t="n">
-        <v>-126</v>
+        <v>-1</v>
       </c>
       <c r="D186" t="n">
-        <v>-140</v>
+        <v>-99999</v>
       </c>
       <c r="E186" t="n">
-        <v>-165</v>
+        <v>-99999</v>
       </c>
       <c r="F186" t="n">
-        <v>-182</v>
+        <v>-99999</v>
       </c>
       <c r="G186" t="n">
         <v>-99999</v>
@@ -7889,23 +7889,23 @@
         <v>-99999</v>
       </c>
       <c r="K186" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>SP2401-2402</t>
+          <t>SC2311-2312</t>
         </is>
       </c>
       <c r="B187" t="n">
         <v>0</v>
       </c>
       <c r="C187" t="n">
-        <v>-24</v>
+        <v>-2</v>
       </c>
       <c r="D187" t="n">
         <v>-99999</v>
@@ -7929,26 +7929,26 @@
         <v>-99999</v>
       </c>
       <c r="K187" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L187" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>SP2402-2403</t>
+          <t>SI2309-2311</t>
         </is>
       </c>
       <c r="B188" t="n">
         <v>0</v>
       </c>
       <c r="C188" t="n">
-        <v>-24</v>
+        <v>-80</v>
       </c>
       <c r="D188" t="n">
-        <v>-32</v>
+        <v>-100</v>
       </c>
       <c r="E188" t="n">
         <v>-99999</v>
@@ -7969,26 +7969,26 @@
         <v>-99999</v>
       </c>
       <c r="K188" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="L188" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>SP2403-2404</t>
+          <t>SI2310-2311</t>
         </is>
       </c>
       <c r="B189" t="n">
         <v>0</v>
       </c>
       <c r="C189" t="n">
-        <v>-24</v>
+        <v>-60</v>
       </c>
       <c r="D189" t="n">
-        <v>-32</v>
+        <v>-70</v>
       </c>
       <c r="E189" t="n">
         <v>-99999</v>
@@ -8009,26 +8009,26 @@
         <v>-99999</v>
       </c>
       <c r="K189" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="L189" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>SP2404-2405</t>
+          <t>SI2312-2401</t>
         </is>
       </c>
       <c r="B190" t="n">
         <v>0</v>
       </c>
       <c r="C190" t="n">
-        <v>-24</v>
+        <v>-40</v>
       </c>
       <c r="D190" t="n">
-        <v>-32</v>
+        <v>-60</v>
       </c>
       <c r="E190" t="n">
         <v>-99999</v>
@@ -8049,26 +8049,26 @@
         <v>-99999</v>
       </c>
       <c r="K190" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="L190" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>SP2405-2406</t>
+          <t>SI2401-2402</t>
         </is>
       </c>
       <c r="B191" t="n">
         <v>0</v>
       </c>
       <c r="C191" t="n">
-        <v>-24</v>
+        <v>-40</v>
       </c>
       <c r="D191" t="n">
-        <v>-32</v>
+        <v>-60</v>
       </c>
       <c r="E191" t="n">
         <v>-99999</v>
@@ -8089,26 +8089,26 @@
         <v>-99999</v>
       </c>
       <c r="K191" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="L191" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>TA2307-2308</t>
+          <t>SI2402-2403</t>
         </is>
       </c>
       <c r="B192" t="n">
         <v>0</v>
       </c>
       <c r="C192" t="n">
-        <v>-99999</v>
+        <v>-40</v>
       </c>
       <c r="D192" t="n">
-        <v>-99999</v>
+        <v>-60</v>
       </c>
       <c r="E192" t="n">
         <v>-99999</v>
@@ -8129,26 +8129,26 @@
         <v>-99999</v>
       </c>
       <c r="K192" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="L192" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>TA2307-2309</t>
+          <t>SN2308-2309</t>
         </is>
       </c>
       <c r="B193" t="n">
         <v>0</v>
       </c>
       <c r="C193" t="n">
-        <v>-99999</v>
+        <v>-320</v>
       </c>
       <c r="D193" t="n">
-        <v>-99999</v>
+        <v>-320</v>
       </c>
       <c r="E193" t="n">
         <v>-99999</v>
@@ -8169,38 +8169,38 @@
         <v>-99999</v>
       </c>
       <c r="K193" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="L193" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>TA2308-2309</t>
+          <t>SN2309-2310</t>
         </is>
       </c>
       <c r="B194" t="n">
         <v>0</v>
       </c>
       <c r="C194" t="n">
-        <v>-99999</v>
+        <v>-250</v>
       </c>
       <c r="D194" t="n">
-        <v>-99999</v>
+        <v>-270</v>
       </c>
       <c r="E194" t="n">
-        <v>-99999</v>
+        <v>-300</v>
       </c>
       <c r="F194" t="n">
-        <v>-99999</v>
+        <v>-330</v>
       </c>
       <c r="G194" t="n">
-        <v>-99999</v>
+        <v>-330</v>
       </c>
       <c r="H194" t="n">
-        <v>-99999</v>
+        <v>-330</v>
       </c>
       <c r="I194" t="n">
         <v>-99999</v>
@@ -8209,38 +8209,38 @@
         <v>-99999</v>
       </c>
       <c r="K194" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L194" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>TA2309-2310</t>
+          <t>SN2310-2311</t>
         </is>
       </c>
       <c r="B195" t="n">
         <v>0</v>
       </c>
       <c r="C195" t="n">
-        <v>-5</v>
+        <v>-250</v>
       </c>
       <c r="D195" t="n">
-        <v>-10</v>
+        <v>-270</v>
       </c>
       <c r="E195" t="n">
-        <v>-99999</v>
+        <v>-300</v>
       </c>
       <c r="F195" t="n">
-        <v>-99999</v>
+        <v>-330</v>
       </c>
       <c r="G195" t="n">
-        <v>-99999</v>
+        <v>-330</v>
       </c>
       <c r="H195" t="n">
-        <v>-99999</v>
+        <v>-330</v>
       </c>
       <c r="I195" t="n">
         <v>-99999</v>
@@ -8249,26 +8249,26 @@
         <v>-99999</v>
       </c>
       <c r="K195" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L195" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>TA2310-2311</t>
+          <t>SP2307-2308</t>
         </is>
       </c>
       <c r="B196" t="n">
         <v>0</v>
       </c>
       <c r="C196" t="n">
-        <v>-99999</v>
+        <v>-40</v>
       </c>
       <c r="D196" t="n">
-        <v>-99999</v>
+        <v>-40</v>
       </c>
       <c r="E196" t="n">
         <v>-99999</v>
@@ -8289,7 +8289,7 @@
         <v>-99999</v>
       </c>
       <c r="K196" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L196" t="n">
         <v>3</v>
@@ -8298,17 +8298,17 @@
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>TA2311-2312</t>
+          <t>SP2309-2310</t>
         </is>
       </c>
       <c r="B197" t="n">
         <v>0</v>
       </c>
       <c r="C197" t="n">
-        <v>-99999</v>
+        <v>30</v>
       </c>
       <c r="D197" t="n">
-        <v>-99999</v>
+        <v>-40</v>
       </c>
       <c r="E197" t="n">
         <v>-99999</v>
@@ -8329,7 +8329,7 @@
         <v>-99999</v>
       </c>
       <c r="K197" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L197" t="n">
         <v>3</v>
@@ -8338,23 +8338,23 @@
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>TA2312-2401</t>
+          <t>SP2310-2311</t>
         </is>
       </c>
       <c r="B198" t="n">
         <v>0</v>
       </c>
       <c r="C198" t="n">
-        <v>-20</v>
+        <v>-18</v>
       </c>
       <c r="D198" t="n">
-        <v>-15</v>
+        <v>-24</v>
       </c>
       <c r="E198" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="F198" t="n">
-        <v>-99999</v>
+        <v>-36</v>
       </c>
       <c r="G198" t="n">
         <v>-99999</v>
@@ -8369,7 +8369,7 @@
         <v>-99999</v>
       </c>
       <c r="K198" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="L198" t="n">
         <v>3</v>
@@ -8378,23 +8378,23 @@
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>TA2401-2402</t>
+          <t>SP2311-2312</t>
         </is>
       </c>
       <c r="B199" t="n">
         <v>0</v>
       </c>
       <c r="C199" t="n">
-        <v>-15</v>
+        <v>-18</v>
       </c>
       <c r="D199" t="n">
-        <v>-20</v>
+        <v>-24</v>
       </c>
       <c r="E199" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="F199" t="n">
-        <v>-99999</v>
+        <v>-36</v>
       </c>
       <c r="G199" t="n">
         <v>-99999</v>
@@ -8409,7 +8409,7 @@
         <v>-99999</v>
       </c>
       <c r="K199" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="L199" t="n">
         <v>3</v>
@@ -8418,23 +8418,23 @@
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>TA2402-2403</t>
+          <t>SP2312-2401</t>
         </is>
       </c>
       <c r="B200" t="n">
         <v>0</v>
       </c>
       <c r="C200" t="n">
-        <v>-99999</v>
+        <v>-126</v>
       </c>
       <c r="D200" t="n">
-        <v>-99999</v>
+        <v>-140</v>
       </c>
       <c r="E200" t="n">
-        <v>-99999</v>
+        <v>-165</v>
       </c>
       <c r="F200" t="n">
-        <v>-99999</v>
+        <v>-182</v>
       </c>
       <c r="G200" t="n">
         <v>-99999</v>
@@ -8449,26 +8449,26 @@
         <v>-99999</v>
       </c>
       <c r="K200" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L200" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>TA2403-2404</t>
+          <t>SP2401-2402</t>
         </is>
       </c>
       <c r="B201" t="n">
         <v>0</v>
       </c>
       <c r="C201" t="n">
-        <v>-28</v>
+        <v>-24</v>
       </c>
       <c r="D201" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="E201" t="n">
         <v>-99999</v>
@@ -8489,7 +8489,7 @@
         <v>-99999</v>
       </c>
       <c r="K201" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="L201" t="n">
         <v>3</v>
@@ -8498,17 +8498,17 @@
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>UR2310-2311</t>
+          <t>SP2402-2403</t>
         </is>
       </c>
       <c r="B202" t="n">
         <v>0</v>
       </c>
       <c r="C202" t="n">
-        <v>-35</v>
+        <v>-24</v>
       </c>
       <c r="D202" t="n">
-        <v>-45</v>
+        <v>-32</v>
       </c>
       <c r="E202" t="n">
         <v>-99999</v>
@@ -8529,7 +8529,7 @@
         <v>-99999</v>
       </c>
       <c r="K202" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L202" t="n">
         <v>3</v>
@@ -8538,17 +8538,17 @@
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>UR2311-2312</t>
+          <t>SP2403-2404</t>
         </is>
       </c>
       <c r="B203" t="n">
         <v>0</v>
       </c>
       <c r="C203" t="n">
-        <v>5</v>
+        <v>-24</v>
       </c>
       <c r="D203" t="n">
-        <v>0</v>
+        <v>-32</v>
       </c>
       <c r="E203" t="n">
         <v>-99999</v>
@@ -8569,7 +8569,7 @@
         <v>-99999</v>
       </c>
       <c r="K203" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L203" t="n">
         <v>3</v>
@@ -8578,17 +8578,17 @@
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>UR2312-2401</t>
+          <t>SP2404-2405</t>
         </is>
       </c>
       <c r="B204" t="n">
         <v>0</v>
       </c>
       <c r="C204" t="n">
-        <v>5</v>
+        <v>-24</v>
       </c>
       <c r="D204" t="n">
-        <v>0</v>
+        <v>-32</v>
       </c>
       <c r="E204" t="n">
         <v>-99999</v>
@@ -8609,7 +8609,7 @@
         <v>-99999</v>
       </c>
       <c r="K204" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="L204" t="n">
         <v>3</v>
@@ -8618,17 +8618,17 @@
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>UR2401-2402</t>
+          <t>SP2405-2406</t>
         </is>
       </c>
       <c r="B205" t="n">
         <v>0</v>
       </c>
       <c r="C205" t="n">
-        <v>0</v>
+        <v>-24</v>
       </c>
       <c r="D205" t="n">
-        <v>-99999</v>
+        <v>-32</v>
       </c>
       <c r="E205" t="n">
         <v>-99999</v>
@@ -8649,7 +8649,7 @@
         <v>-99999</v>
       </c>
       <c r="K205" t="n">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="L205" t="n">
         <v>3</v>
@@ -8658,14 +8658,14 @@
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>UR2402-2403</t>
+          <t>TA2307-2308</t>
         </is>
       </c>
       <c r="B206" t="n">
         <v>0</v>
       </c>
       <c r="C206" t="n">
-        <v>-50</v>
+        <v>-99999</v>
       </c>
       <c r="D206" t="n">
         <v>-99999</v>
@@ -8689,7 +8689,7 @@
         <v>-99999</v>
       </c>
       <c r="K206" t="n">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="L206" t="n">
         <v>3</v>
@@ -8698,17 +8698,17 @@
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>UR2403-2404</t>
+          <t>TA2307-2309</t>
         </is>
       </c>
       <c r="B207" t="n">
         <v>0</v>
       </c>
       <c r="C207" t="n">
-        <v>5</v>
+        <v>-99999</v>
       </c>
       <c r="D207" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="E207" t="n">
         <v>-99999</v>
@@ -8729,7 +8729,7 @@
         <v>-99999</v>
       </c>
       <c r="K207" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="L207" t="n">
         <v>3</v>
@@ -8738,20 +8738,20 @@
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>UR2404-2405</t>
+          <t>TA2308-2309</t>
         </is>
       </c>
       <c r="B208" t="n">
         <v>0</v>
       </c>
       <c r="C208" t="n">
-        <v>5</v>
+        <v>-99999</v>
       </c>
       <c r="D208" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="E208" t="n">
-        <v>-5</v>
+        <v>-99999</v>
       </c>
       <c r="F208" t="n">
         <v>-99999</v>
@@ -8769,7 +8769,7 @@
         <v>-99999</v>
       </c>
       <c r="K208" t="n">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c r="L208" t="n">
         <v>3</v>
@@ -8778,20 +8778,20 @@
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>V2308-2309</t>
+          <t>TA2309-2310</t>
         </is>
       </c>
       <c r="B209" t="n">
         <v>0</v>
       </c>
       <c r="C209" t="n">
-        <v>-99999</v>
+        <v>-5</v>
       </c>
       <c r="D209" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="E209" t="n">
-        <v>-99999</v>
+        <v>-25</v>
       </c>
       <c r="F209" t="n">
         <v>-99999</v>
@@ -8809,7 +8809,7 @@
         <v>-99999</v>
       </c>
       <c r="K209" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L209" t="n">
         <v>3</v>
@@ -8818,23 +8818,23 @@
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>V2309-2310</t>
+          <t>TA2310-2311</t>
         </is>
       </c>
       <c r="B210" t="n">
         <v>0</v>
       </c>
       <c r="C210" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="D210" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="E210" t="n">
-        <v>-25</v>
+        <v>-99999</v>
       </c>
       <c r="F210" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="G210" t="n">
         <v>-99999</v>
@@ -8849,38 +8849,38 @@
         <v>-99999</v>
       </c>
       <c r="K210" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="L210" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>V2310-2311</t>
+          <t>TA2311-2312</t>
         </is>
       </c>
       <c r="B211" t="n">
         <v>0</v>
       </c>
       <c r="C211" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="D211" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="E211" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="F211" t="n">
-        <v>-25</v>
+        <v>-99999</v>
       </c>
       <c r="G211" t="n">
-        <v>-28</v>
+        <v>-99999</v>
       </c>
       <c r="H211" t="n">
-        <v>-38</v>
+        <v>-99999</v>
       </c>
       <c r="I211" t="n">
         <v>-99999</v>
@@ -8889,38 +8889,38 @@
         <v>-99999</v>
       </c>
       <c r="K211" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L211" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>V2311-2312</t>
+          <t>TA2312-2401</t>
         </is>
       </c>
       <c r="B212" t="n">
         <v>0</v>
       </c>
       <c r="C212" t="n">
-        <v>-10</v>
+        <v>-20</v>
       </c>
       <c r="D212" t="n">
         <v>-15</v>
       </c>
       <c r="E212" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="F212" t="n">
-        <v>-25</v>
+        <v>-99999</v>
       </c>
       <c r="G212" t="n">
-        <v>-28</v>
+        <v>-99999</v>
       </c>
       <c r="H212" t="n">
-        <v>-38</v>
+        <v>-99999</v>
       </c>
       <c r="I212" t="n">
         <v>-99999</v>
@@ -8929,38 +8929,38 @@
         <v>-99999</v>
       </c>
       <c r="K212" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L212" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>V2312-2401</t>
+          <t>TA2401-2402</t>
         </is>
       </c>
       <c r="B213" t="n">
         <v>0</v>
       </c>
       <c r="C213" t="n">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="D213" t="n">
-        <v>-15</v>
+        <v>-20</v>
       </c>
       <c r="E213" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="F213" t="n">
-        <v>-25</v>
+        <v>-99999</v>
       </c>
       <c r="G213" t="n">
-        <v>-28</v>
+        <v>-99999</v>
       </c>
       <c r="H213" t="n">
-        <v>-38</v>
+        <v>-99999</v>
       </c>
       <c r="I213" t="n">
         <v>-99999</v>
@@ -8969,29 +8969,29 @@
         <v>-99999</v>
       </c>
       <c r="K213" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L213" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>V2401-2402</t>
+          <t>TA2402-2403</t>
         </is>
       </c>
       <c r="B214" t="n">
         <v>0</v>
       </c>
       <c r="C214" t="n">
-        <v>-3</v>
+        <v>-99999</v>
       </c>
       <c r="D214" t="n">
-        <v>-18</v>
+        <v>-99999</v>
       </c>
       <c r="E214" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="F214" t="n">
         <v>-99999</v>
@@ -9009,7 +9009,7 @@
         <v>-99999</v>
       </c>
       <c r="K214" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L214" t="n">
         <v>3</v>
@@ -9018,20 +9018,20 @@
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>V2402-2403</t>
+          <t>TA2403-2404</t>
         </is>
       </c>
       <c r="B215" t="n">
         <v>0</v>
       </c>
       <c r="C215" t="n">
-        <v>-5</v>
+        <v>-28</v>
       </c>
       <c r="D215" t="n">
-        <v>-15</v>
+        <v>-30</v>
       </c>
       <c r="E215" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="F215" t="n">
         <v>-99999</v>
@@ -9043,13 +9043,13 @@
         <v>-99999</v>
       </c>
       <c r="I215" t="n">
-        <v>-35</v>
+        <v>-99999</v>
       </c>
       <c r="J215" t="n">
         <v>-99999</v>
       </c>
       <c r="K215" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L215" t="n">
         <v>3</v>
@@ -9058,66 +9058,66 @@
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>V2403-2404</t>
+          <t>UR2310-2311</t>
         </is>
       </c>
       <c r="B216" t="n">
         <v>0</v>
       </c>
       <c r="C216" t="n">
-        <v>10</v>
+        <v>-35</v>
       </c>
       <c r="D216" t="n">
-        <v>-36</v>
+        <v>-45</v>
       </c>
       <c r="E216" t="n">
-        <v>-40</v>
+        <v>-99999</v>
       </c>
       <c r="F216" t="n">
-        <v>-44</v>
+        <v>-99999</v>
       </c>
       <c r="G216" t="n">
-        <v>-48</v>
+        <v>-99999</v>
       </c>
       <c r="H216" t="n">
-        <v>-52</v>
+        <v>-99999</v>
       </c>
       <c r="I216" t="n">
-        <v>-52</v>
+        <v>-99999</v>
       </c>
       <c r="J216" t="n">
         <v>-99999</v>
       </c>
       <c r="K216" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L216" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>V2404-2405</t>
+          <t>UR2311-2312</t>
         </is>
       </c>
       <c r="B217" t="n">
         <v>0</v>
       </c>
       <c r="C217" t="n">
-        <v>-15</v>
+        <v>5</v>
       </c>
       <c r="D217" t="n">
-        <v>-22</v>
+        <v>0</v>
       </c>
       <c r="E217" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="F217" t="n">
-        <v>-35</v>
+        <v>-99999</v>
       </c>
       <c r="G217" t="n">
-        <v>-40</v>
+        <v>-99999</v>
       </c>
       <c r="H217" t="n">
         <v>-99999</v>
@@ -9138,23 +9138,23 @@
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>V2405-2406</t>
+          <t>UR2312-2401</t>
         </is>
       </c>
       <c r="B218" t="n">
         <v>0</v>
       </c>
       <c r="C218" t="n">
-        <v>-7</v>
+        <v>5</v>
       </c>
       <c r="D218" t="n">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="E218" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="F218" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="G218" t="n">
         <v>-99999</v>
@@ -9169,32 +9169,32 @@
         <v>-99999</v>
       </c>
       <c r="K218" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L218" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>V2406-2407</t>
+          <t>UR2401-2402</t>
         </is>
       </c>
       <c r="B219" t="n">
         <v>0</v>
       </c>
       <c r="C219" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="D219" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="E219" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="F219" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="G219" t="n">
         <v>-99999</v>
@@ -9209,23 +9209,23 @@
         <v>-99999</v>
       </c>
       <c r="K219" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="L219" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>Y2307-2308</t>
+          <t>UR2402-2403</t>
         </is>
       </c>
       <c r="B220" t="n">
         <v>0</v>
       </c>
       <c r="C220" t="n">
-        <v>-99999</v>
+        <v>-50</v>
       </c>
       <c r="D220" t="n">
         <v>-99999</v>
@@ -9249,26 +9249,26 @@
         <v>-99999</v>
       </c>
       <c r="K220" t="n">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="L220" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>Y2308-2309</t>
+          <t>UR2403-2404</t>
         </is>
       </c>
       <c r="B221" t="n">
         <v>0</v>
       </c>
       <c r="C221" t="n">
-        <v>-99999</v>
+        <v>5</v>
       </c>
       <c r="D221" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="E221" t="n">
         <v>-99999</v>
@@ -9289,32 +9289,32 @@
         <v>-99999</v>
       </c>
       <c r="K221" t="n">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="L221" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>Y2309-2311</t>
+          <t>UR2404-2405</t>
         </is>
       </c>
       <c r="B222" t="n">
         <v>0</v>
       </c>
       <c r="C222" t="n">
-        <v>-20</v>
+        <v>5</v>
       </c>
       <c r="D222" t="n">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="E222" t="n">
-        <v>-38</v>
+        <v>-5</v>
       </c>
       <c r="F222" t="n">
-        <v>-40</v>
+        <v>-99999</v>
       </c>
       <c r="G222" t="n">
         <v>-99999</v>
@@ -9329,29 +9329,29 @@
         <v>-99999</v>
       </c>
       <c r="K222" t="n">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="L222" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>Y2311-2312</t>
+          <t>V2308-2309</t>
         </is>
       </c>
       <c r="B223" t="n">
         <v>0</v>
       </c>
       <c r="C223" t="n">
-        <v>-40</v>
+        <v>-99999</v>
       </c>
       <c r="D223" t="n">
-        <v>-42</v>
+        <v>-99999</v>
       </c>
       <c r="E223" t="n">
-        <v>-60</v>
+        <v>-99999</v>
       </c>
       <c r="F223" t="n">
         <v>-99999</v>
@@ -9369,7 +9369,7 @@
         <v>-99999</v>
       </c>
       <c r="K223" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L223" t="n">
         <v>3</v>
@@ -9378,40 +9378,640 @@
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
+          <t>V2309-2310</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>0</v>
+      </c>
+      <c r="C224" t="n">
+        <v>0</v>
+      </c>
+      <c r="D224" t="n">
+        <v>-29</v>
+      </c>
+      <c r="E224" t="n">
+        <v>-30</v>
+      </c>
+      <c r="F224" t="n">
+        <v>-30</v>
+      </c>
+      <c r="G224" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H224" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I224" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J224" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K224" t="n">
+        <v>5</v>
+      </c>
+      <c r="L224" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="inlineStr">
+        <is>
+          <t>V2310-2311</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>0</v>
+      </c>
+      <c r="C225" t="n">
+        <v>-10</v>
+      </c>
+      <c r="D225" t="n">
+        <v>-15</v>
+      </c>
+      <c r="E225" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F225" t="n">
+        <v>-25</v>
+      </c>
+      <c r="G225" t="n">
+        <v>-28</v>
+      </c>
+      <c r="H225" t="n">
+        <v>-38</v>
+      </c>
+      <c r="I225" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J225" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K225" t="n">
+        <v>30</v>
+      </c>
+      <c r="L225" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="inlineStr">
+        <is>
+          <t>V2311-2312</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>0</v>
+      </c>
+      <c r="C226" t="n">
+        <v>-10</v>
+      </c>
+      <c r="D226" t="n">
+        <v>-15</v>
+      </c>
+      <c r="E226" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F226" t="n">
+        <v>-25</v>
+      </c>
+      <c r="G226" t="n">
+        <v>-28</v>
+      </c>
+      <c r="H226" t="n">
+        <v>-38</v>
+      </c>
+      <c r="I226" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J226" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K226" t="n">
+        <v>30</v>
+      </c>
+      <c r="L226" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="inlineStr">
+        <is>
+          <t>V2312-2401</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>0</v>
+      </c>
+      <c r="C227" t="n">
+        <v>-10</v>
+      </c>
+      <c r="D227" t="n">
+        <v>-15</v>
+      </c>
+      <c r="E227" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F227" t="n">
+        <v>-25</v>
+      </c>
+      <c r="G227" t="n">
+        <v>-28</v>
+      </c>
+      <c r="H227" t="n">
+        <v>-38</v>
+      </c>
+      <c r="I227" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J227" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K227" t="n">
+        <v>30</v>
+      </c>
+      <c r="L227" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="inlineStr">
+        <is>
+          <t>V2401-2402</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>0</v>
+      </c>
+      <c r="C228" t="n">
+        <v>-3</v>
+      </c>
+      <c r="D228" t="n">
+        <v>-18</v>
+      </c>
+      <c r="E228" t="n">
+        <v>-30</v>
+      </c>
+      <c r="F228" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G228" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H228" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I228" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J228" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K228" t="n">
+        <v>30</v>
+      </c>
+      <c r="L228" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="inlineStr">
+        <is>
+          <t>V2402-2403</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>0</v>
+      </c>
+      <c r="C229" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D229" t="n">
+        <v>-15</v>
+      </c>
+      <c r="E229" t="n">
+        <v>-30</v>
+      </c>
+      <c r="F229" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G229" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H229" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I229" t="n">
+        <v>-35</v>
+      </c>
+      <c r="J229" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K229" t="n">
+        <v>50</v>
+      </c>
+      <c r="L229" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="inlineStr">
+        <is>
+          <t>V2403-2404</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>0</v>
+      </c>
+      <c r="C230" t="n">
+        <v>10</v>
+      </c>
+      <c r="D230" t="n">
+        <v>-36</v>
+      </c>
+      <c r="E230" t="n">
+        <v>-40</v>
+      </c>
+      <c r="F230" t="n">
+        <v>-44</v>
+      </c>
+      <c r="G230" t="n">
+        <v>-48</v>
+      </c>
+      <c r="H230" t="n">
+        <v>-52</v>
+      </c>
+      <c r="I230" t="n">
+        <v>-52</v>
+      </c>
+      <c r="J230" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K230" t="n">
+        <v>8</v>
+      </c>
+      <c r="L230" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="inlineStr">
+        <is>
+          <t>V2404-2405</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>0</v>
+      </c>
+      <c r="C231" t="n">
+        <v>-15</v>
+      </c>
+      <c r="D231" t="n">
+        <v>-22</v>
+      </c>
+      <c r="E231" t="n">
+        <v>-30</v>
+      </c>
+      <c r="F231" t="n">
+        <v>-35</v>
+      </c>
+      <c r="G231" t="n">
+        <v>-40</v>
+      </c>
+      <c r="H231" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I231" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J231" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K231" t="n">
+        <v>30</v>
+      </c>
+      <c r="L231" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="inlineStr">
+        <is>
+          <t>V2405-2406</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>0</v>
+      </c>
+      <c r="C232" t="n">
+        <v>-7</v>
+      </c>
+      <c r="D232" t="n">
+        <v>-15</v>
+      </c>
+      <c r="E232" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F232" t="n">
+        <v>-30</v>
+      </c>
+      <c r="G232" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H232" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I232" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J232" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K232" t="n">
+        <v>30</v>
+      </c>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="inlineStr">
+        <is>
+          <t>V2406-2407</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>0</v>
+      </c>
+      <c r="C233" t="n">
+        <v>-10</v>
+      </c>
+      <c r="D233" t="n">
+        <v>-10</v>
+      </c>
+      <c r="E233" t="n">
+        <v>-15</v>
+      </c>
+      <c r="F233" t="n">
+        <v>-15</v>
+      </c>
+      <c r="G233" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H233" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I233" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J233" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K233" t="n">
+        <v>30</v>
+      </c>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="inlineStr">
+        <is>
+          <t>Y2307-2308</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>0</v>
+      </c>
+      <c r="C234" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D234" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E234" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F234" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G234" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H234" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I234" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J234" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K234" t="n">
+        <v>18</v>
+      </c>
+      <c r="L234" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="inlineStr">
+        <is>
+          <t>Y2308-2309</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>0</v>
+      </c>
+      <c r="C235" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D235" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E235" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F235" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G235" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H235" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I235" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J235" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K235" t="n">
+        <v>18</v>
+      </c>
+      <c r="L235" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="inlineStr">
+        <is>
+          <t>Y2309-2311</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>0</v>
+      </c>
+      <c r="C236" t="n">
+        <v>-10</v>
+      </c>
+      <c r="D236" t="n">
+        <v>-20</v>
+      </c>
+      <c r="E236" t="n">
+        <v>-30</v>
+      </c>
+      <c r="F236" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G236" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H236" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I236" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J236" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K236" t="n">
+        <v>25</v>
+      </c>
+      <c r="L236" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="inlineStr">
+        <is>
+          <t>Y2311-2312</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>0</v>
+      </c>
+      <c r="C237" t="n">
+        <v>-40</v>
+      </c>
+      <c r="D237" t="n">
+        <v>-42</v>
+      </c>
+      <c r="E237" t="n">
+        <v>-60</v>
+      </c>
+      <c r="F237" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G237" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H237" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I237" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J237" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K237" t="n">
+        <v>100</v>
+      </c>
+      <c r="L237" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="inlineStr">
+        <is>
           <t>Y2312-2401</t>
         </is>
       </c>
-      <c r="B224" t="n">
-        <v>0</v>
-      </c>
-      <c r="C224" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D224" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E224" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="F224" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="G224" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="H224" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="I224" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="J224" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="K224" t="n">
+      <c r="B238" t="n">
+        <v>0</v>
+      </c>
+      <c r="C238" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="D238" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E238" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F238" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G238" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H238" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I238" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J238" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K238" t="n">
         <v>18</v>
       </c>
-      <c r="L224" t="n">
+      <c r="L238" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="inlineStr">
+        <is>
+          <t>Y2405-2407</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>0</v>
+      </c>
+      <c r="C239" t="n">
+        <v>10</v>
+      </c>
+      <c r="D239" t="n">
+        <v>-30</v>
+      </c>
+      <c r="E239" t="n">
+        <v>-32</v>
+      </c>
+      <c r="F239" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G239" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H239" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I239" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J239" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K239" t="n">
+        <v>30</v>
+      </c>
+      <c r="L239" t="n">
         <v>2</v>
       </c>
     </row>

--- a/info/region_info.xlsx
+++ b/info/region_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L239"/>
+  <dimension ref="A1:L240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,10 +508,10 @@
         <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-99999</v>
+        <v>-5</v>
       </c>
       <c r="F2" t="n">
         <v>-99999</v>
@@ -529,7 +529,7 @@
         <v>-99999</v>
       </c>
       <c r="K2" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="L2" t="n">
         <v>2</v>
@@ -1538,29 +1538,29 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>B2309-2310</t>
+          <t>AU2404-2406</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>-1.28</v>
       </c>
       <c r="D28" t="n">
-        <v>-10</v>
+        <v>-1.34</v>
       </c>
       <c r="E28" t="n">
-        <v>-20</v>
+        <v>-1.38</v>
       </c>
       <c r="F28" t="n">
-        <v>-30</v>
+        <v>-1.42</v>
       </c>
       <c r="G28" t="n">
-        <v>-99999</v>
+        <v>-1.46</v>
       </c>
       <c r="H28" t="n">
-        <v>-99999</v>
+        <v>-1.52</v>
       </c>
       <c r="I28" t="n">
         <v>-99999</v>
@@ -1569,38 +1569,38 @@
         <v>-99999</v>
       </c>
       <c r="K28" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>B2310-2311</t>
+          <t>B2309-2310</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>0</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-10</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F29" t="n">
         <v>-30</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>-5</v>
-      </c>
-      <c r="F29" t="n">
-        <v>-10</v>
-      </c>
       <c r="G29" t="n">
-        <v>-15</v>
+        <v>-60</v>
       </c>
       <c r="H29" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="I29" t="n">
         <v>-99999</v>
@@ -1609,38 +1609,38 @@
         <v>-99999</v>
       </c>
       <c r="K29" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="L29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>BR2401-2402</t>
+          <t>B2310-2311</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>25</v>
+        <v>-30</v>
       </c>
       <c r="D30" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>-5</v>
       </c>
       <c r="F30" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="G30" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="H30" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="I30" t="n">
         <v>-99999</v>
@@ -1649,7 +1649,7 @@
         <v>-99999</v>
       </c>
       <c r="K30" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="L30" t="n">
         <v>1</v>
@@ -1658,17 +1658,17 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>BR2402-2403</t>
+          <t>BR2401-2402</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D31" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E31" t="n">
         <v>-5</v>
@@ -1698,7 +1698,7 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>BR2403-2404</t>
+          <t>BR2402-2403</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1738,7 +1738,7 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>BR2404-2405</t>
+          <t>BR2403-2404</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1778,7 +1778,7 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>BR2405-2406</t>
+          <t>BR2404-2405</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1818,26 +1818,26 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>BU2309-2310</t>
+          <t>BR2405-2406</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>0</v>
       </c>
       <c r="C35" t="n">
+        <v>20</v>
+      </c>
+      <c r="D35" t="n">
+        <v>10</v>
+      </c>
+      <c r="E35" t="n">
         <v>-5</v>
       </c>
-      <c r="D35" t="n">
-        <v>-10</v>
-      </c>
-      <c r="E35" t="n">
-        <v>-20</v>
-      </c>
       <c r="F35" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="G35" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="H35" t="n">
         <v>-99999</v>
@@ -1849,7 +1849,7 @@
         <v>-99999</v>
       </c>
       <c r="K35" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="L35" t="n">
         <v>1</v>
@@ -1858,7 +1858,7 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>BU2310-2311</t>
+          <t>BU2309-2310</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1898,7 +1898,7 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>BU2311-2312</t>
+          <t>BU2310-2311</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1938,7 +1938,7 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>BU2312-2401</t>
+          <t>BU2311-2312</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1978,7 +1978,7 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>BU2401-2402</t>
+          <t>BU2312-2401</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -2018,7 +2018,7 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>BU2402-2403</t>
+          <t>BU2401-2402</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -2058,7 +2058,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>BU2403-2404</t>
+          <t>BU2402-2403</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -2098,7 +2098,7 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>BU2404-2405</t>
+          <t>BU2403-2404</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -2138,7 +2138,7 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>BU2405-2406</t>
+          <t>BU2404-2405</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -2178,26 +2178,26 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>C2309-2311</t>
+          <t>BU2405-2406</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>-99999</v>
+        <v>-5</v>
       </c>
       <c r="D44" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="E44" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="F44" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="G44" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="H44" t="n">
         <v>-99999</v>
@@ -2209,16 +2209,16 @@
         <v>-99999</v>
       </c>
       <c r="K44" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="L44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>C2311-2309</t>
+          <t>C2309-2311</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -2249,7 +2249,7 @@
         <v>-99999</v>
       </c>
       <c r="K45" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="L45" t="n">
         <v>3</v>
@@ -2258,14 +2258,14 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>C2311-2401</t>
+          <t>C2311-2309</t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>70</v>
+        <v>-99999</v>
       </c>
       <c r="D46" t="n">
         <v>-99999</v>
@@ -2289,29 +2289,29 @@
         <v>-99999</v>
       </c>
       <c r="K46" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="L46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>C2401-2403</t>
+          <t>C2311-2401</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="D47" t="n">
-        <v>15</v>
+        <v>-99999</v>
       </c>
       <c r="E47" t="n">
-        <v>5</v>
+        <v>-99999</v>
       </c>
       <c r="F47" t="n">
         <v>-99999</v>
@@ -2329,7 +2329,7 @@
         <v>-99999</v>
       </c>
       <c r="K47" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="L47" t="n">
         <v>2</v>
@@ -2338,20 +2338,20 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>C2403-2405</t>
+          <t>C2401-2403</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>-55</v>
+        <v>23</v>
       </c>
       <c r="D48" t="n">
-        <v>-99999</v>
+        <v>15</v>
       </c>
       <c r="E48" t="n">
-        <v>-99999</v>
+        <v>5</v>
       </c>
       <c r="F48" t="n">
         <v>-99999</v>
@@ -2369,7 +2369,7 @@
         <v>-99999</v>
       </c>
       <c r="K48" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="L48" t="n">
         <v>2</v>
@@ -2378,17 +2378,17 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>CF2309-2311</t>
+          <t>C2403-2405</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>-210</v>
+        <v>-55</v>
       </c>
       <c r="D49" t="n">
-        <v>-230</v>
+        <v>-99999</v>
       </c>
       <c r="E49" t="n">
         <v>-99999</v>
@@ -2418,17 +2418,17 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>CF2311-2401</t>
+          <t>CF2309-2311</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>-99999</v>
+        <v>-210</v>
       </c>
       <c r="D50" t="n">
-        <v>-99999</v>
+        <v>-230</v>
       </c>
       <c r="E50" t="n">
         <v>-99999</v>
@@ -2449,16 +2449,16 @@
         <v>-99999</v>
       </c>
       <c r="K50" t="n">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="L50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>CS2307-2309</t>
+          <t>CF2311-2401</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -2489,16 +2489,16 @@
         <v>-99999</v>
       </c>
       <c r="K51" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="L51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>CS2309-2311</t>
+          <t>CS2307-2309</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -2538,7 +2538,7 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>CS2311-2309</t>
+          <t>CS2309-2311</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -2578,14 +2578,14 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>CS2311-2401</t>
+          <t>CS2311-2309</t>
         </is>
       </c>
       <c r="B54" t="n">
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="D54" t="n">
         <v>-99999</v>
@@ -2618,14 +2618,14 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>CS2403-2405</t>
+          <t>CS2311-2401</t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>-150</v>
+        <v>-20</v>
       </c>
       <c r="D55" t="n">
         <v>-99999</v>
@@ -2649,7 +2649,7 @@
         <v>-99999</v>
       </c>
       <c r="K55" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="L55" t="n">
         <v>1</v>
@@ -2658,26 +2658,26 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>EG2309-2310</t>
+          <t>CS2403-2405</t>
         </is>
       </c>
       <c r="B56" t="n">
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>-40</v>
+        <v>-150</v>
       </c>
       <c r="D56" t="n">
-        <v>-70</v>
+        <v>-99999</v>
       </c>
       <c r="E56" t="n">
-        <v>-75</v>
+        <v>-99999</v>
       </c>
       <c r="F56" t="n">
-        <v>-81</v>
+        <v>-99999</v>
       </c>
       <c r="G56" t="n">
-        <v>-81</v>
+        <v>-99999</v>
       </c>
       <c r="H56" t="n">
         <v>-99999</v>
@@ -2689,35 +2689,35 @@
         <v>-99999</v>
       </c>
       <c r="K56" t="n">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="L56" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>EG2310-2311</t>
+          <t>EG2309-2310</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>-34</v>
+        <v>-40</v>
       </c>
       <c r="D57" t="n">
-        <v>-36</v>
+        <v>-70</v>
       </c>
       <c r="E57" t="n">
-        <v>-60</v>
+        <v>-75</v>
       </c>
       <c r="F57" t="n">
-        <v>-70</v>
+        <v>-81</v>
       </c>
       <c r="G57" t="n">
-        <v>-80</v>
+        <v>-81</v>
       </c>
       <c r="H57" t="n">
         <v>-99999</v>
@@ -2729,7 +2729,7 @@
         <v>-99999</v>
       </c>
       <c r="K57" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="L57" t="n">
         <v>4</v>
@@ -2738,26 +2738,26 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>EG2311-2312</t>
+          <t>EG2310-2311</t>
         </is>
       </c>
       <c r="B58" t="n">
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>-24</v>
+        <v>-34</v>
       </c>
       <c r="D58" t="n">
-        <v>-32</v>
+        <v>-36</v>
       </c>
       <c r="E58" t="n">
-        <v>-40</v>
+        <v>-60</v>
       </c>
       <c r="F58" t="n">
-        <v>-40</v>
+        <v>-70</v>
       </c>
       <c r="G58" t="n">
-        <v>-99999</v>
+        <v>-80</v>
       </c>
       <c r="H58" t="n">
         <v>-99999</v>
@@ -2769,7 +2769,7 @@
         <v>-99999</v>
       </c>
       <c r="K58" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L58" t="n">
         <v>4</v>
@@ -2778,7 +2778,7 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>EG2312-2401</t>
+          <t>EG2311-2312</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -2794,7 +2794,7 @@
         <v>-40</v>
       </c>
       <c r="F59" t="n">
-        <v>-99999</v>
+        <v>-40</v>
       </c>
       <c r="G59" t="n">
         <v>-99999</v>
@@ -2818,7 +2818,7 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>EG2401-2402</t>
+          <t>EG2312-2401</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -2831,7 +2831,7 @@
         <v>-32</v>
       </c>
       <c r="E60" t="n">
-        <v>-99999</v>
+        <v>-40</v>
       </c>
       <c r="F60" t="n">
         <v>-99999</v>
@@ -2858,17 +2858,17 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>EG2402-2403</t>
+          <t>EG2401-2402</t>
         </is>
       </c>
       <c r="B61" t="n">
         <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>-20</v>
+        <v>-24</v>
       </c>
       <c r="D61" t="n">
-        <v>-30</v>
+        <v>-32</v>
       </c>
       <c r="E61" t="n">
         <v>-99999</v>
@@ -2898,17 +2898,17 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>EG2403-2404</t>
+          <t>EG2402-2403</t>
         </is>
       </c>
       <c r="B62" t="n">
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>-80</v>
+        <v>-20</v>
       </c>
       <c r="D62" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="E62" t="n">
         <v>-99999</v>
@@ -2929,26 +2929,26 @@
         <v>-99999</v>
       </c>
       <c r="K62" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="L62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>FG2309-2310</t>
+          <t>EG2403-2404</t>
         </is>
       </c>
       <c r="B63" t="n">
         <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>-30</v>
+        <v>-80</v>
       </c>
       <c r="D63" t="n">
-        <v>-60</v>
+        <v>-99999</v>
       </c>
       <c r="E63" t="n">
         <v>-99999</v>
@@ -2969,7 +2969,7 @@
         <v>-99999</v>
       </c>
       <c r="K63" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="L63" t="n">
         <v>2</v>
@@ -2978,20 +2978,20 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>FG2310-2311</t>
+          <t>FG2309-2310</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="D64" t="n">
-        <v>-5</v>
+        <v>-60</v>
       </c>
       <c r="E64" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="F64" t="n">
         <v>-99999</v>
@@ -3009,7 +3009,7 @@
         <v>-99999</v>
       </c>
       <c r="K64" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L64" t="n">
         <v>2</v>
@@ -3018,7 +3018,7 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>FG2312-2401</t>
+          <t>FG2310-2311</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -3058,7 +3058,7 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>FG2402-2403</t>
+          <t>FG2312-2401</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -3098,21 +3098,21 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>FU2309-2310</t>
+          <t>FG2402-2403</t>
         </is>
       </c>
       <c r="B67" t="n">
         <v>0</v>
       </c>
       <c r="C67" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E67" t="n">
         <v>-10</v>
       </c>
-      <c r="D67" t="n">
-        <v>-20</v>
-      </c>
-      <c r="E67" t="n">
-        <v>-99999</v>
-      </c>
       <c r="F67" t="n">
         <v>-99999</v>
       </c>
@@ -3129,26 +3129,26 @@
         <v>-99999</v>
       </c>
       <c r="K67" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="L67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>FU2310-2309</t>
+          <t>FU2309-2310</t>
         </is>
       </c>
       <c r="B68" t="n">
         <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>-53</v>
+        <v>-10</v>
       </c>
       <c r="D68" t="n">
-        <v>-59</v>
+        <v>-20</v>
       </c>
       <c r="E68" t="n">
         <v>-99999</v>
@@ -3169,26 +3169,26 @@
         <v>-99999</v>
       </c>
       <c r="K68" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="L68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>FU2310-2311</t>
+          <t>FU2310-2309</t>
         </is>
       </c>
       <c r="B69" t="n">
         <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>-99999</v>
+        <v>-53</v>
       </c>
       <c r="D69" t="n">
-        <v>-99999</v>
+        <v>-59</v>
       </c>
       <c r="E69" t="n">
         <v>-99999</v>
@@ -3212,13 +3212,13 @@
         <v>20</v>
       </c>
       <c r="L69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>FU2311-2309</t>
+          <t>FU2310-2311</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -3249,23 +3249,23 @@
         <v>-99999</v>
       </c>
       <c r="K70" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="L70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>FU2311-2310</t>
+          <t>FU2311-2309</t>
         </is>
       </c>
       <c r="B71" t="n">
         <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>-80</v>
+        <v>-99999</v>
       </c>
       <c r="D71" t="n">
         <v>-99999</v>
@@ -3289,23 +3289,23 @@
         <v>-99999</v>
       </c>
       <c r="K71" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="L71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>FU2311-2312</t>
+          <t>FU2311-2310</t>
         </is>
       </c>
       <c r="B72" t="n">
         <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>-99999</v>
+        <v>-80</v>
       </c>
       <c r="D72" t="n">
         <v>-99999</v>
@@ -3329,7 +3329,7 @@
         <v>-99999</v>
       </c>
       <c r="K72" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L72" t="n">
         <v>3</v>
@@ -3338,17 +3338,17 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>FU2312-2401</t>
+          <t>FU2311-2312</t>
         </is>
       </c>
       <c r="B73" t="n">
         <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>-99999</v>
       </c>
       <c r="D73" t="n">
-        <v>-5</v>
+        <v>-99999</v>
       </c>
       <c r="E73" t="n">
         <v>-99999</v>
@@ -3369,26 +3369,26 @@
         <v>-99999</v>
       </c>
       <c r="K73" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="L73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>FU2401-2402</t>
+          <t>FU2312-2401</t>
         </is>
       </c>
       <c r="B74" t="n">
         <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>-10</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
-        <v>-99999</v>
+        <v>-5</v>
       </c>
       <c r="E74" t="n">
         <v>-99999</v>
@@ -3409,26 +3409,26 @@
         <v>-99999</v>
       </c>
       <c r="K74" t="n">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="L74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>FU2402-2403</t>
+          <t>FU2401-2402</t>
         </is>
       </c>
       <c r="B75" t="n">
         <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>-15</v>
+        <v>-10</v>
       </c>
       <c r="D75" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="E75" t="n">
         <v>-99999</v>
@@ -3449,7 +3449,7 @@
         <v>-99999</v>
       </c>
       <c r="K75" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="L75" t="n">
         <v>3</v>
@@ -3458,7 +3458,7 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>FU2403-2404</t>
+          <t>FU2402-2403</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -3498,7 +3498,7 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>FU2404-2405</t>
+          <t>FU2403-2404</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -3538,7 +3538,7 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>FU2405-2406</t>
+          <t>FU2404-2405</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -3578,14 +3578,14 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>HC2309-2310</t>
+          <t>FU2405-2406</t>
         </is>
       </c>
       <c r="B79" t="n">
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>-14</v>
+        <v>-15</v>
       </c>
       <c r="D79" t="n">
         <v>-20</v>
@@ -3609,29 +3609,29 @@
         <v>-99999</v>
       </c>
       <c r="K79" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="L79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>HC2310-2311</t>
+          <t>HC2309-2310</t>
         </is>
       </c>
       <c r="B80" t="n">
         <v>0</v>
       </c>
       <c r="C80" t="n">
+        <v>-14</v>
+      </c>
+      <c r="D80" t="n">
         <v>-20</v>
       </c>
-      <c r="D80" t="n">
-        <v>-30</v>
-      </c>
       <c r="E80" t="n">
-        <v>-40</v>
+        <v>-99999</v>
       </c>
       <c r="F80" t="n">
         <v>-99999</v>
@@ -3649,29 +3649,29 @@
         <v>-99999</v>
       </c>
       <c r="K80" t="n">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="L80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>HC2311-2312</t>
+          <t>HC2310-2311</t>
         </is>
       </c>
       <c r="B81" t="n">
         <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>-10</v>
+        <v>-20</v>
       </c>
       <c r="D81" t="n">
-        <v>-20</v>
+        <v>-30</v>
       </c>
       <c r="E81" t="n">
-        <v>-99999</v>
+        <v>-40</v>
       </c>
       <c r="F81" t="n">
         <v>-99999</v>
@@ -3689,7 +3689,7 @@
         <v>-99999</v>
       </c>
       <c r="K81" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L81" t="n">
         <v>3</v>
@@ -3698,17 +3698,17 @@
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>HC2312-2401</t>
+          <t>HC2311-2312</t>
         </is>
       </c>
       <c r="B82" t="n">
         <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="D82" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="E82" t="n">
         <v>-99999</v>
@@ -3738,14 +3738,14 @@
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>HC2401-2402</t>
+          <t>HC2312-2401</t>
         </is>
       </c>
       <c r="B83" t="n">
         <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="D83" t="n">
         <v>-99999</v>
@@ -3769,7 +3769,7 @@
         <v>-99999</v>
       </c>
       <c r="K83" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="L83" t="n">
         <v>3</v>
@@ -3778,14 +3778,14 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>HC2402-2403</t>
+          <t>HC2401-2402</t>
         </is>
       </c>
       <c r="B84" t="n">
         <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="D84" t="n">
         <v>-99999</v>
@@ -3809,7 +3809,7 @@
         <v>-99999</v>
       </c>
       <c r="K84" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="L84" t="n">
         <v>3</v>
@@ -3818,7 +3818,7 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>HC2403-2404</t>
+          <t>HC2402-2403</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -3858,7 +3858,7 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>I2309-2310</t>
+          <t>HC2403-2404</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -3889,29 +3889,29 @@
         <v>-99999</v>
       </c>
       <c r="K86" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L86" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>I2310-2311</t>
+          <t>I2309-2310</t>
         </is>
       </c>
       <c r="B87" t="n">
         <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>-99999</v>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="E87" t="n">
-        <v>-3</v>
+        <v>-99999</v>
       </c>
       <c r="F87" t="n">
         <v>-99999</v>
@@ -3929,16 +3929,16 @@
         <v>-99999</v>
       </c>
       <c r="K87" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L87" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>I2311-2312</t>
+          <t>I2310-2311</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -3978,7 +3978,7 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>I2312-2401</t>
+          <t>I2311-2312</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -4018,7 +4018,7 @@
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>I2401-2402</t>
+          <t>I2312-2401</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -4058,7 +4058,7 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>I2402-2403</t>
+          <t>I2401-2402</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -4098,7 +4098,7 @@
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>I2403-2404</t>
+          <t>I2402-2403</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -4138,20 +4138,20 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>IC2309-2312</t>
+          <t>I2403-2404</t>
         </is>
       </c>
       <c r="B93" t="n">
         <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>-99999</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>-99999</v>
+        <v>-3</v>
       </c>
       <c r="F93" t="n">
         <v>-99999</v>
@@ -4169,26 +4169,26 @@
         <v>-99999</v>
       </c>
       <c r="K93" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="L93" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>IF2308-2309</t>
+          <t>IC2309-2312</t>
         </is>
       </c>
       <c r="B94" t="n">
         <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="D94" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="E94" t="n">
         <v>-99999</v>
@@ -4209,7 +4209,7 @@
         <v>-99999</v>
       </c>
       <c r="K94" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L94" t="n">
         <v>1</v>
@@ -4218,20 +4218,20 @@
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>IF2309-2312</t>
+          <t>IF2308-2309</t>
         </is>
       </c>
       <c r="B95" t="n">
         <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>-12</v>
+        <v>-10</v>
       </c>
       <c r="D95" t="n">
-        <v>-20</v>
+        <v>-15</v>
       </c>
       <c r="E95" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="F95" t="n">
         <v>-99999</v>
@@ -4249,7 +4249,7 @@
         <v>-99999</v>
       </c>
       <c r="K95" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="L95" t="n">
         <v>1</v>
@@ -4258,20 +4258,20 @@
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>IF2312-2403</t>
+          <t>IF2309-2312</t>
         </is>
       </c>
       <c r="B96" t="n">
         <v>0</v>
       </c>
       <c r="C96" t="n">
-        <v>-32</v>
+        <v>-12</v>
       </c>
       <c r="D96" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="E96" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="F96" t="n">
         <v>-99999</v>
@@ -4289,7 +4289,7 @@
         <v>-99999</v>
       </c>
       <c r="K96" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="L96" t="n">
         <v>1</v>
@@ -4298,17 +4298,17 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>IH2309-2312</t>
+          <t>IF2312-2403</t>
         </is>
       </c>
       <c r="B97" t="n">
         <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>-12</v>
+        <v>-32</v>
       </c>
       <c r="D97" t="n">
-        <v>-17</v>
+        <v>-99999</v>
       </c>
       <c r="E97" t="n">
         <v>-99999</v>
@@ -4329,7 +4329,7 @@
         <v>-99999</v>
       </c>
       <c r="K97" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L97" t="n">
         <v>1</v>
@@ -4338,17 +4338,17 @@
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>IH2312-2403</t>
+          <t>IH2309-2312</t>
         </is>
       </c>
       <c r="B98" t="n">
         <v>0</v>
       </c>
       <c r="C98" t="n">
-        <v>-18</v>
+        <v>-12</v>
       </c>
       <c r="D98" t="n">
-        <v>-23</v>
+        <v>-17</v>
       </c>
       <c r="E98" t="n">
         <v>-99999</v>
@@ -4369,7 +4369,7 @@
         <v>-99999</v>
       </c>
       <c r="K98" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="L98" t="n">
         <v>1</v>
@@ -4378,17 +4378,17 @@
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>IM2309-2312</t>
+          <t>IH2312-2403</t>
         </is>
       </c>
       <c r="B99" t="n">
         <v>0</v>
       </c>
       <c r="C99" t="n">
-        <v>-99999</v>
+        <v>-18</v>
       </c>
       <c r="D99" t="n">
-        <v>-99999</v>
+        <v>-22.8</v>
       </c>
       <c r="E99" t="n">
         <v>-99999</v>
@@ -4409,7 +4409,7 @@
         <v>-99999</v>
       </c>
       <c r="K99" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L99" t="n">
         <v>1</v>
@@ -4418,14 +4418,14 @@
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>JD2403-2404</t>
+          <t>IM2309-2312</t>
         </is>
       </c>
       <c r="B100" t="n">
         <v>0</v>
       </c>
       <c r="C100" t="n">
-        <v>-200</v>
+        <v>-99999</v>
       </c>
       <c r="D100" t="n">
         <v>-99999</v>
@@ -4449,29 +4449,29 @@
         <v>-99999</v>
       </c>
       <c r="K100" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="L100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>L2309-2310</t>
+          <t>JD2403-2404</t>
         </is>
       </c>
       <c r="B101" t="n">
         <v>0</v>
       </c>
       <c r="C101" t="n">
-        <v>-5</v>
+        <v>-200</v>
       </c>
       <c r="D101" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="E101" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="F101" t="n">
         <v>-99999</v>
@@ -4489,7 +4489,7 @@
         <v>-99999</v>
       </c>
       <c r="K101" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="L101" t="n">
         <v>2</v>
@@ -4498,23 +4498,23 @@
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>L2310-2311</t>
+          <t>L2309-2310</t>
         </is>
       </c>
       <c r="B102" t="n">
         <v>0</v>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D102" t="n">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="E102" t="n">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="F102" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="G102" t="n">
         <v>-99999</v>
@@ -4532,13 +4532,13 @@
         <v>25</v>
       </c>
       <c r="L102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>L2311-2312</t>
+          <t>L2310-2311</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -4578,7 +4578,7 @@
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>L2312-2401</t>
+          <t>L2311-2312</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -4618,7 +4618,7 @@
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>L2402-2403</t>
+          <t>L2312-2401</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -4658,23 +4658,23 @@
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>L2405-2406</t>
+          <t>L2402-2403</t>
         </is>
       </c>
       <c r="B106" t="n">
         <v>0</v>
       </c>
       <c r="C106" t="n">
+        <v>0</v>
+      </c>
+      <c r="D106" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E106" t="n">
         <v>-10</v>
       </c>
-      <c r="D106" t="n">
-        <v>-20</v>
-      </c>
-      <c r="E106" t="n">
-        <v>-99999</v>
-      </c>
       <c r="F106" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="G106" t="n">
         <v>-99999</v>
@@ -4689,26 +4689,26 @@
         <v>-99999</v>
       </c>
       <c r="K106" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="L106" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>LU2309-2310</t>
+          <t>L2405-2406</t>
         </is>
       </c>
       <c r="B107" t="n">
         <v>0</v>
       </c>
       <c r="C107" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="D107" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="E107" t="n">
         <v>-99999</v>
@@ -4729,38 +4729,38 @@
         <v>-99999</v>
       </c>
       <c r="K107" t="n">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="L107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>LU2310-2311</t>
+          <t>LU2309-2310</t>
         </is>
       </c>
       <c r="B108" t="n">
         <v>0</v>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="D108" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="E108" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="F108" t="n">
-        <v>-26</v>
+        <v>-99999</v>
       </c>
       <c r="G108" t="n">
-        <v>-28</v>
+        <v>-99999</v>
       </c>
       <c r="H108" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="I108" t="n">
         <v>-99999</v>
@@ -4769,38 +4769,38 @@
         <v>-99999</v>
       </c>
       <c r="K108" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L108" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>M2309-2311</t>
+          <t>LU2310-2311</t>
         </is>
       </c>
       <c r="B109" t="n">
         <v>0</v>
       </c>
       <c r="C109" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="D109" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="E109" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="F109" t="n">
-        <v>-99999</v>
+        <v>-26</v>
       </c>
       <c r="G109" t="n">
-        <v>-99999</v>
+        <v>-28</v>
       </c>
       <c r="H109" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="I109" t="n">
         <v>-99999</v>
@@ -4809,26 +4809,26 @@
         <v>-99999</v>
       </c>
       <c r="K109" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L109" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>M2311-2312</t>
+          <t>M2309-2311</t>
         </is>
       </c>
       <c r="B110" t="n">
         <v>0</v>
       </c>
       <c r="C110" t="n">
-        <v>-40</v>
+        <v>-99999</v>
       </c>
       <c r="D110" t="n">
-        <v>-50</v>
+        <v>-99999</v>
       </c>
       <c r="E110" t="n">
         <v>-99999</v>
@@ -4849,29 +4849,29 @@
         <v>-99999</v>
       </c>
       <c r="K110" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="L110" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>M2312-2401</t>
+          <t>M2311-2312</t>
         </is>
       </c>
       <c r="B111" t="n">
         <v>0</v>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="D111" t="n">
-        <v>-5</v>
+        <v>-50</v>
       </c>
       <c r="E111" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="F111" t="n">
         <v>-99999</v>
@@ -4889,16 +4889,16 @@
         <v>-99999</v>
       </c>
       <c r="K111" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L111" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>M2401-2403</t>
+          <t>M2312-2401</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -4908,10 +4908,10 @@
         <v>0</v>
       </c>
       <c r="D112" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E112" t="n">
         <v>-10</v>
-      </c>
-      <c r="E112" t="n">
-        <v>-20</v>
       </c>
       <c r="F112" t="n">
         <v>-99999</v>
@@ -4938,20 +4938,20 @@
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>M2403-2405</t>
+          <t>M2401-2403</t>
         </is>
       </c>
       <c r="B113" t="n">
         <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="D113" t="n">
-        <v>-100</v>
+        <v>-10</v>
       </c>
       <c r="E113" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="F113" t="n">
         <v>-99999</v>
@@ -4978,23 +4978,23 @@
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>M2405-2407</t>
+          <t>M2403-2405</t>
         </is>
       </c>
       <c r="B114" t="n">
         <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>2</v>
+        <v>-50</v>
       </c>
       <c r="D114" t="n">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="E114" t="n">
-        <v>-25</v>
+        <v>-99999</v>
       </c>
       <c r="F114" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="G114" t="n">
         <v>-99999</v>
@@ -5009,7 +5009,7 @@
         <v>-99999</v>
       </c>
       <c r="K114" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="L114" t="n">
         <v>3</v>
@@ -5018,38 +5018,38 @@
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>MA2309-2310</t>
+          <t>M2405-2407</t>
         </is>
       </c>
       <c r="B115" t="n">
         <v>0</v>
       </c>
       <c r="C115" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D115" t="n">
-        <v>-35</v>
+        <v>-20</v>
       </c>
       <c r="E115" t="n">
-        <v>-40</v>
+        <v>-25</v>
       </c>
       <c r="F115" t="n">
-        <v>-40</v>
+        <v>-30</v>
       </c>
       <c r="G115" t="n">
-        <v>-43</v>
+        <v>-99999</v>
       </c>
       <c r="H115" t="n">
-        <v>-45</v>
+        <v>-99999</v>
       </c>
       <c r="I115" t="n">
-        <v>-60</v>
+        <v>-99999</v>
       </c>
       <c r="J115" t="n">
         <v>-99999</v>
       </c>
       <c r="K115" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="L115" t="n">
         <v>3</v>
@@ -5058,38 +5058,38 @@
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>MA2310-2311</t>
+          <t>MA2309-2310</t>
         </is>
       </c>
       <c r="B116" t="n">
         <v>0</v>
       </c>
       <c r="C116" t="n">
-        <v>-30</v>
+        <v>10</v>
       </c>
       <c r="D116" t="n">
         <v>-35</v>
       </c>
       <c r="E116" t="n">
-        <v>-50</v>
+        <v>-40</v>
       </c>
       <c r="F116" t="n">
-        <v>-99999</v>
+        <v>-40</v>
       </c>
       <c r="G116" t="n">
-        <v>-99999</v>
+        <v>-43</v>
       </c>
       <c r="H116" t="n">
-        <v>-99999</v>
+        <v>-45</v>
       </c>
       <c r="I116" t="n">
-        <v>-99999</v>
+        <v>-60</v>
       </c>
       <c r="J116" t="n">
         <v>-99999</v>
       </c>
       <c r="K116" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="L116" t="n">
         <v>3</v>
@@ -5098,21 +5098,21 @@
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>MA2311-2312</t>
+          <t>MA2310-2311</t>
         </is>
       </c>
       <c r="B117" t="n">
         <v>0</v>
       </c>
       <c r="C117" t="n">
-        <v>-45</v>
+        <v>-30</v>
       </c>
       <c r="D117" t="n">
+        <v>-35</v>
+      </c>
+      <c r="E117" t="n">
         <v>-50</v>
       </c>
-      <c r="E117" t="n">
-        <v>-99999</v>
-      </c>
       <c r="F117" t="n">
         <v>-99999</v>
       </c>
@@ -5129,29 +5129,29 @@
         <v>-99999</v>
       </c>
       <c r="K117" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="L117" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>MA2312-2401</t>
+          <t>MA2311-2312</t>
         </is>
       </c>
       <c r="B118" t="n">
         <v>0</v>
       </c>
       <c r="C118" t="n">
-        <v>-5</v>
+        <v>-45</v>
       </c>
       <c r="D118" t="n">
-        <v>-15</v>
+        <v>-50</v>
       </c>
       <c r="E118" t="n">
-        <v>-25</v>
+        <v>-99999</v>
       </c>
       <c r="F118" t="n">
         <v>-99999</v>
@@ -5169,29 +5169,29 @@
         <v>-99999</v>
       </c>
       <c r="K118" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L118" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>MA2402-2403</t>
+          <t>MA2312-2401</t>
         </is>
       </c>
       <c r="B119" t="n">
         <v>0</v>
       </c>
       <c r="C119" t="n">
-        <v>-99999</v>
+        <v>-5</v>
       </c>
       <c r="D119" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="E119" t="n">
-        <v>-99999</v>
+        <v>-25</v>
       </c>
       <c r="F119" t="n">
         <v>-99999</v>
@@ -5218,20 +5218,20 @@
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>NR2309-2310</t>
+          <t>MA2402-2403</t>
         </is>
       </c>
       <c r="B120" t="n">
         <v>0</v>
       </c>
       <c r="C120" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="D120" t="n">
-        <v>-40</v>
+        <v>-99999</v>
       </c>
       <c r="E120" t="n">
-        <v>-50</v>
+        <v>-99999</v>
       </c>
       <c r="F120" t="n">
         <v>-99999</v>
@@ -5252,27 +5252,27 @@
         <v>30</v>
       </c>
       <c r="L120" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>NR2310-2311</t>
+          <t>NR2309-2310</t>
         </is>
       </c>
       <c r="B121" t="n">
         <v>0</v>
       </c>
       <c r="C121" t="n">
+        <v>-30</v>
+      </c>
+      <c r="D121" t="n">
+        <v>-40</v>
+      </c>
+      <c r="E121" t="n">
         <v>-50</v>
       </c>
-      <c r="D121" t="n">
-        <v>-80</v>
-      </c>
-      <c r="E121" t="n">
-        <v>-99999</v>
-      </c>
       <c r="F121" t="n">
         <v>-99999</v>
       </c>
@@ -5289,7 +5289,7 @@
         <v>-99999</v>
       </c>
       <c r="K121" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L121" t="n">
         <v>1</v>
@@ -5298,7 +5298,7 @@
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>NR2311-2312</t>
+          <t>NR2310-2311</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -5308,10 +5308,10 @@
         <v>-50</v>
       </c>
       <c r="D122" t="n">
-        <v>-60</v>
+        <v>-80</v>
       </c>
       <c r="E122" t="n">
-        <v>-90</v>
+        <v>-99999</v>
       </c>
       <c r="F122" t="n">
         <v>-99999</v>
@@ -5329,29 +5329,29 @@
         <v>-99999</v>
       </c>
       <c r="K122" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>NR2312-2401</t>
+          <t>NR2311-2312</t>
         </is>
       </c>
       <c r="B123" t="n">
         <v>0</v>
       </c>
       <c r="C123" t="n">
-        <v>-70</v>
+        <v>-50</v>
       </c>
       <c r="D123" t="n">
-        <v>-85</v>
+        <v>-60</v>
       </c>
       <c r="E123" t="n">
-        <v>-100</v>
+        <v>-90</v>
       </c>
       <c r="F123" t="n">
         <v>-99999</v>
@@ -5369,32 +5369,32 @@
         <v>-99999</v>
       </c>
       <c r="K123" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>OI2309-2311</t>
+          <t>NR2312-2401</t>
         </is>
       </c>
       <c r="B124" t="n">
         <v>0</v>
       </c>
       <c r="C124" t="n">
-        <v>50</v>
+        <v>-70</v>
       </c>
       <c r="D124" t="n">
-        <v>12</v>
+        <v>-85</v>
       </c>
       <c r="E124" t="n">
-        <v>10</v>
+        <v>-100</v>
       </c>
       <c r="F124" t="n">
-        <v>5</v>
+        <v>-99999</v>
       </c>
       <c r="G124" t="n">
         <v>-99999</v>
@@ -5409,38 +5409,38 @@
         <v>-99999</v>
       </c>
       <c r="K124" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L124" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>OI2311-2401</t>
+          <t>OI2309-2311</t>
         </is>
       </c>
       <c r="B125" t="n">
         <v>0</v>
       </c>
       <c r="C125" t="n">
-        <v>-99999</v>
+        <v>50</v>
       </c>
       <c r="D125" t="n">
-        <v>-99999</v>
+        <v>18</v>
       </c>
       <c r="E125" t="n">
-        <v>-99999</v>
+        <v>12</v>
       </c>
       <c r="F125" t="n">
-        <v>-99999</v>
+        <v>10</v>
       </c>
       <c r="G125" t="n">
-        <v>-99999</v>
+        <v>5</v>
       </c>
       <c r="H125" t="n">
-        <v>-99999</v>
+        <v>-17</v>
       </c>
       <c r="I125" t="n">
         <v>-99999</v>
@@ -5449,7 +5449,7 @@
         <v>-99999</v>
       </c>
       <c r="K125" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="L125" t="n">
         <v>3</v>
@@ -5458,7 +5458,7 @@
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>OI2401-2311</t>
+          <t>OI2311-2401</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -5489,26 +5489,26 @@
         <v>-99999</v>
       </c>
       <c r="K126" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="L126" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>OI2401-2403</t>
+          <t>OI2401-2311</t>
         </is>
       </c>
       <c r="B127" t="n">
         <v>0</v>
       </c>
       <c r="C127" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="D127" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="E127" t="n">
         <v>-99999</v>
@@ -5529,7 +5529,7 @@
         <v>-99999</v>
       </c>
       <c r="K127" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="L127" t="n">
         <v>2</v>
@@ -5538,17 +5538,17 @@
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>OI2403-2401</t>
+          <t>OI2401-2403</t>
         </is>
       </c>
       <c r="B128" t="n">
         <v>0</v>
       </c>
       <c r="C128" t="n">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="D128" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="E128" t="n">
         <v>-99999</v>
@@ -5569,7 +5569,7 @@
         <v>-99999</v>
       </c>
       <c r="K128" t="n">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="L128" t="n">
         <v>2</v>
@@ -5578,17 +5578,17 @@
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>OI2403-2405</t>
+          <t>OI2403-2401</t>
         </is>
       </c>
       <c r="B129" t="n">
         <v>0</v>
       </c>
       <c r="C129" t="n">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="D129" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="E129" t="n">
         <v>-99999</v>
@@ -5609,7 +5609,7 @@
         <v>-99999</v>
       </c>
       <c r="K129" t="n">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="L129" t="n">
         <v>2</v>
@@ -5618,17 +5618,17 @@
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>PB2309-2310</t>
+          <t>OI2403-2405</t>
         </is>
       </c>
       <c r="B130" t="n">
         <v>0</v>
       </c>
       <c r="C130" t="n">
-        <v>-52</v>
+        <v>0</v>
       </c>
       <c r="D130" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="E130" t="n">
         <v>-99999</v>
@@ -5649,23 +5649,23 @@
         <v>-99999</v>
       </c>
       <c r="K130" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>PB2310-2311</t>
+          <t>PB2309-2310</t>
         </is>
       </c>
       <c r="B131" t="n">
         <v>0</v>
       </c>
       <c r="C131" t="n">
-        <v>-25</v>
+        <v>-52</v>
       </c>
       <c r="D131" t="n">
         <v>-99999</v>
@@ -5689,26 +5689,26 @@
         <v>-99999</v>
       </c>
       <c r="K131" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>PB2312-2401</t>
+          <t>PB2310-2311</t>
         </is>
       </c>
       <c r="B132" t="n">
         <v>0</v>
       </c>
       <c r="C132" t="n">
-        <v>-40</v>
+        <v>-25</v>
       </c>
       <c r="D132" t="n">
-        <v>-80</v>
+        <v>-99999</v>
       </c>
       <c r="E132" t="n">
         <v>-99999</v>
@@ -5729,7 +5729,7 @@
         <v>-99999</v>
       </c>
       <c r="K132" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="L132" t="n">
         <v>2</v>
@@ -5738,17 +5738,17 @@
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>PB2402-2403</t>
+          <t>PB2312-2401</t>
         </is>
       </c>
       <c r="B133" t="n">
         <v>0</v>
       </c>
       <c r="C133" t="n">
-        <v>-55</v>
+        <v>-40</v>
       </c>
       <c r="D133" t="n">
-        <v>-99999</v>
+        <v>-80</v>
       </c>
       <c r="E133" t="n">
         <v>-99999</v>
@@ -5769,16 +5769,16 @@
         <v>-99999</v>
       </c>
       <c r="K133" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>PB2403-2404</t>
+          <t>PB2402-2403</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -5818,14 +5818,14 @@
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>PF2309-2310</t>
+          <t>PB2403-2404</t>
         </is>
       </c>
       <c r="B135" t="n">
         <v>0</v>
       </c>
       <c r="C135" t="n">
-        <v>-52</v>
+        <v>-55</v>
       </c>
       <c r="D135" t="n">
         <v>-99999</v>
@@ -5849,56 +5849,56 @@
         <v>-99999</v>
       </c>
       <c r="K135" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="L135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>PF2310-2311</t>
+          <t>PF2309-2310</t>
         </is>
       </c>
       <c r="B136" t="n">
         <v>0</v>
       </c>
       <c r="C136" t="n">
+        <v>-52</v>
+      </c>
+      <c r="D136" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="E136" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F136" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H136" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I136" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J136" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K136" t="n">
+        <v>100</v>
+      </c>
+      <c r="L136" t="n">
         <v>2</v>
-      </c>
-      <c r="D136" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="E136" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="F136" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="H136" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="I136" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="J136" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="K136" t="n">
-        <v>40</v>
-      </c>
-      <c r="L136" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>PF2311-2312</t>
+          <t>PF2310-2311</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -5908,10 +5908,10 @@
         <v>2</v>
       </c>
       <c r="D137" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="E137" t="n">
-        <v>-40</v>
+        <v>-99999</v>
       </c>
       <c r="F137" t="n">
         <v>-99999</v>
@@ -5938,7 +5938,7 @@
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>PF2312-2401</t>
+          <t>PF2311-2312</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -5948,10 +5948,10 @@
         <v>2</v>
       </c>
       <c r="D138" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="E138" t="n">
-        <v>-99999</v>
+        <v>-40</v>
       </c>
       <c r="F138" t="n">
         <v>-99999</v>
@@ -5978,14 +5978,14 @@
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>PG2307-2308</t>
+          <t>PF2312-2401</t>
         </is>
       </c>
       <c r="B139" t="n">
         <v>0</v>
       </c>
       <c r="C139" t="n">
-        <v>-99999</v>
+        <v>2</v>
       </c>
       <c r="D139" t="n">
         <v>-99999</v>
@@ -6009,16 +6009,16 @@
         <v>-99999</v>
       </c>
       <c r="K139" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L139" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>PG2308-2309</t>
+          <t>PG2307-2308</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -6049,16 +6049,16 @@
         <v>-99999</v>
       </c>
       <c r="K140" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="L140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>PG2309-2308</t>
+          <t>PG2308-2309</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -6089,29 +6089,29 @@
         <v>-99999</v>
       </c>
       <c r="K141" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>PP2309-2310</t>
+          <t>PG2309-2308</t>
         </is>
       </c>
       <c r="B142" t="n">
         <v>0</v>
       </c>
       <c r="C142" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="D142" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="E142" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="F142" t="n">
         <v>-99999</v>
@@ -6129,35 +6129,35 @@
         <v>-99999</v>
       </c>
       <c r="K142" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="L142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>PP2310-2311</t>
+          <t>PP2309-2310</t>
         </is>
       </c>
       <c r="B143" t="n">
         <v>0</v>
       </c>
       <c r="C143" t="n">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="D143" t="n">
-        <v>-5</v>
+        <v>-15</v>
       </c>
       <c r="E143" t="n">
-        <v>-10</v>
+        <v>-20</v>
       </c>
       <c r="F143" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="G143" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="H143" t="n">
         <v>-99999</v>
@@ -6172,13 +6172,13 @@
         <v>35</v>
       </c>
       <c r="L143" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>PP2311-2312</t>
+          <t>PP2310-2311</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -6218,7 +6218,7 @@
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>PP2312-2401</t>
+          <t>PP2311-2312</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -6258,7 +6258,7 @@
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>PP2401-2402</t>
+          <t>PP2312-2401</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -6298,26 +6298,26 @@
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>PP2402-2403</t>
+          <t>PP2401-2402</t>
         </is>
       </c>
       <c r="B147" t="n">
         <v>0</v>
       </c>
       <c r="C147" t="n">
+        <v>2</v>
+      </c>
+      <c r="D147" t="n">
         <v>-5</v>
       </c>
-      <c r="D147" t="n">
-        <v>-99999</v>
-      </c>
       <c r="E147" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="F147" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="G147" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="H147" t="n">
         <v>-99999</v>
@@ -6338,20 +6338,20 @@
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>PP2404-2405</t>
+          <t>PP2402-2403</t>
         </is>
       </c>
       <c r="B148" t="n">
         <v>0</v>
       </c>
       <c r="C148" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D148" t="n">
-        <v>-5</v>
+        <v>-99999</v>
       </c>
       <c r="E148" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="F148" t="n">
         <v>-99999</v>
@@ -6369,30 +6369,30 @@
         <v>-99999</v>
       </c>
       <c r="K148" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="L148" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>PP2405-2406</t>
+          <t>PP2404-2405</t>
         </is>
       </c>
       <c r="B149" t="n">
         <v>0</v>
       </c>
       <c r="C149" t="n">
+        <v>0</v>
+      </c>
+      <c r="D149" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E149" t="n">
         <v>-10</v>
       </c>
-      <c r="D149" t="n">
-        <v>-15</v>
-      </c>
-      <c r="E149" t="n">
-        <v>-99999</v>
-      </c>
       <c r="F149" t="n">
         <v>-99999</v>
       </c>
@@ -6409,32 +6409,32 @@
         <v>-99999</v>
       </c>
       <c r="K149" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="L149" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>RB2307-2308</t>
+          <t>PP2405-2406</t>
         </is>
       </c>
       <c r="B150" t="n">
         <v>0</v>
       </c>
       <c r="C150" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="D150" t="n">
-        <v>-5</v>
+        <v>-15</v>
       </c>
       <c r="E150" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="F150" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="G150" t="n">
         <v>-99999</v>
@@ -6449,7 +6449,7 @@
         <v>-99999</v>
       </c>
       <c r="K150" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="L150" t="n">
         <v>3</v>
@@ -6458,7 +6458,7 @@
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>RB2308-2309</t>
+          <t>RB2307-2308</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -6468,13 +6468,13 @@
         <v>0</v>
       </c>
       <c r="D151" t="n">
-        <v>-20</v>
+        <v>-5</v>
       </c>
       <c r="E151" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="F151" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="G151" t="n">
         <v>-99999</v>
@@ -6489,7 +6489,7 @@
         <v>-99999</v>
       </c>
       <c r="K151" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L151" t="n">
         <v>3</v>
@@ -6498,17 +6498,17 @@
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>RB2309-2310</t>
+          <t>RB2308-2309</t>
         </is>
       </c>
       <c r="B152" t="n">
         <v>0</v>
       </c>
       <c r="C152" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="D152" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="E152" t="n">
         <v>-99999</v>
@@ -6529,7 +6529,7 @@
         <v>-99999</v>
       </c>
       <c r="K152" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="L152" t="n">
         <v>3</v>
@@ -6538,14 +6538,14 @@
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>RB2310-2311</t>
+          <t>RB2309-2310</t>
         </is>
       </c>
       <c r="B153" t="n">
         <v>0</v>
       </c>
       <c r="C153" t="n">
-        <v>-99999</v>
+        <v>-100</v>
       </c>
       <c r="D153" t="n">
         <v>-99999</v>
@@ -6569,16 +6569,16 @@
         <v>-99999</v>
       </c>
       <c r="K153" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="L153" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>RB2311-2312</t>
+          <t>RB2310-2311</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -6618,7 +6618,7 @@
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>RB2312-2401</t>
+          <t>RB2311-2312</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -6652,13 +6652,13 @@
         <v>20</v>
       </c>
       <c r="L155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>RB2401-2402</t>
+          <t>RB2312-2401</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -6698,7 +6698,7 @@
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>RB2402-2403</t>
+          <t>RB2401-2402</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -6738,7 +6738,7 @@
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>RB2403-2404</t>
+          <t>RB2402-2403</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -6778,17 +6778,17 @@
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>RM2307-2308</t>
+          <t>RB2403-2404</t>
         </is>
       </c>
       <c r="B159" t="n">
         <v>0</v>
       </c>
       <c r="C159" t="n">
-        <v>-70</v>
+        <v>-99999</v>
       </c>
       <c r="D159" t="n">
-        <v>-100</v>
+        <v>-99999</v>
       </c>
       <c r="E159" t="n">
         <v>-99999</v>
@@ -6809,35 +6809,35 @@
         <v>-99999</v>
       </c>
       <c r="K159" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L159" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>RM2308-2309</t>
+          <t>RM2307-2308</t>
         </is>
       </c>
       <c r="B160" t="n">
         <v>0</v>
       </c>
       <c r="C160" t="n">
-        <v>10</v>
+        <v>-70</v>
       </c>
       <c r="D160" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E160" t="n">
-        <v>-5</v>
+        <v>-99999</v>
       </c>
       <c r="F160" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="G160" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="H160" t="n">
         <v>-99999</v>
@@ -6849,7 +6849,7 @@
         <v>-99999</v>
       </c>
       <c r="K160" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L160" t="n">
         <v>3</v>
@@ -6858,7 +6858,7 @@
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>RM2309-2311</t>
+          <t>RM2308-2309</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -6898,26 +6898,26 @@
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>RM2401-2403</t>
+          <t>RM2309-2311</t>
         </is>
       </c>
       <c r="B162" t="n">
         <v>0</v>
       </c>
       <c r="C162" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D162" t="n">
+        <v>0</v>
+      </c>
+      <c r="E162" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F162" t="n">
         <v>-10</v>
       </c>
-      <c r="E162" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F162" t="n">
-        <v>-99999</v>
-      </c>
       <c r="G162" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="H162" t="n">
         <v>-99999</v>
@@ -6938,20 +6938,20 @@
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>RM2405-2407</t>
+          <t>RM2401-2403</t>
         </is>
       </c>
       <c r="B163" t="n">
         <v>0</v>
       </c>
       <c r="C163" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D163" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="E163" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="F163" t="n">
         <v>-99999</v>
@@ -6969,26 +6969,26 @@
         <v>-99999</v>
       </c>
       <c r="K163" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="L163" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>RR2308-2309</t>
+          <t>RM2405-2407</t>
         </is>
       </c>
       <c r="B164" t="n">
         <v>0</v>
       </c>
       <c r="C164" t="n">
-        <v>-75</v>
+        <v>30</v>
       </c>
       <c r="D164" t="n">
-        <v>-80</v>
+        <v>-99999</v>
       </c>
       <c r="E164" t="n">
         <v>-99999</v>
@@ -7009,7 +7009,7 @@
         <v>-99999</v>
       </c>
       <c r="K164" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L164" t="n">
         <v>2</v>
@@ -7018,17 +7018,17 @@
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>RR2309-2310</t>
+          <t>RR2308-2309</t>
         </is>
       </c>
       <c r="B165" t="n">
         <v>0</v>
       </c>
       <c r="C165" t="n">
-        <v>-72</v>
+        <v>-75</v>
       </c>
       <c r="D165" t="n">
-        <v>-99999</v>
+        <v>-80</v>
       </c>
       <c r="E165" t="n">
         <v>-99999</v>
@@ -7049,29 +7049,29 @@
         <v>-99999</v>
       </c>
       <c r="K165" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="L165" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>RR2312-2401</t>
+          <t>RR2309-2310</t>
         </is>
       </c>
       <c r="B166" t="n">
         <v>0</v>
       </c>
       <c r="C166" t="n">
-        <v>-60</v>
+        <v>-72</v>
       </c>
       <c r="D166" t="n">
-        <v>-65</v>
+        <v>-99999</v>
       </c>
       <c r="E166" t="n">
-        <v>-70</v>
+        <v>-99999</v>
       </c>
       <c r="F166" t="n">
         <v>-99999</v>
@@ -7089,29 +7089,29 @@
         <v>-99999</v>
       </c>
       <c r="K166" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="L166" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>RU2307-2308</t>
+          <t>RR2312-2401</t>
         </is>
       </c>
       <c r="B167" t="n">
         <v>0</v>
       </c>
       <c r="C167" t="n">
-        <v>-100</v>
+        <v>-60</v>
       </c>
       <c r="D167" t="n">
-        <v>-100</v>
+        <v>-65</v>
       </c>
       <c r="E167" t="n">
-        <v>-99999</v>
+        <v>-70</v>
       </c>
       <c r="F167" t="n">
         <v>-99999</v>
@@ -7129,7 +7129,7 @@
         <v>-99999</v>
       </c>
       <c r="K167" t="n">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="L167" t="n">
         <v>1</v>
@@ -7138,17 +7138,17 @@
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>RU2308-2309</t>
+          <t>RU2307-2308</t>
         </is>
       </c>
       <c r="B168" t="n">
         <v>0</v>
       </c>
       <c r="C168" t="n">
-        <v>-75</v>
+        <v>-100</v>
       </c>
       <c r="D168" t="n">
-        <v>-99999</v>
+        <v>-100</v>
       </c>
       <c r="E168" t="n">
         <v>-99999</v>
@@ -7169,7 +7169,7 @@
         <v>-99999</v>
       </c>
       <c r="K168" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L168" t="n">
         <v>1</v>
@@ -7178,17 +7178,17 @@
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>RU2309-2310</t>
+          <t>RU2308-2309</t>
         </is>
       </c>
       <c r="B169" t="n">
         <v>0</v>
       </c>
       <c r="C169" t="n">
-        <v>-60</v>
+        <v>-75</v>
       </c>
       <c r="D169" t="n">
-        <v>-110</v>
+        <v>-99999</v>
       </c>
       <c r="E169" t="n">
         <v>-99999</v>
@@ -7209,7 +7209,7 @@
         <v>-99999</v>
       </c>
       <c r="K169" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L169" t="n">
         <v>1</v>
@@ -7218,20 +7218,20 @@
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>RU2310-2311</t>
+          <t>RU2309-2310</t>
         </is>
       </c>
       <c r="B170" t="n">
         <v>0</v>
       </c>
       <c r="C170" t="n">
-        <v>0</v>
+        <v>-60</v>
       </c>
       <c r="D170" t="n">
-        <v>-70</v>
+        <v>-110</v>
       </c>
       <c r="E170" t="n">
-        <v>-80</v>
+        <v>-99999</v>
       </c>
       <c r="F170" t="n">
         <v>-99999</v>
@@ -7258,20 +7258,20 @@
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>RU2311-2401</t>
+          <t>RU2310-2311</t>
         </is>
       </c>
       <c r="B171" t="n">
         <v>0</v>
       </c>
       <c r="C171" t="n">
-        <v>-1800</v>
+        <v>0</v>
       </c>
       <c r="D171" t="n">
-        <v>-99999</v>
+        <v>-70</v>
       </c>
       <c r="E171" t="n">
-        <v>-99999</v>
+        <v>-80</v>
       </c>
       <c r="F171" t="n">
         <v>-99999</v>
@@ -7289,7 +7289,7 @@
         <v>-99999</v>
       </c>
       <c r="K171" t="n">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c r="L171" t="n">
         <v>1</v>
@@ -7298,17 +7298,17 @@
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>RU2401-2403</t>
+          <t>RU2311-2401</t>
         </is>
       </c>
       <c r="B172" t="n">
         <v>0</v>
       </c>
       <c r="C172" t="n">
-        <v>-100</v>
+        <v>-1800</v>
       </c>
       <c r="D172" t="n">
-        <v>-120</v>
+        <v>-99999</v>
       </c>
       <c r="E172" t="n">
         <v>-99999</v>
@@ -7329,7 +7329,7 @@
         <v>-99999</v>
       </c>
       <c r="K172" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="L172" t="n">
         <v>1</v>
@@ -7338,20 +7338,20 @@
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>RU2403-2404</t>
+          <t>RU2401-2403</t>
         </is>
       </c>
       <c r="B173" t="n">
         <v>0</v>
       </c>
       <c r="C173" t="n">
-        <v>-60</v>
+        <v>-100</v>
       </c>
       <c r="D173" t="n">
-        <v>-70</v>
+        <v>-120</v>
       </c>
       <c r="E173" t="n">
-        <v>-80</v>
+        <v>-99999</v>
       </c>
       <c r="F173" t="n">
         <v>-99999</v>
@@ -7369,7 +7369,7 @@
         <v>-99999</v>
       </c>
       <c r="K173" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="L173" t="n">
         <v>1</v>
@@ -7378,20 +7378,20 @@
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>SA2308-2309</t>
+          <t>RU2403-2404</t>
         </is>
       </c>
       <c r="B174" t="n">
         <v>0</v>
       </c>
       <c r="C174" t="n">
-        <v>0</v>
+        <v>-60</v>
       </c>
       <c r="D174" t="n">
-        <v>-99999</v>
+        <v>-70</v>
       </c>
       <c r="E174" t="n">
-        <v>-99999</v>
+        <v>-80</v>
       </c>
       <c r="F174" t="n">
         <v>-99999</v>
@@ -7409,7 +7409,7 @@
         <v>-99999</v>
       </c>
       <c r="K174" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="L174" t="n">
         <v>1</v>
@@ -7418,7 +7418,7 @@
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>SA2310-2311</t>
+          <t>SA2308-2309</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -7458,7 +7458,7 @@
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>SA2311-2312</t>
+          <t>SA2310-2311</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -7468,7 +7468,7 @@
         <v>0</v>
       </c>
       <c r="D176" t="n">
-        <v>-3</v>
+        <v>-99999</v>
       </c>
       <c r="E176" t="n">
         <v>-99999</v>
@@ -7489,26 +7489,26 @@
         <v>-99999</v>
       </c>
       <c r="K176" t="n">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="L176" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>SA2312-2401</t>
+          <t>SA2311-2312</t>
         </is>
       </c>
       <c r="B177" t="n">
         <v>0</v>
       </c>
       <c r="C177" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D177" t="n">
-        <v>-99999</v>
+        <v>-3</v>
       </c>
       <c r="E177" t="n">
         <v>-99999</v>
@@ -7529,29 +7529,29 @@
         <v>-99999</v>
       </c>
       <c r="K177" t="n">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="L177" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>SA2401-2402</t>
+          <t>SA2312-2401</t>
         </is>
       </c>
       <c r="B178" t="n">
         <v>0</v>
       </c>
       <c r="C178" t="n">
-        <v>-25</v>
+        <v>22</v>
       </c>
       <c r="D178" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="E178" t="n">
-        <v>-35</v>
+        <v>-99999</v>
       </c>
       <c r="F178" t="n">
         <v>-99999</v>
@@ -7569,7 +7569,7 @@
         <v>-99999</v>
       </c>
       <c r="K178" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="L178" t="n">
         <v>2</v>
@@ -7578,20 +7578,20 @@
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>SA2402-2403</t>
+          <t>SA2401-2402</t>
         </is>
       </c>
       <c r="B179" t="n">
         <v>0</v>
       </c>
       <c r="C179" t="n">
-        <v>10</v>
+        <v>-25</v>
       </c>
       <c r="D179" t="n">
-        <v>7</v>
+        <v>-30</v>
       </c>
       <c r="E179" t="n">
-        <v>5</v>
+        <v>-35</v>
       </c>
       <c r="F179" t="n">
         <v>-99999</v>
@@ -7609,7 +7609,7 @@
         <v>-99999</v>
       </c>
       <c r="K179" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L179" t="n">
         <v>2</v>
@@ -7618,20 +7618,20 @@
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>SA2403-2404</t>
+          <t>SA2402-2403</t>
         </is>
       </c>
       <c r="B180" t="n">
         <v>0</v>
       </c>
       <c r="C180" t="n">
-        <v>-35</v>
+        <v>10</v>
       </c>
       <c r="D180" t="n">
-        <v>-40</v>
+        <v>7</v>
       </c>
       <c r="E180" t="n">
-        <v>-99999</v>
+        <v>5</v>
       </c>
       <c r="F180" t="n">
         <v>-99999</v>
@@ -7649,7 +7649,7 @@
         <v>-99999</v>
       </c>
       <c r="K180" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L180" t="n">
         <v>2</v>
@@ -7658,23 +7658,23 @@
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>SC2307-2308</t>
+          <t>SA2403-2404</t>
         </is>
       </c>
       <c r="B181" t="n">
         <v>0</v>
       </c>
       <c r="C181" t="n">
-        <v>1</v>
+        <v>-35</v>
       </c>
       <c r="D181" t="n">
-        <v>-3.5</v>
+        <v>-40</v>
       </c>
       <c r="E181" t="n">
-        <v>-3.5</v>
+        <v>-99999</v>
       </c>
       <c r="F181" t="n">
-        <v>-3.5</v>
+        <v>-99999</v>
       </c>
       <c r="G181" t="n">
         <v>-99999</v>
@@ -7689,32 +7689,32 @@
         <v>-99999</v>
       </c>
       <c r="K181" t="n">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="L181" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>SC2308-2309</t>
+          <t>SC2307-2308</t>
         </is>
       </c>
       <c r="B182" t="n">
         <v>0</v>
       </c>
       <c r="C182" t="n">
-        <v>-99999</v>
+        <v>1</v>
       </c>
       <c r="D182" t="n">
-        <v>-99999</v>
+        <v>-3.5</v>
       </c>
       <c r="E182" t="n">
-        <v>-99999</v>
+        <v>-3.5</v>
       </c>
       <c r="F182" t="n">
-        <v>-99999</v>
+        <v>-3.5</v>
       </c>
       <c r="G182" t="n">
         <v>-99999</v>
@@ -7729,7 +7729,7 @@
         <v>-99999</v>
       </c>
       <c r="K182" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L182" t="n">
         <v>1</v>
@@ -7738,7 +7738,7 @@
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>SC2309-2308</t>
+          <t>SC2308-2309</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -7769,7 +7769,7 @@
         <v>-99999</v>
       </c>
       <c r="K183" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="L183" t="n">
         <v>1</v>
@@ -7778,17 +7778,17 @@
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>SC2309-2310</t>
+          <t>SC2309-2308</t>
         </is>
       </c>
       <c r="B184" t="n">
         <v>0</v>
       </c>
       <c r="C184" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="D184" t="n">
-        <v>-1</v>
+        <v>-99999</v>
       </c>
       <c r="E184" t="n">
         <v>-99999</v>
@@ -7809,7 +7809,7 @@
         <v>-99999</v>
       </c>
       <c r="K184" t="n">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="L184" t="n">
         <v>1</v>
@@ -7818,17 +7818,17 @@
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>SC2310-2309</t>
+          <t>SC2309-2310</t>
         </is>
       </c>
       <c r="B185" t="n">
         <v>0</v>
       </c>
       <c r="C185" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="D185" t="n">
-        <v>-99999</v>
+        <v>-1</v>
       </c>
       <c r="E185" t="n">
         <v>-99999</v>
@@ -7849,7 +7849,7 @@
         <v>-99999</v>
       </c>
       <c r="K185" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L185" t="n">
         <v>1</v>
@@ -7858,14 +7858,14 @@
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>SC2310-2311</t>
+          <t>SC2310-2309</t>
         </is>
       </c>
       <c r="B186" t="n">
         <v>0</v>
       </c>
       <c r="C186" t="n">
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="D186" t="n">
         <v>-99999</v>
@@ -7889,7 +7889,7 @@
         <v>-99999</v>
       </c>
       <c r="K186" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L186" t="n">
         <v>1</v>
@@ -7898,14 +7898,14 @@
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>SC2311-2312</t>
+          <t>SC2310-2311</t>
         </is>
       </c>
       <c r="B187" t="n">
         <v>0</v>
       </c>
       <c r="C187" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D187" t="n">
         <v>-99999</v>
@@ -7938,17 +7938,17 @@
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>SI2309-2311</t>
+          <t>SC2311-2312</t>
         </is>
       </c>
       <c r="B188" t="n">
         <v>0</v>
       </c>
       <c r="C188" t="n">
-        <v>-80</v>
+        <v>-2</v>
       </c>
       <c r="D188" t="n">
-        <v>-100</v>
+        <v>-99999</v>
       </c>
       <c r="E188" t="n">
         <v>-99999</v>
@@ -7969,7 +7969,7 @@
         <v>-99999</v>
       </c>
       <c r="K188" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="L188" t="n">
         <v>1</v>
@@ -8431,10 +8431,10 @@
         <v>-140</v>
       </c>
       <c r="E200" t="n">
-        <v>-165</v>
+        <v>-180</v>
       </c>
       <c r="F200" t="n">
-        <v>-182</v>
+        <v>-210</v>
       </c>
       <c r="G200" t="n">
         <v>-99999</v>
@@ -8449,7 +8449,7 @@
         <v>-99999</v>
       </c>
       <c r="K200" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="L200" t="n">
         <v>2</v>
@@ -9388,7 +9388,7 @@
         <v>0</v>
       </c>
       <c r="D224" t="n">
-        <v>-29</v>
+        <v>-20</v>
       </c>
       <c r="E224" t="n">
         <v>-30</v>
@@ -9412,7 +9412,7 @@
         <v>5</v>
       </c>
       <c r="L224" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225">
@@ -10013,6 +10013,46 @@
       </c>
       <c r="L239" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="inlineStr">
+        <is>
+          <t>SI2309-2310</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>0</v>
+      </c>
+      <c r="C240" t="n">
+        <v>-80</v>
+      </c>
+      <c r="D240" t="n">
+        <v>-100</v>
+      </c>
+      <c r="E240" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="F240" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G240" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H240" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I240" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J240" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K240" t="n">
+        <v>10</v>
+      </c>
+      <c r="L240" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/info/region_info.xlsx
+++ b/info/region_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L240"/>
+  <dimension ref="A1:L241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,13 +505,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E2" t="n">
-        <v>-5</v>
+        <v>-99999</v>
       </c>
       <c r="F2" t="n">
         <v>-99999</v>
@@ -529,7 +529,7 @@
         <v>-99999</v>
       </c>
       <c r="K2" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="L2" t="n">
         <v>2</v>
@@ -785,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>-13</v>
+        <v>-14</v>
       </c>
       <c r="D9" t="n">
-        <v>-14</v>
+        <v>-15</v>
       </c>
       <c r="E9" t="n">
-        <v>-15</v>
+        <v>-16</v>
       </c>
       <c r="F9" t="n">
-        <v>-15</v>
+        <v>-17</v>
       </c>
       <c r="G9" t="n">
-        <v>-16</v>
+        <v>-17</v>
       </c>
       <c r="H9" t="n">
-        <v>-17</v>
+        <v>-18</v>
       </c>
       <c r="I9" t="n">
-        <v>-99999</v>
+        <v>-19</v>
       </c>
       <c r="J9" t="n">
         <v>-99999</v>
@@ -831,19 +831,19 @@
         <v>-15</v>
       </c>
       <c r="E10" t="n">
-        <v>-15</v>
+        <v>-16</v>
       </c>
       <c r="F10" t="n">
-        <v>-16</v>
+        <v>-17</v>
       </c>
       <c r="G10" t="n">
         <v>-17</v>
       </c>
       <c r="H10" t="n">
-        <v>-20</v>
+        <v>-18</v>
       </c>
       <c r="I10" t="n">
-        <v>-99999</v>
+        <v>-19</v>
       </c>
       <c r="J10" t="n">
         <v>-99999</v>
@@ -871,19 +871,19 @@
         <v>-15</v>
       </c>
       <c r="E11" t="n">
-        <v>-15</v>
+        <v>-16</v>
       </c>
       <c r="F11" t="n">
-        <v>-16</v>
+        <v>-17</v>
       </c>
       <c r="G11" t="n">
         <v>-17</v>
       </c>
       <c r="H11" t="n">
-        <v>-20</v>
+        <v>-18</v>
       </c>
       <c r="I11" t="n">
-        <v>-99999</v>
+        <v>-19</v>
       </c>
       <c r="J11" t="n">
         <v>-99999</v>
@@ -905,25 +905,25 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
+        <v>-14</v>
+      </c>
+      <c r="D12" t="n">
         <v>-15</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>-16</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>-17</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>-17</v>
+      </c>
+      <c r="H12" t="n">
         <v>-18</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>-19</v>
-      </c>
-      <c r="H12" t="n">
-        <v>-20</v>
-      </c>
-      <c r="I12" t="n">
-        <v>-20</v>
       </c>
       <c r="J12" t="n">
         <v>-99999</v>
@@ -951,19 +951,19 @@
         <v>-15</v>
       </c>
       <c r="E13" t="n">
-        <v>-15</v>
+        <v>-16</v>
       </c>
       <c r="F13" t="n">
-        <v>-16</v>
+        <v>-17</v>
       </c>
       <c r="G13" t="n">
         <v>-17</v>
       </c>
       <c r="H13" t="n">
-        <v>-20</v>
+        <v>-18</v>
       </c>
       <c r="I13" t="n">
-        <v>-99999</v>
+        <v>-19</v>
       </c>
       <c r="J13" t="n">
         <v>-99999</v>
@@ -985,25 +985,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
+        <v>-14</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-15</v>
+      </c>
+      <c r="E14" t="n">
         <v>-16</v>
       </c>
-      <c r="D14" t="n">
-        <v>-16</v>
-      </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>-17</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>-17</v>
+      </c>
+      <c r="H14" t="n">
         <v>-18</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>-19</v>
-      </c>
-      <c r="H14" t="n">
-        <v>-20</v>
-      </c>
-      <c r="I14" t="n">
-        <v>-99999</v>
       </c>
       <c r="J14" t="n">
         <v>-99999</v>
@@ -1012,7 +1012,7 @@
         <v>17</v>
       </c>
       <c r="L14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1031,19 +1031,19 @@
         <v>-15</v>
       </c>
       <c r="E15" t="n">
+        <v>-16</v>
+      </c>
+      <c r="F15" t="n">
         <v>-17</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>-17</v>
+      </c>
+      <c r="H15" t="n">
         <v>-18</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>-19</v>
-      </c>
-      <c r="H15" t="n">
-        <v>-20</v>
-      </c>
-      <c r="I15" t="n">
-        <v>-99999</v>
       </c>
       <c r="J15" t="n">
         <v>-99999</v>
@@ -1052,7 +1052,7 @@
         <v>17</v>
       </c>
       <c r="L15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1065,25 +1065,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
+        <v>-14</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-15</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-16</v>
+      </c>
+      <c r="F16" t="n">
         <v>-17</v>
       </c>
-      <c r="D16" t="n">
+      <c r="G16" t="n">
+        <v>-17</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-18</v>
+      </c>
+      <c r="I16" t="n">
         <v>-19</v>
-      </c>
-      <c r="E16" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F16" t="n">
-        <v>-21</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-22</v>
-      </c>
-      <c r="H16" t="n">
-        <v>-22</v>
-      </c>
-      <c r="I16" t="n">
-        <v>-99999</v>
       </c>
       <c r="J16" t="n">
         <v>-99999</v>
@@ -1092,7 +1092,7 @@
         <v>17</v>
       </c>
       <c r="L16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1105,25 +1105,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
+        <v>-14</v>
+      </c>
+      <c r="D17" t="n">
         <v>-15</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
+        <v>-16</v>
+      </c>
+      <c r="F17" t="n">
         <v>-17</v>
       </c>
-      <c r="E17" t="n">
+      <c r="G17" t="n">
+        <v>-17</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-18</v>
+      </c>
+      <c r="I17" t="n">
         <v>-19</v>
-      </c>
-      <c r="F17" t="n">
-        <v>-21</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-23</v>
-      </c>
-      <c r="H17" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="I17" t="n">
-        <v>-99999</v>
       </c>
       <c r="J17" t="n">
         <v>-99999</v>
@@ -1305,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>10</v>
+        <v>-20</v>
       </c>
       <c r="D22" t="n">
-        <v>-10</v>
+        <v>-40</v>
       </c>
       <c r="E22" t="n">
-        <v>-20</v>
+        <v>-60</v>
       </c>
       <c r="F22" t="n">
         <v>-100</v>
@@ -1345,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>-10</v>
+        <v>-40</v>
       </c>
       <c r="D23" t="n">
-        <v>-20</v>
+        <v>-50</v>
       </c>
       <c r="E23" t="n">
-        <v>-30</v>
+        <v>-60</v>
       </c>
       <c r="F23" t="n">
         <v>-100</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>10</v>
+        <v>-50</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>-75</v>
       </c>
       <c r="E24" t="n">
         <v>-100</v>
@@ -1425,10 +1425,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>-1.14</v>
+        <v>-1.24</v>
       </c>
       <c r="D25" t="n">
-        <v>-1.22</v>
+        <v>-1.28</v>
       </c>
       <c r="E25" t="n">
         <v>-1.32</v>
@@ -1443,13 +1443,13 @@
         <v>-1.42</v>
       </c>
       <c r="I25" t="n">
-        <v>-99999</v>
+        <v>-1.56</v>
       </c>
       <c r="J25" t="n">
-        <v>-99999</v>
+        <v>-1.56</v>
       </c>
       <c r="K25" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L25" t="n">
         <v>1</v>
@@ -1465,31 +1465,31 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>-1.22</v>
+        <v>-1.24</v>
       </c>
       <c r="D26" t="n">
         <v>-1.28</v>
       </c>
       <c r="E26" t="n">
+        <v>-1.32</v>
+      </c>
+      <c r="F26" t="n">
         <v>-1.34</v>
       </c>
-      <c r="F26" t="n">
-        <v>-1.38</v>
-      </c>
       <c r="G26" t="n">
+        <v>-1.36</v>
+      </c>
+      <c r="H26" t="n">
         <v>-1.42</v>
-      </c>
-      <c r="H26" t="n">
-        <v>-1.46</v>
       </c>
       <c r="I26" t="n">
         <v>-1.56</v>
       </c>
       <c r="J26" t="n">
-        <v>-1.7</v>
+        <v>-1.56</v>
       </c>
       <c r="K26" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L26" t="n">
         <v>1</v>
@@ -1505,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
+        <v>-1.24</v>
+      </c>
+      <c r="D27" t="n">
         <v>-1.28</v>
       </c>
-      <c r="D27" t="n">
+      <c r="E27" t="n">
         <v>-1.32</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>-1.34</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="n">
         <v>-1.36</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27" t="n">
         <v>-1.42</v>
-      </c>
-      <c r="H27" t="n">
-        <v>-1.56</v>
       </c>
       <c r="I27" t="n">
         <v>-1.56</v>
       </c>
       <c r="J27" t="n">
-        <v>-1.7</v>
+        <v>-1.56</v>
       </c>
       <c r="K27" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L27" t="n">
         <v>1</v>
@@ -1545,28 +1545,28 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
+        <v>-1.24</v>
+      </c>
+      <c r="D28" t="n">
         <v>-1.28</v>
       </c>
-      <c r="D28" t="n">
+      <c r="E28" t="n">
+        <v>-1.32</v>
+      </c>
+      <c r="F28" t="n">
         <v>-1.34</v>
       </c>
-      <c r="E28" t="n">
-        <v>-1.38</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="G28" t="n">
+        <v>-1.36</v>
+      </c>
+      <c r="H28" t="n">
         <v>-1.42</v>
       </c>
-      <c r="G28" t="n">
-        <v>-1.46</v>
-      </c>
-      <c r="H28" t="n">
-        <v>-1.52</v>
-      </c>
       <c r="I28" t="n">
-        <v>-99999</v>
+        <v>-1.56</v>
       </c>
       <c r="J28" t="n">
-        <v>-99999</v>
+        <v>-1.56</v>
       </c>
       <c r="K28" t="n">
         <v>25</v>
@@ -1578,69 +1578,69 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>B2309-2310</t>
+          <t>AU2406-2408</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>-1.24</v>
       </c>
       <c r="D29" t="n">
-        <v>-10</v>
+        <v>-1.28</v>
       </c>
       <c r="E29" t="n">
-        <v>-20</v>
+        <v>-1.32</v>
       </c>
       <c r="F29" t="n">
-        <v>-30</v>
+        <v>-1.34</v>
       </c>
       <c r="G29" t="n">
-        <v>-60</v>
+        <v>-1.36</v>
       </c>
       <c r="H29" t="n">
-        <v>-99999</v>
+        <v>-1.42</v>
       </c>
       <c r="I29" t="n">
-        <v>-99999</v>
+        <v>-1.56</v>
       </c>
       <c r="J29" t="n">
-        <v>-99999</v>
+        <v>-1.56</v>
       </c>
       <c r="K29" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="L29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>B2310-2311</t>
+          <t>B2309-2310</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="E30" t="n">
-        <v>-5</v>
+        <v>-99999</v>
       </c>
       <c r="F30" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="G30" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="H30" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="I30" t="n">
         <v>-99999</v>
@@ -1649,29 +1649,29 @@
         <v>-99999</v>
       </c>
       <c r="K30" t="n">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="L30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>BR2401-2402</t>
+          <t>B2310-2311</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>25</v>
+        <v>-99999</v>
       </c>
       <c r="D31" t="n">
-        <v>15</v>
+        <v>-99999</v>
       </c>
       <c r="E31" t="n">
-        <v>-5</v>
+        <v>-99999</v>
       </c>
       <c r="F31" t="n">
         <v>-99999</v>
@@ -1689,7 +1689,7 @@
         <v>-99999</v>
       </c>
       <c r="K31" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="L31" t="n">
         <v>1</v>
@@ -1698,17 +1698,17 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>BR2402-2403</t>
+          <t>BR2401-2402</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D32" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E32" t="n">
         <v>-5</v>
@@ -1738,7 +1738,7 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>BR2403-2404</t>
+          <t>BR2402-2403</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1778,7 +1778,7 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>BR2404-2405</t>
+          <t>BR2403-2404</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1818,7 +1818,7 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>BR2405-2406</t>
+          <t>BR2404-2405</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1858,26 +1858,26 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>BU2309-2310</t>
+          <t>BR2405-2406</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>0</v>
       </c>
       <c r="C36" t="n">
+        <v>20</v>
+      </c>
+      <c r="D36" t="n">
+        <v>10</v>
+      </c>
+      <c r="E36" t="n">
         <v>-5</v>
       </c>
-      <c r="D36" t="n">
-        <v>-10</v>
-      </c>
-      <c r="E36" t="n">
-        <v>-20</v>
-      </c>
       <c r="F36" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="G36" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="H36" t="n">
         <v>-99999</v>
@@ -1889,7 +1889,7 @@
         <v>-99999</v>
       </c>
       <c r="K36" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="L36" t="n">
         <v>1</v>
@@ -1898,7 +1898,7 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>BU2310-2311</t>
+          <t>BU2309-2310</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1938,7 +1938,7 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>BU2311-2312</t>
+          <t>BU2310-2311</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1978,7 +1978,7 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>BU2312-2401</t>
+          <t>BU2311-2312</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -2018,7 +2018,7 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>BU2401-2402</t>
+          <t>BU2312-2401</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -2058,7 +2058,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>BU2402-2403</t>
+          <t>BU2401-2402</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -2098,7 +2098,7 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>BU2403-2404</t>
+          <t>BU2402-2403</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -2138,7 +2138,7 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>BU2404-2405</t>
+          <t>BU2403-2404</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -2178,7 +2178,7 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>BU2405-2406</t>
+          <t>BU2404-2405</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -2218,26 +2218,26 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>C2309-2311</t>
+          <t>BU2405-2406</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>-99999</v>
+        <v>-5</v>
       </c>
       <c r="D45" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="E45" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="F45" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="G45" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="H45" t="n">
         <v>-99999</v>
@@ -2249,16 +2249,16 @@
         <v>-99999</v>
       </c>
       <c r="K45" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="L45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>C2311-2309</t>
+          <t>C2309-2311</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -2289,7 +2289,7 @@
         <v>-99999</v>
       </c>
       <c r="K46" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="L46" t="n">
         <v>3</v>
@@ -2298,14 +2298,14 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>C2311-2401</t>
+          <t>C2311-2309</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>70</v>
+        <v>-99999</v>
       </c>
       <c r="D47" t="n">
         <v>-99999</v>
@@ -2329,29 +2329,29 @@
         <v>-99999</v>
       </c>
       <c r="K47" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="L47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>C2401-2403</t>
+          <t>C2311-2401</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D48" t="n">
-        <v>15</v>
+        <v>-99999</v>
       </c>
       <c r="E48" t="n">
-        <v>5</v>
+        <v>-99999</v>
       </c>
       <c r="F48" t="n">
         <v>-99999</v>
@@ -2369,7 +2369,7 @@
         <v>-99999</v>
       </c>
       <c r="K48" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="L48" t="n">
         <v>2</v>
@@ -2378,14 +2378,14 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>C2403-2405</t>
+          <t>C2401-2403</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>-55</v>
+        <v>15</v>
       </c>
       <c r="D49" t="n">
         <v>-99999</v>
@@ -2409,7 +2409,7 @@
         <v>-99999</v>
       </c>
       <c r="K49" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="L49" t="n">
         <v>2</v>
@@ -2418,17 +2418,17 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>CF2309-2311</t>
+          <t>C2403-2405</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>-210</v>
+        <v>-55</v>
       </c>
       <c r="D50" t="n">
-        <v>-230</v>
+        <v>-99999</v>
       </c>
       <c r="E50" t="n">
         <v>-99999</v>
@@ -2458,17 +2458,17 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>CF2311-2401</t>
+          <t>CF2309-2311</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>-99999</v>
+        <v>-210</v>
       </c>
       <c r="D51" t="n">
-        <v>-99999</v>
+        <v>-230</v>
       </c>
       <c r="E51" t="n">
         <v>-99999</v>
@@ -2489,16 +2489,16 @@
         <v>-99999</v>
       </c>
       <c r="K51" t="n">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="L51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>CS2307-2309</t>
+          <t>CF2311-2401</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -2529,16 +2529,16 @@
         <v>-99999</v>
       </c>
       <c r="K52" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="L52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>CS2309-2311</t>
+          <t>CS2307-2309</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -2578,7 +2578,7 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>CS2311-2309</t>
+          <t>CS2309-2311</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -2618,14 +2618,14 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>CS2311-2401</t>
+          <t>CS2311-2309</t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="D55" t="n">
         <v>-99999</v>
@@ -2658,14 +2658,14 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>CS2403-2405</t>
+          <t>CS2311-2401</t>
         </is>
       </c>
       <c r="B56" t="n">
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>-150</v>
+        <v>-20</v>
       </c>
       <c r="D56" t="n">
         <v>-99999</v>
@@ -2689,7 +2689,7 @@
         <v>-99999</v>
       </c>
       <c r="K56" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="L56" t="n">
         <v>1</v>
@@ -2698,26 +2698,26 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>EG2309-2310</t>
+          <t>CS2403-2405</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>-40</v>
+        <v>-150</v>
       </c>
       <c r="D57" t="n">
-        <v>-70</v>
+        <v>-99999</v>
       </c>
       <c r="E57" t="n">
-        <v>-75</v>
+        <v>-99999</v>
       </c>
       <c r="F57" t="n">
-        <v>-81</v>
+        <v>-99999</v>
       </c>
       <c r="G57" t="n">
-        <v>-81</v>
+        <v>-99999</v>
       </c>
       <c r="H57" t="n">
         <v>-99999</v>
@@ -2729,10 +2729,10 @@
         <v>-99999</v>
       </c>
       <c r="K57" t="n">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="L57" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2748,16 +2748,16 @@
         <v>-34</v>
       </c>
       <c r="D58" t="n">
-        <v>-36</v>
+        <v>-40</v>
       </c>
       <c r="E58" t="n">
-        <v>-60</v>
+        <v>-99999</v>
       </c>
       <c r="F58" t="n">
-        <v>-70</v>
+        <v>-99999</v>
       </c>
       <c r="G58" t="n">
-        <v>-80</v>
+        <v>-99999</v>
       </c>
       <c r="H58" t="n">
         <v>-99999</v>
@@ -2785,16 +2785,16 @@
         <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>-24</v>
+        <v>-32</v>
       </c>
       <c r="D59" t="n">
-        <v>-32</v>
+        <v>-40</v>
       </c>
       <c r="E59" t="n">
-        <v>-40</v>
+        <v>-99999</v>
       </c>
       <c r="F59" t="n">
-        <v>-40</v>
+        <v>-99999</v>
       </c>
       <c r="G59" t="n">
         <v>-99999</v>
@@ -2825,13 +2825,13 @@
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>-24</v>
+        <v>-32</v>
       </c>
       <c r="D60" t="n">
-        <v>-32</v>
+        <v>-40</v>
       </c>
       <c r="E60" t="n">
-        <v>-40</v>
+        <v>-99999</v>
       </c>
       <c r="F60" t="n">
         <v>-99999</v>
@@ -2865,10 +2865,10 @@
         <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>-24</v>
+        <v>-32</v>
       </c>
       <c r="D61" t="n">
-        <v>-32</v>
+        <v>-40</v>
       </c>
       <c r="E61" t="n">
         <v>-99999</v>
@@ -2905,10 +2905,10 @@
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>-20</v>
+        <v>-32</v>
       </c>
       <c r="D62" t="n">
-        <v>-30</v>
+        <v>-40</v>
       </c>
       <c r="E62" t="n">
         <v>-99999</v>
@@ -2978,17 +2978,17 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>FG2309-2310</t>
+          <t>EG2404-2405</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>-30</v>
+        <v>-24</v>
       </c>
       <c r="D64" t="n">
-        <v>-60</v>
+        <v>-99999</v>
       </c>
       <c r="E64" t="n">
         <v>-99999</v>
@@ -3009,10 +3009,10 @@
         <v>-99999</v>
       </c>
       <c r="K64" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65">
@@ -4178,14 +4178,14 @@
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>IC2309-2312</t>
+          <t>IC2309-2310</t>
         </is>
       </c>
       <c r="B94" t="n">
         <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>-99999</v>
+        <v>-8</v>
       </c>
       <c r="D94" t="n">
         <v>-99999</v>
@@ -4208,8 +4208,10 @@
       <c r="J94" t="n">
         <v>-99999</v>
       </c>
-      <c r="K94" t="n">
-        <v>20</v>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
       </c>
       <c r="L94" t="n">
         <v>1</v>
@@ -4218,17 +4220,17 @@
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>IF2308-2309</t>
+          <t>IC2309-2312</t>
         </is>
       </c>
       <c r="B95" t="n">
         <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="D95" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="E95" t="n">
         <v>-99999</v>
@@ -4248,8 +4250,10 @@
       <c r="J95" t="n">
         <v>-99999</v>
       </c>
-      <c r="K95" t="n">
-        <v>25</v>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
       </c>
       <c r="L95" t="n">
         <v>1</v>
@@ -4258,20 +4262,22 @@
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>IF2309-2312</t>
+          <t>IF2309-2310</t>
         </is>
       </c>
       <c r="B96" t="n">
         <v>0</v>
       </c>
       <c r="C96" t="n">
-        <v>-12</v>
+        <v>-10</v>
       </c>
       <c r="D96" t="n">
-        <v>-20</v>
-      </c>
-      <c r="E96" t="n">
-        <v>-30</v>
+        <v>-13</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>-14</t>
+        </is>
       </c>
       <c r="F96" t="n">
         <v>-99999</v>
@@ -4288,8 +4294,10 @@
       <c r="J96" t="n">
         <v>-99999</v>
       </c>
-      <c r="K96" t="n">
-        <v>40</v>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
       </c>
       <c r="L96" t="n">
         <v>1</v>
@@ -4298,29 +4306,35 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>IF2312-2403</t>
+          <t>IF2309-2312</t>
         </is>
       </c>
       <c r="B97" t="n">
         <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>-32</v>
+        <v>-26</v>
       </c>
       <c r="D97" t="n">
-        <v>-99999</v>
+        <v>-26</v>
       </c>
       <c r="E97" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="F97" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="G97" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="H97" t="n">
-        <v>-99999</v>
+        <v>-27</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>-33</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>-33</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>-36</t>
+        </is>
       </c>
       <c r="I97" t="n">
         <v>-99999</v>
@@ -4328,8 +4342,10 @@
       <c r="J97" t="n">
         <v>-99999</v>
       </c>
-      <c r="K97" t="n">
-        <v>25</v>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
       </c>
       <c r="L97" t="n">
         <v>1</v>
@@ -4338,17 +4354,19 @@
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>IH2309-2312</t>
+          <t>IF2312-2403</t>
         </is>
       </c>
       <c r="B98" t="n">
         <v>0</v>
       </c>
-      <c r="C98" t="n">
-        <v>-12</v>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>-28</t>
+        </is>
       </c>
       <c r="D98" t="n">
-        <v>-17</v>
+        <v>-99999</v>
       </c>
       <c r="E98" t="n">
         <v>-99999</v>
@@ -4368,8 +4386,10 @@
       <c r="J98" t="n">
         <v>-99999</v>
       </c>
-      <c r="K98" t="n">
-        <v>30</v>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
       </c>
       <c r="L98" t="n">
         <v>1</v>
@@ -4378,17 +4398,17 @@
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>IH2312-2403</t>
+          <t>IH2309-2310</t>
         </is>
       </c>
       <c r="B99" t="n">
         <v>0</v>
       </c>
       <c r="C99" t="n">
-        <v>-18</v>
+        <v>-8</v>
       </c>
       <c r="D99" t="n">
-        <v>-22.8</v>
+        <v>-99999</v>
       </c>
       <c r="E99" t="n">
         <v>-99999</v>
@@ -4408,8 +4428,10 @@
       <c r="J99" t="n">
         <v>-99999</v>
       </c>
-      <c r="K99" t="n">
-        <v>50</v>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
       </c>
       <c r="L99" t="n">
         <v>1</v>
@@ -4418,17 +4440,21 @@
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>IM2309-2312</t>
+          <t>IH2309-2312</t>
         </is>
       </c>
       <c r="B100" t="n">
         <v>0</v>
       </c>
-      <c r="C100" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="D100" t="n">
-        <v>-99999</v>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>-20</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>-22</t>
+        </is>
       </c>
       <c r="E100" t="n">
         <v>-99999</v>
@@ -4448,8 +4474,10 @@
       <c r="J100" t="n">
         <v>-99999</v>
       </c>
-      <c r="K100" t="n">
-        <v>20</v>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
       </c>
       <c r="L100" t="n">
         <v>1</v>
@@ -4458,17 +4486,19 @@
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>JD2403-2404</t>
+          <t>IH2312-2403</t>
         </is>
       </c>
       <c r="B101" t="n">
         <v>0</v>
       </c>
       <c r="C101" t="n">
-        <v>-200</v>
-      </c>
-      <c r="D101" t="n">
-        <v>-99999</v>
+        <v>-24</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="E101" t="n">
         <v>-99999</v>
@@ -4488,30 +4518,32 @@
       <c r="J101" t="n">
         <v>-99999</v>
       </c>
-      <c r="K101" t="n">
-        <v>100</v>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
       </c>
       <c r="L101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>L2309-2310</t>
+          <t>IM2309-2312</t>
         </is>
       </c>
       <c r="B102" t="n">
         <v>0</v>
       </c>
       <c r="C102" t="n">
-        <v>-5</v>
+        <v>-99999</v>
       </c>
       <c r="D102" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="E102" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="F102" t="n">
         <v>-99999</v>
@@ -4528,33 +4560,35 @@
       <c r="J102" t="n">
         <v>-99999</v>
       </c>
-      <c r="K102" t="n">
-        <v>25</v>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
       </c>
       <c r="L102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>L2310-2311</t>
+          <t>JD2403-2404</t>
         </is>
       </c>
       <c r="B103" t="n">
         <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="D103" t="n">
-        <v>-5</v>
+        <v>-99999</v>
       </c>
       <c r="E103" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="F103" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="G103" t="n">
         <v>-99999</v>
@@ -4568,33 +4602,35 @@
       <c r="J103" t="n">
         <v>-99999</v>
       </c>
-      <c r="K103" t="n">
-        <v>25</v>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
       </c>
       <c r="L103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>L2311-2312</t>
+          <t>L2309-2310</t>
         </is>
       </c>
       <c r="B104" t="n">
         <v>0</v>
       </c>
       <c r="C104" t="n">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="D104" t="n">
-        <v>-5</v>
+        <v>-99999</v>
       </c>
       <c r="E104" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="F104" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="G104" t="n">
         <v>-99999</v>
@@ -4609,32 +4645,32 @@
         <v>-99999</v>
       </c>
       <c r="K104" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="L104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>L2312-2401</t>
+          <t>L2310-2311</t>
         </is>
       </c>
       <c r="B105" t="n">
         <v>0</v>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="D105" t="n">
-        <v>-5</v>
+        <v>-15</v>
       </c>
       <c r="E105" t="n">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="F105" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="G105" t="n">
         <v>-99999</v>
@@ -4658,23 +4694,23 @@
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>L2402-2403</t>
+          <t>L2311-2312</t>
         </is>
       </c>
       <c r="B106" t="n">
         <v>0</v>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="D106" t="n">
-        <v>-5</v>
+        <v>-15</v>
       </c>
       <c r="E106" t="n">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="F106" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="G106" t="n">
         <v>-99999</v>
@@ -4698,7 +4734,7 @@
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>L2405-2406</t>
+          <t>L2312-2401</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -4708,10 +4744,10 @@
         <v>-10</v>
       </c>
       <c r="D107" t="n">
-        <v>-20</v>
+        <v>-15</v>
       </c>
       <c r="E107" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="F107" t="n">
         <v>-99999</v>
@@ -4729,29 +4765,29 @@
         <v>-99999</v>
       </c>
       <c r="K107" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="L107" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>LU2309-2310</t>
+          <t>L2402-2403</t>
         </is>
       </c>
       <c r="B108" t="n">
         <v>0</v>
       </c>
       <c r="C108" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="D108" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="E108" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="F108" t="n">
         <v>-99999</v>
@@ -4769,7 +4805,7 @@
         <v>-99999</v>
       </c>
       <c r="K108" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="L108" t="n">
         <v>3</v>
@@ -4778,29 +4814,29 @@
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>LU2310-2311</t>
+          <t>L2405-2406</t>
         </is>
       </c>
       <c r="B109" t="n">
         <v>0</v>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="D109" t="n">
-        <v>-10</v>
+        <v>-20</v>
       </c>
       <c r="E109" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="F109" t="n">
-        <v>-26</v>
+        <v>-99999</v>
       </c>
       <c r="G109" t="n">
-        <v>-28</v>
+        <v>-99999</v>
       </c>
       <c r="H109" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="I109" t="n">
         <v>-99999</v>
@@ -4809,7 +4845,7 @@
         <v>-99999</v>
       </c>
       <c r="K109" t="n">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="L109" t="n">
         <v>2</v>
@@ -4818,29 +4854,29 @@
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>M2309-2311</t>
+          <t>LU2310-2311</t>
         </is>
       </c>
       <c r="B110" t="n">
         <v>0</v>
       </c>
       <c r="C110" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="D110" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="E110" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="F110" t="n">
-        <v>-99999</v>
+        <v>-26</v>
       </c>
       <c r="G110" t="n">
-        <v>-99999</v>
+        <v>-28</v>
       </c>
       <c r="H110" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="I110" t="n">
         <v>-99999</v>
@@ -4849,26 +4885,26 @@
         <v>-99999</v>
       </c>
       <c r="K110" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L110" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>M2311-2312</t>
+          <t>M2309-2311</t>
         </is>
       </c>
       <c r="B111" t="n">
         <v>0</v>
       </c>
       <c r="C111" t="n">
-        <v>-40</v>
+        <v>-99999</v>
       </c>
       <c r="D111" t="n">
-        <v>-50</v>
+        <v>-99999</v>
       </c>
       <c r="E111" t="n">
         <v>-99999</v>
@@ -4889,29 +4925,29 @@
         <v>-99999</v>
       </c>
       <c r="K111" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="L111" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>M2312-2401</t>
+          <t>M2311-2312</t>
         </is>
       </c>
       <c r="B112" t="n">
         <v>0</v>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="D112" t="n">
-        <v>-5</v>
+        <v>-50</v>
       </c>
       <c r="E112" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="F112" t="n">
         <v>-99999</v>
@@ -4929,16 +4965,16 @@
         <v>-99999</v>
       </c>
       <c r="K112" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L112" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>M2401-2403</t>
+          <t>M2312-2401</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -4948,10 +4984,10 @@
         <v>0</v>
       </c>
       <c r="D113" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E113" t="n">
         <v>-10</v>
-      </c>
-      <c r="E113" t="n">
-        <v>-20</v>
       </c>
       <c r="F113" t="n">
         <v>-99999</v>
@@ -4978,20 +5014,20 @@
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>M2403-2405</t>
+          <t>M2401-2403</t>
         </is>
       </c>
       <c r="B114" t="n">
         <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="D114" t="n">
-        <v>-100</v>
+        <v>-10</v>
       </c>
       <c r="E114" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="F114" t="n">
         <v>-99999</v>
@@ -5018,23 +5054,23 @@
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>M2405-2407</t>
+          <t>M2403-2405</t>
         </is>
       </c>
       <c r="B115" t="n">
         <v>0</v>
       </c>
       <c r="C115" t="n">
-        <v>2</v>
+        <v>-50</v>
       </c>
       <c r="D115" t="n">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="E115" t="n">
-        <v>-25</v>
+        <v>-99999</v>
       </c>
       <c r="F115" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="G115" t="n">
         <v>-99999</v>
@@ -5049,7 +5085,7 @@
         <v>-99999</v>
       </c>
       <c r="K115" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="L115" t="n">
         <v>3</v>
@@ -5058,38 +5094,38 @@
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>MA2309-2310</t>
+          <t>M2405-2407</t>
         </is>
       </c>
       <c r="B116" t="n">
         <v>0</v>
       </c>
       <c r="C116" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D116" t="n">
-        <v>-35</v>
+        <v>-20</v>
       </c>
       <c r="E116" t="n">
-        <v>-40</v>
+        <v>-25</v>
       </c>
       <c r="F116" t="n">
-        <v>-40</v>
+        <v>-30</v>
       </c>
       <c r="G116" t="n">
-        <v>-43</v>
+        <v>-99999</v>
       </c>
       <c r="H116" t="n">
-        <v>-45</v>
+        <v>-99999</v>
       </c>
       <c r="I116" t="n">
-        <v>-60</v>
+        <v>-99999</v>
       </c>
       <c r="J116" t="n">
         <v>-99999</v>
       </c>
       <c r="K116" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="L116" t="n">
         <v>3</v>
@@ -5098,7 +5134,7 @@
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>MA2310-2311</t>
+          <t>MA2309-2310</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -5108,10 +5144,10 @@
         <v>-30</v>
       </c>
       <c r="D117" t="n">
-        <v>-35</v>
+        <v>-40</v>
       </c>
       <c r="E117" t="n">
-        <v>-50</v>
+        <v>-99999</v>
       </c>
       <c r="F117" t="n">
         <v>-99999</v>
@@ -5129,7 +5165,7 @@
         <v>-99999</v>
       </c>
       <c r="K117" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="L117" t="n">
         <v>3</v>
@@ -5138,21 +5174,21 @@
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>MA2311-2312</t>
+          <t>MA2310-2311</t>
         </is>
       </c>
       <c r="B118" t="n">
         <v>0</v>
       </c>
       <c r="C118" t="n">
-        <v>-45</v>
+        <v>-30</v>
       </c>
       <c r="D118" t="n">
+        <v>-35</v>
+      </c>
+      <c r="E118" t="n">
         <v>-50</v>
       </c>
-      <c r="E118" t="n">
-        <v>-99999</v>
-      </c>
       <c r="F118" t="n">
         <v>-99999</v>
       </c>
@@ -5169,29 +5205,29 @@
         <v>-99999</v>
       </c>
       <c r="K118" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="L118" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>MA2312-2401</t>
+          <t>MA2311-2312</t>
         </is>
       </c>
       <c r="B119" t="n">
         <v>0</v>
       </c>
       <c r="C119" t="n">
-        <v>-5</v>
+        <v>-45</v>
       </c>
       <c r="D119" t="n">
-        <v>-15</v>
+        <v>-50</v>
       </c>
       <c r="E119" t="n">
-        <v>-25</v>
+        <v>-99999</v>
       </c>
       <c r="F119" t="n">
         <v>-99999</v>
@@ -5209,29 +5245,29 @@
         <v>-99999</v>
       </c>
       <c r="K119" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L119" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>MA2402-2403</t>
+          <t>MA2312-2401</t>
         </is>
       </c>
       <c r="B120" t="n">
         <v>0</v>
       </c>
       <c r="C120" t="n">
-        <v>-99999</v>
+        <v>-5</v>
       </c>
       <c r="D120" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="E120" t="n">
-        <v>-99999</v>
+        <v>-25</v>
       </c>
       <c r="F120" t="n">
         <v>-99999</v>
@@ -5258,20 +5294,20 @@
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>NR2309-2310</t>
+          <t>MA2402-2403</t>
         </is>
       </c>
       <c r="B121" t="n">
         <v>0</v>
       </c>
       <c r="C121" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="D121" t="n">
-        <v>-40</v>
+        <v>-99999</v>
       </c>
       <c r="E121" t="n">
-        <v>-50</v>
+        <v>-99999</v>
       </c>
       <c r="F121" t="n">
         <v>-99999</v>
@@ -5292,7 +5328,7 @@
         <v>30</v>
       </c>
       <c r="L121" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122">
@@ -5425,22 +5461,22 @@
         <v>0</v>
       </c>
       <c r="C125" t="n">
-        <v>50</v>
+        <v>-20</v>
       </c>
       <c r="D125" t="n">
-        <v>18</v>
+        <v>-30</v>
       </c>
       <c r="E125" t="n">
-        <v>12</v>
+        <v>-99999</v>
       </c>
       <c r="F125" t="n">
-        <v>10</v>
+        <v>-99999</v>
       </c>
       <c r="G125" t="n">
-        <v>5</v>
+        <v>-99999</v>
       </c>
       <c r="H125" t="n">
-        <v>-17</v>
+        <v>-99999</v>
       </c>
       <c r="I125" t="n">
         <v>-99999</v>
@@ -5449,10 +5485,10 @@
         <v>-99999</v>
       </c>
       <c r="K125" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="L125" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126">
@@ -6145,13 +6181,13 @@
         <v>0</v>
       </c>
       <c r="C143" t="n">
-        <v>-10</v>
+        <v>-20</v>
       </c>
       <c r="D143" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="E143" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="F143" t="n">
         <v>-99999</v>
@@ -6185,19 +6221,19 @@
         <v>0</v>
       </c>
       <c r="C144" t="n">
-        <v>2</v>
+        <v>-5</v>
       </c>
       <c r="D144" t="n">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="E144" t="n">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="F144" t="n">
-        <v>-15</v>
+        <v>-20</v>
       </c>
       <c r="G144" t="n">
-        <v>-20</v>
+        <v>-25</v>
       </c>
       <c r="H144" t="n">
         <v>-99999</v>
@@ -6225,19 +6261,19 @@
         <v>0</v>
       </c>
       <c r="C145" t="n">
-        <v>2</v>
+        <v>-5</v>
       </c>
       <c r="D145" t="n">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="E145" t="n">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="F145" t="n">
-        <v>-15</v>
+        <v>-20</v>
       </c>
       <c r="G145" t="n">
-        <v>-20</v>
+        <v>-25</v>
       </c>
       <c r="H145" t="n">
         <v>-99999</v>
@@ -6265,19 +6301,19 @@
         <v>0</v>
       </c>
       <c r="C146" t="n">
-        <v>2</v>
+        <v>-5</v>
       </c>
       <c r="D146" t="n">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="E146" t="n">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="F146" t="n">
-        <v>-15</v>
+        <v>-20</v>
       </c>
       <c r="G146" t="n">
-        <v>-20</v>
+        <v>-25</v>
       </c>
       <c r="H146" t="n">
         <v>-99999</v>
@@ -6305,19 +6341,19 @@
         <v>0</v>
       </c>
       <c r="C147" t="n">
-        <v>2</v>
+        <v>-5</v>
       </c>
       <c r="D147" t="n">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="E147" t="n">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="F147" t="n">
-        <v>-15</v>
+        <v>-20</v>
       </c>
       <c r="G147" t="n">
-        <v>-20</v>
+        <v>-25</v>
       </c>
       <c r="H147" t="n">
         <v>-99999</v>
@@ -7529,7 +7565,7 @@
         <v>-99999</v>
       </c>
       <c r="K177" t="n">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="L177" t="n">
         <v>3</v>
@@ -7548,7 +7584,7 @@
         <v>22</v>
       </c>
       <c r="D178" t="n">
-        <v>-99999</v>
+        <v>20</v>
       </c>
       <c r="E178" t="n">
         <v>-99999</v>
@@ -7569,7 +7605,7 @@
         <v>-99999</v>
       </c>
       <c r="K178" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="L178" t="n">
         <v>2</v>
@@ -7609,7 +7645,7 @@
         <v>-99999</v>
       </c>
       <c r="K179" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L179" t="n">
         <v>2</v>
@@ -7698,23 +7734,23 @@
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>SC2307-2308</t>
+          <t>SA2405-2406</t>
         </is>
       </c>
       <c r="B182" t="n">
         <v>0</v>
       </c>
       <c r="C182" t="n">
-        <v>1</v>
+        <v>-50</v>
       </c>
       <c r="D182" t="n">
-        <v>-3.5</v>
+        <v>-99999</v>
       </c>
       <c r="E182" t="n">
-        <v>-3.5</v>
+        <v>-99999</v>
       </c>
       <c r="F182" t="n">
-        <v>-3.5</v>
+        <v>-99999</v>
       </c>
       <c r="G182" t="n">
         <v>-99999</v>
@@ -7729,7 +7765,7 @@
         <v>-99999</v>
       </c>
       <c r="K182" t="n">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="L182" t="n">
         <v>1</v>
@@ -7738,14 +7774,14 @@
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>SC2308-2309</t>
+          <t>SA2406-2407</t>
         </is>
       </c>
       <c r="B183" t="n">
         <v>0</v>
       </c>
       <c r="C183" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="D183" t="n">
         <v>-99999</v>
@@ -7769,7 +7805,7 @@
         <v>-99999</v>
       </c>
       <c r="K183" t="n">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="L183" t="n">
         <v>1</v>
@@ -7778,17 +7814,17 @@
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>SC2309-2308</t>
+          <t>SA2407-2408</t>
         </is>
       </c>
       <c r="B184" t="n">
         <v>0</v>
       </c>
       <c r="C184" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="D184" t="n">
-        <v>-99999</v>
+        <v>-100</v>
       </c>
       <c r="E184" t="n">
         <v>-99999</v>
@@ -7809,7 +7845,7 @@
         <v>-99999</v>
       </c>
       <c r="K184" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="L184" t="n">
         <v>1</v>
@@ -7818,17 +7854,17 @@
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>SC2309-2310</t>
+          <t>SC2310-2311</t>
         </is>
       </c>
       <c r="B185" t="n">
         <v>0</v>
       </c>
       <c r="C185" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D185" t="n">
-        <v>-1</v>
+        <v>-99999</v>
       </c>
       <c r="E185" t="n">
         <v>-99999</v>
@@ -7849,7 +7885,7 @@
         <v>-99999</v>
       </c>
       <c r="K185" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L185" t="n">
         <v>1</v>
@@ -7858,14 +7894,14 @@
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>SC2310-2309</t>
+          <t>SC2311-2312</t>
         </is>
       </c>
       <c r="B186" t="n">
         <v>0</v>
       </c>
       <c r="C186" t="n">
-        <v>-6</v>
+        <v>-2</v>
       </c>
       <c r="D186" t="n">
         <v>-99999</v>
@@ -7889,7 +7925,7 @@
         <v>-99999</v>
       </c>
       <c r="K186" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L186" t="n">
         <v>1</v>
@@ -7898,17 +7934,17 @@
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>SC2310-2311</t>
+          <t>SI2309-2310</t>
         </is>
       </c>
       <c r="B187" t="n">
         <v>0</v>
       </c>
       <c r="C187" t="n">
-        <v>-1</v>
+        <v>-80</v>
       </c>
       <c r="D187" t="n">
-        <v>-99999</v>
+        <v>-100</v>
       </c>
       <c r="E187" t="n">
         <v>-99999</v>
@@ -7929,7 +7965,7 @@
         <v>-99999</v>
       </c>
       <c r="K187" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="L187" t="n">
         <v>1</v>
@@ -7938,17 +7974,17 @@
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>SC2311-2312</t>
+          <t>SI2310-2311</t>
         </is>
       </c>
       <c r="B188" t="n">
         <v>0</v>
       </c>
       <c r="C188" t="n">
-        <v>-2</v>
+        <v>-60</v>
       </c>
       <c r="D188" t="n">
-        <v>-99999</v>
+        <v>-75</v>
       </c>
       <c r="E188" t="n">
         <v>-99999</v>
@@ -7969,7 +8005,7 @@
         <v>-99999</v>
       </c>
       <c r="K188" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="L188" t="n">
         <v>1</v>
@@ -7978,17 +8014,17 @@
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>SI2310-2311</t>
+          <t>SI2312-2401</t>
         </is>
       </c>
       <c r="B189" t="n">
         <v>0</v>
       </c>
       <c r="C189" t="n">
-        <v>-60</v>
+        <v>-65</v>
       </c>
       <c r="D189" t="n">
-        <v>-70</v>
+        <v>-80</v>
       </c>
       <c r="E189" t="n">
         <v>-99999</v>
@@ -8018,17 +8054,17 @@
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>SI2312-2401</t>
+          <t>SI2401-2402</t>
         </is>
       </c>
       <c r="B190" t="n">
         <v>0</v>
       </c>
       <c r="C190" t="n">
-        <v>-40</v>
+        <v>-65</v>
       </c>
       <c r="D190" t="n">
-        <v>-60</v>
+        <v>-80</v>
       </c>
       <c r="E190" t="n">
         <v>-99999</v>
@@ -8049,7 +8085,7 @@
         <v>-99999</v>
       </c>
       <c r="K190" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L190" t="n">
         <v>1</v>
@@ -8058,17 +8094,17 @@
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>SI2401-2402</t>
+          <t>SI2402-2403</t>
         </is>
       </c>
       <c r="B191" t="n">
         <v>0</v>
       </c>
       <c r="C191" t="n">
-        <v>-40</v>
+        <v>-65</v>
       </c>
       <c r="D191" t="n">
-        <v>-60</v>
+        <v>-80</v>
       </c>
       <c r="E191" t="n">
         <v>-99999</v>
@@ -8098,17 +8134,17 @@
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>SI2402-2403</t>
+          <t>SN2309-2310</t>
         </is>
       </c>
       <c r="B192" t="n">
         <v>0</v>
       </c>
       <c r="C192" t="n">
-        <v>-40</v>
+        <v>-99999</v>
       </c>
       <c r="D192" t="n">
-        <v>-60</v>
+        <v>-99999</v>
       </c>
       <c r="E192" t="n">
         <v>-99999</v>
@@ -8129,7 +8165,7 @@
         <v>-99999</v>
       </c>
       <c r="K192" t="n">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="L192" t="n">
         <v>1</v>
@@ -8138,29 +8174,41 @@
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>SN2308-2309</t>
+          <t>SN2310-2311</t>
         </is>
       </c>
       <c r="B193" t="n">
         <v>0</v>
       </c>
-      <c r="C193" t="n">
-        <v>-320</v>
-      </c>
-      <c r="D193" t="n">
-        <v>-320</v>
-      </c>
-      <c r="E193" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="F193" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="G193" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="H193" t="n">
-        <v>-99999</v>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>-200</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>-230</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>-250</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>-280</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>-300</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>-330</t>
+        </is>
       </c>
       <c r="I193" t="n">
         <v>-99999</v>
@@ -8168,8 +8216,10 @@
       <c r="J193" t="n">
         <v>-99999</v>
       </c>
-      <c r="K193" t="n">
-        <v>25</v>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
       </c>
       <c r="L193" t="n">
         <v>1</v>
@@ -8178,29 +8228,29 @@
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>SN2309-2310</t>
+          <t>SP2307-2308</t>
         </is>
       </c>
       <c r="B194" t="n">
         <v>0</v>
       </c>
       <c r="C194" t="n">
-        <v>-250</v>
+        <v>-40</v>
       </c>
       <c r="D194" t="n">
-        <v>-270</v>
+        <v>-40</v>
       </c>
       <c r="E194" t="n">
-        <v>-300</v>
+        <v>-99999</v>
       </c>
       <c r="F194" t="n">
-        <v>-330</v>
+        <v>-99999</v>
       </c>
       <c r="G194" t="n">
-        <v>-330</v>
+        <v>-99999</v>
       </c>
       <c r="H194" t="n">
-        <v>-330</v>
+        <v>-99999</v>
       </c>
       <c r="I194" t="n">
         <v>-99999</v>
@@ -8212,35 +8262,35 @@
         <v>30</v>
       </c>
       <c r="L194" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>SN2310-2311</t>
+          <t>SP2309-2310</t>
         </is>
       </c>
       <c r="B195" t="n">
         <v>0</v>
       </c>
       <c r="C195" t="n">
-        <v>-250</v>
+        <v>-38</v>
       </c>
       <c r="D195" t="n">
-        <v>-270</v>
+        <v>-99999</v>
       </c>
       <c r="E195" t="n">
-        <v>-300</v>
+        <v>-99999</v>
       </c>
       <c r="F195" t="n">
-        <v>-330</v>
+        <v>-99999</v>
       </c>
       <c r="G195" t="n">
-        <v>-330</v>
+        <v>-99999</v>
       </c>
       <c r="H195" t="n">
-        <v>-330</v>
+        <v>-99999</v>
       </c>
       <c r="I195" t="n">
         <v>-99999</v>
@@ -8249,23 +8299,23 @@
         <v>-99999</v>
       </c>
       <c r="K195" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="L195" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>SP2307-2308</t>
+          <t>SP2310-2311</t>
         </is>
       </c>
       <c r="B196" t="n">
         <v>0</v>
       </c>
       <c r="C196" t="n">
-        <v>-40</v>
+        <v>-26</v>
       </c>
       <c r="D196" t="n">
         <v>-40</v>
@@ -8298,14 +8348,14 @@
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>SP2309-2310</t>
+          <t>SP2311-2312</t>
         </is>
       </c>
       <c r="B197" t="n">
         <v>0</v>
       </c>
       <c r="C197" t="n">
-        <v>30</v>
+        <v>-30</v>
       </c>
       <c r="D197" t="n">
         <v>-40</v>
@@ -8329,7 +8379,7 @@
         <v>-99999</v>
       </c>
       <c r="K197" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="L197" t="n">
         <v>3</v>
@@ -8338,23 +8388,23 @@
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>SP2310-2311</t>
+          <t>SP2312-2401</t>
         </is>
       </c>
       <c r="B198" t="n">
         <v>0</v>
       </c>
       <c r="C198" t="n">
-        <v>-18</v>
+        <v>-230</v>
       </c>
       <c r="D198" t="n">
-        <v>-24</v>
+        <v>-99999</v>
       </c>
       <c r="E198" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="F198" t="n">
-        <v>-36</v>
+        <v>-99999</v>
       </c>
       <c r="G198" t="n">
         <v>-99999</v>
@@ -8369,32 +8419,32 @@
         <v>-99999</v>
       </c>
       <c r="K198" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="L198" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>SP2311-2312</t>
+          <t>SP2401-2402</t>
         </is>
       </c>
       <c r="B199" t="n">
         <v>0</v>
       </c>
       <c r="C199" t="n">
-        <v>-18</v>
+        <v>-24</v>
       </c>
       <c r="D199" t="n">
-        <v>-24</v>
+        <v>-99999</v>
       </c>
       <c r="E199" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="F199" t="n">
-        <v>-36</v>
+        <v>-99999</v>
       </c>
       <c r="G199" t="n">
         <v>-99999</v>
@@ -8409,7 +8459,7 @@
         <v>-99999</v>
       </c>
       <c r="K199" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="L199" t="n">
         <v>3</v>
@@ -8418,23 +8468,23 @@
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>SP2312-2401</t>
+          <t>SP2402-2403</t>
         </is>
       </c>
       <c r="B200" t="n">
         <v>0</v>
       </c>
       <c r="C200" t="n">
-        <v>-126</v>
+        <v>-24</v>
       </c>
       <c r="D200" t="n">
-        <v>-140</v>
+        <v>-32</v>
       </c>
       <c r="E200" t="n">
-        <v>-180</v>
+        <v>-99999</v>
       </c>
       <c r="F200" t="n">
-        <v>-210</v>
+        <v>-99999</v>
       </c>
       <c r="G200" t="n">
         <v>-99999</v>
@@ -8449,16 +8499,16 @@
         <v>-99999</v>
       </c>
       <c r="K200" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L200" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>SP2401-2402</t>
+          <t>SP2403-2404</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -8468,7 +8518,7 @@
         <v>-24</v>
       </c>
       <c r="D201" t="n">
-        <v>-99999</v>
+        <v>-32</v>
       </c>
       <c r="E201" t="n">
         <v>-99999</v>
@@ -8489,7 +8539,7 @@
         <v>-99999</v>
       </c>
       <c r="K201" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L201" t="n">
         <v>3</v>
@@ -8498,7 +8548,7 @@
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>SP2402-2403</t>
+          <t>SP2404-2405</t>
         </is>
       </c>
       <c r="B202" t="n">
@@ -8529,7 +8579,7 @@
         <v>-99999</v>
       </c>
       <c r="K202" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L202" t="n">
         <v>3</v>
@@ -8538,7 +8588,7 @@
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>SP2403-2404</t>
+          <t>SP2405-2406</t>
         </is>
       </c>
       <c r="B203" t="n">
@@ -8569,7 +8619,7 @@
         <v>-99999</v>
       </c>
       <c r="K203" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L203" t="n">
         <v>3</v>
@@ -8578,17 +8628,17 @@
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>SP2404-2405</t>
+          <t>SS2310-2311</t>
         </is>
       </c>
       <c r="B204" t="n">
         <v>0</v>
       </c>
       <c r="C204" t="n">
-        <v>-24</v>
+        <v>-15</v>
       </c>
       <c r="D204" t="n">
-        <v>-32</v>
+        <v>-99999</v>
       </c>
       <c r="E204" t="n">
         <v>-99999</v>
@@ -8609,26 +8659,26 @@
         <v>-99999</v>
       </c>
       <c r="K204" t="n">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="L204" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>SP2405-2406</t>
+          <t>TA2307-2308</t>
         </is>
       </c>
       <c r="B205" t="n">
         <v>0</v>
       </c>
       <c r="C205" t="n">
-        <v>-24</v>
+        <v>-99999</v>
       </c>
       <c r="D205" t="n">
-        <v>-32</v>
+        <v>-99999</v>
       </c>
       <c r="E205" t="n">
         <v>-99999</v>
@@ -8649,7 +8699,7 @@
         <v>-99999</v>
       </c>
       <c r="K205" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L205" t="n">
         <v>3</v>
@@ -8658,7 +8708,7 @@
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>TA2307-2308</t>
+          <t>TA2307-2309</t>
         </is>
       </c>
       <c r="B206" t="n">
@@ -8698,7 +8748,7 @@
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>TA2307-2309</t>
+          <t>TA2308-2309</t>
         </is>
       </c>
       <c r="B207" t="n">
@@ -8738,14 +8788,14 @@
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>TA2308-2309</t>
+          <t>TA2309-2310</t>
         </is>
       </c>
       <c r="B208" t="n">
         <v>0</v>
       </c>
       <c r="C208" t="n">
-        <v>-99999</v>
+        <v>-25</v>
       </c>
       <c r="D208" t="n">
         <v>-99999</v>
@@ -8769,7 +8819,7 @@
         <v>-99999</v>
       </c>
       <c r="K208" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="L208" t="n">
         <v>3</v>
@@ -8778,20 +8828,20 @@
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>TA2309-2310</t>
+          <t>TA2310-2311</t>
         </is>
       </c>
       <c r="B209" t="n">
         <v>0</v>
       </c>
       <c r="C209" t="n">
-        <v>-5</v>
+        <v>-99999</v>
       </c>
       <c r="D209" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="E209" t="n">
-        <v>-25</v>
+        <v>-99999</v>
       </c>
       <c r="F209" t="n">
         <v>-99999</v>
@@ -8809,7 +8859,7 @@
         <v>-99999</v>
       </c>
       <c r="K209" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="L209" t="n">
         <v>3</v>
@@ -8818,7 +8868,7 @@
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>TA2310-2311</t>
+          <t>TA2311-2312</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -8858,17 +8908,17 @@
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>TA2311-2312</t>
+          <t>TA2312-2401</t>
         </is>
       </c>
       <c r="B211" t="n">
         <v>0</v>
       </c>
       <c r="C211" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="D211" t="n">
-        <v>-99999</v>
+        <v>-25</v>
       </c>
       <c r="E211" t="n">
         <v>-99999</v>
@@ -8889,7 +8939,7 @@
         <v>-99999</v>
       </c>
       <c r="K211" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L211" t="n">
         <v>3</v>
@@ -8898,17 +8948,17 @@
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>TA2312-2401</t>
+          <t>TA2401-2402</t>
         </is>
       </c>
       <c r="B212" t="n">
         <v>0</v>
       </c>
       <c r="C212" t="n">
-        <v>-20</v>
+        <v>-25</v>
       </c>
       <c r="D212" t="n">
-        <v>-15</v>
+        <v>-30</v>
       </c>
       <c r="E212" t="n">
         <v>-99999</v>
@@ -8938,17 +8988,17 @@
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>TA2401-2402</t>
+          <t>TA2402-2403</t>
         </is>
       </c>
       <c r="B213" t="n">
         <v>0</v>
       </c>
       <c r="C213" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="D213" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="E213" t="n">
         <v>-99999</v>
@@ -8978,17 +9028,17 @@
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>TA2402-2403</t>
+          <t>TA2403-2404</t>
         </is>
       </c>
       <c r="B214" t="n">
         <v>0</v>
       </c>
       <c r="C214" t="n">
-        <v>-99999</v>
+        <v>-28</v>
       </c>
       <c r="D214" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="E214" t="n">
         <v>-99999</v>
@@ -9009,7 +9059,7 @@
         <v>-99999</v>
       </c>
       <c r="K214" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L214" t="n">
         <v>3</v>
@@ -9018,17 +9068,17 @@
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>TA2403-2404</t>
+          <t>UR2310-2311</t>
         </is>
       </c>
       <c r="B215" t="n">
         <v>0</v>
       </c>
       <c r="C215" t="n">
-        <v>-28</v>
+        <v>-35</v>
       </c>
       <c r="D215" t="n">
-        <v>-30</v>
+        <v>-45</v>
       </c>
       <c r="E215" t="n">
         <v>-99999</v>
@@ -9049,7 +9099,7 @@
         <v>-99999</v>
       </c>
       <c r="K215" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="L215" t="n">
         <v>3</v>
@@ -9058,17 +9108,17 @@
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>UR2310-2311</t>
+          <t>UR2311-2312</t>
         </is>
       </c>
       <c r="B216" t="n">
         <v>0</v>
       </c>
       <c r="C216" t="n">
-        <v>-35</v>
+        <v>5</v>
       </c>
       <c r="D216" t="n">
-        <v>-45</v>
+        <v>0</v>
       </c>
       <c r="E216" t="n">
         <v>-99999</v>
@@ -9089,7 +9139,7 @@
         <v>-99999</v>
       </c>
       <c r="K216" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L216" t="n">
         <v>3</v>
@@ -9098,7 +9148,7 @@
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>UR2311-2312</t>
+          <t>UR2312-2401</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -9129,7 +9179,7 @@
         <v>-99999</v>
       </c>
       <c r="K217" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L217" t="n">
         <v>3</v>
@@ -9138,17 +9188,17 @@
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>UR2312-2401</t>
+          <t>UR2401-2402</t>
         </is>
       </c>
       <c r="B218" t="n">
         <v>0</v>
       </c>
       <c r="C218" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D218" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="E218" t="n">
         <v>-99999</v>
@@ -9169,7 +9219,7 @@
         <v>-99999</v>
       </c>
       <c r="K218" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="L218" t="n">
         <v>3</v>
@@ -9178,14 +9228,14 @@
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>UR2401-2402</t>
+          <t>UR2402-2403</t>
         </is>
       </c>
       <c r="B219" t="n">
         <v>0</v>
       </c>
       <c r="C219" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="D219" t="n">
         <v>-99999</v>
@@ -9209,7 +9259,7 @@
         <v>-99999</v>
       </c>
       <c r="K219" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="L219" t="n">
         <v>3</v>
@@ -9218,17 +9268,17 @@
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>UR2402-2403</t>
+          <t>UR2403-2404</t>
         </is>
       </c>
       <c r="B220" t="n">
         <v>0</v>
       </c>
       <c r="C220" t="n">
-        <v>-50</v>
+        <v>5</v>
       </c>
       <c r="D220" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="E220" t="n">
         <v>-99999</v>
@@ -9249,7 +9299,7 @@
         <v>-99999</v>
       </c>
       <c r="K220" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="L220" t="n">
         <v>3</v>
@@ -9258,7 +9308,7 @@
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>UR2403-2404</t>
+          <t>UR2404-2405</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -9271,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="E221" t="n">
-        <v>-99999</v>
+        <v>-5</v>
       </c>
       <c r="F221" t="n">
         <v>-99999</v>
@@ -9289,7 +9339,7 @@
         <v>-99999</v>
       </c>
       <c r="K221" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="L221" t="n">
         <v>3</v>
@@ -9298,20 +9348,20 @@
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>UR2404-2405</t>
+          <t>V2308-2309</t>
         </is>
       </c>
       <c r="B222" t="n">
         <v>0</v>
       </c>
       <c r="C222" t="n">
-        <v>5</v>
+        <v>-99999</v>
       </c>
       <c r="D222" t="n">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="E222" t="n">
-        <v>-5</v>
+        <v>-99999</v>
       </c>
       <c r="F222" t="n">
         <v>-99999</v>
@@ -9329,7 +9379,7 @@
         <v>-99999</v>
       </c>
       <c r="K222" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L222" t="n">
         <v>3</v>
@@ -9338,14 +9388,14 @@
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>V2308-2309</t>
+          <t>V2309-2310</t>
         </is>
       </c>
       <c r="B223" t="n">
         <v>0</v>
       </c>
       <c r="C223" t="n">
-        <v>-99999</v>
+        <v>-12</v>
       </c>
       <c r="D223" t="n">
         <v>-99999</v>
@@ -9369,7 +9419,7 @@
         <v>-99999</v>
       </c>
       <c r="K223" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L223" t="n">
         <v>3</v>
@@ -9378,23 +9428,23 @@
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>V2309-2310</t>
+          <t>V2310-2311</t>
         </is>
       </c>
       <c r="B224" t="n">
         <v>0</v>
       </c>
       <c r="C224" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="D224" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="E224" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="F224" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="G224" t="n">
         <v>-99999</v>
@@ -9409,38 +9459,38 @@
         <v>-99999</v>
       </c>
       <c r="K224" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="L224" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>V2310-2311</t>
+          <t>V2310-2401</t>
         </is>
       </c>
       <c r="B225" t="n">
         <v>0</v>
       </c>
       <c r="C225" t="n">
-        <v>-10</v>
+        <v>-45</v>
       </c>
       <c r="D225" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="E225" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="F225" t="n">
-        <v>-25</v>
+        <v>-99999</v>
       </c>
       <c r="G225" t="n">
-        <v>-28</v>
+        <v>-99999</v>
       </c>
       <c r="H225" t="n">
-        <v>-38</v>
+        <v>-99999</v>
       </c>
       <c r="I225" t="n">
         <v>-99999</v>
@@ -9449,10 +9499,10 @@
         <v>-99999</v>
       </c>
       <c r="K225" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="L225" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="226">
@@ -9468,19 +9518,19 @@
         <v>-10</v>
       </c>
       <c r="D226" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="E226" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="F226" t="n">
-        <v>-25</v>
+        <v>-99999</v>
       </c>
       <c r="G226" t="n">
-        <v>-28</v>
+        <v>-99999</v>
       </c>
       <c r="H226" t="n">
-        <v>-38</v>
+        <v>-99999</v>
       </c>
       <c r="I226" t="n">
         <v>-99999</v>
@@ -9508,19 +9558,19 @@
         <v>-10</v>
       </c>
       <c r="D227" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="E227" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="F227" t="n">
-        <v>-25</v>
+        <v>-99999</v>
       </c>
       <c r="G227" t="n">
-        <v>-28</v>
+        <v>-99999</v>
       </c>
       <c r="H227" t="n">
-        <v>-38</v>
+        <v>-99999</v>
       </c>
       <c r="I227" t="n">
         <v>-99999</v>
@@ -9545,13 +9595,13 @@
         <v>0</v>
       </c>
       <c r="C228" t="n">
-        <v>-3</v>
+        <v>-99999</v>
       </c>
       <c r="D228" t="n">
-        <v>-18</v>
+        <v>-99999</v>
       </c>
       <c r="E228" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="F228" t="n">
         <v>-99999</v>
@@ -9585,13 +9635,13 @@
         <v>0</v>
       </c>
       <c r="C229" t="n">
-        <v>-5</v>
+        <v>-99999</v>
       </c>
       <c r="D229" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="E229" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="F229" t="n">
         <v>-99999</v>
@@ -9603,7 +9653,7 @@
         <v>-99999</v>
       </c>
       <c r="I229" t="n">
-        <v>-35</v>
+        <v>-99999</v>
       </c>
       <c r="J229" t="n">
         <v>-99999</v>
@@ -9625,25 +9675,25 @@
         <v>0</v>
       </c>
       <c r="C230" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="D230" t="n">
-        <v>-36</v>
+        <v>-99999</v>
       </c>
       <c r="E230" t="n">
-        <v>-40</v>
+        <v>-99999</v>
       </c>
       <c r="F230" t="n">
-        <v>-44</v>
+        <v>-99999</v>
       </c>
       <c r="G230" t="n">
-        <v>-48</v>
+        <v>-99999</v>
       </c>
       <c r="H230" t="n">
-        <v>-52</v>
+        <v>-99999</v>
       </c>
       <c r="I230" t="n">
-        <v>-52</v>
+        <v>-99999</v>
       </c>
       <c r="J230" t="n">
         <v>-99999</v>
@@ -9652,7 +9702,7 @@
         <v>8</v>
       </c>
       <c r="L230" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231">
@@ -9665,19 +9715,19 @@
         <v>0</v>
       </c>
       <c r="C231" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="D231" t="n">
-        <v>-22</v>
+        <v>-99999</v>
       </c>
       <c r="E231" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="F231" t="n">
-        <v>-35</v>
+        <v>-99999</v>
       </c>
       <c r="G231" t="n">
-        <v>-40</v>
+        <v>-99999</v>
       </c>
       <c r="H231" t="n">
         <v>-99999</v>
@@ -9705,16 +9755,16 @@
         <v>0</v>
       </c>
       <c r="C232" t="n">
-        <v>-7</v>
+        <v>-99999</v>
       </c>
       <c r="D232" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="E232" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="F232" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="G232" t="n">
         <v>-99999</v>
@@ -9745,16 +9795,16 @@
         <v>0</v>
       </c>
       <c r="C233" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="D233" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="E233" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="F233" t="n">
-        <v>-15</v>
+        <v>-99999</v>
       </c>
       <c r="G233" t="n">
         <v>-99999</v>
@@ -9978,20 +10028,20 @@
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
         <is>
-          <t>Y2405-2407</t>
+          <t>Y2401-2403</t>
         </is>
       </c>
       <c r="B239" t="n">
         <v>0</v>
       </c>
       <c r="C239" t="n">
-        <v>10</v>
+        <v>-99999</v>
       </c>
       <c r="D239" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="E239" t="n">
-        <v>-32</v>
+        <v>-99999</v>
       </c>
       <c r="F239" t="n">
         <v>-99999</v>
@@ -10009,7 +10059,7 @@
         <v>-99999</v>
       </c>
       <c r="K239" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="L239" t="n">
         <v>2</v>
@@ -10018,20 +10068,20 @@
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
         <is>
-          <t>SI2309-2310</t>
+          <t>Y2405-2407</t>
         </is>
       </c>
       <c r="B240" t="n">
         <v>0</v>
       </c>
       <c r="C240" t="n">
-        <v>-80</v>
+        <v>10</v>
       </c>
       <c r="D240" t="n">
-        <v>-100</v>
+        <v>-30</v>
       </c>
       <c r="E240" t="n">
-        <v>-99999</v>
+        <v>-32</v>
       </c>
       <c r="F240" t="n">
         <v>-99999</v>
@@ -10049,10 +10099,50 @@
         <v>-99999</v>
       </c>
       <c r="K240" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="L240" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="inlineStr">
+        <is>
+          <t>Y2407-2408</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>0</v>
+      </c>
+      <c r="C241" t="n">
+        <v>-15</v>
+      </c>
+      <c r="D241" t="n">
+        <v>-20</v>
+      </c>
+      <c r="E241" t="n">
+        <v>-30</v>
+      </c>
+      <c r="F241" t="n">
+        <v>-40</v>
+      </c>
+      <c r="G241" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H241" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I241" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J241" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K241" t="n">
+        <v>60</v>
+      </c>
+      <c r="L241" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/info/region_info.xlsx
+++ b/info/region_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L241"/>
+  <dimension ref="A1:L242"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4208,10 +4208,8 @@
       <c r="J94" t="n">
         <v>-99999</v>
       </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
+      <c r="K94" t="n">
+        <v>30</v>
       </c>
       <c r="L94" t="n">
         <v>1</v>
@@ -4250,10 +4248,8 @@
       <c r="J95" t="n">
         <v>-99999</v>
       </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
+      <c r="K95" t="n">
+        <v>30</v>
       </c>
       <c r="L95" t="n">
         <v>1</v>
@@ -4274,10 +4270,8 @@
       <c r="D96" t="n">
         <v>-13</v>
       </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
+      <c r="E96" t="n">
+        <v>-14</v>
       </c>
       <c r="F96" t="n">
         <v>-99999</v>
@@ -4294,10 +4288,8 @@
       <c r="J96" t="n">
         <v>-99999</v>
       </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
+      <c r="K96" t="n">
+        <v>30</v>
       </c>
       <c r="L96" t="n">
         <v>1</v>
@@ -4316,25 +4308,19 @@
         <v>-26</v>
       </c>
       <c r="D97" t="n">
-        <v>-26</v>
+        <v>-31</v>
       </c>
       <c r="E97" t="n">
-        <v>-27</v>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>-33</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>-33</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>-36</t>
-        </is>
+        <v>-33</v>
+      </c>
+      <c r="F97" t="n">
+        <v>-35</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-36</v>
+      </c>
+      <c r="H97" t="n">
+        <v>-38</v>
       </c>
       <c r="I97" t="n">
         <v>-99999</v>
@@ -4342,10 +4328,8 @@
       <c r="J97" t="n">
         <v>-99999</v>
       </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
+      <c r="K97" t="n">
+        <v>50</v>
       </c>
       <c r="L97" t="n">
         <v>1</v>
@@ -4360,10 +4344,8 @@
       <c r="B98" t="n">
         <v>0</v>
       </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>-28</t>
-        </is>
+      <c r="C98" t="n">
+        <v>-28</v>
       </c>
       <c r="D98" t="n">
         <v>-99999</v>
@@ -4386,10 +4368,8 @@
       <c r="J98" t="n">
         <v>-99999</v>
       </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
+      <c r="K98" t="n">
+        <v>30</v>
       </c>
       <c r="L98" t="n">
         <v>1</v>
@@ -4428,10 +4408,8 @@
       <c r="J99" t="n">
         <v>-99999</v>
       </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
+      <c r="K99" t="n">
+        <v>30</v>
       </c>
       <c r="L99" t="n">
         <v>1</v>
@@ -4446,15 +4424,11 @@
       <c r="B100" t="n">
         <v>0</v>
       </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>-20</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>-22</t>
-        </is>
+      <c r="C100" t="n">
+        <v>-20</v>
+      </c>
+      <c r="D100" t="n">
+        <v>-22</v>
       </c>
       <c r="E100" t="n">
         <v>-99999</v>
@@ -4474,10 +4448,8 @@
       <c r="J100" t="n">
         <v>-99999</v>
       </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
+      <c r="K100" t="n">
+        <v>30</v>
       </c>
       <c r="L100" t="n">
         <v>1</v>
@@ -4495,10 +4467,8 @@
       <c r="C101" t="n">
         <v>-24</v>
       </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>-99999</t>
-        </is>
+      <c r="D101" t="n">
+        <v>-99999</v>
       </c>
       <c r="E101" t="n">
         <v>-99999</v>
@@ -4518,10 +4488,8 @@
       <c r="J101" t="n">
         <v>-99999</v>
       </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
+      <c r="K101" t="n">
+        <v>30</v>
       </c>
       <c r="L101" t="n">
         <v>1</v>
@@ -4560,10 +4528,8 @@
       <c r="J102" t="n">
         <v>-99999</v>
       </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
+      <c r="K102" t="n">
+        <v>50</v>
       </c>
       <c r="L102" t="n">
         <v>1</v>
@@ -4602,10 +4568,8 @@
       <c r="J103" t="n">
         <v>-99999</v>
       </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
+      <c r="K103" t="n">
+        <v>100</v>
       </c>
       <c r="L103" t="n">
         <v>2</v>
@@ -4620,8 +4584,10 @@
       <c r="B104" t="n">
         <v>0</v>
       </c>
-      <c r="C104" t="n">
-        <v>-15</v>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="D104" t="n">
         <v>-99999</v>
@@ -4644,8 +4610,10 @@
       <c r="J104" t="n">
         <v>-99999</v>
       </c>
-      <c r="K104" t="n">
-        <v>15</v>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
       </c>
       <c r="L104" t="n">
         <v>2</v>
@@ -5165,7 +5133,7 @@
         <v>-99999</v>
       </c>
       <c r="K117" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="L117" t="n">
         <v>3</v>
@@ -6181,7 +6149,7 @@
         <v>0</v>
       </c>
       <c r="C143" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="D143" t="n">
         <v>-99999</v>
@@ -6205,7 +6173,7 @@
         <v>-99999</v>
       </c>
       <c r="K143" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="L143" t="n">
         <v>2</v>
@@ -8180,35 +8148,23 @@
       <c r="B193" t="n">
         <v>0</v>
       </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>-200</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>-230</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>-250</t>
-        </is>
-      </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>-280</t>
-        </is>
-      </c>
-      <c r="G193" t="inlineStr">
-        <is>
-          <t>-300</t>
-        </is>
-      </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>-330</t>
-        </is>
+      <c r="C193" t="n">
+        <v>-200</v>
+      </c>
+      <c r="D193" t="n">
+        <v>-230</v>
+      </c>
+      <c r="E193" t="n">
+        <v>-250</v>
+      </c>
+      <c r="F193" t="n">
+        <v>-280</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-300</v>
+      </c>
+      <c r="H193" t="n">
+        <v>-330</v>
       </c>
       <c r="I193" t="n">
         <v>-99999</v>
@@ -8216,10 +8172,8 @@
       <c r="J193" t="n">
         <v>-99999</v>
       </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
+      <c r="K193" t="n">
+        <v>40</v>
       </c>
       <c r="L193" t="n">
         <v>1</v>
@@ -9348,17 +9302,17 @@
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>V2308-2309</t>
+          <t>UR2406-2407</t>
         </is>
       </c>
       <c r="B222" t="n">
         <v>0</v>
       </c>
       <c r="C222" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="D222" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="E222" t="n">
         <v>-99999</v>
@@ -9379,23 +9333,23 @@
         <v>-99999</v>
       </c>
       <c r="K222" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L222" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>V2309-2310</t>
+          <t>V2308-2309</t>
         </is>
       </c>
       <c r="B223" t="n">
         <v>0</v>
       </c>
       <c r="C223" t="n">
-        <v>-12</v>
+        <v>-99999</v>
       </c>
       <c r="D223" t="n">
         <v>-99999</v>
@@ -9419,7 +9373,7 @@
         <v>-99999</v>
       </c>
       <c r="K223" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L223" t="n">
         <v>3</v>
@@ -9428,14 +9382,16 @@
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>V2310-2311</t>
+          <t>V2309-2310</t>
         </is>
       </c>
       <c r="B224" t="n">
         <v>0</v>
       </c>
-      <c r="C224" t="n">
-        <v>-10</v>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>-99999</t>
+        </is>
       </c>
       <c r="D224" t="n">
         <v>-99999</v>
@@ -9459,7 +9415,7 @@
         <v>-99999</v>
       </c>
       <c r="K224" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="L224" t="n">
         <v>3</v>
@@ -9468,14 +9424,14 @@
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>V2310-2401</t>
+          <t>V2310-2311</t>
         </is>
       </c>
       <c r="B225" t="n">
         <v>0</v>
       </c>
       <c r="C225" t="n">
-        <v>-45</v>
+        <v>-10</v>
       </c>
       <c r="D225" t="n">
         <v>-99999</v>
@@ -9499,7 +9455,7 @@
         <v>-99999</v>
       </c>
       <c r="K225" t="n">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="L225" t="n">
         <v>3</v>
@@ -9508,14 +9464,14 @@
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>V2311-2312</t>
+          <t>V2310-2401</t>
         </is>
       </c>
       <c r="B226" t="n">
         <v>0</v>
       </c>
       <c r="C226" t="n">
-        <v>-10</v>
+        <v>-45</v>
       </c>
       <c r="D226" t="n">
         <v>-99999</v>
@@ -9539,16 +9495,16 @@
         <v>-99999</v>
       </c>
       <c r="K226" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="L226" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>V2312-2401</t>
+          <t>V2311-2312</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -9588,14 +9544,14 @@
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>V2401-2402</t>
+          <t>V2312-2401</t>
         </is>
       </c>
       <c r="B228" t="n">
         <v>0</v>
       </c>
       <c r="C228" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="D228" t="n">
         <v>-99999</v>
@@ -9622,13 +9578,13 @@
         <v>30</v>
       </c>
       <c r="L228" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>V2402-2403</t>
+          <t>V2401-2402</t>
         </is>
       </c>
       <c r="B229" t="n">
@@ -9659,7 +9615,7 @@
         <v>-99999</v>
       </c>
       <c r="K229" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="L229" t="n">
         <v>3</v>
@@ -9668,14 +9624,14 @@
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>V2403-2404</t>
+          <t>V2402-2403</t>
         </is>
       </c>
       <c r="B230" t="n">
         <v>0</v>
       </c>
       <c r="C230" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="D230" t="n">
         <v>-99999</v>
@@ -9699,23 +9655,23 @@
         <v>-99999</v>
       </c>
       <c r="K230" t="n">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="L230" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>V2404-2405</t>
+          <t>V2403-2404</t>
         </is>
       </c>
       <c r="B231" t="n">
         <v>0</v>
       </c>
       <c r="C231" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="D231" t="n">
         <v>-99999</v>
@@ -9739,16 +9695,16 @@
         <v>-99999</v>
       </c>
       <c r="K231" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="L231" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>V2405-2406</t>
+          <t>V2404-2405</t>
         </is>
       </c>
       <c r="B232" t="n">
@@ -9782,13 +9738,13 @@
         <v>30</v>
       </c>
       <c r="L232" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>V2406-2407</t>
+          <t>V2405-2406</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -9828,7 +9784,7 @@
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>Y2307-2308</t>
+          <t>V2406-2407</t>
         </is>
       </c>
       <c r="B234" t="n">
@@ -9859,16 +9815,16 @@
         <v>-99999</v>
       </c>
       <c r="K234" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L234" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
         <is>
-          <t>Y2308-2309</t>
+          <t>Y2307-2308</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -9908,20 +9864,20 @@
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
         <is>
-          <t>Y2309-2311</t>
+          <t>Y2308-2309</t>
         </is>
       </c>
       <c r="B236" t="n">
         <v>0</v>
       </c>
       <c r="C236" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="D236" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="E236" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="F236" t="n">
         <v>-99999</v>
@@ -9939,7 +9895,7 @@
         <v>-99999</v>
       </c>
       <c r="K236" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="L236" t="n">
         <v>2</v>
@@ -9948,20 +9904,20 @@
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
         <is>
-          <t>Y2311-2312</t>
+          <t>Y2309-2311</t>
         </is>
       </c>
       <c r="B237" t="n">
         <v>0</v>
       </c>
       <c r="C237" t="n">
-        <v>-40</v>
+        <v>-10</v>
       </c>
       <c r="D237" t="n">
-        <v>-42</v>
+        <v>-20</v>
       </c>
       <c r="E237" t="n">
-        <v>-60</v>
+        <v>-30</v>
       </c>
       <c r="F237" t="n">
         <v>-99999</v>
@@ -9979,29 +9935,29 @@
         <v>-99999</v>
       </c>
       <c r="K237" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="L237" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
         <is>
-          <t>Y2312-2401</t>
+          <t>Y2311-2312</t>
         </is>
       </c>
       <c r="B238" t="n">
         <v>0</v>
       </c>
       <c r="C238" t="n">
-        <v>-99999</v>
+        <v>-40</v>
       </c>
       <c r="D238" t="n">
-        <v>-99999</v>
+        <v>-42</v>
       </c>
       <c r="E238" t="n">
-        <v>-99999</v>
+        <v>-60</v>
       </c>
       <c r="F238" t="n">
         <v>-99999</v>
@@ -10019,16 +9975,16 @@
         <v>-99999</v>
       </c>
       <c r="K238" t="n">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="L238" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
         <is>
-          <t>Y2401-2403</t>
+          <t>Y2312-2401</t>
         </is>
       </c>
       <c r="B239" t="n">
@@ -10059,7 +10015,7 @@
         <v>-99999</v>
       </c>
       <c r="K239" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="L239" t="n">
         <v>2</v>
@@ -10068,20 +10024,20 @@
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
         <is>
-          <t>Y2405-2407</t>
+          <t>Y2401-2403</t>
         </is>
       </c>
       <c r="B240" t="n">
         <v>0</v>
       </c>
       <c r="C240" t="n">
-        <v>10</v>
+        <v>-99999</v>
       </c>
       <c r="D240" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="E240" t="n">
-        <v>-32</v>
+        <v>-99999</v>
       </c>
       <c r="F240" t="n">
         <v>-99999</v>
@@ -10099,7 +10055,7 @@
         <v>-99999</v>
       </c>
       <c r="K240" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="L240" t="n">
         <v>2</v>
@@ -10108,40 +10064,80 @@
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
         <is>
+          <t>Y2405-2407</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>0</v>
+      </c>
+      <c r="C241" t="n">
+        <v>10</v>
+      </c>
+      <c r="D241" t="n">
+        <v>-30</v>
+      </c>
+      <c r="E241" t="n">
+        <v>-32</v>
+      </c>
+      <c r="F241" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="G241" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H241" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I241" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J241" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K241" t="n">
+        <v>30</v>
+      </c>
+      <c r="L241" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="inlineStr">
+        <is>
           <t>Y2407-2408</t>
         </is>
       </c>
-      <c r="B241" t="n">
-        <v>0</v>
-      </c>
-      <c r="C241" t="n">
+      <c r="B242" t="n">
+        <v>0</v>
+      </c>
+      <c r="C242" t="n">
         <v>-15</v>
       </c>
-      <c r="D241" t="n">
+      <c r="D242" t="n">
         <v>-20</v>
       </c>
-      <c r="E241" t="n">
+      <c r="E242" t="n">
         <v>-30</v>
       </c>
-      <c r="F241" t="n">
+      <c r="F242" t="n">
         <v>-40</v>
       </c>
-      <c r="G241" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="H241" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="I241" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="J241" t="n">
-        <v>-99999</v>
-      </c>
-      <c r="K241" t="n">
+      <c r="G242" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="H242" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="I242" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="J242" t="n">
+        <v>-99999</v>
+      </c>
+      <c r="K242" t="n">
         <v>60</v>
       </c>
-      <c r="L241" t="n">
+      <c r="L242" t="n">
         <v>2</v>
       </c>
     </row>

--- a/info/region_info.xlsx
+++ b/info/region_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L242"/>
+  <dimension ref="A1:L199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,17 +498,17 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>A2309-2311</t>
+          <t>A2311-2401</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>-99999</v>
       </c>
       <c r="D2" t="n">
-        <v>-5</v>
+        <v>-99999</v>
       </c>
       <c r="E2" t="n">
         <v>-99999</v>
@@ -529,29 +529,29 @@
         <v>-99999</v>
       </c>
       <c r="K2" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>A2311-2309</t>
+          <t>A2401-2403</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="E3" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="F3" t="n">
         <v>-99999</v>
@@ -569,7 +569,7 @@
         <v>-99999</v>
       </c>
       <c r="K3" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="L3" t="n">
         <v>3</v>
@@ -578,118 +578,118 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>A2311-2401</t>
+          <t>AG2310-2311</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>-99999</v>
+        <v>-14</v>
       </c>
       <c r="D4" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="E4" t="n">
-        <v>-99999</v>
+        <v>-16</v>
       </c>
       <c r="F4" t="n">
-        <v>-99999</v>
+        <v>-17</v>
       </c>
       <c r="G4" t="n">
-        <v>-99999</v>
+        <v>-17</v>
       </c>
       <c r="H4" t="n">
-        <v>-99999</v>
+        <v>-18</v>
       </c>
       <c r="I4" t="n">
-        <v>-99999</v>
+        <v>-19</v>
       </c>
       <c r="J4" t="n">
         <v>-99999</v>
       </c>
       <c r="K4" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>A2401-2403</t>
+          <t>AG2311-2312</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="D5" t="n">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="E5" t="n">
-        <v>-20</v>
+        <v>-16</v>
       </c>
       <c r="F5" t="n">
-        <v>-99999</v>
+        <v>-17</v>
       </c>
       <c r="G5" t="n">
-        <v>-99999</v>
+        <v>-17</v>
       </c>
       <c r="H5" t="n">
-        <v>-99999</v>
+        <v>-18</v>
       </c>
       <c r="I5" t="n">
-        <v>-99999</v>
+        <v>-19</v>
       </c>
       <c r="J5" t="n">
         <v>-99999</v>
       </c>
       <c r="K5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>AG2308-2311</t>
+          <t>AG2312-2401</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>-99999</v>
+        <v>-14</v>
       </c>
       <c r="D6" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="E6" t="n">
-        <v>-99999</v>
+        <v>-16</v>
       </c>
       <c r="F6" t="n">
-        <v>-99999</v>
+        <v>-17</v>
       </c>
       <c r="G6" t="n">
-        <v>-99999</v>
+        <v>-17</v>
       </c>
       <c r="H6" t="n">
-        <v>-99999</v>
+        <v>-18</v>
       </c>
       <c r="I6" t="n">
-        <v>-99999</v>
+        <v>-19</v>
       </c>
       <c r="J6" t="n">
         <v>-99999</v>
       </c>
       <c r="K6" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="L6" t="n">
         <v>1</v>
@@ -698,38 +698,38 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>AG2309-2310</t>
+          <t>AG2401-2402</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>-13</v>
+        <v>-14</v>
       </c>
       <c r="D7" t="n">
         <v>-15</v>
       </c>
       <c r="E7" t="n">
+        <v>-16</v>
+      </c>
+      <c r="F7" t="n">
         <v>-17</v>
       </c>
-      <c r="F7" t="n">
-        <v>-99999</v>
-      </c>
       <c r="G7" t="n">
-        <v>-99999</v>
+        <v>-17</v>
       </c>
       <c r="H7" t="n">
-        <v>-99999</v>
+        <v>-18</v>
       </c>
       <c r="I7" t="n">
-        <v>-99999</v>
+        <v>-19</v>
       </c>
       <c r="J7" t="n">
         <v>-99999</v>
       </c>
       <c r="K7" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="L7" t="n">
         <v>1</v>
@@ -738,32 +738,32 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>AG2309-2312</t>
+          <t>AG2402-2403</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>-99999</v>
+        <v>-14</v>
       </c>
       <c r="D8" t="n">
-        <v>-99999</v>
+        <v>-15</v>
       </c>
       <c r="E8" t="n">
-        <v>-99999</v>
+        <v>-16</v>
       </c>
       <c r="F8" t="n">
-        <v>-99999</v>
+        <v>-17</v>
       </c>
       <c r="G8" t="n">
-        <v>-99999</v>
+        <v>-17</v>
       </c>
       <c r="H8" t="n">
-        <v>-99999</v>
+        <v>-18</v>
       </c>
       <c r="I8" t="n">
-        <v>-99999</v>
+        <v>-19</v>
       </c>
       <c r="J8" t="n">
         <v>-99999</v>
@@ -772,13 +772,13 @@
         <v>17</v>
       </c>
       <c r="L8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AG2310-2311</t>
+          <t>AG2403-2404</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -818,7 +818,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AG2311-2312</t>
+          <t>AG2404-2405</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -858,7 +858,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>AG2312-2401</t>
+          <t>AG2405-2406</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -898,7 +898,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>AG2401-2402</t>
+          <t>AG2406-2407</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -929,7 +929,7 @@
         <v>-99999</v>
       </c>
       <c r="K12" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
@@ -938,38 +938,38 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>AG2402-2403</t>
+          <t>AL2310-2311</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>-14</v>
+        <v>-40</v>
       </c>
       <c r="D13" t="n">
-        <v>-15</v>
+        <v>-50</v>
       </c>
       <c r="E13" t="n">
-        <v>-16</v>
+        <v>-70</v>
       </c>
       <c r="F13" t="n">
-        <v>-17</v>
+        <v>-80</v>
       </c>
       <c r="G13" t="n">
-        <v>-17</v>
+        <v>-90</v>
       </c>
       <c r="H13" t="n">
-        <v>-18</v>
+        <v>-100</v>
       </c>
       <c r="I13" t="n">
-        <v>-19</v>
+        <v>-110</v>
       </c>
       <c r="J13" t="n">
-        <v>-99999</v>
+        <v>-120</v>
       </c>
       <c r="K13" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="L13" t="n">
         <v>1</v>
@@ -978,38 +978,38 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>AG2403-2404</t>
+          <t>AL2311-2312</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-14</v>
+        <v>-20</v>
       </c>
       <c r="D14" t="n">
-        <v>-15</v>
+        <v>-25</v>
       </c>
       <c r="E14" t="n">
-        <v>-16</v>
+        <v>-30</v>
       </c>
       <c r="F14" t="n">
-        <v>-17</v>
+        <v>-40</v>
       </c>
       <c r="G14" t="n">
-        <v>-17</v>
+        <v>-90</v>
       </c>
       <c r="H14" t="n">
-        <v>-18</v>
+        <v>-100</v>
       </c>
       <c r="I14" t="n">
-        <v>-19</v>
+        <v>-110</v>
       </c>
       <c r="J14" t="n">
-        <v>-99999</v>
+        <v>-120</v>
       </c>
       <c r="K14" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="L14" t="n">
         <v>1</v>
@@ -1018,38 +1018,38 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>AG2404-2405</t>
+          <t>AL2312-2401</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>-14</v>
+        <v>20</v>
       </c>
       <c r="D15" t="n">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>-16</v>
+        <v>-30</v>
       </c>
       <c r="F15" t="n">
-        <v>-17</v>
+        <v>-40</v>
       </c>
       <c r="G15" t="n">
-        <v>-17</v>
+        <v>-90</v>
       </c>
       <c r="H15" t="n">
-        <v>-18</v>
+        <v>-100</v>
       </c>
       <c r="I15" t="n">
-        <v>-19</v>
+        <v>-110</v>
       </c>
       <c r="J15" t="n">
-        <v>-99999</v>
+        <v>-120</v>
       </c>
       <c r="K15" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="L15" t="n">
         <v>1</v>
@@ -1058,38 +1058,38 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>AG2405-2406</t>
+          <t>AL2401-2402</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>-14</v>
+        <v>-20</v>
       </c>
       <c r="D16" t="n">
-        <v>-15</v>
+        <v>-40</v>
       </c>
       <c r="E16" t="n">
-        <v>-16</v>
+        <v>-60</v>
       </c>
       <c r="F16" t="n">
-        <v>-17</v>
+        <v>-100</v>
       </c>
       <c r="G16" t="n">
-        <v>-17</v>
+        <v>-120</v>
       </c>
       <c r="H16" t="n">
-        <v>-18</v>
+        <v>-99999</v>
       </c>
       <c r="I16" t="n">
-        <v>-19</v>
+        <v>-99999</v>
       </c>
       <c r="J16" t="n">
         <v>-99999</v>
       </c>
       <c r="K16" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="L16" t="n">
         <v>1</v>
@@ -1098,38 +1098,38 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>AG2406-2407</t>
+          <t>AL2402-2403</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-14</v>
+        <v>-40</v>
       </c>
       <c r="D17" t="n">
-        <v>-15</v>
+        <v>-50</v>
       </c>
       <c r="E17" t="n">
-        <v>-16</v>
+        <v>-60</v>
       </c>
       <c r="F17" t="n">
-        <v>-17</v>
+        <v>-100</v>
       </c>
       <c r="G17" t="n">
-        <v>-17</v>
+        <v>-120</v>
       </c>
       <c r="H17" t="n">
-        <v>-18</v>
+        <v>-99999</v>
       </c>
       <c r="I17" t="n">
-        <v>-19</v>
+        <v>-99999</v>
       </c>
       <c r="J17" t="n">
         <v>-99999</v>
       </c>
       <c r="K17" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L17" t="n">
         <v>1</v>
@@ -1138,38 +1138,38 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>AL2309-2310</t>
+          <t>AL2403-2404</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>-40</v>
+        <v>-50</v>
       </c>
       <c r="D18" t="n">
-        <v>-50</v>
+        <v>-75</v>
       </c>
       <c r="E18" t="n">
-        <v>-70</v>
+        <v>-100</v>
       </c>
       <c r="F18" t="n">
-        <v>-80</v>
+        <v>-120</v>
       </c>
       <c r="G18" t="n">
-        <v>-90</v>
+        <v>-99999</v>
       </c>
       <c r="H18" t="n">
-        <v>-100</v>
+        <v>-99999</v>
       </c>
       <c r="I18" t="n">
-        <v>-110</v>
+        <v>-99999</v>
       </c>
       <c r="J18" t="n">
-        <v>-120</v>
+        <v>-99999</v>
       </c>
       <c r="K18" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="L18" t="n">
         <v>1</v>
@@ -1178,38 +1178,38 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>AL2310-2311</t>
+          <t>AU2310-2312</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>-40</v>
+        <v>-1.24</v>
       </c>
       <c r="D19" t="n">
-        <v>-50</v>
+        <v>-1.28</v>
       </c>
       <c r="E19" t="n">
-        <v>-70</v>
+        <v>-1.32</v>
       </c>
       <c r="F19" t="n">
-        <v>-80</v>
+        <v>-1.34</v>
       </c>
       <c r="G19" t="n">
-        <v>-90</v>
+        <v>-1.36</v>
       </c>
       <c r="H19" t="n">
-        <v>-100</v>
+        <v>-1.42</v>
       </c>
       <c r="I19" t="n">
-        <v>-110</v>
+        <v>-1.56</v>
       </c>
       <c r="J19" t="n">
-        <v>-120</v>
+        <v>-1.56</v>
       </c>
       <c r="K19" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="L19" t="n">
         <v>1</v>
@@ -1218,38 +1218,38 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>AL2311-2312</t>
+          <t>AU2312-2402</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>-20</v>
+        <v>-1.24</v>
       </c>
       <c r="D20" t="n">
-        <v>-25</v>
+        <v>-1.28</v>
       </c>
       <c r="E20" t="n">
-        <v>-30</v>
+        <v>-1.32</v>
       </c>
       <c r="F20" t="n">
-        <v>-40</v>
+        <v>-1.34</v>
       </c>
       <c r="G20" t="n">
-        <v>-90</v>
+        <v>-1.36</v>
       </c>
       <c r="H20" t="n">
-        <v>-100</v>
+        <v>-1.42</v>
       </c>
       <c r="I20" t="n">
-        <v>-110</v>
+        <v>-1.56</v>
       </c>
       <c r="J20" t="n">
-        <v>-120</v>
+        <v>-1.56</v>
       </c>
       <c r="K20" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="L20" t="n">
         <v>1</v>
@@ -1258,35 +1258,35 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>AL2312-2401</t>
+          <t>AU2402-2404</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>20</v>
+        <v>-1.24</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>-1.28</v>
       </c>
       <c r="E21" t="n">
-        <v>-30</v>
+        <v>-1.32</v>
       </c>
       <c r="F21" t="n">
-        <v>-40</v>
+        <v>-1.34</v>
       </c>
       <c r="G21" t="n">
-        <v>-90</v>
+        <v>-1.36</v>
       </c>
       <c r="H21" t="n">
-        <v>-100</v>
+        <v>-1.42</v>
       </c>
       <c r="I21" t="n">
-        <v>-110</v>
+        <v>-1.56</v>
       </c>
       <c r="J21" t="n">
-        <v>-120</v>
+        <v>-1.56</v>
       </c>
       <c r="K21" t="n">
         <v>25</v>
@@ -1298,35 +1298,35 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>AL2401-2402</t>
+          <t>AU2404-2406</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>-20</v>
+        <v>-1.24</v>
       </c>
       <c r="D22" t="n">
-        <v>-40</v>
+        <v>-1.28</v>
       </c>
       <c r="E22" t="n">
-        <v>-60</v>
+        <v>-1.32</v>
       </c>
       <c r="F22" t="n">
-        <v>-100</v>
+        <v>-1.34</v>
       </c>
       <c r="G22" t="n">
-        <v>-120</v>
+        <v>-1.36</v>
       </c>
       <c r="H22" t="n">
-        <v>-99999</v>
+        <v>-1.42</v>
       </c>
       <c r="I22" t="n">
-        <v>-99999</v>
+        <v>-1.56</v>
       </c>
       <c r="J22" t="n">
-        <v>-99999</v>
+        <v>-1.56</v>
       </c>
       <c r="K22" t="n">
         <v>25</v>
@@ -1338,35 +1338,35 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>AL2402-2403</t>
+          <t>AU2406-2408</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>-40</v>
+        <v>-1.24</v>
       </c>
       <c r="D23" t="n">
-        <v>-50</v>
+        <v>-1.28</v>
       </c>
       <c r="E23" t="n">
-        <v>-60</v>
+        <v>-1.32</v>
       </c>
       <c r="F23" t="n">
-        <v>-100</v>
+        <v>-1.34</v>
       </c>
       <c r="G23" t="n">
-        <v>-120</v>
+        <v>-1.36</v>
       </c>
       <c r="H23" t="n">
-        <v>-99999</v>
+        <v>-1.42</v>
       </c>
       <c r="I23" t="n">
-        <v>-99999</v>
+        <v>-1.56</v>
       </c>
       <c r="J23" t="n">
-        <v>-99999</v>
+        <v>-1.56</v>
       </c>
       <c r="K23" t="n">
         <v>25</v>
@@ -1378,23 +1378,23 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>AL2403-2404</t>
+          <t>B2310-2311</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>-50</v>
+        <v>-99999</v>
       </c>
       <c r="D24" t="n">
-        <v>-75</v>
+        <v>-99999</v>
       </c>
       <c r="E24" t="n">
-        <v>-100</v>
+        <v>-99999</v>
       </c>
       <c r="F24" t="n">
-        <v>-120</v>
+        <v>-99999</v>
       </c>
       <c r="G24" t="n">
         <v>-99999</v>
@@ -1409,7 +1409,7 @@
         <v>-99999</v>
       </c>
       <c r="K24" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="L24" t="n">
         <v>1</v>
@@ -1418,38 +1418,38 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>AU2310-2312</t>
+          <t>BR2401-2402</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>-1.24</v>
+        <v>25</v>
       </c>
       <c r="D25" t="n">
-        <v>-1.28</v>
+        <v>15</v>
       </c>
       <c r="E25" t="n">
-        <v>-1.32</v>
+        <v>-5</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.34</v>
+        <v>-99999</v>
       </c>
       <c r="G25" t="n">
-        <v>-1.36</v>
+        <v>-99999</v>
       </c>
       <c r="H25" t="n">
-        <v>-1.42</v>
+        <v>-99999</v>
       </c>
       <c r="I25" t="n">
-        <v>-1.56</v>
+        <v>-99999</v>
       </c>
       <c r="J25" t="n">
-        <v>-1.56</v>
+        <v>-99999</v>
       </c>
       <c r="K25" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="L25" t="n">
         <v>1</v>
@@ -1458,38 +1458,38 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>AU2312-2402</t>
+          <t>BR2402-2403</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>-1.24</v>
+        <v>20</v>
       </c>
       <c r="D26" t="n">
-        <v>-1.28</v>
+        <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>-1.32</v>
+        <v>-5</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.34</v>
+        <v>-99999</v>
       </c>
       <c r="G26" t="n">
-        <v>-1.36</v>
+        <v>-99999</v>
       </c>
       <c r="H26" t="n">
-        <v>-1.42</v>
+        <v>-99999</v>
       </c>
       <c r="I26" t="n">
-        <v>-1.56</v>
+        <v>-99999</v>
       </c>
       <c r="J26" t="n">
-        <v>-1.56</v>
+        <v>-99999</v>
       </c>
       <c r="K26" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="L26" t="n">
         <v>1</v>
@@ -1498,38 +1498,38 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>AU2402-2404</t>
+          <t>BR2403-2404</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>-1.24</v>
+        <v>20</v>
       </c>
       <c r="D27" t="n">
-        <v>-1.28</v>
+        <v>10</v>
       </c>
       <c r="E27" t="n">
-        <v>-1.32</v>
+        <v>-5</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.34</v>
+        <v>-99999</v>
       </c>
       <c r="G27" t="n">
-        <v>-1.36</v>
+        <v>-99999</v>
       </c>
       <c r="H27" t="n">
-        <v>-1.42</v>
+        <v>-99999</v>
       </c>
       <c r="I27" t="n">
-        <v>-1.56</v>
+        <v>-99999</v>
       </c>
       <c r="J27" t="n">
-        <v>-1.56</v>
+        <v>-99999</v>
       </c>
       <c r="K27" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="L27" t="n">
         <v>1</v>
@@ -1538,38 +1538,38 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>AU2404-2406</t>
+          <t>BR2404-2405</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>-1.24</v>
+        <v>20</v>
       </c>
       <c r="D28" t="n">
-        <v>-1.28</v>
+        <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>-1.32</v>
+        <v>-5</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.34</v>
+        <v>-99999</v>
       </c>
       <c r="G28" t="n">
-        <v>-1.36</v>
+        <v>-99999</v>
       </c>
       <c r="H28" t="n">
-        <v>-1.42</v>
+        <v>-99999</v>
       </c>
       <c r="I28" t="n">
-        <v>-1.56</v>
+        <v>-99999</v>
       </c>
       <c r="J28" t="n">
-        <v>-1.56</v>
+        <v>-99999</v>
       </c>
       <c r="K28" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="L28" t="n">
         <v>1</v>
@@ -1578,38 +1578,38 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>AU2406-2408</t>
+          <t>BR2405-2406</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>-1.24</v>
+        <v>20</v>
       </c>
       <c r="D29" t="n">
-        <v>-1.28</v>
+        <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>-1.32</v>
+        <v>-5</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.34</v>
+        <v>-99999</v>
       </c>
       <c r="G29" t="n">
-        <v>-1.36</v>
+        <v>-99999</v>
       </c>
       <c r="H29" t="n">
-        <v>-1.42</v>
+        <v>-99999</v>
       </c>
       <c r="I29" t="n">
-        <v>-1.56</v>
+        <v>-99999</v>
       </c>
       <c r="J29" t="n">
-        <v>-1.56</v>
+        <v>-99999</v>
       </c>
       <c r="K29" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="L29" t="n">
         <v>1</v>
@@ -1618,26 +1618,26 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>B2309-2310</t>
+          <t>BU2310-2311</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>-99999</v>
+        <v>-5</v>
       </c>
       <c r="D30" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="E30" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="F30" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="G30" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="H30" t="n">
         <v>-99999</v>
@@ -1649,35 +1649,35 @@
         <v>-99999</v>
       </c>
       <c r="K30" t="n">
-        <v>170</v>
+        <v>30</v>
       </c>
       <c r="L30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>B2310-2311</t>
+          <t>BU2311-2312</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>-99999</v>
+        <v>-5</v>
       </c>
       <c r="D31" t="n">
-        <v>-99999</v>
+        <v>-10</v>
       </c>
       <c r="E31" t="n">
-        <v>-99999</v>
+        <v>-20</v>
       </c>
       <c r="F31" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="G31" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="H31" t="n">
         <v>-99999</v>
@@ -1689,7 +1689,7 @@
         <v>-99999</v>
       </c>
       <c r="K31" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="L31" t="n">
         <v>1</v>
@@ -1698,26 +1698,26 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>BR2401-2402</t>
+          <t>BU2312-2401</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>25</v>
+        <v>-5</v>
       </c>
       <c r="D32" t="n">
-        <v>15</v>
+        <v>-10</v>
       </c>
       <c r="E32" t="n">
-        <v>-5</v>
+        <v>-20</v>
       </c>
       <c r="F32" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="G32" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="H32" t="n">
         <v>-99999</v>
@@ -1729,7 +1729,7 @@
         <v>-99999</v>
       </c>
       <c r="K32" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="L32" t="n">
         <v>1</v>
@@ -1738,26 +1738,26 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>BR2402-2403</t>
+          <t>BU2401-2402</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>20</v>
+        <v>-5</v>
       </c>
       <c r="D33" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="E33" t="n">
-        <v>-5</v>
+        <v>-20</v>
       </c>
       <c r="F33" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="G33" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="H33" t="n">
         <v>-99999</v>
@@ -1769,7 +1769,7 @@
         <v>-99999</v>
       </c>
       <c r="K33" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="L33" t="n">
         <v>1</v>
@@ -1778,26 +1778,26 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>BR2403-2404</t>
+          <t>BU2402-2403</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>20</v>
+        <v>-5</v>
       </c>
       <c r="D34" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="E34" t="n">
-        <v>-5</v>
+        <v>-20</v>
       </c>
       <c r="F34" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="G34" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="H34" t="n">
         <v>-99999</v>
@@ -1809,7 +1809,7 @@
         <v>-99999</v>
       </c>
       <c r="K34" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="L34" t="n">
         <v>1</v>
@@ -1818,26 +1818,26 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>BR2404-2405</t>
+          <t>BU2403-2404</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>20</v>
+        <v>-5</v>
       </c>
       <c r="D35" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="E35" t="n">
-        <v>-5</v>
+        <v>-20</v>
       </c>
       <c r="F35" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="G35" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="H35" t="n">
         <v>-99999</v>
@@ -1849,7 +1849,7 @@
         <v>-99999</v>
       </c>
       <c r="K35" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="L35" t="n">
         <v>1</v>
@@ -1858,26 +1858,26 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>BR2405-2406</t>
+          <t>BU2404-2405</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>20</v>
+        <v>-5</v>
       </c>
       <c r="D36" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="E36" t="n">
-        <v>-5</v>
+        <v>-20</v>
       </c>
       <c r="F36" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="G36" t="n">
-        <v>-99999</v>
+        <v>-30</v>
       </c>
       <c r="H36" t="n">
         <v>-99999</v>
@@ -1889,7 +1889,7 @@
         <v>-99999</v>
       </c>
       <c r="K36" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="L36" t="n">
         <v>1</v>
@@ -1898,7 +1898,7 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>BU2309-2310</t>
+          <t>BU2405-2406</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1938,26 +1938,26 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>BU2310-2311</t>
+          <t>C2311-2401</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>-5</v>
+        <v>24</v>
       </c>
       <c r="D38" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="E38" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="F38" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="G38" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="H38" t="n">
         <v>-99999</v>
@@ -1969,35 +1969,35 @@
         <v>-99999</v>
       </c>
       <c r="K38" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>BU2311-2312</t>
+          <t>C2401-2403</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>-5</v>
+        <v>15</v>
       </c>
       <c r="D39" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="E39" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="F39" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="G39" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="H39" t="n">
         <v>-99999</v>
@@ -2009,35 +2009,35 @@
         <v>-99999</v>
       </c>
       <c r="K39" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="L39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>BU2312-2401</t>
+          <t>C2403-2405</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>-5</v>
+        <v>-55</v>
       </c>
       <c r="D40" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="E40" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="F40" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="G40" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="H40" t="n">
         <v>-99999</v>
@@ -2049,35 +2049,35 @@
         <v>-99999</v>
       </c>
       <c r="K40" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="L40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>BU2401-2402</t>
+          <t>CF2311-2401</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>-5</v>
+        <v>-99999</v>
       </c>
       <c r="D41" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="E41" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="F41" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="G41" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="H41" t="n">
         <v>-99999</v>
@@ -2089,35 +2089,35 @@
         <v>-99999</v>
       </c>
       <c r="K41" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="L41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>BU2402-2403</t>
+          <t>CS2311-2401</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>-5</v>
+        <v>-20</v>
       </c>
       <c r="D42" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="E42" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="F42" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="G42" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="H42" t="n">
         <v>-99999</v>
@@ -2129,7 +2129,7 @@
         <v>-99999</v>
       </c>
       <c r="K42" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="L42" t="n">
         <v>1</v>
@@ -2138,26 +2138,26 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>BU2403-2404</t>
+          <t>CS2403-2405</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>-5</v>
+        <v>-150</v>
       </c>
       <c r="D43" t="n">
-        <v>-10</v>
+        <v>-99999</v>
       </c>
       <c r="E43" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="F43" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="G43" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="H43" t="n">
         <v>-99999</v>
@@ -2169,7 +2169,7 @@
         <v>-99999</v>
       </c>
       <c r="K43" t="n">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="L43" t="n">
         <v>1</v>
@@ -2178,26 +2178,26 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>BU2404-2405</t>
+          <t>EG2310-2311</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>-5</v>
+        <v>-34</v>
       </c>
       <c r="D44" t="n">
-        <v>-10</v>
+        <v>-40</v>
       </c>
       <c r="E44" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="F44" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="G44" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="H44" t="n">
         <v>-99999</v>
@@ -2212,32 +2212,32 @@
         <v>30</v>
       </c>
       <c r="L44" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>BU2405-2406</t>
+          <t>EG2311-2312</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>-5</v>
+        <v>-32</v>
       </c>
       <c r="D45" t="n">
-        <v>-10</v>
+        <v>-40</v>
       </c>
       <c r="E45" t="n">
-        <v>-20</v>
+        <v>-99999</v>
       </c>
       <c r="F45" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="G45" t="n">
-        <v>-30</v>
+        <v>-99999</v>
       </c>
       <c r="H45" t="n">
         <v>-99999</v>
@@ -2249,26 +2249,26 @@
         <v>-99999</v>
       </c>
       <c r="K45" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L45" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>C2309-2311</t>
+          <t>EG2312-2401</t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>-99999</v>
+        <v>-32</v>
       </c>
       <c r="D46" t="n">
-        <v>-99999</v>
+        <v>-40</v>
       </c>
       <c r="E46" t="n">
         <v>-99999</v>
@@ -2289,26 +2289,26 @@
         <v>-99999</v>
       </c>
       <c r="K46" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>C2311-2309</t>
+          <t>EG2401-2402</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>-99999</v>
+        <v>-32</v>
       </c>
       <c r="D47" t="n">
-        <v>-99999</v>
+        <v>-40</v>
       </c>
       <c r="E47" t="n">
         <v>-99999</v>
@@ -2329,26 +2329,26 @@
         <v>-99999</v>
       </c>
       <c r="K47" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="L47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>C2311-2401</t>
+          <t>EG2402-2403</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>24</v>
+        <v>-32</v>
       </c>
       <c r="D48" t="n">
-        <v>-99999</v>
+        <v>-40</v>
       </c>
       <c r="E48" t="n">
         <v>-99999</v>
@@ -2372,20 +2372,20 @@
         <v>25</v>
       </c>
       <c r="L48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-       